--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -585,9 +585,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1042,10 +1042,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -1042,10 +1042,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="98">
   <si>
     <t>No</t>
   </si>
@@ -582,13 +582,6 @@
   </si>
   <si>
     <t>90代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1042,10 +1035,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3098,15 +3091,13 @@
       <c r="J50" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K50" s="6" t="s">
-        <v>98</v>
-      </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="18">
         <v>0</v>
       </c>
       <c r="N50" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" s="18"/>
     </row>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10230" windowHeight="7605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -1035,10 +1035,10 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$393</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$404</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="376">
   <si>
     <t>No</t>
   </si>
@@ -2215,16 +2215,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -2514,6 +2504,209 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2525,7 +2718,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2560,6 +2753,12 @@
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2662,7 +2861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2710,6 +2909,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2998,13 +3198,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O393"/>
+  <dimension ref="A1:O404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B332" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B332" sqref="B332"/>
+      <selection pane="bottomRight" activeCell="O404" sqref="A2:O404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -5459,15 +5659,13 @@
       <c r="J60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K60" s="23"/>
       <c r="L60" s="2"/>
       <c r="M60" s="9">
         <v>0</v>
       </c>
       <c r="N60" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" s="2"/>
     </row>
@@ -6967,15 +7165,13 @@
       <c r="J98" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="9">
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" s="2"/>
     </row>
@@ -7369,15 +7565,13 @@
       <c r="J108" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K108" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="9">
         <v>0</v>
       </c>
       <c r="N108" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" s="2"/>
     </row>
@@ -9318,15 +9512,13 @@
       <c r="J157" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K157" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2">
         <v>0</v>
       </c>
       <c r="N157" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O157" s="2"/>
     </row>
@@ -9796,15 +9988,13 @@
       <c r="J169" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="K169" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K169" s="2"/>
       <c r="L169" s="2"/>
       <c r="M169" s="2">
         <v>0</v>
       </c>
       <c r="N169" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O169" s="2"/>
     </row>
@@ -9878,15 +10068,13 @@
       <c r="J171" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K171" s="2" t="s">
-        <v>184</v>
-      </c>
+      <c r="K171" s="2"/>
       <c r="L171" s="2"/>
       <c r="M171" s="2">
         <v>0</v>
       </c>
       <c r="N171" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O171" s="2"/>
     </row>
@@ -10758,15 +10946,13 @@
       <c r="J193" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K193" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K193" s="2"/>
       <c r="L193" s="2"/>
       <c r="M193" s="2">
         <v>0</v>
       </c>
       <c r="N193" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O193" s="2"/>
     </row>
@@ -10878,14 +11064,14 @@
         <v>245</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>144</v>
+        <v>351</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
         <v>0</v>
       </c>
       <c r="N196" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O196" s="2"/>
     </row>
@@ -11753,15 +11939,13 @@
       <c r="J218" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K218" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K218" s="2"/>
       <c r="L218" s="2"/>
       <c r="M218" s="2">
         <v>0</v>
       </c>
       <c r="N218" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O218" s="2"/>
     </row>
@@ -12190,15 +12374,13 @@
       <c r="J229" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K229" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K229" s="2"/>
       <c r="L229" s="2"/>
       <c r="M229" s="2">
         <v>0</v>
       </c>
       <c r="N229" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O229" s="2"/>
     </row>
@@ -12350,15 +12532,13 @@
       <c r="J233" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K233" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K233" s="2"/>
       <c r="L233" s="2"/>
       <c r="M233" s="2">
         <v>0</v>
       </c>
       <c r="N233" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O233" s="2"/>
     </row>
@@ -12549,15 +12729,13 @@
       <c r="J238" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K238" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K238" s="2"/>
       <c r="L238" s="2"/>
       <c r="M238" s="2">
         <v>0</v>
       </c>
       <c r="N238" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O238" s="2"/>
     </row>
@@ -13072,13 +13250,15 @@
       <c r="J251" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="K251" s="2"/>
+      <c r="K251" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
       </c>
       <c r="N251" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O251" s="2"/>
     </row>
@@ -13111,15 +13291,13 @@
       <c r="J252" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="K252" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K252" s="2"/>
       <c r="L252" s="2"/>
       <c r="M252" s="2">
         <v>0</v>
       </c>
       <c r="N252" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O252" s="2"/>
     </row>
@@ -14178,15 +14356,13 @@
       <c r="J279" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="K279" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K279" s="2"/>
       <c r="L279" s="2"/>
       <c r="M279" s="2">
         <v>0</v>
       </c>
       <c r="N279" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O279" s="2"/>
     </row>
@@ -14379,15 +14555,13 @@
       <c r="J284" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="K284" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2">
         <v>0</v>
       </c>
       <c r="N284" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O284" s="2"/>
     </row>
@@ -14539,15 +14713,13 @@
       <c r="J288" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="K288" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2">
         <v>0</v>
       </c>
       <c r="N288" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O288" s="2"/>
     </row>
@@ -14821,7 +14993,7 @@
         <v>239</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15530,15 +15702,13 @@
         <v>132</v>
       </c>
       <c r="J313" s="3"/>
-      <c r="K313" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K313" s="2"/>
       <c r="L313" s="2"/>
       <c r="M313" s="2">
         <v>0</v>
       </c>
       <c r="N313" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O313" s="2"/>
     </row>
@@ -15614,15 +15784,13 @@
       <c r="J315" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K315" s="2" t="s">
-        <v>271</v>
-      </c>
+      <c r="K315" s="2"/>
       <c r="L315" s="2"/>
       <c r="M315" s="2">
         <v>0</v>
       </c>
       <c r="N315" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O315" s="2"/>
     </row>
@@ -15739,15 +15907,13 @@
       <c r="J318" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K318" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K318" s="2"/>
       <c r="L318" s="2"/>
       <c r="M318" s="2">
         <v>0</v>
       </c>
       <c r="N318" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O318" s="2"/>
     </row>
@@ -15907,15 +16073,13 @@
       <c r="J322" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K322" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K322" s="2"/>
       <c r="L322" s="2"/>
       <c r="M322" s="2">
         <v>0</v>
       </c>
       <c r="N322" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O322" s="2"/>
     </row>
@@ -16485,15 +16649,13 @@
       <c r="J336" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K336" s="2" t="s">
-        <v>314</v>
-      </c>
+      <c r="K336" s="2"/>
       <c r="L336" s="2"/>
       <c r="M336" s="2">
         <v>0</v>
       </c>
       <c r="N336" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O336" s="2"/>
     </row>
@@ -16526,15 +16688,13 @@
       <c r="J337" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="K337" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K337" s="2"/>
       <c r="L337" s="2"/>
       <c r="M337" s="2">
         <v>0</v>
       </c>
       <c r="N337" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O337" s="2"/>
     </row>
@@ -16774,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="N343" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O343" s="2"/>
     </row>
@@ -16849,7 +17009,7 @@
         <v>140</v>
       </c>
       <c r="K345" s="2" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="L345" s="2"/>
       <c r="M345" s="2">
@@ -16890,7 +17050,7 @@
         <v>140</v>
       </c>
       <c r="K346" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
@@ -17011,7 +17171,7 @@
         <v>302</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -17052,7 +17212,7 @@
         <v>300</v>
       </c>
       <c r="K350" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L350" s="2"/>
       <c r="M350" s="2">
@@ -17094,15 +17254,13 @@
       <c r="J351" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="K351" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="K351" s="2"/>
       <c r="L351" s="2"/>
       <c r="M351" s="2">
         <v>0</v>
       </c>
       <c r="N351" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O351" s="2"/>
     </row>
@@ -17137,15 +17295,13 @@
       <c r="J352" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K352" s="2" t="s">
-        <v>313</v>
-      </c>
+      <c r="K352" s="2"/>
       <c r="L352" s="2"/>
       <c r="M352" s="2">
         <v>0</v>
       </c>
       <c r="N352" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O352" s="2"/>
     </row>
@@ -17220,7 +17376,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17262,7 +17418,9 @@
       <c r="J355" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K355" s="2"/>
+      <c r="K355" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L355" s="2"/>
       <c r="M355" s="2">
         <v>0</v>
@@ -17302,7 +17460,7 @@
         <v>309</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17343,7 +17501,7 @@
         <v>310</v>
       </c>
       <c r="K357" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L357" s="2"/>
       <c r="M357" s="2">
@@ -17413,10 +17571,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>317</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17456,7 +17614,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17467,7 +17625,9 @@
       <c r="J360" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K360" s="2"/>
+      <c r="K360" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L360" s="2"/>
       <c r="M360" s="2">
         <v>0</v>
@@ -17506,7 +17666,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17547,9 +17707,11 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="K362" s="2"/>
+        <v>323</v>
+      </c>
+      <c r="K362" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L362" s="2"/>
       <c r="M362" s="2">
         <v>0</v>
@@ -17580,13 +17742,13 @@
         <v>216</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>182</v>
@@ -17621,16 +17783,16 @@
         <v>192</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
@@ -17662,16 +17824,16 @@
         <v>192</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L365" s="2"/>
       <c r="M365" s="2">
@@ -17703,13 +17865,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -17750,9 +17912,11 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="K367" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="K367" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L367" s="2"/>
       <c r="M367" s="2">
         <v>0</v>
@@ -17782,7 +17946,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -17825,7 +17989,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -17836,7 +18000,9 @@
       <c r="J369" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K369" s="2"/>
+      <c r="K369" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L369" s="2"/>
       <c r="M369" s="2">
         <v>0</v>
@@ -17878,7 +18044,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -17921,7 +18087,7 @@
         <v>38</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L371" s="2"/>
       <c r="M371" s="2">
@@ -17952,7 +18118,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -17963,7 +18129,9 @@
       <c r="J372" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K372" s="2"/>
+      <c r="K372" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L372" s="2"/>
       <c r="M372" s="2">
         <v>0</v>
@@ -17991,10 +18159,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18033,7 +18201,7 @@
         <v>222</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18069,7 +18237,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18110,7 +18278,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18153,18 +18321,20 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K377" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K377" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
         <v>0</v>
@@ -18194,18 +18364,20 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K378" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K378" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L378" s="2"/>
       <c r="M378" s="2">
         <v>0</v>
@@ -18235,7 +18407,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18244,9 +18416,11 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K379" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="K379" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L379" s="2"/>
       <c r="M379" s="2">
         <v>0</v>
@@ -18276,18 +18450,20 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K380" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="K380" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L380" s="2"/>
       <c r="M380" s="2">
         <v>0</v>
@@ -18308,7 +18484,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18323,12 +18499,14 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="K381" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="K381" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L381" s="2"/>
       <c r="M381" s="2">
         <v>0</v>
@@ -18349,7 +18527,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18364,12 +18542,14 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K382" s="2"/>
+      <c r="K382" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L382" s="2"/>
       <c r="M382" s="2">
         <v>0</v>
@@ -18390,7 +18570,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18405,12 +18585,14 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="K383" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="K383" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L383" s="2"/>
       <c r="M383" s="2">
         <v>0</v>
@@ -18438,7 +18620,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18447,7 +18629,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -18477,7 +18659,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18486,9 +18668,11 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="K385" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="K385" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L385" s="2"/>
       <c r="M385" s="2">
         <v>0</v>
@@ -18516,7 +18700,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18525,7 +18709,7 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K386" s="2" t="s">
         <v>144</v>
@@ -18557,7 +18741,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -18566,7 +18750,7 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
@@ -18598,16 +18782,20 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J388" s="3"/>
-      <c r="K388" s="2"/>
+      <c r="J388" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K388" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L388" s="2"/>
       <c r="M388" s="2">
         <v>0</v>
@@ -18628,7 +18816,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -18643,10 +18831,14 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J389" s="3"/>
-      <c r="K389" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="J389" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="K389" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
         <v>0</v>
@@ -18667,7 +18859,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -18682,10 +18874,14 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="J390" s="3"/>
-      <c r="K390" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="J390" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="K390" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
         <v>0</v>
@@ -18706,7 +18902,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -18721,10 +18917,14 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J391" s="3"/>
-      <c r="K391" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="J391" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="K391" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L391" s="2"/>
       <c r="M391" s="2">
         <v>0</v>
@@ -18747,14 +18947,24 @@
       <c r="D392" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E392" s="10"/>
+      <c r="E392" s="10">
+        <v>44057</v>
+      </c>
       <c r="F392" s="10">
         <v>44057</v>
       </c>
-      <c r="G392" s="2"/>
-      <c r="H392" s="2"/>
-      <c r="I392" s="2"/>
-      <c r="J392" s="3"/>
+      <c r="G392" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J392" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
       <c r="M392" s="2">
@@ -18778,14 +18988,24 @@
       <c r="D393" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E393" s="10"/>
+      <c r="E393" s="10">
+        <v>44057</v>
+      </c>
       <c r="F393" s="10">
         <v>44057</v>
       </c>
-      <c r="G393" s="2"/>
-      <c r="H393" s="2"/>
-      <c r="I393" s="2"/>
-      <c r="J393" s="3"/>
+      <c r="G393" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="H393" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="I393" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J393" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
@@ -18796,8 +19016,459 @@
       </c>
       <c r="O393" s="2"/>
     </row>
+    <row r="394" spans="1:15">
+      <c r="A394" s="2">
+        <v>393</v>
+      </c>
+      <c r="B394" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D394" s="2"/>
+      <c r="E394" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F394" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G394" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J394" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K394" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L394" s="2"/>
+      <c r="M394" s="2">
+        <v>0</v>
+      </c>
+      <c r="N394" s="2">
+        <v>0</v>
+      </c>
+      <c r="O394" s="2"/>
+    </row>
+    <row r="395" spans="1:15">
+      <c r="A395" s="2">
+        <v>394</v>
+      </c>
+      <c r="B395" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D395" s="2"/>
+      <c r="E395" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F395" s="10">
+        <v>44057</v>
+      </c>
+      <c r="G395" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H395" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I395" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J395" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="K395" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="L395" s="2"/>
+      <c r="M395" s="2">
+        <v>0</v>
+      </c>
+      <c r="N395" s="2">
+        <v>0</v>
+      </c>
+      <c r="O395" s="2"/>
+    </row>
+    <row r="396" spans="1:15">
+      <c r="A396" s="2">
+        <v>395</v>
+      </c>
+      <c r="B396" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E396" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F396" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G396" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H396" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I396" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="J396" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K396" s="2"/>
+      <c r="L396" s="2"/>
+      <c r="M396" s="2">
+        <v>0</v>
+      </c>
+      <c r="N396" s="2">
+        <v>0</v>
+      </c>
+      <c r="O396" s="2"/>
+    </row>
+    <row r="397" spans="1:15">
+      <c r="A397" s="2">
+        <v>396</v>
+      </c>
+      <c r="B397" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E397" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F397" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G397" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H397" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="I397" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="J397" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K397" s="2"/>
+      <c r="L397" s="2"/>
+      <c r="M397" s="2">
+        <v>0</v>
+      </c>
+      <c r="N397" s="2">
+        <v>0</v>
+      </c>
+      <c r="O397" s="2"/>
+    </row>
+    <row r="398" spans="1:15">
+      <c r="A398" s="2">
+        <v>397</v>
+      </c>
+      <c r="B398" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E398" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F398" s="10">
+        <v>44058</v>
+      </c>
+      <c r="G398" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H398" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="I398" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="J398" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K398" s="4"/>
+      <c r="L398" s="4"/>
+      <c r="M398" s="4">
+        <v>0</v>
+      </c>
+      <c r="N398" s="4">
+        <v>0</v>
+      </c>
+      <c r="O398" s="4"/>
+    </row>
+    <row r="399" spans="1:15">
+      <c r="A399" s="2">
+        <v>398</v>
+      </c>
+      <c r="B399" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E399" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F399" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H399" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I399" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J399" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K399" s="2"/>
+      <c r="L399" s="2"/>
+      <c r="M399" s="4">
+        <v>0</v>
+      </c>
+      <c r="N399" s="4">
+        <v>0</v>
+      </c>
+      <c r="O399" s="2"/>
+    </row>
+    <row r="400" spans="1:15">
+      <c r="A400" s="2">
+        <v>399</v>
+      </c>
+      <c r="B400" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E400" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F400" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G400" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I400" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J400" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K400" s="2"/>
+      <c r="L400" s="2"/>
+      <c r="M400" s="4">
+        <v>0</v>
+      </c>
+      <c r="N400" s="4">
+        <v>0</v>
+      </c>
+      <c r="O400" s="2"/>
+    </row>
+    <row r="401" spans="1:15">
+      <c r="A401" s="2">
+        <v>400</v>
+      </c>
+      <c r="B401" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E401" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F401" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G401" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H401" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I401" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J401" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K401" s="2"/>
+      <c r="L401" s="2"/>
+      <c r="M401" s="4">
+        <v>0</v>
+      </c>
+      <c r="N401" s="4">
+        <v>0</v>
+      </c>
+      <c r="O401" s="2"/>
+    </row>
+    <row r="402" spans="1:15">
+      <c r="A402" s="2">
+        <v>401</v>
+      </c>
+      <c r="B402" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E402" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F402" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G402" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H402" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I402" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J402" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K402" s="2"/>
+      <c r="L402" s="2"/>
+      <c r="M402" s="4">
+        <v>0</v>
+      </c>
+      <c r="N402" s="4">
+        <v>0</v>
+      </c>
+      <c r="O402" s="2"/>
+    </row>
+    <row r="403" spans="1:15">
+      <c r="A403" s="2">
+        <v>402</v>
+      </c>
+      <c r="B403" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E403" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F403" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G403" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="H403" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I403" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J403" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K403" s="2"/>
+      <c r="L403" s="2"/>
+      <c r="M403" s="4">
+        <v>0</v>
+      </c>
+      <c r="N403" s="4">
+        <v>0</v>
+      </c>
+      <c r="O403" s="2"/>
+    </row>
+    <row r="404" spans="1:15">
+      <c r="A404" s="2">
+        <v>403</v>
+      </c>
+      <c r="B404" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E404" s="10">
+        <v>44058</v>
+      </c>
+      <c r="F404" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G404" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H404" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I404" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J404" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="K404" s="2"/>
+      <c r="L404" s="2"/>
+      <c r="M404" s="2">
+        <v>0</v>
+      </c>
+      <c r="N404" s="2">
+        <v>0</v>
+      </c>
+      <c r="O404" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O393"/>
+  <autoFilter ref="A1:O404"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$404</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$416</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2270" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2338" uniqueCount="406">
   <si>
     <t>No</t>
   </si>
@@ -1193,1520 +1193,1754 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>兵庫県</t>
+    <rPh sb="0" eb="3">
+      <t>ヒョウゴケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大津町</t>
+    <rPh sb="0" eb="3">
+      <t>オオヅマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人吉市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトヨシシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医師</t>
+    <rPh sb="0" eb="2">
+      <t>イシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務員</t>
+    <rPh sb="0" eb="3">
+      <t>コウムイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス運転手</t>
+    <rPh sb="2" eb="5">
+      <t>ウンテンシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>理学療法士</t>
+    <rPh sb="0" eb="2">
+      <t>リガク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>リョウホウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療機関職員</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学童保育指導員</t>
+    <rPh sb="0" eb="2">
+      <t>ガクドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シドウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主婦</t>
+    <rPh sb="0" eb="2">
+      <t>シュフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="4">
+      <t>シセツショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人吉市</t>
+    <rPh sb="0" eb="3">
+      <t>ヒトヨシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公務員（非常勤職員）</t>
+    <rPh sb="0" eb="3">
+      <t>コウムイン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒジョウキン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池保健所管内</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ホケンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南小国町</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミオグニマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市</t>
+    <rPh sb="0" eb="4">
+      <t>カミアマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="3">
+      <t>チュウトウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中等症</t>
     <rPh sb="0" eb="2">
       <t>チュウトウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>兵庫県</t>
-    <rPh sb="0" eb="3">
-      <t>ヒョウゴケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大津町</t>
-    <rPh sb="0" eb="3">
-      <t>オオヅマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>人吉市</t>
-    <rPh sb="0" eb="3">
-      <t>ヒトヨシシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>カンナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医師</t>
-    <rPh sb="0" eb="2">
-      <t>イシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>パート従業員</t>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公務員</t>
-    <rPh sb="0" eb="3">
-      <t>コウムイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バス運転手</t>
-    <rPh sb="2" eb="5">
-      <t>ウンテンシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設職員</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>理学療法士</t>
-    <rPh sb="0" eb="2">
-      <t>リガク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>リョウホウシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療機関職員</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学生</t>
-    <rPh sb="0" eb="3">
-      <t>ダイガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学童保育指導員</t>
-    <rPh sb="0" eb="2">
-      <t>ガクドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シドウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自衛隊員</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイタイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>主婦</t>
-    <rPh sb="0" eb="2">
-      <t>シュフ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="5">
-      <t>イリョウジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設職員</t>
-    <rPh sb="0" eb="4">
-      <t>シセツショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>人吉市</t>
-    <rPh sb="0" eb="3">
-      <t>ヒトヨシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>公務員（非常勤職員）</t>
-    <rPh sb="0" eb="3">
-      <t>コウムイン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒジョウキン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池保健所管内</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ホケンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南小国町</t>
-    <rPh sb="0" eb="4">
-      <t>ミナミオグニマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市</t>
-    <rPh sb="0" eb="4">
-      <t>カミアマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認中</t>
-    <rPh sb="0" eb="3">
-      <t>カクニンチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="2">
-      <t>ミフネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2762,7 +2996,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2772,12 +3006,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,7 +3089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2907,7 +3135,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -3198,27 +3425,27 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O404"/>
+  <dimension ref="A1:O416"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B408" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O404" sqref="A2:O404"/>
+      <selection pane="bottomRight" activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
-    <col min="2" max="2" width="25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="7" customWidth="1"/>
     <col min="3" max="4" width="11.625" style="7" customWidth="1"/>
     <col min="5" max="7" width="12.75" style="7" customWidth="1"/>
     <col min="8" max="9" width="10.5" style="7" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="15" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="21" customWidth="1"/>
-    <col min="12" max="12" width="21.375" style="21" customWidth="1"/>
-    <col min="13" max="13" width="13.5" style="21" customWidth="1"/>
-    <col min="14" max="14" width="19.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9" style="7" customWidth="1"/>
+    <col min="13" max="13" width="10" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="7" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="9" style="7"/>
   </cols>
@@ -3270,7 +3497,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" customFormat="1">
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3311,7 +3538,7 @@
       </c>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" customFormat="1">
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3352,7 +3579,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" customFormat="1">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3391,7 +3618,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" customFormat="1">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3432,7 +3659,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" customFormat="1">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3473,7 +3700,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" customFormat="1">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3512,7 +3739,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" customFormat="1">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3553,7 +3780,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" customFormat="1">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3596,7 +3823,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" customFormat="1">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3637,7 +3864,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" customFormat="1">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3678,7 +3905,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:15" customFormat="1">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3719,7 +3946,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:15" customFormat="1">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3760,7 +3987,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:15" customFormat="1">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3801,7 +4028,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:15" customFormat="1">
+    <row r="15" spans="1:15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3842,7 +4069,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:15" customFormat="1">
+    <row r="16" spans="1:15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3883,7 +4110,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" customFormat="1">
+    <row r="17" spans="1:15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3924,7 +4151,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" customFormat="1">
+    <row r="18" spans="1:15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3965,7 +4192,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="1:15" customFormat="1">
+    <row r="19" spans="1:15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -4006,7 +4233,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="1:15" customFormat="1">
+    <row r="20" spans="1:15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -4036,7 +4263,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="22"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="2">
         <v>0</v>
       </c>
@@ -4045,7 +4272,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" customFormat="1">
+    <row r="21" spans="1:15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -4084,7 +4311,7 @@
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" customFormat="1">
+    <row r="22" spans="1:15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -4125,7 +4352,7 @@
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="1:15" customFormat="1">
+    <row r="23" spans="1:15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4164,7 +4391,7 @@
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="1:15" customFormat="1">
+    <row r="24" spans="1:15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4205,7 +4432,7 @@
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="1:15" customFormat="1">
+    <row r="25" spans="1:15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4246,7 +4473,7 @@
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="1:15" customFormat="1">
+    <row r="26" spans="1:15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -4289,7 +4516,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="1:15" customFormat="1">
+    <row r="27" spans="1:15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -4330,7 +4557,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:15" customFormat="1">
+    <row r="28" spans="1:15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -4369,7 +4596,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="1:15" customFormat="1">
+    <row r="29" spans="1:15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4410,7 +4637,7 @@
       </c>
       <c r="O29" s="2"/>
     </row>
-    <row r="30" spans="1:15" customFormat="1">
+    <row r="30" spans="1:15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4451,7 +4678,7 @@
       </c>
       <c r="O30" s="2"/>
     </row>
-    <row r="31" spans="1:15" customFormat="1">
+    <row r="31" spans="1:15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4492,7 +4719,7 @@
       </c>
       <c r="O31" s="2"/>
     </row>
-    <row r="32" spans="1:15" customFormat="1">
+    <row r="32" spans="1:15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4531,7 +4758,7 @@
       </c>
       <c r="O32" s="2"/>
     </row>
-    <row r="33" spans="1:15" customFormat="1">
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4574,7 +4801,7 @@
       </c>
       <c r="O33" s="2"/>
     </row>
-    <row r="34" spans="1:15" customFormat="1">
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4613,7 +4840,7 @@
       </c>
       <c r="O34" s="2"/>
     </row>
-    <row r="35" spans="1:15" customFormat="1">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4654,7 +4881,7 @@
       </c>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:15" customFormat="1">
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4695,7 +4922,7 @@
       </c>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:15" customFormat="1">
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4736,7 +4963,7 @@
       </c>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:15" customFormat="1">
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4777,7 +5004,7 @@
       </c>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:15" customFormat="1">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4818,7 +5045,7 @@
       </c>
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="1:15" customFormat="1">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4859,7 +5086,7 @@
       </c>
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="1:15" customFormat="1">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4900,7 +5127,7 @@
       </c>
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="1:15" customFormat="1">
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4941,7 +5168,7 @@
       </c>
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="1:15" customFormat="1">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4982,7 +5209,7 @@
       </c>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" customFormat="1">
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -5023,7 +5250,7 @@
       </c>
       <c r="O44" s="18"/>
     </row>
-    <row r="45" spans="1:15" customFormat="1">
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -5064,7 +5291,7 @@
       </c>
       <c r="O45" s="18"/>
     </row>
-    <row r="46" spans="1:15" customFormat="1">
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -5137,7 +5364,6 @@
         <v>92</v>
       </c>
       <c r="K47" s="2"/>
-      <c r="L47" s="7"/>
       <c r="M47" s="2">
         <v>0</v>
       </c>
@@ -5659,7 +5885,7 @@
       <c r="J60" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="23"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="2"/>
       <c r="M60" s="9">
         <v>0</v>
@@ -6674,7 +6900,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -7486,14 +7712,14 @@
         <v>141</v>
       </c>
       <c r="K106" s="2" t="s">
-        <v>272</v>
+        <v>36</v>
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="9">
         <v>0</v>
       </c>
       <c r="N106" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" s="2"/>
     </row>
@@ -7610,7 +7836,7 @@
         <v>0</v>
       </c>
       <c r="N109" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O109" s="2"/>
     </row>
@@ -7710,7 +7936,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -7721,15 +7947,13 @@
       <c r="J112" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K112" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="9">
         <v>0</v>
       </c>
       <c r="N112" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O112" s="2"/>
     </row>
@@ -7987,7 +8211,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -8026,7 +8250,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -8394,15 +8618,13 @@
       <c r="J129" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K129" s="2" t="s">
-        <v>183</v>
-      </c>
+      <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="9">
         <v>0</v>
       </c>
       <c r="N129" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O129" s="2"/>
     </row>
@@ -8707,7 +8929,7 @@
         <v>44040</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H137" s="14" t="s">
         <v>122</v>
@@ -8881,7 +9103,7 @@
         <v>145</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2">
@@ -9678,7 +9900,7 @@
         <v>0</v>
       </c>
       <c r="N161" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O161" s="2"/>
     </row>
@@ -10148,7 +10370,7 @@
         <v>177</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="2"/>
@@ -10180,7 +10402,7 @@
         <v>44042</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>170</v>
@@ -10222,13 +10444,13 @@
         <v>167</v>
       </c>
       <c r="H175" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="2"/>
@@ -10258,7 +10480,7 @@
         <v>44043</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>121</v>
@@ -10267,7 +10489,7 @@
         <v>132</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K176" s="2"/>
       <c r="L176" s="2"/>
@@ -10299,7 +10521,7 @@
         <v>44043</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H177" s="2" t="s">
         <v>121</v>
@@ -10308,7 +10530,7 @@
         <v>104</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="2"/>
@@ -10347,7 +10569,7 @@
         <v>76</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K178" s="2" t="s">
         <v>103</v>
@@ -10388,7 +10610,7 @@
         <v>104</v>
       </c>
       <c r="J179" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="2"/>
@@ -10427,7 +10649,7 @@
         <v>104</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K180" s="2"/>
       <c r="L180" s="2"/>
@@ -10457,16 +10679,16 @@
         <v>44043</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J181" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="2"/>
@@ -10496,16 +10718,16 @@
         <v>44043</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
@@ -10535,10 +10757,10 @@
         <v>44043</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H183" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>76</v>
@@ -10574,10 +10796,10 @@
         <v>44043</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H184" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>76</v>
@@ -10613,10 +10835,10 @@
         <v>44043</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H185" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>76</v>
@@ -10652,10 +10874,10 @@
         <v>44043</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>76</v>
@@ -10691,10 +10913,10 @@
         <v>44043</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>76</v>
@@ -10730,10 +10952,10 @@
         <v>44043</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>76</v>
@@ -10771,16 +10993,16 @@
         <v>44043</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H189" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K189" s="2" t="s">
         <v>144</v>
@@ -10814,16 +11036,16 @@
         <v>44043</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H190" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
@@ -10855,7 +11077,7 @@
         <v>44043</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>121</v>
@@ -10864,7 +11086,7 @@
         <v>104</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K191" s="2"/>
       <c r="L191" s="2"/>
@@ -10896,16 +11118,16 @@
         <v>44043</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H192" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
@@ -10935,10 +11157,10 @@
         <v>44043</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H193" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>76</v>
@@ -10977,7 +11199,7 @@
         <v>166</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>104</v>
@@ -11013,7 +11235,7 @@
         <v>44043</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>127</v>
@@ -11022,7 +11244,7 @@
         <v>76</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K195" s="2"/>
       <c r="L195" s="2"/>
@@ -11052,7 +11274,7 @@
         <v>44043</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>128</v>
@@ -11061,10 +11283,10 @@
         <v>104</v>
       </c>
       <c r="J196" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -11093,7 +11315,7 @@
         <v>44043</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>129</v>
@@ -11102,7 +11324,7 @@
         <v>104</v>
       </c>
       <c r="J197" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K197" s="2" t="s">
         <v>103</v>
@@ -11134,7 +11356,7 @@
         <v>44043</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>129</v>
@@ -11143,7 +11365,7 @@
         <v>104</v>
       </c>
       <c r="J198" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K198" s="2" t="s">
         <v>144</v>
@@ -11175,7 +11397,7 @@
         <v>44043</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>128</v>
@@ -11184,7 +11406,7 @@
         <v>104</v>
       </c>
       <c r="J199" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K199" s="2" t="s">
         <v>144</v>
@@ -11216,7 +11438,7 @@
         <v>44043</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>129</v>
@@ -11225,7 +11447,7 @@
         <v>104</v>
       </c>
       <c r="J200" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="2"/>
@@ -11255,10 +11477,10 @@
         <v>44043</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>76</v>
@@ -11296,16 +11518,16 @@
         <v>44044</v>
       </c>
       <c r="G202" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H202" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H202" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J202" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="2"/>
@@ -11337,10 +11559,10 @@
         <v>44044</v>
       </c>
       <c r="G203" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H203" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="H203" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>104</v>
@@ -11376,16 +11598,16 @@
         <v>44044</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H204" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J204" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="2"/>
@@ -11415,16 +11637,16 @@
         <v>44044</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="2"/>
@@ -11454,16 +11676,16 @@
         <v>44044</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H206" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J206" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K206" s="2"/>
       <c r="L206" s="2"/>
@@ -11493,16 +11715,16 @@
         <v>44044</v>
       </c>
       <c r="G207" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J207" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K207" s="2"/>
       <c r="L207" s="2"/>
@@ -11532,16 +11754,16 @@
         <v>44044</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H208" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="2"/>
@@ -11571,16 +11793,16 @@
         <v>44044</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H209" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J209" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K209" s="2"/>
       <c r="L209" s="2"/>
@@ -11610,16 +11832,16 @@
         <v>44044</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J210" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="2"/>
@@ -11649,16 +11871,16 @@
         <v>44044</v>
       </c>
       <c r="G211" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J211" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K211" s="2"/>
       <c r="L211" s="2"/>
@@ -11688,16 +11910,16 @@
         <v>44044</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H212" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="2"/>
@@ -11727,16 +11949,16 @@
         <v>44044</v>
       </c>
       <c r="G213" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H213" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="2"/>
@@ -11766,16 +11988,16 @@
         <v>44044</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H214" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J214" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K214" s="2"/>
       <c r="L214" s="2"/>
@@ -11805,16 +12027,16 @@
         <v>44044</v>
       </c>
       <c r="G215" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H215" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J215" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="2"/>
@@ -11846,7 +12068,7 @@
         <v>44044</v>
       </c>
       <c r="G216" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>121</v>
@@ -11855,7 +12077,7 @@
         <v>76</v>
       </c>
       <c r="J216" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="2"/>
@@ -11887,7 +12109,7 @@
         <v>44044</v>
       </c>
       <c r="G217" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>121</v>
@@ -11928,7 +12150,7 @@
         <v>44044</v>
       </c>
       <c r="G218" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>129</v>
@@ -11937,7 +12159,7 @@
         <v>104</v>
       </c>
       <c r="J218" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="2"/>
@@ -11967,10 +12189,10 @@
         <v>44044</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H219" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>76</v>
@@ -12006,10 +12228,10 @@
         <v>44044</v>
       </c>
       <c r="G220" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H220" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>76</v>
@@ -12045,10 +12267,10 @@
         <v>44044</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H221" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>76</v>
@@ -12084,10 +12306,10 @@
         <v>44044</v>
       </c>
       <c r="G222" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H222" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>76</v>
@@ -12123,10 +12345,10 @@
         <v>44044</v>
       </c>
       <c r="G223" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H223" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>104</v>
@@ -12162,16 +12384,16 @@
         <v>44044</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J224" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K224" s="2"/>
       <c r="L224" s="2"/>
@@ -12201,19 +12423,19 @@
         <v>44044</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J225" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L225" s="2"/>
       <c r="M225" s="2">
@@ -12242,19 +12464,19 @@
         <v>44044</v>
       </c>
       <c r="G226" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H226" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J226" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>271</v>
+        <v>182</v>
       </c>
       <c r="L226" s="2"/>
       <c r="M226" s="2">
@@ -12283,7 +12505,7 @@
         <v>44044</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H227" s="2" t="s">
         <v>129</v>
@@ -12292,10 +12514,10 @@
         <v>76</v>
       </c>
       <c r="J227" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K227" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
@@ -12324,16 +12546,16 @@
         <v>44044</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H228" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J228" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K228" s="2"/>
       <c r="L228" s="2"/>
@@ -12363,16 +12585,16 @@
         <v>44044</v>
       </c>
       <c r="G229" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J229" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K229" s="2"/>
       <c r="L229" s="2"/>
@@ -12402,7 +12624,7 @@
         <v>44045</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>121</v>
@@ -12443,10 +12665,10 @@
         <v>44045</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H231" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I231" s="2" t="s">
         <v>76</v>
@@ -12485,7 +12707,7 @@
         <v>167</v>
       </c>
       <c r="H232" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I232" s="2" t="s">
         <v>76</v>
@@ -12521,16 +12743,16 @@
         <v>44045</v>
       </c>
       <c r="G233" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H233" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I233" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J233" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="2"/>
@@ -12560,16 +12782,16 @@
         <v>44045</v>
       </c>
       <c r="G234" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H234" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I234" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J234" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="2"/>
@@ -12602,13 +12824,13 @@
         <v>167</v>
       </c>
       <c r="H235" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I235" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J235" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="2"/>
@@ -12638,16 +12860,16 @@
         <v>44045</v>
       </c>
       <c r="G236" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I236" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J236" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="2"/>
@@ -12677,16 +12899,16 @@
         <v>44045</v>
       </c>
       <c r="G237" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I237" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J237" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="2"/>
@@ -12721,7 +12943,7 @@
         <v>112</v>
       </c>
       <c r="H238" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I238" s="2" t="s">
         <v>132</v>
@@ -12757,19 +12979,19 @@
         <v>44045</v>
       </c>
       <c r="G239" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H239" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I239" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J239" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="L239" s="2"/>
       <c r="M239" s="2">
@@ -12798,7 +13020,7 @@
         <v>44045</v>
       </c>
       <c r="G240" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>129</v>
@@ -12807,7 +13029,7 @@
         <v>104</v>
       </c>
       <c r="J240" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K240" s="2" t="s">
         <v>144</v>
@@ -12839,7 +13061,7 @@
         <v>44045</v>
       </c>
       <c r="G241" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H241" s="2" t="s">
         <v>122</v>
@@ -12848,7 +13070,7 @@
         <v>104</v>
       </c>
       <c r="J241" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K241" s="2" t="s">
         <v>144</v>
@@ -12880,7 +13102,7 @@
         <v>44046</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>122</v>
@@ -12889,7 +13111,7 @@
         <v>76</v>
       </c>
       <c r="J242" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
@@ -12921,7 +13143,7 @@
         <v>44046</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>121</v>
@@ -12930,7 +13152,7 @@
         <v>104</v>
       </c>
       <c r="J243" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
@@ -12962,16 +13184,16 @@
         <v>44046</v>
       </c>
       <c r="G244" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H244" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I244" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J244" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
@@ -13001,16 +13223,16 @@
         <v>44046</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I245" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J245" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="2"/>
@@ -13043,13 +13265,13 @@
         <v>166</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I246" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J246" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
@@ -13082,13 +13304,13 @@
         <v>167</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I247" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J247" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="2"/>
@@ -13118,16 +13340,16 @@
         <v>44046</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I248" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J248" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="2"/>
@@ -13157,19 +13379,19 @@
         <v>44046</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I249" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J249" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
@@ -13198,19 +13420,19 @@
         <v>44046</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I250" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J250" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -13239,7 +13461,7 @@
         <v>44046</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>121</v>
@@ -13248,10 +13470,10 @@
         <v>76</v>
       </c>
       <c r="J251" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K251" s="2" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
@@ -13280,7 +13502,7 @@
         <v>44046</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>121</v>
@@ -13289,7 +13511,7 @@
         <v>76</v>
       </c>
       <c r="J252" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="2"/>
@@ -13319,7 +13541,7 @@
         <v>44046</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>121</v>
@@ -13361,7 +13583,7 @@
         <v>167</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I254" s="2" t="s">
         <v>104</v>
@@ -13397,16 +13619,16 @@
         <v>44047</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I255" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J255" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K255" s="2"/>
       <c r="L255" s="2"/>
@@ -13436,16 +13658,16 @@
         <v>44047</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I256" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J256" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K256" s="2"/>
       <c r="L256" s="2"/>
@@ -13475,16 +13697,16 @@
         <v>44047</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I257" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J257" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K257" s="2"/>
       <c r="L257" s="2"/>
@@ -13514,16 +13736,16 @@
         <v>44047</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I258" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J258" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K258" s="2"/>
       <c r="L258" s="2"/>
@@ -13553,16 +13775,16 @@
         <v>44047</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H259" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I259" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J259" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K259" s="2"/>
       <c r="L259" s="2"/>
@@ -13592,16 +13814,16 @@
         <v>44047</v>
       </c>
       <c r="G260" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H260" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I260" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J260" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K260" s="2"/>
       <c r="L260" s="2"/>
@@ -13631,16 +13853,16 @@
         <v>44047</v>
       </c>
       <c r="G261" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H261" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I261" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K261" s="2"/>
       <c r="L261" s="2"/>
@@ -13670,16 +13892,16 @@
         <v>44047</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I262" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J262" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K262" s="2"/>
       <c r="L262" s="2"/>
@@ -13709,16 +13931,16 @@
         <v>44047</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H263" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I263" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J263" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="2"/>
@@ -13748,16 +13970,16 @@
         <v>44047</v>
       </c>
       <c r="G264" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H264" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I264" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J264" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K264" s="2"/>
       <c r="L264" s="2"/>
@@ -13787,16 +14009,16 @@
         <v>44047</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H265" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I265" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J265" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K265" s="2"/>
       <c r="L265" s="2"/>
@@ -13826,16 +14048,16 @@
         <v>44047</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H266" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I266" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J266" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="2"/>
@@ -13865,16 +14087,16 @@
         <v>44047</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H267" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I267" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J267" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K267" s="2"/>
       <c r="L267" s="2"/>
@@ -13904,16 +14126,16 @@
         <v>44047</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H268" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I268" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J268" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K268" s="2"/>
       <c r="L268" s="2"/>
@@ -13943,16 +14165,16 @@
         <v>44047</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H269" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I269" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J269" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K269" s="2"/>
       <c r="L269" s="2"/>
@@ -13982,16 +14204,16 @@
         <v>44047</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H270" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I270" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J270" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K270" s="2"/>
       <c r="L270" s="2"/>
@@ -14023,16 +14245,16 @@
         <v>44047</v>
       </c>
       <c r="G271" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H271" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H271" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="I271" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J271" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K271" s="2"/>
       <c r="L271" s="2"/>
@@ -14062,16 +14284,16 @@
         <v>44047</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H272" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I272" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J272" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K272" s="2"/>
       <c r="L272" s="2"/>
@@ -14101,16 +14323,16 @@
         <v>44047</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H273" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I273" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J273" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K273" s="2"/>
       <c r="L273" s="2"/>
@@ -14140,16 +14362,16 @@
         <v>44047</v>
       </c>
       <c r="G274" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I274" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J274" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K274" s="2"/>
       <c r="L274" s="2"/>
@@ -14181,16 +14403,16 @@
         <v>44047</v>
       </c>
       <c r="G275" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H275" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>226</v>
       </c>
       <c r="I275" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J275" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K275" s="2"/>
       <c r="L275" s="2"/>
@@ -14222,16 +14444,16 @@
         <v>44047</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I276" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J276" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K276" s="2"/>
       <c r="L276" s="2"/>
@@ -14266,13 +14488,13 @@
         <v>58</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I277" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J277" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K277" s="2"/>
       <c r="L277" s="2"/>
@@ -14307,13 +14529,13 @@
         <v>58</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I278" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J278" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K278" s="2"/>
       <c r="L278" s="2"/>
@@ -14345,16 +14567,16 @@
         <v>44047</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I279" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J279" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K279" s="2"/>
       <c r="L279" s="2"/>
@@ -14386,16 +14608,16 @@
         <v>44047</v>
       </c>
       <c r="G280" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="H280" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="H280" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="I280" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J280" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
@@ -14427,16 +14649,16 @@
         <v>44047</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I281" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J281" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K281" s="2"/>
       <c r="L281" s="2"/>
@@ -14466,7 +14688,7 @@
         <v>44047</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H282" s="2" t="s">
         <v>121</v>
@@ -14475,7 +14697,7 @@
         <v>104</v>
       </c>
       <c r="J282" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
@@ -14505,7 +14727,7 @@
         <v>44047</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H283" s="2" t="s">
         <v>121</v>
@@ -14514,7 +14736,7 @@
         <v>132</v>
       </c>
       <c r="J283" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="2"/>
@@ -14544,16 +14766,16 @@
         <v>44047</v>
       </c>
       <c r="G284" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H284" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I284" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J284" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
@@ -14583,16 +14805,16 @@
         <v>44047</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H285" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I285" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
@@ -14622,16 +14844,16 @@
         <v>44047</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H286" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I286" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J286" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="2"/>
@@ -14661,16 +14883,16 @@
         <v>44047</v>
       </c>
       <c r="G287" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H287" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I287" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J287" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K287" s="2" t="s">
         <v>103</v>
@@ -14702,16 +14924,16 @@
         <v>44047</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H288" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I288" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
@@ -14741,16 +14963,16 @@
         <v>44048</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H289" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I289" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J289" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K289" s="2" t="s">
         <v>103</v>
@@ -14782,26 +15004,24 @@
         <v>44048</v>
       </c>
       <c r="G290" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H290" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I290" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J290" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="K290" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>268</v>
+      </c>
+      <c r="K290" s="2"/>
       <c r="L290" s="2"/>
       <c r="M290" s="2">
         <v>0</v>
       </c>
       <c r="N290" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O290" s="2"/>
     </row>
@@ -14823,19 +15043,19 @@
         <v>44048</v>
       </c>
       <c r="G291" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H291" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I291" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J291" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K291" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L291" s="2"/>
       <c r="M291" s="2">
@@ -14864,16 +15084,16 @@
         <v>44048</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H292" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I292" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J292" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K292" s="2"/>
       <c r="L292" s="2"/>
@@ -14903,16 +15123,16 @@
         <v>44048</v>
       </c>
       <c r="G293" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H293" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I293" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J293" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K293" s="2"/>
       <c r="L293" s="2"/>
@@ -14942,16 +15162,16 @@
         <v>44048</v>
       </c>
       <c r="G294" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I294" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
@@ -14981,19 +15201,19 @@
         <v>44048</v>
       </c>
       <c r="G295" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H295" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I295" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K295" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
@@ -15022,16 +15242,16 @@
         <v>44048</v>
       </c>
       <c r="G296" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H296" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I296" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J296" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K296" s="2"/>
       <c r="L296" s="2"/>
@@ -15061,16 +15281,16 @@
         <v>44048</v>
       </c>
       <c r="G297" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H297" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I297" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
@@ -15100,19 +15320,19 @@
         <v>44048</v>
       </c>
       <c r="G298" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I298" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J298" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -15141,19 +15361,19 @@
         <v>44048</v>
       </c>
       <c r="G299" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H299" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I299" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K299" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="L299" s="2"/>
       <c r="M299" s="2">
@@ -15182,16 +15402,16 @@
         <v>44048</v>
       </c>
       <c r="G300" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I300" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J300" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K300" s="2"/>
       <c r="L300" s="2"/>
@@ -15221,16 +15441,16 @@
         <v>44048</v>
       </c>
       <c r="G301" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H301" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I301" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
@@ -15260,16 +15480,16 @@
         <v>44048</v>
       </c>
       <c r="G302" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I302" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K302" s="2"/>
       <c r="L302" s="2"/>
@@ -15299,16 +15519,16 @@
         <v>44048</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H303" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I303" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K303" s="2"/>
       <c r="L303" s="2"/>
@@ -15338,16 +15558,16 @@
         <v>44048</v>
       </c>
       <c r="G304" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H304" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I304" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="2"/>
@@ -15377,16 +15597,16 @@
         <v>44048</v>
       </c>
       <c r="G305" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H305" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I305" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K305" s="2"/>
       <c r="L305" s="2"/>
@@ -15416,16 +15636,16 @@
         <v>44048</v>
       </c>
       <c r="G306" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I306" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="2"/>
@@ -15455,16 +15675,16 @@
         <v>44048</v>
       </c>
       <c r="G307" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I307" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="2"/>
@@ -15494,16 +15714,16 @@
         <v>44048</v>
       </c>
       <c r="G308" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H308" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I308" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="2"/>
@@ -15533,16 +15753,16 @@
         <v>44048</v>
       </c>
       <c r="G309" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H309" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I309" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J309" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="2"/>
@@ -15572,16 +15792,16 @@
         <v>44048</v>
       </c>
       <c r="G310" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H310" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I310" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="2"/>
@@ -15611,16 +15831,16 @@
         <v>44048</v>
       </c>
       <c r="G311" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I311" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K311" s="2"/>
       <c r="L311" s="2"/>
@@ -15655,7 +15875,7 @@
         <v>58</v>
       </c>
       <c r="H312" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I312" s="2" t="s">
         <v>132</v>
@@ -15693,7 +15913,7 @@
         <v>44048</v>
       </c>
       <c r="G313" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H313" s="2" t="s">
         <v>172</v>
@@ -15732,7 +15952,7 @@
         <v>44048</v>
       </c>
       <c r="G314" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H314" s="2" t="s">
         <v>172</v>
@@ -15896,7 +16116,7 @@
         <v>44048</v>
       </c>
       <c r="G318" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H318" s="2" t="s">
         <v>123</v>
@@ -15937,7 +16157,7 @@
         <v>44048</v>
       </c>
       <c r="G319" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H319" s="2" t="s">
         <v>124</v>
@@ -15978,7 +16198,7 @@
         <v>44048</v>
       </c>
       <c r="G320" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H320" s="2" t="s">
         <v>55</v>
@@ -16019,7 +16239,7 @@
         <v>44048</v>
       </c>
       <c r="G321" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H321" s="2" t="s">
         <v>122</v>
@@ -16062,7 +16282,7 @@
         <v>44048</v>
       </c>
       <c r="G322" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H322" s="2" t="s">
         <v>121</v>
@@ -16114,15 +16334,13 @@
       <c r="J323" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K323" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K323" s="2"/>
       <c r="L323" s="2"/>
       <c r="M323" s="2">
         <v>0</v>
       </c>
       <c r="N323" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O323" s="2"/>
     </row>
@@ -16144,7 +16362,7 @@
         <v>44048</v>
       </c>
       <c r="G324" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H324" s="2" t="s">
         <v>121</v>
@@ -16233,7 +16451,7 @@
         <v>104</v>
       </c>
       <c r="J326" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K326" s="2"/>
       <c r="L326" s="2"/>
@@ -16263,7 +16481,7 @@
         <v>44048</v>
       </c>
       <c r="G327" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H327" s="2" t="s">
         <v>122</v>
@@ -16275,7 +16493,7 @@
         <v>38</v>
       </c>
       <c r="K327" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
@@ -16316,7 +16534,7 @@
         <v>37</v>
       </c>
       <c r="K328" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L328" s="2"/>
       <c r="M328" s="2">
@@ -16347,7 +16565,7 @@
         <v>44049</v>
       </c>
       <c r="G329" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H329" s="2" t="s">
         <v>121</v>
@@ -16388,10 +16606,10 @@
         <v>44049</v>
       </c>
       <c r="G330" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H330" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I330" s="2" t="s">
         <v>132</v>
@@ -16399,15 +16617,13 @@
       <c r="J330" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K330" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K330" s="2"/>
       <c r="L330" s="2"/>
       <c r="M330" s="2">
         <v>0</v>
       </c>
       <c r="N330" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O330" s="2"/>
     </row>
@@ -16442,15 +16658,13 @@
       <c r="J331" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K331" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="K331" s="2"/>
       <c r="L331" s="2"/>
       <c r="M331" s="2">
         <v>0</v>
       </c>
       <c r="N331" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O331" s="2"/>
     </row>
@@ -16474,7 +16688,7 @@
         <v>44049</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H332" s="2" t="s">
         <v>123</v>
@@ -16485,15 +16699,13 @@
       <c r="J332" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K332" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K332" s="2"/>
       <c r="L332" s="2"/>
       <c r="M332" s="2">
         <v>0</v>
       </c>
       <c r="N332" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O332" s="2"/>
     </row>
@@ -16520,7 +16732,7 @@
         <v>158</v>
       </c>
       <c r="H333" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I333" s="4" t="s">
         <v>132</v>
@@ -16556,13 +16768,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -16597,26 +16809,24 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="K335" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="K335" s="2"/>
       <c r="L335" s="2"/>
       <c r="M335" s="2">
         <v>0</v>
       </c>
       <c r="N335" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O335" s="2"/>
     </row>
@@ -16641,13 +16851,13 @@
         <v>166</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -16677,7 +16887,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -16686,7 +16896,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -16716,7 +16926,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -16725,17 +16935,15 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="K338" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="K338" s="2"/>
       <c r="L338" s="2"/>
       <c r="M338" s="2">
         <v>0</v>
       </c>
       <c r="N338" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O338" s="2"/>
     </row>
@@ -16760,7 +16968,7 @@
         <v>166</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -16768,15 +16976,13 @@
       <c r="J339" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="K339" s="2" t="s">
-        <v>182</v>
-      </c>
+      <c r="K339" s="2"/>
       <c r="L339" s="2"/>
       <c r="M339" s="2">
         <v>0</v>
       </c>
       <c r="N339" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O339" s="2"/>
     </row>
@@ -16807,17 +17013,15 @@
         <v>132</v>
       </c>
       <c r="J340" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="K340" s="2" t="s">
-        <v>182</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="K340" s="2"/>
       <c r="L340" s="2"/>
       <c r="M340" s="2">
         <v>0</v>
       </c>
       <c r="N340" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O340" s="2"/>
     </row>
@@ -16839,7 +17043,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -16878,7 +17082,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -16887,7 +17091,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -16917,7 +17121,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -16956,7 +17160,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -16965,7 +17169,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K344" s="2" t="s">
         <v>103</v>
@@ -16997,7 +17201,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17038,7 +17242,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -17049,15 +17253,13 @@
       <c r="J346" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K346" s="2" t="s">
-        <v>312</v>
-      </c>
+      <c r="K346" s="2"/>
       <c r="L346" s="2"/>
       <c r="M346" s="2">
         <v>0</v>
       </c>
       <c r="N346" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O346" s="2"/>
     </row>
@@ -17079,7 +17281,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -17088,7 +17290,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>103</v>
@@ -17120,16 +17322,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H348" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="H348" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -17159,19 +17361,19 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="K349" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L349" s="2"/>
       <c r="M349" s="2">
@@ -17200,26 +17402,24 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="K350" s="2" t="s">
-        <v>330</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="K350" s="2"/>
       <c r="L350" s="2"/>
       <c r="M350" s="2">
         <v>0</v>
       </c>
       <c r="N350" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O350" s="2"/>
     </row>
@@ -17249,10 +17449,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J351" s="3" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -17287,10 +17487,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -17323,7 +17523,7 @@
         <v>44051</v>
       </c>
       <c r="G353" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H353" s="2" t="s">
         <v>124</v>
@@ -17376,7 +17576,7 @@
         <v>162</v>
       </c>
       <c r="K354" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L354" s="2"/>
       <c r="M354" s="2">
@@ -17407,7 +17607,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -17418,15 +17618,13 @@
       <c r="J355" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="K355" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K355" s="2"/>
       <c r="L355" s="2"/>
       <c r="M355" s="2">
         <v>0</v>
       </c>
-      <c r="N355" s="2">
-        <v>0</v>
+      <c r="N355" s="9">
+        <v>1</v>
       </c>
       <c r="O355" s="2"/>
     </row>
@@ -17448,19 +17646,19 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H356" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="H356" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I356" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="J356" s="3" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K356" s="2" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
@@ -17489,7 +17687,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -17498,17 +17696,15 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="K357" s="2" t="s">
-        <v>312</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="K357" s="2"/>
       <c r="L357" s="2"/>
       <c r="M357" s="2">
         <v>0</v>
       </c>
       <c r="N357" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O357" s="2"/>
     </row>
@@ -17530,7 +17726,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -17539,10 +17735,10 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K358" s="2" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L358" s="2"/>
       <c r="M358" s="2">
@@ -17571,10 +17767,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H359" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -17614,7 +17810,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -17625,15 +17821,13 @@
       <c r="J360" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K360" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K360" s="2"/>
       <c r="L360" s="2"/>
       <c r="M360" s="2">
         <v>0</v>
       </c>
       <c r="N360" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O360" s="2"/>
     </row>
@@ -17666,7 +17860,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -17707,7 +17901,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K362" s="2" t="s">
         <v>103</v>
@@ -17739,16 +17933,16 @@
         <v>44054</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>182</v>
@@ -17780,19 +17974,19 @@
         <v>44054</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K364" s="2" t="s">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
@@ -17821,19 +18015,19 @@
         <v>44054</v>
       </c>
       <c r="G365" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="K365" s="2" t="s">
-        <v>330</v>
+        <v>182</v>
       </c>
       <c r="L365" s="2"/>
       <c r="M365" s="2">
@@ -17865,13 +18059,13 @@
         <v>164</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -17912,7 +18106,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K367" s="2" t="s">
         <v>103</v>
@@ -17946,7 +18140,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -17989,7 +18183,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -18001,7 +18195,7 @@
         <v>38</v>
       </c>
       <c r="K369" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L369" s="2"/>
       <c r="M369" s="2">
@@ -18044,7 +18238,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18087,7 +18281,7 @@
         <v>38</v>
       </c>
       <c r="K371" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L371" s="2"/>
       <c r="M371" s="2">
@@ -18118,7 +18312,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -18159,10 +18353,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -18170,7 +18364,9 @@
       <c r="J373" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K373" s="2"/>
+      <c r="K373" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L373" s="2"/>
       <c r="M373" s="2">
         <v>0</v>
@@ -18198,10 +18394,10 @@
         <v>44055</v>
       </c>
       <c r="G374" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -18237,7 +18433,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -18278,7 +18474,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -18321,19 +18517,19 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K377" s="2" t="s">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="L377" s="2"/>
       <c r="M377" s="2">
@@ -18364,16 +18560,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>144</v>
@@ -18407,7 +18603,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -18416,17 +18612,15 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="K379" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="K379" s="2"/>
       <c r="L379" s="2"/>
       <c r="M379" s="2">
         <v>0</v>
       </c>
       <c r="N379" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O379" s="2"/>
     </row>
@@ -18450,16 +18644,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K380" s="2" t="s">
         <v>103</v>
@@ -18484,7 +18678,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -18499,10 +18693,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -18527,7 +18721,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -18542,7 +18736,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -18570,7 +18764,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -18585,10 +18779,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="K383" s="2" t="s">
         <v>103</v>
@@ -18620,7 +18814,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -18629,9 +18823,11 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K384" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="K384" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L384" s="2"/>
       <c r="M384" s="2">
         <v>0</v>
@@ -18659,7 +18855,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -18668,7 +18864,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K385" s="2" t="s">
         <v>144</v>
@@ -18700,7 +18896,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -18709,10 +18905,10 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K386" s="2" t="s">
-        <v>144</v>
+        <v>182</v>
       </c>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
@@ -18741,7 +18937,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -18750,9 +18946,11 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="K387" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="K387" s="2" t="s">
+        <v>372</v>
+      </c>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
         <v>0</v>
@@ -18782,16 +18980,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -18816,7 +19014,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -18831,13 +19029,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>144</v>
+        <v>270</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -18859,7 +19057,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -18874,13 +19072,13 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="K390" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="L390" s="2"/>
       <c r="M390" s="2">
@@ -18902,7 +19100,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -18917,10 +19115,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -18954,18 +19152,20 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H392" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I392" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K392" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="K392" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L392" s="2"/>
       <c r="M392" s="2">
         <v>0</v>
@@ -18995,18 +19195,20 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="K393" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="K393" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L393" s="2"/>
       <c r="M393" s="2">
         <v>0</v>
@@ -19034,19 +19236,19 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H394" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="I394" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="J394" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="J394" s="3" t="s">
-        <v>359</v>
-      </c>
       <c r="K394" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
@@ -19075,19 +19277,19 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="K395" s="2" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
@@ -19118,18 +19320,20 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="J396" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K396" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K396" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="L396" s="2"/>
       <c r="M396" s="2">
         <v>0</v>
@@ -19159,18 +19363,20 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J397" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K397" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K397" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L397" s="2"/>
       <c r="M397" s="2">
         <v>0</v>
@@ -19200,18 +19406,20 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="J398" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K398" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="K398" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="L398" s="4"/>
       <c r="M398" s="4">
         <v>0</v>
@@ -19241,18 +19449,20 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K399" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="K399" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L399" s="2"/>
       <c r="M399" s="4">
         <v>0</v>
@@ -19282,18 +19492,20 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J400" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K400" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="K400" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L400" s="2"/>
       <c r="M400" s="4">
         <v>0</v>
@@ -19323,18 +19535,20 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J401" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K401" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="K401" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L401" s="2"/>
       <c r="M401" s="4">
         <v>0</v>
@@ -19364,18 +19578,20 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J402" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K402" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="K402" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
         <v>0</v>
@@ -19405,18 +19621,20 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H403" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="H403" s="2" t="s">
-        <v>374</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K403" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="K403" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L403" s="2"/>
       <c r="M403" s="4">
         <v>0</v>
@@ -19446,18 +19664,20 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="K404" s="2"/>
+        <v>373</v>
+      </c>
+      <c r="K404" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L404" s="2"/>
       <c r="M404" s="2">
         <v>0</v>
@@ -19467,11 +19687,501 @@
       </c>
       <c r="O404" s="2"/>
     </row>
+    <row r="405" spans="1:15">
+      <c r="A405" s="2">
+        <v>404</v>
+      </c>
+      <c r="B405" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D405" s="2"/>
+      <c r="E405" s="10">
+        <v>44059</v>
+      </c>
+      <c r="F405" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G405" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J405" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="K405" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L405" s="2"/>
+      <c r="M405" s="2">
+        <v>0</v>
+      </c>
+      <c r="N405" s="2">
+        <v>0</v>
+      </c>
+      <c r="O405" s="2"/>
+    </row>
+    <row r="406" spans="1:15">
+      <c r="A406" s="2">
+        <v>405</v>
+      </c>
+      <c r="B406" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D406" s="2"/>
+      <c r="E406" s="10">
+        <v>44059</v>
+      </c>
+      <c r="F406" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G406" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I406" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J406" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="K406" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L406" s="2"/>
+      <c r="M406" s="2">
+        <v>0</v>
+      </c>
+      <c r="N406" s="2">
+        <v>0</v>
+      </c>
+      <c r="O406" s="2"/>
+    </row>
+    <row r="407" spans="1:15">
+      <c r="A407" s="2">
+        <v>406</v>
+      </c>
+      <c r="B407" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D407" s="2"/>
+      <c r="E407" s="10">
+        <v>44059</v>
+      </c>
+      <c r="F407" s="20">
+        <v>44058</v>
+      </c>
+      <c r="G407" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="I407" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J407" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K407" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="L407" s="2"/>
+      <c r="M407" s="2">
+        <v>0</v>
+      </c>
+      <c r="N407" s="2">
+        <v>0</v>
+      </c>
+      <c r="O407" s="2"/>
+    </row>
+    <row r="408" spans="1:15">
+      <c r="A408" s="2">
+        <v>407</v>
+      </c>
+      <c r="B408" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E408" s="10">
+        <v>44059</v>
+      </c>
+      <c r="F408" s="10">
+        <v>44059</v>
+      </c>
+      <c r="G408" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H408" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J408" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="L408" s="2"/>
+      <c r="M408" s="2">
+        <v>0</v>
+      </c>
+      <c r="N408" s="2">
+        <v>0</v>
+      </c>
+      <c r="O408" s="2"/>
+    </row>
+    <row r="409" spans="1:15">
+      <c r="A409" s="2">
+        <v>408</v>
+      </c>
+      <c r="B409" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D409" s="2"/>
+      <c r="E409" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F409" s="10">
+        <v>44059</v>
+      </c>
+      <c r="G409" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J409" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L409" s="2"/>
+      <c r="M409" s="2">
+        <v>0</v>
+      </c>
+      <c r="N409" s="2">
+        <v>0</v>
+      </c>
+      <c r="O409" s="2"/>
+    </row>
+    <row r="410" spans="1:15">
+      <c r="A410" s="2">
+        <v>409</v>
+      </c>
+      <c r="B410" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D410" s="2"/>
+      <c r="E410" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F410" s="10">
+        <v>44059</v>
+      </c>
+      <c r="G410" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="I410" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="J410" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="L410" s="2"/>
+      <c r="M410" s="2">
+        <v>0</v>
+      </c>
+      <c r="N410" s="2">
+        <v>0</v>
+      </c>
+      <c r="O410" s="2"/>
+    </row>
+    <row r="411" spans="1:15">
+      <c r="A411" s="2">
+        <v>410</v>
+      </c>
+      <c r="B411" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E411" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F411" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J411" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="L411" s="2"/>
+      <c r="M411" s="2">
+        <v>0</v>
+      </c>
+      <c r="N411" s="2">
+        <v>0</v>
+      </c>
+      <c r="O411" s="2"/>
+    </row>
+    <row r="412" spans="1:15">
+      <c r="A412" s="2">
+        <v>411</v>
+      </c>
+      <c r="B412" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E412" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F412" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J412" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L412" s="2"/>
+      <c r="M412" s="2">
+        <v>0</v>
+      </c>
+      <c r="N412" s="2">
+        <v>0</v>
+      </c>
+      <c r="O412" s="2"/>
+    </row>
+    <row r="413" spans="1:15">
+      <c r="A413" s="2">
+        <v>412</v>
+      </c>
+      <c r="B413" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E413" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F413" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J413" s="3"/>
+      <c r="K413" s="3"/>
+      <c r="L413" s="2"/>
+      <c r="M413" s="2">
+        <v>0</v>
+      </c>
+      <c r="N413" s="2">
+        <v>0</v>
+      </c>
+      <c r="O413" s="2"/>
+    </row>
+    <row r="414" spans="1:15">
+      <c r="A414" s="2">
+        <v>413</v>
+      </c>
+      <c r="B414" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E414" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F414" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G414" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I414" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J414" s="3"/>
+      <c r="K414" s="2"/>
+      <c r="L414" s="2"/>
+      <c r="M414" s="2">
+        <v>0</v>
+      </c>
+      <c r="N414" s="2">
+        <v>0</v>
+      </c>
+      <c r="O414" s="2"/>
+    </row>
+    <row r="415" spans="1:15">
+      <c r="A415" s="2">
+        <v>414</v>
+      </c>
+      <c r="B415" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E415" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F415" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J415" s="3"/>
+      <c r="K415" s="2"/>
+      <c r="L415" s="2"/>
+      <c r="M415" s="2">
+        <v>0</v>
+      </c>
+      <c r="N415" s="2">
+        <v>0</v>
+      </c>
+      <c r="O415" s="2"/>
+    </row>
+    <row r="416" spans="1:15">
+      <c r="A416" s="2">
+        <v>415</v>
+      </c>
+      <c r="B416" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E416" s="10">
+        <v>44060</v>
+      </c>
+      <c r="F416" s="10">
+        <v>44060</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J416" s="3"/>
+      <c r="K416" s="2"/>
+      <c r="L416" s="2"/>
+      <c r="M416" s="2">
+        <v>0</v>
+      </c>
+      <c r="N416" s="2">
+        <v>0</v>
+      </c>
+      <c r="O416" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O404"/>
+  <autoFilter ref="A1:O416"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C陽性患者属性</oddHeader>
   </headerFooter>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$441</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$467</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="501">
   <si>
     <t>No</t>
   </si>
@@ -2645,6 +2645,845 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南関町</t>
+    <rPh sb="0" eb="3">
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>無症状</t>
     <rPh sb="0" eb="3">
       <t>ムショウジョウ</t>
@@ -2659,9 +3498,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飲食業</t>
+    <t>宇城市</t>
     <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="3">
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2676,6 +3581,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2690,61 +3602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -2752,22 +3609,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飲食店従業員</t>
+    <t>医療従事者</t>
     <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2779,23 +3626,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2807,40 +3650,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
@@ -2848,178 +3657,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
@@ -3027,303 +3664,31 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市中央区</t>
+    <t>高校生</t>
     <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
     <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-  </si>
-  <si>
-    <t>山鹿市</t>
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3377,7 +3742,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3387,6 +3752,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3470,7 +3841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3518,6 +3889,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3806,13 +4178,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O441"/>
+  <dimension ref="A1:O467"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G159" sqref="G159:G162"/>
+      <selection pane="bottomRight" activeCell="K463" sqref="K463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7615,8 +7987,8 @@
       <c r="M94" s="9">
         <v>0</v>
       </c>
-      <c r="N94" s="2">
-        <v>0</v>
+      <c r="N94" s="23">
+        <v>1</v>
       </c>
       <c r="O94" s="2"/>
     </row>
@@ -9276,15 +9648,13 @@
       <c r="J136" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="K136" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="9">
         <v>0</v>
       </c>
       <c r="N136" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O136" s="2"/>
     </row>
@@ -9487,7 +9857,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O141" s="2"/>
     </row>
@@ -10180,7 +10550,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10219,7 +10589,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -10260,7 +10630,7 @@
         <v>44041</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="H161" s="2" t="s">
         <v>159</v>
@@ -10299,7 +10669,7 @@
         <v>44041</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>455</v>
+        <v>191</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>159</v>
@@ -10311,7 +10681,7 @@
         <v>141</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2">
@@ -12893,15 +13263,13 @@
       <c r="J227" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="K227" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K227" s="2"/>
       <c r="L227" s="2"/>
       <c r="M227" s="2">
         <v>0</v>
       </c>
       <c r="N227" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O227" s="2"/>
     </row>
@@ -13764,7 +14132,7 @@
         <v>242</v>
       </c>
       <c r="K249" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L249" s="2"/>
       <c r="M249" s="2">
@@ -13845,15 +14213,13 @@
       <c r="J251" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="K251" s="2" t="s">
-        <v>367</v>
-      </c>
+      <c r="K251" s="2"/>
       <c r="L251" s="2"/>
       <c r="M251" s="2">
         <v>0</v>
       </c>
       <c r="N251" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O251" s="2"/>
     </row>
@@ -16741,14 +17107,14 @@
         <v>38</v>
       </c>
       <c r="K324" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L324" s="2"/>
       <c r="M324" s="2">
         <v>0</v>
       </c>
       <c r="N324" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O324" s="2"/>
     </row>
@@ -17145,7 +17511,7 @@
         <v>140</v>
       </c>
       <c r="K334" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L334" s="2"/>
       <c r="M334" s="2">
@@ -17536,15 +17902,13 @@
       <c r="J344" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="K344" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K344" s="2"/>
       <c r="L344" s="2"/>
       <c r="M344" s="2">
         <v>0</v>
       </c>
       <c r="N344" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O344" s="2"/>
     </row>
@@ -17656,7 +18020,7 @@
         <v>296</v>
       </c>
       <c r="K347" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L347" s="2"/>
       <c r="M347" s="2">
@@ -18014,15 +18378,13 @@
       <c r="J356" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="K356" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="K356" s="2"/>
       <c r="L356" s="2"/>
       <c r="M356" s="2">
         <v>0</v>
       </c>
       <c r="N356" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O356" s="2"/>
     </row>
@@ -18340,15 +18702,13 @@
       <c r="J364" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="K364" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K364" s="2"/>
       <c r="L364" s="2"/>
       <c r="M364" s="2">
         <v>0</v>
       </c>
       <c r="N364" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O364" s="2"/>
     </row>
@@ -18461,15 +18821,13 @@
       <c r="J367" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="K367" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K367" s="2"/>
       <c r="L367" s="2"/>
       <c r="M367" s="2">
         <v>0</v>
       </c>
       <c r="N367" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O367" s="2"/>
     </row>
@@ -18589,7 +18947,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="2" t="s">
-        <v>453</v>
+        <v>144</v>
       </c>
       <c r="L370" s="2"/>
       <c r="M370" s="2">
@@ -18713,15 +19071,13 @@
       <c r="J373" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K373" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K373" s="2"/>
       <c r="L373" s="2"/>
       <c r="M373" s="2">
         <v>0</v>
       </c>
       <c r="N373" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O373" s="2"/>
     </row>
@@ -19002,15 +19358,13 @@
       <c r="J380" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="K380" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K380" s="2"/>
       <c r="L380" s="2"/>
       <c r="M380" s="2">
         <v>0</v>
       </c>
       <c r="N380" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O380" s="2"/>
     </row>
@@ -19170,15 +19524,13 @@
       <c r="J384" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="K384" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K384" s="2"/>
       <c r="L384" s="2"/>
       <c r="M384" s="2">
         <v>0</v>
       </c>
       <c r="N384" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O384" s="2"/>
     </row>
@@ -19260,7 +19612,7 @@
         <v>0</v>
       </c>
       <c r="N386" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O386" s="2"/>
     </row>
@@ -19293,15 +19645,13 @@
       <c r="J387" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K387" s="2" t="s">
-        <v>368</v>
-      </c>
+      <c r="K387" s="2"/>
       <c r="L387" s="2"/>
       <c r="M387" s="2">
         <v>0</v>
       </c>
       <c r="N387" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O387" s="2"/>
     </row>
@@ -19676,15 +20026,13 @@
       <c r="J396" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K396" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K396" s="2"/>
       <c r="L396" s="2"/>
       <c r="M396" s="2">
         <v>0</v>
       </c>
       <c r="N396" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O396" s="2"/>
     </row>
@@ -19803,7 +20151,7 @@
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K399" s="2" t="s">
         <v>103</v>
@@ -19813,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="N399" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O399" s="2"/>
     </row>
@@ -19975,7 +20323,7 @@
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K403" s="2" t="s">
         <v>103</v>
@@ -20018,7 +20366,7 @@
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20048,16 +20396,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20087,16 +20435,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20126,19 +20474,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="I407" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="K407" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -20169,19 +20517,19 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K408" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -20210,19 +20558,19 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>385</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J409" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="K409" s="3" t="s">
         <v>387</v>
-      </c>
-      <c r="K409" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
@@ -20251,26 +20599,24 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="K410" s="3" t="s">
-        <v>388</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K410" s="2"/>
       <c r="L410" s="2"/>
       <c r="M410" s="2">
         <v>0</v>
       </c>
       <c r="N410" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O410" s="2"/>
     </row>
@@ -20294,7 +20640,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20303,10 +20649,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20337,7 +20683,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20346,10 +20692,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20380,7 +20726,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20390,7 +20736,7 @@
       </c>
       <c r="J413" s="3"/>
       <c r="K413" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
@@ -20421,19 +20767,19 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K414" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L414" s="2"/>
       <c r="M414" s="2">
@@ -20464,19 +20810,19 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="H415" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H415" s="2" t="s">
-        <v>397</v>
-      </c>
       <c r="I415" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K415" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L415" s="2"/>
       <c r="M415" s="2">
@@ -20507,19 +20853,19 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="H416" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>395</v>
-      </c>
       <c r="J416" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
@@ -20550,19 +20896,19 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="I417" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="J417" s="3" t="s">
-        <v>413</v>
-      </c>
       <c r="K417" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
@@ -20593,19 +20939,19 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H418" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I418" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="K418" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
@@ -20634,16 +20980,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="H419" s="2" t="s">
+      <c r="I419" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J419" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="I419" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="J419" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>103</v>
@@ -20675,19 +21021,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="J420" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="J420" s="3" t="s">
-        <v>404</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -20718,18 +21064,20 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="I421" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I421" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="K421" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="K421" s="2" t="s">
+        <v>474</v>
+      </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
         <v>0</v>
@@ -20759,18 +21107,20 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I422" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="J422" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="K422" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="K422" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
         <v>0</v>
@@ -20800,18 +21150,20 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="I423" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="K423" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="K423" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L423" s="2"/>
       <c r="M423" s="2">
         <v>0</v>
@@ -20841,18 +21193,20 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H424" s="2" t="s">
+      <c r="I424" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>418</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="K424" s="2"/>
+        <v>427</v>
+      </c>
+      <c r="K424" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L424" s="2"/>
       <c r="M424" s="2">
         <v>0</v>
@@ -20882,19 +21236,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -20925,18 +21279,20 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="K426" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="K426" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
         <v>0</v>
@@ -20966,19 +21322,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>423</v>
-      </c>
       <c r="I427" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21009,19 +21365,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H428" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="J428" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="J428" s="3" t="s">
-        <v>425</v>
-      </c>
       <c r="K428" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21050,18 +21406,20 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I429" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="K429" s="2"/>
+        <v>425</v>
+      </c>
+      <c r="K429" s="2" t="s">
+        <v>473</v>
+      </c>
       <c r="L429" s="2"/>
       <c r="M429" s="2">
         <v>0</v>
@@ -21089,18 +21447,20 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I430" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H430" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="J430" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="K430" s="2"/>
+        <v>445</v>
+      </c>
+      <c r="K430" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L430" s="2"/>
       <c r="M430" s="2">
         <v>0</v>
@@ -21128,18 +21488,20 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H431" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H431" s="2" t="s">
-        <v>436</v>
-      </c>
       <c r="I431" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="K431" s="2"/>
+        <v>446</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L431" s="2"/>
       <c r="M431" s="2">
         <v>0</v>
@@ -21167,18 +21529,20 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="K432" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="K432" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L432" s="2"/>
       <c r="M432" s="2">
         <v>0</v>
@@ -21206,18 +21570,20 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K433" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="K433" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L433" s="2"/>
       <c r="M433" s="2">
         <v>0</v>
@@ -21245,18 +21611,20 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="K434" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="K434" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L434" s="2"/>
       <c r="M434" s="2">
         <v>0</v>
@@ -21284,18 +21652,20 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="K435" s="2"/>
+        <v>450</v>
+      </c>
+      <c r="K435" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L435" s="2"/>
       <c r="M435" s="2">
         <v>0</v>
@@ -21323,18 +21693,20 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="K436" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="K436" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L436" s="2"/>
       <c r="M436" s="2">
         <v>0</v>
@@ -21355,7 +21727,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21364,18 +21736,20 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H437" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I437" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I437" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="J437" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K437" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="K437" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L437" s="2"/>
       <c r="M437" s="2">
         <v>0</v>
@@ -21396,7 +21770,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21405,18 +21779,20 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J438" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K438" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="K438" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L438" s="2"/>
       <c r="M438" s="2">
         <v>0</v>
@@ -21437,7 +21813,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21446,18 +21822,20 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="H439" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I439" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="J439" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="H439" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I439" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J439" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K439" s="2"/>
+      <c r="K439" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
         <v>0</v>
@@ -21478,7 +21856,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21487,18 +21865,20 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J440" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K440" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="K440" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="L440" s="2"/>
       <c r="M440" s="2">
         <v>0</v>
@@ -21519,7 +21899,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21528,18 +21908,20 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H441" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I441" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="I441" s="2" t="s">
-        <v>432</v>
-      </c>
       <c r="J441" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="K441" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="K441" s="2" t="s">
+        <v>475</v>
+      </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
         <v>0</v>
@@ -21549,8 +21931,1068 @@
       </c>
       <c r="O441" s="2"/>
     </row>
+    <row r="442" spans="1:15">
+      <c r="A442" s="2">
+        <v>441</v>
+      </c>
+      <c r="B442" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E442" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F442" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G442" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I442" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J442" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K442" s="2"/>
+      <c r="L442" s="2"/>
+      <c r="M442" s="2">
+        <v>0</v>
+      </c>
+      <c r="N442" s="2">
+        <v>1</v>
+      </c>
+      <c r="O442" s="2"/>
+    </row>
+    <row r="443" spans="1:15">
+      <c r="A443" s="2">
+        <v>442</v>
+      </c>
+      <c r="B443" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E443" s="10">
+        <v>44063</v>
+      </c>
+      <c r="F443" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G443" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="I443" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="J443" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="K443" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L443" s="2"/>
+      <c r="M443" s="2">
+        <v>0</v>
+      </c>
+      <c r="N443" s="2">
+        <v>0</v>
+      </c>
+      <c r="O443" s="2"/>
+    </row>
+    <row r="444" spans="1:15">
+      <c r="A444" s="2">
+        <v>443</v>
+      </c>
+      <c r="B444" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D444" s="2"/>
+      <c r="E444" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F444" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G444" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H444" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I444" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J444" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="K444" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="L444" s="2"/>
+      <c r="M444" s="2">
+        <v>0</v>
+      </c>
+      <c r="N444" s="2">
+        <v>0</v>
+      </c>
+      <c r="O444" s="2"/>
+    </row>
+    <row r="445" spans="1:15">
+      <c r="A445" s="2">
+        <v>444</v>
+      </c>
+      <c r="B445" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D445" s="2"/>
+      <c r="E445" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F445" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G445" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H445" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I445" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J445" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="K445" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L445" s="2"/>
+      <c r="M445" s="2">
+        <v>0</v>
+      </c>
+      <c r="N445" s="2">
+        <v>0</v>
+      </c>
+      <c r="O445" s="2"/>
+    </row>
+    <row r="446" spans="1:15">
+      <c r="A446" s="2">
+        <v>445</v>
+      </c>
+      <c r="B446" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D446" s="2"/>
+      <c r="E446" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F446" s="10">
+        <v>44063</v>
+      </c>
+      <c r="G446" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H446" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I446" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J446" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K446" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L446" s="2"/>
+      <c r="M446" s="2">
+        <v>0</v>
+      </c>
+      <c r="N446" s="2">
+        <v>0</v>
+      </c>
+      <c r="O446" s="2"/>
+    </row>
+    <row r="447" spans="1:15">
+      <c r="A447" s="2">
+        <v>446</v>
+      </c>
+      <c r="B447" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="E447" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F447" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G447" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H447" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="I447" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="J447" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K447" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L447" s="2"/>
+      <c r="M447" s="2">
+        <v>0</v>
+      </c>
+      <c r="N447" s="2">
+        <v>0</v>
+      </c>
+      <c r="O447" s="2"/>
+    </row>
+    <row r="448" spans="1:15">
+      <c r="A448" s="2">
+        <v>447</v>
+      </c>
+      <c r="B448" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E448" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F448" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G448" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H448" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="I448" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J448" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K448" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L448" s="2"/>
+      <c r="M448" s="2">
+        <v>0</v>
+      </c>
+      <c r="N448" s="2">
+        <v>0</v>
+      </c>
+      <c r="O448" s="2"/>
+    </row>
+    <row r="449" spans="1:15">
+      <c r="A449" s="2">
+        <v>448</v>
+      </c>
+      <c r="B449" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D449" s="2"/>
+      <c r="E449" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F449" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G449" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H449" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I449" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J449" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="K449" s="2"/>
+      <c r="L449" s="2"/>
+      <c r="M449" s="2">
+        <v>0</v>
+      </c>
+      <c r="N449" s="2">
+        <v>0</v>
+      </c>
+      <c r="O449" s="2"/>
+    </row>
+    <row r="450" spans="1:15">
+      <c r="A450" s="2">
+        <v>449</v>
+      </c>
+      <c r="B450" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D450" s="2"/>
+      <c r="E450" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F450" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G450" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H450" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I450" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J450" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="K450" s="2"/>
+      <c r="L450" s="2"/>
+      <c r="M450" s="2">
+        <v>0</v>
+      </c>
+      <c r="N450" s="2">
+        <v>0</v>
+      </c>
+      <c r="O450" s="2"/>
+    </row>
+    <row r="451" spans="1:15">
+      <c r="A451" s="2">
+        <v>450</v>
+      </c>
+      <c r="B451" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E451" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F451" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G451" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="H451" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I451" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J451" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K451" s="2"/>
+      <c r="L451" s="2"/>
+      <c r="M451" s="2">
+        <v>0</v>
+      </c>
+      <c r="N451" s="2">
+        <v>0</v>
+      </c>
+      <c r="O451" s="2"/>
+    </row>
+    <row r="452" spans="1:15">
+      <c r="A452" s="2">
+        <v>451</v>
+      </c>
+      <c r="B452" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E452" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F452" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G452" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I452" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J452" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K452" s="2"/>
+      <c r="L452" s="2"/>
+      <c r="M452" s="2">
+        <v>0</v>
+      </c>
+      <c r="N452" s="2">
+        <v>0</v>
+      </c>
+      <c r="O452" s="2"/>
+    </row>
+    <row r="453" spans="1:15">
+      <c r="A453" s="2">
+        <v>452</v>
+      </c>
+      <c r="B453" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E453" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F453" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G453" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I453" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J453" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="K453" s="2"/>
+      <c r="L453" s="2"/>
+      <c r="M453" s="2">
+        <v>0</v>
+      </c>
+      <c r="N453" s="2">
+        <v>0</v>
+      </c>
+      <c r="O453" s="2"/>
+    </row>
+    <row r="454" spans="1:15">
+      <c r="A454" s="2">
+        <v>453</v>
+      </c>
+      <c r="B454" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E454" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F454" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G454" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H454" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I454" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="J454" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="K454" s="2"/>
+      <c r="L454" s="2"/>
+      <c r="M454" s="2">
+        <v>0</v>
+      </c>
+      <c r="N454" s="2">
+        <v>0</v>
+      </c>
+      <c r="O454" s="2"/>
+    </row>
+    <row r="455" spans="1:15">
+      <c r="A455" s="2">
+        <v>454</v>
+      </c>
+      <c r="B455" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E455" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F455" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G455" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="H455" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I455" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J455" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="K455" s="2"/>
+      <c r="L455" s="2"/>
+      <c r="M455" s="2">
+        <v>0</v>
+      </c>
+      <c r="N455" s="2">
+        <v>0</v>
+      </c>
+      <c r="O455" s="2"/>
+    </row>
+    <row r="456" spans="1:15">
+      <c r="A456" s="2">
+        <v>455</v>
+      </c>
+      <c r="B456" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E456" s="10">
+        <v>44064</v>
+      </c>
+      <c r="F456" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G456" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H456" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="I456" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="J456" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K456" s="2"/>
+      <c r="L456" s="2"/>
+      <c r="M456" s="2">
+        <v>0</v>
+      </c>
+      <c r="N456" s="2">
+        <v>0</v>
+      </c>
+      <c r="O456" s="2"/>
+    </row>
+    <row r="457" spans="1:15">
+      <c r="A457" s="2">
+        <v>456</v>
+      </c>
+      <c r="B457" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D457" s="2"/>
+      <c r="E457" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F457" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G457" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H457" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I457" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J457" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K457" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L457" s="2"/>
+      <c r="M457" s="2">
+        <v>0</v>
+      </c>
+      <c r="N457" s="2">
+        <v>0</v>
+      </c>
+      <c r="O457" s="2"/>
+    </row>
+    <row r="458" spans="1:15">
+      <c r="A458" s="2">
+        <v>457</v>
+      </c>
+      <c r="B458" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D458" s="2"/>
+      <c r="E458" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F458" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G458" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H458" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I458" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J458" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K458" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L458" s="2"/>
+      <c r="M458" s="2">
+        <v>0</v>
+      </c>
+      <c r="N458" s="2">
+        <v>0</v>
+      </c>
+      <c r="O458" s="2"/>
+    </row>
+    <row r="459" spans="1:15">
+      <c r="A459" s="2">
+        <v>458</v>
+      </c>
+      <c r="B459" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D459" s="2"/>
+      <c r="E459" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F459" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G459" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="H459" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I459" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J459" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K459" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="L459" s="2"/>
+      <c r="M459" s="2">
+        <v>0</v>
+      </c>
+      <c r="N459" s="2">
+        <v>0</v>
+      </c>
+      <c r="O459" s="2"/>
+    </row>
+    <row r="460" spans="1:15">
+      <c r="A460" s="2">
+        <v>459</v>
+      </c>
+      <c r="B460" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D460" s="2"/>
+      <c r="E460" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F460" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G460" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H460" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I460" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J460" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="K460" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L460" s="2"/>
+      <c r="M460" s="2">
+        <v>0</v>
+      </c>
+      <c r="N460" s="2">
+        <v>0</v>
+      </c>
+      <c r="O460" s="2"/>
+    </row>
+    <row r="461" spans="1:15">
+      <c r="A461" s="2">
+        <v>460</v>
+      </c>
+      <c r="B461" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D461" s="2"/>
+      <c r="E461" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F461" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G461" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H461" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I461" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="J461" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="K461" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L461" s="2"/>
+      <c r="M461" s="2">
+        <v>0</v>
+      </c>
+      <c r="N461" s="2">
+        <v>0</v>
+      </c>
+      <c r="O461" s="2"/>
+    </row>
+    <row r="462" spans="1:15">
+      <c r="A462" s="2">
+        <v>461</v>
+      </c>
+      <c r="B462" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D462" s="2"/>
+      <c r="E462" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F462" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G462" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="H462" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I462" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J462" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="K462" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L462" s="2"/>
+      <c r="M462" s="2">
+        <v>0</v>
+      </c>
+      <c r="N462" s="2">
+        <v>0</v>
+      </c>
+      <c r="O462" s="2"/>
+    </row>
+    <row r="463" spans="1:15">
+      <c r="A463" s="2">
+        <v>462</v>
+      </c>
+      <c r="B463" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D463" s="2"/>
+      <c r="E463" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F463" s="10">
+        <v>44064</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H463" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="I463" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J463" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K463" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L463" s="2"/>
+      <c r="M463" s="2">
+        <v>0</v>
+      </c>
+      <c r="N463" s="2">
+        <v>0</v>
+      </c>
+      <c r="O463" s="2"/>
+    </row>
+    <row r="464" spans="1:15">
+      <c r="A464" s="2">
+        <v>463</v>
+      </c>
+      <c r="B464" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E464" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F464" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G464" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H464" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I464" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J464" s="3"/>
+      <c r="K464" s="2"/>
+      <c r="L464" s="2"/>
+      <c r="M464" s="2">
+        <v>0</v>
+      </c>
+      <c r="N464" s="2">
+        <v>0</v>
+      </c>
+      <c r="O464" s="2"/>
+    </row>
+    <row r="465" spans="1:15">
+      <c r="A465" s="2">
+        <v>464</v>
+      </c>
+      <c r="B465" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E465" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F465" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G465" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H465" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="I465" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J465" s="3"/>
+      <c r="K465" s="2"/>
+      <c r="L465" s="2"/>
+      <c r="M465" s="2">
+        <v>0</v>
+      </c>
+      <c r="N465" s="2">
+        <v>0</v>
+      </c>
+      <c r="O465" s="2"/>
+    </row>
+    <row r="466" spans="1:15">
+      <c r="A466" s="2">
+        <v>465</v>
+      </c>
+      <c r="B466" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E466" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F466" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G466" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H466" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I466" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="J466" s="3"/>
+      <c r="K466" s="2"/>
+      <c r="L466" s="2"/>
+      <c r="M466" s="2">
+        <v>0</v>
+      </c>
+      <c r="N466" s="2">
+        <v>0</v>
+      </c>
+      <c r="O466" s="2"/>
+    </row>
+    <row r="467" spans="1:15">
+      <c r="A467" s="2">
+        <v>466</v>
+      </c>
+      <c r="B467" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E467" s="10">
+        <v>44065</v>
+      </c>
+      <c r="F467" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G467" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H467" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="J467" s="3"/>
+      <c r="K467" s="2"/>
+      <c r="L467" s="2"/>
+      <c r="M467" s="2">
+        <v>0</v>
+      </c>
+      <c r="N467" s="2">
+        <v>0</v>
+      </c>
+      <c r="O467" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O441"/>
+  <autoFilter ref="A1:O467"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7215"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$467</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$472</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2629" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2653" uniqueCount="504">
   <si>
     <t>No</t>
   </si>
@@ -1990,6 +1990,640 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマガ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="3">
+      <t>キクチシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="2">
+      <t>ミフネ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売員</t>
+    <rPh sb="0" eb="3">
+      <t>ハンバイイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山鹿市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤマガシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設入所者</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ニュウショシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>留学生</t>
+    <rPh sb="0" eb="3">
+      <t>リュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="2">
+      <t>ホイク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉県</t>
+    <rPh sb="0" eb="3">
+      <t>サイタマケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療事務</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -1997,6 +2631,164 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>保育士</t>
+    <rPh sb="0" eb="3">
+      <t>ホイクシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>熊本市中央区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -2007,9 +2799,666 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>玉名市</t>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
     <rPh sb="0" eb="3">
-      <t>タマナシ</t>
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高森町</t>
+    <rPh sb="0" eb="3">
+      <t>タカモリマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロスポーツ選手</t>
+    <rPh sb="6" eb="8">
+      <t>センシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇土市</t>
+    <rPh sb="0" eb="3">
+      <t>ウトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="5">
+      <t>サイミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>芦北町職員</t>
+    <rPh sb="0" eb="3">
+      <t>アシキタマチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南関町</t>
+    <rPh sb="0" eb="3">
+      <t>ナンカンマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2021,43 +3470,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
+    <t>水俣市</t>
     <rPh sb="0" eb="3">
-      <t>キクチシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="2">
-      <t>ミフネ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
+      <t>ミナマタシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
     <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
     <rPh sb="0" eb="3">
-      <t>コウシシ</t>
+      <t>ヤツシロシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2076,9 +3505,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>販売員</t>
-    <rPh sb="0" eb="3">
-      <t>ハンバイイン</t>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2090,6 +3526,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -2097,6 +3591,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>無職</t>
     <rPh sb="0" eb="2">
       <t>ムショク</t>
@@ -2104,6 +3608,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>高校生</t>
     <rPh sb="0" eb="3">
       <t>コウコウセイ</t>
@@ -2111,6 +3636,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>介護職</t>
+    <rPh sb="0" eb="2">
+      <t>カイゴ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -2118,1575 +3714,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>山鹿市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤマガシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設入所者</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ニュウショシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>学生</t>
     <rPh sb="0" eb="2">
       <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="3">
-      <t>ナガスマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>嘉島町</t>
-    <rPh sb="0" eb="3">
-      <t>カシママチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>留学生</t>
-    <rPh sb="0" eb="3">
-      <t>リュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="4">
-      <t>カイシャヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="2">
-      <t>ホイク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>死亡</t>
-    <rPh sb="0" eb="2">
-      <t>シボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>埼玉県</t>
-    <rPh sb="0" eb="3">
-      <t>サイタマケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療事務</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジム</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>保育士</t>
-    <rPh sb="0" eb="3">
-      <t>ホイクシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高森町</t>
-    <rPh sb="0" eb="3">
-      <t>タカモリマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プロスポーツ選手</t>
-    <rPh sb="6" eb="8">
-      <t>センシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇土市</t>
-    <rPh sb="0" eb="3">
-      <t>ウトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="5">
-      <t>サイミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>芦北町職員</t>
-    <rPh sb="0" eb="3">
-      <t>アシキタマチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南関町</t>
-    <rPh sb="0" eb="3">
-      <t>ナンカンマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="3">
-      <t>ミナマタシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>学生</t>
-    <rPh sb="0" eb="2">
-      <t>ガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>団体職員</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>介護職</t>
-    <rPh sb="0" eb="2">
-      <t>カイゴ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3742,7 +3772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3752,12 +3782,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3841,7 +3865,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3889,7 +3913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4178,13 +4201,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O467"/>
+  <dimension ref="A1:O472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B416" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B454" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K463" sqref="K463"/>
+      <selection pane="bottomRight" activeCell="J474" sqref="J474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7980,14 +8003,12 @@
       <c r="J94" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="K94" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="9">
         <v>0</v>
       </c>
-      <c r="N94" s="23">
+      <c r="N94" s="2">
         <v>1</v>
       </c>
       <c r="O94" s="2"/>
@@ -9849,9 +9870,7 @@
       <c r="J141" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="K141" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2">
         <v>0</v>
@@ -10550,7 +10569,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10589,7 +10608,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -12035,7 +12054,7 @@
         <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -15947,15 +15966,13 @@
       <c r="J295" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K295" s="2" t="s">
-        <v>322</v>
-      </c>
+      <c r="K295" s="2"/>
       <c r="L295" s="2"/>
       <c r="M295" s="2">
         <v>0</v>
       </c>
       <c r="N295" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O295" s="2"/>
     </row>
@@ -17106,9 +17123,7 @@
       <c r="J324" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K324" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K324" s="2"/>
       <c r="L324" s="2"/>
       <c r="M324" s="2">
         <v>0</v>
@@ -17225,15 +17240,13 @@
       <c r="J327" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K327" s="2" t="s">
-        <v>282</v>
-      </c>
+      <c r="K327" s="2"/>
       <c r="L327" s="2"/>
       <c r="M327" s="2">
         <v>0</v>
       </c>
       <c r="N327" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O327" s="2"/>
     </row>
@@ -17813,7 +17826,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17822,7 +17835,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17852,7 +17865,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -17891,7 +17904,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -17900,7 +17913,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
@@ -17930,7 +17943,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -17969,7 +17982,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -18008,7 +18021,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -18017,7 +18030,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>181</v>
@@ -18049,16 +18062,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -18088,16 +18101,16 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
@@ -18127,16 +18140,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -18174,10 +18187,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -18212,10 +18225,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -18328,7 +18341,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -18367,16 +18380,16 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
@@ -18406,7 +18419,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -18415,7 +18428,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -18445,7 +18458,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -18454,7 +18467,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>144</v>
@@ -18486,10 +18499,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -18529,7 +18542,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -18579,7 +18592,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -18620,7 +18633,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -18653,13 +18666,13 @@
         <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K363" s="2" t="s">
         <v>181</v>
@@ -18694,13 +18707,13 @@
         <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
@@ -18733,13 +18746,13 @@
         <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18772,13 +18785,13 @@
         <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18819,7 +18832,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
@@ -18851,7 +18864,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -18894,7 +18907,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -19019,7 +19032,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -19060,10 +19073,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -19102,7 +19115,7 @@
         <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -19138,7 +19151,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -19179,7 +19192,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -19190,15 +19203,13 @@
       <c r="J376" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K376" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K376" s="2"/>
       <c r="L376" s="2"/>
       <c r="M376" s="2">
         <v>0</v>
       </c>
       <c r="N376" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O376" s="2"/>
     </row>
@@ -19222,16 +19233,16 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
@@ -19263,16 +19274,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K378" s="2" t="s">
         <v>103</v>
@@ -19306,7 +19317,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -19315,7 +19326,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -19347,16 +19358,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J380" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="J380" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
@@ -19379,7 +19390,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -19394,10 +19405,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K381" s="2" t="s">
         <v>103</v>
@@ -19422,7 +19433,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -19437,7 +19448,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -19463,7 +19474,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -19478,20 +19489,18 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="K383" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="K383" s="2"/>
       <c r="L383" s="2"/>
       <c r="M383" s="2">
         <v>0</v>
       </c>
       <c r="N383" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O383" s="2"/>
     </row>
@@ -19513,7 +19522,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -19522,7 +19531,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -19552,7 +19561,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -19561,17 +19570,15 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="K385" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="K385" s="2"/>
       <c r="L385" s="2"/>
       <c r="M385" s="2">
         <v>0</v>
       </c>
       <c r="N385" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O385" s="2"/>
     </row>
@@ -19593,7 +19600,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -19602,11 +19609,9 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="K386" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="K386" s="2"/>
       <c r="L386" s="2"/>
       <c r="M386" s="2">
         <v>0</v>
@@ -19634,7 +19639,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19643,7 +19648,7 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
@@ -19675,16 +19680,16 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K388" s="2" t="s">
         <v>103</v>
@@ -19709,7 +19714,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19724,13 +19729,13 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K389" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L389" s="2"/>
       <c r="M389" s="2">
@@ -19752,7 +19757,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19767,10 +19772,10 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K390" s="2" t="s">
         <v>181</v>
@@ -19795,7 +19800,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19810,10 +19815,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K391" s="2" t="s">
         <v>103</v>
@@ -19847,16 +19852,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="H392" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="I392" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="I392" s="2" t="s">
-        <v>347</v>
-      </c>
       <c r="J392" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K392" s="2" t="s">
         <v>103</v>
@@ -19890,16 +19895,16 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H393" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I393" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J393" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K393" s="2" t="s">
         <v>181</v>
@@ -19931,26 +19936,24 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H394" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="I394" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="J394" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="I394" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="J394" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="K394" s="2" t="s">
-        <v>342</v>
-      </c>
+      <c r="K394" s="2"/>
       <c r="L394" s="2"/>
       <c r="M394" s="2">
         <v>0</v>
       </c>
       <c r="N394" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O394" s="2"/>
     </row>
@@ -19972,26 +19975,24 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="K395" s="2" t="s">
-        <v>342</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="K395" s="2"/>
       <c r="L395" s="2"/>
       <c r="M395" s="2">
         <v>0</v>
       </c>
       <c r="N395" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O395" s="2"/>
     </row>
@@ -20015,13 +20016,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H396" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I396" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -20056,13 +20057,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="H397" s="2" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I397" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -20099,13 +20100,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -20142,20 +20143,18 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H399" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="H399" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="K399" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="K399" s="2"/>
       <c r="L399" s="2"/>
       <c r="M399" s="4">
         <v>0</v>
@@ -20185,10 +20184,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="H400" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="H400" s="2" t="s">
-        <v>364</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -20228,10 +20227,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H401" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H401" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -20271,10 +20270,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="H402" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H402" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -20314,26 +20313,24 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="K403" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="K403" s="2"/>
       <c r="L403" s="2"/>
       <c r="M403" s="4">
         <v>0</v>
       </c>
       <c r="N403" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O403" s="2"/>
     </row>
@@ -20357,16 +20354,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20396,16 +20393,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H405" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="I405" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J405" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="H405" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="I405" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>377</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20435,16 +20432,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H406" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I406" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="J406" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20474,19 +20471,19 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H407" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="H407" s="2" t="s">
-        <v>381</v>
-      </c>
       <c r="I407" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J407" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J407" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="K407" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L407" s="2"/>
       <c r="M407" s="2">
@@ -20517,19 +20514,19 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H408" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="I408" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="J408" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="J408" s="3" t="s">
-        <v>373</v>
-      </c>
       <c r="K408" s="3" t="s">
-        <v>397</v>
+        <v>181</v>
       </c>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
@@ -20558,26 +20555,24 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H409" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I409" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J409" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="I409" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J409" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="K409" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="K409" s="3"/>
       <c r="L409" s="2"/>
       <c r="M409" s="2">
         <v>0</v>
       </c>
       <c r="N409" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O409" s="2"/>
     </row>
@@ -20599,16 +20594,16 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="H410" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I410" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J410" s="3" t="s">
         <v>379</v>
-      </c>
-      <c r="J410" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
@@ -20640,7 +20635,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20649,10 +20644,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20683,7 +20678,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20692,10 +20687,10 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K412" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L412" s="2"/>
       <c r="M412" s="2">
@@ -20726,7 +20721,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20734,9 +20729,11 @@
       <c r="I413" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="J413" s="3"/>
+      <c r="J413" s="3" t="s">
+        <v>503</v>
+      </c>
       <c r="K413" s="3" t="s">
-        <v>407</v>
+        <v>181</v>
       </c>
       <c r="L413" s="2"/>
       <c r="M413" s="2">
@@ -20767,26 +20764,24 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K414" s="3" t="s">
-        <v>407</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K414" s="3"/>
       <c r="L414" s="2"/>
       <c r="M414" s="2">
         <v>0</v>
       </c>
       <c r="N414" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O414" s="2"/>
     </row>
@@ -20810,26 +20805,24 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H415" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I415" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="K415" s="3" t="s">
-        <v>407</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="K415" s="3"/>
       <c r="L415" s="2"/>
       <c r="M415" s="2">
         <v>0</v>
       </c>
       <c r="N415" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O415" s="2"/>
     </row>
@@ -20853,19 +20846,19 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H416" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I416" s="2" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J416" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K416" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="L416" s="2"/>
       <c r="M416" s="2">
@@ -20896,19 +20889,19 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="H417" s="2" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="I417" s="2" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="J417" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="K417" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
@@ -20939,19 +20932,19 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="H418" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="I418" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>414</v>
-      </c>
       <c r="K418" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
@@ -20980,16 +20973,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H419" s="2" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="I419" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>103</v>
@@ -21021,19 +21014,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I420" s="2" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="J420" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="K420" s="2" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -21064,19 +21057,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H421" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I421" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J421" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21107,19 +21100,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="H422" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I422" s="2" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="J422" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21150,19 +21143,19 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H423" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I423" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J423" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K423" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L423" s="2"/>
       <c r="M423" s="2">
@@ -21193,19 +21186,19 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H424" s="2" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="I424" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J424" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="K424" s="2" t="s">
-        <v>475</v>
+        <v>181</v>
       </c>
       <c r="L424" s="2"/>
       <c r="M424" s="2">
@@ -21236,19 +21229,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H425" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H425" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="I425" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21279,19 +21272,19 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="H426" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H426" s="2" t="s">
-        <v>420</v>
-      </c>
       <c r="I426" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K426" s="2" t="s">
-        <v>475</v>
+        <v>181</v>
       </c>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
@@ -21322,19 +21315,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H427" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I427" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21365,19 +21358,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H428" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I428" s="2" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="J428" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="K428" s="2" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21406,19 +21399,19 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H429" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I429" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J429" s="3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K429" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L429" s="2"/>
       <c r="M429" s="2">
@@ -21447,16 +21440,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H430" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I430" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J430" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21488,16 +21481,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H431" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="I431" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21529,19 +21522,19 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K432" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L432" s="2"/>
       <c r="M432" s="2">
@@ -21570,16 +21563,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21611,19 +21604,19 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="K434" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L434" s="2"/>
       <c r="M434" s="2">
@@ -21652,16 +21645,16 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>181</v>
@@ -21693,16 +21686,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H436" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="H436" s="2" t="s">
-        <v>439</v>
-      </c>
       <c r="I436" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21727,7 +21720,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21736,19 +21729,19 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H437" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I437" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J437" s="3" t="s">
-        <v>444</v>
+        <v>47</v>
       </c>
       <c r="K437" s="2" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L437" s="2"/>
       <c r="M437" s="2">
@@ -21770,7 +21763,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21779,16 +21772,16 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H438" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I438" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J438" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="I438" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="J438" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="K438" s="2" t="s">
         <v>103</v>
@@ -21813,7 +21806,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21822,19 +21815,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="J439" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21856,7 +21849,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21865,16 +21858,16 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H440" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I440" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="J440" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="I440" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="J440" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="K440" s="2" t="s">
         <v>144</v>
@@ -21899,7 +21892,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21908,19 +21901,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H441" s="2" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="I441" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="J441" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -21960,7 +21953,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -21992,16 +21985,16 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H443" s="2" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="I443" s="2" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="J443" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="K443" s="2" t="s">
         <v>103</v>
@@ -22033,7 +22026,7 @@
         <v>44063</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>129</v>
@@ -22042,10 +22035,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22083,7 +22076,7 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="K445" s="2" t="s">
         <v>103</v>
@@ -22115,7 +22108,7 @@
         <v>44063</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>130</v>
@@ -22149,7 +22142,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22158,13 +22151,13 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="H447" s="2" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="I447" s="2" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>161</v>
@@ -22201,13 +22194,13 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H448" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="I448" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>161</v>
@@ -22242,7 +22235,7 @@
         <v>44064</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>123</v>
@@ -22253,7 +22246,9 @@
       <c r="J449" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="K449" s="2"/>
+      <c r="K449" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L449" s="2"/>
       <c r="M449" s="2">
         <v>0</v>
@@ -22281,7 +22276,7 @@
         <v>44064</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>124</v>
@@ -22290,9 +22285,11 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="K450" s="2"/>
+        <v>486</v>
+      </c>
+      <c r="K450" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L450" s="2"/>
       <c r="M450" s="2">
         <v>0</v>
@@ -22322,18 +22319,20 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H451" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I451" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K451" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="K451" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L451" s="2"/>
       <c r="M451" s="2">
         <v>0</v>
@@ -22363,18 +22362,20 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K452" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="K452" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L452" s="2"/>
       <c r="M452" s="2">
         <v>0</v>
@@ -22404,18 +22405,20 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H453" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="I453" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J453" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="K453" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="K453" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L453" s="2"/>
       <c r="M453" s="2">
         <v>0</v>
@@ -22445,18 +22448,20 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="K454" s="2"/>
+        <v>489</v>
+      </c>
+      <c r="K454" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L454" s="2"/>
       <c r="M454" s="2">
         <v>0</v>
@@ -22486,18 +22491,20 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I455" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="K455" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="K455" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L455" s="2"/>
       <c r="M455" s="2">
         <v>0</v>
@@ -22527,18 +22534,20 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K456" s="2"/>
+        <v>487</v>
+      </c>
+      <c r="K456" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="L456" s="2"/>
       <c r="M456" s="2">
         <v>0</v>
@@ -22566,19 +22575,19 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="K457" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L457" s="2"/>
       <c r="M457" s="2">
@@ -22607,16 +22616,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22648,19 +22657,19 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K459" s="2" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L459" s="2"/>
       <c r="M459" s="2">
@@ -22689,16 +22698,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22730,16 +22739,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22771,16 +22780,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22812,13 +22821,13 @@
         <v>44064</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22855,15 +22864,17 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J464" s="3"/>
+        <v>484</v>
+      </c>
+      <c r="J464" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="K464" s="2"/>
       <c r="L464" s="2"/>
       <c r="M464" s="2">
@@ -22894,15 +22905,17 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J465" s="3"/>
+        <v>484</v>
+      </c>
+      <c r="J465" s="3" t="s">
+        <v>498</v>
+      </c>
       <c r="K465" s="2"/>
       <c r="L465" s="2"/>
       <c r="M465" s="2">
@@ -22933,16 +22946,20 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H466" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I466" s="2" t="s">
-        <v>489</v>
-      </c>
-      <c r="J466" s="3"/>
-      <c r="K466" s="2"/>
+        <v>484</v>
+      </c>
+      <c r="J466" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="K466" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L466" s="2"/>
       <c r="M466" s="2">
         <v>0</v>
@@ -22972,15 +22989,17 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>490</v>
-      </c>
-      <c r="J467" s="3"/>
+        <v>485</v>
+      </c>
+      <c r="J467" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="K467" s="2"/>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
@@ -22991,8 +23010,205 @@
       </c>
       <c r="O467" s="2"/>
     </row>
+    <row r="468" spans="1:15">
+      <c r="A468" s="2">
+        <v>467</v>
+      </c>
+      <c r="B468" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D468" s="2"/>
+      <c r="E468" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F468" s="10">
+        <v>44065</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H468" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I468" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J468" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K468" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L468" s="2"/>
+      <c r="M468" s="2">
+        <v>0</v>
+      </c>
+      <c r="N468" s="2">
+        <v>0</v>
+      </c>
+      <c r="O468" s="2"/>
+    </row>
+    <row r="469" spans="1:15">
+      <c r="A469" s="2">
+        <v>468</v>
+      </c>
+      <c r="B469" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E469" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F469" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G469" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H469" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="I469" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J469" s="3"/>
+      <c r="K469" s="2"/>
+      <c r="L469" s="2"/>
+      <c r="M469" s="2">
+        <v>0</v>
+      </c>
+      <c r="N469" s="2">
+        <v>0</v>
+      </c>
+      <c r="O469" s="2"/>
+    </row>
+    <row r="470" spans="1:15">
+      <c r="A470" s="2">
+        <v>469</v>
+      </c>
+      <c r="B470" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E470" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F470" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G470" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H470" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J470" s="3"/>
+      <c r="K470" s="2"/>
+      <c r="L470" s="2"/>
+      <c r="M470" s="2">
+        <v>0</v>
+      </c>
+      <c r="N470" s="2">
+        <v>0</v>
+      </c>
+      <c r="O470" s="2"/>
+    </row>
+    <row r="471" spans="1:15">
+      <c r="A471" s="2">
+        <v>470</v>
+      </c>
+      <c r="B471" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E471" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F471" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G471" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="H471" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I471" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J471" s="3"/>
+      <c r="K471" s="2"/>
+      <c r="L471" s="2"/>
+      <c r="M471" s="2">
+        <v>0</v>
+      </c>
+      <c r="N471" s="2">
+        <v>0</v>
+      </c>
+      <c r="O471" s="2"/>
+    </row>
+    <row r="472" spans="1:15">
+      <c r="A472" s="2">
+        <v>471</v>
+      </c>
+      <c r="B472" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E472" s="10">
+        <v>44066</v>
+      </c>
+      <c r="F472" s="10">
+        <v>44066</v>
+      </c>
+      <c r="G472" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I472" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J472" s="3"/>
+      <c r="K472" s="2"/>
+      <c r="L472" s="2"/>
+      <c r="M472" s="2">
+        <v>0</v>
+      </c>
+      <c r="N472" s="2">
+        <v>0</v>
+      </c>
+      <c r="O472" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O467"/>
+  <autoFilter ref="A1:O472"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4290"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$479</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$483</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2680" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="519">
   <si>
     <t>No</t>
   </si>
@@ -1889,13 +1889,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -3829,6 +3822,33 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4317,13 +4337,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O479"/>
+  <dimension ref="A1:O483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B457" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K428" sqref="K428"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -7791,7 +7811,7 @@
         <v>44039</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H86" s="14" t="s">
         <v>126</v>
@@ -8825,7 +8845,7 @@
         <v>44039</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H112" s="14" t="s">
         <v>127</v>
@@ -9100,7 +9120,7 @@
         <v>44039</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H119" s="14" t="s">
         <v>122</v>
@@ -9139,7 +9159,7 @@
         <v>44039</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H120" s="14" t="s">
         <v>123</v>
@@ -9864,15 +9884,13 @@
       <c r="J138" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K138" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="9">
         <v>0</v>
       </c>
       <c r="N138" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O138" s="2"/>
     </row>
@@ -10684,7 +10702,7 @@
         <v>44041</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H159" s="2" t="s">
         <v>153</v>
@@ -10723,7 +10741,7 @@
         <v>44041</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H160" s="2" t="s">
         <v>150</v>
@@ -12163,7 +12181,7 @@
         <v>242</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L196" s="2"/>
       <c r="M196" s="2">
@@ -13901,7 +13919,7 @@
         <v>242</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="L240" s="2"/>
       <c r="M240" s="2">
@@ -14299,7 +14317,7 @@
         <v>236</v>
       </c>
       <c r="K250" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L250" s="2"/>
       <c r="M250" s="2">
@@ -16191,7 +16209,7 @@
         <v>237</v>
       </c>
       <c r="K298" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="L298" s="2"/>
       <c r="M298" s="2">
@@ -17107,15 +17125,13 @@
       <c r="J321" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="K321" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K321" s="2"/>
       <c r="L321" s="2"/>
       <c r="M321" s="2">
         <v>0</v>
       </c>
       <c r="N321" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O321" s="2"/>
     </row>
@@ -17619,13 +17635,13 @@
         <v>44049</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H334" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I334" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J334" s="3" t="s">
         <v>140</v>
@@ -17658,16 +17674,16 @@
         <v>44049</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H335" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I335" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J335" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K335" s="2"/>
       <c r="L335" s="2"/>
@@ -17700,13 +17716,13 @@
         <v>165</v>
       </c>
       <c r="H336" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I336" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J336" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K336" s="2"/>
       <c r="L336" s="2"/>
@@ -17736,7 +17752,7 @@
         <v>44049</v>
       </c>
       <c r="G337" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H337" s="2" t="s">
         <v>121</v>
@@ -17745,7 +17761,7 @@
         <v>132</v>
       </c>
       <c r="J337" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K337" s="2"/>
       <c r="L337" s="2"/>
@@ -17775,7 +17791,7 @@
         <v>44049</v>
       </c>
       <c r="G338" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H338" s="2" t="s">
         <v>129</v>
@@ -17784,7 +17800,7 @@
         <v>104</v>
       </c>
       <c r="J338" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K338" s="2"/>
       <c r="L338" s="2"/>
@@ -17817,7 +17833,7 @@
         <v>165</v>
       </c>
       <c r="H339" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I339" s="2" t="s">
         <v>132</v>
@@ -17892,7 +17908,7 @@
         <v>44050</v>
       </c>
       <c r="G341" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H341" s="2" t="s">
         <v>127</v>
@@ -17931,7 +17947,7 @@
         <v>44050</v>
       </c>
       <c r="G342" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H342" s="2" t="s">
         <v>121</v>
@@ -17940,7 +17956,7 @@
         <v>104</v>
       </c>
       <c r="J342" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K342" s="2"/>
       <c r="L342" s="2"/>
@@ -17970,7 +17986,7 @@
         <v>44050</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H343" s="2" t="s">
         <v>121</v>
@@ -18009,7 +18025,7 @@
         <v>44050</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H344" s="2" t="s">
         <v>123</v>
@@ -18018,7 +18034,7 @@
         <v>104</v>
       </c>
       <c r="J344" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
@@ -18048,7 +18064,7 @@
         <v>44050</v>
       </c>
       <c r="G345" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H345" s="2" t="s">
         <v>129</v>
@@ -18087,7 +18103,7 @@
         <v>44050</v>
       </c>
       <c r="G346" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H346" s="2" t="s">
         <v>128</v>
@@ -18126,7 +18142,7 @@
         <v>44050</v>
       </c>
       <c r="G347" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H347" s="2" t="s">
         <v>127</v>
@@ -18135,7 +18151,7 @@
         <v>132</v>
       </c>
       <c r="J347" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K347" s="2" t="s">
         <v>181</v>
@@ -18167,16 +18183,16 @@
         <v>44051</v>
       </c>
       <c r="G348" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H348" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J348" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K348" s="2"/>
       <c r="L348" s="2"/>
@@ -18206,16 +18222,16 @@
         <v>44051</v>
       </c>
       <c r="G349" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H349" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J349" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K349" s="2"/>
       <c r="L349" s="2"/>
@@ -18245,16 +18261,16 @@
         <v>44051</v>
       </c>
       <c r="G350" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H350" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J350" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K350" s="2"/>
       <c r="L350" s="2"/>
@@ -18292,10 +18308,10 @@
         <v>123</v>
       </c>
       <c r="I351" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J351" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="J351" s="3" t="s">
-        <v>294</v>
       </c>
       <c r="K351" s="2"/>
       <c r="L351" s="2"/>
@@ -18330,10 +18346,10 @@
         <v>120</v>
       </c>
       <c r="H352" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I352" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J352" s="3" t="s">
         <v>40</v>
@@ -18446,7 +18462,7 @@
         <v>44052</v>
       </c>
       <c r="G355" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H355" s="2" t="s">
         <v>121</v>
@@ -18485,16 +18501,16 @@
         <v>44052</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H356" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I356" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="I356" s="2" t="s">
+      <c r="J356" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="J356" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="K356" s="2"/>
       <c r="L356" s="2"/>
@@ -18524,7 +18540,7 @@
         <v>44052</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H357" s="2" t="s">
         <v>130</v>
@@ -18533,7 +18549,7 @@
         <v>104</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K357" s="2"/>
       <c r="L357" s="2"/>
@@ -18563,7 +18579,7 @@
         <v>44052</v>
       </c>
       <c r="G358" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H358" s="2" t="s">
         <v>122</v>
@@ -18572,7 +18588,7 @@
         <v>104</v>
       </c>
       <c r="J358" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K358" s="2" t="s">
         <v>103</v>
@@ -18604,10 +18620,10 @@
         <v>44053</v>
       </c>
       <c r="G359" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H359" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="H359" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>132</v>
@@ -18645,7 +18661,7 @@
         <v>44054</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H360" s="2" t="s">
         <v>121</v>
@@ -18695,7 +18711,7 @@
         <v>132</v>
       </c>
       <c r="J361" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K361" s="2"/>
       <c r="L361" s="2"/>
@@ -18736,7 +18752,7 @@
         <v>132</v>
       </c>
       <c r="J362" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K362" s="2"/>
       <c r="L362" s="2"/>
@@ -18769,13 +18785,13 @@
         <v>213</v>
       </c>
       <c r="H363" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J363" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K363" s="2"/>
       <c r="L363" s="2"/>
@@ -18808,13 +18824,13 @@
         <v>189</v>
       </c>
       <c r="H364" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J364" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K364" s="2"/>
       <c r="L364" s="2"/>
@@ -18847,13 +18863,13 @@
         <v>189</v>
       </c>
       <c r="H365" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J365" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K365" s="2"/>
       <c r="L365" s="2"/>
@@ -18886,13 +18902,13 @@
         <v>163</v>
       </c>
       <c r="H366" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>132</v>
       </c>
       <c r="J366" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K366" s="2"/>
       <c r="L366" s="2"/>
@@ -18933,7 +18949,7 @@
         <v>104</v>
       </c>
       <c r="J367" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K367" s="2"/>
       <c r="L367" s="2"/>
@@ -18965,7 +18981,7 @@
         <v>44055</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H368" s="2" t="s">
         <v>122</v>
@@ -19008,7 +19024,7 @@
         <v>44055</v>
       </c>
       <c r="G369" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H369" s="2" t="s">
         <v>122</v>
@@ -19133,7 +19149,7 @@
         <v>44055</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H372" s="2" t="s">
         <v>123</v>
@@ -19174,10 +19190,10 @@
         <v>44055</v>
       </c>
       <c r="G373" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H373" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>132</v>
@@ -19216,7 +19232,7 @@
         <v>219</v>
       </c>
       <c r="H374" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>132</v>
@@ -19252,7 +19268,7 @@
         <v>44055</v>
       </c>
       <c r="G375" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H375" s="2" t="s">
         <v>122</v>
@@ -19293,7 +19309,7 @@
         <v>44055</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H376" s="2" t="s">
         <v>122</v>
@@ -19334,16 +19350,16 @@
         <v>44056</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H377" s="2" t="s">
         <v>128</v>
       </c>
       <c r="I377" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J377" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K377" s="2"/>
       <c r="L377" s="2"/>
@@ -19375,16 +19391,16 @@
         <v>44056</v>
       </c>
       <c r="G378" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H378" s="2" t="s">
         <v>129</v>
       </c>
       <c r="I378" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J378" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K378" s="2"/>
       <c r="L378" s="2"/>
@@ -19416,7 +19432,7 @@
         <v>44056</v>
       </c>
       <c r="G379" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H379" s="2" t="s">
         <v>121</v>
@@ -19425,7 +19441,7 @@
         <v>132</v>
       </c>
       <c r="J379" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="2"/>
@@ -19457,16 +19473,16 @@
         <v>44056</v>
       </c>
       <c r="G380" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H380" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I380" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J380" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K380" s="2"/>
       <c r="L380" s="2"/>
@@ -19489,7 +19505,7 @@
         <v>14</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E381" s="10">
         <v>44056</v>
@@ -19504,10 +19520,10 @@
         <v>123</v>
       </c>
       <c r="I381" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J381" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K381" s="2"/>
       <c r="L381" s="2"/>
@@ -19530,7 +19546,7 @@
         <v>14</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E382" s="10">
         <v>44057</v>
@@ -19545,7 +19561,7 @@
         <v>121</v>
       </c>
       <c r="I382" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J382" s="3" t="s">
         <v>47</v>
@@ -19571,7 +19587,7 @@
         <v>14</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E383" s="10">
         <v>44057</v>
@@ -19586,10 +19602,10 @@
         <v>121</v>
       </c>
       <c r="I383" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J383" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K383" s="2"/>
       <c r="L383" s="2"/>
@@ -19619,7 +19635,7 @@
         <v>44056</v>
       </c>
       <c r="G384" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H384" s="2" t="s">
         <v>123</v>
@@ -19628,7 +19644,7 @@
         <v>132</v>
       </c>
       <c r="J384" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K384" s="2"/>
       <c r="L384" s="2"/>
@@ -19658,7 +19674,7 @@
         <v>44056</v>
       </c>
       <c r="G385" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H385" s="2" t="s">
         <v>123</v>
@@ -19667,7 +19683,7 @@
         <v>132</v>
       </c>
       <c r="J385" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K385" s="2"/>
       <c r="L385" s="2"/>
@@ -19697,7 +19713,7 @@
         <v>44056</v>
       </c>
       <c r="G386" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H386" s="2" t="s">
         <v>121</v>
@@ -19706,7 +19722,7 @@
         <v>132</v>
       </c>
       <c r="J386" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
@@ -19736,7 +19752,7 @@
         <v>44056</v>
       </c>
       <c r="G387" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H387" s="2" t="s">
         <v>127</v>
@@ -19745,7 +19761,7 @@
         <v>104</v>
       </c>
       <c r="J387" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
@@ -19777,26 +19793,24 @@
         <v>44057</v>
       </c>
       <c r="G388" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H388" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J388" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="K388" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="K388" s="2"/>
       <c r="L388" s="2"/>
       <c r="M388" s="2">
         <v>0</v>
       </c>
       <c r="N388" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O388" s="2"/>
     </row>
@@ -19811,7 +19825,7 @@
         <v>14</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E389" s="10">
         <v>44057</v>
@@ -19826,10 +19840,10 @@
         <v>123</v>
       </c>
       <c r="I389" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J389" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K389" s="2" t="s">
         <v>144</v>
@@ -19854,7 +19868,7 @@
         <v>14</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E390" s="10">
         <v>44057</v>
@@ -19869,10 +19883,10 @@
         <v>55</v>
       </c>
       <c r="I390" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J390" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
@@ -19895,7 +19909,7 @@
         <v>14</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E391" s="10">
         <v>44057</v>
@@ -19910,10 +19924,10 @@
         <v>123</v>
       </c>
       <c r="I391" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J391" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
@@ -19945,16 +19959,16 @@
         <v>44057</v>
       </c>
       <c r="G392" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H392" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H392" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="I392" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J392" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K392" s="2"/>
       <c r="L392" s="2"/>
@@ -19986,16 +20000,16 @@
         <v>44057</v>
       </c>
       <c r="G393" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="H393" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H393" s="2" t="s">
+      <c r="I393" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I393" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="J393" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
@@ -20025,16 +20039,16 @@
         <v>44057</v>
       </c>
       <c r="G394" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H394" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="H394" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="I394" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J394" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K394" s="2"/>
       <c r="L394" s="2"/>
@@ -20064,16 +20078,16 @@
         <v>44057</v>
       </c>
       <c r="G395" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H395" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I395" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J395" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K395" s="2"/>
       <c r="L395" s="2"/>
@@ -20105,13 +20119,13 @@
         <v>44058</v>
       </c>
       <c r="G396" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H396" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H396" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="I396" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J396" s="3" t="s">
         <v>38</v>
@@ -20146,13 +20160,13 @@
         <v>44058</v>
       </c>
       <c r="G397" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="H397" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H397" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="I397" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J397" s="3" t="s">
         <v>38</v>
@@ -20187,13 +20201,13 @@
         <v>44058</v>
       </c>
       <c r="G398" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H398" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I398" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J398" s="3" t="s">
         <v>38</v>
@@ -20228,16 +20242,16 @@
         <v>44058</v>
       </c>
       <c r="G399" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H399" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I399" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J399" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K399" s="2"/>
       <c r="L399" s="2"/>
@@ -20269,10 +20283,10 @@
         <v>44058</v>
       </c>
       <c r="G400" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H400" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I400" s="2" t="s">
         <v>104</v>
@@ -20312,10 +20326,10 @@
         <v>44058</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H401" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I401" s="2" t="s">
         <v>76</v>
@@ -20323,15 +20337,13 @@
       <c r="J401" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K401" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="K401" s="2"/>
       <c r="L401" s="2"/>
       <c r="M401" s="4">
         <v>0</v>
       </c>
       <c r="N401" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O401" s="2"/>
     </row>
@@ -20355,10 +20367,10 @@
         <v>44058</v>
       </c>
       <c r="G402" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H402" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I402" s="2" t="s">
         <v>76</v>
@@ -20366,15 +20378,13 @@
       <c r="J402" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K402" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="K402" s="2"/>
       <c r="L402" s="2"/>
       <c r="M402" s="4">
         <v>0</v>
       </c>
       <c r="N402" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O402" s="2"/>
     </row>
@@ -20398,16 +20408,16 @@
         <v>44058</v>
       </c>
       <c r="G403" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H403" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I403" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J403" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K403" s="2"/>
       <c r="L403" s="2"/>
@@ -20439,16 +20449,16 @@
         <v>44058</v>
       </c>
       <c r="G404" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H404" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I404" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J404" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K404" s="2"/>
       <c r="L404" s="2"/>
@@ -20478,16 +20488,16 @@
         <v>44058</v>
       </c>
       <c r="G405" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="H405" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="H405" s="2" t="s">
+      <c r="I405" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="I405" s="2" t="s">
+      <c r="J405" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="J405" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="2"/>
@@ -20517,16 +20527,16 @@
         <v>44058</v>
       </c>
       <c r="G406" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H406" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="I406" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H406" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="I406" s="2" t="s">
+      <c r="J406" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="J406" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="K406" s="2"/>
       <c r="L406" s="2"/>
@@ -20556,16 +20566,16 @@
         <v>44058</v>
       </c>
       <c r="G407" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H407" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I407" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H407" s="2" t="s">
+      <c r="J407" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="I407" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J407" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="K407" s="2"/>
       <c r="L407" s="2"/>
@@ -20597,26 +20607,24 @@
         <v>44059</v>
       </c>
       <c r="G408" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H408" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H408" s="2" t="s">
+      <c r="I408" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I408" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="J408" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K408" s="3" t="s">
-        <v>103</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="K408" s="3"/>
       <c r="L408" s="2"/>
       <c r="M408" s="2">
         <v>0</v>
       </c>
       <c r="N408" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O408" s="2"/>
     </row>
@@ -20638,16 +20646,16 @@
         <v>44059</v>
       </c>
       <c r="G409" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H409" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H409" s="2" t="s">
-        <v>380</v>
-      </c>
       <c r="I409" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="J409" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K409" s="3"/>
       <c r="L409" s="2"/>
@@ -20677,16 +20685,16 @@
         <v>44059</v>
       </c>
       <c r="G410" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H410" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I410" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H410" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="I410" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="J410" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K410" s="2"/>
       <c r="L410" s="2"/>
@@ -20718,7 +20726,7 @@
         <v>44060</v>
       </c>
       <c r="G411" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H411" s="2" t="s">
         <v>130</v>
@@ -20727,10 +20735,10 @@
         <v>132</v>
       </c>
       <c r="J411" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K411" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L411" s="2"/>
       <c r="M411" s="2">
@@ -20761,7 +20769,7 @@
         <v>44060</v>
       </c>
       <c r="G412" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H412" s="2" t="s">
         <v>130</v>
@@ -20770,7 +20778,7 @@
         <v>104</v>
       </c>
       <c r="J412" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K412" s="3" t="s">
         <v>144</v>
@@ -20804,7 +20812,7 @@
         <v>44060</v>
       </c>
       <c r="G413" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H413" s="2" t="s">
         <v>121</v>
@@ -20813,7 +20821,7 @@
         <v>104</v>
       </c>
       <c r="J413" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K413" s="3" t="s">
         <v>103</v>
@@ -20847,16 +20855,16 @@
         <v>44061</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H414" s="2" t="s">
         <v>121</v>
       </c>
       <c r="I414" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J414" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K414" s="3"/>
       <c r="L414" s="2"/>
@@ -20888,16 +20896,16 @@
         <v>44061</v>
       </c>
       <c r="G415" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H415" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="H415" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="I415" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="J415" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K415" s="3"/>
       <c r="L415" s="2"/>
@@ -20929,16 +20937,16 @@
         <v>44061</v>
       </c>
       <c r="G416" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="I416" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="H416" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I416" s="2" t="s">
-        <v>388</v>
-      </c>
       <c r="J416" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K416" s="3"/>
       <c r="L416" s="2"/>
@@ -20970,26 +20978,24 @@
         <v>44061</v>
       </c>
       <c r="G417" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H417" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="H417" s="2" t="s">
+      <c r="I417" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="I417" s="2" t="s">
+      <c r="J417" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="J417" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="K417" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="K417" s="2"/>
       <c r="L417" s="2"/>
       <c r="M417" s="2">
         <v>0</v>
       </c>
       <c r="N417" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O417" s="2"/>
     </row>
@@ -21013,26 +21019,24 @@
         <v>44061</v>
       </c>
       <c r="G418" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H418" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J418" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="I418" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J418" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="K418" s="2" t="s">
-        <v>441</v>
-      </c>
+      <c r="K418" s="2"/>
       <c r="L418" s="2"/>
       <c r="M418" s="2">
         <v>0</v>
       </c>
       <c r="N418" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O418" s="2"/>
     </row>
@@ -21054,16 +21058,16 @@
         <v>44061</v>
       </c>
       <c r="G419" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H419" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="H419" s="2" t="s">
-        <v>398</v>
-      </c>
       <c r="I419" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J419" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K419" s="2" t="s">
         <v>181</v>
@@ -21095,19 +21099,19 @@
         <v>44061</v>
       </c>
       <c r="G420" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="H420" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="H420" s="2" t="s">
+      <c r="I420" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="I420" s="2" t="s">
+      <c r="J420" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="J420" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="K420" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L420" s="2"/>
       <c r="M420" s="2">
@@ -21138,19 +21142,19 @@
         <v>44062</v>
       </c>
       <c r="G421" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H421" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H421" s="2" t="s">
+      <c r="I421" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I421" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J421" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K421" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="L421" s="2"/>
       <c r="M421" s="2">
@@ -21181,19 +21185,19 @@
         <v>44062</v>
       </c>
       <c r="G422" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I422" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H422" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="I422" s="2" t="s">
-        <v>410</v>
-      </c>
       <c r="J422" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K422" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L422" s="2"/>
       <c r="M422" s="2">
@@ -21224,16 +21228,16 @@
         <v>44062</v>
       </c>
       <c r="G423" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H423" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H423" s="2" t="s">
+      <c r="I423" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I423" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J423" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K423" s="2"/>
       <c r="L423" s="2"/>
@@ -21265,16 +21269,16 @@
         <v>44062</v>
       </c>
       <c r="G424" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="H424" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H424" s="2" t="s">
+      <c r="I424" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I424" s="2" t="s">
-        <v>408</v>
-      </c>
       <c r="J424" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K424" s="2" t="s">
         <v>103</v>
@@ -21308,19 +21312,19 @@
         <v>44062</v>
       </c>
       <c r="G425" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H425" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I425" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J425" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K425" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L425" s="2"/>
       <c r="M425" s="2">
@@ -21351,26 +21355,24 @@
         <v>44062</v>
       </c>
       <c r="G426" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H426" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I426" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J426" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="K426" s="2" t="s">
-        <v>103</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="K426" s="2"/>
       <c r="L426" s="2"/>
       <c r="M426" s="2">
         <v>0</v>
       </c>
       <c r="N426" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O426" s="2"/>
     </row>
@@ -21394,19 +21396,19 @@
         <v>44062</v>
       </c>
       <c r="G427" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H427" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H427" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="I427" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J427" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K427" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L427" s="2"/>
       <c r="M427" s="2">
@@ -21437,19 +21439,19 @@
         <v>44062</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H428" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="I428" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="J428" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="I428" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="J428" s="3" t="s">
-        <v>415</v>
-      </c>
       <c r="K428" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L428" s="2"/>
       <c r="M428" s="2">
@@ -21478,16 +21480,16 @@
         <v>44062</v>
       </c>
       <c r="G429" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H429" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H429" s="2" t="s">
+      <c r="I429" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I429" s="2" t="s">
-        <v>422</v>
-      </c>
       <c r="J429" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K429" s="2"/>
       <c r="L429" s="2"/>
@@ -21517,16 +21519,16 @@
         <v>44062</v>
       </c>
       <c r="G430" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H430" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I430" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="H430" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="I430" s="2" t="s">
-        <v>424</v>
-      </c>
       <c r="J430" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K430" s="2" t="s">
         <v>103</v>
@@ -21558,16 +21560,16 @@
         <v>44062</v>
       </c>
       <c r="G431" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="H431" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="H431" s="2" t="s">
-        <v>426</v>
-      </c>
       <c r="I431" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J431" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K431" s="2" t="s">
         <v>181</v>
@@ -21599,16 +21601,16 @@
         <v>44062</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H432" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I432" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J432" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K432" s="2" t="s">
         <v>103</v>
@@ -21640,16 +21642,16 @@
         <v>44062</v>
       </c>
       <c r="G433" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H433" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I433" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J433" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K433" s="2" t="s">
         <v>103</v>
@@ -21681,16 +21683,16 @@
         <v>44062</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H434" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I434" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J434" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K434" s="2" t="s">
         <v>103</v>
@@ -21722,16 +21724,16 @@
         <v>44062</v>
       </c>
       <c r="G435" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H435" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="I435" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J435" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K435" s="2" t="s">
         <v>103</v>
@@ -21763,16 +21765,16 @@
         <v>44062</v>
       </c>
       <c r="G436" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H436" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I436" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J436" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K436" s="2" t="s">
         <v>103</v>
@@ -21797,7 +21799,7 @@
         <v>14</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E437" s="10">
         <v>44063</v>
@@ -21806,13 +21808,13 @@
         <v>44063</v>
       </c>
       <c r="G437" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H437" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I437" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I437" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J437" s="3" t="s">
         <v>47</v>
@@ -21840,7 +21842,7 @@
         <v>14</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E438" s="10">
         <v>44063</v>
@@ -21849,13 +21851,13 @@
         <v>44063</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H438" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I438" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J438" s="3" t="s">
         <v>40</v>
@@ -21881,7 +21883,7 @@
         <v>14</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E439" s="10">
         <v>44063</v>
@@ -21890,19 +21892,19 @@
         <v>44063</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H439" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I439" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J439" s="3" t="s">
         <v>38</v>
       </c>
       <c r="K439" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="L439" s="2"/>
       <c r="M439" s="2">
@@ -21924,7 +21926,7 @@
         <v>14</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E440" s="10">
         <v>44063</v>
@@ -21933,13 +21935,13 @@
         <v>44063</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H440" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I440" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J440" s="3" t="s">
         <v>38</v>
@@ -21967,7 +21969,7 @@
         <v>14</v>
       </c>
       <c r="D441" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E441" s="10">
         <v>44063</v>
@@ -21976,19 +21978,19 @@
         <v>44063</v>
       </c>
       <c r="G441" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H441" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="I441" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="I441" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="J441" s="3" t="s">
         <v>37</v>
       </c>
       <c r="K441" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L441" s="2"/>
       <c r="M441" s="2">
@@ -22028,7 +22030,7 @@
         <v>132</v>
       </c>
       <c r="J442" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K442" s="2"/>
       <c r="L442" s="2"/>
@@ -22060,16 +22062,16 @@
         <v>44063</v>
       </c>
       <c r="G443" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="H443" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="H443" s="2" t="s">
+      <c r="I443" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="I443" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="J443" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K443" s="2"/>
       <c r="L443" s="2"/>
@@ -22099,7 +22101,7 @@
         <v>44063</v>
       </c>
       <c r="G444" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H444" s="2" t="s">
         <v>129</v>
@@ -22108,10 +22110,10 @@
         <v>76</v>
       </c>
       <c r="J444" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K444" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L444" s="2"/>
       <c r="M444" s="2">
@@ -22149,7 +22151,7 @@
         <v>104</v>
       </c>
       <c r="J445" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K445" s="2"/>
       <c r="L445" s="2"/>
@@ -22179,7 +22181,7 @@
         <v>44063</v>
       </c>
       <c r="G446" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H446" s="2" t="s">
         <v>130</v>
@@ -22213,7 +22215,7 @@
         <v>14</v>
       </c>
       <c r="D447" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E447" s="10">
         <v>44064</v>
@@ -22222,13 +22224,13 @@
         <v>44064</v>
       </c>
       <c r="G447" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="H447" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="H447" s="2" t="s">
+      <c r="I447" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="I447" s="2" t="s">
-        <v>449</v>
       </c>
       <c r="J447" s="3" t="s">
         <v>37</v>
@@ -22265,13 +22267,13 @@
         <v>44064</v>
       </c>
       <c r="G448" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="H448" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="H448" s="2" t="s">
+      <c r="I448" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="I448" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="J448" s="3" t="s">
         <v>248</v>
@@ -22306,7 +22308,7 @@
         <v>44064</v>
       </c>
       <c r="G449" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H449" s="2" t="s">
         <v>123</v>
@@ -22347,7 +22349,7 @@
         <v>44064</v>
       </c>
       <c r="G450" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H450" s="2" t="s">
         <v>124</v>
@@ -22356,7 +22358,7 @@
         <v>104</v>
       </c>
       <c r="J450" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K450" s="2" t="s">
         <v>103</v>
@@ -22390,16 +22392,16 @@
         <v>44064</v>
       </c>
       <c r="G451" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="H451" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H451" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="I451" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J451" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K451" s="2" t="s">
         <v>103</v>
@@ -22433,16 +22435,16 @@
         <v>44064</v>
       </c>
       <c r="G452" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H452" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I452" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J452" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K452" s="2" t="s">
         <v>103</v>
@@ -22476,16 +22478,16 @@
         <v>44064</v>
       </c>
       <c r="G453" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H453" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="H453" s="2" t="s">
+      <c r="I453" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="I453" s="2" t="s">
-        <v>460</v>
-      </c>
       <c r="J453" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K453" s="2" t="s">
         <v>103</v>
@@ -22519,16 +22521,16 @@
         <v>44064</v>
       </c>
       <c r="G454" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H454" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I454" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J454" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K454" s="2" t="s">
         <v>103</v>
@@ -22562,16 +22564,16 @@
         <v>44064</v>
       </c>
       <c r="G455" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="H455" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="H455" s="2" t="s">
-        <v>462</v>
-      </c>
       <c r="I455" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J455" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K455" s="2" t="s">
         <v>181</v>
@@ -22605,16 +22607,16 @@
         <v>44064</v>
       </c>
       <c r="G456" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H456" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I456" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J456" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K456" s="2" t="s">
         <v>181</v>
@@ -22646,16 +22648,16 @@
         <v>44064</v>
       </c>
       <c r="G457" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H457" s="2" t="s">
         <v>123</v>
       </c>
       <c r="I457" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J457" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K457" s="2" t="s">
         <v>103</v>
@@ -22687,16 +22689,16 @@
         <v>44064</v>
       </c>
       <c r="G458" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H458" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I458" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J458" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K458" s="2" t="s">
         <v>103</v>
@@ -22728,16 +22730,16 @@
         <v>44064</v>
       </c>
       <c r="G459" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H459" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I459" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J459" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K459" s="2" t="s">
         <v>103</v>
@@ -22769,16 +22771,16 @@
         <v>44064</v>
       </c>
       <c r="G460" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H460" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I460" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J460" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="K460" s="2" t="s">
         <v>144</v>
@@ -22810,16 +22812,16 @@
         <v>44064</v>
       </c>
       <c r="G461" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H461" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I461" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J461" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K461" s="2" t="s">
         <v>144</v>
@@ -22851,16 +22853,16 @@
         <v>44064</v>
       </c>
       <c r="G462" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H462" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I462" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J462" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K462" s="2" t="s">
         <v>103</v>
@@ -22892,13 +22894,13 @@
         <v>44064</v>
       </c>
       <c r="G463" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H463" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I463" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J463" s="3" t="s">
         <v>179</v>
@@ -22935,16 +22937,16 @@
         <v>44065</v>
       </c>
       <c r="G464" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H464" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I464" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J464" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K464" s="2" t="s">
         <v>103</v>
@@ -22978,16 +22980,16 @@
         <v>44065</v>
       </c>
       <c r="G465" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H465" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I465" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="J465" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K465" s="2" t="s">
         <v>103</v>
@@ -23021,16 +23023,16 @@
         <v>44065</v>
       </c>
       <c r="G466" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H466" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="I466" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="I466" s="2" t="s">
-        <v>479</v>
-      </c>
       <c r="J466" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K466" s="2" t="s">
         <v>103</v>
@@ -23064,19 +23066,19 @@
         <v>44065</v>
       </c>
       <c r="G467" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H467" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I467" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J467" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K467" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L467" s="2"/>
       <c r="M467" s="2">
@@ -23105,7 +23107,7 @@
         <v>44065</v>
       </c>
       <c r="G468" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H468" s="2" t="s">
         <v>122</v>
@@ -23114,7 +23116,7 @@
         <v>104</v>
       </c>
       <c r="J468" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K468" s="2" t="s">
         <v>103</v>
@@ -23148,18 +23150,20 @@
         <v>44066</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H469" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I469" s="2" t="s">
         <v>76</v>
       </c>
       <c r="J469" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="K469" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="K469" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L469" s="2"/>
       <c r="M469" s="2">
         <v>0</v>
@@ -23189,7 +23193,7 @@
         <v>44066</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H470" s="2" t="s">
         <v>123</v>
@@ -23198,9 +23202,11 @@
         <v>76</v>
       </c>
       <c r="J470" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="K470" s="2"/>
+        <v>512</v>
+      </c>
+      <c r="K470" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L470" s="2"/>
       <c r="M470" s="2">
         <v>0</v>
@@ -23230,7 +23236,7 @@
         <v>44066</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H471" s="2" t="s">
         <v>123</v>
@@ -23239,10 +23245,10 @@
         <v>76</v>
       </c>
       <c r="J471" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K471" s="2" t="s">
-        <v>268</v>
+        <v>144</v>
       </c>
       <c r="L471" s="2"/>
       <c r="M471" s="2">
@@ -23273,7 +23279,7 @@
         <v>44066</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H472" s="2" t="s">
         <v>121</v>
@@ -23282,9 +23288,11 @@
         <v>104</v>
       </c>
       <c r="J472" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="K472" s="2"/>
+        <v>513</v>
+      </c>
+      <c r="K472" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L472" s="2"/>
       <c r="M472" s="2">
         <v>0</v>
@@ -23312,19 +23320,19 @@
         <v>44066</v>
       </c>
       <c r="G473" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H473" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I473" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="J473" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K473" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L473" s="2"/>
       <c r="M473" s="2">
@@ -23353,19 +23361,19 @@
         <v>44066</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H474" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I474" s="2" t="s">
         <v>104</v>
       </c>
       <c r="J474" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K474" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L474" s="2"/>
       <c r="M474" s="2">
@@ -23394,19 +23402,19 @@
         <v>44066</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H475" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I475" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J475" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K475" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="L475" s="2"/>
       <c r="M475" s="2">
@@ -23437,18 +23445,20 @@
         <v>44067</v>
       </c>
       <c r="G476" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="H476" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="H476" s="2" t="s">
+      <c r="I476" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="I476" s="2" t="s">
-        <v>509</v>
-      </c>
       <c r="J476" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="K476" s="2"/>
+        <v>368</v>
+      </c>
+      <c r="K476" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L476" s="2"/>
       <c r="M476" s="2">
         <v>0</v>
@@ -23478,7 +23488,7 @@
         <v>44068</v>
       </c>
       <c r="G477" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H477" s="2" t="s">
         <v>121</v>
@@ -23487,9 +23497,11 @@
         <v>76</v>
       </c>
       <c r="J477" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K477" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="K477" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L477" s="2"/>
       <c r="M477" s="2">
         <v>0</v>
@@ -23519,7 +23531,7 @@
         <v>44068</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="H478" s="2" t="s">
         <v>121</v>
@@ -23528,9 +23540,11 @@
         <v>76</v>
       </c>
       <c r="J478" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K478" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K478" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L478" s="2"/>
       <c r="M478" s="2">
         <v>0</v>
@@ -23560,7 +23574,7 @@
         <v>44068</v>
       </c>
       <c r="G479" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="H479" s="2" t="s">
         <v>123</v>
@@ -23569,9 +23583,11 @@
         <v>76</v>
       </c>
       <c r="J479" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="K479" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="K479" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="L479" s="2"/>
       <c r="M479" s="2">
         <v>0</v>
@@ -23581,8 +23597,172 @@
       </c>
       <c r="O479" s="2"/>
     </row>
+    <row r="480" spans="1:15">
+      <c r="A480" s="2">
+        <v>479</v>
+      </c>
+      <c r="B480" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E480" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F480" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G480" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H480" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I480" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J480" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K480" s="2"/>
+      <c r="L480" s="2"/>
+      <c r="M480" s="2">
+        <v>0</v>
+      </c>
+      <c r="N480" s="2">
+        <v>0</v>
+      </c>
+      <c r="O480" s="2"/>
+    </row>
+    <row r="481" spans="1:15">
+      <c r="A481" s="2">
+        <v>480</v>
+      </c>
+      <c r="B481" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E481" s="10">
+        <v>44068</v>
+      </c>
+      <c r="F481" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J481" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="K481" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L481" s="2"/>
+      <c r="M481" s="2">
+        <v>0</v>
+      </c>
+      <c r="N481" s="2">
+        <v>0</v>
+      </c>
+      <c r="O481" s="2"/>
+    </row>
+    <row r="482" spans="1:15">
+      <c r="A482" s="2">
+        <v>481</v>
+      </c>
+      <c r="B482" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D482" s="2"/>
+      <c r="E482" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F482" s="10">
+        <v>44068</v>
+      </c>
+      <c r="G482" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H482" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I482" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J482" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="K482" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="L482" s="2"/>
+      <c r="M482" s="2">
+        <v>0</v>
+      </c>
+      <c r="N482" s="2">
+        <v>0</v>
+      </c>
+      <c r="O482" s="2"/>
+    </row>
+    <row r="483" spans="1:15">
+      <c r="A483" s="2">
+        <v>482</v>
+      </c>
+      <c r="B483" s="8">
+        <v>430005</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E483" s="10">
+        <v>44069</v>
+      </c>
+      <c r="F483" s="10">
+        <v>44069</v>
+      </c>
+      <c r="G483" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="H483" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="J483" s="3"/>
+      <c r="K483" s="2"/>
+      <c r="L483" s="2"/>
+      <c r="M483" s="2">
+        <v>0</v>
+      </c>
+      <c r="N483" s="2">
+        <v>0</v>
+      </c>
+      <c r="O483" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O479"/>
+  <autoFilter ref="A1:O483"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2703" uniqueCount="519">
   <si>
     <t>No</t>
   </si>
@@ -4340,10 +4340,10 @@
   <dimension ref="A1:O483"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B248" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K428" sqref="K428"/>
+      <selection pane="bottomRight" activeCell="D343" sqref="D343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -17939,7 +17939,9 @@
       <c r="C342" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D342" s="2"/>
+      <c r="D342" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E342" s="10">
         <v>44050</v>
       </c>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6555"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$521</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$523</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="584">
   <si>
     <t>No</t>
   </si>
@@ -4276,6 +4276,94 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4460,7 +4548,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4475,6 +4562,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4777,13 +4865,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O521"/>
+  <dimension ref="A1:O525"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B481" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B501" sqref="B501"/>
+      <selection pane="bottomRight" activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4932,854 +5020,854 @@
       <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="11">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="13">
+      <c r="B4" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="20">
         <v>43883</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="20">
         <v>43883</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11">
-        <v>0</v>
-      </c>
-      <c r="N4" s="11">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="11">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="B5" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="20">
         <v>43886</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="20">
         <v>43885</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="11">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="B6" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="20">
         <v>43886</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="20">
         <v>43886</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11">
-        <v>0</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="11">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13">
+      <c r="B7" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="20">
         <v>43894</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="20">
         <v>43894</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="11">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="20">
         <v>43909</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="20">
         <v>43909</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11">
-        <v>1</v>
-      </c>
-      <c r="N8" s="11">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
         <v>1</v>
       </c>
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="11">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="11" t="s">
+      <c r="B9" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="20">
         <v>43915</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="20">
         <v>43915</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="11">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="11" t="s">
+      <c r="B10" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="20">
         <v>43917</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="20">
         <v>43917</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11">
-        <v>0</v>
-      </c>
-      <c r="N10" s="11">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B11" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="20">
         <v>43917</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="20">
         <v>43917</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11">
-        <v>0</v>
-      </c>
-      <c r="N11" s="11">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="11">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="11" t="s">
+      <c r="B12" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="20">
         <v>43918</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="20">
         <v>43918</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11">
-        <v>0</v>
-      </c>
-      <c r="N12" s="11">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>1</v>
       </c>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="11">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="11" t="s">
+      <c r="B13" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="20">
         <v>43919</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="20">
         <v>43919</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11">
-        <v>0</v>
-      </c>
-      <c r="N13" s="11">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="11">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="11" t="s">
+      <c r="B14" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="20">
         <v>43920</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="20">
         <v>43920</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11">
-        <v>0</v>
-      </c>
-      <c r="N14" s="11">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
         <v>1</v>
       </c>
       <c r="O14" s="1"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="20">
         <v>43920</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="20">
         <v>43920</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
         <v>1</v>
       </c>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="11">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="B16" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="20">
         <v>43922</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="20">
         <v>43922</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="J16" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
         <v>1</v>
       </c>
       <c r="O16" s="1"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="11">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="20">
         <v>43924</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="20">
         <v>43924</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="I17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
         <v>1</v>
       </c>
       <c r="O17" s="1"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="11">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="20">
         <v>43924</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="20">
         <v>43924</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="J18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
         <v>1</v>
       </c>
       <c r="O18" s="1"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="11">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="20">
         <v>43924</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="20">
         <v>43924</v>
       </c>
-      <c r="G19" s="11" t="s">
+      <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1">
+        <v>0</v>
+      </c>
+      <c r="N19" s="1">
         <v>1</v>
       </c>
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="11">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="13">
+      <c r="B20" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="20">
         <v>43926</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="20">
         <v>43926</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="11" t="s">
+      <c r="H20" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="12" t="s">
+      <c r="J20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="11">
-        <v>0</v>
-      </c>
-      <c r="N20" s="11">
+      <c r="K20" s="1"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="1">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1">
         <v>1</v>
       </c>
       <c r="O20" s="1"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="11">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="13">
+      <c r="B21" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="20">
         <v>43927</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="20">
         <v>43927</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H21" s="11" t="s">
+      <c r="H21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="J21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
+      <c r="K21" s="1"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1">
         <v>1</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="11">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="B22" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="20">
         <v>43928</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="20">
         <v>43928</v>
       </c>
-      <c r="G22" s="11" t="s">
+      <c r="G22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="11" t="s">
+      <c r="H22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11">
-        <v>0</v>
-      </c>
-      <c r="N22" s="11">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="1">
         <v>1</v>
       </c>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="11">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="13">
+      <c r="B23" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="20">
         <v>43929</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="20">
         <v>43929</v>
       </c>
-      <c r="G23" s="11" t="s">
+      <c r="G23" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11">
-        <v>0</v>
-      </c>
-      <c r="N23" s="11">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
         <v>1</v>
       </c>
       <c r="O23" s="1"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="11">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="B24" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="20">
         <v>43930</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="20">
         <v>43930</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11">
-        <v>0</v>
-      </c>
-      <c r="N24" s="11">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1">
         <v>1</v>
       </c>
       <c r="O24" s="1"/>
@@ -5797,10 +5885,10 @@
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="21">
+      <c r="E25" s="20">
         <v>43931</v>
       </c>
-      <c r="F25" s="21">
+      <c r="F25" s="20">
         <v>43931</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5838,10 +5926,10 @@
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="21">
+      <c r="E26" s="20">
         <v>43932</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>43932</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -5881,10 +5969,10 @@
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E27" s="20">
         <v>43933</v>
       </c>
-      <c r="F27" s="21">
+      <c r="F27" s="20">
         <v>43933</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -5920,10 +6008,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="21">
+      <c r="E28" s="20">
         <v>43933</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F28" s="20">
         <v>43933</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -5961,10 +6049,10 @@
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="20">
         <v>43934</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>43934</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -6002,10 +6090,10 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30" s="20">
         <v>43935</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>43935</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -6043,10 +6131,10 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="20">
         <v>43935</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>43935</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -6082,10 +6170,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="21">
+      <c r="E32" s="20">
         <v>43935</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>43935</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -6123,10 +6211,10 @@
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="20">
         <v>43936</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>43936</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -6164,10 +6252,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="21">
+      <c r="E34" s="20">
         <v>43936</v>
       </c>
-      <c r="F34" s="21">
+      <c r="F34" s="20">
         <v>43936</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -6205,10 +6293,10 @@
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35" s="20">
         <v>43938</v>
       </c>
-      <c r="F35" s="21">
+      <c r="F35" s="20">
         <v>43938</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -6246,10 +6334,10 @@
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36" s="20">
         <v>43938</v>
       </c>
-      <c r="F36" s="21">
+      <c r="F36" s="20">
         <v>43938</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -6287,10 +6375,10 @@
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37" s="20">
         <v>43939</v>
       </c>
-      <c r="F37" s="21">
+      <c r="F37" s="20">
         <v>43939</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -6328,10 +6416,10 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38" s="20">
         <v>43939</v>
       </c>
-      <c r="F38" s="21">
+      <c r="F38" s="20">
         <v>43939</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -6369,10 +6457,10 @@
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39" s="20">
         <v>43940</v>
       </c>
-      <c r="F39" s="21">
+      <c r="F39" s="20">
         <v>43940</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -6410,10 +6498,10 @@
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40" s="20">
         <v>43940</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F40" s="20">
         <v>43940</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -6451,10 +6539,10 @@
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41" s="20">
         <v>43940</v>
       </c>
-      <c r="F41" s="21">
+      <c r="F41" s="20">
         <v>43940</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -6492,10 +6580,10 @@
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42" s="20">
         <v>43941</v>
       </c>
-      <c r="F42" s="21">
+      <c r="F42" s="20">
         <v>43941</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6536,7 +6624,7 @@
       <c r="E43" s="22">
         <v>43942</v>
       </c>
-      <c r="F43" s="21">
+      <c r="F43" s="20">
         <v>43942</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -6552,7 +6640,7 @@
         <v>60</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="17"/>
+      <c r="L43" s="16"/>
       <c r="M43" s="2">
         <v>0</v>
       </c>
@@ -6574,10 +6662,10 @@
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44" s="20">
         <v>43943</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="20">
         <v>43943</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6615,10 +6703,10 @@
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>43944</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>43944</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6656,10 +6744,10 @@
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>43945</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>43945</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6697,10 +6785,10 @@
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47" s="20">
         <v>43947</v>
       </c>
-      <c r="F47" s="21">
+      <c r="F47" s="20">
         <v>43947</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6738,10 +6826,10 @@
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48" s="20">
         <v>43947</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="20">
         <v>43947</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6767,13 +6855,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>48</v>
       </c>
-      <c r="B49" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6808,13 +6896,13 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <v>49</v>
       </c>
-      <c r="B50" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="16" t="s">
+      <c r="B50" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4"/>
@@ -6847,13 +6935,13 @@
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
-      <c r="B51" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="16" t="s">
+      <c r="B51" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="4"/>
@@ -6886,13 +6974,13 @@
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <v>51</v>
       </c>
-      <c r="B52" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="16" t="s">
+      <c r="B52" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -6927,13 +7015,13 @@
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <v>52</v>
       </c>
-      <c r="B53" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="16" t="s">
+      <c r="B53" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -6968,13 +7056,13 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <v>53</v>
       </c>
-      <c r="B54" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="B54" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -7009,13 +7097,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="B55" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1"/>
@@ -7048,13 +7136,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="16" t="s">
+      <c r="B56" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="1"/>
@@ -7087,13 +7175,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="16">
+      <c r="A57" s="15">
         <v>56</v>
       </c>
-      <c r="B57" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="B57" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -7128,13 +7216,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="16" t="s">
+      <c r="B58" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -7169,13 +7257,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <v>58</v>
       </c>
-      <c r="B59" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="1"/>
@@ -7208,13 +7296,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <v>59</v>
       </c>
-      <c r="B60" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="16" t="s">
+      <c r="B60" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -7249,13 +7337,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="16" t="s">
+      <c r="B61" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="1"/>
@@ -7288,13 +7376,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <v>61</v>
       </c>
-      <c r="B62" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="B62" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -7329,13 +7417,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="16">
+      <c r="A63" s="15">
         <v>62</v>
       </c>
-      <c r="B63" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="16" t="s">
+      <c r="B63" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="1"/>
@@ -7368,13 +7456,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>63</v>
       </c>
-      <c r="B64" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="16" t="s">
+      <c r="B64" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -7409,13 +7497,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <v>64</v>
       </c>
-      <c r="B65" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="16" t="s">
+      <c r="B65" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1"/>
@@ -7448,13 +7536,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <v>65</v>
       </c>
-      <c r="B66" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="16" t="s">
+      <c r="B66" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1"/>
@@ -7487,13 +7575,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <v>66</v>
       </c>
-      <c r="B67" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="16" t="s">
+      <c r="B67" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="1"/>
@@ -7526,13 +7614,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="16">
+      <c r="A68" s="15">
         <v>67</v>
       </c>
-      <c r="B68" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="16" t="s">
+      <c r="B68" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="1"/>
@@ -7565,13 +7653,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="16">
+      <c r="A69" s="15">
         <v>68</v>
       </c>
-      <c r="B69" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="16" t="s">
+      <c r="B69" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="1"/>
@@ -7604,13 +7692,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="16">
+      <c r="A70" s="15">
         <v>69</v>
       </c>
-      <c r="B70" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="16" t="s">
+      <c r="B70" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1"/>
@@ -7643,13 +7731,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="16">
+      <c r="A71" s="15">
         <v>70</v>
       </c>
-      <c r="B71" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="16" t="s">
+      <c r="B71" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1"/>
@@ -7682,13 +7770,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="16">
+      <c r="A72" s="15">
         <v>71</v>
       </c>
-      <c r="B72" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="16" t="s">
+      <c r="B72" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1"/>
@@ -7721,13 +7809,13 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="16">
+      <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="16" t="s">
+      <c r="B73" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -7762,13 +7850,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="16">
+      <c r="A74" s="15">
         <v>73</v>
       </c>
-      <c r="B74" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="16" t="s">
+      <c r="B74" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -7803,13 +7891,13 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="16">
+      <c r="A75" s="15">
         <v>74</v>
       </c>
-      <c r="B75" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="16" t="s">
+      <c r="B75" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="1"/>
@@ -7842,13 +7930,13 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="16">
+      <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="16" t="s">
+      <c r="B76" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1"/>
@@ -7881,13 +7969,13 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="16">
+      <c r="A77" s="15">
         <v>76</v>
       </c>
-      <c r="B77" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="16" t="s">
+      <c r="B77" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="1"/>
@@ -7920,13 +8008,13 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="16">
+      <c r="A78" s="15">
         <v>77</v>
       </c>
-      <c r="B78" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="16" t="s">
+      <c r="B78" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1"/>
@@ -7959,13 +8047,13 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="16">
+      <c r="A79" s="15">
         <v>78</v>
       </c>
-      <c r="B79" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="16" t="s">
+      <c r="B79" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1"/>
@@ -7998,13 +8086,13 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="16">
+      <c r="A80" s="15">
         <v>79</v>
       </c>
-      <c r="B80" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="16" t="s">
+      <c r="B80" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="1"/>
@@ -8037,13 +8125,13 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="16">
+      <c r="A81" s="15">
         <v>80</v>
       </c>
-      <c r="B81" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="16" t="s">
+      <c r="B81" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="1"/>
@@ -8076,13 +8164,13 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="16">
+      <c r="A82" s="15">
         <v>81</v>
       </c>
-      <c r="B82" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="16" t="s">
+      <c r="B82" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -8117,13 +8205,13 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="16">
+      <c r="A83" s="15">
         <v>82</v>
       </c>
-      <c r="B83" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="16" t="s">
+      <c r="B83" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="1"/>
@@ -8156,13 +8244,13 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="16">
+      <c r="A84" s="15">
         <v>83</v>
       </c>
-      <c r="B84" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="16" t="s">
+      <c r="B84" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="1"/>
@@ -8195,13 +8283,13 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="16">
+      <c r="A85" s="15">
         <v>84</v>
       </c>
-      <c r="B85" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="16" t="s">
+      <c r="B85" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1"/>
@@ -8234,13 +8322,13 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="16">
+      <c r="A86" s="15">
         <v>85</v>
       </c>
-      <c r="B86" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="16" t="s">
+      <c r="B86" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1"/>
@@ -8273,13 +8361,13 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="16">
+      <c r="A87" s="15">
         <v>86</v>
       </c>
-      <c r="B87" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="16" t="s">
+      <c r="B87" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -8314,13 +8402,13 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="16">
+      <c r="A88" s="15">
         <v>87</v>
       </c>
-      <c r="B88" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="16" t="s">
+      <c r="B88" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="1"/>
@@ -8353,13 +8441,13 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="16">
+      <c r="A89" s="15">
         <v>88</v>
       </c>
-      <c r="B89" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="16" t="s">
+      <c r="B89" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="1"/>
@@ -8392,13 +8480,13 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="16">
+      <c r="A90" s="15">
         <v>89</v>
       </c>
-      <c r="B90" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="16" t="s">
+      <c r="B90" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1"/>
@@ -8431,13 +8519,13 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="16">
+      <c r="A91" s="15">
         <v>90</v>
       </c>
-      <c r="B91" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="16" t="s">
+      <c r="B91" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="1"/>
@@ -8472,13 +8560,13 @@
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="16">
+      <c r="A92" s="15">
         <v>91</v>
       </c>
-      <c r="B92" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="16" t="s">
+      <c r="B92" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -8513,13 +8601,13 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="16">
+      <c r="A93" s="15">
         <v>92</v>
       </c>
-      <c r="B93" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="16" t="s">
+      <c r="B93" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="1"/>
@@ -8552,13 +8640,13 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="16">
+      <c r="A94" s="15">
         <v>93</v>
       </c>
-      <c r="B94" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="16" t="s">
+      <c r="B94" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1"/>
@@ -8591,13 +8679,13 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="16">
+      <c r="A95" s="15">
         <v>94</v>
       </c>
-      <c r="B95" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="16" t="s">
+      <c r="B95" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="1"/>
@@ -8630,13 +8718,13 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="16">
+      <c r="A96" s="15">
         <v>95</v>
       </c>
-      <c r="B96" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="16" t="s">
+      <c r="B96" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="1"/>
@@ -8669,13 +8757,13 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="16">
+      <c r="A97" s="15">
         <v>96</v>
       </c>
-      <c r="B97" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="16" t="s">
+      <c r="B97" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -8710,13 +8798,13 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="16">
+      <c r="A98" s="15">
         <v>97</v>
       </c>
-      <c r="B98" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="16" t="s">
+      <c r="B98" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -8751,13 +8839,13 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="16">
+      <c r="A99" s="15">
         <v>98</v>
       </c>
-      <c r="B99" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="16" t="s">
+      <c r="B99" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -8792,13 +8880,13 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="16">
+      <c r="A100" s="15">
         <v>99</v>
       </c>
-      <c r="B100" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="16" t="s">
+      <c r="B100" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -8833,13 +8921,13 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="16">
+      <c r="A101" s="15">
         <v>100</v>
       </c>
-      <c r="B101" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="16" t="s">
+      <c r="B101" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8874,13 +8962,13 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="16">
+      <c r="A102" s="15">
         <v>101</v>
       </c>
-      <c r="B102" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="16" t="s">
+      <c r="B102" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="1"/>
@@ -8915,13 +9003,13 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="16">
+      <c r="A103" s="15">
         <v>102</v>
       </c>
-      <c r="B103" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="16" t="s">
+      <c r="B103" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="1"/>
@@ -8954,13 +9042,13 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="16">
+      <c r="A104" s="15">
         <v>103</v>
       </c>
-      <c r="B104" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="16" t="s">
+      <c r="B104" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="1"/>
@@ -8993,13 +9081,13 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="16">
+      <c r="A105" s="15">
         <v>104</v>
       </c>
-      <c r="B105" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="16" t="s">
+      <c r="B105" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="1"/>
@@ -9032,13 +9120,13 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A106" s="16">
+      <c r="A106" s="15">
         <v>105</v>
       </c>
-      <c r="B106" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="16" t="s">
+      <c r="B106" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="1"/>
@@ -9073,13 +9161,13 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="16">
+      <c r="A107" s="15">
         <v>106</v>
       </c>
-      <c r="B107" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="16" t="s">
+      <c r="B107" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="1"/>
@@ -9112,13 +9200,13 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="16">
+      <c r="A108" s="15">
         <v>107</v>
       </c>
-      <c r="B108" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="16" t="s">
+      <c r="B108" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="1"/>
@@ -9151,13 +9239,13 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="16">
+      <c r="A109" s="15">
         <v>108</v>
       </c>
-      <c r="B109" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="16" t="s">
+      <c r="B109" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="1"/>
@@ -9190,13 +9278,13 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="16">
+      <c r="A110" s="15">
         <v>109</v>
       </c>
-      <c r="B110" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="16" t="s">
+      <c r="B110" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="1"/>
@@ -9229,13 +9317,13 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="16">
+      <c r="A111" s="15">
         <v>110</v>
       </c>
-      <c r="B111" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="16" t="s">
+      <c r="B111" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="1"/>
@@ -9268,13 +9356,13 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="16">
+      <c r="A112" s="15">
         <v>111</v>
       </c>
-      <c r="B112" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="16" t="s">
+      <c r="B112" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1"/>
@@ -9307,13 +9395,13 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="16">
+      <c r="A113" s="15">
         <v>112</v>
       </c>
-      <c r="B113" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="16" t="s">
+      <c r="B113" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="1"/>
@@ -9346,13 +9434,13 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="16">
+      <c r="A114" s="15">
         <v>113</v>
       </c>
-      <c r="B114" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="16" t="s">
+      <c r="B114" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1"/>
@@ -9385,13 +9473,13 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="16">
+      <c r="A115" s="15">
         <v>114</v>
       </c>
-      <c r="B115" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="16" t="s">
+      <c r="B115" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="1"/>
@@ -9424,13 +9512,13 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="16">
+      <c r="A116" s="15">
         <v>115</v>
       </c>
-      <c r="B116" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="16" t="s">
+      <c r="B116" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="1"/>
@@ -9463,13 +9551,13 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="16">
+      <c r="A117" s="15">
         <v>116</v>
       </c>
-      <c r="B117" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="16" t="s">
+      <c r="B117" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="1"/>
@@ -9502,13 +9590,13 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="16">
+      <c r="A118" s="15">
         <v>117</v>
       </c>
-      <c r="B118" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="16" t="s">
+      <c r="B118" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="1"/>
@@ -9543,13 +9631,13 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="16">
+      <c r="A119" s="15">
         <v>118</v>
       </c>
-      <c r="B119" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="16" t="s">
+      <c r="B119" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="1"/>
@@ -9582,13 +9670,13 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="16">
+      <c r="A120" s="15">
         <v>119</v>
       </c>
-      <c r="B120" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="16" t="s">
+      <c r="B120" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="1"/>
@@ -9621,13 +9709,13 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="16">
+      <c r="A121" s="15">
         <v>120</v>
       </c>
-      <c r="B121" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="16" t="s">
+      <c r="B121" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="1"/>
@@ -9660,13 +9748,13 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="16">
+      <c r="A122" s="15">
         <v>121</v>
       </c>
-      <c r="B122" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="16" t="s">
+      <c r="B122" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="1"/>
@@ -9699,13 +9787,13 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="16">
+      <c r="A123" s="15">
         <v>122</v>
       </c>
-      <c r="B123" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="16" t="s">
+      <c r="B123" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="1"/>
@@ -9738,13 +9826,13 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="16">
+      <c r="A124" s="15">
         <v>123</v>
       </c>
-      <c r="B124" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="16" t="s">
+      <c r="B124" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="1"/>
@@ -9777,13 +9865,13 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="16">
+      <c r="A125" s="15">
         <v>124</v>
       </c>
-      <c r="B125" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="16" t="s">
+      <c r="B125" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="1"/>
@@ -9816,13 +9904,13 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="16">
+      <c r="A126" s="15">
         <v>125</v>
       </c>
-      <c r="B126" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="16" t="s">
+      <c r="B126" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -9857,13 +9945,13 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="16">
+      <c r="A127" s="15">
         <v>126</v>
       </c>
-      <c r="B127" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="16" t="s">
+      <c r="B127" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -9898,13 +9986,13 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="16">
+      <c r="A128" s="15">
         <v>127</v>
       </c>
-      <c r="B128" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="16" t="s">
+      <c r="B128" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="1"/>
@@ -9937,13 +10025,13 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="16">
+      <c r="A129" s="15">
         <v>128</v>
       </c>
-      <c r="B129" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="16" t="s">
+      <c r="B129" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="1"/>
@@ -9976,13 +10064,13 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="16">
+      <c r="A130" s="15">
         <v>129</v>
       </c>
-      <c r="B130" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="16" t="s">
+      <c r="B130" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="1"/>
@@ -10015,13 +10103,13 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="16">
+      <c r="A131" s="15">
         <v>130</v>
       </c>
-      <c r="B131" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="B131" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="1"/>
@@ -10054,13 +10142,13 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="16">
+      <c r="A132" s="15">
         <v>131</v>
       </c>
-      <c r="B132" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="B132" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -10095,13 +10183,13 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="16">
+      <c r="A133" s="15">
         <v>132</v>
       </c>
-      <c r="B133" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="16" t="s">
+      <c r="B133" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -10136,13 +10224,13 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="16">
+      <c r="A134" s="15">
         <v>133</v>
       </c>
-      <c r="B134" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="16" t="s">
+      <c r="B134" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -10177,13 +10265,13 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="16">
+      <c r="A135" s="15">
         <v>134</v>
       </c>
-      <c r="B135" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="16" t="s">
+      <c r="B135" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -10218,13 +10306,13 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="16">
+      <c r="A136" s="15">
         <v>135</v>
       </c>
-      <c r="B136" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="16" t="s">
+      <c r="B136" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="1"/>
@@ -10257,13 +10345,13 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="16">
+      <c r="A137" s="15">
         <v>136</v>
       </c>
-      <c r="B137" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="16" t="s">
+      <c r="B137" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="1"/>
@@ -10296,13 +10384,13 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="16">
+      <c r="A138" s="15">
         <v>137</v>
       </c>
-      <c r="B138" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="16" t="s">
+      <c r="B138" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="1"/>
@@ -10335,13 +10423,13 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="16">
+      <c r="A139" s="15">
         <v>138</v>
       </c>
-      <c r="B139" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="16" t="s">
+      <c r="B139" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="1"/>
@@ -10376,13 +10464,13 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="16">
+      <c r="A140" s="15">
         <v>139</v>
       </c>
-      <c r="B140" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="16" t="s">
+      <c r="B140" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="1"/>
@@ -10415,13 +10503,13 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="16">
+      <c r="A141" s="15">
         <v>140</v>
       </c>
-      <c r="B141" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="16" t="s">
+      <c r="B141" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -10456,13 +10544,13 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="16">
+      <c r="A142" s="15">
         <v>141</v>
       </c>
-      <c r="B142" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="16" t="s">
+      <c r="B142" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="1"/>
@@ -10495,13 +10583,13 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="16">
+      <c r="A143" s="15">
         <v>142</v>
       </c>
-      <c r="B143" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="16" t="s">
+      <c r="B143" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="1"/>
@@ -10534,13 +10622,13 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="16">
+      <c r="A144" s="15">
         <v>143</v>
       </c>
-      <c r="B144" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="16" t="s">
+      <c r="B144" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="1"/>
@@ -10573,13 +10661,13 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="16">
+      <c r="A145" s="15">
         <v>144</v>
       </c>
-      <c r="B145" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="16" t="s">
+      <c r="B145" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="1"/>
@@ -10612,13 +10700,13 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="16">
+      <c r="A146" s="15">
         <v>145</v>
       </c>
-      <c r="B146" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="16" t="s">
+      <c r="B146" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="1"/>
@@ -10651,13 +10739,13 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="16">
+      <c r="A147" s="15">
         <v>146</v>
       </c>
-      <c r="B147" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="16" t="s">
+      <c r="B147" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="1"/>
@@ -10690,13 +10778,13 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="16">
+      <c r="A148" s="15">
         <v>147</v>
       </c>
-      <c r="B148" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="16" t="s">
+      <c r="B148" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="1"/>
@@ -10729,13 +10817,13 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="16">
+      <c r="A149" s="15">
         <v>148</v>
       </c>
-      <c r="B149" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="16" t="s">
+      <c r="B149" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="1"/>
@@ -10768,13 +10856,13 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="16">
+      <c r="A150" s="15">
         <v>149</v>
       </c>
-      <c r="B150" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="16" t="s">
+      <c r="B150" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="1"/>
@@ -10807,13 +10895,13 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="16">
+      <c r="A151" s="15">
         <v>150</v>
       </c>
-      <c r="B151" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="16" t="s">
+      <c r="B151" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="1"/>
@@ -10846,13 +10934,13 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="16">
+      <c r="A152" s="15">
         <v>151</v>
       </c>
-      <c r="B152" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="16" t="s">
+      <c r="B152" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="1"/>
@@ -10885,13 +10973,13 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="16">
+      <c r="A153" s="15">
         <v>152</v>
       </c>
-      <c r="B153" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="16" t="s">
+      <c r="B153" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -10926,13 +11014,13 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="16">
+      <c r="A154" s="15">
         <v>153</v>
       </c>
-      <c r="B154" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="16" t="s">
+      <c r="B154" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="1"/>
@@ -10965,13 +11053,13 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="16">
+      <c r="A155" s="15">
         <v>154</v>
       </c>
-      <c r="B155" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="16" t="s">
+      <c r="B155" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="1"/>
@@ -11004,13 +11092,13 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="16">
+      <c r="A156" s="15">
         <v>155</v>
       </c>
-      <c r="B156" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="16" t="s">
+      <c r="B156" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="1"/>
@@ -11043,13 +11131,13 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="16">
+      <c r="A157" s="15">
         <v>156</v>
       </c>
-      <c r="B157" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="16" t="s">
+      <c r="B157" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -11084,13 +11172,13 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="16">
+      <c r="A158" s="15">
         <v>157</v>
       </c>
-      <c r="B158" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="16" t="s">
+      <c r="B158" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -11125,13 +11213,13 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="16">
+      <c r="A159" s="15">
         <v>158</v>
       </c>
-      <c r="B159" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="16" t="s">
+      <c r="B159" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="1"/>
@@ -11164,13 +11252,13 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="16">
+      <c r="A160" s="15">
         <v>159</v>
       </c>
-      <c r="B160" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="16" t="s">
+      <c r="B160" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="1"/>
@@ -11203,13 +11291,13 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="16">
+      <c r="A161" s="15">
         <v>160</v>
       </c>
-      <c r="B161" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="16" t="s">
+      <c r="B161" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="1"/>
@@ -11245,10 +11333,10 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="16" t="s">
+      <c r="B162" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="1"/>
@@ -11283,13 +11371,13 @@
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="16">
+      <c r="A163" s="15">
         <v>162</v>
       </c>
-      <c r="B163" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="16" t="s">
+      <c r="B163" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -11327,10 +11415,10 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="16" t="s">
+      <c r="B164" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1"/>
@@ -11363,13 +11451,13 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="16">
+      <c r="A165" s="15">
         <v>164</v>
       </c>
-      <c r="B165" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="16" t="s">
+      <c r="B165" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="1"/>
@@ -11405,10 +11493,10 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="16" t="s">
+      <c r="B166" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="1"/>
@@ -11441,13 +11529,13 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="16">
+      <c r="A167" s="15">
         <v>166</v>
       </c>
-      <c r="B167" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="16" t="s">
+      <c r="B167" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="1"/>
@@ -11483,10 +11571,10 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="16" t="s">
+      <c r="B168" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="1"/>
@@ -11519,13 +11607,13 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="16">
+      <c r="A169" s="15">
         <v>168</v>
       </c>
-      <c r="B169" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="16" t="s">
+      <c r="B169" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="1"/>
@@ -11561,10 +11649,10 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="16" t="s">
+      <c r="B170" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="1"/>
@@ -11597,13 +11685,13 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="16">
+      <c r="A171" s="15">
         <v>170</v>
       </c>
-      <c r="B171" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="16" t="s">
+      <c r="B171" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -11641,10 +11729,10 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="16" t="s">
+      <c r="B172" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -11679,13 +11767,13 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="16">
+      <c r="A173" s="15">
         <v>172</v>
       </c>
-      <c r="B173" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="16" t="s">
+      <c r="B173" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -11723,10 +11811,10 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="16">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="16" t="s">
+      <c r="B174" s="15">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -11761,10 +11849,10 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="16">
+      <c r="A175" s="15">
         <v>174</v>
       </c>
-      <c r="B175" s="16">
+      <c r="B175" s="15">
         <v>430005</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -11803,7 +11891,7 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="16">
+      <c r="B176" s="15">
         <v>430005</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -11839,10 +11927,10 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="16">
+      <c r="A177" s="15">
         <v>176</v>
       </c>
-      <c r="B177" s="16">
+      <c r="B177" s="15">
         <v>430005</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -11883,7 +11971,7 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="16">
+      <c r="B178" s="15">
         <v>430005</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -11919,10 +12007,10 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="16">
+      <c r="A179" s="15">
         <v>178</v>
       </c>
-      <c r="B179" s="16">
+      <c r="B179" s="15">
         <v>430005</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -11961,7 +12049,7 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="16">
+      <c r="B180" s="15">
         <v>430005</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -11997,10 +12085,10 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="16">
+      <c r="A181" s="15">
         <v>180</v>
       </c>
-      <c r="B181" s="16">
+      <c r="B181" s="15">
         <v>430005</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -12039,7 +12127,7 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="16">
+      <c r="B182" s="15">
         <v>430005</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -12075,10 +12163,10 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="16">
+      <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="16">
+      <c r="B183" s="15">
         <v>430005</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -12117,7 +12205,7 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="16">
+      <c r="B184" s="15">
         <v>430005</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -12153,10 +12241,10 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="16">
+      <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="16">
+      <c r="B185" s="15">
         <v>430005</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -12195,7 +12283,7 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="16">
+      <c r="B186" s="15">
         <v>430005</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -12231,10 +12319,10 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="16">
+      <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="16">
+      <c r="B187" s="15">
         <v>430005</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -12273,7 +12361,7 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="16">
+      <c r="B188" s="15">
         <v>430005</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -12309,10 +12397,10 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="16">
+      <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="16">
+      <c r="B189" s="15">
         <v>430005</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -12355,7 +12443,7 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="16">
+      <c r="B190" s="15">
         <v>430005</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -12393,10 +12481,10 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="16">
+      <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="16">
+      <c r="B191" s="15">
         <v>430005</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -12437,7 +12525,7 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="16">
+      <c r="B192" s="15">
         <v>430005</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -12475,10 +12563,10 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="16">
+      <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="16">
+      <c r="B193" s="15">
         <v>430005</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -12517,7 +12605,7 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="16">
+      <c r="B194" s="15">
         <v>430005</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -12553,10 +12641,10 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="16">
+      <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="16">
+      <c r="B195" s="15">
         <v>430005</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -12595,7 +12683,7 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="16">
+      <c r="B196" s="15">
         <v>430005</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -12633,10 +12721,10 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="16">
+      <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="16">
+      <c r="B197" s="15">
         <v>430005</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -12677,7 +12765,7 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="16">
+      <c r="B198" s="15">
         <v>430005</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -12715,10 +12803,10 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="16">
+      <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="16">
+      <c r="B199" s="15">
         <v>430005</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -12757,7 +12845,7 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="16">
+      <c r="B200" s="15">
         <v>430005</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -12793,10 +12881,10 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="16">
+      <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="16">
+      <c r="B201" s="15">
         <v>430005</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -12835,7 +12923,7 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="16">
+      <c r="B202" s="15">
         <v>430005</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -12873,10 +12961,10 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="16">
+      <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="16">
+      <c r="B203" s="15">
         <v>430005</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -12917,7 +13005,7 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="16">
+      <c r="B204" s="15">
         <v>430005</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -12953,10 +13041,10 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="16">
+      <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="16">
+      <c r="B205" s="15">
         <v>430005</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -12995,7 +13083,7 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="16">
+      <c r="B206" s="15">
         <v>430005</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -13031,10 +13119,10 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="16">
+      <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="16">
+      <c r="B207" s="15">
         <v>430005</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -13073,7 +13161,7 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="16">
+      <c r="B208" s="15">
         <v>430005</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -13109,10 +13197,10 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="16">
+      <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="16">
+      <c r="B209" s="15">
         <v>430005</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -13151,7 +13239,7 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="15">
         <v>430005</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -13187,10 +13275,10 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="16">
+      <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="15">
         <v>430005</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -13229,7 +13317,7 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="15">
         <v>430005</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -13265,10 +13353,10 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="16">
+      <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="15">
         <v>430005</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -13307,7 +13395,7 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="16">
+      <c r="B214" s="15">
         <v>430005</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -13343,10 +13431,10 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="16">
+      <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="16">
+      <c r="B215" s="15">
         <v>430005</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -13385,7 +13473,7 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="16">
+      <c r="B216" s="15">
         <v>430005</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -13423,10 +13511,10 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="16">
+      <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="15">
         <v>430005</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -13467,7 +13555,7 @@
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="15">
         <v>430005</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -13505,10 +13593,10 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="16">
+      <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="15">
         <v>430005</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -13547,7 +13635,7 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="15">
         <v>430005</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -13583,10 +13671,10 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="16">
+      <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="15">
         <v>430005</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -13625,7 +13713,7 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="15">
         <v>430005</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -13661,10 +13749,10 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="16">
+      <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="15">
         <v>430005</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -13703,7 +13791,7 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="16">
+      <c r="B224" s="15">
         <v>430005</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -13739,10 +13827,10 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="16">
+      <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="16">
+      <c r="B225" s="15">
         <v>430005</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -13783,7 +13871,7 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="15">
         <v>430005</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -13819,10 +13907,10 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="16">
+      <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="15">
         <v>430005</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -13861,7 +13949,7 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="16">
+      <c r="B228" s="15">
         <v>430005</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -13897,10 +13985,10 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="16">
+      <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="15">
         <v>430005</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -13939,7 +14027,7 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="15">
         <v>430005</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -13975,10 +14063,10 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="16">
+      <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="15">
         <v>430005</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -14017,7 +14105,7 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="16">
+      <c r="B232" s="15">
         <v>430005</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -14053,10 +14141,10 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="16">
+      <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="16">
+      <c r="B233" s="15">
         <v>430005</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -14095,7 +14183,7 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="16">
+      <c r="B234" s="15">
         <v>430005</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -14131,10 +14219,10 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="16">
+      <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="16">
+      <c r="B235" s="15">
         <v>430005</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -14173,7 +14261,7 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="16">
+      <c r="B236" s="15">
         <v>430005</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -14209,10 +14297,10 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="16">
+      <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="16">
+      <c r="B237" s="15">
         <v>430005</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -14251,7 +14339,7 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="16">
+      <c r="B238" s="15">
         <v>430005</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -14289,10 +14377,10 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="16">
+      <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="16">
+      <c r="B239" s="15">
         <v>430005</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -14331,7 +14419,7 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="16">
+      <c r="B240" s="15">
         <v>430005</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -14367,10 +14455,10 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="16">
+      <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="16">
+      <c r="B241" s="15">
         <v>430005</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -14409,7 +14497,7 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="16">
+      <c r="B242" s="15">
         <v>430005</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -14445,10 +14533,10 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="16">
+      <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="16">
+      <c r="B243" s="15">
         <v>430005</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -14489,7 +14577,7 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="16">
+      <c r="B244" s="15">
         <v>430005</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -14527,10 +14615,10 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="16">
+      <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="16">
+      <c r="B245" s="15">
         <v>430005</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -14569,7 +14657,7 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="16">
+      <c r="B246" s="15">
         <v>430005</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -14605,10 +14693,10 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="16">
+      <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="16">
+      <c r="B247" s="15">
         <v>430005</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -14647,7 +14735,7 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="16">
+      <c r="B248" s="15">
         <v>430005</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -14683,10 +14771,10 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="16">
+      <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="16">
+      <c r="B249" s="15">
         <v>430005</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -14725,7 +14813,7 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="16">
+      <c r="B250" s="15">
         <v>430005</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -14763,10 +14851,10 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="16">
+      <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="16">
+      <c r="B251" s="15">
         <v>430005</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -14805,7 +14893,7 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="16">
+      <c r="B252" s="15">
         <v>430005</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -14841,10 +14929,10 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="16">
+      <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="16">
+      <c r="B253" s="15">
         <v>430005</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -14883,7 +14971,7 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="16">
+      <c r="B254" s="15">
         <v>430005</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -14919,10 +15007,10 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="16">
+      <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="16">
+      <c r="B255" s="15">
         <v>430005</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -14961,7 +15049,7 @@
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="16">
+      <c r="B256" s="15">
         <v>430005</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -14997,10 +15085,10 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="16">
+      <c r="A257" s="15">
         <v>256</v>
       </c>
-      <c r="B257" s="16">
+      <c r="B257" s="15">
         <v>430005</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -15039,7 +15127,7 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="16">
+      <c r="B258" s="15">
         <v>430005</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -15075,10 +15163,10 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="16">
+      <c r="A259" s="15">
         <v>258</v>
       </c>
-      <c r="B259" s="16">
+      <c r="B259" s="15">
         <v>430005</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -15117,7 +15205,7 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="16">
+      <c r="B260" s="15">
         <v>430005</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -15153,10 +15241,10 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="16">
+      <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="16">
+      <c r="B261" s="15">
         <v>430005</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -15195,7 +15283,7 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="16">
+      <c r="B262" s="15">
         <v>430005</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -15231,10 +15319,10 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="16">
+      <c r="A263" s="15">
         <v>262</v>
       </c>
-      <c r="B263" s="16">
+      <c r="B263" s="15">
         <v>430005</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -15273,7 +15361,7 @@
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="16">
+      <c r="B264" s="15">
         <v>430005</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -15309,10 +15397,10 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="16">
+      <c r="A265" s="15">
         <v>264</v>
       </c>
-      <c r="B265" s="16">
+      <c r="B265" s="15">
         <v>430005</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -15351,7 +15439,7 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="16">
+      <c r="B266" s="15">
         <v>430005</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -15387,10 +15475,10 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="16">
+      <c r="A267" s="15">
         <v>266</v>
       </c>
-      <c r="B267" s="16">
+      <c r="B267" s="15">
         <v>430005</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -15429,7 +15517,7 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="16">
+      <c r="B268" s="15">
         <v>430005</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -15465,10 +15553,10 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="16">
+      <c r="A269" s="15">
         <v>268</v>
       </c>
-      <c r="B269" s="16">
+      <c r="B269" s="15">
         <v>430005</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -15507,7 +15595,7 @@
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="16">
+      <c r="B270" s="15">
         <v>430005</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -15546,7 +15634,7 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="16">
+      <c r="B271" s="15">
         <v>430005</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -15587,7 +15675,7 @@
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="16">
+      <c r="B272" s="15">
         <v>430005</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -15626,7 +15714,7 @@
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="16">
+      <c r="B273" s="15">
         <v>430005</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -15665,7 +15753,7 @@
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="16">
+      <c r="B274" s="15">
         <v>430005</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -15704,7 +15792,7 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="16">
+      <c r="B275" s="15">
         <v>430005</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -15745,7 +15833,7 @@
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="16">
+      <c r="B276" s="15">
         <v>430005</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -15786,7 +15874,7 @@
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="16">
+      <c r="B277" s="15">
         <v>430005</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -15827,7 +15915,7 @@
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="16">
+      <c r="B278" s="15">
         <v>430005</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -15868,7 +15956,7 @@
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="16">
+      <c r="B279" s="15">
         <v>430005</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -15909,7 +15997,7 @@
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="16">
+      <c r="B280" s="15">
         <v>430005</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -15950,7 +16038,7 @@
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="16">
+      <c r="B281" s="15">
         <v>430005</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -15991,7 +16079,7 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="16">
+      <c r="B282" s="15">
         <v>430005</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -16030,7 +16118,7 @@
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="16">
+      <c r="B283" s="15">
         <v>430005</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -16069,7 +16157,7 @@
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="16">
+      <c r="B284" s="15">
         <v>430005</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -16108,7 +16196,7 @@
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="16">
+      <c r="B285" s="15">
         <v>430005</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -16147,7 +16235,7 @@
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="16">
+      <c r="B286" s="15">
         <v>430005</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -16186,7 +16274,7 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="16">
+      <c r="B287" s="15">
         <v>430005</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -16225,7 +16313,7 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="16">
+      <c r="B288" s="15">
         <v>430005</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -16264,7 +16352,7 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="16">
+      <c r="B289" s="15">
         <v>430005</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -16303,7 +16391,7 @@
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="16">
+      <c r="B290" s="15">
         <v>430005</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -16342,7 +16430,7 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="16">
+      <c r="B291" s="15">
         <v>430005</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -16383,7 +16471,7 @@
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="16">
+      <c r="B292" s="15">
         <v>430005</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -16422,7 +16510,7 @@
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="16">
+      <c r="B293" s="15">
         <v>430005</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -16461,7 +16549,7 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="16">
+      <c r="B294" s="15">
         <v>430005</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -16500,7 +16588,7 @@
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="16">
+      <c r="B295" s="15">
         <v>430005</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -16539,7 +16627,7 @@
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="16">
+      <c r="B296" s="15">
         <v>430005</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -16578,7 +16666,7 @@
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="16">
+      <c r="B297" s="15">
         <v>430005</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -16617,7 +16705,7 @@
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="16">
+      <c r="B298" s="15">
         <v>430005</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -16656,7 +16744,7 @@
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="16">
+      <c r="B299" s="15">
         <v>430005</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -16697,7 +16785,7 @@
       <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="16">
+      <c r="B300" s="15">
         <v>430005</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -16736,7 +16824,7 @@
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="16">
+      <c r="B301" s="15">
         <v>430005</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -16775,7 +16863,7 @@
       <c r="A302" s="1">
         <v>301</v>
       </c>
-      <c r="B302" s="16">
+      <c r="B302" s="15">
         <v>430005</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -16814,7 +16902,7 @@
       <c r="A303" s="1">
         <v>302</v>
       </c>
-      <c r="B303" s="16">
+      <c r="B303" s="15">
         <v>430005</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -16853,7 +16941,7 @@
       <c r="A304" s="1">
         <v>303</v>
       </c>
-      <c r="B304" s="16">
+      <c r="B304" s="15">
         <v>430005</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -16892,7 +16980,7 @@
       <c r="A305" s="1">
         <v>304</v>
       </c>
-      <c r="B305" s="16">
+      <c r="B305" s="15">
         <v>430005</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -16931,7 +17019,7 @@
       <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="16">
+      <c r="B306" s="15">
         <v>430005</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -16970,7 +17058,7 @@
       <c r="A307" s="1">
         <v>306</v>
       </c>
-      <c r="B307" s="16">
+      <c r="B307" s="15">
         <v>430005</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -17009,7 +17097,7 @@
       <c r="A308" s="1">
         <v>307</v>
       </c>
-      <c r="B308" s="16">
+      <c r="B308" s="15">
         <v>430005</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -17048,7 +17136,7 @@
       <c r="A309" s="1">
         <v>308</v>
       </c>
-      <c r="B309" s="16">
+      <c r="B309" s="15">
         <v>430005</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -17087,7 +17175,7 @@
       <c r="A310" s="1">
         <v>309</v>
       </c>
-      <c r="B310" s="16">
+      <c r="B310" s="15">
         <v>430005</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -17126,7 +17214,7 @@
       <c r="A311" s="1">
         <v>310</v>
       </c>
-      <c r="B311" s="16">
+      <c r="B311" s="15">
         <v>430005</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -17165,7 +17253,7 @@
       <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="16">
+      <c r="B312" s="15">
         <v>430005</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -17206,7 +17294,7 @@
       <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="16">
+      <c r="B313" s="15">
         <v>430005</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -17245,7 +17333,7 @@
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="16">
+      <c r="B314" s="15">
         <v>430005</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -17284,7 +17372,7 @@
       <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B315" s="16">
+      <c r="B315" s="15">
         <v>430005</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -17325,7 +17413,7 @@
       <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B316" s="16">
+      <c r="B316" s="15">
         <v>430005</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -17366,7 +17454,7 @@
       <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B317" s="16">
+      <c r="B317" s="15">
         <v>430005</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -17407,7 +17495,7 @@
       <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B318" s="16">
+      <c r="B318" s="15">
         <v>430005</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -17448,7 +17536,7 @@
       <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B319" s="16">
+      <c r="B319" s="15">
         <v>430005</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -17489,7 +17577,7 @@
       <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B320" s="16">
+      <c r="B320" s="15">
         <v>430005</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -17530,7 +17618,7 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="16">
+      <c r="B321" s="15">
         <v>430005</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -17571,7 +17659,7 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="16">
+      <c r="B322" s="15">
         <v>430005</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -17612,7 +17700,7 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="16">
+      <c r="B323" s="15">
         <v>430005</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -17653,7 +17741,7 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="16">
+      <c r="B324" s="15">
         <v>430005</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -17692,7 +17780,7 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="16">
+      <c r="B325" s="15">
         <v>430005</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -17731,7 +17819,7 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="16">
+      <c r="B326" s="15">
         <v>430005</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -17770,7 +17858,7 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="16">
+      <c r="B327" s="15">
         <v>430005</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -17809,7 +17897,7 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="16">
+      <c r="B328" s="15">
         <v>430005</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -17848,7 +17936,7 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="16">
+      <c r="B329" s="15">
         <v>430005</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -17889,7 +17977,7 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="16">
+      <c r="B330" s="15">
         <v>430005</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -17930,7 +18018,7 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="16">
+      <c r="B331" s="15">
         <v>430005</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -17971,7 +18059,7 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="16">
+      <c r="B332" s="15">
         <v>430005</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -18012,7 +18100,7 @@
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="17">
+      <c r="B333" s="16">
         <v>430005</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -18021,10 +18109,10 @@
       <c r="D333" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="18">
+      <c r="E333" s="17">
         <v>44049</v>
       </c>
-      <c r="F333" s="18">
+      <c r="F333" s="17">
         <v>44049</v>
       </c>
       <c r="G333" s="2" t="s">
@@ -18036,7 +18124,7 @@
       <c r="I333" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J333" s="19" t="s">
+      <c r="J333" s="18" t="s">
         <v>38</v>
       </c>
       <c r="K333" s="1"/>
@@ -18053,14 +18141,14 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="17">
+      <c r="B334" s="16">
         <v>430005</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D334" s="1"/>
-      <c r="E334" s="18">
+      <c r="E334" s="17">
         <v>44050</v>
       </c>
       <c r="F334" s="10">
@@ -18092,17 +18180,17 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="17">
+      <c r="B335" s="16">
         <v>430005</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="1"/>
-      <c r="E335" s="18">
+      <c r="E335" s="17">
         <v>44050</v>
       </c>
-      <c r="F335" s="18">
+      <c r="F335" s="17">
         <v>44049</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -18131,14 +18219,14 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="17">
+      <c r="B336" s="16">
         <v>430005</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D336" s="1"/>
-      <c r="E336" s="18">
+      <c r="E336" s="17">
         <v>44050</v>
       </c>
       <c r="F336" s="10">
@@ -18170,17 +18258,17 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="17">
+      <c r="B337" s="16">
         <v>430005</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D337" s="1"/>
-      <c r="E337" s="18">
+      <c r="E337" s="17">
         <v>44050</v>
       </c>
-      <c r="F337" s="18">
+      <c r="F337" s="17">
         <v>44049</v>
       </c>
       <c r="G337" s="1" t="s">
@@ -18209,14 +18297,14 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="17">
+      <c r="B338" s="16">
         <v>430005</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D338" s="1"/>
-      <c r="E338" s="18">
+      <c r="E338" s="17">
         <v>44050</v>
       </c>
       <c r="F338" s="10">
@@ -18248,14 +18336,14 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="17">
+      <c r="B339" s="16">
         <v>430005</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="1"/>
-      <c r="E339" s="18">
+      <c r="E339" s="17">
         <v>44050</v>
       </c>
       <c r="F339" s="10">
@@ -18287,14 +18375,14 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="17">
+      <c r="B340" s="16">
         <v>430005</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="1"/>
-      <c r="E340" s="18">
+      <c r="E340" s="17">
         <v>44050</v>
       </c>
       <c r="F340" s="10">
@@ -18326,7 +18414,7 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="16">
+      <c r="B341" s="15">
         <v>430005</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -18365,7 +18453,7 @@
       <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342" s="17">
+      <c r="B342" s="16">
         <v>430005</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -18404,7 +18492,7 @@
       <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343" s="16">
+      <c r="B343" s="15">
         <v>430005</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -18443,7 +18531,7 @@
       <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344" s="17">
+      <c r="B344" s="16">
         <v>430005</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -18482,7 +18570,7 @@
       <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345" s="16">
+      <c r="B345" s="15">
         <v>430005</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -18521,7 +18609,7 @@
       <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346" s="17">
+      <c r="B346" s="16">
         <v>430005</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -18560,7 +18648,7 @@
       <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347" s="16">
+      <c r="B347" s="15">
         <v>430005</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -18599,7 +18687,7 @@
       <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348" s="17">
+      <c r="B348" s="16">
         <v>430005</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -18638,7 +18726,7 @@
       <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349" s="16">
+      <c r="B349" s="15">
         <v>430005</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -18677,7 +18765,7 @@
       <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350" s="16">
+      <c r="B350" s="15">
         <v>430005</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -18716,7 +18804,7 @@
       <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351" s="16">
+      <c r="B351" s="15">
         <v>430005</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -18757,7 +18845,7 @@
       <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352" s="16">
+      <c r="B352" s="15">
         <v>430005</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -18798,7 +18886,7 @@
       <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353" s="16">
+      <c r="B353" s="15">
         <v>430005</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -18837,7 +18925,7 @@
       <c r="A354" s="1">
         <v>353</v>
       </c>
-      <c r="B354" s="16">
+      <c r="B354" s="15">
         <v>430005</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -18876,7 +18964,7 @@
       <c r="A355" s="1">
         <v>354</v>
       </c>
-      <c r="B355" s="16">
+      <c r="B355" s="15">
         <v>430005</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -18917,7 +19005,7 @@
       <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B356" s="16">
+      <c r="B356" s="15">
         <v>430005</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -18927,7 +19015,7 @@
       <c r="E356" s="10">
         <v>44053</v>
       </c>
-      <c r="F356" s="20">
+      <c r="F356" s="19">
         <v>44052</v>
       </c>
       <c r="G356" s="1" t="s">
@@ -18956,7 +19044,7 @@
       <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B357" s="16">
+      <c r="B357" s="15">
         <v>430005</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -18966,7 +19054,7 @@
       <c r="E357" s="10">
         <v>44053</v>
       </c>
-      <c r="F357" s="20">
+      <c r="F357" s="19">
         <v>44052</v>
       </c>
       <c r="G357" s="1" t="s">
@@ -18995,7 +19083,7 @@
       <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358" s="16">
+      <c r="B358" s="15">
         <v>430005</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -19005,7 +19093,7 @@
       <c r="E358" s="10">
         <v>44053</v>
       </c>
-      <c r="F358" s="20">
+      <c r="F358" s="19">
         <v>44052</v>
       </c>
       <c r="G358" s="1" t="s">
@@ -19034,17 +19122,17 @@
       <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359" s="16">
+      <c r="B359" s="15">
         <v>430005</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D359" s="1"/>
-      <c r="E359" s="20">
+      <c r="E359" s="19">
         <v>44054</v>
       </c>
-      <c r="F359" s="20">
+      <c r="F359" s="19">
         <v>44053</v>
       </c>
       <c r="G359" s="1" t="s">
@@ -19073,7 +19161,7 @@
       <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B360" s="16">
+      <c r="B360" s="15">
         <v>430005</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -19082,10 +19170,10 @@
       <c r="D360" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E360" s="20">
+      <c r="E360" s="19">
         <v>44054</v>
       </c>
-      <c r="F360" s="20">
+      <c r="F360" s="19">
         <v>44054</v>
       </c>
       <c r="G360" s="1" t="s">
@@ -19114,7 +19202,7 @@
       <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B361" s="16">
+      <c r="B361" s="15">
         <v>430005</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -19123,10 +19211,10 @@
       <c r="D361" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E361" s="20">
+      <c r="E361" s="19">
         <v>44054</v>
       </c>
-      <c r="F361" s="20">
+      <c r="F361" s="19">
         <v>44054</v>
       </c>
       <c r="G361" s="1" t="s">
@@ -19155,7 +19243,7 @@
       <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B362" s="16">
+      <c r="B362" s="15">
         <v>430005</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -19164,10 +19252,10 @@
       <c r="D362" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E362" s="20">
+      <c r="E362" s="19">
         <v>44054</v>
       </c>
-      <c r="F362" s="20">
+      <c r="F362" s="19">
         <v>44054</v>
       </c>
       <c r="G362" s="1" t="s">
@@ -19196,17 +19284,17 @@
       <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B363" s="16">
+      <c r="B363" s="15">
         <v>430005</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D363" s="1"/>
-      <c r="E363" s="20">
+      <c r="E363" s="19">
         <v>44055</v>
       </c>
-      <c r="F363" s="20">
+      <c r="F363" s="19">
         <v>44054</v>
       </c>
       <c r="G363" s="1" t="s">
@@ -19235,17 +19323,17 @@
       <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B364" s="16">
+      <c r="B364" s="15">
         <v>430005</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D364" s="1"/>
-      <c r="E364" s="20">
+      <c r="E364" s="19">
         <v>44055</v>
       </c>
-      <c r="F364" s="20">
+      <c r="F364" s="19">
         <v>44054</v>
       </c>
       <c r="G364" s="1" t="s">
@@ -19274,17 +19362,17 @@
       <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365" s="16">
+      <c r="B365" s="15">
         <v>430005</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D365" s="1"/>
-      <c r="E365" s="20">
+      <c r="E365" s="19">
         <v>44055</v>
       </c>
-      <c r="F365" s="20">
+      <c r="F365" s="19">
         <v>44054</v>
       </c>
       <c r="G365" s="1" t="s">
@@ -19313,17 +19401,17 @@
       <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B366" s="16">
+      <c r="B366" s="15">
         <v>430005</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D366" s="1"/>
-      <c r="E366" s="20">
+      <c r="E366" s="19">
         <v>44055</v>
       </c>
-      <c r="F366" s="20">
+      <c r="F366" s="19">
         <v>44054</v>
       </c>
       <c r="G366" s="1" t="s">
@@ -19352,7 +19440,7 @@
       <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B367" s="16">
+      <c r="B367" s="15">
         <v>430005</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -19393,7 +19481,7 @@
       <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368" s="16">
+      <c r="B368" s="15">
         <v>430005</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -19434,7 +19522,7 @@
       <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="B369" s="16">
+      <c r="B369" s="15">
         <v>430005</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -19475,7 +19563,7 @@
       <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370" s="16">
+      <c r="B370" s="15">
         <v>430005</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -19518,7 +19606,7 @@
       <c r="A371" s="1">
         <v>370</v>
       </c>
-      <c r="B371" s="16">
+      <c r="B371" s="15">
         <v>430005</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -19559,7 +19647,7 @@
       <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372" s="16">
+      <c r="B372" s="15">
         <v>430005</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -19602,7 +19690,7 @@
       <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373" s="16">
+      <c r="B373" s="15">
         <v>430005</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -19641,7 +19729,7 @@
       <c r="A374" s="1">
         <v>373</v>
       </c>
-      <c r="B374" s="16">
+      <c r="B374" s="15">
         <v>430005</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -19680,7 +19768,7 @@
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="16">
+      <c r="B375" s="15">
         <v>430005</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -19721,7 +19809,7 @@
       <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376" s="16">
+      <c r="B376" s="15">
         <v>430005</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -19760,7 +19848,7 @@
       <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377" s="16">
+      <c r="B377" s="15">
         <v>430005</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -19801,7 +19889,7 @@
       <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378" s="16">
+      <c r="B378" s="15">
         <v>430005</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -19842,7 +19930,7 @@
       <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379" s="16">
+      <c r="B379" s="15">
         <v>430005</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -19883,7 +19971,7 @@
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="16">
+      <c r="B380" s="15">
         <v>430005</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -19924,7 +20012,7 @@
       <c r="A381" s="1">
         <v>380</v>
       </c>
-      <c r="B381" s="16">
+      <c r="B381" s="15">
         <v>430005</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -19965,7 +20053,7 @@
       <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382" s="16">
+      <c r="B382" s="15">
         <v>430005</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -20006,7 +20094,7 @@
       <c r="A383" s="1">
         <v>382</v>
       </c>
-      <c r="B383" s="16">
+      <c r="B383" s="15">
         <v>430005</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -20047,7 +20135,7 @@
       <c r="A384" s="1">
         <v>383</v>
       </c>
-      <c r="B384" s="16">
+      <c r="B384" s="15">
         <v>430005</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -20086,7 +20174,7 @@
       <c r="A385" s="1">
         <v>384</v>
       </c>
-      <c r="B385" s="16">
+      <c r="B385" s="15">
         <v>430005</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -20125,7 +20213,7 @@
       <c r="A386" s="1">
         <v>385</v>
       </c>
-      <c r="B386" s="16">
+      <c r="B386" s="15">
         <v>430005</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -20164,7 +20252,7 @@
       <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B387" s="16">
+      <c r="B387" s="15">
         <v>430005</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -20203,7 +20291,7 @@
       <c r="A388" s="1">
         <v>387</v>
       </c>
-      <c r="B388" s="16">
+      <c r="B388" s="15">
         <v>430005</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -20244,7 +20332,7 @@
       <c r="A389" s="1">
         <v>388</v>
       </c>
-      <c r="B389" s="16">
+      <c r="B389" s="15">
         <v>430005</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -20285,7 +20373,7 @@
       <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390" s="16">
+      <c r="B390" s="15">
         <v>430005</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -20326,7 +20414,7 @@
       <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B391" s="16">
+      <c r="B391" s="15">
         <v>430005</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -20367,7 +20455,7 @@
       <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B392" s="16">
+      <c r="B392" s="15">
         <v>430005</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -20408,7 +20496,7 @@
       <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393" s="16">
+      <c r="B393" s="15">
         <v>430005</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -20449,7 +20537,7 @@
       <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B394" s="16">
+      <c r="B394" s="15">
         <v>430005</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -20488,7 +20576,7 @@
       <c r="A395" s="1">
         <v>394</v>
       </c>
-      <c r="B395" s="16">
+      <c r="B395" s="15">
         <v>430005</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -20527,7 +20615,7 @@
       <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396" s="16">
+      <c r="B396" s="15">
         <v>430005</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -20568,7 +20656,7 @@
       <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397" s="16">
+      <c r="B397" s="15">
         <v>430005</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -20609,7 +20697,7 @@
       <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B398" s="16">
+      <c r="B398" s="15">
         <v>430005</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -20650,7 +20738,7 @@
       <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B399" s="16">
+      <c r="B399" s="15">
         <v>430005</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -20662,7 +20750,7 @@
       <c r="E399" s="10">
         <v>44058</v>
       </c>
-      <c r="F399" s="20">
+      <c r="F399" s="19">
         <v>44058</v>
       </c>
       <c r="G399" s="1" t="s">
@@ -20691,7 +20779,7 @@
       <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400" s="16">
+      <c r="B400" s="15">
         <v>430005</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -20703,7 +20791,7 @@
       <c r="E400" s="10">
         <v>44058</v>
       </c>
-      <c r="F400" s="20">
+      <c r="F400" s="19">
         <v>44058</v>
       </c>
       <c r="G400" s="1" t="s">
@@ -20732,7 +20820,7 @@
       <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B401" s="16">
+      <c r="B401" s="15">
         <v>430005</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -20744,7 +20832,7 @@
       <c r="E401" s="10">
         <v>44058</v>
       </c>
-      <c r="F401" s="20">
+      <c r="F401" s="19">
         <v>44058</v>
       </c>
       <c r="G401" s="1" t="s">
@@ -20773,7 +20861,7 @@
       <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402" s="16">
+      <c r="B402" s="15">
         <v>430005</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -20785,7 +20873,7 @@
       <c r="E402" s="10">
         <v>44058</v>
       </c>
-      <c r="F402" s="20">
+      <c r="F402" s="19">
         <v>44058</v>
       </c>
       <c r="G402" s="1" t="s">
@@ -20814,7 +20902,7 @@
       <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403" s="16">
+      <c r="B403" s="15">
         <v>430005</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -20826,7 +20914,7 @@
       <c r="E403" s="10">
         <v>44058</v>
       </c>
-      <c r="F403" s="20">
+      <c r="F403" s="19">
         <v>44058</v>
       </c>
       <c r="G403" s="1" t="s">
@@ -20855,7 +20943,7 @@
       <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B404" s="16">
+      <c r="B404" s="15">
         <v>430005</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -20867,7 +20955,7 @@
       <c r="E404" s="10">
         <v>44058</v>
       </c>
-      <c r="F404" s="20">
+      <c r="F404" s="19">
         <v>44058</v>
       </c>
       <c r="G404" s="1" t="s">
@@ -20896,7 +20984,7 @@
       <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B405" s="16">
+      <c r="B405" s="15">
         <v>430005</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -20906,7 +20994,7 @@
       <c r="E405" s="10">
         <v>44059</v>
       </c>
-      <c r="F405" s="20">
+      <c r="F405" s="19">
         <v>44058</v>
       </c>
       <c r="G405" s="1" t="s">
@@ -20935,7 +21023,7 @@
       <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="16">
+      <c r="B406" s="15">
         <v>430005</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -20945,7 +21033,7 @@
       <c r="E406" s="10">
         <v>44059</v>
       </c>
-      <c r="F406" s="20">
+      <c r="F406" s="19">
         <v>44058</v>
       </c>
       <c r="G406" s="1" t="s">
@@ -20974,7 +21062,7 @@
       <c r="A407" s="1">
         <v>406</v>
       </c>
-      <c r="B407" s="16">
+      <c r="B407" s="15">
         <v>430005</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -20984,7 +21072,7 @@
       <c r="E407" s="10">
         <v>44059</v>
       </c>
-      <c r="F407" s="20">
+      <c r="F407" s="19">
         <v>44058</v>
       </c>
       <c r="G407" s="1" t="s">
@@ -21013,7 +21101,7 @@
       <c r="A408" s="1">
         <v>407</v>
       </c>
-      <c r="B408" s="16">
+      <c r="B408" s="15">
         <v>430005</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -21054,7 +21142,7 @@
       <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B409" s="16">
+      <c r="B409" s="15">
         <v>430005</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -21093,7 +21181,7 @@
       <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B410" s="16">
+      <c r="B410" s="15">
         <v>430005</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -21132,7 +21220,7 @@
       <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B411" s="16">
+      <c r="B411" s="15">
         <v>430005</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -21175,7 +21263,7 @@
       <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B412" s="16">
+      <c r="B412" s="15">
         <v>430005</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -21218,7 +21306,7 @@
       <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B413" s="16">
+      <c r="B413" s="15">
         <v>430005</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -21259,7 +21347,7 @@
       <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B414" s="16">
+      <c r="B414" s="15">
         <v>430005</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -21300,7 +21388,7 @@
       <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B415" s="16">
+      <c r="B415" s="15">
         <v>430005</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -21341,7 +21429,7 @@
       <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B416" s="16">
+      <c r="B416" s="15">
         <v>430005</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -21382,7 +21470,7 @@
       <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417" s="16">
+      <c r="B417" s="15">
         <v>430005</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -21423,7 +21511,7 @@
       <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418" s="16">
+      <c r="B418" s="15">
         <v>430005</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -21464,7 +21552,7 @@
       <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419" s="16">
+      <c r="B419" s="15">
         <v>430005</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -21503,7 +21591,7 @@
       <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420" s="16">
+      <c r="B420" s="15">
         <v>430005</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -21544,7 +21632,7 @@
       <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421" s="16">
+      <c r="B421" s="15">
         <v>430005</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -21585,7 +21673,7 @@
       <c r="A422" s="1">
         <v>421</v>
       </c>
-      <c r="B422" s="16">
+      <c r="B422" s="15">
         <v>430005</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -21626,7 +21714,7 @@
       <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423" s="16">
+      <c r="B423" s="15">
         <v>430005</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -21667,7 +21755,7 @@
       <c r="A424" s="1">
         <v>423</v>
       </c>
-      <c r="B424" s="16">
+      <c r="B424" s="15">
         <v>430005</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -21708,7 +21796,7 @@
       <c r="A425" s="1">
         <v>424</v>
       </c>
-      <c r="B425" s="16">
+      <c r="B425" s="15">
         <v>430005</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -21751,7 +21839,7 @@
       <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426" s="16">
+      <c r="B426" s="15">
         <v>430005</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -21792,7 +21880,7 @@
       <c r="A427" s="1">
         <v>426</v>
       </c>
-      <c r="B427" s="16">
+      <c r="B427" s="15">
         <v>430005</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -21833,7 +21921,7 @@
       <c r="A428" s="1">
         <v>427</v>
       </c>
-      <c r="B428" s="16">
+      <c r="B428" s="15">
         <v>430005</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -21874,7 +21962,7 @@
       <c r="A429" s="1">
         <v>428</v>
       </c>
-      <c r="B429" s="16">
+      <c r="B429" s="15">
         <v>430005</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -21913,7 +22001,7 @@
       <c r="A430" s="1">
         <v>429</v>
       </c>
-      <c r="B430" s="16">
+      <c r="B430" s="15">
         <v>430005</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -21939,7 +22027,7 @@
         <v>433</v>
       </c>
       <c r="K430" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L430" s="1"/>
       <c r="M430" s="1">
@@ -21954,7 +22042,7 @@
       <c r="A431" s="1">
         <v>430</v>
       </c>
-      <c r="B431" s="16">
+      <c r="B431" s="15">
         <v>430005</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -21993,7 +22081,7 @@
       <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432" s="16">
+      <c r="B432" s="15">
         <v>430005</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -22034,7 +22122,7 @@
       <c r="A433" s="1">
         <v>432</v>
       </c>
-      <c r="B433" s="16">
+      <c r="B433" s="15">
         <v>430005</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -22075,7 +22163,7 @@
       <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434" s="16">
+      <c r="B434" s="15">
         <v>430005</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -22116,7 +22204,7 @@
       <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435" s="16">
+      <c r="B435" s="15">
         <v>430005</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -22157,7 +22245,7 @@
       <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436" s="16">
+      <c r="B436" s="15">
         <v>430005</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -22196,7 +22284,7 @@
       <c r="A437" s="1">
         <v>436</v>
       </c>
-      <c r="B437" s="16">
+      <c r="B437" s="15">
         <v>430005</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -22237,7 +22325,7 @@
       <c r="A438" s="1">
         <v>437</v>
       </c>
-      <c r="B438" s="16">
+      <c r="B438" s="15">
         <v>430005</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -22278,7 +22366,7 @@
       <c r="A439" s="1">
         <v>438</v>
       </c>
-      <c r="B439" s="16">
+      <c r="B439" s="15">
         <v>430005</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -22319,7 +22407,7 @@
       <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440" s="16">
+      <c r="B440" s="15">
         <v>430005</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -22362,7 +22450,7 @@
       <c r="A441" s="1">
         <v>440</v>
       </c>
-      <c r="B441" s="16">
+      <c r="B441" s="15">
         <v>430005</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -22403,7 +22491,7 @@
       <c r="A442" s="1">
         <v>441</v>
       </c>
-      <c r="B442" s="16">
+      <c r="B442" s="15">
         <v>430005</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -22444,7 +22532,7 @@
       <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443" s="16">
+      <c r="B443" s="15">
         <v>430005</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -22485,7 +22573,7 @@
       <c r="A444" s="1">
         <v>443</v>
       </c>
-      <c r="B444" s="16">
+      <c r="B444" s="15">
         <v>430005</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -22510,15 +22598,13 @@
       <c r="J444" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="K444" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K444" s="1"/>
       <c r="L444" s="1"/>
       <c r="M444" s="1">
         <v>0</v>
       </c>
       <c r="N444" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O444" s="1"/>
     </row>
@@ -22526,7 +22612,7 @@
       <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445" s="16">
+      <c r="B445" s="15">
         <v>430005</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -22565,7 +22651,7 @@
       <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446" s="16">
+      <c r="B446" s="15">
         <v>430005</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -22590,15 +22676,13 @@
       <c r="J446" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K446" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K446" s="1"/>
       <c r="L446" s="1"/>
       <c r="M446" s="1">
         <v>0</v>
       </c>
       <c r="N446" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O446" s="1"/>
     </row>
@@ -22606,7 +22690,7 @@
       <c r="A447" s="1">
         <v>446</v>
       </c>
-      <c r="B447" s="16">
+      <c r="B447" s="15">
         <v>430005</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -22649,7 +22733,7 @@
       <c r="A448" s="1">
         <v>447</v>
       </c>
-      <c r="B448" s="16">
+      <c r="B448" s="15">
         <v>430005</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -22676,15 +22760,13 @@
       <c r="J448" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K448" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K448" s="1"/>
       <c r="L448" s="1"/>
       <c r="M448" s="1">
         <v>0</v>
       </c>
       <c r="N448" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O448" s="1"/>
     </row>
@@ -22692,7 +22774,7 @@
       <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449" s="16">
+      <c r="B449" s="15">
         <v>430005</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -22733,7 +22815,7 @@
       <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450" s="16">
+      <c r="B450" s="15">
         <v>430005</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -22758,15 +22840,13 @@
       <c r="J450" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="K450" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K450" s="1"/>
       <c r="L450" s="1"/>
       <c r="M450" s="1">
         <v>0</v>
       </c>
       <c r="N450" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O450" s="1"/>
     </row>
@@ -22774,7 +22854,7 @@
       <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451" s="16">
+      <c r="B451" s="15">
         <v>430005</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -22801,15 +22881,13 @@
       <c r="J451" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="K451" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K451" s="1"/>
       <c r="L451" s="1"/>
       <c r="M451" s="1">
         <v>0</v>
       </c>
       <c r="N451" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O451" s="1"/>
     </row>
@@ -22817,7 +22895,7 @@
       <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452" s="16">
+      <c r="B452" s="15">
         <v>430005</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -22858,7 +22936,7 @@
       <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453" s="16">
+      <c r="B453" s="15">
         <v>430005</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -22885,15 +22963,13 @@
       <c r="J453" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="K453" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K453" s="1"/>
       <c r="L453" s="1"/>
       <c r="M453" s="1">
         <v>0</v>
       </c>
       <c r="N453" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O453" s="1"/>
     </row>
@@ -22901,7 +22977,7 @@
       <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454" s="16">
+      <c r="B454" s="15">
         <v>430005</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -22942,7 +23018,7 @@
       <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455" s="16">
+      <c r="B455" s="15">
         <v>430005</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -22983,7 +23059,7 @@
       <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456" s="16">
+      <c r="B456" s="15">
         <v>430005</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -23010,15 +23086,13 @@
       <c r="J456" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="K456" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K456" s="1"/>
       <c r="L456" s="1"/>
       <c r="M456" s="1">
         <v>0</v>
       </c>
       <c r="N456" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O456" s="1"/>
     </row>
@@ -23026,7 +23100,7 @@
       <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457" s="16">
+      <c r="B457" s="15">
         <v>430005</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -23051,15 +23125,13 @@
       <c r="J457" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="K457" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K457" s="1"/>
       <c r="L457" s="1"/>
       <c r="M457" s="1">
         <v>0</v>
       </c>
       <c r="N457" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O457" s="1"/>
     </row>
@@ -23067,7 +23139,7 @@
       <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458" s="16">
+      <c r="B458" s="15">
         <v>430005</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -23106,7 +23178,7 @@
       <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459" s="16">
+      <c r="B459" s="15">
         <v>430005</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -23147,7 +23219,7 @@
       <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460" s="16">
+      <c r="B460" s="15">
         <v>430005</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -23188,7 +23260,7 @@
       <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461" s="16">
+      <c r="B461" s="15">
         <v>430005</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -23229,7 +23301,7 @@
       <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462" s="16">
+      <c r="B462" s="15">
         <v>430005</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -23268,7 +23340,7 @@
       <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463" s="16">
+      <c r="B463" s="15">
         <v>430005</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -23309,7 +23381,7 @@
       <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464" s="16">
+      <c r="B464" s="15">
         <v>430005</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -23352,7 +23424,7 @@
       <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465" s="16">
+      <c r="B465" s="15">
         <v>430005</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -23395,7 +23467,7 @@
       <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466" s="16">
+      <c r="B466" s="15">
         <v>430005</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -23422,15 +23494,13 @@
       <c r="J466" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="K466" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K466" s="1"/>
       <c r="L466" s="1"/>
       <c r="M466" s="1">
         <v>0</v>
       </c>
       <c r="N466" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O466" s="1"/>
     </row>
@@ -23438,7 +23508,7 @@
       <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467" s="16">
+      <c r="B467" s="15">
         <v>430005</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -23471,7 +23541,7 @@
         <v>0</v>
       </c>
       <c r="N467" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O467" s="1"/>
     </row>
@@ -23479,7 +23549,7 @@
       <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468" s="16">
+      <c r="B468" s="15">
         <v>430005</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -23520,7 +23590,7 @@
       <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469" s="16">
+      <c r="B469" s="15">
         <v>430005</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -23561,7 +23631,7 @@
       <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470" s="16">
+      <c r="B470" s="15">
         <v>430005</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -23594,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="N470" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O470" s="1"/>
     </row>
@@ -23602,7 +23672,7 @@
       <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471" s="16">
+      <c r="B471" s="15">
         <v>430005</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -23645,7 +23715,7 @@
       <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472" s="16">
+      <c r="B472" s="15">
         <v>430005</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -23686,7 +23756,7 @@
       <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473" s="16">
+      <c r="B473" s="15">
         <v>430005</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -23727,7 +23797,7 @@
       <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474" s="16">
+      <c r="B474" s="15">
         <v>430005</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -23768,7 +23838,7 @@
       <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475" s="16">
+      <c r="B475" s="15">
         <v>430005</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -23809,7 +23879,7 @@
       <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476" s="16">
+      <c r="B476" s="15">
         <v>430005</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -23850,7 +23920,7 @@
       <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477" s="16">
+      <c r="B477" s="15">
         <v>430005</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -23891,7 +23961,7 @@
       <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478" s="16">
+      <c r="B478" s="15">
         <v>430005</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -23934,7 +24004,7 @@
       <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479" s="16">
+      <c r="B479" s="15">
         <v>430005</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -23977,7 +24047,7 @@
       <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480" s="16">
+      <c r="B480" s="15">
         <v>430005</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -24004,15 +24074,13 @@
       <c r="J480" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="K480" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K480" s="1"/>
       <c r="L480" s="1"/>
       <c r="M480" s="1">
         <v>0</v>
       </c>
       <c r="N480" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O480" s="1"/>
     </row>
@@ -24020,7 +24088,7 @@
       <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481" s="16">
+      <c r="B481" s="15">
         <v>430005</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -24047,7 +24115,9 @@
       <c r="J481" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="K481" s="1"/>
+      <c r="K481" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L481" s="1"/>
       <c r="M481" s="1">
         <v>0</v>
@@ -24061,7 +24131,7 @@
       <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482" s="16">
+      <c r="B482" s="15">
         <v>430005</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -24102,7 +24172,7 @@
       <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483" s="16">
+      <c r="B483" s="15">
         <v>430005</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -24130,7 +24200,7 @@
         <v>536</v>
       </c>
       <c r="K483" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L483" s="1"/>
       <c r="M483" s="1">
@@ -24145,7 +24215,7 @@
       <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484" s="16">
+      <c r="B484" s="15">
         <v>430005</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -24186,7 +24256,7 @@
       <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485" s="16">
+      <c r="B485" s="15">
         <v>430005</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -24213,15 +24283,13 @@
       <c r="J485" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="K485" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K485" s="1"/>
       <c r="L485" s="1"/>
       <c r="M485" s="1">
         <v>0</v>
       </c>
       <c r="N485" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O485" s="1"/>
     </row>
@@ -24229,7 +24297,7 @@
       <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486" s="16">
+      <c r="B486" s="15">
         <v>430005</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -24272,7 +24340,7 @@
       <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487" s="16">
+      <c r="B487" s="15">
         <v>430005</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -24313,7 +24381,7 @@
       <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488" s="16">
+      <c r="B488" s="15">
         <v>430005</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -24354,7 +24422,7 @@
       <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B489" s="16">
+      <c r="B489" s="15">
         <v>430005</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -24395,7 +24463,7 @@
       <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B490" s="16">
+      <c r="B490" s="15">
         <v>430005</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -24436,7 +24504,7 @@
       <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B491" s="16">
+      <c r="B491" s="15">
         <v>430005</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -24479,7 +24547,7 @@
       <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B492" s="16">
+      <c r="B492" s="15">
         <v>430005</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -24632,7 +24700,7 @@
         <v>541</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="L495" s="1"/>
       <c r="M495" s="1">
@@ -25476,7 +25544,9 @@
       <c r="I515" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="J515" s="9"/>
+      <c r="J515" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="K515" s="1"/>
       <c r="L515" s="1"/>
       <c r="M515" s="1">
@@ -25515,7 +25585,9 @@
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J516" s="9"/>
+      <c r="J516" s="9" t="s">
+        <v>578</v>
+      </c>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1">
@@ -25554,8 +25626,12 @@
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J517" s="9"/>
-      <c r="K517" s="1"/>
+      <c r="J517" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K517" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L517" s="1"/>
       <c r="M517" s="1">
         <v>0</v>
@@ -25593,8 +25669,12 @@
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J518" s="9"/>
-      <c r="K518" s="1"/>
+      <c r="J518" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K518" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L518" s="1"/>
       <c r="M518" s="1">
         <v>0</v>
@@ -25632,8 +25712,12 @@
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J519" s="9"/>
-      <c r="K519" s="1"/>
+      <c r="J519" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="K519" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L519" s="1"/>
       <c r="M519" s="1">
         <v>0</v>
@@ -25671,7 +25755,9 @@
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J520" s="9"/>
+      <c r="J520" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="K520" s="1"/>
       <c r="L520" s="1"/>
       <c r="M520" s="1">
@@ -25710,7 +25796,9 @@
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J521" s="9"/>
+      <c r="J521" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="K521" s="1"/>
       <c r="L521" s="1"/>
       <c r="M521" s="1">
@@ -25721,8 +25809,164 @@
       </c>
       <c r="O521" s="1"/>
     </row>
+    <row r="522" spans="1:15">
+      <c r="A522" s="1">
+        <v>521</v>
+      </c>
+      <c r="B522" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D522" s="1"/>
+      <c r="E522" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F522" s="10">
+        <v>44074</v>
+      </c>
+      <c r="G522" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="H522" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I522" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J522" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="K522" s="1"/>
+      <c r="L522" s="1"/>
+      <c r="M522" s="1">
+        <v>0</v>
+      </c>
+      <c r="N522" s="1">
+        <v>0</v>
+      </c>
+      <c r="O522" s="1"/>
+    </row>
+    <row r="523" spans="1:15">
+      <c r="A523" s="1">
+        <v>522</v>
+      </c>
+      <c r="B523" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E523" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F523" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G523" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H523" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I523" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J523" s="9"/>
+      <c r="K523" s="1"/>
+      <c r="L523" s="1"/>
+      <c r="M523" s="1">
+        <v>0</v>
+      </c>
+      <c r="N523" s="1">
+        <v>0</v>
+      </c>
+      <c r="O523" s="1"/>
+    </row>
+    <row r="524" spans="1:15">
+      <c r="A524" s="1">
+        <v>523</v>
+      </c>
+      <c r="B524" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C524" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E524" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F524" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G524" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H524" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="I524" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J524" s="9"/>
+      <c r="K524" s="1"/>
+      <c r="L524" s="1"/>
+      <c r="M524" s="1">
+        <v>0</v>
+      </c>
+      <c r="N524" s="1">
+        <v>0</v>
+      </c>
+      <c r="O524" s="1"/>
+    </row>
+    <row r="525" spans="1:15">
+      <c r="A525" s="1">
+        <v>524</v>
+      </c>
+      <c r="B525" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C525" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E525" s="10">
+        <v>44075</v>
+      </c>
+      <c r="F525" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G525" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H525" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="I525" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J525" s="9"/>
+      <c r="K525" s="1"/>
+      <c r="L525" s="1"/>
+      <c r="M525" s="1">
+        <v>0</v>
+      </c>
+      <c r="N525" s="1">
+        <v>0</v>
+      </c>
+      <c r="O525" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O521"/>
+  <autoFilter ref="A1:O523"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,9 +10,9 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$523</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$529</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual" calcCompleted="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="589">
   <si>
     <t>No</t>
   </si>
@@ -4315,15 +4315,49 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市中央区</t>
+    <t>学生</t>
+    <rPh sb="0" eb="2">
+      <t>ガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パート従業員</t>
     <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4335,35 +4369,33 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自衛隊員</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイタイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4419,7 +4451,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4429,12 +4461,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4518,7 +4544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4540,14 +4566,6 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4577,6 +4595,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4865,13 +4884,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O525"/>
+  <dimension ref="A1:O529"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B515" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B514" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B528" sqref="B528"/>
+      <selection pane="bottomRight" activeCell="C532" sqref="C532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -4938,83 +4957,83 @@
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="11">
-        <v>1</v>
-      </c>
-      <c r="B2" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="16">
         <v>43883</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="16">
         <v>43882</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11">
-        <v>0</v>
-      </c>
-      <c r="N2" s="11">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
         <v>1</v>
       </c>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="11">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="11">
-        <v>430005</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="11" t="s">
+      <c r="B3" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="16">
         <v>43883</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="16">
         <v>43882</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11">
-        <v>0</v>
-      </c>
-      <c r="N3" s="11">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1"/>
@@ -5030,10 +5049,10 @@
         <v>14</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>43883</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="16">
         <v>43883</v>
       </c>
       <c r="G4" s="1" t="s">
@@ -5071,10 +5090,10 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>43886</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="16">
         <v>43885</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -5112,10 +5131,10 @@
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <v>43886</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="16">
         <v>43886</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -5151,10 +5170,10 @@
         <v>14</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>43894</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="16">
         <v>43894</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -5192,10 +5211,10 @@
       <c r="D8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>43909</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="16">
         <v>43909</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -5233,10 +5252,10 @@
       <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>43915</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="16">
         <v>43915</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -5276,10 +5295,10 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>43917</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="16">
         <v>43917</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -5317,10 +5336,10 @@
       <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>43917</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="16">
         <v>43917</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -5358,10 +5377,10 @@
       <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>43918</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="16">
         <v>43918</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -5399,10 +5418,10 @@
       <c r="D13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>43919</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="16">
         <v>43919</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -5440,10 +5459,10 @@
       <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>43920</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="16">
         <v>43920</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -5481,10 +5500,10 @@
       <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <v>43920</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="16">
         <v>43920</v>
       </c>
       <c r="G15" s="1" t="s">
@@ -5522,10 +5541,10 @@
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>43922</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="16">
         <v>43922</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -5563,10 +5582,10 @@
       <c r="D17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>43924</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="16">
         <v>43924</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -5604,10 +5623,10 @@
       <c r="D18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="16">
         <v>43924</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="16">
         <v>43924</v>
       </c>
       <c r="G18" s="1" t="s">
@@ -5645,10 +5664,10 @@
       <c r="D19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="16">
         <v>43924</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="16">
         <v>43924</v>
       </c>
       <c r="G19" s="1" t="s">
@@ -5684,10 +5703,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="20">
+      <c r="E20" s="16">
         <v>43926</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="16">
         <v>43926</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -5703,7 +5722,7 @@
         <v>42</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="17"/>
       <c r="M20" s="1">
         <v>0</v>
       </c>
@@ -5723,10 +5742,10 @@
         <v>14</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="20">
+      <c r="E21" s="16">
         <v>43927</v>
       </c>
-      <c r="F21" s="20">
+      <c r="F21" s="16">
         <v>43927</v>
       </c>
       <c r="G21" s="1" t="s">
@@ -5764,10 +5783,10 @@
       <c r="D22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="16">
         <v>43928</v>
       </c>
-      <c r="F22" s="20">
+      <c r="F22" s="16">
         <v>43928</v>
       </c>
       <c r="G22" s="1" t="s">
@@ -5803,10 +5822,10 @@
         <v>14</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="20">
+      <c r="E23" s="16">
         <v>43929</v>
       </c>
-      <c r="F23" s="20">
+      <c r="F23" s="16">
         <v>43929</v>
       </c>
       <c r="G23" s="1" t="s">
@@ -5844,10 +5863,10 @@
       <c r="D24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="16">
         <v>43930</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="16">
         <v>43930</v>
       </c>
       <c r="G24" s="1" t="s">
@@ -5885,10 +5904,10 @@
       <c r="D25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="16">
         <v>43931</v>
       </c>
-      <c r="F25" s="20">
+      <c r="F25" s="16">
         <v>43931</v>
       </c>
       <c r="G25" s="1" t="s">
@@ -5926,10 +5945,10 @@
       <c r="D26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="16">
         <v>43932</v>
       </c>
-      <c r="F26" s="20">
+      <c r="F26" s="16">
         <v>43932</v>
       </c>
       <c r="G26" s="1" t="s">
@@ -5969,10 +5988,10 @@
       <c r="D27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="16">
         <v>43933</v>
       </c>
-      <c r="F27" s="20">
+      <c r="F27" s="16">
         <v>43933</v>
       </c>
       <c r="G27" s="1" t="s">
@@ -6008,10 +6027,10 @@
         <v>14</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="20">
+      <c r="E28" s="16">
         <v>43933</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="16">
         <v>43933</v>
       </c>
       <c r="G28" s="1" t="s">
@@ -6049,10 +6068,10 @@
       <c r="D29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="16">
         <v>43934</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="16">
         <v>43934</v>
       </c>
       <c r="G29" s="1" t="s">
@@ -6090,10 +6109,10 @@
       <c r="D30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="16">
         <v>43935</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="16">
         <v>43935</v>
       </c>
       <c r="G30" s="1" t="s">
@@ -6131,10 +6150,10 @@
       <c r="D31" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="16">
         <v>43935</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="16">
         <v>43935</v>
       </c>
       <c r="G31" s="1" t="s">
@@ -6170,10 +6189,10 @@
         <v>14</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="20">
+      <c r="E32" s="16">
         <v>43935</v>
       </c>
-      <c r="F32" s="20">
+      <c r="F32" s="16">
         <v>43935</v>
       </c>
       <c r="G32" s="1" t="s">
@@ -6211,10 +6230,10 @@
       <c r="D33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="16">
         <v>43936</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="16">
         <v>43936</v>
       </c>
       <c r="G33" s="1" t="s">
@@ -6252,10 +6271,10 @@
         <v>14</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="E34" s="20">
+      <c r="E34" s="16">
         <v>43936</v>
       </c>
-      <c r="F34" s="20">
+      <c r="F34" s="16">
         <v>43936</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -6293,10 +6312,10 @@
       <c r="D35" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="16">
         <v>43938</v>
       </c>
-      <c r="F35" s="20">
+      <c r="F35" s="16">
         <v>43938</v>
       </c>
       <c r="G35" s="1" t="s">
@@ -6334,10 +6353,10 @@
       <c r="D36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="16">
         <v>43938</v>
       </c>
-      <c r="F36" s="20">
+      <c r="F36" s="16">
         <v>43938</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -6375,10 +6394,10 @@
       <c r="D37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="16">
         <v>43939</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="16">
         <v>43939</v>
       </c>
       <c r="G37" s="1" t="s">
@@ -6416,10 +6435,10 @@
       <c r="D38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="16">
         <v>43939</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="16">
         <v>43939</v>
       </c>
       <c r="G38" s="1" t="s">
@@ -6457,10 +6476,10 @@
       <c r="D39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="16">
         <v>43940</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="16">
         <v>43940</v>
       </c>
       <c r="G39" s="1" t="s">
@@ -6498,10 +6517,10 @@
       <c r="D40" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="16">
         <v>43940</v>
       </c>
-      <c r="F40" s="20">
+      <c r="F40" s="16">
         <v>43940</v>
       </c>
       <c r="G40" s="1" t="s">
@@ -6539,10 +6558,10 @@
       <c r="D41" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="16">
         <v>43940</v>
       </c>
-      <c r="F41" s="20">
+      <c r="F41" s="16">
         <v>43940</v>
       </c>
       <c r="G41" s="1" t="s">
@@ -6580,10 +6599,10 @@
       <c r="D42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="16">
         <v>43941</v>
       </c>
-      <c r="F42" s="20">
+      <c r="F42" s="16">
         <v>43941</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -6621,10 +6640,10 @@
       <c r="D43" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E43" s="22">
+      <c r="E43" s="18">
         <v>43942</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="16">
         <v>43942</v>
       </c>
       <c r="G43" s="2" t="s">
@@ -6636,11 +6655,11 @@
       <c r="I43" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="J43" s="23" t="s">
+      <c r="J43" s="19" t="s">
         <v>60</v>
       </c>
       <c r="K43" s="1"/>
-      <c r="L43" s="16"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="2">
         <v>0</v>
       </c>
@@ -6662,10 +6681,10 @@
       <c r="D44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="16">
         <v>43943</v>
       </c>
-      <c r="F44" s="20">
+      <c r="F44" s="16">
         <v>43943</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6703,10 +6722,10 @@
       <c r="D45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="16">
         <v>43944</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="16">
         <v>43944</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6744,10 +6763,10 @@
       <c r="D46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="16">
         <v>43945</v>
       </c>
-      <c r="F46" s="20">
+      <c r="F46" s="16">
         <v>43945</v>
       </c>
       <c r="G46" s="1" t="s">
@@ -6785,10 +6804,10 @@
       <c r="D47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="16">
         <v>43947</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="16">
         <v>43947</v>
       </c>
       <c r="G47" s="1" t="s">
@@ -6804,7 +6823,7 @@
         <v>92</v>
       </c>
       <c r="K47" s="1"/>
-      <c r="L47" s="24"/>
+      <c r="L47" s="20"/>
       <c r="M47" s="1">
         <v>0</v>
       </c>
@@ -6826,10 +6845,10 @@
       <c r="D48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="16">
         <v>43947</v>
       </c>
-      <c r="F48" s="20">
+      <c r="F48" s="16">
         <v>43947</v>
       </c>
       <c r="G48" s="1" t="s">
@@ -6855,13 +6874,13 @@
       <c r="O48" s="1"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="15">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C49" s="15" t="s">
+      <c r="B49" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="4" t="s">
@@ -6882,7 +6901,7 @@
       <c r="I49" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J49" s="25" t="s">
+      <c r="J49" s="21" t="s">
         <v>87</v>
       </c>
       <c r="K49" s="1"/>
@@ -6896,13 +6915,13 @@
       <c r="O49" s="4"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="15">
+      <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C50" s="15" t="s">
+      <c r="B50" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C50" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D50" s="4"/>
@@ -6935,13 +6954,13 @@
       <c r="O50" s="4"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="15">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C51" s="15" t="s">
+      <c r="B51" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D51" s="4"/>
@@ -6974,13 +6993,13 @@
       <c r="O51" s="4"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="15">
+      <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C52" s="11" t="s">
         <v>102</v>
       </c>
       <c r="D52" s="4" t="s">
@@ -7015,13 +7034,13 @@
       <c r="O52" s="4"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="15">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C53" s="15" t="s">
+      <c r="B53" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C53" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -7056,13 +7075,13 @@
       <c r="O53" s="4"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="15">
+      <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C54" s="15" t="s">
+      <c r="B54" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C54" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -7077,10 +7096,10 @@
       <c r="G54" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H54" s="26" t="s">
+      <c r="H54" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I54" s="26" t="s">
+      <c r="I54" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J54" s="9" t="s">
@@ -7097,13 +7116,13 @@
       <c r="O54" s="1"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="15">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C55" s="15" t="s">
+      <c r="B55" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C55" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D55" s="1"/>
@@ -7116,10 +7135,10 @@
       <c r="G55" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I55" s="26" t="s">
+      <c r="I55" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J55" s="9" t="s">
@@ -7136,13 +7155,13 @@
       <c r="O55" s="1"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="15">
+      <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C56" s="15" t="s">
+      <c r="B56" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C56" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="1"/>
@@ -7155,10 +7174,10 @@
       <c r="G56" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H56" s="26" t="s">
+      <c r="H56" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I56" s="26" t="s">
+      <c r="I56" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J56" s="9" t="s">
@@ -7175,13 +7194,13 @@
       <c r="O56" s="1"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="15">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C57" s="15" t="s">
+      <c r="B57" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C57" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -7196,10 +7215,10 @@
       <c r="G57" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I57" s="26" t="s">
+      <c r="I57" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J57" s="9" t="s">
@@ -7216,13 +7235,13 @@
       <c r="O57" s="1"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="15">
+      <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C58" s="15" t="s">
+      <c r="B58" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C58" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="4" t="s">
@@ -7237,10 +7256,10 @@
       <c r="G58" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I58" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J58" s="9" t="s">
@@ -7257,13 +7276,13 @@
       <c r="O58" s="1"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="15">
+      <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="1"/>
@@ -7276,10 +7295,10 @@
       <c r="G59" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I59" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J59" s="9" t="s">
@@ -7296,13 +7315,13 @@
       <c r="O59" s="1"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="15">
+      <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C60" s="15" t="s">
+      <c r="B60" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C60" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -7317,16 +7336,16 @@
       <c r="G60" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I60" s="26" t="s">
+      <c r="I60" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="K60" s="27"/>
+      <c r="K60" s="23"/>
       <c r="L60" s="1"/>
       <c r="M60" s="4">
         <v>0</v>
@@ -7337,13 +7356,13 @@
       <c r="O60" s="1"/>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="15">
+      <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C61" s="15" t="s">
+      <c r="B61" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D61" s="1"/>
@@ -7356,10 +7375,10 @@
       <c r="G61" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I61" s="26" t="s">
+      <c r="I61" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J61" s="9" t="s">
@@ -7376,13 +7395,13 @@
       <c r="O61" s="1"/>
     </row>
     <row r="62" spans="1:15">
-      <c r="A62" s="15">
+      <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C62" s="15" t="s">
+      <c r="B62" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D62" s="4" t="s">
@@ -7397,10 +7416,10 @@
       <c r="G62" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="H62" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I62" s="26" t="s">
+      <c r="I62" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J62" s="9" t="s">
@@ -7417,13 +7436,13 @@
       <c r="O62" s="1"/>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="15">
+      <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C63" s="15" t="s">
+      <c r="B63" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D63" s="1"/>
@@ -7436,10 +7455,10 @@
       <c r="G63" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="H63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I63" s="26" t="s">
+      <c r="I63" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J63" s="9" t="s">
@@ -7456,13 +7475,13 @@
       <c r="O63" s="1"/>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="15">
+      <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C64" s="15" t="s">
+      <c r="B64" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C64" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D64" s="4" t="s">
@@ -7477,10 +7496,10 @@
       <c r="G64" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="H64" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I64" s="26" t="s">
+      <c r="I64" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J64" s="9" t="s">
@@ -7497,13 +7516,13 @@
       <c r="O64" s="1"/>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="15">
+      <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C65" s="15" t="s">
+      <c r="B65" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C65" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D65" s="1"/>
@@ -7516,10 +7535,10 @@
       <c r="G65" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="H65" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I65" s="26" t="s">
+      <c r="I65" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J65" s="9" t="s">
@@ -7536,13 +7555,13 @@
       <c r="O65" s="1"/>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="15">
+      <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C66" s="15" t="s">
+      <c r="B66" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D66" s="1"/>
@@ -7555,10 +7574,10 @@
       <c r="G66" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="H66" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I66" s="26" t="s">
+      <c r="I66" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J66" s="9" t="s">
@@ -7575,13 +7594,13 @@
       <c r="O66" s="1"/>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="15">
+      <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C67" s="15" t="s">
+      <c r="B67" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D67" s="1"/>
@@ -7594,10 +7613,10 @@
       <c r="G67" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="H67" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I67" s="26" t="s">
+      <c r="I67" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J67" s="9" t="s">
@@ -7614,13 +7633,13 @@
       <c r="O67" s="1"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="15">
+      <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C68" s="15" t="s">
+      <c r="B68" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C68" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D68" s="1"/>
@@ -7633,10 +7652,10 @@
       <c r="G68" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="H68" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I68" s="26" t="s">
+      <c r="I68" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J68" s="9" t="s">
@@ -7653,13 +7672,13 @@
       <c r="O68" s="1"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="15">
+      <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C69" s="15" t="s">
+      <c r="B69" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D69" s="1"/>
@@ -7672,10 +7691,10 @@
       <c r="G69" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="26" t="s">
+      <c r="H69" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="26" t="s">
+      <c r="I69" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J69" s="9" t="s">
@@ -7692,13 +7711,13 @@
       <c r="O69" s="1"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="15">
+      <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C70" s="15" t="s">
+      <c r="B70" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C70" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D70" s="1"/>
@@ -7711,10 +7730,10 @@
       <c r="G70" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I70" s="26" t="s">
+      <c r="I70" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J70" s="9" t="s">
@@ -7731,13 +7750,13 @@
       <c r="O70" s="1"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="15">
+      <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C71" s="15" t="s">
+      <c r="B71" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D71" s="1"/>
@@ -7750,10 +7769,10 @@
       <c r="G71" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="26" t="s">
+      <c r="H71" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="I71" s="26" t="s">
+      <c r="I71" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J71" s="9" t="s">
@@ -7770,13 +7789,13 @@
       <c r="O71" s="1"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="15">
+      <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C72" s="15" t="s">
+      <c r="B72" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D72" s="1"/>
@@ -7789,10 +7808,10 @@
       <c r="G72" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I72" s="26" t="s">
+      <c r="I72" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J72" s="9" t="s">
@@ -7809,13 +7828,13 @@
       <c r="O72" s="1"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="15">
+      <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C73" s="15" t="s">
+      <c r="B73" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C73" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D73" s="4" t="s">
@@ -7830,10 +7849,10 @@
       <c r="G73" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H73" s="26" t="s">
+      <c r="H73" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I73" s="26" t="s">
+      <c r="I73" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J73" s="9" t="s">
@@ -7850,13 +7869,13 @@
       <c r="O73" s="1"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="15">
+      <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C74" s="15" t="s">
+      <c r="B74" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C74" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D74" s="4" t="s">
@@ -7871,10 +7890,10 @@
       <c r="G74" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H74" s="26" t="s">
+      <c r="H74" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I74" s="26" t="s">
+      <c r="I74" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J74" s="9" t="s">
@@ -7891,13 +7910,13 @@
       <c r="O74" s="1"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="15">
+      <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C75" s="15" t="s">
+      <c r="B75" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C75" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D75" s="1"/>
@@ -7910,10 +7929,10 @@
       <c r="G75" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H75" s="26" t="s">
+      <c r="H75" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I75" s="26" t="s">
+      <c r="I75" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J75" s="9" t="s">
@@ -7930,13 +7949,13 @@
       <c r="O75" s="1"/>
     </row>
     <row r="76" spans="1:15">
-      <c r="A76" s="15">
+      <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C76" s="15" t="s">
+      <c r="B76" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C76" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1"/>
@@ -7949,10 +7968,10 @@
       <c r="G76" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H76" s="26" t="s">
+      <c r="H76" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="I76" s="26" t="s">
+      <c r="I76" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J76" s="9" t="s">
@@ -7969,13 +7988,13 @@
       <c r="O76" s="1"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="15">
+      <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C77" s="15" t="s">
+      <c r="B77" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="1"/>
@@ -7988,10 +8007,10 @@
       <c r="G77" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H77" s="26" t="s">
+      <c r="H77" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I77" s="26" t="s">
+      <c r="I77" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J77" s="9" t="s">
@@ -8008,13 +8027,13 @@
       <c r="O77" s="1"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="15">
+      <c r="A78" s="11">
         <v>77</v>
       </c>
-      <c r="B78" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C78" s="15" t="s">
+      <c r="B78" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C78" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1"/>
@@ -8027,10 +8046,10 @@
       <c r="G78" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H78" s="26" t="s">
+      <c r="H78" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I78" s="26" t="s">
+      <c r="I78" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J78" s="9" t="s">
@@ -8047,13 +8066,13 @@
       <c r="O78" s="1"/>
     </row>
     <row r="79" spans="1:15">
-      <c r="A79" s="15">
+      <c r="A79" s="11">
         <v>78</v>
       </c>
-      <c r="B79" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C79" s="15" t="s">
+      <c r="B79" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C79" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1"/>
@@ -8066,10 +8085,10 @@
       <c r="G79" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H79" s="26" t="s">
+      <c r="H79" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I79" s="26" t="s">
+      <c r="I79" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J79" s="9" t="s">
@@ -8086,13 +8105,13 @@
       <c r="O79" s="1"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="15">
+      <c r="A80" s="11">
         <v>79</v>
       </c>
-      <c r="B80" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C80" s="15" t="s">
+      <c r="B80" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D80" s="1"/>
@@ -8105,10 +8124,10 @@
       <c r="G80" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H80" s="26" t="s">
+      <c r="H80" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I80" s="26" t="s">
+      <c r="I80" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J80" s="9" t="s">
@@ -8125,13 +8144,13 @@
       <c r="O80" s="1"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="15">
+      <c r="A81" s="11">
         <v>80</v>
       </c>
-      <c r="B81" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C81" s="15" t="s">
+      <c r="B81" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C81" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D81" s="1"/>
@@ -8144,10 +8163,10 @@
       <c r="G81" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H81" s="26" t="s">
+      <c r="H81" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I81" s="26" t="s">
+      <c r="I81" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J81" s="9" t="s">
@@ -8164,13 +8183,13 @@
       <c r="O81" s="1"/>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="15">
+      <c r="A82" s="11">
         <v>81</v>
       </c>
-      <c r="B82" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C82" s="15" t="s">
+      <c r="B82" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D82" s="4" t="s">
@@ -8185,10 +8204,10 @@
       <c r="G82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H82" s="26" t="s">
+      <c r="H82" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I82" s="26" t="s">
+      <c r="I82" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J82" s="9" t="s">
@@ -8205,13 +8224,13 @@
       <c r="O82" s="1"/>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="15">
+      <c r="A83" s="11">
         <v>82</v>
       </c>
-      <c r="B83" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C83" s="15" t="s">
+      <c r="B83" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C83" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D83" s="1"/>
@@ -8224,10 +8243,10 @@
       <c r="G83" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H83" s="26" t="s">
+      <c r="H83" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I83" s="26" t="s">
+      <c r="I83" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J83" s="9" t="s">
@@ -8244,13 +8263,13 @@
       <c r="O83" s="1"/>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="15">
+      <c r="A84" s="11">
         <v>83</v>
       </c>
-      <c r="B84" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C84" s="15" t="s">
+      <c r="B84" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C84" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D84" s="1"/>
@@ -8263,10 +8282,10 @@
       <c r="G84" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H84" s="26" t="s">
+      <c r="H84" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I84" s="26" t="s">
+      <c r="I84" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J84" s="9" t="s">
@@ -8283,13 +8302,13 @@
       <c r="O84" s="1"/>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="15">
+      <c r="A85" s="11">
         <v>84</v>
       </c>
-      <c r="B85" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C85" s="15" t="s">
+      <c r="B85" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C85" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D85" s="1"/>
@@ -8302,10 +8321,10 @@
       <c r="G85" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H85" s="26" t="s">
+      <c r="H85" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="I85" s="26" t="s">
+      <c r="I85" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J85" s="9" t="s">
@@ -8322,13 +8341,13 @@
       <c r="O85" s="1"/>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="15">
+      <c r="A86" s="11">
         <v>85</v>
       </c>
-      <c r="B86" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C86" s="15" t="s">
+      <c r="B86" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C86" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1"/>
@@ -8341,10 +8360,10 @@
       <c r="G86" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H86" s="26" t="s">
+      <c r="H86" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I86" s="26" t="s">
+      <c r="I86" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J86" s="9" t="s">
@@ -8361,13 +8380,13 @@
       <c r="O86" s="1"/>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="15">
+      <c r="A87" s="11">
         <v>86</v>
       </c>
-      <c r="B87" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C87" s="15" t="s">
+      <c r="B87" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C87" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -8382,10 +8401,10 @@
       <c r="G87" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H87" s="26" t="s">
+      <c r="H87" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I87" s="26" t="s">
+      <c r="I87" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J87" s="9" t="s">
@@ -8402,13 +8421,13 @@
       <c r="O87" s="1"/>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="15">
+      <c r="A88" s="11">
         <v>87</v>
       </c>
-      <c r="B88" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C88" s="15" t="s">
+      <c r="B88" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C88" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D88" s="1"/>
@@ -8421,10 +8440,10 @@
       <c r="G88" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H88" s="26" t="s">
+      <c r="H88" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I88" s="26" t="s">
+      <c r="I88" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J88" s="9" t="s">
@@ -8441,13 +8460,13 @@
       <c r="O88" s="1"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="15">
+      <c r="A89" s="11">
         <v>88</v>
       </c>
-      <c r="B89" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C89" s="15" t="s">
+      <c r="B89" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D89" s="1"/>
@@ -8460,10 +8479,10 @@
       <c r="G89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H89" s="26" t="s">
+      <c r="H89" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I89" s="26" t="s">
+      <c r="I89" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J89" s="9" t="s">
@@ -8480,13 +8499,13 @@
       <c r="O89" s="1"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="15">
+      <c r="A90" s="11">
         <v>89</v>
       </c>
-      <c r="B90" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C90" s="15" t="s">
+      <c r="B90" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C90" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D90" s="1"/>
@@ -8499,10 +8518,10 @@
       <c r="G90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H90" s="26" t="s">
+      <c r="H90" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I90" s="26" t="s">
+      <c r="I90" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J90" s="9" t="s">
@@ -8519,13 +8538,13 @@
       <c r="O90" s="1"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="15">
+      <c r="A91" s="11">
         <v>90</v>
       </c>
-      <c r="B91" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C91" s="15" t="s">
+      <c r="B91" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C91" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D91" s="1"/>
@@ -8538,35 +8557,33 @@
       <c r="G91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H91" s="26" t="s">
+      <c r="H91" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I91" s="26" t="s">
+      <c r="I91" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J91" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="4">
         <v>0</v>
       </c>
       <c r="N91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" s="1"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="15">
+      <c r="A92" s="11">
         <v>91</v>
       </c>
-      <c r="B92" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C92" s="15" t="s">
+      <c r="B92" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D92" s="4" t="s">
@@ -8581,10 +8598,10 @@
       <c r="G92" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H92" s="26" t="s">
+      <c r="H92" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I92" s="26" t="s">
+      <c r="I92" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J92" s="9" t="s">
@@ -8601,13 +8618,13 @@
       <c r="O92" s="1"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="15">
+      <c r="A93" s="11">
         <v>92</v>
       </c>
-      <c r="B93" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C93" s="15" t="s">
+      <c r="B93" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C93" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D93" s="1"/>
@@ -8620,10 +8637,10 @@
       <c r="G93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H93" s="26" t="s">
+      <c r="H93" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I93" s="26" t="s">
+      <c r="I93" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J93" s="9" t="s">
@@ -8640,13 +8657,13 @@
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="15">
+      <c r="A94" s="11">
         <v>93</v>
       </c>
-      <c r="B94" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C94" s="15" t="s">
+      <c r="B94" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C94" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1"/>
@@ -8659,10 +8676,10 @@
       <c r="G94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H94" s="26" t="s">
+      <c r="H94" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I94" s="26" t="s">
+      <c r="I94" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J94" s="9" t="s">
@@ -8679,13 +8696,13 @@
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="15">
+      <c r="A95" s="11">
         <v>94</v>
       </c>
-      <c r="B95" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C95" s="15" t="s">
+      <c r="B95" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D95" s="1"/>
@@ -8698,10 +8715,10 @@
       <c r="G95" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H95" s="26" t="s">
+      <c r="H95" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I95" s="26" t="s">
+      <c r="I95" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J95" s="9" t="s">
@@ -8718,13 +8735,13 @@
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="15">
+      <c r="A96" s="11">
         <v>95</v>
       </c>
-      <c r="B96" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C96" s="15" t="s">
+      <c r="B96" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C96" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D96" s="1"/>
@@ -8737,10 +8754,10 @@
       <c r="G96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H96" s="26" t="s">
+      <c r="H96" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I96" s="26" t="s">
+      <c r="I96" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J96" s="9" t="s">
@@ -8757,13 +8774,13 @@
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="15">
+      <c r="A97" s="11">
         <v>96</v>
       </c>
-      <c r="B97" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C97" s="15" t="s">
+      <c r="B97" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C97" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D97" s="4" t="s">
@@ -8778,10 +8795,10 @@
       <c r="G97" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H97" s="26" t="s">
+      <c r="H97" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I97" s="26" t="s">
+      <c r="I97" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J97" s="9" t="s">
@@ -8798,13 +8815,13 @@
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="15">
+      <c r="A98" s="11">
         <v>97</v>
       </c>
-      <c r="B98" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C98" s="15" t="s">
+      <c r="B98" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C98" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D98" s="4" t="s">
@@ -8819,10 +8836,10 @@
       <c r="G98" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="H98" s="26" t="s">
+      <c r="H98" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I98" s="26" t="s">
+      <c r="I98" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J98" s="9" t="s">
@@ -8839,13 +8856,13 @@
       <c r="O98" s="1"/>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="15">
+      <c r="A99" s="11">
         <v>98</v>
       </c>
-      <c r="B99" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C99" s="15" t="s">
+      <c r="B99" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D99" s="4" t="s">
@@ -8860,10 +8877,10 @@
       <c r="G99" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="H99" s="26" t="s">
+      <c r="H99" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I99" s="26" t="s">
+      <c r="I99" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J99" s="9" t="s">
@@ -8880,13 +8897,13 @@
       <c r="O99" s="1"/>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="15">
+      <c r="A100" s="11">
         <v>99</v>
       </c>
-      <c r="B100" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C100" s="15" t="s">
+      <c r="B100" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C100" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D100" s="4" t="s">
@@ -8901,10 +8918,10 @@
       <c r="G100" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H100" s="26" t="s">
+      <c r="H100" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I100" s="26" t="s">
+      <c r="I100" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J100" s="9" t="s">
@@ -8921,13 +8938,13 @@
       <c r="O100" s="1"/>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="15">
+      <c r="A101" s="11">
         <v>100</v>
       </c>
-      <c r="B101" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C101" s="15" t="s">
+      <c r="B101" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D101" s="4" t="s">
@@ -8942,10 +8959,10 @@
       <c r="G101" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="H101" s="26" t="s">
+      <c r="H101" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I101" s="26" t="s">
+      <c r="I101" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J101" s="9" t="s">
@@ -8962,13 +8979,13 @@
       <c r="O101" s="1"/>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="15">
+      <c r="A102" s="11">
         <v>101</v>
       </c>
-      <c r="B102" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C102" s="15" t="s">
+      <c r="B102" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C102" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D102" s="1"/>
@@ -8981,10 +8998,10 @@
       <c r="G102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H102" s="26" t="s">
+      <c r="H102" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I102" s="26" t="s">
+      <c r="I102" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J102" s="9" t="s">
@@ -9003,13 +9020,13 @@
       <c r="O102" s="1"/>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="15">
+      <c r="A103" s="11">
         <v>102</v>
       </c>
-      <c r="B103" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C103" s="15" t="s">
+      <c r="B103" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C103" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D103" s="1"/>
@@ -9022,10 +9039,10 @@
       <c r="G103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H103" s="26" t="s">
+      <c r="H103" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I103" s="26" t="s">
+      <c r="I103" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J103" s="9" t="s">
@@ -9042,13 +9059,13 @@
       <c r="O103" s="1"/>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="15">
+      <c r="A104" s="11">
         <v>103</v>
       </c>
-      <c r="B104" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C104" s="15" t="s">
+      <c r="B104" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C104" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D104" s="1"/>
@@ -9061,10 +9078,10 @@
       <c r="G104" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H104" s="26" t="s">
+      <c r="H104" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I104" s="26" t="s">
+      <c r="I104" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J104" s="9" t="s">
@@ -9081,13 +9098,13 @@
       <c r="O104" s="1"/>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="15">
+      <c r="A105" s="11">
         <v>104</v>
       </c>
-      <c r="B105" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C105" s="15" t="s">
+      <c r="B105" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D105" s="1"/>
@@ -9100,10 +9117,10 @@
       <c r="G105" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="26" t="s">
+      <c r="H105" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I105" s="26" t="s">
+      <c r="I105" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J105" s="9" t="s">
@@ -9120,13 +9137,13 @@
       <c r="O105" s="1"/>
     </row>
     <row r="106" spans="1:15" ht="19.5" customHeight="1">
-      <c r="A106" s="15">
+      <c r="A106" s="11">
         <v>105</v>
       </c>
-      <c r="B106" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C106" s="15" t="s">
+      <c r="B106" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C106" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D106" s="1"/>
@@ -9139,10 +9156,10 @@
       <c r="G106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H106" s="26" t="s">
+      <c r="H106" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I106" s="26" t="s">
+      <c r="I106" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J106" s="9" t="s">
@@ -9161,13 +9178,13 @@
       <c r="O106" s="1"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="15">
+      <c r="A107" s="11">
         <v>106</v>
       </c>
-      <c r="B107" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C107" s="15" t="s">
+      <c r="B107" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C107" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D107" s="1"/>
@@ -9180,10 +9197,10 @@
       <c r="G107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H107" s="26" t="s">
+      <c r="H107" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I107" s="26" t="s">
+      <c r="I107" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J107" s="9" t="s">
@@ -9200,13 +9217,13 @@
       <c r="O107" s="1"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="15">
+      <c r="A108" s="11">
         <v>107</v>
       </c>
-      <c r="B108" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C108" s="15" t="s">
+      <c r="B108" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C108" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D108" s="1"/>
@@ -9219,10 +9236,10 @@
       <c r="G108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H108" s="26" t="s">
+      <c r="H108" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I108" s="26" t="s">
+      <c r="I108" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J108" s="9" t="s">
@@ -9239,13 +9256,13 @@
       <c r="O108" s="1"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="15">
+      <c r="A109" s="11">
         <v>108</v>
       </c>
-      <c r="B109" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C109" s="15" t="s">
+      <c r="B109" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C109" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D109" s="1"/>
@@ -9258,10 +9275,10 @@
       <c r="G109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H109" s="26" t="s">
+      <c r="H109" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I109" s="26" t="s">
+      <c r="I109" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J109" s="9" t="s">
@@ -9278,13 +9295,13 @@
       <c r="O109" s="1"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="15">
+      <c r="A110" s="11">
         <v>109</v>
       </c>
-      <c r="B110" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C110" s="15" t="s">
+      <c r="B110" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D110" s="1"/>
@@ -9297,10 +9314,10 @@
       <c r="G110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H110" s="26" t="s">
+      <c r="H110" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I110" s="26" t="s">
+      <c r="I110" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J110" s="9" t="s">
@@ -9317,13 +9334,13 @@
       <c r="O110" s="1"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="15">
+      <c r="A111" s="11">
         <v>110</v>
       </c>
-      <c r="B111" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C111" s="15" t="s">
+      <c r="B111" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C111" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D111" s="1"/>
@@ -9336,10 +9353,10 @@
       <c r="G111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H111" s="26" t="s">
+      <c r="H111" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I111" s="26" t="s">
+      <c r="I111" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J111" s="9" t="s">
@@ -9356,13 +9373,13 @@
       <c r="O111" s="1"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="15">
+      <c r="A112" s="11">
         <v>111</v>
       </c>
-      <c r="B112" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C112" s="15" t="s">
+      <c r="B112" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C112" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D112" s="1"/>
@@ -9375,10 +9392,10 @@
       <c r="G112" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H112" s="26" t="s">
+      <c r="H112" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I112" s="26" t="s">
+      <c r="I112" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J112" s="9" t="s">
@@ -9395,13 +9412,13 @@
       <c r="O112" s="1"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="15">
+      <c r="A113" s="11">
         <v>112</v>
       </c>
-      <c r="B113" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C113" s="15" t="s">
+      <c r="B113" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D113" s="1"/>
@@ -9414,10 +9431,10 @@
       <c r="G113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H113" s="26" t="s">
+      <c r="H113" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I113" s="26" t="s">
+      <c r="I113" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J113" s="9" t="s">
@@ -9434,13 +9451,13 @@
       <c r="O113" s="1"/>
     </row>
     <row r="114" spans="1:15">
-      <c r="A114" s="15">
+      <c r="A114" s="11">
         <v>113</v>
       </c>
-      <c r="B114" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C114" s="15" t="s">
+      <c r="B114" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C114" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D114" s="1"/>
@@ -9453,10 +9470,10 @@
       <c r="G114" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H114" s="26" t="s">
+      <c r="H114" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="I114" s="26" t="s">
+      <c r="I114" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J114" s="9" t="s">
@@ -9473,13 +9490,13 @@
       <c r="O114" s="1"/>
     </row>
     <row r="115" spans="1:15">
-      <c r="A115" s="15">
+      <c r="A115" s="11">
         <v>114</v>
       </c>
-      <c r="B115" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C115" s="15" t="s">
+      <c r="B115" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C115" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D115" s="1"/>
@@ -9492,10 +9509,10 @@
       <c r="G115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H115" s="26" t="s">
+      <c r="H115" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="I115" s="26" t="s">
+      <c r="I115" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J115" s="9" t="s">
@@ -9512,13 +9529,13 @@
       <c r="O115" s="1"/>
     </row>
     <row r="116" spans="1:15">
-      <c r="A116" s="15">
+      <c r="A116" s="11">
         <v>115</v>
       </c>
-      <c r="B116" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C116" s="15" t="s">
+      <c r="B116" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C116" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D116" s="1"/>
@@ -9531,10 +9548,10 @@
       <c r="G116" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H116" s="26" t="s">
+      <c r="H116" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I116" s="26" t="s">
+      <c r="I116" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J116" s="9" t="s">
@@ -9551,13 +9568,13 @@
       <c r="O116" s="1"/>
     </row>
     <row r="117" spans="1:15">
-      <c r="A117" s="15">
+      <c r="A117" s="11">
         <v>116</v>
       </c>
-      <c r="B117" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C117" s="15" t="s">
+      <c r="B117" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C117" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D117" s="1"/>
@@ -9570,10 +9587,10 @@
       <c r="G117" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H117" s="26" t="s">
+      <c r="H117" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="I117" s="26" t="s">
+      <c r="I117" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J117" s="9" t="s">
@@ -9590,13 +9607,13 @@
       <c r="O117" s="1"/>
     </row>
     <row r="118" spans="1:15">
-      <c r="A118" s="15">
+      <c r="A118" s="11">
         <v>117</v>
       </c>
-      <c r="B118" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C118" s="15" t="s">
+      <c r="B118" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C118" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D118" s="1"/>
@@ -9609,10 +9626,10 @@
       <c r="G118" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H118" s="26" t="s">
+      <c r="H118" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I118" s="26" t="s">
+      <c r="I118" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J118" s="9" t="s">
@@ -9631,13 +9648,13 @@
       <c r="O118" s="1"/>
     </row>
     <row r="119" spans="1:15">
-      <c r="A119" s="15">
+      <c r="A119" s="11">
         <v>118</v>
       </c>
-      <c r="B119" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C119" s="15" t="s">
+      <c r="B119" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C119" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D119" s="1"/>
@@ -9650,10 +9667,10 @@
       <c r="G119" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H119" s="26" t="s">
+      <c r="H119" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I119" s="26" t="s">
+      <c r="I119" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J119" s="9" t="s">
@@ -9670,13 +9687,13 @@
       <c r="O119" s="1"/>
     </row>
     <row r="120" spans="1:15">
-      <c r="A120" s="15">
+      <c r="A120" s="11">
         <v>119</v>
       </c>
-      <c r="B120" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C120" s="15" t="s">
+      <c r="B120" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C120" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D120" s="1"/>
@@ -9689,10 +9706,10 @@
       <c r="G120" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="H120" s="26" t="s">
+      <c r="H120" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I120" s="26" t="s">
+      <c r="I120" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J120" s="9" t="s">
@@ -9709,13 +9726,13 @@
       <c r="O120" s="1"/>
     </row>
     <row r="121" spans="1:15">
-      <c r="A121" s="15">
+      <c r="A121" s="11">
         <v>120</v>
       </c>
-      <c r="B121" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C121" s="15" t="s">
+      <c r="B121" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D121" s="1"/>
@@ -9728,10 +9745,10 @@
       <c r="G121" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H121" s="26" t="s">
+      <c r="H121" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I121" s="26" t="s">
+      <c r="I121" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J121" s="9" t="s">
@@ -9748,13 +9765,13 @@
       <c r="O121" s="1"/>
     </row>
     <row r="122" spans="1:15">
-      <c r="A122" s="15">
+      <c r="A122" s="11">
         <v>121</v>
       </c>
-      <c r="B122" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C122" s="15" t="s">
+      <c r="B122" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C122" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D122" s="1"/>
@@ -9767,10 +9784,10 @@
       <c r="G122" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H122" s="26" t="s">
+      <c r="H122" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I122" s="26" t="s">
+      <c r="I122" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J122" s="9" t="s">
@@ -9787,13 +9804,13 @@
       <c r="O122" s="1"/>
     </row>
     <row r="123" spans="1:15">
-      <c r="A123" s="15">
+      <c r="A123" s="11">
         <v>122</v>
       </c>
-      <c r="B123" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C123" s="15" t="s">
+      <c r="B123" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C123" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D123" s="1"/>
@@ -9806,10 +9823,10 @@
       <c r="G123" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H123" s="26" t="s">
+      <c r="H123" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I123" s="26" t="s">
+      <c r="I123" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J123" s="9" t="s">
@@ -9826,13 +9843,13 @@
       <c r="O123" s="1"/>
     </row>
     <row r="124" spans="1:15">
-      <c r="A124" s="15">
+      <c r="A124" s="11">
         <v>123</v>
       </c>
-      <c r="B124" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C124" s="15" t="s">
+      <c r="B124" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C124" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D124" s="1"/>
@@ -9845,10 +9862,10 @@
       <c r="G124" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H124" s="26" t="s">
+      <c r="H124" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I124" s="26" t="s">
+      <c r="I124" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J124" s="9" t="s">
@@ -9865,13 +9882,13 @@
       <c r="O124" s="1"/>
     </row>
     <row r="125" spans="1:15">
-      <c r="A125" s="15">
+      <c r="A125" s="11">
         <v>124</v>
       </c>
-      <c r="B125" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C125" s="15" t="s">
+      <c r="B125" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C125" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D125" s="1"/>
@@ -9884,10 +9901,10 @@
       <c r="G125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="H125" s="26" t="s">
+      <c r="H125" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I125" s="26" t="s">
+      <c r="I125" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J125" s="9" t="s">
@@ -9904,13 +9921,13 @@
       <c r="O125" s="1"/>
     </row>
     <row r="126" spans="1:15">
-      <c r="A126" s="15">
+      <c r="A126" s="11">
         <v>125</v>
       </c>
-      <c r="B126" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C126" s="15" t="s">
+      <c r="B126" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C126" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D126" s="4" t="s">
@@ -9925,10 +9942,10 @@
       <c r="G126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H126" s="26" t="s">
+      <c r="H126" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="I126" s="26" t="s">
+      <c r="I126" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J126" s="9" t="s">
@@ -9945,13 +9962,13 @@
       <c r="O126" s="1"/>
     </row>
     <row r="127" spans="1:15">
-      <c r="A127" s="15">
+      <c r="A127" s="11">
         <v>126</v>
       </c>
-      <c r="B127" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C127" s="15" t="s">
+      <c r="B127" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C127" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D127" s="4" t="s">
@@ -9966,10 +9983,10 @@
       <c r="G127" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H127" s="26" t="s">
+      <c r="H127" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I127" s="26" t="s">
+      <c r="I127" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J127" s="9" t="s">
@@ -9986,13 +10003,13 @@
       <c r="O127" s="1"/>
     </row>
     <row r="128" spans="1:15">
-      <c r="A128" s="15">
+      <c r="A128" s="11">
         <v>127</v>
       </c>
-      <c r="B128" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C128" s="15" t="s">
+      <c r="B128" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C128" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D128" s="1"/>
@@ -10005,10 +10022,10 @@
       <c r="G128" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H128" s="26" t="s">
+      <c r="H128" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I128" s="26" t="s">
+      <c r="I128" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J128" s="9" t="s">
@@ -10025,13 +10042,13 @@
       <c r="O128" s="1"/>
     </row>
     <row r="129" spans="1:15">
-      <c r="A129" s="15">
+      <c r="A129" s="11">
         <v>128</v>
       </c>
-      <c r="B129" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C129" s="15" t="s">
+      <c r="B129" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D129" s="1"/>
@@ -10044,10 +10061,10 @@
       <c r="G129" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H129" s="26" t="s">
+      <c r="H129" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I129" s="26" t="s">
+      <c r="I129" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J129" s="9" t="s">
@@ -10064,13 +10081,13 @@
       <c r="O129" s="1"/>
     </row>
     <row r="130" spans="1:15">
-      <c r="A130" s="15">
+      <c r="A130" s="11">
         <v>129</v>
       </c>
-      <c r="B130" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C130" s="15" t="s">
+      <c r="B130" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C130" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D130" s="1"/>
@@ -10083,10 +10100,10 @@
       <c r="G130" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H130" s="26" t="s">
+      <c r="H130" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I130" s="26" t="s">
+      <c r="I130" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J130" s="9" t="s">
@@ -10103,13 +10120,13 @@
       <c r="O130" s="1"/>
     </row>
     <row r="131" spans="1:15">
-      <c r="A131" s="15">
+      <c r="A131" s="11">
         <v>130</v>
       </c>
-      <c r="B131" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C131" s="15" t="s">
+      <c r="B131" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C131" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D131" s="1"/>
@@ -10122,10 +10139,10 @@
       <c r="G131" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H131" s="26" t="s">
+      <c r="H131" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I131" s="26" t="s">
+      <c r="I131" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J131" s="9" t="s">
@@ -10142,13 +10159,13 @@
       <c r="O131" s="1"/>
     </row>
     <row r="132" spans="1:15">
-      <c r="A132" s="15">
+      <c r="A132" s="11">
         <v>131</v>
       </c>
-      <c r="B132" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C132" s="15" t="s">
+      <c r="B132" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C132" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D132" s="4" t="s">
@@ -10163,10 +10180,10 @@
       <c r="G132" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H132" s="26" t="s">
+      <c r="H132" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="I132" s="26" t="s">
+      <c r="I132" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J132" s="9" t="s">
@@ -10183,13 +10200,13 @@
       <c r="O132" s="1"/>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="15">
+      <c r="A133" s="11">
         <v>132</v>
       </c>
-      <c r="B133" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C133" s="15" t="s">
+      <c r="B133" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C133" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D133" s="4" t="s">
@@ -10204,10 +10221,10 @@
       <c r="G133" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="H133" s="26" t="s">
+      <c r="H133" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="I133" s="26" t="s">
+      <c r="I133" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J133" s="9" t="s">
@@ -10224,13 +10241,13 @@
       <c r="O133" s="1"/>
     </row>
     <row r="134" spans="1:15">
-      <c r="A134" s="15">
+      <c r="A134" s="11">
         <v>133</v>
       </c>
-      <c r="B134" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C134" s="15" t="s">
+      <c r="B134" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C134" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D134" s="4" t="s">
@@ -10245,10 +10262,10 @@
       <c r="G134" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H134" s="26" t="s">
+      <c r="H134" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I134" s="26" t="s">
+      <c r="I134" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J134" s="9" t="s">
@@ -10265,13 +10282,13 @@
       <c r="O134" s="1"/>
     </row>
     <row r="135" spans="1:15">
-      <c r="A135" s="15">
+      <c r="A135" s="11">
         <v>134</v>
       </c>
-      <c r="B135" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C135" s="15" t="s">
+      <c r="B135" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D135" s="4" t="s">
@@ -10286,10 +10303,10 @@
       <c r="G135" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H135" s="26" t="s">
+      <c r="H135" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="I135" s="26" t="s">
+      <c r="I135" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J135" s="9" t="s">
@@ -10306,13 +10323,13 @@
       <c r="O135" s="1"/>
     </row>
     <row r="136" spans="1:15">
-      <c r="A136" s="15">
+      <c r="A136" s="11">
         <v>135</v>
       </c>
-      <c r="B136" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C136" s="15" t="s">
+      <c r="B136" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C136" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D136" s="1"/>
@@ -10325,10 +10342,10 @@
       <c r="G136" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="H136" s="26" t="s">
+      <c r="H136" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="I136" s="26" t="s">
+      <c r="I136" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J136" s="9" t="s">
@@ -10345,13 +10362,13 @@
       <c r="O136" s="1"/>
     </row>
     <row r="137" spans="1:15">
-      <c r="A137" s="15">
+      <c r="A137" s="11">
         <v>136</v>
       </c>
-      <c r="B137" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C137" s="15" t="s">
+      <c r="B137" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D137" s="1"/>
@@ -10364,10 +10381,10 @@
       <c r="G137" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H137" s="26" t="s">
+      <c r="H137" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="I137" s="26" t="s">
+      <c r="I137" s="22" t="s">
         <v>132</v>
       </c>
       <c r="J137" s="9" t="s">
@@ -10384,13 +10401,13 @@
       <c r="O137" s="1"/>
     </row>
     <row r="138" spans="1:15">
-      <c r="A138" s="15">
+      <c r="A138" s="11">
         <v>137</v>
       </c>
-      <c r="B138" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C138" s="15" t="s">
+      <c r="B138" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C138" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D138" s="1"/>
@@ -10403,10 +10420,10 @@
       <c r="G138" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H138" s="26" t="s">
+      <c r="H138" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I138" s="26" t="s">
+      <c r="I138" s="22" t="s">
         <v>76</v>
       </c>
       <c r="J138" s="9" t="s">
@@ -10423,13 +10440,13 @@
       <c r="O138" s="1"/>
     </row>
     <row r="139" spans="1:15">
-      <c r="A139" s="15">
+      <c r="A139" s="11">
         <v>138</v>
       </c>
-      <c r="B139" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C139" s="15" t="s">
+      <c r="B139" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C139" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D139" s="1"/>
@@ -10442,10 +10459,10 @@
       <c r="G139" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H139" s="26" t="s">
+      <c r="H139" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="I139" s="26" t="s">
+      <c r="I139" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J139" s="9" t="s">
@@ -10464,13 +10481,13 @@
       <c r="O139" s="1"/>
     </row>
     <row r="140" spans="1:15">
-      <c r="A140" s="15">
+      <c r="A140" s="11">
         <v>139</v>
       </c>
-      <c r="B140" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C140" s="15" t="s">
+      <c r="B140" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C140" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D140" s="1"/>
@@ -10483,10 +10500,10 @@
       <c r="G140" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H140" s="26" t="s">
+      <c r="H140" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="I140" s="26" t="s">
+      <c r="I140" s="22" t="s">
         <v>104</v>
       </c>
       <c r="J140" s="9" t="s">
@@ -10503,13 +10520,13 @@
       <c r="O140" s="1"/>
     </row>
     <row r="141" spans="1:15">
-      <c r="A141" s="15">
+      <c r="A141" s="11">
         <v>140</v>
       </c>
-      <c r="B141" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C141" s="15" t="s">
+      <c r="B141" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C141" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D141" s="4" t="s">
@@ -10544,13 +10561,13 @@
       <c r="O141" s="1"/>
     </row>
     <row r="142" spans="1:15">
-      <c r="A142" s="15">
+      <c r="A142" s="11">
         <v>141</v>
       </c>
-      <c r="B142" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C142" s="15" t="s">
+      <c r="B142" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C142" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D142" s="1"/>
@@ -10583,13 +10600,13 @@
       <c r="O142" s="1"/>
     </row>
     <row r="143" spans="1:15">
-      <c r="A143" s="15">
+      <c r="A143" s="11">
         <v>142</v>
       </c>
-      <c r="B143" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C143" s="15" t="s">
+      <c r="B143" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C143" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D143" s="1"/>
@@ -10622,13 +10639,13 @@
       <c r="O143" s="1"/>
     </row>
     <row r="144" spans="1:15">
-      <c r="A144" s="15">
+      <c r="A144" s="11">
         <v>143</v>
       </c>
-      <c r="B144" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C144" s="15" t="s">
+      <c r="B144" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C144" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D144" s="1"/>
@@ -10661,13 +10678,13 @@
       <c r="O144" s="1"/>
     </row>
     <row r="145" spans="1:15">
-      <c r="A145" s="15">
+      <c r="A145" s="11">
         <v>144</v>
       </c>
-      <c r="B145" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C145" s="15" t="s">
+      <c r="B145" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D145" s="1"/>
@@ -10700,13 +10717,13 @@
       <c r="O145" s="1"/>
     </row>
     <row r="146" spans="1:15">
-      <c r="A146" s="15">
+      <c r="A146" s="11">
         <v>145</v>
       </c>
-      <c r="B146" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C146" s="15" t="s">
+      <c r="B146" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C146" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D146" s="1"/>
@@ -10739,13 +10756,13 @@
       <c r="O146" s="1"/>
     </row>
     <row r="147" spans="1:15">
-      <c r="A147" s="15">
+      <c r="A147" s="11">
         <v>146</v>
       </c>
-      <c r="B147" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C147" s="15" t="s">
+      <c r="B147" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C147" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D147" s="1"/>
@@ -10778,13 +10795,13 @@
       <c r="O147" s="1"/>
     </row>
     <row r="148" spans="1:15">
-      <c r="A148" s="15">
+      <c r="A148" s="11">
         <v>147</v>
       </c>
-      <c r="B148" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C148" s="15" t="s">
+      <c r="B148" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C148" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D148" s="1"/>
@@ -10817,13 +10834,13 @@
       <c r="O148" s="1"/>
     </row>
     <row r="149" spans="1:15">
-      <c r="A149" s="15">
+      <c r="A149" s="11">
         <v>148</v>
       </c>
-      <c r="B149" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C149" s="15" t="s">
+      <c r="B149" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C149" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D149" s="1"/>
@@ -10856,13 +10873,13 @@
       <c r="O149" s="1"/>
     </row>
     <row r="150" spans="1:15">
-      <c r="A150" s="15">
+      <c r="A150" s="11">
         <v>149</v>
       </c>
-      <c r="B150" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C150" s="15" t="s">
+      <c r="B150" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C150" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D150" s="1"/>
@@ -10895,13 +10912,13 @@
       <c r="O150" s="1"/>
     </row>
     <row r="151" spans="1:15">
-      <c r="A151" s="15">
+      <c r="A151" s="11">
         <v>150</v>
       </c>
-      <c r="B151" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C151" s="15" t="s">
+      <c r="B151" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C151" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="1"/>
@@ -10934,13 +10951,13 @@
       <c r="O151" s="1"/>
     </row>
     <row r="152" spans="1:15">
-      <c r="A152" s="15">
+      <c r="A152" s="11">
         <v>151</v>
       </c>
-      <c r="B152" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C152" s="15" t="s">
+      <c r="B152" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C152" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D152" s="1"/>
@@ -10973,13 +10990,13 @@
       <c r="O152" s="1"/>
     </row>
     <row r="153" spans="1:15">
-      <c r="A153" s="15">
+      <c r="A153" s="11">
         <v>152</v>
       </c>
-      <c r="B153" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="B153" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D153" s="4" t="s">
@@ -11014,13 +11031,13 @@
       <c r="O153" s="1"/>
     </row>
     <row r="154" spans="1:15">
-      <c r="A154" s="15">
+      <c r="A154" s="11">
         <v>153</v>
       </c>
-      <c r="B154" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C154" s="15" t="s">
+      <c r="B154" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C154" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D154" s="1"/>
@@ -11053,13 +11070,13 @@
       <c r="O154" s="1"/>
     </row>
     <row r="155" spans="1:15">
-      <c r="A155" s="15">
+      <c r="A155" s="11">
         <v>154</v>
       </c>
-      <c r="B155" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C155" s="15" t="s">
+      <c r="B155" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C155" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D155" s="1"/>
@@ -11092,13 +11109,13 @@
       <c r="O155" s="1"/>
     </row>
     <row r="156" spans="1:15">
-      <c r="A156" s="15">
+      <c r="A156" s="11">
         <v>155</v>
       </c>
-      <c r="B156" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C156" s="15" t="s">
+      <c r="B156" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C156" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D156" s="1"/>
@@ -11131,13 +11148,13 @@
       <c r="O156" s="1"/>
     </row>
     <row r="157" spans="1:15">
-      <c r="A157" s="15">
+      <c r="A157" s="11">
         <v>156</v>
       </c>
-      <c r="B157" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C157" s="15" t="s">
+      <c r="B157" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C157" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="4" t="s">
@@ -11172,13 +11189,13 @@
       <c r="O157" s="1"/>
     </row>
     <row r="158" spans="1:15">
-      <c r="A158" s="15">
+      <c r="A158" s="11">
         <v>157</v>
       </c>
-      <c r="B158" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C158" s="15" t="s">
+      <c r="B158" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C158" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D158" s="4" t="s">
@@ -11213,13 +11230,13 @@
       <c r="O158" s="1"/>
     </row>
     <row r="159" spans="1:15">
-      <c r="A159" s="15">
+      <c r="A159" s="11">
         <v>158</v>
       </c>
-      <c r="B159" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C159" s="15" t="s">
+      <c r="B159" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C159" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D159" s="1"/>
@@ -11252,13 +11269,13 @@
       <c r="O159" s="1"/>
     </row>
     <row r="160" spans="1:15">
-      <c r="A160" s="15">
+      <c r="A160" s="11">
         <v>159</v>
       </c>
-      <c r="B160" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C160" s="15" t="s">
+      <c r="B160" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C160" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D160" s="1"/>
@@ -11291,13 +11308,13 @@
       <c r="O160" s="1"/>
     </row>
     <row r="161" spans="1:15">
-      <c r="A161" s="15">
+      <c r="A161" s="11">
         <v>160</v>
       </c>
-      <c r="B161" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C161" s="15" t="s">
+      <c r="B161" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D161" s="1"/>
@@ -11333,10 +11350,10 @@
       <c r="A162" s="1">
         <v>161</v>
       </c>
-      <c r="B162" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C162" s="15" t="s">
+      <c r="B162" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C162" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D162" s="1"/>
@@ -11358,26 +11375,24 @@
       <c r="J162" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K162" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K162" s="1"/>
       <c r="L162" s="1"/>
       <c r="M162" s="1">
         <v>0</v>
       </c>
       <c r="N162" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O162" s="1"/>
     </row>
     <row r="163" spans="1:15">
-      <c r="A163" s="15">
+      <c r="A163" s="11">
         <v>162</v>
       </c>
-      <c r="B163" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C163" s="15" t="s">
+      <c r="B163" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C163" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D163" s="1" t="s">
@@ -11415,10 +11430,10 @@
       <c r="A164" s="1">
         <v>163</v>
       </c>
-      <c r="B164" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C164" s="15" t="s">
+      <c r="B164" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C164" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="1"/>
@@ -11451,13 +11466,13 @@
       <c r="O164" s="1"/>
     </row>
     <row r="165" spans="1:15">
-      <c r="A165" s="15">
+      <c r="A165" s="11">
         <v>164</v>
       </c>
-      <c r="B165" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C165" s="15" t="s">
+      <c r="B165" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D165" s="1"/>
@@ -11493,10 +11508,10 @@
       <c r="A166" s="1">
         <v>165</v>
       </c>
-      <c r="B166" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C166" s="15" t="s">
+      <c r="B166" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D166" s="1"/>
@@ -11529,13 +11544,13 @@
       <c r="O166" s="1"/>
     </row>
     <row r="167" spans="1:15">
-      <c r="A167" s="15">
+      <c r="A167" s="11">
         <v>166</v>
       </c>
-      <c r="B167" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C167" s="15" t="s">
+      <c r="B167" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C167" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D167" s="1"/>
@@ -11571,10 +11586,10 @@
       <c r="A168" s="1">
         <v>167</v>
       </c>
-      <c r="B168" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C168" s="15" t="s">
+      <c r="B168" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C168" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D168" s="1"/>
@@ -11607,13 +11622,13 @@
       <c r="O168" s="1"/>
     </row>
     <row r="169" spans="1:15">
-      <c r="A169" s="15">
+      <c r="A169" s="11">
         <v>168</v>
       </c>
-      <c r="B169" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C169" s="15" t="s">
+      <c r="B169" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D169" s="1"/>
@@ -11649,10 +11664,10 @@
       <c r="A170" s="1">
         <v>169</v>
       </c>
-      <c r="B170" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C170" s="15" t="s">
+      <c r="B170" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C170" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D170" s="1"/>
@@ -11685,13 +11700,13 @@
       <c r="O170" s="1"/>
     </row>
     <row r="171" spans="1:15">
-      <c r="A171" s="15">
+      <c r="A171" s="11">
         <v>170</v>
       </c>
-      <c r="B171" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C171" s="15" t="s">
+      <c r="B171" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C171" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D171" s="1" t="s">
@@ -11729,10 +11744,10 @@
       <c r="A172" s="1">
         <v>171</v>
       </c>
-      <c r="B172" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C172" s="15" t="s">
+      <c r="B172" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C172" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D172" s="1" t="s">
@@ -11767,13 +11782,13 @@
       <c r="O172" s="1"/>
     </row>
     <row r="173" spans="1:15">
-      <c r="A173" s="15">
+      <c r="A173" s="11">
         <v>172</v>
       </c>
-      <c r="B173" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C173" s="15" t="s">
+      <c r="B173" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C173" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D173" s="1" t="s">
@@ -11811,10 +11826,10 @@
       <c r="A174" s="1">
         <v>173</v>
       </c>
-      <c r="B174" s="15">
-        <v>430005</v>
-      </c>
-      <c r="C174" s="15" t="s">
+      <c r="B174" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C174" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D174" s="1" t="s">
@@ -11849,10 +11864,10 @@
       <c r="O174" s="1"/>
     </row>
     <row r="175" spans="1:15">
-      <c r="A175" s="15">
+      <c r="A175" s="11">
         <v>174</v>
       </c>
-      <c r="B175" s="15">
+      <c r="B175" s="11">
         <v>430005</v>
       </c>
       <c r="C175" s="1" t="s">
@@ -11891,7 +11906,7 @@
       <c r="A176" s="1">
         <v>175</v>
       </c>
-      <c r="B176" s="15">
+      <c r="B176" s="11">
         <v>430005</v>
       </c>
       <c r="C176" s="1" t="s">
@@ -11927,10 +11942,10 @@
       <c r="O176" s="1"/>
     </row>
     <row r="177" spans="1:15">
-      <c r="A177" s="15">
+      <c r="A177" s="11">
         <v>176</v>
       </c>
-      <c r="B177" s="15">
+      <c r="B177" s="11">
         <v>430005</v>
       </c>
       <c r="C177" s="1" t="s">
@@ -11971,7 +11986,7 @@
       <c r="A178" s="1">
         <v>177</v>
       </c>
-      <c r="B178" s="15">
+      <c r="B178" s="11">
         <v>430005</v>
       </c>
       <c r="C178" s="1" t="s">
@@ -12007,10 +12022,10 @@
       <c r="O178" s="1"/>
     </row>
     <row r="179" spans="1:15">
-      <c r="A179" s="15">
+      <c r="A179" s="11">
         <v>178</v>
       </c>
-      <c r="B179" s="15">
+      <c r="B179" s="11">
         <v>430005</v>
       </c>
       <c r="C179" s="1" t="s">
@@ -12049,7 +12064,7 @@
       <c r="A180" s="1">
         <v>179</v>
       </c>
-      <c r="B180" s="15">
+      <c r="B180" s="11">
         <v>430005</v>
       </c>
       <c r="C180" s="1" t="s">
@@ -12085,10 +12100,10 @@
       <c r="O180" s="1"/>
     </row>
     <row r="181" spans="1:15">
-      <c r="A181" s="15">
+      <c r="A181" s="11">
         <v>180</v>
       </c>
-      <c r="B181" s="15">
+      <c r="B181" s="11">
         <v>430005</v>
       </c>
       <c r="C181" s="1" t="s">
@@ -12127,7 +12142,7 @@
       <c r="A182" s="1">
         <v>181</v>
       </c>
-      <c r="B182" s="15">
+      <c r="B182" s="11">
         <v>430005</v>
       </c>
       <c r="C182" s="1" t="s">
@@ -12163,10 +12178,10 @@
       <c r="O182" s="1"/>
     </row>
     <row r="183" spans="1:15">
-      <c r="A183" s="15">
+      <c r="A183" s="11">
         <v>182</v>
       </c>
-      <c r="B183" s="15">
+      <c r="B183" s="11">
         <v>430005</v>
       </c>
       <c r="C183" s="1" t="s">
@@ -12205,7 +12220,7 @@
       <c r="A184" s="1">
         <v>183</v>
       </c>
-      <c r="B184" s="15">
+      <c r="B184" s="11">
         <v>430005</v>
       </c>
       <c r="C184" s="1" t="s">
@@ -12241,10 +12256,10 @@
       <c r="O184" s="1"/>
     </row>
     <row r="185" spans="1:15">
-      <c r="A185" s="15">
+      <c r="A185" s="11">
         <v>184</v>
       </c>
-      <c r="B185" s="15">
+      <c r="B185" s="11">
         <v>430005</v>
       </c>
       <c r="C185" s="1" t="s">
@@ -12283,7 +12298,7 @@
       <c r="A186" s="1">
         <v>185</v>
       </c>
-      <c r="B186" s="15">
+      <c r="B186" s="11">
         <v>430005</v>
       </c>
       <c r="C186" s="1" t="s">
@@ -12319,10 +12334,10 @@
       <c r="O186" s="1"/>
     </row>
     <row r="187" spans="1:15">
-      <c r="A187" s="15">
+      <c r="A187" s="11">
         <v>186</v>
       </c>
-      <c r="B187" s="15">
+      <c r="B187" s="11">
         <v>430005</v>
       </c>
       <c r="C187" s="1" t="s">
@@ -12361,7 +12376,7 @@
       <c r="A188" s="1">
         <v>187</v>
       </c>
-      <c r="B188" s="15">
+      <c r="B188" s="11">
         <v>430005</v>
       </c>
       <c r="C188" s="1" t="s">
@@ -12397,10 +12412,10 @@
       <c r="O188" s="1"/>
     </row>
     <row r="189" spans="1:15">
-      <c r="A189" s="15">
+      <c r="A189" s="11">
         <v>188</v>
       </c>
-      <c r="B189" s="15">
+      <c r="B189" s="11">
         <v>430005</v>
       </c>
       <c r="C189" s="1" t="s">
@@ -12443,7 +12458,7 @@
       <c r="A190" s="1">
         <v>189</v>
       </c>
-      <c r="B190" s="15">
+      <c r="B190" s="11">
         <v>430005</v>
       </c>
       <c r="C190" s="1" t="s">
@@ -12481,10 +12496,10 @@
       <c r="O190" s="1"/>
     </row>
     <row r="191" spans="1:15">
-      <c r="A191" s="15">
+      <c r="A191" s="11">
         <v>190</v>
       </c>
-      <c r="B191" s="15">
+      <c r="B191" s="11">
         <v>430005</v>
       </c>
       <c r="C191" s="1" t="s">
@@ -12525,7 +12540,7 @@
       <c r="A192" s="1">
         <v>191</v>
       </c>
-      <c r="B192" s="15">
+      <c r="B192" s="11">
         <v>430005</v>
       </c>
       <c r="C192" s="1" t="s">
@@ -12563,10 +12578,10 @@
       <c r="O192" s="1"/>
     </row>
     <row r="193" spans="1:15">
-      <c r="A193" s="15">
+      <c r="A193" s="11">
         <v>192</v>
       </c>
-      <c r="B193" s="15">
+      <c r="B193" s="11">
         <v>430005</v>
       </c>
       <c r="C193" s="1" t="s">
@@ -12605,7 +12620,7 @@
       <c r="A194" s="1">
         <v>193</v>
       </c>
-      <c r="B194" s="15">
+      <c r="B194" s="11">
         <v>430005</v>
       </c>
       <c r="C194" s="1" t="s">
@@ -12641,10 +12656,10 @@
       <c r="O194" s="1"/>
     </row>
     <row r="195" spans="1:15">
-      <c r="A195" s="15">
+      <c r="A195" s="11">
         <v>194</v>
       </c>
-      <c r="B195" s="15">
+      <c r="B195" s="11">
         <v>430005</v>
       </c>
       <c r="C195" s="1" t="s">
@@ -12683,7 +12698,7 @@
       <c r="A196" s="1">
         <v>195</v>
       </c>
-      <c r="B196" s="15">
+      <c r="B196" s="11">
         <v>430005</v>
       </c>
       <c r="C196" s="1" t="s">
@@ -12721,10 +12736,10 @@
       <c r="O196" s="1"/>
     </row>
     <row r="197" spans="1:15">
-      <c r="A197" s="15">
+      <c r="A197" s="11">
         <v>196</v>
       </c>
-      <c r="B197" s="15">
+      <c r="B197" s="11">
         <v>430005</v>
       </c>
       <c r="C197" s="1" t="s">
@@ -12765,7 +12780,7 @@
       <c r="A198" s="1">
         <v>197</v>
       </c>
-      <c r="B198" s="15">
+      <c r="B198" s="11">
         <v>430005</v>
       </c>
       <c r="C198" s="1" t="s">
@@ -12803,10 +12818,10 @@
       <c r="O198" s="1"/>
     </row>
     <row r="199" spans="1:15">
-      <c r="A199" s="15">
+      <c r="A199" s="11">
         <v>198</v>
       </c>
-      <c r="B199" s="15">
+      <c r="B199" s="11">
         <v>430005</v>
       </c>
       <c r="C199" s="1" t="s">
@@ -12845,7 +12860,7 @@
       <c r="A200" s="1">
         <v>199</v>
       </c>
-      <c r="B200" s="15">
+      <c r="B200" s="11">
         <v>430005</v>
       </c>
       <c r="C200" s="1" t="s">
@@ -12881,10 +12896,10 @@
       <c r="O200" s="1"/>
     </row>
     <row r="201" spans="1:15">
-      <c r="A201" s="15">
+      <c r="A201" s="11">
         <v>200</v>
       </c>
-      <c r="B201" s="15">
+      <c r="B201" s="11">
         <v>430005</v>
       </c>
       <c r="C201" s="1" t="s">
@@ -12923,7 +12938,7 @@
       <c r="A202" s="1">
         <v>201</v>
       </c>
-      <c r="B202" s="15">
+      <c r="B202" s="11">
         <v>430005</v>
       </c>
       <c r="C202" s="1" t="s">
@@ -12961,10 +12976,10 @@
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15">
-      <c r="A203" s="15">
+      <c r="A203" s="11">
         <v>202</v>
       </c>
-      <c r="B203" s="15">
+      <c r="B203" s="11">
         <v>430005</v>
       </c>
       <c r="C203" s="1" t="s">
@@ -13005,7 +13020,7 @@
       <c r="A204" s="1">
         <v>203</v>
       </c>
-      <c r="B204" s="15">
+      <c r="B204" s="11">
         <v>430005</v>
       </c>
       <c r="C204" s="1" t="s">
@@ -13041,10 +13056,10 @@
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15">
-      <c r="A205" s="15">
+      <c r="A205" s="11">
         <v>204</v>
       </c>
-      <c r="B205" s="15">
+      <c r="B205" s="11">
         <v>430005</v>
       </c>
       <c r="C205" s="1" t="s">
@@ -13083,7 +13098,7 @@
       <c r="A206" s="1">
         <v>205</v>
       </c>
-      <c r="B206" s="15">
+      <c r="B206" s="11">
         <v>430005</v>
       </c>
       <c r="C206" s="1" t="s">
@@ -13119,10 +13134,10 @@
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15">
-      <c r="A207" s="15">
+      <c r="A207" s="11">
         <v>206</v>
       </c>
-      <c r="B207" s="15">
+      <c r="B207" s="11">
         <v>430005</v>
       </c>
       <c r="C207" s="1" t="s">
@@ -13161,7 +13176,7 @@
       <c r="A208" s="1">
         <v>207</v>
       </c>
-      <c r="B208" s="15">
+      <c r="B208" s="11">
         <v>430005</v>
       </c>
       <c r="C208" s="1" t="s">
@@ -13197,10 +13212,10 @@
       <c r="O208" s="1"/>
     </row>
     <row r="209" spans="1:15">
-      <c r="A209" s="15">
+      <c r="A209" s="11">
         <v>208</v>
       </c>
-      <c r="B209" s="15">
+      <c r="B209" s="11">
         <v>430005</v>
       </c>
       <c r="C209" s="1" t="s">
@@ -13239,7 +13254,7 @@
       <c r="A210" s="1">
         <v>209</v>
       </c>
-      <c r="B210" s="15">
+      <c r="B210" s="11">
         <v>430005</v>
       </c>
       <c r="C210" s="1" t="s">
@@ -13275,10 +13290,10 @@
       <c r="O210" s="1"/>
     </row>
     <row r="211" spans="1:15">
-      <c r="A211" s="15">
+      <c r="A211" s="11">
         <v>210</v>
       </c>
-      <c r="B211" s="15">
+      <c r="B211" s="11">
         <v>430005</v>
       </c>
       <c r="C211" s="1" t="s">
@@ -13317,7 +13332,7 @@
       <c r="A212" s="1">
         <v>211</v>
       </c>
-      <c r="B212" s="15">
+      <c r="B212" s="11">
         <v>430005</v>
       </c>
       <c r="C212" s="1" t="s">
@@ -13353,10 +13368,10 @@
       <c r="O212" s="1"/>
     </row>
     <row r="213" spans="1:15">
-      <c r="A213" s="15">
+      <c r="A213" s="11">
         <v>212</v>
       </c>
-      <c r="B213" s="15">
+      <c r="B213" s="11">
         <v>430005</v>
       </c>
       <c r="C213" s="1" t="s">
@@ -13395,7 +13410,7 @@
       <c r="A214" s="1">
         <v>213</v>
       </c>
-      <c r="B214" s="15">
+      <c r="B214" s="11">
         <v>430005</v>
       </c>
       <c r="C214" s="1" t="s">
@@ -13431,10 +13446,10 @@
       <c r="O214" s="1"/>
     </row>
     <row r="215" spans="1:15">
-      <c r="A215" s="15">
+      <c r="A215" s="11">
         <v>214</v>
       </c>
-      <c r="B215" s="15">
+      <c r="B215" s="11">
         <v>430005</v>
       </c>
       <c r="C215" s="1" t="s">
@@ -13473,7 +13488,7 @@
       <c r="A216" s="1">
         <v>215</v>
       </c>
-      <c r="B216" s="15">
+      <c r="B216" s="11">
         <v>430005</v>
       </c>
       <c r="C216" s="1" t="s">
@@ -13511,10 +13526,10 @@
       <c r="O216" s="1"/>
     </row>
     <row r="217" spans="1:15">
-      <c r="A217" s="15">
+      <c r="A217" s="11">
         <v>216</v>
       </c>
-      <c r="B217" s="15">
+      <c r="B217" s="11">
         <v>430005</v>
       </c>
       <c r="C217" s="1" t="s">
@@ -13555,7 +13570,7 @@
       <c r="A218" s="1">
         <v>217</v>
       </c>
-      <c r="B218" s="15">
+      <c r="B218" s="11">
         <v>430005</v>
       </c>
       <c r="C218" s="1" t="s">
@@ -13593,10 +13608,10 @@
       <c r="O218" s="1"/>
     </row>
     <row r="219" spans="1:15">
-      <c r="A219" s="15">
+      <c r="A219" s="11">
         <v>218</v>
       </c>
-      <c r="B219" s="15">
+      <c r="B219" s="11">
         <v>430005</v>
       </c>
       <c r="C219" s="1" t="s">
@@ -13635,7 +13650,7 @@
       <c r="A220" s="1">
         <v>219</v>
       </c>
-      <c r="B220" s="15">
+      <c r="B220" s="11">
         <v>430005</v>
       </c>
       <c r="C220" s="1" t="s">
@@ -13671,10 +13686,10 @@
       <c r="O220" s="1"/>
     </row>
     <row r="221" spans="1:15">
-      <c r="A221" s="15">
+      <c r="A221" s="11">
         <v>220</v>
       </c>
-      <c r="B221" s="15">
+      <c r="B221" s="11">
         <v>430005</v>
       </c>
       <c r="C221" s="1" t="s">
@@ -13713,7 +13728,7 @@
       <c r="A222" s="1">
         <v>221</v>
       </c>
-      <c r="B222" s="15">
+      <c r="B222" s="11">
         <v>430005</v>
       </c>
       <c r="C222" s="1" t="s">
@@ -13749,10 +13764,10 @@
       <c r="O222" s="1"/>
     </row>
     <row r="223" spans="1:15">
-      <c r="A223" s="15">
+      <c r="A223" s="11">
         <v>222</v>
       </c>
-      <c r="B223" s="15">
+      <c r="B223" s="11">
         <v>430005</v>
       </c>
       <c r="C223" s="1" t="s">
@@ -13791,7 +13806,7 @@
       <c r="A224" s="1">
         <v>223</v>
       </c>
-      <c r="B224" s="15">
+      <c r="B224" s="11">
         <v>430005</v>
       </c>
       <c r="C224" s="1" t="s">
@@ -13827,10 +13842,10 @@
       <c r="O224" s="1"/>
     </row>
     <row r="225" spans="1:15">
-      <c r="A225" s="15">
+      <c r="A225" s="11">
         <v>224</v>
       </c>
-      <c r="B225" s="15">
+      <c r="B225" s="11">
         <v>430005</v>
       </c>
       <c r="C225" s="1" t="s">
@@ -13871,7 +13886,7 @@
       <c r="A226" s="1">
         <v>225</v>
       </c>
-      <c r="B226" s="15">
+      <c r="B226" s="11">
         <v>430005</v>
       </c>
       <c r="C226" s="1" t="s">
@@ -13907,10 +13922,10 @@
       <c r="O226" s="1"/>
     </row>
     <row r="227" spans="1:15">
-      <c r="A227" s="15">
+      <c r="A227" s="11">
         <v>226</v>
       </c>
-      <c r="B227" s="15">
+      <c r="B227" s="11">
         <v>430005</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -13949,7 +13964,7 @@
       <c r="A228" s="1">
         <v>227</v>
       </c>
-      <c r="B228" s="15">
+      <c r="B228" s="11">
         <v>430005</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -13985,10 +14000,10 @@
       <c r="O228" s="1"/>
     </row>
     <row r="229" spans="1:15">
-      <c r="A229" s="15">
+      <c r="A229" s="11">
         <v>228</v>
       </c>
-      <c r="B229" s="15">
+      <c r="B229" s="11">
         <v>430005</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -14027,7 +14042,7 @@
       <c r="A230" s="1">
         <v>229</v>
       </c>
-      <c r="B230" s="15">
+      <c r="B230" s="11">
         <v>430005</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -14063,10 +14078,10 @@
       <c r="O230" s="1"/>
     </row>
     <row r="231" spans="1:15">
-      <c r="A231" s="15">
+      <c r="A231" s="11">
         <v>230</v>
       </c>
-      <c r="B231" s="15">
+      <c r="B231" s="11">
         <v>430005</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -14105,7 +14120,7 @@
       <c r="A232" s="1">
         <v>231</v>
       </c>
-      <c r="B232" s="15">
+      <c r="B232" s="11">
         <v>430005</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -14141,10 +14156,10 @@
       <c r="O232" s="1"/>
     </row>
     <row r="233" spans="1:15">
-      <c r="A233" s="15">
+      <c r="A233" s="11">
         <v>232</v>
       </c>
-      <c r="B233" s="15">
+      <c r="B233" s="11">
         <v>430005</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -14183,7 +14198,7 @@
       <c r="A234" s="1">
         <v>233</v>
       </c>
-      <c r="B234" s="15">
+      <c r="B234" s="11">
         <v>430005</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -14219,10 +14234,10 @@
       <c r="O234" s="1"/>
     </row>
     <row r="235" spans="1:15">
-      <c r="A235" s="15">
+      <c r="A235" s="11">
         <v>234</v>
       </c>
-      <c r="B235" s="15">
+      <c r="B235" s="11">
         <v>430005</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -14261,7 +14276,7 @@
       <c r="A236" s="1">
         <v>235</v>
       </c>
-      <c r="B236" s="15">
+      <c r="B236" s="11">
         <v>430005</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -14297,10 +14312,10 @@
       <c r="O236" s="1"/>
     </row>
     <row r="237" spans="1:15">
-      <c r="A237" s="15">
+      <c r="A237" s="11">
         <v>236</v>
       </c>
-      <c r="B237" s="15">
+      <c r="B237" s="11">
         <v>430005</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -14339,7 +14354,7 @@
       <c r="A238" s="1">
         <v>237</v>
       </c>
-      <c r="B238" s="15">
+      <c r="B238" s="11">
         <v>430005</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -14377,10 +14392,10 @@
       <c r="O238" s="1"/>
     </row>
     <row r="239" spans="1:15">
-      <c r="A239" s="15">
+      <c r="A239" s="11">
         <v>238</v>
       </c>
-      <c r="B239" s="15">
+      <c r="B239" s="11">
         <v>430005</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -14419,7 +14434,7 @@
       <c r="A240" s="1">
         <v>239</v>
       </c>
-      <c r="B240" s="15">
+      <c r="B240" s="11">
         <v>430005</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -14455,10 +14470,10 @@
       <c r="O240" s="1"/>
     </row>
     <row r="241" spans="1:15">
-      <c r="A241" s="15">
+      <c r="A241" s="11">
         <v>240</v>
       </c>
-      <c r="B241" s="15">
+      <c r="B241" s="11">
         <v>430005</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -14497,7 +14512,7 @@
       <c r="A242" s="1">
         <v>241</v>
       </c>
-      <c r="B242" s="15">
+      <c r="B242" s="11">
         <v>430005</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -14533,10 +14548,10 @@
       <c r="O242" s="1"/>
     </row>
     <row r="243" spans="1:15">
-      <c r="A243" s="15">
+      <c r="A243" s="11">
         <v>242</v>
       </c>
-      <c r="B243" s="15">
+      <c r="B243" s="11">
         <v>430005</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -14577,7 +14592,7 @@
       <c r="A244" s="1">
         <v>243</v>
       </c>
-      <c r="B244" s="15">
+      <c r="B244" s="11">
         <v>430005</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -14615,10 +14630,10 @@
       <c r="O244" s="1"/>
     </row>
     <row r="245" spans="1:15">
-      <c r="A245" s="15">
+      <c r="A245" s="11">
         <v>244</v>
       </c>
-      <c r="B245" s="15">
+      <c r="B245" s="11">
         <v>430005</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -14657,7 +14672,7 @@
       <c r="A246" s="1">
         <v>245</v>
       </c>
-      <c r="B246" s="15">
+      <c r="B246" s="11">
         <v>430005</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -14693,10 +14708,10 @@
       <c r="O246" s="1"/>
     </row>
     <row r="247" spans="1:15">
-      <c r="A247" s="15">
+      <c r="A247" s="11">
         <v>246</v>
       </c>
-      <c r="B247" s="15">
+      <c r="B247" s="11">
         <v>430005</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -14735,7 +14750,7 @@
       <c r="A248" s="1">
         <v>247</v>
       </c>
-      <c r="B248" s="15">
+      <c r="B248" s="11">
         <v>430005</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -14771,10 +14786,10 @@
       <c r="O248" s="1"/>
     </row>
     <row r="249" spans="1:15">
-      <c r="A249" s="15">
+      <c r="A249" s="11">
         <v>248</v>
       </c>
-      <c r="B249" s="15">
+      <c r="B249" s="11">
         <v>430005</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -14813,7 +14828,7 @@
       <c r="A250" s="1">
         <v>249</v>
       </c>
-      <c r="B250" s="15">
+      <c r="B250" s="11">
         <v>430005</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -14851,10 +14866,10 @@
       <c r="O250" s="1"/>
     </row>
     <row r="251" spans="1:15">
-      <c r="A251" s="15">
+      <c r="A251" s="11">
         <v>250</v>
       </c>
-      <c r="B251" s="15">
+      <c r="B251" s="11">
         <v>430005</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -14893,7 +14908,7 @@
       <c r="A252" s="1">
         <v>251</v>
       </c>
-      <c r="B252" s="15">
+      <c r="B252" s="11">
         <v>430005</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -14929,10 +14944,10 @@
       <c r="O252" s="1"/>
     </row>
     <row r="253" spans="1:15">
-      <c r="A253" s="15">
+      <c r="A253" s="11">
         <v>252</v>
       </c>
-      <c r="B253" s="15">
+      <c r="B253" s="11">
         <v>430005</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -14971,7 +14986,7 @@
       <c r="A254" s="1">
         <v>253</v>
       </c>
-      <c r="B254" s="15">
+      <c r="B254" s="11">
         <v>430005</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -15007,10 +15022,10 @@
       <c r="O254" s="1"/>
     </row>
     <row r="255" spans="1:15">
-      <c r="A255" s="15">
+      <c r="A255" s="11">
         <v>254</v>
       </c>
-      <c r="B255" s="15">
+      <c r="B255" s="11">
         <v>430005</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -15049,7 +15064,7 @@
       <c r="A256" s="1">
         <v>255</v>
       </c>
-      <c r="B256" s="15">
+      <c r="B256" s="11">
         <v>430005</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -15085,10 +15100,10 @@
       <c r="O256" s="1"/>
     </row>
     <row r="257" spans="1:15">
-      <c r="A257" s="15">
+      <c r="A257" s="11">
         <v>256</v>
       </c>
-      <c r="B257" s="15">
+      <c r="B257" s="11">
         <v>430005</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -15127,7 +15142,7 @@
       <c r="A258" s="1">
         <v>257</v>
       </c>
-      <c r="B258" s="15">
+      <c r="B258" s="11">
         <v>430005</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -15163,10 +15178,10 @@
       <c r="O258" s="1"/>
     </row>
     <row r="259" spans="1:15">
-      <c r="A259" s="15">
+      <c r="A259" s="11">
         <v>258</v>
       </c>
-      <c r="B259" s="15">
+      <c r="B259" s="11">
         <v>430005</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -15205,7 +15220,7 @@
       <c r="A260" s="1">
         <v>259</v>
       </c>
-      <c r="B260" s="15">
+      <c r="B260" s="11">
         <v>430005</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -15241,10 +15256,10 @@
       <c r="O260" s="1"/>
     </row>
     <row r="261" spans="1:15">
-      <c r="A261" s="15">
+      <c r="A261" s="11">
         <v>260</v>
       </c>
-      <c r="B261" s="15">
+      <c r="B261" s="11">
         <v>430005</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -15283,7 +15298,7 @@
       <c r="A262" s="1">
         <v>261</v>
       </c>
-      <c r="B262" s="15">
+      <c r="B262" s="11">
         <v>430005</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -15319,10 +15334,10 @@
       <c r="O262" s="1"/>
     </row>
     <row r="263" spans="1:15">
-      <c r="A263" s="15">
+      <c r="A263" s="11">
         <v>262</v>
       </c>
-      <c r="B263" s="15">
+      <c r="B263" s="11">
         <v>430005</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -15361,7 +15376,7 @@
       <c r="A264" s="1">
         <v>263</v>
       </c>
-      <c r="B264" s="15">
+      <c r="B264" s="11">
         <v>430005</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -15397,10 +15412,10 @@
       <c r="O264" s="1"/>
     </row>
     <row r="265" spans="1:15">
-      <c r="A265" s="15">
+      <c r="A265" s="11">
         <v>264</v>
       </c>
-      <c r="B265" s="15">
+      <c r="B265" s="11">
         <v>430005</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -15439,7 +15454,7 @@
       <c r="A266" s="1">
         <v>265</v>
       </c>
-      <c r="B266" s="15">
+      <c r="B266" s="11">
         <v>430005</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -15475,10 +15490,10 @@
       <c r="O266" s="1"/>
     </row>
     <row r="267" spans="1:15">
-      <c r="A267" s="15">
+      <c r="A267" s="11">
         <v>266</v>
       </c>
-      <c r="B267" s="15">
+      <c r="B267" s="11">
         <v>430005</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -15517,7 +15532,7 @@
       <c r="A268" s="1">
         <v>267</v>
       </c>
-      <c r="B268" s="15">
+      <c r="B268" s="11">
         <v>430005</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -15553,10 +15568,10 @@
       <c r="O268" s="1"/>
     </row>
     <row r="269" spans="1:15">
-      <c r="A269" s="15">
+      <c r="A269" s="11">
         <v>268</v>
       </c>
-      <c r="B269" s="15">
+      <c r="B269" s="11">
         <v>430005</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -15595,7 +15610,7 @@
       <c r="A270" s="1">
         <v>269</v>
       </c>
-      <c r="B270" s="15">
+      <c r="B270" s="11">
         <v>430005</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -15634,7 +15649,7 @@
       <c r="A271" s="1">
         <v>270</v>
       </c>
-      <c r="B271" s="15">
+      <c r="B271" s="11">
         <v>430005</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -15675,7 +15690,7 @@
       <c r="A272" s="1">
         <v>271</v>
       </c>
-      <c r="B272" s="15">
+      <c r="B272" s="11">
         <v>430005</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -15714,7 +15729,7 @@
       <c r="A273" s="1">
         <v>272</v>
       </c>
-      <c r="B273" s="15">
+      <c r="B273" s="11">
         <v>430005</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -15753,7 +15768,7 @@
       <c r="A274" s="1">
         <v>273</v>
       </c>
-      <c r="B274" s="15">
+      <c r="B274" s="11">
         <v>430005</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -15792,7 +15807,7 @@
       <c r="A275" s="1">
         <v>274</v>
       </c>
-      <c r="B275" s="15">
+      <c r="B275" s="11">
         <v>430005</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -15833,7 +15848,7 @@
       <c r="A276" s="1">
         <v>275</v>
       </c>
-      <c r="B276" s="15">
+      <c r="B276" s="11">
         <v>430005</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -15874,7 +15889,7 @@
       <c r="A277" s="1">
         <v>276</v>
       </c>
-      <c r="B277" s="15">
+      <c r="B277" s="11">
         <v>430005</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -15915,7 +15930,7 @@
       <c r="A278" s="1">
         <v>277</v>
       </c>
-      <c r="B278" s="15">
+      <c r="B278" s="11">
         <v>430005</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -15956,7 +15971,7 @@
       <c r="A279" s="1">
         <v>278</v>
       </c>
-      <c r="B279" s="15">
+      <c r="B279" s="11">
         <v>430005</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -15997,7 +16012,7 @@
       <c r="A280" s="1">
         <v>279</v>
       </c>
-      <c r="B280" s="15">
+      <c r="B280" s="11">
         <v>430005</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -16038,7 +16053,7 @@
       <c r="A281" s="1">
         <v>280</v>
       </c>
-      <c r="B281" s="15">
+      <c r="B281" s="11">
         <v>430005</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -16079,7 +16094,7 @@
       <c r="A282" s="1">
         <v>281</v>
       </c>
-      <c r="B282" s="15">
+      <c r="B282" s="11">
         <v>430005</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -16118,7 +16133,7 @@
       <c r="A283" s="1">
         <v>282</v>
       </c>
-      <c r="B283" s="15">
+      <c r="B283" s="11">
         <v>430005</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -16157,7 +16172,7 @@
       <c r="A284" s="1">
         <v>283</v>
       </c>
-      <c r="B284" s="15">
+      <c r="B284" s="11">
         <v>430005</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -16196,7 +16211,7 @@
       <c r="A285" s="1">
         <v>284</v>
       </c>
-      <c r="B285" s="15">
+      <c r="B285" s="11">
         <v>430005</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -16235,7 +16250,7 @@
       <c r="A286" s="1">
         <v>285</v>
       </c>
-      <c r="B286" s="15">
+      <c r="B286" s="11">
         <v>430005</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -16274,7 +16289,7 @@
       <c r="A287" s="1">
         <v>286</v>
       </c>
-      <c r="B287" s="15">
+      <c r="B287" s="11">
         <v>430005</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -16313,7 +16328,7 @@
       <c r="A288" s="1">
         <v>287</v>
       </c>
-      <c r="B288" s="15">
+      <c r="B288" s="11">
         <v>430005</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -16352,7 +16367,7 @@
       <c r="A289" s="1">
         <v>288</v>
       </c>
-      <c r="B289" s="15">
+      <c r="B289" s="11">
         <v>430005</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -16391,7 +16406,7 @@
       <c r="A290" s="1">
         <v>289</v>
       </c>
-      <c r="B290" s="15">
+      <c r="B290" s="11">
         <v>430005</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -16430,7 +16445,7 @@
       <c r="A291" s="1">
         <v>290</v>
       </c>
-      <c r="B291" s="15">
+      <c r="B291" s="11">
         <v>430005</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -16471,7 +16486,7 @@
       <c r="A292" s="1">
         <v>291</v>
       </c>
-      <c r="B292" s="15">
+      <c r="B292" s="11">
         <v>430005</v>
       </c>
       <c r="C292" s="1" t="s">
@@ -16510,7 +16525,7 @@
       <c r="A293" s="1">
         <v>292</v>
       </c>
-      <c r="B293" s="15">
+      <c r="B293" s="11">
         <v>430005</v>
       </c>
       <c r="C293" s="1" t="s">
@@ -16549,7 +16564,7 @@
       <c r="A294" s="1">
         <v>293</v>
       </c>
-      <c r="B294" s="15">
+      <c r="B294" s="11">
         <v>430005</v>
       </c>
       <c r="C294" s="1" t="s">
@@ -16588,7 +16603,7 @@
       <c r="A295" s="1">
         <v>294</v>
       </c>
-      <c r="B295" s="15">
+      <c r="B295" s="11">
         <v>430005</v>
       </c>
       <c r="C295" s="1" t="s">
@@ -16627,7 +16642,7 @@
       <c r="A296" s="1">
         <v>295</v>
       </c>
-      <c r="B296" s="15">
+      <c r="B296" s="11">
         <v>430005</v>
       </c>
       <c r="C296" s="1" t="s">
@@ -16666,7 +16681,7 @@
       <c r="A297" s="1">
         <v>296</v>
       </c>
-      <c r="B297" s="15">
+      <c r="B297" s="11">
         <v>430005</v>
       </c>
       <c r="C297" s="1" t="s">
@@ -16705,7 +16720,7 @@
       <c r="A298" s="1">
         <v>297</v>
       </c>
-      <c r="B298" s="15">
+      <c r="B298" s="11">
         <v>430005</v>
       </c>
       <c r="C298" s="1" t="s">
@@ -16744,7 +16759,7 @@
       <c r="A299" s="1">
         <v>298</v>
       </c>
-      <c r="B299" s="15">
+      <c r="B299" s="11">
         <v>430005</v>
       </c>
       <c r="C299" s="1" t="s">
@@ -16785,7 +16800,7 @@
       <c r="A300" s="1">
         <v>299</v>
       </c>
-      <c r="B300" s="15">
+      <c r="B300" s="11">
         <v>430005</v>
       </c>
       <c r="C300" s="1" t="s">
@@ -16824,7 +16839,7 @@
       <c r="A301" s="1">
         <v>300</v>
       </c>
-      <c r="B301" s="15">
+      <c r="B301" s="11">
         <v>430005</v>
       </c>
       <c r="C301" s="1" t="s">
@@ -16863,7 +16878,7 @@
       <c r="A302" s="1">
         <v>301</v>
       </c>
-      <c r="B302" s="15">
+      <c r="B302" s="11">
         <v>430005</v>
       </c>
       <c r="C302" s="1" t="s">
@@ -16902,7 +16917,7 @@
       <c r="A303" s="1">
         <v>302</v>
       </c>
-      <c r="B303" s="15">
+      <c r="B303" s="11">
         <v>430005</v>
       </c>
       <c r="C303" s="1" t="s">
@@ -16941,7 +16956,7 @@
       <c r="A304" s="1">
         <v>303</v>
       </c>
-      <c r="B304" s="15">
+      <c r="B304" s="11">
         <v>430005</v>
       </c>
       <c r="C304" s="1" t="s">
@@ -16980,7 +16995,7 @@
       <c r="A305" s="1">
         <v>304</v>
       </c>
-      <c r="B305" s="15">
+      <c r="B305" s="11">
         <v>430005</v>
       </c>
       <c r="C305" s="1" t="s">
@@ -17019,7 +17034,7 @@
       <c r="A306" s="1">
         <v>305</v>
       </c>
-      <c r="B306" s="15">
+      <c r="B306" s="11">
         <v>430005</v>
       </c>
       <c r="C306" s="1" t="s">
@@ -17058,7 +17073,7 @@
       <c r="A307" s="1">
         <v>306</v>
       </c>
-      <c r="B307" s="15">
+      <c r="B307" s="11">
         <v>430005</v>
       </c>
       <c r="C307" s="1" t="s">
@@ -17097,7 +17112,7 @@
       <c r="A308" s="1">
         <v>307</v>
       </c>
-      <c r="B308" s="15">
+      <c r="B308" s="11">
         <v>430005</v>
       </c>
       <c r="C308" s="1" t="s">
@@ -17136,7 +17151,7 @@
       <c r="A309" s="1">
         <v>308</v>
       </c>
-      <c r="B309" s="15">
+      <c r="B309" s="11">
         <v>430005</v>
       </c>
       <c r="C309" s="1" t="s">
@@ -17175,7 +17190,7 @@
       <c r="A310" s="1">
         <v>309</v>
       </c>
-      <c r="B310" s="15">
+      <c r="B310" s="11">
         <v>430005</v>
       </c>
       <c r="C310" s="1" t="s">
@@ -17214,7 +17229,7 @@
       <c r="A311" s="1">
         <v>310</v>
       </c>
-      <c r="B311" s="15">
+      <c r="B311" s="11">
         <v>430005</v>
       </c>
       <c r="C311" s="1" t="s">
@@ -17253,7 +17268,7 @@
       <c r="A312" s="1">
         <v>311</v>
       </c>
-      <c r="B312" s="15">
+      <c r="B312" s="11">
         <v>430005</v>
       </c>
       <c r="C312" s="1" t="s">
@@ -17294,7 +17309,7 @@
       <c r="A313" s="1">
         <v>312</v>
       </c>
-      <c r="B313" s="15">
+      <c r="B313" s="11">
         <v>430005</v>
       </c>
       <c r="C313" s="1" t="s">
@@ -17333,7 +17348,7 @@
       <c r="A314" s="1">
         <v>313</v>
       </c>
-      <c r="B314" s="15">
+      <c r="B314" s="11">
         <v>430005</v>
       </c>
       <c r="C314" s="1" t="s">
@@ -17372,7 +17387,7 @@
       <c r="A315" s="1">
         <v>314</v>
       </c>
-      <c r="B315" s="15">
+      <c r="B315" s="11">
         <v>430005</v>
       </c>
       <c r="C315" s="1" t="s">
@@ -17413,7 +17428,7 @@
       <c r="A316" s="1">
         <v>315</v>
       </c>
-      <c r="B316" s="15">
+      <c r="B316" s="11">
         <v>430005</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -17454,7 +17469,7 @@
       <c r="A317" s="1">
         <v>316</v>
       </c>
-      <c r="B317" s="15">
+      <c r="B317" s="11">
         <v>430005</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -17495,7 +17510,7 @@
       <c r="A318" s="1">
         <v>317</v>
       </c>
-      <c r="B318" s="15">
+      <c r="B318" s="11">
         <v>430005</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -17536,7 +17551,7 @@
       <c r="A319" s="1">
         <v>318</v>
       </c>
-      <c r="B319" s="15">
+      <c r="B319" s="11">
         <v>430005</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -17577,7 +17592,7 @@
       <c r="A320" s="1">
         <v>319</v>
       </c>
-      <c r="B320" s="15">
+      <c r="B320" s="11">
         <v>430005</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -17618,7 +17633,7 @@
       <c r="A321" s="1">
         <v>320</v>
       </c>
-      <c r="B321" s="15">
+      <c r="B321" s="11">
         <v>430005</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -17659,7 +17674,7 @@
       <c r="A322" s="1">
         <v>321</v>
       </c>
-      <c r="B322" s="15">
+      <c r="B322" s="11">
         <v>430005</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -17700,7 +17715,7 @@
       <c r="A323" s="1">
         <v>322</v>
       </c>
-      <c r="B323" s="15">
+      <c r="B323" s="11">
         <v>430005</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -17741,7 +17756,7 @@
       <c r="A324" s="1">
         <v>323</v>
       </c>
-      <c r="B324" s="15">
+      <c r="B324" s="11">
         <v>430005</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -17780,7 +17795,7 @@
       <c r="A325" s="1">
         <v>324</v>
       </c>
-      <c r="B325" s="15">
+      <c r="B325" s="11">
         <v>430005</v>
       </c>
       <c r="C325" s="1" t="s">
@@ -17819,7 +17834,7 @@
       <c r="A326" s="1">
         <v>325</v>
       </c>
-      <c r="B326" s="15">
+      <c r="B326" s="11">
         <v>430005</v>
       </c>
       <c r="C326" s="1" t="s">
@@ -17858,7 +17873,7 @@
       <c r="A327" s="1">
         <v>326</v>
       </c>
-      <c r="B327" s="15">
+      <c r="B327" s="11">
         <v>430005</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -17897,7 +17912,7 @@
       <c r="A328" s="1">
         <v>327</v>
       </c>
-      <c r="B328" s="15">
+      <c r="B328" s="11">
         <v>430005</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -17936,7 +17951,7 @@
       <c r="A329" s="1">
         <v>328</v>
       </c>
-      <c r="B329" s="15">
+      <c r="B329" s="11">
         <v>430005</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -17977,7 +17992,7 @@
       <c r="A330" s="1">
         <v>329</v>
       </c>
-      <c r="B330" s="15">
+      <c r="B330" s="11">
         <v>430005</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -18018,7 +18033,7 @@
       <c r="A331" s="1">
         <v>330</v>
       </c>
-      <c r="B331" s="15">
+      <c r="B331" s="11">
         <v>430005</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -18059,7 +18074,7 @@
       <c r="A332" s="1">
         <v>331</v>
       </c>
-      <c r="B332" s="15">
+      <c r="B332" s="11">
         <v>430005</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -18100,7 +18115,7 @@
       <c r="A333" s="2">
         <v>332</v>
       </c>
-      <c r="B333" s="16">
+      <c r="B333" s="12">
         <v>430005</v>
       </c>
       <c r="C333" s="2" t="s">
@@ -18109,10 +18124,10 @@
       <c r="D333" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E333" s="17">
+      <c r="E333" s="13">
         <v>44049</v>
       </c>
-      <c r="F333" s="17">
+      <c r="F333" s="13">
         <v>44049</v>
       </c>
       <c r="G333" s="2" t="s">
@@ -18124,7 +18139,7 @@
       <c r="I333" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="J333" s="18" t="s">
+      <c r="J333" s="14" t="s">
         <v>38</v>
       </c>
       <c r="K333" s="1"/>
@@ -18141,14 +18156,14 @@
       <c r="A334" s="1">
         <v>333</v>
       </c>
-      <c r="B334" s="16">
+      <c r="B334" s="12">
         <v>430005</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D334" s="1"/>
-      <c r="E334" s="17">
+      <c r="E334" s="13">
         <v>44050</v>
       </c>
       <c r="F334" s="10">
@@ -18180,17 +18195,17 @@
       <c r="A335" s="1">
         <v>334</v>
       </c>
-      <c r="B335" s="16">
+      <c r="B335" s="12">
         <v>430005</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="1"/>
-      <c r="E335" s="17">
+      <c r="E335" s="13">
         <v>44050</v>
       </c>
-      <c r="F335" s="17">
+      <c r="F335" s="13">
         <v>44049</v>
       </c>
       <c r="G335" s="1" t="s">
@@ -18219,14 +18234,14 @@
       <c r="A336" s="1">
         <v>335</v>
       </c>
-      <c r="B336" s="16">
+      <c r="B336" s="12">
         <v>430005</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D336" s="1"/>
-      <c r="E336" s="17">
+      <c r="E336" s="13">
         <v>44050</v>
       </c>
       <c r="F336" s="10">
@@ -18258,17 +18273,17 @@
       <c r="A337" s="1">
         <v>336</v>
       </c>
-      <c r="B337" s="16">
+      <c r="B337" s="12">
         <v>430005</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D337" s="1"/>
-      <c r="E337" s="17">
+      <c r="E337" s="13">
         <v>44050</v>
       </c>
-      <c r="F337" s="17">
+      <c r="F337" s="13">
         <v>44049</v>
       </c>
       <c r="G337" s="1" t="s">
@@ -18297,14 +18312,14 @@
       <c r="A338" s="1">
         <v>337</v>
       </c>
-      <c r="B338" s="16">
+      <c r="B338" s="12">
         <v>430005</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D338" s="1"/>
-      <c r="E338" s="17">
+      <c r="E338" s="13">
         <v>44050</v>
       </c>
       <c r="F338" s="10">
@@ -18336,14 +18351,14 @@
       <c r="A339" s="1">
         <v>338</v>
       </c>
-      <c r="B339" s="16">
+      <c r="B339" s="12">
         <v>430005</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D339" s="1"/>
-      <c r="E339" s="17">
+      <c r="E339" s="13">
         <v>44050</v>
       </c>
       <c r="F339" s="10">
@@ -18375,14 +18390,14 @@
       <c r="A340" s="1">
         <v>339</v>
       </c>
-      <c r="B340" s="16">
+      <c r="B340" s="12">
         <v>430005</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D340" s="1"/>
-      <c r="E340" s="17">
+      <c r="E340" s="13">
         <v>44050</v>
       </c>
       <c r="F340" s="10">
@@ -18414,7 +18429,7 @@
       <c r="A341" s="1">
         <v>340</v>
       </c>
-      <c r="B341" s="15">
+      <c r="B341" s="11">
         <v>430005</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -18453,7 +18468,7 @@
       <c r="A342" s="1">
         <v>341</v>
       </c>
-      <c r="B342" s="16">
+      <c r="B342" s="12">
         <v>430005</v>
       </c>
       <c r="C342" s="2" t="s">
@@ -18492,7 +18507,7 @@
       <c r="A343" s="1">
         <v>342</v>
       </c>
-      <c r="B343" s="15">
+      <c r="B343" s="11">
         <v>430005</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -18531,7 +18546,7 @@
       <c r="A344" s="1">
         <v>343</v>
       </c>
-      <c r="B344" s="16">
+      <c r="B344" s="12">
         <v>430005</v>
       </c>
       <c r="C344" s="2" t="s">
@@ -18570,7 +18585,7 @@
       <c r="A345" s="1">
         <v>344</v>
       </c>
-      <c r="B345" s="15">
+      <c r="B345" s="11">
         <v>430005</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -18609,7 +18624,7 @@
       <c r="A346" s="1">
         <v>345</v>
       </c>
-      <c r="B346" s="16">
+      <c r="B346" s="12">
         <v>430005</v>
       </c>
       <c r="C346" s="2" t="s">
@@ -18648,7 +18663,7 @@
       <c r="A347" s="1">
         <v>346</v>
       </c>
-      <c r="B347" s="15">
+      <c r="B347" s="11">
         <v>430005</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -18687,7 +18702,7 @@
       <c r="A348" s="1">
         <v>347</v>
       </c>
-      <c r="B348" s="16">
+      <c r="B348" s="12">
         <v>430005</v>
       </c>
       <c r="C348" s="2" t="s">
@@ -18726,7 +18741,7 @@
       <c r="A349" s="1">
         <v>348</v>
       </c>
-      <c r="B349" s="15">
+      <c r="B349" s="11">
         <v>430005</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -18765,7 +18780,7 @@
       <c r="A350" s="1">
         <v>349</v>
       </c>
-      <c r="B350" s="15">
+      <c r="B350" s="11">
         <v>430005</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -18804,7 +18819,7 @@
       <c r="A351" s="1">
         <v>350</v>
       </c>
-      <c r="B351" s="15">
+      <c r="B351" s="11">
         <v>430005</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -18845,7 +18860,7 @@
       <c r="A352" s="1">
         <v>351</v>
       </c>
-      <c r="B352" s="15">
+      <c r="B352" s="11">
         <v>430005</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -18886,7 +18901,7 @@
       <c r="A353" s="1">
         <v>352</v>
       </c>
-      <c r="B353" s="15">
+      <c r="B353" s="11">
         <v>430005</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -18925,7 +18940,7 @@
       <c r="A354" s="1">
         <v>353</v>
       </c>
-      <c r="B354" s="15">
+      <c r="B354" s="11">
         <v>430005</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -18964,7 +18979,7 @@
       <c r="A355" s="1">
         <v>354</v>
       </c>
-      <c r="B355" s="15">
+      <c r="B355" s="11">
         <v>430005</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -19005,7 +19020,7 @@
       <c r="A356" s="1">
         <v>355</v>
       </c>
-      <c r="B356" s="15">
+      <c r="B356" s="11">
         <v>430005</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -19015,7 +19030,7 @@
       <c r="E356" s="10">
         <v>44053</v>
       </c>
-      <c r="F356" s="19">
+      <c r="F356" s="15">
         <v>44052</v>
       </c>
       <c r="G356" s="1" t="s">
@@ -19044,7 +19059,7 @@
       <c r="A357" s="1">
         <v>356</v>
       </c>
-      <c r="B357" s="15">
+      <c r="B357" s="11">
         <v>430005</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -19054,7 +19069,7 @@
       <c r="E357" s="10">
         <v>44053</v>
       </c>
-      <c r="F357" s="19">
+      <c r="F357" s="15">
         <v>44052</v>
       </c>
       <c r="G357" s="1" t="s">
@@ -19083,7 +19098,7 @@
       <c r="A358" s="1">
         <v>357</v>
       </c>
-      <c r="B358" s="15">
+      <c r="B358" s="11">
         <v>430005</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -19093,7 +19108,7 @@
       <c r="E358" s="10">
         <v>44053</v>
       </c>
-      <c r="F358" s="19">
+      <c r="F358" s="15">
         <v>44052</v>
       </c>
       <c r="G358" s="1" t="s">
@@ -19122,17 +19137,17 @@
       <c r="A359" s="1">
         <v>358</v>
       </c>
-      <c r="B359" s="15">
+      <c r="B359" s="11">
         <v>430005</v>
       </c>
       <c r="C359" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D359" s="1"/>
-      <c r="E359" s="19">
+      <c r="E359" s="15">
         <v>44054</v>
       </c>
-      <c r="F359" s="19">
+      <c r="F359" s="15">
         <v>44053</v>
       </c>
       <c r="G359" s="1" t="s">
@@ -19161,7 +19176,7 @@
       <c r="A360" s="1">
         <v>359</v>
       </c>
-      <c r="B360" s="15">
+      <c r="B360" s="11">
         <v>430005</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -19170,10 +19185,10 @@
       <c r="D360" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E360" s="19">
+      <c r="E360" s="15">
         <v>44054</v>
       </c>
-      <c r="F360" s="19">
+      <c r="F360" s="15">
         <v>44054</v>
       </c>
       <c r="G360" s="1" t="s">
@@ -19202,7 +19217,7 @@
       <c r="A361" s="1">
         <v>360</v>
       </c>
-      <c r="B361" s="15">
+      <c r="B361" s="11">
         <v>430005</v>
       </c>
       <c r="C361" s="1" t="s">
@@ -19211,10 +19226,10 @@
       <c r="D361" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E361" s="19">
+      <c r="E361" s="15">
         <v>44054</v>
       </c>
-      <c r="F361" s="19">
+      <c r="F361" s="15">
         <v>44054</v>
       </c>
       <c r="G361" s="1" t="s">
@@ -19243,7 +19258,7 @@
       <c r="A362" s="1">
         <v>361</v>
       </c>
-      <c r="B362" s="15">
+      <c r="B362" s="11">
         <v>430005</v>
       </c>
       <c r="C362" s="1" t="s">
@@ -19252,10 +19267,10 @@
       <c r="D362" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E362" s="19">
+      <c r="E362" s="15">
         <v>44054</v>
       </c>
-      <c r="F362" s="19">
+      <c r="F362" s="15">
         <v>44054</v>
       </c>
       <c r="G362" s="1" t="s">
@@ -19284,17 +19299,17 @@
       <c r="A363" s="1">
         <v>362</v>
       </c>
-      <c r="B363" s="15">
+      <c r="B363" s="11">
         <v>430005</v>
       </c>
       <c r="C363" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D363" s="1"/>
-      <c r="E363" s="19">
+      <c r="E363" s="15">
         <v>44055</v>
       </c>
-      <c r="F363" s="19">
+      <c r="F363" s="15">
         <v>44054</v>
       </c>
       <c r="G363" s="1" t="s">
@@ -19323,17 +19338,17 @@
       <c r="A364" s="1">
         <v>363</v>
       </c>
-      <c r="B364" s="15">
+      <c r="B364" s="11">
         <v>430005</v>
       </c>
       <c r="C364" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D364" s="1"/>
-      <c r="E364" s="19">
+      <c r="E364" s="15">
         <v>44055</v>
       </c>
-      <c r="F364" s="19">
+      <c r="F364" s="15">
         <v>44054</v>
       </c>
       <c r="G364" s="1" t="s">
@@ -19362,17 +19377,17 @@
       <c r="A365" s="1">
         <v>364</v>
       </c>
-      <c r="B365" s="15">
+      <c r="B365" s="11">
         <v>430005</v>
       </c>
       <c r="C365" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D365" s="1"/>
-      <c r="E365" s="19">
+      <c r="E365" s="15">
         <v>44055</v>
       </c>
-      <c r="F365" s="19">
+      <c r="F365" s="15">
         <v>44054</v>
       </c>
       <c r="G365" s="1" t="s">
@@ -19401,17 +19416,17 @@
       <c r="A366" s="1">
         <v>365</v>
       </c>
-      <c r="B366" s="15">
+      <c r="B366" s="11">
         <v>430005</v>
       </c>
       <c r="C366" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D366" s="1"/>
-      <c r="E366" s="19">
+      <c r="E366" s="15">
         <v>44055</v>
       </c>
-      <c r="F366" s="19">
+      <c r="F366" s="15">
         <v>44054</v>
       </c>
       <c r="G366" s="1" t="s">
@@ -19440,7 +19455,7 @@
       <c r="A367" s="1">
         <v>366</v>
       </c>
-      <c r="B367" s="15">
+      <c r="B367" s="11">
         <v>430005</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -19481,7 +19496,7 @@
       <c r="A368" s="1">
         <v>367</v>
       </c>
-      <c r="B368" s="15">
+      <c r="B368" s="11">
         <v>430005</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -19522,7 +19537,7 @@
       <c r="A369" s="1">
         <v>368</v>
       </c>
-      <c r="B369" s="15">
+      <c r="B369" s="11">
         <v>430005</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -19563,7 +19578,7 @@
       <c r="A370" s="1">
         <v>369</v>
       </c>
-      <c r="B370" s="15">
+      <c r="B370" s="11">
         <v>430005</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -19606,7 +19621,7 @@
       <c r="A371" s="1">
         <v>370</v>
       </c>
-      <c r="B371" s="15">
+      <c r="B371" s="11">
         <v>430005</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -19647,7 +19662,7 @@
       <c r="A372" s="1">
         <v>371</v>
       </c>
-      <c r="B372" s="15">
+      <c r="B372" s="11">
         <v>430005</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -19690,7 +19705,7 @@
       <c r="A373" s="1">
         <v>372</v>
       </c>
-      <c r="B373" s="15">
+      <c r="B373" s="11">
         <v>430005</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -19729,7 +19744,7 @@
       <c r="A374" s="1">
         <v>373</v>
       </c>
-      <c r="B374" s="15">
+      <c r="B374" s="11">
         <v>430005</v>
       </c>
       <c r="C374" s="1" t="s">
@@ -19768,7 +19783,7 @@
       <c r="A375" s="1">
         <v>374</v>
       </c>
-      <c r="B375" s="15">
+      <c r="B375" s="11">
         <v>430005</v>
       </c>
       <c r="C375" s="1" t="s">
@@ -19809,7 +19824,7 @@
       <c r="A376" s="1">
         <v>375</v>
       </c>
-      <c r="B376" s="15">
+      <c r="B376" s="11">
         <v>430005</v>
       </c>
       <c r="C376" s="1" t="s">
@@ -19848,7 +19863,7 @@
       <c r="A377" s="1">
         <v>376</v>
       </c>
-      <c r="B377" s="15">
+      <c r="B377" s="11">
         <v>430005</v>
       </c>
       <c r="C377" s="1" t="s">
@@ -19889,7 +19904,7 @@
       <c r="A378" s="1">
         <v>377</v>
       </c>
-      <c r="B378" s="15">
+      <c r="B378" s="11">
         <v>430005</v>
       </c>
       <c r="C378" s="1" t="s">
@@ -19930,7 +19945,7 @@
       <c r="A379" s="1">
         <v>378</v>
       </c>
-      <c r="B379" s="15">
+      <c r="B379" s="11">
         <v>430005</v>
       </c>
       <c r="C379" s="1" t="s">
@@ -19971,7 +19986,7 @@
       <c r="A380" s="1">
         <v>379</v>
       </c>
-      <c r="B380" s="15">
+      <c r="B380" s="11">
         <v>430005</v>
       </c>
       <c r="C380" s="1" t="s">
@@ -20012,7 +20027,7 @@
       <c r="A381" s="1">
         <v>380</v>
       </c>
-      <c r="B381" s="15">
+      <c r="B381" s="11">
         <v>430005</v>
       </c>
       <c r="C381" s="1" t="s">
@@ -20053,7 +20068,7 @@
       <c r="A382" s="1">
         <v>381</v>
       </c>
-      <c r="B382" s="15">
+      <c r="B382" s="11">
         <v>430005</v>
       </c>
       <c r="C382" s="1" t="s">
@@ -20094,7 +20109,7 @@
       <c r="A383" s="1">
         <v>382</v>
       </c>
-      <c r="B383" s="15">
+      <c r="B383" s="11">
         <v>430005</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -20135,7 +20150,7 @@
       <c r="A384" s="1">
         <v>383</v>
       </c>
-      <c r="B384" s="15">
+      <c r="B384" s="11">
         <v>430005</v>
       </c>
       <c r="C384" s="1" t="s">
@@ -20174,7 +20189,7 @@
       <c r="A385" s="1">
         <v>384</v>
       </c>
-      <c r="B385" s="15">
+      <c r="B385" s="11">
         <v>430005</v>
       </c>
       <c r="C385" s="1" t="s">
@@ -20213,7 +20228,7 @@
       <c r="A386" s="1">
         <v>385</v>
       </c>
-      <c r="B386" s="15">
+      <c r="B386" s="11">
         <v>430005</v>
       </c>
       <c r="C386" s="1" t="s">
@@ -20252,7 +20267,7 @@
       <c r="A387" s="1">
         <v>386</v>
       </c>
-      <c r="B387" s="15">
+      <c r="B387" s="11">
         <v>430005</v>
       </c>
       <c r="C387" s="1" t="s">
@@ -20291,7 +20306,7 @@
       <c r="A388" s="1">
         <v>387</v>
       </c>
-      <c r="B388" s="15">
+      <c r="B388" s="11">
         <v>430005</v>
       </c>
       <c r="C388" s="1" t="s">
@@ -20332,7 +20347,7 @@
       <c r="A389" s="1">
         <v>388</v>
       </c>
-      <c r="B389" s="15">
+      <c r="B389" s="11">
         <v>430005</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -20373,7 +20388,7 @@
       <c r="A390" s="1">
         <v>389</v>
       </c>
-      <c r="B390" s="15">
+      <c r="B390" s="11">
         <v>430005</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -20414,7 +20429,7 @@
       <c r="A391" s="1">
         <v>390</v>
       </c>
-      <c r="B391" s="15">
+      <c r="B391" s="11">
         <v>430005</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -20455,7 +20470,7 @@
       <c r="A392" s="1">
         <v>391</v>
       </c>
-      <c r="B392" s="15">
+      <c r="B392" s="11">
         <v>430005</v>
       </c>
       <c r="C392" s="1" t="s">
@@ -20496,7 +20511,7 @@
       <c r="A393" s="1">
         <v>392</v>
       </c>
-      <c r="B393" s="15">
+      <c r="B393" s="11">
         <v>430005</v>
       </c>
       <c r="C393" s="1" t="s">
@@ -20537,7 +20552,7 @@
       <c r="A394" s="1">
         <v>393</v>
       </c>
-      <c r="B394" s="15">
+      <c r="B394" s="11">
         <v>430005</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -20576,7 +20591,7 @@
       <c r="A395" s="1">
         <v>394</v>
       </c>
-      <c r="B395" s="15">
+      <c r="B395" s="11">
         <v>430005</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -20615,7 +20630,7 @@
       <c r="A396" s="1">
         <v>395</v>
       </c>
-      <c r="B396" s="15">
+      <c r="B396" s="11">
         <v>430005</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -20656,7 +20671,7 @@
       <c r="A397" s="1">
         <v>396</v>
       </c>
-      <c r="B397" s="15">
+      <c r="B397" s="11">
         <v>430005</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -20697,7 +20712,7 @@
       <c r="A398" s="1">
         <v>397</v>
       </c>
-      <c r="B398" s="15">
+      <c r="B398" s="11">
         <v>430005</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -20738,7 +20753,7 @@
       <c r="A399" s="1">
         <v>398</v>
       </c>
-      <c r="B399" s="15">
+      <c r="B399" s="11">
         <v>430005</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -20750,7 +20765,7 @@
       <c r="E399" s="10">
         <v>44058</v>
       </c>
-      <c r="F399" s="19">
+      <c r="F399" s="15">
         <v>44058</v>
       </c>
       <c r="G399" s="1" t="s">
@@ -20779,7 +20794,7 @@
       <c r="A400" s="1">
         <v>399</v>
       </c>
-      <c r="B400" s="15">
+      <c r="B400" s="11">
         <v>430005</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -20791,7 +20806,7 @@
       <c r="E400" s="10">
         <v>44058</v>
       </c>
-      <c r="F400" s="19">
+      <c r="F400" s="15">
         <v>44058</v>
       </c>
       <c r="G400" s="1" t="s">
@@ -20820,7 +20835,7 @@
       <c r="A401" s="1">
         <v>400</v>
       </c>
-      <c r="B401" s="15">
+      <c r="B401" s="11">
         <v>430005</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -20832,7 +20847,7 @@
       <c r="E401" s="10">
         <v>44058</v>
       </c>
-      <c r="F401" s="19">
+      <c r="F401" s="15">
         <v>44058</v>
       </c>
       <c r="G401" s="1" t="s">
@@ -20861,7 +20876,7 @@
       <c r="A402" s="1">
         <v>401</v>
       </c>
-      <c r="B402" s="15">
+      <c r="B402" s="11">
         <v>430005</v>
       </c>
       <c r="C402" s="1" t="s">
@@ -20873,7 +20888,7 @@
       <c r="E402" s="10">
         <v>44058</v>
       </c>
-      <c r="F402" s="19">
+      <c r="F402" s="15">
         <v>44058</v>
       </c>
       <c r="G402" s="1" t="s">
@@ -20902,7 +20917,7 @@
       <c r="A403" s="1">
         <v>402</v>
       </c>
-      <c r="B403" s="15">
+      <c r="B403" s="11">
         <v>430005</v>
       </c>
       <c r="C403" s="1" t="s">
@@ -20914,7 +20929,7 @@
       <c r="E403" s="10">
         <v>44058</v>
       </c>
-      <c r="F403" s="19">
+      <c r="F403" s="15">
         <v>44058</v>
       </c>
       <c r="G403" s="1" t="s">
@@ -20943,7 +20958,7 @@
       <c r="A404" s="1">
         <v>403</v>
       </c>
-      <c r="B404" s="15">
+      <c r="B404" s="11">
         <v>430005</v>
       </c>
       <c r="C404" s="1" t="s">
@@ -20955,7 +20970,7 @@
       <c r="E404" s="10">
         <v>44058</v>
       </c>
-      <c r="F404" s="19">
+      <c r="F404" s="15">
         <v>44058</v>
       </c>
       <c r="G404" s="1" t="s">
@@ -20984,7 +20999,7 @@
       <c r="A405" s="1">
         <v>404</v>
       </c>
-      <c r="B405" s="15">
+      <c r="B405" s="11">
         <v>430005</v>
       </c>
       <c r="C405" s="1" t="s">
@@ -20994,7 +21009,7 @@
       <c r="E405" s="10">
         <v>44059</v>
       </c>
-      <c r="F405" s="19">
+      <c r="F405" s="15">
         <v>44058</v>
       </c>
       <c r="G405" s="1" t="s">
@@ -21023,7 +21038,7 @@
       <c r="A406" s="1">
         <v>405</v>
       </c>
-      <c r="B406" s="15">
+      <c r="B406" s="11">
         <v>430005</v>
       </c>
       <c r="C406" s="1" t="s">
@@ -21033,7 +21048,7 @@
       <c r="E406" s="10">
         <v>44059</v>
       </c>
-      <c r="F406" s="19">
+      <c r="F406" s="15">
         <v>44058</v>
       </c>
       <c r="G406" s="1" t="s">
@@ -21062,7 +21077,7 @@
       <c r="A407" s="1">
         <v>406</v>
       </c>
-      <c r="B407" s="15">
+      <c r="B407" s="11">
         <v>430005</v>
       </c>
       <c r="C407" s="1" t="s">
@@ -21072,7 +21087,7 @@
       <c r="E407" s="10">
         <v>44059</v>
       </c>
-      <c r="F407" s="19">
+      <c r="F407" s="15">
         <v>44058</v>
       </c>
       <c r="G407" s="1" t="s">
@@ -21101,7 +21116,7 @@
       <c r="A408" s="1">
         <v>407</v>
       </c>
-      <c r="B408" s="15">
+      <c r="B408" s="11">
         <v>430005</v>
       </c>
       <c r="C408" s="1" t="s">
@@ -21142,7 +21157,7 @@
       <c r="A409" s="1">
         <v>408</v>
       </c>
-      <c r="B409" s="15">
+      <c r="B409" s="11">
         <v>430005</v>
       </c>
       <c r="C409" s="1" t="s">
@@ -21181,7 +21196,7 @@
       <c r="A410" s="1">
         <v>409</v>
       </c>
-      <c r="B410" s="15">
+      <c r="B410" s="11">
         <v>430005</v>
       </c>
       <c r="C410" s="1" t="s">
@@ -21220,7 +21235,7 @@
       <c r="A411" s="1">
         <v>410</v>
       </c>
-      <c r="B411" s="15">
+      <c r="B411" s="11">
         <v>430005</v>
       </c>
       <c r="C411" s="1" t="s">
@@ -21263,7 +21278,7 @@
       <c r="A412" s="1">
         <v>411</v>
       </c>
-      <c r="B412" s="15">
+      <c r="B412" s="11">
         <v>430005</v>
       </c>
       <c r="C412" s="1" t="s">
@@ -21306,7 +21321,7 @@
       <c r="A413" s="1">
         <v>412</v>
       </c>
-      <c r="B413" s="15">
+      <c r="B413" s="11">
         <v>430005</v>
       </c>
       <c r="C413" s="1" t="s">
@@ -21347,7 +21362,7 @@
       <c r="A414" s="1">
         <v>413</v>
       </c>
-      <c r="B414" s="15">
+      <c r="B414" s="11">
         <v>430005</v>
       </c>
       <c r="C414" s="1" t="s">
@@ -21388,7 +21403,7 @@
       <c r="A415" s="1">
         <v>414</v>
       </c>
-      <c r="B415" s="15">
+      <c r="B415" s="11">
         <v>430005</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -21429,7 +21444,7 @@
       <c r="A416" s="1">
         <v>415</v>
       </c>
-      <c r="B416" s="15">
+      <c r="B416" s="11">
         <v>430005</v>
       </c>
       <c r="C416" s="1" t="s">
@@ -21470,7 +21485,7 @@
       <c r="A417" s="1">
         <v>416</v>
       </c>
-      <c r="B417" s="15">
+      <c r="B417" s="11">
         <v>430005</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -21511,7 +21526,7 @@
       <c r="A418" s="1">
         <v>417</v>
       </c>
-      <c r="B418" s="15">
+      <c r="B418" s="11">
         <v>430005</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -21552,7 +21567,7 @@
       <c r="A419" s="1">
         <v>418</v>
       </c>
-      <c r="B419" s="15">
+      <c r="B419" s="11">
         <v>430005</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -21591,7 +21606,7 @@
       <c r="A420" s="1">
         <v>419</v>
       </c>
-      <c r="B420" s="15">
+      <c r="B420" s="11">
         <v>430005</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -21632,7 +21647,7 @@
       <c r="A421" s="1">
         <v>420</v>
       </c>
-      <c r="B421" s="15">
+      <c r="B421" s="11">
         <v>430005</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -21673,7 +21688,7 @@
       <c r="A422" s="1">
         <v>421</v>
       </c>
-      <c r="B422" s="15">
+      <c r="B422" s="11">
         <v>430005</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -21714,7 +21729,7 @@
       <c r="A423" s="1">
         <v>422</v>
       </c>
-      <c r="B423" s="15">
+      <c r="B423" s="11">
         <v>430005</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -21755,7 +21770,7 @@
       <c r="A424" s="1">
         <v>423</v>
       </c>
-      <c r="B424" s="15">
+      <c r="B424" s="11">
         <v>430005</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -21796,7 +21811,7 @@
       <c r="A425" s="1">
         <v>424</v>
       </c>
-      <c r="B425" s="15">
+      <c r="B425" s="11">
         <v>430005</v>
       </c>
       <c r="C425" s="1" t="s">
@@ -21839,7 +21854,7 @@
       <c r="A426" s="1">
         <v>425</v>
       </c>
-      <c r="B426" s="15">
+      <c r="B426" s="11">
         <v>430005</v>
       </c>
       <c r="C426" s="1" t="s">
@@ -21880,7 +21895,7 @@
       <c r="A427" s="1">
         <v>426</v>
       </c>
-      <c r="B427" s="15">
+      <c r="B427" s="11">
         <v>430005</v>
       </c>
       <c r="C427" s="1" t="s">
@@ -21921,7 +21936,7 @@
       <c r="A428" s="1">
         <v>427</v>
       </c>
-      <c r="B428" s="15">
+      <c r="B428" s="11">
         <v>430005</v>
       </c>
       <c r="C428" s="1" t="s">
@@ -21962,7 +21977,7 @@
       <c r="A429" s="1">
         <v>428</v>
       </c>
-      <c r="B429" s="15">
+      <c r="B429" s="11">
         <v>430005</v>
       </c>
       <c r="C429" s="1" t="s">
@@ -22001,7 +22016,7 @@
       <c r="A430" s="1">
         <v>429</v>
       </c>
-      <c r="B430" s="15">
+      <c r="B430" s="11">
         <v>430005</v>
       </c>
       <c r="C430" s="1" t="s">
@@ -22026,15 +22041,13 @@
       <c r="J430" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="K430" s="1" t="s">
-        <v>181</v>
-      </c>
+      <c r="K430" s="1"/>
       <c r="L430" s="1"/>
       <c r="M430" s="1">
         <v>0</v>
       </c>
       <c r="N430" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O430" s="1"/>
     </row>
@@ -22042,7 +22055,7 @@
       <c r="A431" s="1">
         <v>430</v>
       </c>
-      <c r="B431" s="15">
+      <c r="B431" s="11">
         <v>430005</v>
       </c>
       <c r="C431" s="1" t="s">
@@ -22081,7 +22094,7 @@
       <c r="A432" s="1">
         <v>431</v>
       </c>
-      <c r="B432" s="15">
+      <c r="B432" s="11">
         <v>430005</v>
       </c>
       <c r="C432" s="1" t="s">
@@ -22122,7 +22135,7 @@
       <c r="A433" s="1">
         <v>432</v>
       </c>
-      <c r="B433" s="15">
+      <c r="B433" s="11">
         <v>430005</v>
       </c>
       <c r="C433" s="1" t="s">
@@ -22163,7 +22176,7 @@
       <c r="A434" s="1">
         <v>433</v>
       </c>
-      <c r="B434" s="15">
+      <c r="B434" s="11">
         <v>430005</v>
       </c>
       <c r="C434" s="1" t="s">
@@ -22204,7 +22217,7 @@
       <c r="A435" s="1">
         <v>434</v>
       </c>
-      <c r="B435" s="15">
+      <c r="B435" s="11">
         <v>430005</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -22245,7 +22258,7 @@
       <c r="A436" s="1">
         <v>435</v>
       </c>
-      <c r="B436" s="15">
+      <c r="B436" s="11">
         <v>430005</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -22284,7 +22297,7 @@
       <c r="A437" s="1">
         <v>436</v>
       </c>
-      <c r="B437" s="15">
+      <c r="B437" s="11">
         <v>430005</v>
       </c>
       <c r="C437" s="1" t="s">
@@ -22325,7 +22338,7 @@
       <c r="A438" s="1">
         <v>437</v>
       </c>
-      <c r="B438" s="15">
+      <c r="B438" s="11">
         <v>430005</v>
       </c>
       <c r="C438" s="1" t="s">
@@ -22366,7 +22379,7 @@
       <c r="A439" s="1">
         <v>438</v>
       </c>
-      <c r="B439" s="15">
+      <c r="B439" s="11">
         <v>430005</v>
       </c>
       <c r="C439" s="1" t="s">
@@ -22407,7 +22420,7 @@
       <c r="A440" s="1">
         <v>439</v>
       </c>
-      <c r="B440" s="15">
+      <c r="B440" s="11">
         <v>430005</v>
       </c>
       <c r="C440" s="1" t="s">
@@ -22450,7 +22463,7 @@
       <c r="A441" s="1">
         <v>440</v>
       </c>
-      <c r="B441" s="15">
+      <c r="B441" s="11">
         <v>430005</v>
       </c>
       <c r="C441" s="1" t="s">
@@ -22491,7 +22504,7 @@
       <c r="A442" s="1">
         <v>441</v>
       </c>
-      <c r="B442" s="15">
+      <c r="B442" s="11">
         <v>430005</v>
       </c>
       <c r="C442" s="1" t="s">
@@ -22532,7 +22545,7 @@
       <c r="A443" s="1">
         <v>442</v>
       </c>
-      <c r="B443" s="15">
+      <c r="B443" s="11">
         <v>430005</v>
       </c>
       <c r="C443" s="1" t="s">
@@ -22573,7 +22586,7 @@
       <c r="A444" s="1">
         <v>443</v>
       </c>
-      <c r="B444" s="15">
+      <c r="B444" s="11">
         <v>430005</v>
       </c>
       <c r="C444" s="1" t="s">
@@ -22612,7 +22625,7 @@
       <c r="A445" s="1">
         <v>444</v>
       </c>
-      <c r="B445" s="15">
+      <c r="B445" s="11">
         <v>430005</v>
       </c>
       <c r="C445" s="1" t="s">
@@ -22651,7 +22664,7 @@
       <c r="A446" s="1">
         <v>445</v>
       </c>
-      <c r="B446" s="15">
+      <c r="B446" s="11">
         <v>430005</v>
       </c>
       <c r="C446" s="1" t="s">
@@ -22690,7 +22703,7 @@
       <c r="A447" s="1">
         <v>446</v>
       </c>
-      <c r="B447" s="15">
+      <c r="B447" s="11">
         <v>430005</v>
       </c>
       <c r="C447" s="1" t="s">
@@ -22717,15 +22730,13 @@
       <c r="J447" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K447" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K447" s="1"/>
       <c r="L447" s="1"/>
       <c r="M447" s="1">
         <v>0</v>
       </c>
       <c r="N447" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O447" s="1"/>
     </row>
@@ -22733,7 +22744,7 @@
       <c r="A448" s="1">
         <v>447</v>
       </c>
-      <c r="B448" s="15">
+      <c r="B448" s="11">
         <v>430005</v>
       </c>
       <c r="C448" s="1" t="s">
@@ -22774,7 +22785,7 @@
       <c r="A449" s="1">
         <v>448</v>
       </c>
-      <c r="B449" s="15">
+      <c r="B449" s="11">
         <v>430005</v>
       </c>
       <c r="C449" s="1" t="s">
@@ -22815,7 +22826,7 @@
       <c r="A450" s="1">
         <v>449</v>
       </c>
-      <c r="B450" s="15">
+      <c r="B450" s="11">
         <v>430005</v>
       </c>
       <c r="C450" s="1" t="s">
@@ -22854,7 +22865,7 @@
       <c r="A451" s="1">
         <v>450</v>
       </c>
-      <c r="B451" s="15">
+      <c r="B451" s="11">
         <v>430005</v>
       </c>
       <c r="C451" s="1" t="s">
@@ -22895,7 +22906,7 @@
       <c r="A452" s="1">
         <v>451</v>
       </c>
-      <c r="B452" s="15">
+      <c r="B452" s="11">
         <v>430005</v>
       </c>
       <c r="C452" s="1" t="s">
@@ -22936,7 +22947,7 @@
       <c r="A453" s="1">
         <v>452</v>
       </c>
-      <c r="B453" s="15">
+      <c r="B453" s="11">
         <v>430005</v>
       </c>
       <c r="C453" s="1" t="s">
@@ -22977,7 +22988,7 @@
       <c r="A454" s="1">
         <v>453</v>
       </c>
-      <c r="B454" s="15">
+      <c r="B454" s="11">
         <v>430005</v>
       </c>
       <c r="C454" s="1" t="s">
@@ -23018,7 +23029,7 @@
       <c r="A455" s="1">
         <v>454</v>
       </c>
-      <c r="B455" s="15">
+      <c r="B455" s="11">
         <v>430005</v>
       </c>
       <c r="C455" s="1" t="s">
@@ -23059,7 +23070,7 @@
       <c r="A456" s="1">
         <v>455</v>
       </c>
-      <c r="B456" s="15">
+      <c r="B456" s="11">
         <v>430005</v>
       </c>
       <c r="C456" s="1" t="s">
@@ -23100,7 +23111,7 @@
       <c r="A457" s="1">
         <v>456</v>
       </c>
-      <c r="B457" s="15">
+      <c r="B457" s="11">
         <v>430005</v>
       </c>
       <c r="C457" s="1" t="s">
@@ -23139,7 +23150,7 @@
       <c r="A458" s="1">
         <v>457</v>
       </c>
-      <c r="B458" s="15">
+      <c r="B458" s="11">
         <v>430005</v>
       </c>
       <c r="C458" s="1" t="s">
@@ -23178,7 +23189,7 @@
       <c r="A459" s="1">
         <v>458</v>
       </c>
-      <c r="B459" s="15">
+      <c r="B459" s="11">
         <v>430005</v>
       </c>
       <c r="C459" s="1" t="s">
@@ -23219,7 +23230,7 @@
       <c r="A460" s="1">
         <v>459</v>
       </c>
-      <c r="B460" s="15">
+      <c r="B460" s="11">
         <v>430005</v>
       </c>
       <c r="C460" s="1" t="s">
@@ -23260,7 +23271,7 @@
       <c r="A461" s="1">
         <v>460</v>
       </c>
-      <c r="B461" s="15">
+      <c r="B461" s="11">
         <v>430005</v>
       </c>
       <c r="C461" s="1" t="s">
@@ -23301,7 +23312,7 @@
       <c r="A462" s="1">
         <v>461</v>
       </c>
-      <c r="B462" s="15">
+      <c r="B462" s="11">
         <v>430005</v>
       </c>
       <c r="C462" s="1" t="s">
@@ -23340,7 +23351,7 @@
       <c r="A463" s="1">
         <v>462</v>
       </c>
-      <c r="B463" s="15">
+      <c r="B463" s="11">
         <v>430005</v>
       </c>
       <c r="C463" s="1" t="s">
@@ -23381,7 +23392,7 @@
       <c r="A464" s="1">
         <v>463</v>
       </c>
-      <c r="B464" s="15">
+      <c r="B464" s="11">
         <v>430005</v>
       </c>
       <c r="C464" s="1" t="s">
@@ -23424,7 +23435,7 @@
       <c r="A465" s="1">
         <v>464</v>
       </c>
-      <c r="B465" s="15">
+      <c r="B465" s="11">
         <v>430005</v>
       </c>
       <c r="C465" s="1" t="s">
@@ -23467,7 +23478,7 @@
       <c r="A466" s="1">
         <v>465</v>
       </c>
-      <c r="B466" s="15">
+      <c r="B466" s="11">
         <v>430005</v>
       </c>
       <c r="C466" s="1" t="s">
@@ -23508,7 +23519,7 @@
       <c r="A467" s="1">
         <v>466</v>
       </c>
-      <c r="B467" s="15">
+      <c r="B467" s="11">
         <v>430005</v>
       </c>
       <c r="C467" s="1" t="s">
@@ -23549,7 +23560,7 @@
       <c r="A468" s="1">
         <v>467</v>
       </c>
-      <c r="B468" s="15">
+      <c r="B468" s="11">
         <v>430005</v>
       </c>
       <c r="C468" s="1" t="s">
@@ -23590,7 +23601,7 @@
       <c r="A469" s="1">
         <v>468</v>
       </c>
-      <c r="B469" s="15">
+      <c r="B469" s="11">
         <v>430005</v>
       </c>
       <c r="C469" s="1" t="s">
@@ -23631,7 +23642,7 @@
       <c r="A470" s="1">
         <v>469</v>
       </c>
-      <c r="B470" s="15">
+      <c r="B470" s="11">
         <v>430005</v>
       </c>
       <c r="C470" s="1" t="s">
@@ -23672,7 +23683,7 @@
       <c r="A471" s="1">
         <v>470</v>
       </c>
-      <c r="B471" s="15">
+      <c r="B471" s="11">
         <v>430005</v>
       </c>
       <c r="C471" s="1" t="s">
@@ -23715,7 +23726,7 @@
       <c r="A472" s="1">
         <v>471</v>
       </c>
-      <c r="B472" s="15">
+      <c r="B472" s="11">
         <v>430005</v>
       </c>
       <c r="C472" s="1" t="s">
@@ -23756,7 +23767,7 @@
       <c r="A473" s="1">
         <v>472</v>
       </c>
-      <c r="B473" s="15">
+      <c r="B473" s="11">
         <v>430005</v>
       </c>
       <c r="C473" s="1" t="s">
@@ -23797,7 +23808,7 @@
       <c r="A474" s="1">
         <v>473</v>
       </c>
-      <c r="B474" s="15">
+      <c r="B474" s="11">
         <v>430005</v>
       </c>
       <c r="C474" s="1" t="s">
@@ -23838,7 +23849,7 @@
       <c r="A475" s="1">
         <v>474</v>
       </c>
-      <c r="B475" s="15">
+      <c r="B475" s="11">
         <v>430005</v>
       </c>
       <c r="C475" s="1" t="s">
@@ -23863,15 +23874,13 @@
       <c r="J475" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="K475" s="1" t="s">
-        <v>505</v>
-      </c>
+      <c r="K475" s="1"/>
       <c r="L475" s="1"/>
       <c r="M475" s="1">
         <v>0</v>
       </c>
       <c r="N475" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O475" s="1"/>
     </row>
@@ -23879,7 +23888,7 @@
       <c r="A476" s="1">
         <v>475</v>
       </c>
-      <c r="B476" s="15">
+      <c r="B476" s="11">
         <v>430005</v>
       </c>
       <c r="C476" s="1" t="s">
@@ -23920,7 +23929,7 @@
       <c r="A477" s="1">
         <v>476</v>
       </c>
-      <c r="B477" s="15">
+      <c r="B477" s="11">
         <v>430005</v>
       </c>
       <c r="C477" s="1" t="s">
@@ -23961,7 +23970,7 @@
       <c r="A478" s="1">
         <v>477</v>
       </c>
-      <c r="B478" s="15">
+      <c r="B478" s="11">
         <v>430005</v>
       </c>
       <c r="C478" s="1" t="s">
@@ -24004,7 +24013,7 @@
       <c r="A479" s="1">
         <v>478</v>
       </c>
-      <c r="B479" s="15">
+      <c r="B479" s="11">
         <v>430005</v>
       </c>
       <c r="C479" s="1" t="s">
@@ -24047,7 +24056,7 @@
       <c r="A480" s="1">
         <v>479</v>
       </c>
-      <c r="B480" s="15">
+      <c r="B480" s="11">
         <v>430005</v>
       </c>
       <c r="C480" s="1" t="s">
@@ -24088,7 +24097,7 @@
       <c r="A481" s="1">
         <v>480</v>
       </c>
-      <c r="B481" s="15">
+      <c r="B481" s="11">
         <v>430005</v>
       </c>
       <c r="C481" s="1" t="s">
@@ -24131,7 +24140,7 @@
       <c r="A482" s="1">
         <v>481</v>
       </c>
-      <c r="B482" s="15">
+      <c r="B482" s="11">
         <v>430005</v>
       </c>
       <c r="C482" s="1" t="s">
@@ -24172,7 +24181,7 @@
       <c r="A483" s="1">
         <v>482</v>
       </c>
-      <c r="B483" s="15">
+      <c r="B483" s="11">
         <v>430005</v>
       </c>
       <c r="C483" s="1" t="s">
@@ -24215,7 +24224,7 @@
       <c r="A484" s="1">
         <v>483</v>
       </c>
-      <c r="B484" s="15">
+      <c r="B484" s="11">
         <v>430005</v>
       </c>
       <c r="C484" s="1" t="s">
@@ -24256,7 +24265,7 @@
       <c r="A485" s="1">
         <v>484</v>
       </c>
-      <c r="B485" s="15">
+      <c r="B485" s="11">
         <v>430005</v>
       </c>
       <c r="C485" s="1" t="s">
@@ -24297,7 +24306,7 @@
       <c r="A486" s="1">
         <v>485</v>
       </c>
-      <c r="B486" s="15">
+      <c r="B486" s="11">
         <v>430005</v>
       </c>
       <c r="C486" s="1" t="s">
@@ -24340,7 +24349,7 @@
       <c r="A487" s="1">
         <v>486</v>
       </c>
-      <c r="B487" s="15">
+      <c r="B487" s="11">
         <v>430005</v>
       </c>
       <c r="C487" s="1" t="s">
@@ -24381,7 +24390,7 @@
       <c r="A488" s="1">
         <v>487</v>
       </c>
-      <c r="B488" s="15">
+      <c r="B488" s="11">
         <v>430005</v>
       </c>
       <c r="C488" s="1" t="s">
@@ -24422,7 +24431,7 @@
       <c r="A489" s="1">
         <v>488</v>
       </c>
-      <c r="B489" s="15">
+      <c r="B489" s="11">
         <v>430005</v>
       </c>
       <c r="C489" s="1" t="s">
@@ -24463,7 +24472,7 @@
       <c r="A490" s="1">
         <v>489</v>
       </c>
-      <c r="B490" s="15">
+      <c r="B490" s="11">
         <v>430005</v>
       </c>
       <c r="C490" s="1" t="s">
@@ -24504,7 +24513,7 @@
       <c r="A491" s="1">
         <v>490</v>
       </c>
-      <c r="B491" s="15">
+      <c r="B491" s="11">
         <v>430005</v>
       </c>
       <c r="C491" s="1" t="s">
@@ -24531,9 +24540,7 @@
       <c r="J491" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="K491" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K491" s="1"/>
       <c r="L491" s="1"/>
       <c r="M491" s="1">
         <v>0</v>
@@ -24547,7 +24554,7 @@
       <c r="A492" s="1">
         <v>491</v>
       </c>
-      <c r="B492" s="15">
+      <c r="B492" s="11">
         <v>430005</v>
       </c>
       <c r="C492" s="1" t="s">
@@ -24872,7 +24879,7 @@
         <v>255</v>
       </c>
       <c r="K499" s="1" t="s">
-        <v>554</v>
+        <v>181</v>
       </c>
       <c r="L499" s="1"/>
       <c r="M499" s="1">
@@ -24955,9 +24962,7 @@
       <c r="J501" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="K501" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K501" s="1"/>
       <c r="L501" s="1"/>
       <c r="M501" s="1">
         <v>0</v>
@@ -25041,15 +25046,13 @@
       <c r="J503" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="K503" s="1" t="s">
-        <v>554</v>
-      </c>
+      <c r="K503" s="1"/>
       <c r="L503" s="1"/>
       <c r="M503" s="1">
         <v>0</v>
       </c>
       <c r="N503" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O503" s="1"/>
     </row>
@@ -25084,9 +25087,7 @@
       <c r="J504" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="K504" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K504" s="1"/>
       <c r="L504" s="1"/>
       <c r="M504" s="1">
         <v>0</v>
@@ -25127,9 +25128,7 @@
       <c r="J505" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="K505" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K505" s="1"/>
       <c r="L505" s="1"/>
       <c r="M505" s="1">
         <v>0</v>
@@ -25214,7 +25213,7 @@
         <v>160</v>
       </c>
       <c r="K507" s="1" t="s">
-        <v>554</v>
+        <v>103</v>
       </c>
       <c r="L507" s="1"/>
       <c r="M507" s="1">
@@ -25299,9 +25298,7 @@
       <c r="J509" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="K509" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K509" s="1"/>
       <c r="L509" s="1"/>
       <c r="M509" s="1">
         <v>0</v>
@@ -25467,7 +25464,9 @@
       <c r="J513" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="K513" s="1"/>
+      <c r="K513" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L513" s="1"/>
       <c r="M513" s="1">
         <v>0</v>
@@ -25506,7 +25505,9 @@
       <c r="J514" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="K514" s="1"/>
+      <c r="K514" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L514" s="1"/>
       <c r="M514" s="1">
         <v>0</v>
@@ -25547,7 +25548,9 @@
       <c r="J515" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="K515" s="1"/>
+      <c r="K515" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L515" s="1"/>
       <c r="M515" s="1">
         <v>0</v>
@@ -25588,7 +25591,9 @@
       <c r="J516" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="K516" s="1"/>
+      <c r="K516" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L516" s="1"/>
       <c r="M516" s="1">
         <v>0</v>
@@ -25758,7 +25763,9 @@
       <c r="J520" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="K520" s="1"/>
+      <c r="K520" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L520" s="1"/>
       <c r="M520" s="1">
         <v>0</v>
@@ -25799,7 +25806,9 @@
       <c r="J521" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="K521" s="1"/>
+      <c r="K521" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L521" s="1"/>
       <c r="M521" s="1">
         <v>0</v>
@@ -25838,7 +25847,9 @@
       <c r="J522" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="K522" s="1"/>
+      <c r="K522" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L522" s="1"/>
       <c r="M522" s="1">
         <v>0</v>
@@ -25868,7 +25879,7 @@
         <v>44075</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>579</v>
+        <v>158</v>
       </c>
       <c r="H523" s="1" t="s">
         <v>121</v>
@@ -25876,8 +25887,12 @@
       <c r="I523" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J523" s="9"/>
-      <c r="K523" s="1"/>
+      <c r="J523" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="K523" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L523" s="1"/>
       <c r="M523" s="1">
         <v>0</v>
@@ -25907,16 +25922,20 @@
         <v>44075</v>
       </c>
       <c r="G524" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="H524" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="H524" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="I524" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J524" s="9"/>
-      <c r="K524" s="1"/>
+        <v>132</v>
+      </c>
+      <c r="J524" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="K524" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L524" s="1"/>
       <c r="M524" s="1">
         <v>0</v>
@@ -25946,16 +25965,20 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H525" s="1" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J525" s="9"/>
-      <c r="K525" s="1"/>
+      <c r="J525" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K525" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L525" s="1"/>
       <c r="M525" s="1">
         <v>0</v>
@@ -25965,8 +25988,170 @@
       </c>
       <c r="O525" s="1"/>
     </row>
+    <row r="526" spans="1:15">
+      <c r="A526" s="1">
+        <v>525</v>
+      </c>
+      <c r="B526" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D526" s="1"/>
+      <c r="E526" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F526" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G526" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H526" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I526" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J526" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="K526" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L526" s="1"/>
+      <c r="M526" s="1">
+        <v>0</v>
+      </c>
+      <c r="N526" s="1">
+        <v>0</v>
+      </c>
+      <c r="O526" s="1"/>
+    </row>
+    <row r="527" spans="1:15">
+      <c r="A527" s="1">
+        <v>526</v>
+      </c>
+      <c r="B527" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D527" s="1"/>
+      <c r="E527" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F527" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G527" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H527" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="I527" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J527" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="K527" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L527" s="1"/>
+      <c r="M527" s="1">
+        <v>0</v>
+      </c>
+      <c r="N527" s="1">
+        <v>0</v>
+      </c>
+      <c r="O527" s="1"/>
+    </row>
+    <row r="528" spans="1:15">
+      <c r="A528" s="1">
+        <v>527</v>
+      </c>
+      <c r="B528" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D528" s="1"/>
+      <c r="E528" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F528" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G528" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="H528" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I528" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J528" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K528" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L528" s="1"/>
+      <c r="M528" s="1">
+        <v>0</v>
+      </c>
+      <c r="N528" s="1">
+        <v>0</v>
+      </c>
+      <c r="O528" s="1"/>
+    </row>
+    <row r="529" spans="1:15">
+      <c r="A529" s="1">
+        <v>528</v>
+      </c>
+      <c r="B529" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D529" s="1"/>
+      <c r="E529" s="10">
+        <v>44076</v>
+      </c>
+      <c r="F529" s="10">
+        <v>44075</v>
+      </c>
+      <c r="G529" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H529" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="I529" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J529" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="K529" s="1"/>
+      <c r="L529" s="1"/>
+      <c r="M529" s="1">
+        <v>0</v>
+      </c>
+      <c r="N529" s="1">
+        <v>0</v>
+      </c>
+      <c r="O529" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O523"/>
+  <autoFilter ref="A1:O529"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2956" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="602">
   <si>
     <t>No</t>
   </si>
@@ -4128,13 +4128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -4396,6 +4389,125 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>天草市</t>
+    <rPh sb="0" eb="3">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自衛官</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草市職員</t>
+    <rPh sb="0" eb="2">
+      <t>アマクサ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4884,13 +4996,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O529"/>
+  <dimension ref="A1:O535"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B514" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C532" sqref="C532"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -10468,15 +10580,13 @@
       <c r="J139" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K139" s="1" t="s">
-        <v>144</v>
-      </c>
+      <c r="K139" s="1"/>
       <c r="L139" s="1"/>
       <c r="M139" s="4">
         <v>0</v>
       </c>
       <c r="N139" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O139" s="1"/>
     </row>
@@ -22160,15 +22270,13 @@
       <c r="J433" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="K433" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K433" s="1"/>
       <c r="L433" s="1"/>
       <c r="M433" s="1">
         <v>0</v>
       </c>
       <c r="N433" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O433" s="1"/>
     </row>
@@ -22201,15 +22309,13 @@
       <c r="J434" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="K434" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K434" s="1"/>
       <c r="L434" s="1"/>
       <c r="M434" s="1">
         <v>0</v>
       </c>
       <c r="N434" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O434" s="1"/>
     </row>
@@ -22810,15 +22916,13 @@
       <c r="J449" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="K449" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K449" s="1"/>
       <c r="L449" s="1"/>
       <c r="M449" s="1">
         <v>0</v>
       </c>
       <c r="N449" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O449" s="1"/>
     </row>
@@ -23255,15 +23359,13 @@
       <c r="J460" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="K460" s="1" t="s">
-        <v>539</v>
-      </c>
+      <c r="K460" s="1"/>
       <c r="L460" s="1"/>
       <c r="M460" s="1">
         <v>0</v>
       </c>
       <c r="N460" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O460" s="1"/>
     </row>
@@ -23297,7 +23399,7 @@
         <v>485</v>
       </c>
       <c r="K461" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L461" s="1"/>
       <c r="M461" s="1">
@@ -23376,15 +23478,13 @@
       <c r="J463" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="K463" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K463" s="1"/>
       <c r="L463" s="1"/>
       <c r="M463" s="1">
         <v>0</v>
       </c>
       <c r="N463" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O463" s="1"/>
     </row>
@@ -23462,15 +23562,13 @@
       <c r="J465" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="K465" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K465" s="1"/>
       <c r="L465" s="1"/>
       <c r="M465" s="1">
         <v>0</v>
       </c>
       <c r="N465" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O465" s="1"/>
     </row>
@@ -24664,7 +24762,7 @@
         <v>540</v>
       </c>
       <c r="K494" s="1" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="L494" s="1"/>
       <c r="M494" s="1">
@@ -24836,7 +24934,7 @@
         <v>544</v>
       </c>
       <c r="K498" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L498" s="1"/>
       <c r="M498" s="1">
@@ -24960,7 +25058,7 @@
         <v>132</v>
       </c>
       <c r="J501" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -25001,10 +25099,10 @@
         <v>132</v>
       </c>
       <c r="J502" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L502" s="1"/>
       <c r="M502" s="1">
@@ -25044,7 +25142,7 @@
         <v>132</v>
       </c>
       <c r="J503" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -25085,7 +25183,7 @@
         <v>132</v>
       </c>
       <c r="J504" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -25161,23 +25259,21 @@
         <v>549</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I506" s="1" t="s">
         <v>552</v>
       </c>
       <c r="J506" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="K506" s="1" t="s">
-        <v>554</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="K506" s="1"/>
       <c r="L506" s="1"/>
       <c r="M506" s="1">
         <v>0</v>
       </c>
       <c r="N506" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O506" s="1"/>
     </row>
@@ -25204,7 +25300,7 @@
         <v>549</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>132</v>
@@ -25253,7 +25349,7 @@
         <v>552</v>
       </c>
       <c r="J508" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K508" s="1" t="s">
         <v>103</v>
@@ -25296,7 +25392,7 @@
         <v>132</v>
       </c>
       <c r="J509" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -25372,13 +25468,13 @@
         <v>198</v>
       </c>
       <c r="H511" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I511" s="1" t="s">
         <v>552</v>
       </c>
       <c r="J511" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>144</v>
@@ -25421,7 +25517,7 @@
         <v>548</v>
       </c>
       <c r="J512" s="9" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K512" s="1" t="s">
         <v>103</v>
@@ -25453,7 +25549,7 @@
         <v>44073</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>130</v>
@@ -25462,7 +25558,7 @@
         <v>76</v>
       </c>
       <c r="J513" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>103</v>
@@ -25494,7 +25590,7 @@
         <v>44073</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>123</v>
@@ -25503,7 +25599,7 @@
         <v>104</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>103</v>
@@ -25537,16 +25633,16 @@
         <v>44074</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H515" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I515" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="I515" s="1" t="s">
-        <v>566</v>
-      </c>
       <c r="J515" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>103</v>
@@ -25580,26 +25676,24 @@
         <v>44074</v>
       </c>
       <c r="G516" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H516" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J516" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="K516" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="K516" s="1"/>
       <c r="L516" s="1"/>
       <c r="M516" s="1">
         <v>0</v>
       </c>
       <c r="N516" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O516" s="1"/>
     </row>
@@ -25623,16 +25717,16 @@
         <v>44074</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J517" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>103</v>
@@ -25666,16 +25760,16 @@
         <v>44074</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J518" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>103</v>
@@ -25709,16 +25803,16 @@
         <v>44074</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J519" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>103</v>
@@ -25752,16 +25846,16 @@
         <v>44074</v>
       </c>
       <c r="G520" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H520" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="H520" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J520" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>103</v>
@@ -25795,16 +25889,16 @@
         <v>44074</v>
       </c>
       <c r="G521" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="H521" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="H521" s="1" t="s">
-        <v>569</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J521" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>103</v>
@@ -25836,7 +25930,7 @@
         <v>44074</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>123</v>
@@ -25845,7 +25939,7 @@
         <v>104</v>
       </c>
       <c r="J522" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>103</v>
@@ -25888,7 +25982,7 @@
         <v>76</v>
       </c>
       <c r="J523" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>103</v>
@@ -25922,16 +26016,16 @@
         <v>44075</v>
       </c>
       <c r="G524" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="H524" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="H524" s="1" t="s">
-        <v>581</v>
       </c>
       <c r="I524" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J524" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K524" s="1" t="s">
         <v>103</v>
@@ -25965,16 +26059,16 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J525" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>103</v>
@@ -26006,16 +26100,16 @@
         <v>44075</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J526" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>103</v>
@@ -26047,10 +26141,10 @@
         <v>44075</v>
       </c>
       <c r="G527" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>586</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>587</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>132</v>
@@ -26088,7 +26182,7 @@
         <v>44075</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>171</v>
@@ -26132,15 +26226,17 @@
         <v>189</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J529" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="K529" s="1"/>
+        <v>587</v>
+      </c>
+      <c r="K529" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L529" s="1"/>
       <c r="M529" s="1">
         <v>0</v>
@@ -26149,6 +26245,244 @@
         <v>0</v>
       </c>
       <c r="O529" s="1"/>
+    </row>
+    <row r="530" spans="1:15">
+      <c r="A530" s="1">
+        <v>529</v>
+      </c>
+      <c r="B530" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E530" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F530" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G530" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="H530" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I530" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J530" s="9"/>
+      <c r="K530" s="1"/>
+      <c r="L530" s="1"/>
+      <c r="M530" s="1">
+        <v>0</v>
+      </c>
+      <c r="N530" s="1">
+        <v>0</v>
+      </c>
+      <c r="O530" s="1"/>
+    </row>
+    <row r="531" spans="1:15">
+      <c r="A531" s="1">
+        <v>530</v>
+      </c>
+      <c r="B531" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E531" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F531" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G531" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H531" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I531" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J531" s="9"/>
+      <c r="K531" s="1"/>
+      <c r="L531" s="1"/>
+      <c r="M531" s="1">
+        <v>0</v>
+      </c>
+      <c r="N531" s="1">
+        <v>0</v>
+      </c>
+      <c r="O531" s="1"/>
+    </row>
+    <row r="532" spans="1:15">
+      <c r="A532" s="1">
+        <v>531</v>
+      </c>
+      <c r="B532" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C532" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E532" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F532" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G532" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H532" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="I532" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="J532" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K532" s="1"/>
+      <c r="L532" s="1"/>
+      <c r="M532" s="1">
+        <v>0</v>
+      </c>
+      <c r="N532" s="1">
+        <v>0</v>
+      </c>
+      <c r="O532" s="1"/>
+    </row>
+    <row r="533" spans="1:15">
+      <c r="A533" s="1">
+        <v>532</v>
+      </c>
+      <c r="B533" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C533" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D533" s="1"/>
+      <c r="E533" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F533" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G533" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="H533" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="I533" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J533" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="K533" s="1"/>
+      <c r="L533" s="1"/>
+      <c r="M533" s="1">
+        <v>0</v>
+      </c>
+      <c r="N533" s="1">
+        <v>0</v>
+      </c>
+      <c r="O533" s="1"/>
+    </row>
+    <row r="534" spans="1:15">
+      <c r="A534" s="1">
+        <v>533</v>
+      </c>
+      <c r="B534" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C534" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E534" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F534" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G534" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H534" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I534" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J534" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="K534" s="1"/>
+      <c r="L534" s="1"/>
+      <c r="M534" s="1">
+        <v>0</v>
+      </c>
+      <c r="N534" s="1">
+        <v>0</v>
+      </c>
+      <c r="O534" s="1"/>
+    </row>
+    <row r="535" spans="1:15">
+      <c r="A535" s="1">
+        <v>534</v>
+      </c>
+      <c r="B535" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C535" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E535" s="10">
+        <v>44077</v>
+      </c>
+      <c r="F535" s="10">
+        <v>44077</v>
+      </c>
+      <c r="G535" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="H535" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="I535" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="J535" s="9"/>
+      <c r="K535" s="1"/>
+      <c r="L535" s="1"/>
+      <c r="M535" s="1">
+        <v>0</v>
+      </c>
+      <c r="N535" s="1">
+        <v>0</v>
+      </c>
+      <c r="O535" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O529"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2980" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2996" uniqueCount="607">
   <si>
     <t>No</t>
   </si>
@@ -3832,13 +3832,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市中央区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
@@ -4508,6 +4501,48 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4996,13 +5031,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O535"/>
+  <dimension ref="A1:O538"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B520" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A538" sqref="A538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -9120,7 +9155,7 @@
         <v>141</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L102" s="1"/>
       <c r="M102" s="4">
@@ -12874,15 +12909,13 @@
       <c r="J197" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="K197" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1">
         <v>0</v>
       </c>
       <c r="N197" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O197" s="1"/>
     </row>
@@ -12916,7 +12949,7 @@
         <v>242</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>144</v>
+        <v>601</v>
       </c>
       <c r="L198" s="1"/>
       <c r="M198" s="1">
@@ -19716,7 +19749,7 @@
         <v>38</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L370" s="1"/>
       <c r="M370" s="1">
@@ -19800,7 +19833,7 @@
         <v>40</v>
       </c>
       <c r="K372" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L372" s="1"/>
       <c r="M372" s="1">
@@ -19919,7 +19952,7 @@
         <v>38</v>
       </c>
       <c r="K375" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L375" s="1"/>
       <c r="M375" s="1">
@@ -21415,15 +21448,13 @@
       <c r="J412" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="K412" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="K412" s="9"/>
       <c r="L412" s="1"/>
       <c r="M412" s="1">
         <v>0</v>
       </c>
       <c r="N412" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O412" s="1"/>
     </row>
@@ -23399,7 +23430,7 @@
         <v>485</v>
       </c>
       <c r="K461" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L461" s="1"/>
       <c r="M461" s="1">
@@ -23519,15 +23550,13 @@
       <c r="J464" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="K464" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K464" s="1"/>
       <c r="L464" s="1"/>
       <c r="M464" s="1">
         <v>0</v>
       </c>
       <c r="N464" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O464" s="1"/>
     </row>
@@ -24139,7 +24168,7 @@
         <v>38</v>
       </c>
       <c r="K479" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L479" s="1"/>
       <c r="M479" s="1">
@@ -24263,15 +24292,13 @@
       <c r="J482" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="K482" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K482" s="1"/>
       <c r="L482" s="1"/>
       <c r="M482" s="1">
         <v>0</v>
       </c>
       <c r="N482" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O482" s="1"/>
     </row>
@@ -24304,7 +24331,7 @@
         <v>104</v>
       </c>
       <c r="J483" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K483" s="1" t="s">
         <v>103</v>
@@ -24338,7 +24365,7 @@
         <v>44069</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>123</v>
@@ -24347,7 +24374,7 @@
         <v>76</v>
       </c>
       <c r="J484" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="K484" s="1"/>
       <c r="L484" s="1"/>
@@ -24355,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="N484" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O484" s="1"/>
     </row>
@@ -24379,7 +24406,7 @@
         <v>44069</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>121</v>
@@ -24388,7 +24415,7 @@
         <v>104</v>
       </c>
       <c r="J485" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K485" s="1"/>
       <c r="L485" s="1"/>
@@ -24420,16 +24447,16 @@
         <v>44069</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I486" s="1" t="s">
         <v>76</v>
       </c>
       <c r="J486" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K486" s="1" t="s">
         <v>515</v>
@@ -24464,23 +24491,21 @@
         <v>395</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I487" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J487" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="K487" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="K487" s="1"/>
       <c r="L487" s="1"/>
       <c r="M487" s="1">
         <v>0</v>
       </c>
       <c r="N487" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O487" s="1"/>
     </row>
@@ -24513,7 +24538,7 @@
         <v>104</v>
       </c>
       <c r="J488" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K488" s="1"/>
       <c r="L488" s="1"/>
@@ -24554,7 +24579,7 @@
         <v>132</v>
       </c>
       <c r="J489" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="K489" s="1"/>
       <c r="L489" s="1"/>
@@ -24596,7 +24621,7 @@
       </c>
       <c r="J490" s="9"/>
       <c r="K490" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L490" s="1"/>
       <c r="M490" s="1">
@@ -24636,7 +24661,7 @@
         <v>104</v>
       </c>
       <c r="J491" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K491" s="1"/>
       <c r="L491" s="1"/>
@@ -24677,7 +24702,7 @@
         <v>104</v>
       </c>
       <c r="J492" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K492" s="1"/>
       <c r="L492" s="1"/>
@@ -24685,7 +24710,7 @@
         <v>0</v>
       </c>
       <c r="N492" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O492" s="1"/>
     </row>
@@ -24709,13 +24734,13 @@
         <v>44071</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>171</v>
       </c>
       <c r="I493" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J493" s="9"/>
       <c r="K493" s="1" t="s">
@@ -24750,16 +24775,16 @@
         <v>44071</v>
       </c>
       <c r="G494" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="H494" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="H494" s="1" t="s">
-        <v>525</v>
-      </c>
       <c r="I494" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J494" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="K494" s="1" t="s">
         <v>144</v>
@@ -24793,19 +24818,19 @@
         <v>44071</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I495" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J495" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="K495" s="1" t="s">
-        <v>181</v>
+        <v>103</v>
       </c>
       <c r="L495" s="1"/>
       <c r="M495" s="1">
@@ -24836,19 +24861,19 @@
         <v>44071</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H496" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I496" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J496" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K496" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L496" s="1"/>
       <c r="M496" s="1">
@@ -24879,16 +24904,16 @@
         <v>44071</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H497" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I497" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J497" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K497" s="1" t="s">
         <v>103</v>
@@ -24922,19 +24947,19 @@
         <v>44071</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H498" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I498" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J498" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K498" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L498" s="1"/>
       <c r="M498" s="1">
@@ -24965,10 +24990,10 @@
         <v>44071</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H499" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I499" s="1" t="s">
         <v>104</v>
@@ -25015,10 +25040,10 @@
         <v>132</v>
       </c>
       <c r="J500" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K500" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L500" s="1"/>
       <c r="M500" s="1">
@@ -25058,7 +25083,7 @@
         <v>132</v>
       </c>
       <c r="J501" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K501" s="1"/>
       <c r="L501" s="1"/>
@@ -25090,7 +25115,7 @@
         <v>44072</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>122</v>
@@ -25099,10 +25124,10 @@
         <v>132</v>
       </c>
       <c r="J502" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K502" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L502" s="1"/>
       <c r="M502" s="1">
@@ -25142,7 +25167,7 @@
         <v>132</v>
       </c>
       <c r="J503" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="K503" s="1"/>
       <c r="L503" s="1"/>
@@ -25183,7 +25208,7 @@
         <v>132</v>
       </c>
       <c r="J504" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="K504" s="1"/>
       <c r="L504" s="1"/>
@@ -25232,7 +25257,7 @@
         <v>0</v>
       </c>
       <c r="N505" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O505" s="1"/>
     </row>
@@ -25256,16 +25281,16 @@
         <v>44072</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H506" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I506" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J506" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="K506" s="1"/>
       <c r="L506" s="1"/>
@@ -25297,10 +25322,10 @@
         <v>44072</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H507" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I507" s="1" t="s">
         <v>132</v>
@@ -25308,15 +25333,13 @@
       <c r="J507" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K507" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K507" s="1"/>
       <c r="L507" s="1"/>
       <c r="M507" s="1">
         <v>0</v>
       </c>
       <c r="N507" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O507" s="1"/>
     </row>
@@ -25340,26 +25363,24 @@
         <v>44072</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H508" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I508" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J508" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="K508" s="1" t="s">
-        <v>103</v>
-      </c>
+        <v>559</v>
+      </c>
+      <c r="K508" s="1"/>
       <c r="L508" s="1"/>
       <c r="M508" s="1">
         <v>0</v>
       </c>
       <c r="N508" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O508" s="1"/>
     </row>
@@ -25383,16 +25404,16 @@
         <v>44072</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H509" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I509" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J509" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K509" s="1"/>
       <c r="L509" s="1"/>
@@ -25424,16 +25445,16 @@
         <v>44072</v>
       </c>
       <c r="G510" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="H510" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="H510" s="1" t="s">
+      <c r="I510" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="I510" s="1" t="s">
+      <c r="J510" s="9" t="s">
         <v>552</v>
-      </c>
-      <c r="J510" s="9" t="s">
-        <v>553</v>
       </c>
       <c r="K510" s="1" t="s">
         <v>103</v>
@@ -25468,13 +25489,13 @@
         <v>198</v>
       </c>
       <c r="H511" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="I511" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="J511" s="9" t="s">
         <v>556</v>
-      </c>
-      <c r="I511" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="J511" s="9" t="s">
-        <v>557</v>
       </c>
       <c r="K511" s="1" t="s">
         <v>144</v>
@@ -25508,19 +25529,19 @@
         <v>44073</v>
       </c>
       <c r="G512" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H512" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="H512" s="1" t="s">
+      <c r="I512" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="I512" s="1" t="s">
-        <v>548</v>
-      </c>
       <c r="J512" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="K512" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L512" s="1"/>
       <c r="M512" s="1">
@@ -25549,7 +25570,7 @@
         <v>44073</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H513" s="1" t="s">
         <v>130</v>
@@ -25558,7 +25579,7 @@
         <v>76</v>
       </c>
       <c r="J513" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="K513" s="1" t="s">
         <v>103</v>
@@ -25590,7 +25611,7 @@
         <v>44073</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H514" s="1" t="s">
         <v>123</v>
@@ -25599,7 +25620,7 @@
         <v>104</v>
       </c>
       <c r="J514" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K514" s="1" t="s">
         <v>103</v>
@@ -25633,16 +25654,16 @@
         <v>44074</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H515" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="I515" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I515" s="1" t="s">
-        <v>565</v>
-      </c>
       <c r="J515" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K515" s="1" t="s">
         <v>103</v>
@@ -25676,16 +25697,16 @@
         <v>44074</v>
       </c>
       <c r="G516" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H516" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="H516" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="I516" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J516" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K516" s="1"/>
       <c r="L516" s="1"/>
@@ -25717,16 +25738,16 @@
         <v>44074</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H517" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I517" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J517" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K517" s="1" t="s">
         <v>103</v>
@@ -25760,16 +25781,16 @@
         <v>44074</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H518" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I518" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J518" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K518" s="1" t="s">
         <v>103</v>
@@ -25803,16 +25824,16 @@
         <v>44074</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H519" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I519" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J519" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K519" s="1" t="s">
         <v>103</v>
@@ -25846,16 +25867,16 @@
         <v>44074</v>
       </c>
       <c r="G520" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H520" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="H520" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="I520" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J520" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K520" s="1" t="s">
         <v>103</v>
@@ -25889,16 +25910,16 @@
         <v>44074</v>
       </c>
       <c r="G521" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="H521" s="1" t="s">
         <v>567</v>
-      </c>
-      <c r="H521" s="1" t="s">
-        <v>568</v>
       </c>
       <c r="I521" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J521" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>103</v>
@@ -25930,7 +25951,7 @@
         <v>44074</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H522" s="1" t="s">
         <v>123</v>
@@ -25939,7 +25960,7 @@
         <v>104</v>
       </c>
       <c r="J522" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K522" s="1" t="s">
         <v>103</v>
@@ -25982,7 +26003,7 @@
         <v>76</v>
       </c>
       <c r="J523" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K523" s="1" t="s">
         <v>103</v>
@@ -26016,16 +26037,16 @@
         <v>44075</v>
       </c>
       <c r="G524" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="H524" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="H524" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="I524" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J524" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="K524" s="1" t="s">
         <v>103</v>
@@ -26059,16 +26080,16 @@
         <v>44075</v>
       </c>
       <c r="G525" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="H525" s="1" t="s">
         <v>582</v>
-      </c>
-      <c r="H525" s="1" t="s">
-        <v>583</v>
       </c>
       <c r="I525" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J525" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K525" s="1" t="s">
         <v>103</v>
@@ -26100,16 +26121,16 @@
         <v>44075</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H526" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I526" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J526" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K526" s="1" t="s">
         <v>103</v>
@@ -26141,10 +26162,10 @@
         <v>44075</v>
       </c>
       <c r="G527" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H527" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="H527" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="I527" s="1" t="s">
         <v>132</v>
@@ -26182,7 +26203,7 @@
         <v>44075</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H528" s="1" t="s">
         <v>171</v>
@@ -26226,13 +26247,13 @@
         <v>189</v>
       </c>
       <c r="H529" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I529" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J529" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K529" s="1" t="s">
         <v>103</v>
@@ -26266,15 +26287,17 @@
         <v>44077</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H530" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I530" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J530" s="9"/>
+        <v>594</v>
+      </c>
+      <c r="J530" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="K530" s="1"/>
       <c r="L530" s="1"/>
       <c r="M530" s="1">
@@ -26305,16 +26328,20 @@
         <v>44077</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H531" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I531" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="J531" s="9"/>
-      <c r="K531" s="1"/>
+        <v>594</v>
+      </c>
+      <c r="J531" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="K531" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L531" s="1"/>
       <c r="M531" s="1">
         <v>0</v>
@@ -26344,18 +26371,20 @@
         <v>44077</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H532" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="I532" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="I532" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="J532" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="K532" s="1"/>
+      <c r="K532" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L532" s="1"/>
       <c r="M532" s="1">
         <v>0</v>
@@ -26383,18 +26412,20 @@
         <v>44077</v>
       </c>
       <c r="G533" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H533" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="H533" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="I533" s="1" t="s">
         <v>132</v>
       </c>
       <c r="J533" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="K533" s="1"/>
+        <v>600</v>
+      </c>
+      <c r="K533" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="L533" s="1"/>
       <c r="M533" s="1">
         <v>0</v>
@@ -26424,7 +26455,7 @@
         <v>44077</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H534" s="1" t="s">
         <v>122</v>
@@ -26433,9 +26464,11 @@
         <v>132</v>
       </c>
       <c r="J534" s="9" t="s">
-        <v>596</v>
-      </c>
-      <c r="K534" s="1"/>
+        <v>595</v>
+      </c>
+      <c r="K534" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="L534" s="1"/>
       <c r="M534" s="1">
         <v>0</v>
@@ -26465,15 +26498,17 @@
         <v>44077</v>
       </c>
       <c r="G535" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="H535" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H535" s="1" t="s">
+      <c r="I535" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="I535" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="J535" s="9"/>
+      <c r="J535" s="9" t="s">
+        <v>603</v>
+      </c>
       <c r="K535" s="1"/>
       <c r="L535" s="1"/>
       <c r="M535" s="1">
@@ -26483,6 +26518,125 @@
         <v>0</v>
       </c>
       <c r="O535" s="1"/>
+    </row>
+    <row r="536" spans="1:15">
+      <c r="A536" s="1">
+        <v>535</v>
+      </c>
+      <c r="B536" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C536" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E536" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F536" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G536" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H536" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I536" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J536" s="9"/>
+      <c r="K536" s="1"/>
+      <c r="L536" s="1"/>
+      <c r="M536" s="1">
+        <v>0</v>
+      </c>
+      <c r="N536" s="1">
+        <v>0</v>
+      </c>
+      <c r="O536" s="1"/>
+    </row>
+    <row r="537" spans="1:15">
+      <c r="A537" s="1">
+        <v>536</v>
+      </c>
+      <c r="B537" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E537" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F537" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G537" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="H537" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="I537" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="J537" s="9"/>
+      <c r="K537" s="1"/>
+      <c r="L537" s="1"/>
+      <c r="M537" s="1">
+        <v>0</v>
+      </c>
+      <c r="N537" s="1">
+        <v>0</v>
+      </c>
+      <c r="O537" s="1"/>
+    </row>
+    <row r="538" spans="1:15">
+      <c r="A538" s="1">
+        <v>537</v>
+      </c>
+      <c r="B538" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C538" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D538" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="F538" s="10">
+        <v>44078</v>
+      </c>
+      <c r="G538" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="H538" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I538" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="J538" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K538" s="1"/>
+      <c r="L538" s="1"/>
+      <c r="M538" s="1">
+        <v>0</v>
+      </c>
+      <c r="N538" s="1">
+        <v>0</v>
+      </c>
+      <c r="O538" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O529"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$544</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$548</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$548</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3022" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3056" uniqueCount="618">
   <si>
     <t>No</t>
   </si>
@@ -4562,6 +4563,79 @@
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>社会福祉士</t>
+    <rPh sb="0" eb="5">
+      <t>シャカイフクシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="3">
+      <t>チュウトウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本県警察職員</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトケン</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>ケイサツショクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5050,13 +5124,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O544"/>
+  <dimension ref="A1:O548"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B528" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F547" sqref="F547"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -16947,7 +17021,7 @@
         <v>237</v>
       </c>
       <c r="K299" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L299" s="1"/>
       <c r="M299" s="1">
@@ -24136,7 +24210,7 @@
         <v>38</v>
       </c>
       <c r="K478" s="1" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="L478" s="1"/>
       <c r="M478" s="1">
@@ -26091,7 +26165,7 @@
         <v>581</v>
       </c>
       <c r="K525" s="1" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="L525" s="1"/>
       <c r="M525" s="1">
@@ -26510,9 +26584,7 @@
       <c r="J535" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="K535" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="K535" s="1"/>
       <c r="L535" s="1"/>
       <c r="M535" s="1">
         <v>0</v>
@@ -26550,7 +26622,9 @@
       <c r="I536" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J536" s="9"/>
+      <c r="J536" s="9" t="s">
+        <v>608</v>
+      </c>
       <c r="K536" s="1"/>
       <c r="L536" s="1"/>
       <c r="M536" s="1">
@@ -26589,10 +26663,10 @@
       <c r="I537" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="J537" s="9"/>
-      <c r="K537" s="1" t="s">
-        <v>103</v>
-      </c>
+      <c r="J537" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="K537" s="1"/>
       <c r="L537" s="1"/>
       <c r="M537" s="1">
         <v>0</v>
@@ -26716,8 +26790,12 @@
       <c r="I540" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J540" s="9"/>
-      <c r="K540" s="1"/>
+      <c r="J540" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="K540" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L540" s="1"/>
       <c r="M540" s="1">
         <v>0</v>
@@ -26755,8 +26833,12 @@
       <c r="I541" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J541" s="9"/>
-      <c r="K541" s="1"/>
+      <c r="J541" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="K541" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L541" s="1"/>
       <c r="M541" s="1">
         <v>0</v>
@@ -26794,8 +26876,12 @@
       <c r="I542" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J542" s="9"/>
-      <c r="K542" s="1"/>
+      <c r="J542" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="K542" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L542" s="1"/>
       <c r="M542" s="1">
         <v>0</v>
@@ -26833,8 +26919,12 @@
       <c r="I543" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J543" s="9"/>
-      <c r="K543" s="1"/>
+      <c r="J543" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="K543" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L543" s="1"/>
       <c r="M543" s="1">
         <v>0</v>
@@ -26872,8 +26962,12 @@
       <c r="I544" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="J544" s="9"/>
-      <c r="K544" s="1"/>
+      <c r="J544" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="K544" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="L544" s="1"/>
       <c r="M544" s="1">
         <v>0</v>
@@ -26883,8 +26977,172 @@
       </c>
       <c r="O544" s="1"/>
     </row>
+    <row r="545" spans="1:15">
+      <c r="A545" s="1">
+        <v>544</v>
+      </c>
+      <c r="B545" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D545" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E545" s="10">
+        <v>44080</v>
+      </c>
+      <c r="F545" s="10">
+        <v>44080</v>
+      </c>
+      <c r="G545" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H545" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I545" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J545" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K545" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L545" s="1"/>
+      <c r="M545" s="1">
+        <v>0</v>
+      </c>
+      <c r="N545" s="1">
+        <v>0</v>
+      </c>
+      <c r="O545" s="1"/>
+    </row>
+    <row r="546" spans="1:15">
+      <c r="A546" s="1">
+        <v>545</v>
+      </c>
+      <c r="B546" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C546" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D546" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E546" s="10">
+        <v>44080</v>
+      </c>
+      <c r="F546" s="10">
+        <v>44080</v>
+      </c>
+      <c r="G546" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="H546" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I546" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J546" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="K546" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="L546" s="1"/>
+      <c r="M546" s="1">
+        <v>0</v>
+      </c>
+      <c r="N546" s="1">
+        <v>0</v>
+      </c>
+      <c r="O546" s="1"/>
+    </row>
+    <row r="547" spans="1:15">
+      <c r="A547" s="1">
+        <v>546</v>
+      </c>
+      <c r="B547" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C547" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D547" s="1"/>
+      <c r="E547" s="10">
+        <v>44081</v>
+      </c>
+      <c r="F547" s="10">
+        <v>44080</v>
+      </c>
+      <c r="G547" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="H547" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="I547" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="J547" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="K547" s="1"/>
+      <c r="L547" s="1"/>
+      <c r="M547" s="1">
+        <v>0</v>
+      </c>
+      <c r="N547" s="1">
+        <v>0</v>
+      </c>
+      <c r="O547" s="1"/>
+    </row>
+    <row r="548" spans="1:15">
+      <c r="A548" s="1">
+        <v>547</v>
+      </c>
+      <c r="B548" s="1">
+        <v>430005</v>
+      </c>
+      <c r="C548" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D548" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E548" s="10">
+        <v>44081</v>
+      </c>
+      <c r="F548" s="10">
+        <v>44081</v>
+      </c>
+      <c r="G548" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H548" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I548" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J548" s="9"/>
+      <c r="K548" s="1"/>
+      <c r="L548" s="1"/>
+      <c r="M548" s="1">
+        <v>0</v>
+      </c>
+      <c r="N548" s="1">
+        <v>0</v>
+      </c>
+      <c r="O548" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O544"/>
+  <autoFilter ref="A1:O548"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$590</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$609</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="676">
   <si>
     <t>No</t>
   </si>
@@ -4896,13 +4896,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -4971,6 +4964,144 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大津町</t>
+    <rPh sb="0" eb="3">
+      <t>オオツマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5119,7 +5250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5159,7 +5290,6 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5169,7 +5299,7 @@
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -5460,13 +5590,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O590"/>
+  <dimension ref="A1:O609"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B577" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B583" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A590" sqref="A590"/>
+      <selection pane="bottomRight" activeCell="B610" sqref="B610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13017,7 +13147,7 @@
       <c r="M189" s="15">
         <v>0</v>
       </c>
-      <c r="N189" s="20">
+      <c r="N189" s="19">
         <v>1</v>
       </c>
       <c r="O189" s="15"/>
@@ -27234,7 +27364,7 @@
       <c r="J545" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K545" s="20" t="s">
+      <c r="K545" s="19" t="s">
         <v>641</v>
       </c>
       <c r="L545" s="15"/>
@@ -27742,7 +27872,7 @@
       <c r="M558" s="5">
         <v>0</v>
       </c>
-      <c r="N558" s="21">
+      <c r="N558" s="20">
         <v>1</v>
       </c>
       <c r="O558" s="5"/>
@@ -28088,7 +28218,7 @@
       <c r="J567" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="K567" s="21" t="s">
+      <c r="K567" s="20" t="s">
         <v>641</v>
       </c>
       <c r="L567" s="5"/>
@@ -28129,7 +28259,7 @@
       <c r="J568" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="K568" s="20" t="s">
+      <c r="K568" s="19" t="s">
         <v>644</v>
       </c>
       <c r="L568" s="5"/>
@@ -28263,784 +28393,1539 @@
       <c r="O571" s="5"/>
     </row>
     <row r="572" spans="1:15">
-      <c r="A572" s="19">
+      <c r="A572" s="23">
         <v>571</v>
       </c>
-      <c r="B572" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C572" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D572" s="19" t="s">
+      <c r="B572" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C572" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D572" s="23" t="s">
         <v>631</v>
       </c>
-      <c r="E572" s="6">
+      <c r="E572" s="21">
         <v>44089</v>
       </c>
-      <c r="F572" s="6">
+      <c r="F572" s="21">
         <v>44089</v>
       </c>
-      <c r="G572" s="19" t="s">
+      <c r="G572" s="23" t="s">
         <v>628</v>
       </c>
-      <c r="H572" s="19" t="s">
+      <c r="H572" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="I572" s="19" t="s">
+      <c r="I572" s="23" t="s">
         <v>630</v>
       </c>
-      <c r="J572" s="8" t="s">
+      <c r="J572" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="K572" s="19"/>
-      <c r="L572" s="19"/>
-      <c r="M572" s="5">
-        <v>0</v>
-      </c>
-      <c r="N572" s="5">
-        <v>1</v>
-      </c>
-      <c r="O572" s="19"/>
+      <c r="K572" s="23"/>
+      <c r="L572" s="23"/>
+      <c r="M572" s="20">
+        <v>0</v>
+      </c>
+      <c r="N572" s="20">
+        <v>1</v>
+      </c>
+      <c r="O572" s="23"/>
     </row>
     <row r="573" spans="1:15">
-      <c r="A573" s="19">
+      <c r="A573" s="23">
         <v>572</v>
       </c>
-      <c r="B573" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C573" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D573" s="19"/>
-      <c r="E573" s="6">
+      <c r="B573" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C573" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D573" s="23"/>
+      <c r="E573" s="21">
         <v>44092</v>
       </c>
-      <c r="F573" s="6">
+      <c r="F573" s="21">
         <v>44091</v>
       </c>
-      <c r="G573" s="19" t="s">
+      <c r="G573" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="H573" s="19" t="s">
+      <c r="H573" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="I573" s="19" t="s">
+      <c r="I573" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J573" s="8" t="s">
+      <c r="J573" s="22" t="s">
         <v>640</v>
       </c>
-      <c r="K573" s="19" t="s">
+      <c r="K573" s="23" t="s">
         <v>605</v>
       </c>
-      <c r="L573" s="19"/>
-      <c r="M573" s="5">
-        <v>0</v>
-      </c>
-      <c r="N573" s="5">
-        <v>0</v>
-      </c>
-      <c r="O573" s="19"/>
+      <c r="L573" s="23"/>
+      <c r="M573" s="20">
+        <v>0</v>
+      </c>
+      <c r="N573" s="20">
+        <v>0</v>
+      </c>
+      <c r="O573" s="23"/>
     </row>
     <row r="574" spans="1:15">
-      <c r="A574" s="5">
+      <c r="A574" s="20">
         <v>573</v>
       </c>
-      <c r="B574" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C574" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D574" s="5"/>
-      <c r="E574" s="6">
+      <c r="B574" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C574" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D574" s="20"/>
+      <c r="E574" s="21">
         <v>44098</v>
       </c>
-      <c r="F574" s="6">
+      <c r="F574" s="21">
         <v>44097</v>
       </c>
-      <c r="G574" s="5" t="s">
+      <c r="G574" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="H574" s="5" t="s">
+      <c r="H574" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="I574" s="5" t="s">
+      <c r="I574" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="J574" s="8" t="s">
+      <c r="J574" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="K574" s="15" t="s">
+      <c r="K574" s="19"/>
+      <c r="L574" s="20"/>
+      <c r="M574" s="20">
+        <v>0</v>
+      </c>
+      <c r="N574" s="20">
+        <v>1</v>
+      </c>
+      <c r="O574" s="20"/>
+    </row>
+    <row r="575" spans="1:15">
+      <c r="A575" s="20">
+        <v>574</v>
+      </c>
+      <c r="B575" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C575" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D575" s="20"/>
+      <c r="E575" s="21">
+        <v>44103</v>
+      </c>
+      <c r="F575" s="21">
+        <v>44102</v>
+      </c>
+      <c r="G575" s="20" t="s">
+        <v>642</v>
+      </c>
+      <c r="H575" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I575" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J575" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K575" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L575" s="20"/>
+      <c r="M575" s="20">
+        <v>0</v>
+      </c>
+      <c r="N575" s="20">
+        <v>0</v>
+      </c>
+      <c r="O575" s="20"/>
+    </row>
+    <row r="576" spans="1:15">
+      <c r="A576" s="23">
+        <v>575</v>
+      </c>
+      <c r="B576" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C576" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D576" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E576" s="21">
+        <v>44103</v>
+      </c>
+      <c r="F576" s="21">
+        <v>44103</v>
+      </c>
+      <c r="G576" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="H576" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I576" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J576" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K576" s="23" t="s">
+        <v>646</v>
+      </c>
+      <c r="L576" s="23"/>
+      <c r="M576" s="23">
+        <v>0</v>
+      </c>
+      <c r="N576" s="23">
+        <v>0</v>
+      </c>
+      <c r="O576" s="23"/>
+    </row>
+    <row r="577" spans="1:15">
+      <c r="A577" s="23">
+        <v>576</v>
+      </c>
+      <c r="B577" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C577" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D577" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E577" s="21">
+        <v>44104</v>
+      </c>
+      <c r="F577" s="21">
+        <v>44104</v>
+      </c>
+      <c r="G577" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H577" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I577" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J577" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K577" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="L574" s="5"/>
-      <c r="M574" s="5">
-        <v>0</v>
-      </c>
-      <c r="N574" s="5">
-        <v>0</v>
-      </c>
-      <c r="O574" s="5"/>
-    </row>
-    <row r="575" spans="1:15">
-      <c r="A575" s="21">
-        <v>574</v>
-      </c>
-      <c r="B575" s="21">
-        <v>430005</v>
-      </c>
-      <c r="C575" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D575" s="21"/>
-      <c r="E575" s="22">
-        <v>44103</v>
-      </c>
-      <c r="F575" s="22">
-        <v>44102</v>
-      </c>
-      <c r="G575" s="21" t="s">
-        <v>642</v>
-      </c>
-      <c r="H575" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I575" s="21" t="s">
+      <c r="L577" s="23"/>
+      <c r="M577" s="23">
+        <v>0</v>
+      </c>
+      <c r="N577" s="23">
+        <v>0</v>
+      </c>
+      <c r="O577" s="23"/>
+    </row>
+    <row r="578" spans="1:15">
+      <c r="A578" s="23">
+        <v>577</v>
+      </c>
+      <c r="B578" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C578" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D578" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E578" s="21">
+        <v>44105</v>
+      </c>
+      <c r="F578" s="21">
+        <v>44105</v>
+      </c>
+      <c r="G578" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H578" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I578" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J575" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K575" s="20" t="s">
-        <v>643</v>
-      </c>
-      <c r="L575" s="21"/>
-      <c r="M575" s="21">
-        <v>0</v>
-      </c>
-      <c r="N575" s="21">
-        <v>0</v>
-      </c>
-      <c r="O575" s="21"/>
-    </row>
-    <row r="576" spans="1:15">
-      <c r="A576" s="24">
-        <v>575</v>
-      </c>
-      <c r="B576" s="21">
-        <v>430005</v>
-      </c>
-      <c r="C576" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D576" s="24" t="s">
+      <c r="J578" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K578" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L578" s="23"/>
+      <c r="M578" s="23">
+        <v>0</v>
+      </c>
+      <c r="N578" s="23">
+        <v>0</v>
+      </c>
+      <c r="O578" s="23"/>
+    </row>
+    <row r="579" spans="1:15">
+      <c r="A579" s="23">
+        <v>578</v>
+      </c>
+      <c r="B579" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C579" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D579" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E576" s="22">
-        <v>44103</v>
-      </c>
-      <c r="F576" s="22">
-        <v>44103</v>
-      </c>
-      <c r="G576" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="H576" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I576" s="21" t="s">
+      <c r="E579" s="21">
+        <v>44105</v>
+      </c>
+      <c r="F579" s="21">
+        <v>44105</v>
+      </c>
+      <c r="G579" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="H579" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I579" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J576" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K576" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="L576" s="24"/>
-      <c r="M576" s="24">
-        <v>0</v>
-      </c>
-      <c r="N576" s="24">
-        <v>0</v>
-      </c>
-      <c r="O576" s="24"/>
-    </row>
-    <row r="577" spans="1:15">
-      <c r="A577" s="24">
-        <v>576</v>
-      </c>
-      <c r="B577" s="21">
-        <v>430005</v>
-      </c>
-      <c r="C577" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D577" s="24" t="s">
+      <c r="J579" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="K579" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L579" s="23"/>
+      <c r="M579" s="23">
+        <v>0</v>
+      </c>
+      <c r="N579" s="23">
+        <v>0</v>
+      </c>
+      <c r="O579" s="23"/>
+    </row>
+    <row r="580" spans="1:15">
+      <c r="A580" s="23">
+        <v>579</v>
+      </c>
+      <c r="B580" s="20">
+        <v>430005</v>
+      </c>
+      <c r="C580" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D580" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E577" s="22">
-        <v>44104</v>
-      </c>
-      <c r="F577" s="22">
-        <v>44104</v>
-      </c>
-      <c r="G577" s="24" t="s">
+      <c r="E580" s="21">
+        <v>44105</v>
+      </c>
+      <c r="F580" s="21">
+        <v>44105</v>
+      </c>
+      <c r="G580" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="H577" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I577" s="21" t="s">
+      <c r="H580" s="23" t="s">
+        <v>647</v>
+      </c>
+      <c r="I580" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J580" s="24" t="s">
+        <v>651</v>
+      </c>
+      <c r="K580" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L580" s="23"/>
+      <c r="M580" s="23">
+        <v>0</v>
+      </c>
+      <c r="N580" s="23">
+        <v>0</v>
+      </c>
+      <c r="O580" s="23"/>
+    </row>
+    <row r="581" spans="1:15">
+      <c r="A581" s="23">
+        <v>580</v>
+      </c>
+      <c r="B581" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C581" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D581" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E581" s="21">
+        <v>44106</v>
+      </c>
+      <c r="F581" s="21">
+        <v>44106</v>
+      </c>
+      <c r="G581" s="23" t="s">
+        <v>648</v>
+      </c>
+      <c r="H581" s="23" t="s">
+        <v>649</v>
+      </c>
+      <c r="I581" s="23" t="s">
+        <v>650</v>
+      </c>
+      <c r="J581" s="24" t="s">
+        <v>654</v>
+      </c>
+      <c r="K581" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="L581" s="23"/>
+      <c r="M581" s="23">
+        <v>0</v>
+      </c>
+      <c r="N581" s="23">
+        <v>0</v>
+      </c>
+      <c r="O581" s="23"/>
+    </row>
+    <row r="582" spans="1:15">
+      <c r="A582" s="23">
+        <v>581</v>
+      </c>
+      <c r="B582" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C582" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D582" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E582" s="21">
+        <v>44106</v>
+      </c>
+      <c r="F582" s="21">
+        <v>44106</v>
+      </c>
+      <c r="G582" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H582" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I582" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J577" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="K577" s="24" t="s">
+      <c r="J582" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="K582" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="L577" s="24"/>
-      <c r="M577" s="24">
-        <v>0</v>
-      </c>
-      <c r="N577" s="24">
-        <v>0</v>
-      </c>
-      <c r="O577" s="24"/>
-    </row>
-    <row r="578" spans="1:15">
-      <c r="A578" s="24">
-        <v>577</v>
-      </c>
-      <c r="B578" s="21">
-        <v>430005</v>
-      </c>
-      <c r="C578" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D578" s="24" t="s">
+      <c r="L582" s="23"/>
+      <c r="M582" s="23">
+        <v>0</v>
+      </c>
+      <c r="N582" s="23">
+        <v>0</v>
+      </c>
+      <c r="O582" s="23"/>
+    </row>
+    <row r="583" spans="1:15">
+      <c r="A583" s="23">
+        <v>582</v>
+      </c>
+      <c r="B583" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C583" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D583" s="23"/>
+      <c r="E583" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F583" s="21">
+        <v>44106</v>
+      </c>
+      <c r="G583" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="H583" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I583" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J583" s="24" t="s">
+        <v>653</v>
+      </c>
+      <c r="K583" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="L583" s="23"/>
+      <c r="M583" s="23">
+        <v>0</v>
+      </c>
+      <c r="N583" s="23">
+        <v>0</v>
+      </c>
+      <c r="O583" s="23"/>
+    </row>
+    <row r="584" spans="1:15">
+      <c r="A584" s="23">
+        <v>583</v>
+      </c>
+      <c r="B584" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C584" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" s="23"/>
+      <c r="E584" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F584" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G584" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H584" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I584" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J584" s="24" t="s">
+        <v>652</v>
+      </c>
+      <c r="K584" s="23"/>
+      <c r="L584" s="23"/>
+      <c r="M584" s="23">
+        <v>0</v>
+      </c>
+      <c r="N584" s="23">
+        <v>0</v>
+      </c>
+      <c r="O584" s="23"/>
+    </row>
+    <row r="585" spans="1:15">
+      <c r="A585" s="23">
+        <v>584</v>
+      </c>
+      <c r="B585" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C585" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D585" s="23"/>
+      <c r="E585" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F585" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G585" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H585" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I585" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J585" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K585" s="23"/>
+      <c r="L585" s="23"/>
+      <c r="M585" s="23">
+        <v>0</v>
+      </c>
+      <c r="N585" s="23">
+        <v>0</v>
+      </c>
+      <c r="O585" s="23"/>
+    </row>
+    <row r="586" spans="1:15">
+      <c r="A586" s="23">
+        <v>585</v>
+      </c>
+      <c r="B586" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C586" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E578" s="22">
-        <v>44105</v>
-      </c>
-      <c r="F578" s="22">
-        <v>44105</v>
-      </c>
-      <c r="G578" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="H578" s="24" t="s">
+      <c r="E586" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F586" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G586" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="H586" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I586" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J586" s="24" t="s">
+        <v>675</v>
+      </c>
+      <c r="K586" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L586" s="23"/>
+      <c r="M586" s="23">
+        <v>0</v>
+      </c>
+      <c r="N586" s="23">
+        <v>0</v>
+      </c>
+      <c r="O586" s="23"/>
+    </row>
+    <row r="587" spans="1:15">
+      <c r="A587" s="23">
+        <v>586</v>
+      </c>
+      <c r="B587" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C587" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D587" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E587" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F587" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G587" s="23" t="s">
+        <v>659</v>
+      </c>
+      <c r="H587" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I578" s="24" t="s">
+      <c r="I587" s="23" t="s">
+        <v>660</v>
+      </c>
+      <c r="J587" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="K587" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L587" s="23"/>
+      <c r="M587" s="23">
+        <v>0</v>
+      </c>
+      <c r="N587" s="23">
+        <v>0</v>
+      </c>
+      <c r="O587" s="23"/>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588" s="23">
+        <v>587</v>
+      </c>
+      <c r="B588" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C588" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D588" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E588" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F588" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G588" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="H588" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I588" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J578" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K578" s="19" t="s">
-        <v>652</v>
-      </c>
-      <c r="L578" s="24"/>
-      <c r="M578" s="24">
-        <v>0</v>
-      </c>
-      <c r="N578" s="24">
-        <v>0</v>
-      </c>
-      <c r="O578" s="24"/>
-    </row>
-    <row r="579" spans="1:15">
-      <c r="A579" s="19">
-        <v>578</v>
-      </c>
-      <c r="B579" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C579" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D579" s="19" t="s">
+      <c r="J588" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="K588" s="23"/>
+      <c r="L588" s="23"/>
+      <c r="M588" s="23">
+        <v>0</v>
+      </c>
+      <c r="N588" s="23">
+        <v>0</v>
+      </c>
+      <c r="O588" s="23"/>
+    </row>
+    <row r="589" spans="1:15">
+      <c r="A589" s="23">
+        <v>588</v>
+      </c>
+      <c r="B589" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C589" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E579" s="6">
-        <v>44105</v>
-      </c>
-      <c r="F579" s="6">
-        <v>44105</v>
-      </c>
-      <c r="G579" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H579" s="19" t="s">
+      <c r="E589" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F589" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G589" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="H589" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I579" s="19" t="s">
+      <c r="I589" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J579" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K579" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="L579" s="19"/>
-      <c r="M579" s="19">
-        <v>0</v>
-      </c>
-      <c r="N579" s="19">
-        <v>0</v>
-      </c>
-      <c r="O579" s="19"/>
-    </row>
-    <row r="580" spans="1:15">
-      <c r="A580" s="19">
-        <v>579</v>
-      </c>
-      <c r="B580" s="5">
-        <v>430005</v>
-      </c>
-      <c r="C580" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D580" s="19" t="s">
+      <c r="J589" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="K589" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="L589" s="23"/>
+      <c r="M589" s="23">
+        <v>0</v>
+      </c>
+      <c r="N589" s="23">
+        <v>0</v>
+      </c>
+      <c r="O589" s="23"/>
+    </row>
+    <row r="590" spans="1:15">
+      <c r="A590" s="23">
+        <v>589</v>
+      </c>
+      <c r="B590" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C590" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E580" s="6">
-        <v>44105</v>
-      </c>
-      <c r="F580" s="6">
-        <v>44105</v>
-      </c>
-      <c r="G580" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="H580" s="19" t="s">
-        <v>647</v>
-      </c>
-      <c r="I580" s="19" t="s">
+      <c r="E590" s="21">
+        <v>44107</v>
+      </c>
+      <c r="F590" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G590" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="H590" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I590" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="J580" s="25" t="s">
-        <v>651</v>
-      </c>
-      <c r="K580" s="19" t="s">
+      <c r="J590" s="24" t="s">
+        <v>674</v>
+      </c>
+      <c r="K590" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="L580" s="19"/>
-      <c r="M580" s="19">
-        <v>0</v>
-      </c>
-      <c r="N580" s="19">
-        <v>0</v>
-      </c>
-      <c r="O580" s="19"/>
-    </row>
-    <row r="581" spans="1:15">
-      <c r="A581" s="19">
-        <v>580</v>
-      </c>
-      <c r="B581" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C581" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D581" s="19" t="s">
+      <c r="L590" s="23"/>
+      <c r="M590" s="23">
+        <v>0</v>
+      </c>
+      <c r="N590" s="23">
+        <v>0</v>
+      </c>
+      <c r="O590" s="23"/>
+    </row>
+    <row r="591" spans="1:15">
+      <c r="A591" s="23">
+        <v>590</v>
+      </c>
+      <c r="B591" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C591" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="23"/>
+      <c r="E591" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F591" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G591" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="H591" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I591" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J591" s="24" t="s">
+        <v>672</v>
+      </c>
+      <c r="K591" s="23"/>
+      <c r="L591" s="23"/>
+      <c r="M591" s="23">
+        <v>0</v>
+      </c>
+      <c r="N591" s="23">
+        <v>0</v>
+      </c>
+      <c r="O591" s="23"/>
+    </row>
+    <row r="592" spans="1:15">
+      <c r="A592" s="23">
+        <v>591</v>
+      </c>
+      <c r="B592" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C592" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D592" s="23"/>
+      <c r="E592" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F592" s="21">
+        <v>44107</v>
+      </c>
+      <c r="G592" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H592" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I592" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J592" s="24" t="s">
+        <v>673</v>
+      </c>
+      <c r="K592" s="23"/>
+      <c r="L592" s="23"/>
+      <c r="M592" s="23">
+        <v>0</v>
+      </c>
+      <c r="N592" s="23">
+        <v>0</v>
+      </c>
+      <c r="O592" s="23"/>
+    </row>
+    <row r="593" spans="1:15">
+      <c r="A593" s="23">
+        <v>592</v>
+      </c>
+      <c r="B593" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C593" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D593" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E593" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F593" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G593" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H593" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I593" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J593" s="24"/>
+      <c r="K593" s="23"/>
+      <c r="L593" s="23"/>
+      <c r="M593" s="23">
+        <v>0</v>
+      </c>
+      <c r="N593" s="23">
+        <v>0</v>
+      </c>
+      <c r="O593" s="23"/>
+    </row>
+    <row r="594" spans="1:15">
+      <c r="A594" s="23">
+        <v>593</v>
+      </c>
+      <c r="B594" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C594" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D594" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E594" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F594" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G594" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H594" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I594" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J594" s="24"/>
+      <c r="K594" s="23"/>
+      <c r="L594" s="23"/>
+      <c r="M594" s="23">
+        <v>0</v>
+      </c>
+      <c r="N594" s="23">
+        <v>0</v>
+      </c>
+      <c r="O594" s="23"/>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="23">
+        <v>594</v>
+      </c>
+      <c r="B595" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C595" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D595" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E595" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F595" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G595" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H595" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I595" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J595" s="24"/>
+      <c r="K595" s="23"/>
+      <c r="L595" s="23"/>
+      <c r="M595" s="23">
+        <v>0</v>
+      </c>
+      <c r="N595" s="23">
+        <v>0</v>
+      </c>
+      <c r="O595" s="23"/>
+    </row>
+    <row r="596" spans="1:15">
+      <c r="A596" s="23">
+        <v>595</v>
+      </c>
+      <c r="B596" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C596" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D596" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E596" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F596" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G596" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="H596" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I596" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J596" s="24"/>
+      <c r="K596" s="23"/>
+      <c r="L596" s="23"/>
+      <c r="M596" s="23">
+        <v>0</v>
+      </c>
+      <c r="N596" s="23">
+        <v>0</v>
+      </c>
+      <c r="O596" s="23"/>
+    </row>
+    <row r="597" spans="1:15">
+      <c r="A597" s="23">
+        <v>596</v>
+      </c>
+      <c r="B597" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C597" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D597" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E597" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F597" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G597" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H597" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I597" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J597" s="24"/>
+      <c r="K597" s="23"/>
+      <c r="L597" s="23"/>
+      <c r="M597" s="23">
+        <v>0</v>
+      </c>
+      <c r="N597" s="23">
+        <v>0</v>
+      </c>
+      <c r="O597" s="23"/>
+    </row>
+    <row r="598" spans="1:15">
+      <c r="A598" s="23">
+        <v>597</v>
+      </c>
+      <c r="B598" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C598" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D598" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E598" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F598" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G598" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="H598" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I598" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J598" s="24"/>
+      <c r="K598" s="23"/>
+      <c r="L598" s="23"/>
+      <c r="M598" s="23">
+        <v>0</v>
+      </c>
+      <c r="N598" s="23">
+        <v>0</v>
+      </c>
+      <c r="O598" s="23"/>
+    </row>
+    <row r="599" spans="1:15">
+      <c r="A599" s="23">
+        <v>598</v>
+      </c>
+      <c r="B599" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C599" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D599" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E599" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F599" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G599" s="23" t="s">
+        <v>666</v>
+      </c>
+      <c r="H599" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="I599" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J599" s="24"/>
+      <c r="K599" s="23"/>
+      <c r="L599" s="23"/>
+      <c r="M599" s="23">
+        <v>0</v>
+      </c>
+      <c r="N599" s="23">
+        <v>0</v>
+      </c>
+      <c r="O599" s="23"/>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="23">
+        <v>599</v>
+      </c>
+      <c r="B600" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C600" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D600" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E600" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F600" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G600" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H600" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="I600" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J600" s="24"/>
+      <c r="K600" s="23"/>
+      <c r="L600" s="23"/>
+      <c r="M600" s="23">
+        <v>0</v>
+      </c>
+      <c r="N600" s="23">
+        <v>0</v>
+      </c>
+      <c r="O600" s="23"/>
+    </row>
+    <row r="601" spans="1:15">
+      <c r="A601" s="23">
+        <v>600</v>
+      </c>
+      <c r="B601" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C601" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E601" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F601" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G601" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H601" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I601" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J601" s="24"/>
+      <c r="K601" s="23"/>
+      <c r="L601" s="23"/>
+      <c r="M601" s="23">
+        <v>0</v>
+      </c>
+      <c r="N601" s="23">
+        <v>0</v>
+      </c>
+      <c r="O601" s="23"/>
+    </row>
+    <row r="602" spans="1:15">
+      <c r="A602" s="23">
+        <v>601</v>
+      </c>
+      <c r="B602" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C602" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D602" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E602" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F602" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G602" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H602" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="I602" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J602" s="24"/>
+      <c r="K602" s="23"/>
+      <c r="L602" s="23"/>
+      <c r="M602" s="23">
+        <v>0</v>
+      </c>
+      <c r="N602" s="23">
+        <v>0</v>
+      </c>
+      <c r="O602" s="23"/>
+    </row>
+    <row r="603" spans="1:15">
+      <c r="A603" s="23">
+        <v>602</v>
+      </c>
+      <c r="B603" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C603" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D603" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E603" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F603" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G603" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="H603" s="23" t="s">
+        <v>671</v>
+      </c>
+      <c r="I603" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J603" s="24"/>
+      <c r="K603" s="23"/>
+      <c r="L603" s="23"/>
+      <c r="M603" s="23">
+        <v>0</v>
+      </c>
+      <c r="N603" s="23">
+        <v>0</v>
+      </c>
+      <c r="O603" s="23"/>
+    </row>
+    <row r="604" spans="1:15">
+      <c r="A604" s="23">
+        <v>603</v>
+      </c>
+      <c r="B604" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C604" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E604" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F604" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G604" s="23" t="s">
+        <v>667</v>
+      </c>
+      <c r="H604" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I604" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J604" s="24"/>
+      <c r="K604" s="23"/>
+      <c r="L604" s="23"/>
+      <c r="M604" s="23">
+        <v>0</v>
+      </c>
+      <c r="N604" s="23">
+        <v>0</v>
+      </c>
+      <c r="O604" s="23"/>
+    </row>
+    <row r="605" spans="1:15">
+      <c r="A605" s="23">
+        <v>604</v>
+      </c>
+      <c r="B605" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C605" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E605" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F605" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G605" s="23" t="s">
+        <v>665</v>
+      </c>
+      <c r="H605" s="23" t="s">
+        <v>670</v>
+      </c>
+      <c r="I605" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J605" s="24"/>
+      <c r="K605" s="23"/>
+      <c r="L605" s="23"/>
+      <c r="M605" s="23">
+        <v>0</v>
+      </c>
+      <c r="N605" s="23">
+        <v>0</v>
+      </c>
+      <c r="O605" s="23"/>
+    </row>
+    <row r="606" spans="1:15">
+      <c r="A606" s="23">
+        <v>605</v>
+      </c>
+      <c r="B606" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C606" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="E606" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F606" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G606" s="23" t="s">
+        <v>668</v>
+      </c>
+      <c r="H606" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="I606" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="J606" s="24"/>
+      <c r="K606" s="23"/>
+      <c r="L606" s="23"/>
+      <c r="M606" s="23">
+        <v>0</v>
+      </c>
+      <c r="N606" s="23">
+        <v>0</v>
+      </c>
+      <c r="O606" s="23"/>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" s="23">
+        <v>606</v>
+      </c>
+      <c r="B607" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C607" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="23"/>
+      <c r="E607" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F607" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G607" s="23" t="s">
+        <v>662</v>
+      </c>
+      <c r="H607" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I607" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J607" s="24"/>
+      <c r="K607" s="23"/>
+      <c r="L607" s="23"/>
+      <c r="M607" s="23">
+        <v>0</v>
+      </c>
+      <c r="N607" s="23">
+        <v>0</v>
+      </c>
+      <c r="O607" s="23"/>
+    </row>
+    <row r="608" spans="1:15">
+      <c r="A608" s="23">
+        <v>607</v>
+      </c>
+      <c r="B608" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C608" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D608" s="23"/>
+      <c r="E608" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F608" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G608" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="H608" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="I608" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="J608" s="24"/>
+      <c r="K608" s="23"/>
+      <c r="L608" s="23"/>
+      <c r="M608" s="23">
+        <v>0</v>
+      </c>
+      <c r="N608" s="23">
+        <v>0</v>
+      </c>
+      <c r="O608" s="23"/>
+    </row>
+    <row r="609" spans="1:15">
+      <c r="A609" s="23">
+        <v>608</v>
+      </c>
+      <c r="B609" s="23">
+        <v>430005</v>
+      </c>
+      <c r="C609" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E581" s="6">
-        <v>44106</v>
-      </c>
-      <c r="F581" s="6">
-        <v>44106</v>
-      </c>
-      <c r="G581" s="19" t="s">
-        <v>648</v>
-      </c>
-      <c r="H581" s="19" t="s">
-        <v>649</v>
-      </c>
-      <c r="I581" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="J581" s="25" t="s">
-        <v>655</v>
-      </c>
-      <c r="K581" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="L581" s="19"/>
-      <c r="M581" s="19">
-        <v>0</v>
-      </c>
-      <c r="N581" s="19">
-        <v>0</v>
-      </c>
-      <c r="O581" s="19"/>
-    </row>
-    <row r="582" spans="1:15">
-      <c r="A582" s="19">
-        <v>581</v>
-      </c>
-      <c r="B582" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C582" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D582" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E582" s="6">
-        <v>44106</v>
-      </c>
-      <c r="F582" s="6">
-        <v>44106</v>
-      </c>
-      <c r="G582" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H582" s="19" t="s">
+      <c r="E609" s="21">
+        <v>44108</v>
+      </c>
+      <c r="F609" s="21">
+        <v>44108</v>
+      </c>
+      <c r="G609" s="23" t="s">
+        <v>669</v>
+      </c>
+      <c r="H609" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="I582" s="19" t="s">
+      <c r="I609" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J582" s="25" t="s">
-        <v>656</v>
-      </c>
-      <c r="K582" s="19"/>
-      <c r="L582" s="19"/>
-      <c r="M582" s="19">
-        <v>0</v>
-      </c>
-      <c r="N582" s="19">
-        <v>0</v>
-      </c>
-      <c r="O582" s="19"/>
-    </row>
-    <row r="583" spans="1:15">
-      <c r="A583" s="19">
-        <v>582</v>
-      </c>
-      <c r="B583" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C583" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D583" s="19"/>
-      <c r="E583" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F583" s="6">
-        <v>44106</v>
-      </c>
-      <c r="G583" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H583" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I583" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J583" s="25" t="s">
-        <v>654</v>
-      </c>
-      <c r="K583" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="L583" s="19"/>
-      <c r="M583" s="19">
-        <v>0</v>
-      </c>
-      <c r="N583" s="19">
-        <v>0</v>
-      </c>
-      <c r="O583" s="19"/>
-    </row>
-    <row r="584" spans="1:15">
-      <c r="A584" s="19">
-        <v>583</v>
-      </c>
-      <c r="B584" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C584" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" s="19"/>
-      <c r="E584" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F584" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G584" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H584" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I584" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J584" s="25" t="s">
-        <v>653</v>
-      </c>
-      <c r="K584" s="19"/>
-      <c r="L584" s="19"/>
-      <c r="M584" s="19">
-        <v>0</v>
-      </c>
-      <c r="N584" s="19">
-        <v>0</v>
-      </c>
-      <c r="O584" s="19"/>
-    </row>
-    <row r="585" spans="1:15">
-      <c r="A585" s="19">
-        <v>584</v>
-      </c>
-      <c r="B585" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C585" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D585" s="19"/>
-      <c r="E585" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F585" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G585" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H585" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I585" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J585" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="K585" s="19"/>
-      <c r="L585" s="19"/>
-      <c r="M585" s="19">
-        <v>0</v>
-      </c>
-      <c r="N585" s="19">
-        <v>0</v>
-      </c>
-      <c r="O585" s="19"/>
-    </row>
-    <row r="586" spans="1:15">
-      <c r="A586" s="19">
-        <v>585</v>
-      </c>
-      <c r="B586" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C586" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D586" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E586" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F586" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G586" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="H586" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I586" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J586" s="25"/>
-      <c r="K586" s="19"/>
-      <c r="L586" s="19"/>
-      <c r="M586" s="19">
-        <v>0</v>
-      </c>
-      <c r="N586" s="19">
-        <v>0</v>
-      </c>
-      <c r="O586" s="19"/>
-    </row>
-    <row r="587" spans="1:15">
-      <c r="A587" s="19">
-        <v>586</v>
-      </c>
-      <c r="B587" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C587" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D587" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E587" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F587" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G587" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="H587" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I587" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="J587" s="25"/>
-      <c r="K587" s="19"/>
-      <c r="L587" s="19"/>
-      <c r="M587" s="19">
-        <v>0</v>
-      </c>
-      <c r="N587" s="19">
-        <v>0</v>
-      </c>
-      <c r="O587" s="19"/>
-    </row>
-    <row r="588" spans="1:15">
-      <c r="A588" s="19">
-        <v>587</v>
-      </c>
-      <c r="B588" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C588" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D588" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E588" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F588" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G588" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="H588" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I588" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J588" s="25"/>
-      <c r="K588" s="19"/>
-      <c r="L588" s="19"/>
-      <c r="M588" s="19">
-        <v>0</v>
-      </c>
-      <c r="N588" s="19">
-        <v>0</v>
-      </c>
-      <c r="O588" s="19"/>
-    </row>
-    <row r="589" spans="1:15">
-      <c r="A589" s="19">
-        <v>588</v>
-      </c>
-      <c r="B589" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C589" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D589" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E589" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F589" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G589" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="H589" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I589" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J589" s="25"/>
-      <c r="K589" s="19"/>
-      <c r="L589" s="19"/>
-      <c r="M589" s="19">
-        <v>0</v>
-      </c>
-      <c r="N589" s="19">
-        <v>0</v>
-      </c>
-      <c r="O589" s="19"/>
-    </row>
-    <row r="590" spans="1:15">
-      <c r="A590" s="19">
-        <v>589</v>
-      </c>
-      <c r="B590" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C590" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D590" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E590" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F590" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G590" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="H590" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I590" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J590" s="25"/>
-      <c r="K590" s="19"/>
-      <c r="L590" s="19"/>
-      <c r="M590" s="19">
-        <v>0</v>
-      </c>
-      <c r="N590" s="19">
-        <v>0</v>
-      </c>
-      <c r="O590" s="19"/>
+      <c r="J609" s="24"/>
+      <c r="K609" s="23"/>
+      <c r="L609" s="23"/>
+      <c r="M609" s="23">
+        <v>0</v>
+      </c>
+      <c r="N609" s="23">
+        <v>0</v>
+      </c>
+      <c r="O609" s="23"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O590"/>
+  <autoFilter ref="A1:O609"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$609</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$624</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3335" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="702">
   <si>
     <t>No</t>
   </si>
@@ -4834,16 +4834,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市東区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
@@ -5104,6 +5094,234 @@
       <t>カイシャイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>苓北町</t>
+    <rPh sb="0" eb="3">
+      <t>レイホクマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
   </si>
 </sst>
 </file>
@@ -5113,7 +5331,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5149,6 +5367,22 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="游ゴシック Light"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5250,7 +5484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5290,16 +5524,8 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -5590,13 +5816,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O609"/>
+  <dimension ref="A1:O628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B583" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B616" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B610" sqref="B610"/>
+      <selection pane="bottomRight" activeCell="A628" sqref="A628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -13147,7 +13373,7 @@
       <c r="M189" s="15">
         <v>0</v>
       </c>
-      <c r="N189" s="19">
+      <c r="N189" s="15">
         <v>1</v>
       </c>
       <c r="O189" s="15"/>
@@ -27364,7 +27590,7 @@
       <c r="J545" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K545" s="19" t="s">
+      <c r="K545" s="15" t="s">
         <v>641</v>
       </c>
       <c r="L545" s="15"/>
@@ -27872,7 +28098,7 @@
       <c r="M558" s="5">
         <v>0</v>
       </c>
-      <c r="N558" s="20">
+      <c r="N558" s="5">
         <v>1</v>
       </c>
       <c r="O558" s="5"/>
@@ -28218,8 +28444,8 @@
       <c r="J567" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="K567" s="20" t="s">
-        <v>641</v>
+      <c r="K567" s="5" t="s">
+        <v>643</v>
       </c>
       <c r="L567" s="5"/>
       <c r="M567" s="5">
@@ -28259,8 +28485,8 @@
       <c r="J568" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="K568" s="19" t="s">
-        <v>644</v>
+      <c r="K568" s="15" t="s">
+        <v>643</v>
       </c>
       <c r="L568" s="5"/>
       <c r="M568" s="5">
@@ -28393,1539 +28619,2342 @@
       <c r="O571" s="5"/>
     </row>
     <row r="572" spans="1:15">
-      <c r="A572" s="23">
+      <c r="A572" s="19">
         <v>571</v>
       </c>
-      <c r="B572" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C572" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D572" s="23" t="s">
+      <c r="B572" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C572" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D572" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="E572" s="21">
+      <c r="E572" s="6">
         <v>44089</v>
       </c>
-      <c r="F572" s="21">
+      <c r="F572" s="6">
         <v>44089</v>
       </c>
-      <c r="G572" s="23" t="s">
+      <c r="G572" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="H572" s="23" t="s">
+      <c r="H572" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="I572" s="23" t="s">
+      <c r="I572" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="J572" s="22" t="s">
+      <c r="J572" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="K572" s="23"/>
-      <c r="L572" s="23"/>
-      <c r="M572" s="20">
-        <v>0</v>
-      </c>
-      <c r="N572" s="20">
-        <v>1</v>
-      </c>
-      <c r="O572" s="23"/>
+      <c r="K572" s="19"/>
+      <c r="L572" s="19"/>
+      <c r="M572" s="5">
+        <v>0</v>
+      </c>
+      <c r="N572" s="5">
+        <v>1</v>
+      </c>
+      <c r="O572" s="19"/>
     </row>
     <row r="573" spans="1:15">
-      <c r="A573" s="23">
+      <c r="A573" s="19">
         <v>572</v>
       </c>
-      <c r="B573" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C573" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D573" s="23"/>
-      <c r="E573" s="21">
+      <c r="B573" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C573" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D573" s="19"/>
+      <c r="E573" s="6">
         <v>44092</v>
       </c>
-      <c r="F573" s="21">
+      <c r="F573" s="6">
         <v>44091</v>
       </c>
-      <c r="G573" s="23" t="s">
+      <c r="G573" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="H573" s="23" t="s">
+      <c r="H573" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="I573" s="23" t="s">
+      <c r="I573" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J573" s="22" t="s">
+      <c r="J573" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="K573" s="23" t="s">
+      <c r="K573" s="19" t="s">
         <v>605</v>
       </c>
-      <c r="L573" s="23"/>
-      <c r="M573" s="20">
-        <v>0</v>
-      </c>
-      <c r="N573" s="20">
-        <v>0</v>
-      </c>
-      <c r="O573" s="23"/>
+      <c r="L573" s="19"/>
+      <c r="M573" s="5">
+        <v>0</v>
+      </c>
+      <c r="N573" s="5">
+        <v>0</v>
+      </c>
+      <c r="O573" s="19"/>
     </row>
     <row r="574" spans="1:15">
-      <c r="A574" s="20">
+      <c r="A574" s="5">
         <v>573</v>
       </c>
-      <c r="B574" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C574" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D574" s="20"/>
-      <c r="E574" s="21">
+      <c r="B574" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C574" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D574" s="5"/>
+      <c r="E574" s="6">
         <v>44098</v>
       </c>
-      <c r="F574" s="21">
+      <c r="F574" s="6">
         <v>44097</v>
       </c>
-      <c r="G574" s="20" t="s">
+      <c r="G574" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H574" s="20" t="s">
+      <c r="H574" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I574" s="20" t="s">
+      <c r="I574" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J574" s="22" t="s">
+      <c r="J574" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K574" s="19"/>
-      <c r="L574" s="20"/>
-      <c r="M574" s="20">
-        <v>0</v>
-      </c>
-      <c r="N574" s="20">
-        <v>1</v>
-      </c>
-      <c r="O574" s="20"/>
+      <c r="K574" s="15"/>
+      <c r="L574" s="5"/>
+      <c r="M574" s="5">
+        <v>0</v>
+      </c>
+      <c r="N574" s="5">
+        <v>1</v>
+      </c>
+      <c r="O574" s="5"/>
     </row>
     <row r="575" spans="1:15">
-      <c r="A575" s="20">
+      <c r="A575" s="5">
         <v>574</v>
       </c>
-      <c r="B575" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C575" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D575" s="20"/>
-      <c r="E575" s="21">
+      <c r="B575" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C575" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D575" s="5"/>
+      <c r="E575" s="6">
         <v>44103</v>
       </c>
-      <c r="F575" s="21">
+      <c r="F575" s="6">
         <v>44102</v>
       </c>
-      <c r="G575" s="20" t="s">
+      <c r="G575" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="H575" s="20" t="s">
+      <c r="H575" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I575" s="20" t="s">
+      <c r="I575" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J575" s="22" t="s">
+      <c r="J575" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K575" s="19" t="s">
+      <c r="K575" s="15" t="s">
         <v>643</v>
       </c>
-      <c r="L575" s="20"/>
-      <c r="M575" s="20">
-        <v>0</v>
-      </c>
-      <c r="N575" s="20">
-        <v>0</v>
-      </c>
-      <c r="O575" s="20"/>
+      <c r="L575" s="5"/>
+      <c r="M575" s="5">
+        <v>0</v>
+      </c>
+      <c r="N575" s="5">
+        <v>0</v>
+      </c>
+      <c r="O575" s="5"/>
     </row>
     <row r="576" spans="1:15">
-      <c r="A576" s="23">
+      <c r="A576" s="19">
         <v>575</v>
       </c>
-      <c r="B576" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C576" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D576" s="23" t="s">
+      <c r="B576" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C576" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D576" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E576" s="21">
+      <c r="E576" s="6">
         <v>44103</v>
       </c>
-      <c r="F576" s="21">
+      <c r="F576" s="6">
         <v>44103</v>
       </c>
-      <c r="G576" s="23" t="s">
+      <c r="G576" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="H576" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I576" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="J576" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="K576" s="19" t="s">
         <v>645</v>
       </c>
-      <c r="H576" s="20" t="s">
+      <c r="L576" s="19"/>
+      <c r="M576" s="19">
+        <v>0</v>
+      </c>
+      <c r="N576" s="19">
+        <v>0</v>
+      </c>
+      <c r="O576" s="19"/>
+    </row>
+    <row r="577" spans="1:15">
+      <c r="A577" s="19">
+        <v>576</v>
+      </c>
+      <c r="B577" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C577" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D577" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E577" s="6">
+        <v>44104</v>
+      </c>
+      <c r="F577" s="6">
+        <v>44104</v>
+      </c>
+      <c r="G577" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H577" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="I576" s="20" t="s">
+      <c r="I577" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="J576" s="22" t="s">
+      <c r="J577" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="K576" s="23" t="s">
+      <c r="K577" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L577" s="19"/>
+      <c r="M577" s="19">
+        <v>0</v>
+      </c>
+      <c r="N577" s="19">
+        <v>0</v>
+      </c>
+      <c r="O577" s="19"/>
+    </row>
+    <row r="578" spans="1:15">
+      <c r="A578" s="19">
+        <v>577</v>
+      </c>
+      <c r="B578" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C578" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D578" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E578" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F578" s="6">
+        <v>44105</v>
+      </c>
+      <c r="G578" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H578" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I578" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J578" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K578" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L578" s="19"/>
+      <c r="M578" s="19">
+        <v>0</v>
+      </c>
+      <c r="N578" s="19">
+        <v>0</v>
+      </c>
+      <c r="O578" s="19"/>
+    </row>
+    <row r="579" spans="1:15">
+      <c r="A579" s="19">
+        <v>578</v>
+      </c>
+      <c r="B579" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C579" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D579" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E579" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F579" s="6">
+        <v>44105</v>
+      </c>
+      <c r="G579" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H579" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I579" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J579" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K579" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L579" s="19"/>
+      <c r="M579" s="19">
+        <v>0</v>
+      </c>
+      <c r="N579" s="19">
+        <v>0</v>
+      </c>
+      <c r="O579" s="19"/>
+    </row>
+    <row r="580" spans="1:15">
+      <c r="A580" s="19">
+        <v>579</v>
+      </c>
+      <c r="B580" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C580" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D580" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E580" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F580" s="6">
+        <v>44105</v>
+      </c>
+      <c r="G580" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="H580" s="19" t="s">
         <v>646</v>
       </c>
-      <c r="L576" s="23"/>
-      <c r="M576" s="23">
-        <v>0</v>
-      </c>
-      <c r="N576" s="23">
-        <v>0</v>
-      </c>
-      <c r="O576" s="23"/>
-    </row>
-    <row r="577" spans="1:15">
-      <c r="A577" s="23">
-        <v>576</v>
-      </c>
-      <c r="B577" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C577" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D577" s="23" t="s">
+      <c r="I580" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J580" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="K580" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L580" s="19"/>
+      <c r="M580" s="19">
+        <v>0</v>
+      </c>
+      <c r="N580" s="19">
+        <v>0</v>
+      </c>
+      <c r="O580" s="19"/>
+    </row>
+    <row r="581" spans="1:15">
+      <c r="A581" s="19">
+        <v>580</v>
+      </c>
+      <c r="B581" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C581" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D581" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E577" s="21">
-        <v>44104</v>
-      </c>
-      <c r="F577" s="21">
-        <v>44104</v>
-      </c>
-      <c r="G577" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H577" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I577" s="20" t="s">
+      <c r="E581" s="6">
+        <v>44106</v>
+      </c>
+      <c r="F581" s="6">
+        <v>44106</v>
+      </c>
+      <c r="G581" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="H581" s="19" t="s">
+        <v>648</v>
+      </c>
+      <c r="I581" s="19" t="s">
+        <v>649</v>
+      </c>
+      <c r="J581" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="K581" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="L581" s="19"/>
+      <c r="M581" s="19">
+        <v>0</v>
+      </c>
+      <c r="N581" s="19">
+        <v>0</v>
+      </c>
+      <c r="O581" s="19"/>
+    </row>
+    <row r="582" spans="1:15">
+      <c r="A582" s="19">
+        <v>581</v>
+      </c>
+      <c r="B582" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C582" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D582" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E582" s="6">
+        <v>44106</v>
+      </c>
+      <c r="F582" s="6">
+        <v>44106</v>
+      </c>
+      <c r="G582" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H582" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I582" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J577" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="K577" s="23" t="s">
+      <c r="J582" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="K582" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L577" s="23"/>
-      <c r="M577" s="23">
-        <v>0</v>
-      </c>
-      <c r="N577" s="23">
-        <v>0</v>
-      </c>
-      <c r="O577" s="23"/>
-    </row>
-    <row r="578" spans="1:15">
-      <c r="A578" s="23">
-        <v>577</v>
-      </c>
-      <c r="B578" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C578" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D578" s="23" t="s">
+      <c r="L582" s="19"/>
+      <c r="M582" s="19">
+        <v>0</v>
+      </c>
+      <c r="N582" s="19">
+        <v>0</v>
+      </c>
+      <c r="O582" s="19"/>
+    </row>
+    <row r="583" spans="1:15">
+      <c r="A583" s="19">
+        <v>582</v>
+      </c>
+      <c r="B583" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C583" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D583" s="19"/>
+      <c r="E583" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F583" s="6">
+        <v>44106</v>
+      </c>
+      <c r="G583" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H583" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I583" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J583" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="K583" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="L583" s="19"/>
+      <c r="M583" s="19">
+        <v>0</v>
+      </c>
+      <c r="N583" s="19">
+        <v>0</v>
+      </c>
+      <c r="O583" s="19"/>
+    </row>
+    <row r="584" spans="1:15">
+      <c r="A584" s="19">
+        <v>583</v>
+      </c>
+      <c r="B584" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C584" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" s="19"/>
+      <c r="E584" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F584" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G584" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H584" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I584" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J584" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="K584" s="19"/>
+      <c r="L584" s="19"/>
+      <c r="M584" s="19">
+        <v>0</v>
+      </c>
+      <c r="N584" s="19">
+        <v>0</v>
+      </c>
+      <c r="O584" s="19"/>
+    </row>
+    <row r="585" spans="1:15">
+      <c r="A585" s="19">
+        <v>584</v>
+      </c>
+      <c r="B585" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C585" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D585" s="19"/>
+      <c r="E585" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F585" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G585" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="H585" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I585" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J585" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="K585" s="19"/>
+      <c r="L585" s="19"/>
+      <c r="M585" s="19">
+        <v>0</v>
+      </c>
+      <c r="N585" s="19">
+        <v>0</v>
+      </c>
+      <c r="O585" s="19"/>
+    </row>
+    <row r="586" spans="1:15">
+      <c r="A586" s="19">
+        <v>585</v>
+      </c>
+      <c r="B586" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C586" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E578" s="21">
-        <v>44105</v>
-      </c>
-      <c r="F578" s="21">
-        <v>44105</v>
-      </c>
-      <c r="G578" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H578" s="23" t="s">
+      <c r="E586" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F586" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G586" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="H586" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I586" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J586" s="20" t="s">
+        <v>674</v>
+      </c>
+      <c r="K586" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L586" s="19"/>
+      <c r="M586" s="19">
+        <v>0</v>
+      </c>
+      <c r="N586" s="19">
+        <v>0</v>
+      </c>
+      <c r="O586" s="19"/>
+    </row>
+    <row r="587" spans="1:15">
+      <c r="A587" s="19">
+        <v>586</v>
+      </c>
+      <c r="B587" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C587" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D587" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E587" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F587" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G587" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="H587" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I578" s="23" t="s">
+      <c r="I587" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="J587" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="K587" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L587" s="19"/>
+      <c r="M587" s="19">
+        <v>0</v>
+      </c>
+      <c r="N587" s="19">
+        <v>0</v>
+      </c>
+      <c r="O587" s="19"/>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588" s="19">
+        <v>587</v>
+      </c>
+      <c r="B588" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C588" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D588" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E588" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F588" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G588" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="H588" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I588" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J578" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K578" s="23" t="s">
+      <c r="J588" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="K588" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L578" s="23"/>
-      <c r="M578" s="23">
-        <v>0</v>
-      </c>
-      <c r="N578" s="23">
-        <v>0</v>
-      </c>
-      <c r="O578" s="23"/>
-    </row>
-    <row r="579" spans="1:15">
-      <c r="A579" s="23">
-        <v>578</v>
-      </c>
-      <c r="B579" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C579" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D579" s="23" t="s">
+      <c r="L588" s="19"/>
+      <c r="M588" s="19">
+        <v>0</v>
+      </c>
+      <c r="N588" s="19">
+        <v>0</v>
+      </c>
+      <c r="O588" s="19"/>
+    </row>
+    <row r="589" spans="1:15">
+      <c r="A589" s="19">
+        <v>588</v>
+      </c>
+      <c r="B589" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C589" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E579" s="21">
-        <v>44105</v>
-      </c>
-      <c r="F579" s="21">
-        <v>44105</v>
-      </c>
-      <c r="G579" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H579" s="23" t="s">
+      <c r="E589" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F589" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G589" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="H589" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I579" s="23" t="s">
+      <c r="I589" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="J579" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K579" s="23" t="s">
+      <c r="J589" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="K589" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L579" s="23"/>
-      <c r="M579" s="23">
-        <v>0</v>
-      </c>
-      <c r="N579" s="23">
-        <v>0</v>
-      </c>
-      <c r="O579" s="23"/>
-    </row>
-    <row r="580" spans="1:15">
-      <c r="A580" s="23">
-        <v>579</v>
-      </c>
-      <c r="B580" s="20">
-        <v>430005</v>
-      </c>
-      <c r="C580" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D580" s="23" t="s">
+      <c r="L589" s="19"/>
+      <c r="M589" s="19">
+        <v>0</v>
+      </c>
+      <c r="N589" s="19">
+        <v>0</v>
+      </c>
+      <c r="O589" s="19"/>
+    </row>
+    <row r="590" spans="1:15">
+      <c r="A590" s="19">
+        <v>589</v>
+      </c>
+      <c r="B590" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C590" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E580" s="21">
-        <v>44105</v>
-      </c>
-      <c r="F580" s="21">
-        <v>44105</v>
-      </c>
-      <c r="G580" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="H580" s="23" t="s">
-        <v>647</v>
-      </c>
-      <c r="I580" s="23" t="s">
+      <c r="E590" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F590" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G590" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="H590" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I590" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J580" s="24" t="s">
-        <v>651</v>
-      </c>
-      <c r="K580" s="23" t="s">
+      <c r="J590" s="20" t="s">
+        <v>673</v>
+      </c>
+      <c r="K590" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L580" s="23"/>
-      <c r="M580" s="23">
-        <v>0</v>
-      </c>
-      <c r="N580" s="23">
-        <v>0</v>
-      </c>
-      <c r="O580" s="23"/>
-    </row>
-    <row r="581" spans="1:15">
-      <c r="A581" s="23">
-        <v>580</v>
-      </c>
-      <c r="B581" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C581" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D581" s="23" t="s">
+      <c r="L590" s="19"/>
+      <c r="M590" s="19">
+        <v>0</v>
+      </c>
+      <c r="N590" s="19">
+        <v>0</v>
+      </c>
+      <c r="O590" s="19"/>
+    </row>
+    <row r="591" spans="1:15">
+      <c r="A591" s="19">
+        <v>590</v>
+      </c>
+      <c r="B591" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C591" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="19"/>
+      <c r="E591" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F591" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G591" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="H591" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I591" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J591" s="20" t="s">
+        <v>671</v>
+      </c>
+      <c r="K591" s="19"/>
+      <c r="L591" s="19"/>
+      <c r="M591" s="19">
+        <v>0</v>
+      </c>
+      <c r="N591" s="19">
+        <v>0</v>
+      </c>
+      <c r="O591" s="19"/>
+    </row>
+    <row r="592" spans="1:15">
+      <c r="A592" s="19">
+        <v>591</v>
+      </c>
+      <c r="B592" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C592" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D592" s="19"/>
+      <c r="E592" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F592" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G592" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H592" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I592" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J592" s="20" t="s">
+        <v>672</v>
+      </c>
+      <c r="K592" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="L592" s="19"/>
+      <c r="M592" s="19">
+        <v>0</v>
+      </c>
+      <c r="N592" s="19">
+        <v>0</v>
+      </c>
+      <c r="O592" s="19"/>
+    </row>
+    <row r="593" spans="1:15">
+      <c r="A593" s="19">
+        <v>592</v>
+      </c>
+      <c r="B593" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C593" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D593" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E593" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F593" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G593" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H593" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I593" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J593" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K593" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L593" s="19"/>
+      <c r="M593" s="19">
+        <v>0</v>
+      </c>
+      <c r="N593" s="19">
+        <v>0</v>
+      </c>
+      <c r="O593" s="19"/>
+    </row>
+    <row r="594" spans="1:15">
+      <c r="A594" s="19">
+        <v>593</v>
+      </c>
+      <c r="B594" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C594" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D594" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E594" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F594" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G594" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H594" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I594" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J594" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="K594" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L594" s="19"/>
+      <c r="M594" s="19">
+        <v>0</v>
+      </c>
+      <c r="N594" s="19">
+        <v>0</v>
+      </c>
+      <c r="O594" s="19"/>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="19">
+        <v>594</v>
+      </c>
+      <c r="B595" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C595" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D595" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E595" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F595" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G595" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H595" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I595" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J595" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K595" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L595" s="19"/>
+      <c r="M595" s="19">
+        <v>0</v>
+      </c>
+      <c r="N595" s="19">
+        <v>0</v>
+      </c>
+      <c r="O595" s="19"/>
+    </row>
+    <row r="596" spans="1:15">
+      <c r="A596" s="19">
+        <v>595</v>
+      </c>
+      <c r="B596" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C596" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D596" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E596" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F596" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G596" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H596" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I596" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J596" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K596" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L596" s="19"/>
+      <c r="M596" s="19">
+        <v>0</v>
+      </c>
+      <c r="N596" s="19">
+        <v>0</v>
+      </c>
+      <c r="O596" s="19"/>
+    </row>
+    <row r="597" spans="1:15">
+      <c r="A597" s="19">
+        <v>596</v>
+      </c>
+      <c r="B597" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C597" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D597" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E597" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F597" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G597" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H597" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I597" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J597" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K597" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L597" s="19"/>
+      <c r="M597" s="19">
+        <v>0</v>
+      </c>
+      <c r="N597" s="19">
+        <v>0</v>
+      </c>
+      <c r="O597" s="19"/>
+    </row>
+    <row r="598" spans="1:15">
+      <c r="A598" s="19">
+        <v>597</v>
+      </c>
+      <c r="B598" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C598" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D598" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E598" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F598" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G598" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H598" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I598" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J598" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K598" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L598" s="19"/>
+      <c r="M598" s="19">
+        <v>0</v>
+      </c>
+      <c r="N598" s="19">
+        <v>0</v>
+      </c>
+      <c r="O598" s="19"/>
+    </row>
+    <row r="599" spans="1:15">
+      <c r="A599" s="19">
+        <v>598</v>
+      </c>
+      <c r="B599" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C599" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D599" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E599" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F599" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G599" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H599" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I599" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J599" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K599" s="19"/>
+      <c r="L599" s="19"/>
+      <c r="M599" s="19">
+        <v>0</v>
+      </c>
+      <c r="N599" s="19">
+        <v>0</v>
+      </c>
+      <c r="O599" s="19"/>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="19">
+        <v>599</v>
+      </c>
+      <c r="B600" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C600" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D600" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E600" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F600" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G600" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H600" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I600" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J600" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K600" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L600" s="19"/>
+      <c r="M600" s="19">
+        <v>0</v>
+      </c>
+      <c r="N600" s="19">
+        <v>0</v>
+      </c>
+      <c r="O600" s="19"/>
+    </row>
+    <row r="601" spans="1:15">
+      <c r="A601" s="19">
+        <v>600</v>
+      </c>
+      <c r="B601" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C601" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E601" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F601" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G601" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H601" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I601" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J601" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K601" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L601" s="19"/>
+      <c r="M601" s="19">
+        <v>0</v>
+      </c>
+      <c r="N601" s="19">
+        <v>0</v>
+      </c>
+      <c r="O601" s="19"/>
+    </row>
+    <row r="602" spans="1:15">
+      <c r="A602" s="19">
+        <v>601</v>
+      </c>
+      <c r="B602" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C602" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D602" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E602" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F602" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G602" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H602" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I602" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J602" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K602" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L602" s="19"/>
+      <c r="M602" s="19">
+        <v>0</v>
+      </c>
+      <c r="N602" s="19">
+        <v>0</v>
+      </c>
+      <c r="O602" s="19"/>
+    </row>
+    <row r="603" spans="1:15">
+      <c r="A603" s="19">
+        <v>602</v>
+      </c>
+      <c r="B603" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C603" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D603" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E603" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F603" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G603" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="H603" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="I603" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J603" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K603" s="19"/>
+      <c r="L603" s="19"/>
+      <c r="M603" s="19">
+        <v>0</v>
+      </c>
+      <c r="N603" s="19">
+        <v>0</v>
+      </c>
+      <c r="O603" s="19"/>
+    </row>
+    <row r="604" spans="1:15">
+      <c r="A604" s="19">
+        <v>603</v>
+      </c>
+      <c r="B604" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C604" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E604" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F604" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G604" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="H604" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I604" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J604" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K604" s="19" t="s">
+        <v>681</v>
+      </c>
+      <c r="L604" s="19"/>
+      <c r="M604" s="19">
+        <v>0</v>
+      </c>
+      <c r="N604" s="19">
+        <v>0</v>
+      </c>
+      <c r="O604" s="19"/>
+    </row>
+    <row r="605" spans="1:15">
+      <c r="A605" s="19">
+        <v>604</v>
+      </c>
+      <c r="B605" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C605" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E605" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F605" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G605" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H605" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I605" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J605" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K605" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L605" s="19"/>
+      <c r="M605" s="19">
+        <v>0</v>
+      </c>
+      <c r="N605" s="19">
+        <v>0</v>
+      </c>
+      <c r="O605" s="19"/>
+    </row>
+    <row r="606" spans="1:15">
+      <c r="A606" s="19">
+        <v>605</v>
+      </c>
+      <c r="B606" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C606" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="E606" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F606" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G606" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="H606" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I606" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J606" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K606" s="19"/>
+      <c r="L606" s="19"/>
+      <c r="M606" s="19">
+        <v>0</v>
+      </c>
+      <c r="N606" s="19">
+        <v>0</v>
+      </c>
+      <c r="O606" s="19"/>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" s="19">
+        <v>606</v>
+      </c>
+      <c r="B607" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C607" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="19"/>
+      <c r="E607" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F607" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G607" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="H607" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I607" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J607" s="20" t="s">
+        <v>675</v>
+      </c>
+      <c r="K607" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L607" s="19"/>
+      <c r="M607" s="19">
+        <v>0</v>
+      </c>
+      <c r="N607" s="19">
+        <v>0</v>
+      </c>
+      <c r="O607" s="19"/>
+    </row>
+    <row r="608" spans="1:15">
+      <c r="A608" s="19">
+        <v>607</v>
+      </c>
+      <c r="B608" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C608" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D608" s="19"/>
+      <c r="E608" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F608" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G608" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="H608" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I608" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J608" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K608" s="19"/>
+      <c r="L608" s="19"/>
+      <c r="M608" s="19">
+        <v>0</v>
+      </c>
+      <c r="N608" s="19">
+        <v>0</v>
+      </c>
+      <c r="O608" s="19"/>
+    </row>
+    <row r="609" spans="1:15">
+      <c r="A609" s="19">
+        <v>608</v>
+      </c>
+      <c r="B609" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C609" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E581" s="21">
-        <v>44106</v>
-      </c>
-      <c r="F581" s="21">
-        <v>44106</v>
-      </c>
-      <c r="G581" s="23" t="s">
-        <v>648</v>
-      </c>
-      <c r="H581" s="23" t="s">
-        <v>649</v>
-      </c>
-      <c r="I581" s="23" t="s">
-        <v>650</v>
-      </c>
-      <c r="J581" s="24" t="s">
-        <v>654</v>
-      </c>
-      <c r="K581" s="23" t="s">
-        <v>656</v>
-      </c>
-      <c r="L581" s="23"/>
-      <c r="M581" s="23">
-        <v>0</v>
-      </c>
-      <c r="N581" s="23">
-        <v>0</v>
-      </c>
-      <c r="O581" s="23"/>
-    </row>
-    <row r="582" spans="1:15">
-      <c r="A582" s="23">
-        <v>581</v>
-      </c>
-      <c r="B582" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C582" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D582" s="23" t="s">
+      <c r="E609" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F609" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G609" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="H609" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I609" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J609" s="20" t="s">
+        <v>678</v>
+      </c>
+      <c r="K609" s="19"/>
+      <c r="L609" s="19"/>
+      <c r="M609" s="19">
+        <v>0</v>
+      </c>
+      <c r="N609" s="19">
+        <v>0</v>
+      </c>
+      <c r="O609" s="19"/>
+    </row>
+    <row r="610" spans="1:15">
+      <c r="A610" s="19">
+        <v>609</v>
+      </c>
+      <c r="B610" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C610" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D610" s="19"/>
+      <c r="E610" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F610" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G610" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="H610" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I610" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J610" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="K610" s="19"/>
+      <c r="L610" s="19"/>
+      <c r="M610" s="19">
+        <v>0</v>
+      </c>
+      <c r="N610" s="19">
+        <v>0</v>
+      </c>
+      <c r="O610" s="19"/>
+    </row>
+    <row r="611" spans="1:15">
+      <c r="A611" s="19">
+        <v>610</v>
+      </c>
+      <c r="B611" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C611" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="19"/>
+      <c r="E611" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F611" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G611" s="19" t="s">
+        <v>677</v>
+      </c>
+      <c r="H611" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I611" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J611" s="20" t="s">
+        <v>683</v>
+      </c>
+      <c r="K611" s="19"/>
+      <c r="L611" s="19"/>
+      <c r="M611" s="19">
+        <v>0</v>
+      </c>
+      <c r="N611" s="19">
+        <v>0</v>
+      </c>
+      <c r="O611" s="19"/>
+    </row>
+    <row r="612" spans="1:15">
+      <c r="A612" s="19">
+        <v>611</v>
+      </c>
+      <c r="B612" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C612" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D612" s="19"/>
+      <c r="E612" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F612" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G612" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H612" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I612" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J612" s="20" t="s">
+        <v>679</v>
+      </c>
+      <c r="K612" s="19"/>
+      <c r="L612" s="19"/>
+      <c r="M612" s="19">
+        <v>0</v>
+      </c>
+      <c r="N612" s="19">
+        <v>0</v>
+      </c>
+      <c r="O612" s="19"/>
+    </row>
+    <row r="613" spans="1:15">
+      <c r="A613" s="19">
+        <v>612</v>
+      </c>
+      <c r="B613" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C613" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D613" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E582" s="21">
-        <v>44106</v>
-      </c>
-      <c r="F582" s="21">
-        <v>44106</v>
-      </c>
-      <c r="G582" s="23" t="s">
+      <c r="E613" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F613" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G613" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="H613" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I613" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J613" s="20"/>
+      <c r="K613" s="19"/>
+      <c r="L613" s="19"/>
+      <c r="M613" s="19">
+        <v>0</v>
+      </c>
+      <c r="N613" s="19">
+        <v>0</v>
+      </c>
+      <c r="O613" s="19"/>
+    </row>
+    <row r="614" spans="1:15">
+      <c r="A614" s="19">
+        <v>613</v>
+      </c>
+      <c r="B614" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C614" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H582" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I582" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J582" s="24" t="s">
-        <v>655</v>
-      </c>
-      <c r="K582" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L582" s="23"/>
-      <c r="M582" s="23">
-        <v>0</v>
-      </c>
-      <c r="N582" s="23">
-        <v>0</v>
-      </c>
-      <c r="O582" s="23"/>
-    </row>
-    <row r="583" spans="1:15">
-      <c r="A583" s="23">
-        <v>582</v>
-      </c>
-      <c r="B583" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C583" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D583" s="23"/>
-      <c r="E583" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F583" s="21">
-        <v>44106</v>
-      </c>
-      <c r="G583" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="H583" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I583" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J583" s="24" t="s">
-        <v>653</v>
-      </c>
-      <c r="K583" s="23" t="s">
-        <v>657</v>
-      </c>
-      <c r="L583" s="23"/>
-      <c r="M583" s="23">
-        <v>0</v>
-      </c>
-      <c r="N583" s="23">
-        <v>0</v>
-      </c>
-      <c r="O583" s="23"/>
-    </row>
-    <row r="584" spans="1:15">
-      <c r="A584" s="23">
-        <v>583</v>
-      </c>
-      <c r="B584" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C584" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" s="23"/>
-      <c r="E584" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F584" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G584" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H584" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I584" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J584" s="24" t="s">
-        <v>652</v>
-      </c>
-      <c r="K584" s="23"/>
-      <c r="L584" s="23"/>
-      <c r="M584" s="23">
-        <v>0</v>
-      </c>
-      <c r="N584" s="23">
-        <v>0</v>
-      </c>
-      <c r="O584" s="23"/>
-    </row>
-    <row r="585" spans="1:15">
-      <c r="A585" s="23">
-        <v>584</v>
-      </c>
-      <c r="B585" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C585" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D585" s="23"/>
-      <c r="E585" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F585" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G585" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="H585" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="I585" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J585" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K585" s="23"/>
-      <c r="L585" s="23"/>
-      <c r="M585" s="23">
-        <v>0</v>
-      </c>
-      <c r="N585" s="23">
-        <v>0</v>
-      </c>
-      <c r="O585" s="23"/>
-    </row>
-    <row r="586" spans="1:15">
-      <c r="A586" s="23">
-        <v>585</v>
-      </c>
-      <c r="B586" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C586" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D586" s="23" t="s">
+      <c r="E614" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F614" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G614" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="H614" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I614" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J614" s="20"/>
+      <c r="K614" s="19"/>
+      <c r="L614" s="19"/>
+      <c r="M614" s="19">
+        <v>0</v>
+      </c>
+      <c r="N614" s="19">
+        <v>0</v>
+      </c>
+      <c r="O614" s="19"/>
+    </row>
+    <row r="615" spans="1:15">
+      <c r="A615" s="19">
+        <v>614</v>
+      </c>
+      <c r="B615" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C615" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D615" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E586" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F586" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G586" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="H586" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I586" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J586" s="24" t="s">
-        <v>675</v>
-      </c>
-      <c r="K586" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L586" s="23"/>
-      <c r="M586" s="23">
-        <v>0</v>
-      </c>
-      <c r="N586" s="23">
-        <v>0</v>
-      </c>
-      <c r="O586" s="23"/>
-    </row>
-    <row r="587" spans="1:15">
-      <c r="A587" s="23">
-        <v>586</v>
-      </c>
-      <c r="B587" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C587" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D587" s="23" t="s">
+      <c r="E615" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F615" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G615" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="H615" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I615" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J615" s="20"/>
+      <c r="K615" s="19"/>
+      <c r="L615" s="19"/>
+      <c r="M615" s="19">
+        <v>0</v>
+      </c>
+      <c r="N615" s="19">
+        <v>0</v>
+      </c>
+      <c r="O615" s="19"/>
+    </row>
+    <row r="616" spans="1:15">
+      <c r="A616" s="19">
+        <v>615</v>
+      </c>
+      <c r="B616" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C616" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D616" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E587" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F587" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G587" s="23" t="s">
-        <v>659</v>
-      </c>
-      <c r="H587" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I587" s="23" t="s">
-        <v>660</v>
-      </c>
-      <c r="J587" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="K587" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L587" s="23"/>
-      <c r="M587" s="23">
-        <v>0</v>
-      </c>
-      <c r="N587" s="23">
-        <v>0</v>
-      </c>
-      <c r="O587" s="23"/>
-    </row>
-    <row r="588" spans="1:15">
-      <c r="A588" s="23">
-        <v>587</v>
-      </c>
-      <c r="B588" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C588" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D588" s="23" t="s">
+      <c r="E616" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F616" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G616" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="H616" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I616" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J616" s="20"/>
+      <c r="K616" s="19"/>
+      <c r="L616" s="19"/>
+      <c r="M616" s="19">
+        <v>0</v>
+      </c>
+      <c r="N616" s="19">
+        <v>0</v>
+      </c>
+      <c r="O616" s="19"/>
+    </row>
+    <row r="617" spans="1:15">
+      <c r="A617" s="19">
+        <v>616</v>
+      </c>
+      <c r="B617" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C617" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E588" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F588" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G588" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="H588" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I588" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J588" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="K588" s="23"/>
-      <c r="L588" s="23"/>
-      <c r="M588" s="23">
-        <v>0</v>
-      </c>
-      <c r="N588" s="23">
-        <v>0</v>
-      </c>
-      <c r="O588" s="23"/>
-    </row>
-    <row r="589" spans="1:15">
-      <c r="A589" s="23">
-        <v>588</v>
-      </c>
-      <c r="B589" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C589" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D589" s="23" t="s">
+      <c r="E617" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F617" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G617" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="H617" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I617" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J617" s="20"/>
+      <c r="K617" s="19"/>
+      <c r="L617" s="19"/>
+      <c r="M617" s="19">
+        <v>0</v>
+      </c>
+      <c r="N617" s="19">
+        <v>0</v>
+      </c>
+      <c r="O617" s="19"/>
+    </row>
+    <row r="618" spans="1:15">
+      <c r="A618" s="19">
+        <v>617</v>
+      </c>
+      <c r="B618" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C618" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E589" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F589" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G589" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="H589" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I589" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J589" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="K589" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L589" s="23"/>
-      <c r="M589" s="23">
-        <v>0</v>
-      </c>
-      <c r="N589" s="23">
-        <v>0</v>
-      </c>
-      <c r="O589" s="23"/>
-    </row>
-    <row r="590" spans="1:15">
-      <c r="A590" s="23">
-        <v>589</v>
-      </c>
-      <c r="B590" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C590" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D590" s="23" t="s">
+      <c r="E618" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F618" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G618" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="H618" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I618" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J618" s="20"/>
+      <c r="K618" s="19"/>
+      <c r="L618" s="19"/>
+      <c r="M618" s="19">
+        <v>0</v>
+      </c>
+      <c r="N618" s="19">
+        <v>0</v>
+      </c>
+      <c r="O618" s="19"/>
+    </row>
+    <row r="619" spans="1:15">
+      <c r="A619" s="19">
+        <v>618</v>
+      </c>
+      <c r="B619" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C619" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D619" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E590" s="21">
-        <v>44107</v>
-      </c>
-      <c r="F590" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G590" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="H590" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I590" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J590" s="24" t="s">
-        <v>674</v>
-      </c>
-      <c r="K590" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L590" s="23"/>
-      <c r="M590" s="23">
-        <v>0</v>
-      </c>
-      <c r="N590" s="23">
-        <v>0</v>
-      </c>
-      <c r="O590" s="23"/>
-    </row>
-    <row r="591" spans="1:15">
-      <c r="A591" s="23">
-        <v>590</v>
-      </c>
-      <c r="B591" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C591" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D591" s="23"/>
-      <c r="E591" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F591" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G591" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="H591" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I591" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J591" s="24" t="s">
-        <v>672</v>
-      </c>
-      <c r="K591" s="23"/>
-      <c r="L591" s="23"/>
-      <c r="M591" s="23">
-        <v>0</v>
-      </c>
-      <c r="N591" s="23">
-        <v>0</v>
-      </c>
-      <c r="O591" s="23"/>
-    </row>
-    <row r="592" spans="1:15">
-      <c r="A592" s="23">
-        <v>591</v>
-      </c>
-      <c r="B592" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C592" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D592" s="23"/>
-      <c r="E592" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F592" s="21">
-        <v>44107</v>
-      </c>
-      <c r="G592" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="H592" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I592" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J592" s="24" t="s">
-        <v>673</v>
-      </c>
-      <c r="K592" s="23"/>
-      <c r="L592" s="23"/>
-      <c r="M592" s="23">
-        <v>0</v>
-      </c>
-      <c r="N592" s="23">
-        <v>0</v>
-      </c>
-      <c r="O592" s="23"/>
-    </row>
-    <row r="593" spans="1:15">
-      <c r="A593" s="23">
-        <v>592</v>
-      </c>
-      <c r="B593" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C593" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D593" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E593" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F593" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G593" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H593" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I593" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J593" s="24"/>
-      <c r="K593" s="23"/>
-      <c r="L593" s="23"/>
-      <c r="M593" s="23">
-        <v>0</v>
-      </c>
-      <c r="N593" s="23">
-        <v>0</v>
-      </c>
-      <c r="O593" s="23"/>
-    </row>
-    <row r="594" spans="1:15">
-      <c r="A594" s="23">
-        <v>593</v>
-      </c>
-      <c r="B594" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C594" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D594" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E594" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F594" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G594" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H594" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I594" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J594" s="24"/>
-      <c r="K594" s="23"/>
-      <c r="L594" s="23"/>
-      <c r="M594" s="23">
-        <v>0</v>
-      </c>
-      <c r="N594" s="23">
-        <v>0</v>
-      </c>
-      <c r="O594" s="23"/>
-    </row>
-    <row r="595" spans="1:15">
-      <c r="A595" s="23">
-        <v>594</v>
-      </c>
-      <c r="B595" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C595" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D595" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E595" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F595" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G595" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H595" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I595" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J595" s="24"/>
-      <c r="K595" s="23"/>
-      <c r="L595" s="23"/>
-      <c r="M595" s="23">
-        <v>0</v>
-      </c>
-      <c r="N595" s="23">
-        <v>0</v>
-      </c>
-      <c r="O595" s="23"/>
-    </row>
-    <row r="596" spans="1:15">
-      <c r="A596" s="23">
-        <v>595</v>
-      </c>
-      <c r="B596" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C596" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D596" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E596" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F596" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G596" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="H596" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I596" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J596" s="24"/>
-      <c r="K596" s="23"/>
-      <c r="L596" s="23"/>
-      <c r="M596" s="23">
-        <v>0</v>
-      </c>
-      <c r="N596" s="23">
-        <v>0</v>
-      </c>
-      <c r="O596" s="23"/>
-    </row>
-    <row r="597" spans="1:15">
-      <c r="A597" s="23">
-        <v>596</v>
-      </c>
-      <c r="B597" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C597" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D597" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E597" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F597" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G597" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H597" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I597" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J597" s="24"/>
-      <c r="K597" s="23"/>
-      <c r="L597" s="23"/>
-      <c r="M597" s="23">
-        <v>0</v>
-      </c>
-      <c r="N597" s="23">
-        <v>0</v>
-      </c>
-      <c r="O597" s="23"/>
-    </row>
-    <row r="598" spans="1:15">
-      <c r="A598" s="23">
-        <v>597</v>
-      </c>
-      <c r="B598" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C598" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D598" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E598" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F598" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G598" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="H598" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I598" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J598" s="24"/>
-      <c r="K598" s="23"/>
-      <c r="L598" s="23"/>
-      <c r="M598" s="23">
-        <v>0</v>
-      </c>
-      <c r="N598" s="23">
-        <v>0</v>
-      </c>
-      <c r="O598" s="23"/>
-    </row>
-    <row r="599" spans="1:15">
-      <c r="A599" s="23">
-        <v>598</v>
-      </c>
-      <c r="B599" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C599" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D599" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E599" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F599" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G599" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="H599" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="I599" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J599" s="24"/>
-      <c r="K599" s="23"/>
-      <c r="L599" s="23"/>
-      <c r="M599" s="23">
-        <v>0</v>
-      </c>
-      <c r="N599" s="23">
-        <v>0</v>
-      </c>
-      <c r="O599" s="23"/>
-    </row>
-    <row r="600" spans="1:15">
-      <c r="A600" s="23">
-        <v>599</v>
-      </c>
-      <c r="B600" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C600" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D600" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E600" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F600" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G600" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H600" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="I600" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J600" s="24"/>
-      <c r="K600" s="23"/>
-      <c r="L600" s="23"/>
-      <c r="M600" s="23">
-        <v>0</v>
-      </c>
-      <c r="N600" s="23">
-        <v>0</v>
-      </c>
-      <c r="O600" s="23"/>
-    </row>
-    <row r="601" spans="1:15">
-      <c r="A601" s="23">
-        <v>600</v>
-      </c>
-      <c r="B601" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C601" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D601" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E601" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F601" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G601" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H601" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I601" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J601" s="24"/>
-      <c r="K601" s="23"/>
-      <c r="L601" s="23"/>
-      <c r="M601" s="23">
-        <v>0</v>
-      </c>
-      <c r="N601" s="23">
-        <v>0</v>
-      </c>
-      <c r="O601" s="23"/>
-    </row>
-    <row r="602" spans="1:15">
-      <c r="A602" s="23">
-        <v>601</v>
-      </c>
-      <c r="B602" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C602" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D602" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E602" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F602" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G602" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H602" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="I602" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J602" s="24"/>
-      <c r="K602" s="23"/>
-      <c r="L602" s="23"/>
-      <c r="M602" s="23">
-        <v>0</v>
-      </c>
-      <c r="N602" s="23">
-        <v>0</v>
-      </c>
-      <c r="O602" s="23"/>
-    </row>
-    <row r="603" spans="1:15">
-      <c r="A603" s="23">
-        <v>602</v>
-      </c>
-      <c r="B603" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C603" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D603" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E603" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F603" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G603" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="H603" s="23" t="s">
-        <v>671</v>
-      </c>
-      <c r="I603" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J603" s="24"/>
-      <c r="K603" s="23"/>
-      <c r="L603" s="23"/>
-      <c r="M603" s="23">
-        <v>0</v>
-      </c>
-      <c r="N603" s="23">
-        <v>0</v>
-      </c>
-      <c r="O603" s="23"/>
-    </row>
-    <row r="604" spans="1:15">
-      <c r="A604" s="23">
-        <v>603</v>
-      </c>
-      <c r="B604" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C604" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D604" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E604" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F604" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G604" s="23" t="s">
-        <v>667</v>
-      </c>
-      <c r="H604" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I604" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J604" s="24"/>
-      <c r="K604" s="23"/>
-      <c r="L604" s="23"/>
-      <c r="M604" s="23">
-        <v>0</v>
-      </c>
-      <c r="N604" s="23">
-        <v>0</v>
-      </c>
-      <c r="O604" s="23"/>
-    </row>
-    <row r="605" spans="1:15">
-      <c r="A605" s="23">
-        <v>604</v>
-      </c>
-      <c r="B605" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C605" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D605" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E605" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F605" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G605" s="23" t="s">
-        <v>665</v>
-      </c>
-      <c r="H605" s="23" t="s">
-        <v>670</v>
-      </c>
-      <c r="I605" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J605" s="24"/>
-      <c r="K605" s="23"/>
-      <c r="L605" s="23"/>
-      <c r="M605" s="23">
-        <v>0</v>
-      </c>
-      <c r="N605" s="23">
-        <v>0</v>
-      </c>
-      <c r="O605" s="23"/>
-    </row>
-    <row r="606" spans="1:15">
-      <c r="A606" s="23">
-        <v>605</v>
-      </c>
-      <c r="B606" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C606" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D606" s="23" t="s">
-        <v>664</v>
-      </c>
-      <c r="E606" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F606" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G606" s="23" t="s">
-        <v>668</v>
-      </c>
-      <c r="H606" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I606" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J606" s="24"/>
-      <c r="K606" s="23"/>
-      <c r="L606" s="23"/>
-      <c r="M606" s="23">
-        <v>0</v>
-      </c>
-      <c r="N606" s="23">
-        <v>0</v>
-      </c>
-      <c r="O606" s="23"/>
-    </row>
-    <row r="607" spans="1:15">
-      <c r="A607" s="23">
-        <v>606</v>
-      </c>
-      <c r="B607" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C607" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D607" s="23"/>
-      <c r="E607" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F607" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G607" s="23" t="s">
-        <v>662</v>
-      </c>
-      <c r="H607" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I607" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J607" s="24"/>
-      <c r="K607" s="23"/>
-      <c r="L607" s="23"/>
-      <c r="M607" s="23">
-        <v>0</v>
-      </c>
-      <c r="N607" s="23">
-        <v>0</v>
-      </c>
-      <c r="O607" s="23"/>
-    </row>
-    <row r="608" spans="1:15">
-      <c r="A608" s="23">
-        <v>607</v>
-      </c>
-      <c r="B608" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C608" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D608" s="23"/>
-      <c r="E608" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F608" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G608" s="23" t="s">
-        <v>663</v>
-      </c>
-      <c r="H608" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="I608" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="J608" s="24"/>
-      <c r="K608" s="23"/>
-      <c r="L608" s="23"/>
-      <c r="M608" s="23">
-        <v>0</v>
-      </c>
-      <c r="N608" s="23">
-        <v>0</v>
-      </c>
-      <c r="O608" s="23"/>
-    </row>
-    <row r="609" spans="1:15">
-      <c r="A609" s="23">
-        <v>608</v>
-      </c>
-      <c r="B609" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C609" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D609" s="23" t="s">
+      <c r="E619" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F619" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G619" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="H619" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I619" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J619" s="20"/>
+      <c r="K619" s="19"/>
+      <c r="L619" s="19"/>
+      <c r="M619" s="19">
+        <v>0</v>
+      </c>
+      <c r="N619" s="19">
+        <v>0</v>
+      </c>
+      <c r="O619" s="19"/>
+    </row>
+    <row r="620" spans="1:15">
+      <c r="A620" s="19">
+        <v>619</v>
+      </c>
+      <c r="B620" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C620" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D620" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E609" s="21">
-        <v>44108</v>
-      </c>
-      <c r="F609" s="21">
-        <v>44108</v>
-      </c>
-      <c r="G609" s="23" t="s">
-        <v>669</v>
-      </c>
-      <c r="H609" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="I609" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="J609" s="24"/>
-      <c r="K609" s="23"/>
-      <c r="L609" s="23"/>
-      <c r="M609" s="23">
-        <v>0</v>
-      </c>
-      <c r="N609" s="23">
-        <v>0</v>
-      </c>
-      <c r="O609" s="23"/>
+      <c r="E620" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F620" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G620" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="H620" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="I620" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J620" s="20"/>
+      <c r="K620" s="19"/>
+      <c r="L620" s="19"/>
+      <c r="M620" s="19">
+        <v>0</v>
+      </c>
+      <c r="N620" s="19">
+        <v>0</v>
+      </c>
+      <c r="O620" s="19"/>
+    </row>
+    <row r="621" spans="1:15">
+      <c r="A621" s="19">
+        <v>620</v>
+      </c>
+      <c r="B621" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C621" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D621" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F621" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G621" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="H621" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I621" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J621" s="20"/>
+      <c r="K621" s="19"/>
+      <c r="L621" s="19"/>
+      <c r="M621" s="19">
+        <v>0</v>
+      </c>
+      <c r="N621" s="19">
+        <v>0</v>
+      </c>
+      <c r="O621" s="19"/>
+    </row>
+    <row r="622" spans="1:15">
+      <c r="A622" s="19">
+        <v>621</v>
+      </c>
+      <c r="B622" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C622" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D622" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E622" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F622" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G622" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="H622" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I622" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J622" s="20"/>
+      <c r="K622" s="19"/>
+      <c r="L622" s="19"/>
+      <c r="M622" s="19">
+        <v>0</v>
+      </c>
+      <c r="N622" s="19">
+        <v>0</v>
+      </c>
+      <c r="O622" s="19"/>
+    </row>
+    <row r="623" spans="1:15">
+      <c r="A623" s="19">
+        <v>622</v>
+      </c>
+      <c r="B623" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C623" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D623" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E623" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F623" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G623" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="H623" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="I623" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J623" s="20"/>
+      <c r="K623" s="19"/>
+      <c r="L623" s="19"/>
+      <c r="M623" s="19">
+        <v>0</v>
+      </c>
+      <c r="N623" s="19">
+        <v>0</v>
+      </c>
+      <c r="O623" s="19"/>
+    </row>
+    <row r="624" spans="1:15">
+      <c r="A624" s="19">
+        <v>623</v>
+      </c>
+      <c r="B624" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C624" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E624" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F624" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G624" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H624" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I624" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J624" s="20"/>
+      <c r="K624" s="19"/>
+      <c r="L624" s="19"/>
+      <c r="M624" s="19">
+        <v>0</v>
+      </c>
+      <c r="N624" s="19">
+        <v>0</v>
+      </c>
+      <c r="O624" s="19"/>
+    </row>
+    <row r="625" spans="1:15">
+      <c r="A625" s="19">
+        <v>624</v>
+      </c>
+      <c r="B625" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C625" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F625" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G625" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="H625" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I625" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="J625" s="20"/>
+      <c r="K625" s="19"/>
+      <c r="L625" s="19"/>
+      <c r="M625" s="19">
+        <v>0</v>
+      </c>
+      <c r="N625" s="19">
+        <v>0</v>
+      </c>
+      <c r="O625" s="19"/>
+    </row>
+    <row r="626" spans="1:15">
+      <c r="A626" s="19">
+        <v>625</v>
+      </c>
+      <c r="B626" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C626" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E626" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F626" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G626" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="H626" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="I626" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="J626" s="20"/>
+      <c r="K626" s="19"/>
+      <c r="L626" s="19"/>
+      <c r="M626" s="19">
+        <v>0</v>
+      </c>
+      <c r="N626" s="19">
+        <v>0</v>
+      </c>
+      <c r="O626" s="19"/>
+    </row>
+    <row r="627" spans="1:15">
+      <c r="A627" s="19">
+        <v>626</v>
+      </c>
+      <c r="B627" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C627" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F627" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G627" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="H627" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="I627" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J627" s="20"/>
+      <c r="K627" s="19"/>
+      <c r="L627" s="19"/>
+      <c r="M627" s="19">
+        <v>0</v>
+      </c>
+      <c r="N627" s="19">
+        <v>0</v>
+      </c>
+      <c r="O627" s="19"/>
+    </row>
+    <row r="628" spans="1:15">
+      <c r="A628" s="19">
+        <v>627</v>
+      </c>
+      <c r="B628" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C628" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D628" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E628" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F628" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G628" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="H628" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I628" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="J628" s="20"/>
+      <c r="K628" s="19"/>
+      <c r="L628" s="19"/>
+      <c r="M628" s="19">
+        <v>0</v>
+      </c>
+      <c r="N628" s="19">
+        <v>0</v>
+      </c>
+      <c r="O628" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O609"/>
+  <autoFilter ref="A1:O624"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$654</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$675</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="771">
   <si>
     <t>No</t>
   </si>
@@ -5650,6 +5650,243 @@
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="3">
+      <t>ミフネマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5661,7 +5898,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5720,6 +5957,13 @@
       <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -5821,7 +6065,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5875,6 +6119,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6164,13 +6412,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O654"/>
+  <dimension ref="A1:O675"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B636" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B655" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B655" sqref="B655"/>
+      <selection pane="bottomRight" activeCell="A675" sqref="A675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -29461,2964 +29709,3787 @@
       <c r="O583" s="19"/>
     </row>
     <row r="584" spans="1:15">
-      <c r="A584" s="19">
+      <c r="A584" s="26">
         <v>583</v>
       </c>
-      <c r="B584" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C584" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" s="19"/>
-      <c r="E584" s="20">
+      <c r="B584" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C584" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" s="26"/>
+      <c r="E584" s="6">
         <v>44107</v>
       </c>
-      <c r="F584" s="20">
+      <c r="F584" s="6">
         <v>44107</v>
       </c>
-      <c r="G584" s="19" t="s">
+      <c r="G584" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="H584" s="19" t="s">
+      <c r="H584" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="I584" s="19" t="s">
+      <c r="I584" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J584" s="21" t="s">
+      <c r="J584" s="27" t="s">
         <v>650</v>
       </c>
-      <c r="K584" s="19" t="s">
+      <c r="K584" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L584" s="26"/>
+      <c r="M584" s="26">
+        <v>0</v>
+      </c>
+      <c r="N584" s="26">
+        <v>0</v>
+      </c>
+      <c r="O584" s="26"/>
+    </row>
+    <row r="585" spans="1:15">
+      <c r="A585" s="26">
+        <v>584</v>
+      </c>
+      <c r="B585" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C585" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D585" s="26"/>
+      <c r="E585" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F585" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G585" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="H585" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I585" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J585" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K585" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L585" s="26"/>
+      <c r="M585" s="26">
+        <v>0</v>
+      </c>
+      <c r="N585" s="26">
+        <v>0</v>
+      </c>
+      <c r="O585" s="26"/>
+    </row>
+    <row r="586" spans="1:15">
+      <c r="A586" s="26">
+        <v>585</v>
+      </c>
+      <c r="B586" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C586" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E586" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F586" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G586" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H586" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I586" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J586" s="27" t="s">
+        <v>673</v>
+      </c>
+      <c r="K586" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L586" s="26"/>
+      <c r="M586" s="26">
+        <v>0</v>
+      </c>
+      <c r="N586" s="26">
+        <v>0</v>
+      </c>
+      <c r="O586" s="26"/>
+    </row>
+    <row r="587" spans="1:15">
+      <c r="A587" s="26">
+        <v>586</v>
+      </c>
+      <c r="B587" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C587" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D587" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E587" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F587" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G587" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="H587" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I587" s="26" t="s">
+        <v>658</v>
+      </c>
+      <c r="J587" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="K587" s="26"/>
+      <c r="L587" s="26"/>
+      <c r="M587" s="26">
+        <v>0</v>
+      </c>
+      <c r="N587" s="26">
+        <v>1</v>
+      </c>
+      <c r="O587" s="26"/>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588" s="26">
+        <v>587</v>
+      </c>
+      <c r="B588" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C588" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D588" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E588" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F588" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G588" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H588" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I588" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J588" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="K588" s="26"/>
+      <c r="L588" s="26"/>
+      <c r="M588" s="26">
+        <v>0</v>
+      </c>
+      <c r="N588" s="26">
+        <v>0</v>
+      </c>
+      <c r="O588" s="26"/>
+    </row>
+    <row r="589" spans="1:15">
+      <c r="A589" s="26">
+        <v>588</v>
+      </c>
+      <c r="B589" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C589" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E589" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F589" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G589" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H589" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I589" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J589" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="K589" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L589" s="26"/>
+      <c r="M589" s="26">
+        <v>0</v>
+      </c>
+      <c r="N589" s="26">
+        <v>0</v>
+      </c>
+      <c r="O589" s="26"/>
+    </row>
+    <row r="590" spans="1:15">
+      <c r="A590" s="26">
+        <v>589</v>
+      </c>
+      <c r="B590" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C590" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E590" s="6">
+        <v>44107</v>
+      </c>
+      <c r="F590" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G590" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="H590" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I590" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J590" s="27" t="s">
+        <v>672</v>
+      </c>
+      <c r="K590" s="26"/>
+      <c r="L590" s="26"/>
+      <c r="M590" s="26">
+        <v>0</v>
+      </c>
+      <c r="N590" s="26">
+        <v>0</v>
+      </c>
+      <c r="O590" s="26"/>
+    </row>
+    <row r="591" spans="1:15">
+      <c r="A591" s="26">
+        <v>590</v>
+      </c>
+      <c r="B591" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C591" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="26"/>
+      <c r="E591" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F591" s="6">
+        <v>44107</v>
+      </c>
+      <c r="G591" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="H591" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I591" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J591" s="27" t="s">
+        <v>670</v>
+      </c>
+      <c r="K591" s="26" t="s">
         <v>715</v>
       </c>
-      <c r="L584" s="19"/>
-      <c r="M584" s="19">
-        <v>0</v>
-      </c>
-      <c r="N584" s="19">
-        <v>0</v>
-      </c>
-      <c r="O584" s="19"/>
-    </row>
-    <row r="585" spans="1:15">
-      <c r="A585" s="19">
-        <v>584</v>
-      </c>
-      <c r="B585" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C585" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D585" s="19"/>
-      <c r="E585" s="20">
+      <c r="L591" s="26"/>
+      <c r="M591" s="26">
+        <v>0</v>
+      </c>
+      <c r="N591" s="26">
+        <v>0</v>
+      </c>
+      <c r="O591" s="26"/>
+    </row>
+    <row r="592" spans="1:15">
+      <c r="A592" s="26">
+        <v>591</v>
+      </c>
+      <c r="B592" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C592" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D592" s="26"/>
+      <c r="E592" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F592" s="6">
         <v>44107</v>
       </c>
-      <c r="F585" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G585" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="H585" s="19" t="s">
+      <c r="G592" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H592" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I592" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J592" s="27" t="s">
+        <v>671</v>
+      </c>
+      <c r="K592" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L592" s="26"/>
+      <c r="M592" s="26">
+        <v>0</v>
+      </c>
+      <c r="N592" s="26">
+        <v>0</v>
+      </c>
+      <c r="O592" s="26"/>
+    </row>
+    <row r="593" spans="1:15">
+      <c r="A593" s="26">
+        <v>592</v>
+      </c>
+      <c r="B593" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C593" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D593" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E593" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F593" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G593" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H593" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I593" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J593" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K593" s="26"/>
+      <c r="L593" s="26"/>
+      <c r="M593" s="26">
+        <v>0</v>
+      </c>
+      <c r="N593" s="26">
+        <v>0</v>
+      </c>
+      <c r="O593" s="26"/>
+    </row>
+    <row r="594" spans="1:15">
+      <c r="A594" s="26">
+        <v>593</v>
+      </c>
+      <c r="B594" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C594" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D594" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E594" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F594" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G594" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H594" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I594" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J594" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="K594" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="L594" s="26"/>
+      <c r="M594" s="26">
+        <v>0</v>
+      </c>
+      <c r="N594" s="26">
+        <v>0</v>
+      </c>
+      <c r="O594" s="26"/>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="26">
+        <v>594</v>
+      </c>
+      <c r="B595" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C595" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D595" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E595" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F595" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G595" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H595" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I595" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J595" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K595" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="L595" s="26"/>
+      <c r="M595" s="26">
+        <v>0</v>
+      </c>
+      <c r="N595" s="26">
+        <v>0</v>
+      </c>
+      <c r="O595" s="26"/>
+    </row>
+    <row r="596" spans="1:15">
+      <c r="A596" s="26">
+        <v>595</v>
+      </c>
+      <c r="B596" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C596" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D596" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E596" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F596" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G596" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="H596" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I596" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J596" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K596" s="26" t="s">
+        <v>679</v>
+      </c>
+      <c r="L596" s="26"/>
+      <c r="M596" s="26">
+        <v>0</v>
+      </c>
+      <c r="N596" s="26">
+        <v>0</v>
+      </c>
+      <c r="O596" s="26"/>
+    </row>
+    <row r="597" spans="1:15">
+      <c r="A597" s="26">
+        <v>596</v>
+      </c>
+      <c r="B597" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C597" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D597" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E597" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F597" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G597" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H597" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I597" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J597" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K597" s="26"/>
+      <c r="L597" s="26"/>
+      <c r="M597" s="26">
+        <v>0</v>
+      </c>
+      <c r="N597" s="26">
+        <v>1</v>
+      </c>
+      <c r="O597" s="26"/>
+    </row>
+    <row r="598" spans="1:15">
+      <c r="A598" s="26">
+        <v>597</v>
+      </c>
+      <c r="B598" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C598" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D598" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E598" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F598" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G598" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="H598" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I598" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J598" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K598" s="26"/>
+      <c r="L598" s="26"/>
+      <c r="M598" s="26">
+        <v>0</v>
+      </c>
+      <c r="N598" s="26">
+        <v>0</v>
+      </c>
+      <c r="O598" s="26"/>
+    </row>
+    <row r="599" spans="1:15">
+      <c r="A599" s="26">
+        <v>598</v>
+      </c>
+      <c r="B599" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C599" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D599" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E599" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F599" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G599" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="H599" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="I599" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J599" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K599" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L599" s="26"/>
+      <c r="M599" s="26">
+        <v>0</v>
+      </c>
+      <c r="N599" s="26">
+        <v>0</v>
+      </c>
+      <c r="O599" s="26"/>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="26">
+        <v>599</v>
+      </c>
+      <c r="B600" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C600" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D600" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E600" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F600" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G600" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H600" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="I600" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J600" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K600" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L600" s="26"/>
+      <c r="M600" s="26">
+        <v>0</v>
+      </c>
+      <c r="N600" s="26">
+        <v>0</v>
+      </c>
+      <c r="O600" s="26"/>
+    </row>
+    <row r="601" spans="1:15">
+      <c r="A601" s="26">
+        <v>600</v>
+      </c>
+      <c r="B601" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C601" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E601" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F601" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G601" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H601" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I601" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J601" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K601" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L601" s="26"/>
+      <c r="M601" s="26">
+        <v>0</v>
+      </c>
+      <c r="N601" s="26">
+        <v>0</v>
+      </c>
+      <c r="O601" s="26"/>
+    </row>
+    <row r="602" spans="1:15">
+      <c r="A602" s="26">
+        <v>601</v>
+      </c>
+      <c r="B602" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C602" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D602" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E602" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F602" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G602" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H602" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="I602" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J602" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K602" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L602" s="26"/>
+      <c r="M602" s="26">
+        <v>0</v>
+      </c>
+      <c r="N602" s="26">
+        <v>0</v>
+      </c>
+      <c r="O602" s="26"/>
+    </row>
+    <row r="603" spans="1:15">
+      <c r="A603" s="26">
+        <v>602</v>
+      </c>
+      <c r="B603" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C603" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D603" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E603" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F603" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G603" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="H603" s="26" t="s">
+        <v>669</v>
+      </c>
+      <c r="I603" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J603" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K603" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L603" s="26"/>
+      <c r="M603" s="26">
+        <v>0</v>
+      </c>
+      <c r="N603" s="26">
+        <v>0</v>
+      </c>
+      <c r="O603" s="26"/>
+    </row>
+    <row r="604" spans="1:15">
+      <c r="A604" s="26">
+        <v>603</v>
+      </c>
+      <c r="B604" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C604" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E604" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F604" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G604" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="H604" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I604" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J604" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K604" s="26"/>
+      <c r="L604" s="26"/>
+      <c r="M604" s="26">
+        <v>0</v>
+      </c>
+      <c r="N604" s="26">
+        <v>1</v>
+      </c>
+      <c r="O604" s="26"/>
+    </row>
+    <row r="605" spans="1:15">
+      <c r="A605" s="26">
+        <v>604</v>
+      </c>
+      <c r="B605" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C605" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E605" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F605" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G605" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="H605" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="I605" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J605" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K605" s="26"/>
+      <c r="L605" s="26"/>
+      <c r="M605" s="26">
+        <v>0</v>
+      </c>
+      <c r="N605" s="26">
+        <v>1</v>
+      </c>
+      <c r="O605" s="26"/>
+    </row>
+    <row r="606" spans="1:15">
+      <c r="A606" s="26">
+        <v>605</v>
+      </c>
+      <c r="B606" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C606" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="E606" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F606" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G606" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="H606" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I606" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J606" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K606" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L606" s="26"/>
+      <c r="M606" s="26">
+        <v>0</v>
+      </c>
+      <c r="N606" s="26">
+        <v>0</v>
+      </c>
+      <c r="O606" s="26"/>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" s="26">
+        <v>606</v>
+      </c>
+      <c r="B607" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C607" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="26"/>
+      <c r="E607" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F607" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G607" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="H607" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="I607" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J607" s="27" t="s">
+        <v>674</v>
+      </c>
+      <c r="K607" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L607" s="26"/>
+      <c r="M607" s="26">
+        <v>0</v>
+      </c>
+      <c r="N607" s="26">
+        <v>0</v>
+      </c>
+      <c r="O607" s="26"/>
+    </row>
+    <row r="608" spans="1:15">
+      <c r="A608" s="26">
+        <v>607</v>
+      </c>
+      <c r="B608" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C608" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D608" s="26"/>
+      <c r="E608" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F608" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G608" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="H608" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I608" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J608" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K608" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L608" s="26"/>
+      <c r="M608" s="26">
+        <v>0</v>
+      </c>
+      <c r="N608" s="26">
+        <v>0</v>
+      </c>
+      <c r="O608" s="26"/>
+    </row>
+    <row r="609" spans="1:15">
+      <c r="A609" s="26">
+        <v>608</v>
+      </c>
+      <c r="B609" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C609" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E609" s="6">
+        <v>44108</v>
+      </c>
+      <c r="F609" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G609" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="H609" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I609" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J609" s="27" t="s">
+        <v>677</v>
+      </c>
+      <c r="K609" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L609" s="26"/>
+      <c r="M609" s="26">
+        <v>0</v>
+      </c>
+      <c r="N609" s="26">
+        <v>0</v>
+      </c>
+      <c r="O609" s="26"/>
+    </row>
+    <row r="610" spans="1:15">
+      <c r="A610" s="26">
+        <v>609</v>
+      </c>
+      <c r="B610" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C610" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D610" s="26"/>
+      <c r="E610" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F610" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G610" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="H610" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="I610" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J610" s="27" t="s">
+        <v>680</v>
+      </c>
+      <c r="K610" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L610" s="26"/>
+      <c r="M610" s="26">
+        <v>0</v>
+      </c>
+      <c r="N610" s="26">
+        <v>0</v>
+      </c>
+      <c r="O610" s="26"/>
+    </row>
+    <row r="611" spans="1:15">
+      <c r="A611" s="26">
+        <v>610</v>
+      </c>
+      <c r="B611" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C611" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="26"/>
+      <c r="E611" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F611" s="6">
+        <v>44108</v>
+      </c>
+      <c r="G611" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="H611" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="I611" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J611" s="27" t="s">
+        <v>681</v>
+      </c>
+      <c r="K611" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L611" s="26"/>
+      <c r="M611" s="26">
+        <v>0</v>
+      </c>
+      <c r="N611" s="26">
+        <v>0</v>
+      </c>
+      <c r="O611" s="26"/>
+    </row>
+    <row r="612" spans="1:15">
+      <c r="A612" s="26">
+        <v>611</v>
+      </c>
+      <c r="B612" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C612" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D612" s="26"/>
+      <c r="E612" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F612" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G612" s="26" t="s">
+        <v>682</v>
+      </c>
+      <c r="H612" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="I585" s="19" t="s">
+      <c r="I612" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="J585" s="21" t="s">
+      <c r="J612" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="K612" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="L612" s="26"/>
+      <c r="M612" s="26">
+        <v>0</v>
+      </c>
+      <c r="N612" s="26">
+        <v>0</v>
+      </c>
+      <c r="O612" s="26"/>
+    </row>
+    <row r="613" spans="1:15">
+      <c r="A613" s="26">
+        <v>612</v>
+      </c>
+      <c r="B613" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C613" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D613" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E613" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F613" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G613" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H613" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I613" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J613" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="K613" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L613" s="26"/>
+      <c r="M613" s="26">
+        <v>0</v>
+      </c>
+      <c r="N613" s="26">
+        <v>0</v>
+      </c>
+      <c r="O613" s="26"/>
+    </row>
+    <row r="614" spans="1:15">
+      <c r="A614" s="26">
+        <v>613</v>
+      </c>
+      <c r="B614" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C614" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E614" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F614" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G614" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H614" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I614" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J614" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="K614" s="26"/>
+      <c r="L614" s="26"/>
+      <c r="M614" s="26">
+        <v>0</v>
+      </c>
+      <c r="N614" s="26">
+        <v>0</v>
+      </c>
+      <c r="O614" s="26"/>
+    </row>
+    <row r="615" spans="1:15">
+      <c r="A615" s="26">
+        <v>614</v>
+      </c>
+      <c r="B615" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C615" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D615" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E615" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F615" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G615" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H615" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I615" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J615" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="K615" s="26"/>
+      <c r="L615" s="26"/>
+      <c r="M615" s="26">
+        <v>0</v>
+      </c>
+      <c r="N615" s="26">
+        <v>0</v>
+      </c>
+      <c r="O615" s="26"/>
+    </row>
+    <row r="616" spans="1:15">
+      <c r="A616" s="26">
+        <v>615</v>
+      </c>
+      <c r="B616" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C616" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D616" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E616" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F616" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G616" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H616" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I616" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J616" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="K585" s="19" t="s">
+      <c r="K616" s="26"/>
+      <c r="L616" s="26"/>
+      <c r="M616" s="26">
+        <v>0</v>
+      </c>
+      <c r="N616" s="26">
+        <v>0</v>
+      </c>
+      <c r="O616" s="26"/>
+    </row>
+    <row r="617" spans="1:15">
+      <c r="A617" s="26">
+        <v>616</v>
+      </c>
+      <c r="B617" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C617" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E617" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F617" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G617" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="H617" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I617" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J617" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K617" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L617" s="26"/>
+      <c r="M617" s="26">
+        <v>0</v>
+      </c>
+      <c r="N617" s="26">
+        <v>0</v>
+      </c>
+      <c r="O617" s="26"/>
+    </row>
+    <row r="618" spans="1:15">
+      <c r="A618" s="26">
+        <v>617</v>
+      </c>
+      <c r="B618" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C618" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E618" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F618" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G618" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H618" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I618" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J618" s="27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K618" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L618" s="26"/>
+      <c r="M618" s="26">
+        <v>0</v>
+      </c>
+      <c r="N618" s="26">
+        <v>0</v>
+      </c>
+      <c r="O618" s="26"/>
+    </row>
+    <row r="619" spans="1:15">
+      <c r="A619" s="26">
+        <v>618</v>
+      </c>
+      <c r="B619" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C619" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D619" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E619" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F619" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G619" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H619" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="I619" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J619" s="27" t="s">
+        <v>712</v>
+      </c>
+      <c r="K619" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L619" s="26"/>
+      <c r="M619" s="26">
+        <v>0</v>
+      </c>
+      <c r="N619" s="26">
+        <v>0</v>
+      </c>
+      <c r="O619" s="26"/>
+    </row>
+    <row r="620" spans="1:15">
+      <c r="A620" s="26">
+        <v>619</v>
+      </c>
+      <c r="B620" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C620" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D620" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E620" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F620" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G620" s="26" t="s">
+        <v>686</v>
+      </c>
+      <c r="H620" s="26" t="s">
+        <v>689</v>
+      </c>
+      <c r="I620" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J620" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="K620" s="26" t="s">
+        <v>605</v>
+      </c>
+      <c r="L620" s="26"/>
+      <c r="M620" s="26">
+        <v>0</v>
+      </c>
+      <c r="N620" s="26">
+        <v>0</v>
+      </c>
+      <c r="O620" s="26"/>
+    </row>
+    <row r="621" spans="1:15">
+      <c r="A621" s="26">
+        <v>620</v>
+      </c>
+      <c r="B621" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C621" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D621" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F621" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G621" s="26" t="s">
+        <v>684</v>
+      </c>
+      <c r="H621" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I621" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="J621" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K621" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L621" s="26"/>
+      <c r="M621" s="26">
+        <v>0</v>
+      </c>
+      <c r="N621" s="26">
+        <v>0</v>
+      </c>
+      <c r="O621" s="26"/>
+    </row>
+    <row r="622" spans="1:15">
+      <c r="A622" s="26">
+        <v>621</v>
+      </c>
+      <c r="B622" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C622" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D622" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E622" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F622" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G622" s="26" t="s">
+        <v>687</v>
+      </c>
+      <c r="H622" s="26" t="s">
+        <v>688</v>
+      </c>
+      <c r="I622" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J622" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="K622" s="26" t="s">
+        <v>715</v>
+      </c>
+      <c r="L622" s="26"/>
+      <c r="M622" s="26">
+        <v>0</v>
+      </c>
+      <c r="N622" s="26">
+        <v>0</v>
+      </c>
+      <c r="O622" s="26"/>
+    </row>
+    <row r="623" spans="1:15">
+      <c r="A623" s="26">
+        <v>622</v>
+      </c>
+      <c r="B623" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C623" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D623" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E623" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F623" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G623" s="26" t="s">
+        <v>683</v>
+      </c>
+      <c r="H623" s="26" t="s">
+        <v>690</v>
+      </c>
+      <c r="I623" s="26" t="s">
+        <v>697</v>
+      </c>
+      <c r="J623" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K623" s="26"/>
+      <c r="L623" s="26"/>
+      <c r="M623" s="26">
+        <v>0</v>
+      </c>
+      <c r="N623" s="26">
+        <v>0</v>
+      </c>
+      <c r="O623" s="26"/>
+    </row>
+    <row r="624" spans="1:15">
+      <c r="A624" s="26">
+        <v>623</v>
+      </c>
+      <c r="B624" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C624" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E624" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F624" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G624" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H624" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I624" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J624" s="27" t="s">
+        <v>710</v>
+      </c>
+      <c r="K624" s="26"/>
+      <c r="L624" s="26"/>
+      <c r="M624" s="26">
+        <v>0</v>
+      </c>
+      <c r="N624" s="26">
+        <v>1</v>
+      </c>
+      <c r="O624" s="26"/>
+    </row>
+    <row r="625" spans="1:15">
+      <c r="A625" s="26">
+        <v>624</v>
+      </c>
+      <c r="B625" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C625" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F625" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G625" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="H625" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I625" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="J625" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="K625" s="26"/>
+      <c r="L625" s="26"/>
+      <c r="M625" s="26">
+        <v>0</v>
+      </c>
+      <c r="N625" s="26">
+        <v>1</v>
+      </c>
+      <c r="O625" s="26"/>
+    </row>
+    <row r="626" spans="1:15">
+      <c r="A626" s="26">
+        <v>625</v>
+      </c>
+      <c r="B626" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C626" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E626" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F626" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G626" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H626" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="I626" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="J626" s="27" t="s">
+        <v>713</v>
+      </c>
+      <c r="K626" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="L626" s="26"/>
+      <c r="M626" s="26">
+        <v>0</v>
+      </c>
+      <c r="N626" s="26">
+        <v>0</v>
+      </c>
+      <c r="O626" s="26"/>
+    </row>
+    <row r="627" spans="1:15">
+      <c r="A627" s="26">
+        <v>626</v>
+      </c>
+      <c r="B627" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C627" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F627" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G627" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H627" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="I627" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J627" s="27" t="s">
+        <v>711</v>
+      </c>
+      <c r="K627" s="26"/>
+      <c r="L627" s="26"/>
+      <c r="M627" s="26">
+        <v>0</v>
+      </c>
+      <c r="N627" s="26">
+        <v>0</v>
+      </c>
+      <c r="O627" s="26"/>
+    </row>
+    <row r="628" spans="1:15">
+      <c r="A628" s="26">
+        <v>627</v>
+      </c>
+      <c r="B628" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C628" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D628" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E628" s="6">
+        <v>44109</v>
+      </c>
+      <c r="F628" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G628" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="H628" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I628" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J628" s="27" t="s">
+        <v>714</v>
+      </c>
+      <c r="K628" s="26"/>
+      <c r="L628" s="26"/>
+      <c r="M628" s="26">
+        <v>0</v>
+      </c>
+      <c r="N628" s="26">
+        <v>0</v>
+      </c>
+      <c r="O628" s="26"/>
+    </row>
+    <row r="629" spans="1:15">
+      <c r="A629" s="26">
+        <v>628</v>
+      </c>
+      <c r="B629" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C629" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D629" s="26"/>
+      <c r="E629" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F629" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G629" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="H629" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I629" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="J629" s="27" t="s">
+        <v>703</v>
+      </c>
+      <c r="K629" s="26" t="s">
+        <v>643</v>
+      </c>
+      <c r="L629" s="26"/>
+      <c r="M629" s="26">
+        <v>0</v>
+      </c>
+      <c r="N629" s="26">
+        <v>0</v>
+      </c>
+      <c r="O629" s="26"/>
+    </row>
+    <row r="630" spans="1:15">
+      <c r="A630" s="26">
+        <v>629</v>
+      </c>
+      <c r="B630" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C630" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="26"/>
+      <c r="E630" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F630" s="6">
+        <v>44109</v>
+      </c>
+      <c r="G630" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="H630" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="I630" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J630" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="K630" s="26" t="s">
         <v>641</v>
       </c>
-      <c r="L585" s="19"/>
-      <c r="M585" s="19">
-        <v>0</v>
-      </c>
-      <c r="N585" s="19">
-        <v>0</v>
-      </c>
-      <c r="O585" s="19"/>
-    </row>
-    <row r="586" spans="1:15">
-      <c r="A586" s="19">
-        <v>585</v>
-      </c>
-      <c r="B586" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C586" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D586" s="19" t="s">
+      <c r="L630" s="26"/>
+      <c r="M630" s="26">
+        <v>0</v>
+      </c>
+      <c r="N630" s="26">
+        <v>0</v>
+      </c>
+      <c r="O630" s="26"/>
+    </row>
+    <row r="631" spans="1:15">
+      <c r="A631" s="26">
+        <v>630</v>
+      </c>
+      <c r="B631" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C631" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D631" s="26"/>
+      <c r="E631" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F631" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G631" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="H631" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I631" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J631" s="27" t="s">
+        <v>707</v>
+      </c>
+      <c r="K631" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L631" s="26"/>
+      <c r="M631" s="26">
+        <v>0</v>
+      </c>
+      <c r="N631" s="26">
+        <v>0</v>
+      </c>
+      <c r="O631" s="26"/>
+    </row>
+    <row r="632" spans="1:15">
+      <c r="A632" s="26">
+        <v>631</v>
+      </c>
+      <c r="B632" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C632" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D632" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E586" s="20">
-        <v>44107</v>
-      </c>
-      <c r="F586" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G586" s="19" t="s">
+      <c r="E632" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F632" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G632" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="H632" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="I632" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J632" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="K632" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="L632" s="26"/>
+      <c r="M632" s="26">
+        <v>0</v>
+      </c>
+      <c r="N632" s="26">
+        <v>0</v>
+      </c>
+      <c r="O632" s="26"/>
+    </row>
+    <row r="633" spans="1:15">
+      <c r="A633" s="26">
+        <v>632</v>
+      </c>
+      <c r="B633" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C633" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D633" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E633" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F633" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G633" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H633" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I633" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J633" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="K633" s="26"/>
+      <c r="L633" s="26"/>
+      <c r="M633" s="26">
+        <v>0</v>
+      </c>
+      <c r="N633" s="26">
+        <v>1</v>
+      </c>
+      <c r="O633" s="26"/>
+    </row>
+    <row r="634" spans="1:15">
+      <c r="A634" s="26">
+        <v>633</v>
+      </c>
+      <c r="B634" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C634" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D634" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E634" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F634" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G634" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="H634" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="I634" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J634" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="K634" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="L634" s="26"/>
+      <c r="M634" s="26">
+        <v>0</v>
+      </c>
+      <c r="N634" s="26">
+        <v>0</v>
+      </c>
+      <c r="O634" s="26"/>
+    </row>
+    <row r="635" spans="1:15">
+      <c r="A635" s="26">
+        <v>634</v>
+      </c>
+      <c r="B635" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C635" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D635" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E635" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F635" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G635" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H635" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I635" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="J635" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="K635" s="26" t="s">
+        <v>728</v>
+      </c>
+      <c r="L635" s="26"/>
+      <c r="M635" s="26">
+        <v>0</v>
+      </c>
+      <c r="N635" s="26">
+        <v>0</v>
+      </c>
+      <c r="O635" s="26"/>
+    </row>
+    <row r="636" spans="1:15">
+      <c r="A636" s="26">
+        <v>635</v>
+      </c>
+      <c r="B636" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C636" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D636" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E636" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F636" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G636" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H636" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I636" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="J636" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="K636" s="26"/>
+      <c r="L636" s="26"/>
+      <c r="M636" s="26">
+        <v>0</v>
+      </c>
+      <c r="N636" s="26">
+        <v>1</v>
+      </c>
+      <c r="O636" s="26"/>
+    </row>
+    <row r="637" spans="1:15">
+      <c r="A637" s="26">
+        <v>636</v>
+      </c>
+      <c r="B637" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C637" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D637" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E637" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F637" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G637" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="H637" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="I637" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="J637" s="27" t="s">
+        <v>730</v>
+      </c>
+      <c r="K637" s="26"/>
+      <c r="L637" s="26"/>
+      <c r="M637" s="26">
+        <v>0</v>
+      </c>
+      <c r="N637" s="26">
+        <v>1</v>
+      </c>
+      <c r="O637" s="26"/>
+    </row>
+    <row r="638" spans="1:15">
+      <c r="A638" s="26">
+        <v>637</v>
+      </c>
+      <c r="B638" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C638" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D638" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E638" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F638" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G638" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="H638" s="26" t="s">
+        <v>721</v>
+      </c>
+      <c r="I638" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="J638" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="K638" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="L638" s="26"/>
+      <c r="M638" s="26">
+        <v>0</v>
+      </c>
+      <c r="N638" s="26">
+        <v>0</v>
+      </c>
+      <c r="O638" s="26"/>
+    </row>
+    <row r="639" spans="1:15">
+      <c r="A639" s="26">
+        <v>638</v>
+      </c>
+      <c r="B639" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C639" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D639" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E639" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F639" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G639" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="H639" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="I639" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J639" s="27" t="s">
+        <v>729</v>
+      </c>
+      <c r="K639" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="L639" s="26"/>
+      <c r="M639" s="26">
+        <v>0</v>
+      </c>
+      <c r="N639" s="26">
+        <v>0</v>
+      </c>
+      <c r="O639" s="26"/>
+    </row>
+    <row r="640" spans="1:15">
+      <c r="A640" s="26">
+        <v>639</v>
+      </c>
+      <c r="B640" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C640" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D640" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E640" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F640" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G640" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="H640" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="I640" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J640" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="K640" s="26" t="s">
+        <v>743</v>
+      </c>
+      <c r="L640" s="26"/>
+      <c r="M640" s="26">
+        <v>0</v>
+      </c>
+      <c r="N640" s="26">
+        <v>0</v>
+      </c>
+      <c r="O640" s="26"/>
+    </row>
+    <row r="641" spans="1:15">
+      <c r="A641" s="26">
+        <v>640</v>
+      </c>
+      <c r="B641" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C641" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D641" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E641" s="6">
+        <v>44110</v>
+      </c>
+      <c r="F641" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G641" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H641" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="I641" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="J641" s="27" t="s">
+        <v>731</v>
+      </c>
+      <c r="K641" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L641" s="26"/>
+      <c r="M641" s="26">
+        <v>0</v>
+      </c>
+      <c r="N641" s="26">
+        <v>0</v>
+      </c>
+      <c r="O641" s="26"/>
+    </row>
+    <row r="642" spans="1:15">
+      <c r="A642" s="26">
+        <v>641</v>
+      </c>
+      <c r="B642" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C642" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D642" s="26"/>
+      <c r="E642" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F642" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G642" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="H642" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I642" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J642" s="27" t="s">
+        <v>726</v>
+      </c>
+      <c r="K642" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L642" s="26"/>
+      <c r="M642" s="26">
+        <v>0</v>
+      </c>
+      <c r="N642" s="26">
+        <v>0</v>
+      </c>
+      <c r="O642" s="26"/>
+    </row>
+    <row r="643" spans="1:15">
+      <c r="A643" s="26">
+        <v>642</v>
+      </c>
+      <c r="B643" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C643" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D643" s="26"/>
+      <c r="E643" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F643" s="6">
+        <v>44110</v>
+      </c>
+      <c r="G643" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="H643" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I643" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J643" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="K643" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L643" s="26"/>
+      <c r="M643" s="26">
+        <v>0</v>
+      </c>
+      <c r="N643" s="26">
+        <v>0</v>
+      </c>
+      <c r="O643" s="26"/>
+    </row>
+    <row r="644" spans="1:15">
+      <c r="A644" s="26">
+        <v>643</v>
+      </c>
+      <c r="B644" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C644" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D644" s="26"/>
+      <c r="E644" s="6">
+        <v>44111</v>
+      </c>
+      <c r="F644" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G644" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="H644" s="26" t="s">
+        <v>733</v>
+      </c>
+      <c r="I644" s="26" t="s">
+        <v>732</v>
+      </c>
+      <c r="J644" s="27"/>
+      <c r="K644" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L644" s="26"/>
+      <c r="M644" s="26">
+        <v>0</v>
+      </c>
+      <c r="N644" s="26">
+        <v>0</v>
+      </c>
+      <c r="O644" s="26"/>
+    </row>
+    <row r="645" spans="1:15">
+      <c r="A645" s="26">
+        <v>644</v>
+      </c>
+      <c r="B645" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C645" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="26"/>
+      <c r="E645" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F645" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G645" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="H645" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I645" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J645" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K645" s="26"/>
+      <c r="L645" s="26"/>
+      <c r="M645" s="26">
+        <v>0</v>
+      </c>
+      <c r="N645" s="26">
+        <v>0</v>
+      </c>
+      <c r="O645" s="26"/>
+    </row>
+    <row r="646" spans="1:15">
+      <c r="A646" s="26">
+        <v>645</v>
+      </c>
+      <c r="B646" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C646" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D646" s="26"/>
+      <c r="E646" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F646" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G646" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="H646" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I646" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J646" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K646" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L646" s="26"/>
+      <c r="M646" s="26">
+        <v>0</v>
+      </c>
+      <c r="N646" s="26">
+        <v>0</v>
+      </c>
+      <c r="O646" s="26"/>
+    </row>
+    <row r="647" spans="1:15">
+      <c r="A647" s="26">
+        <v>646</v>
+      </c>
+      <c r="B647" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C647" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D647" s="26"/>
+      <c r="E647" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F647" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G647" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="H647" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I647" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J647" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K647" s="26"/>
+      <c r="L647" s="26"/>
+      <c r="M647" s="26">
+        <v>0</v>
+      </c>
+      <c r="N647" s="26">
+        <v>0</v>
+      </c>
+      <c r="O647" s="26"/>
+    </row>
+    <row r="648" spans="1:15">
+      <c r="A648" s="26">
+        <v>647</v>
+      </c>
+      <c r="B648" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C648" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D648" s="26"/>
+      <c r="E648" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F648" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G648" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="H648" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I648" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J648" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K648" s="26"/>
+      <c r="L648" s="26"/>
+      <c r="M648" s="26">
+        <v>0</v>
+      </c>
+      <c r="N648" s="26">
+        <v>0</v>
+      </c>
+      <c r="O648" s="26"/>
+    </row>
+    <row r="649" spans="1:15">
+      <c r="A649" s="26">
+        <v>648</v>
+      </c>
+      <c r="B649" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C649" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D649" s="26"/>
+      <c r="E649" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F649" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G649" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="H649" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="I649" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J649" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K649" s="26"/>
+      <c r="L649" s="26"/>
+      <c r="M649" s="26">
+        <v>0</v>
+      </c>
+      <c r="N649" s="26">
+        <v>0</v>
+      </c>
+      <c r="O649" s="26"/>
+    </row>
+    <row r="650" spans="1:15">
+      <c r="A650" s="26">
+        <v>649</v>
+      </c>
+      <c r="B650" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C650" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D650" s="26"/>
+      <c r="E650" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F650" s="6">
+        <v>44111</v>
+      </c>
+      <c r="G650" s="26" t="s">
+        <v>735</v>
+      </c>
+      <c r="H650" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="I650" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J650" s="27" t="s">
+        <v>734</v>
+      </c>
+      <c r="K650" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L650" s="26"/>
+      <c r="M650" s="26">
+        <v>0</v>
+      </c>
+      <c r="N650" s="26">
+        <v>0</v>
+      </c>
+      <c r="O650" s="26"/>
+    </row>
+    <row r="651" spans="1:15">
+      <c r="A651" s="26">
+        <v>650</v>
+      </c>
+      <c r="B651" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C651" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D651" s="26"/>
+      <c r="E651" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F651" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G651" s="26" t="s">
+        <v>365</v>
+      </c>
+      <c r="H651" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="I651" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="J651" s="27" t="s">
+        <v>736</v>
+      </c>
+      <c r="K651" s="26"/>
+      <c r="L651" s="26"/>
+      <c r="M651" s="26">
+        <v>0</v>
+      </c>
+      <c r="N651" s="26">
+        <v>0</v>
+      </c>
+      <c r="O651" s="26"/>
+    </row>
+    <row r="652" spans="1:15">
+      <c r="A652" s="26">
+        <v>651</v>
+      </c>
+      <c r="B652" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C652" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D652" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E652" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F652" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G652" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="H652" s="26" t="s">
+        <v>741</v>
+      </c>
+      <c r="I652" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J652" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="K652" s="26" t="s">
+        <v>769</v>
+      </c>
+      <c r="L652" s="26"/>
+      <c r="M652" s="26">
+        <v>0</v>
+      </c>
+      <c r="N652" s="26">
+        <v>0</v>
+      </c>
+      <c r="O652" s="26"/>
+    </row>
+    <row r="653" spans="1:15">
+      <c r="A653" s="26">
+        <v>652</v>
+      </c>
+      <c r="B653" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C653" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D653" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E653" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F653" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G653" s="26" t="s">
+        <v>740</v>
+      </c>
+      <c r="H653" s="26" t="s">
+        <v>742</v>
+      </c>
+      <c r="I653" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J653" s="27" t="s">
+        <v>768</v>
+      </c>
+      <c r="K653" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L653" s="26"/>
+      <c r="M653" s="26">
+        <v>0</v>
+      </c>
+      <c r="N653" s="26">
+        <v>0</v>
+      </c>
+      <c r="O653" s="26"/>
+    </row>
+    <row r="654" spans="1:15">
+      <c r="A654" s="26">
+        <v>653</v>
+      </c>
+      <c r="B654" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C654" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D654" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E654" s="6">
+        <v>44112</v>
+      </c>
+      <c r="F654" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G654" s="26" t="s">
+        <v>739</v>
+      </c>
+      <c r="H654" s="26" t="s">
+        <v>737</v>
+      </c>
+      <c r="I654" s="26" t="s">
+        <v>738</v>
+      </c>
+      <c r="J654" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="K654" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="L654" s="26"/>
+      <c r="M654" s="26">
+        <v>0</v>
+      </c>
+      <c r="N654" s="26">
+        <v>0</v>
+      </c>
+      <c r="O654" s="26"/>
+    </row>
+    <row r="655" spans="1:15">
+      <c r="A655" s="26">
+        <v>654</v>
+      </c>
+      <c r="B655" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C655" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D655" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E655" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F655" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G655" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="H655" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I655" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J655" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="K655" s="26"/>
+      <c r="L655" s="26"/>
+      <c r="M655" s="26">
+        <v>0</v>
+      </c>
+      <c r="N655" s="26">
+        <v>0</v>
+      </c>
+      <c r="O655" s="26"/>
+    </row>
+    <row r="656" spans="1:15">
+      <c r="A656" s="26">
+        <v>655</v>
+      </c>
+      <c r="B656" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C656" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D656" s="26"/>
+      <c r="E656" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F656" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G656" s="26" t="s">
+        <v>745</v>
+      </c>
+      <c r="H656" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I656" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J656" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="K656" s="26"/>
+      <c r="L656" s="26"/>
+      <c r="M656" s="26">
+        <v>0</v>
+      </c>
+      <c r="N656" s="26">
+        <v>0</v>
+      </c>
+      <c r="O656" s="26"/>
+    </row>
+    <row r="657" spans="1:15">
+      <c r="A657" s="26">
         <v>656</v>
       </c>
-      <c r="H586" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I586" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J586" s="21" t="s">
+      <c r="B657" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C657" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D657" s="26"/>
+      <c r="E657" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F657" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G657" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="H657" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="I657" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J657" s="27" t="s">
+        <v>635</v>
+      </c>
+      <c r="K657" s="26"/>
+      <c r="L657" s="26"/>
+      <c r="M657" s="26">
+        <v>0</v>
+      </c>
+      <c r="N657" s="26">
+        <v>0</v>
+      </c>
+      <c r="O657" s="26"/>
+    </row>
+    <row r="658" spans="1:15">
+      <c r="A658" s="26">
+        <v>657</v>
+      </c>
+      <c r="B658" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C658" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D658" s="26"/>
+      <c r="E658" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F658" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G658" s="26" t="s">
+        <v>747</v>
+      </c>
+      <c r="H658" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I658" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J658" s="27" t="s">
+        <v>765</v>
+      </c>
+      <c r="K658" s="26"/>
+      <c r="L658" s="26"/>
+      <c r="M658" s="26">
+        <v>0</v>
+      </c>
+      <c r="N658" s="26">
+        <v>0</v>
+      </c>
+      <c r="O658" s="26"/>
+    </row>
+    <row r="659" spans="1:15">
+      <c r="A659" s="26">
+        <v>658</v>
+      </c>
+      <c r="B659" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C659" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D659" s="26"/>
+      <c r="E659" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F659" s="6">
+        <v>44112</v>
+      </c>
+      <c r="G659" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="H659" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I659" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J659" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="K659" s="26"/>
+      <c r="L659" s="26"/>
+      <c r="M659" s="26">
+        <v>0</v>
+      </c>
+      <c r="N659" s="26">
+        <v>0</v>
+      </c>
+      <c r="O659" s="26"/>
+    </row>
+    <row r="660" spans="1:15">
+      <c r="A660" s="26">
+        <v>659</v>
+      </c>
+      <c r="B660" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C660" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E660" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F660" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G660" s="26" t="s">
+        <v>749</v>
+      </c>
+      <c r="H660" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="I660" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J660" s="27"/>
+      <c r="K660" s="26"/>
+      <c r="L660" s="26"/>
+      <c r="M660" s="26">
+        <v>0</v>
+      </c>
+      <c r="N660" s="26">
+        <v>0</v>
+      </c>
+      <c r="O660" s="26"/>
+    </row>
+    <row r="661" spans="1:15">
+      <c r="A661" s="26">
+        <v>660</v>
+      </c>
+      <c r="B661" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C661" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D661" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E661" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F661" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G661" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H661" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="I661" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J661" s="27"/>
+      <c r="K661" s="26"/>
+      <c r="L661" s="26"/>
+      <c r="M661" s="26">
+        <v>0</v>
+      </c>
+      <c r="N661" s="26">
+        <v>0</v>
+      </c>
+      <c r="O661" s="26"/>
+    </row>
+    <row r="662" spans="1:15">
+      <c r="A662" s="26">
+        <v>661</v>
+      </c>
+      <c r="B662" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C662" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D662" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E662" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F662" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G662" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="H662" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="I662" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J662" s="27"/>
+      <c r="K662" s="26"/>
+      <c r="L662" s="26"/>
+      <c r="M662" s="26">
+        <v>0</v>
+      </c>
+      <c r="N662" s="26">
+        <v>0</v>
+      </c>
+      <c r="O662" s="26"/>
+    </row>
+    <row r="663" spans="1:15">
+      <c r="A663" s="26">
+        <v>662</v>
+      </c>
+      <c r="B663" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C663" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D663" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E663" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F663" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G663" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="H663" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="I663" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J663" s="27"/>
+      <c r="K663" s="26"/>
+      <c r="L663" s="26"/>
+      <c r="M663" s="26">
+        <v>0</v>
+      </c>
+      <c r="N663" s="26">
+        <v>0</v>
+      </c>
+      <c r="O663" s="26"/>
+    </row>
+    <row r="664" spans="1:15">
+      <c r="A664" s="26">
+        <v>663</v>
+      </c>
+      <c r="B664" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C664" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D664" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E664" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F664" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G664" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="H664" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="I664" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J664" s="27"/>
+      <c r="K664" s="26"/>
+      <c r="L664" s="26"/>
+      <c r="M664" s="26">
+        <v>0</v>
+      </c>
+      <c r="N664" s="26">
+        <v>0</v>
+      </c>
+      <c r="O664" s="26"/>
+    </row>
+    <row r="665" spans="1:15">
+      <c r="A665" s="26">
+        <v>664</v>
+      </c>
+      <c r="B665" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C665" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E665" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F665" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G665" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H665" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I665" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J665" s="27"/>
+      <c r="K665" s="26"/>
+      <c r="L665" s="26"/>
+      <c r="M665" s="26">
+        <v>0</v>
+      </c>
+      <c r="N665" s="26">
+        <v>0</v>
+      </c>
+      <c r="O665" s="26"/>
+    </row>
+    <row r="666" spans="1:15">
+      <c r="A666" s="26">
+        <v>665</v>
+      </c>
+      <c r="B666" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C666" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D666" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E666" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F666" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G666" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H666" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="I666" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J666" s="27"/>
+      <c r="K666" s="26"/>
+      <c r="L666" s="26"/>
+      <c r="M666" s="26">
+        <v>0</v>
+      </c>
+      <c r="N666" s="26">
+        <v>0</v>
+      </c>
+      <c r="O666" s="26"/>
+    </row>
+    <row r="667" spans="1:15">
+      <c r="A667" s="26">
+        <v>666</v>
+      </c>
+      <c r="B667" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C667" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D667" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E667" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F667" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G667" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H667" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="I667" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J667" s="27"/>
+      <c r="K667" s="26"/>
+      <c r="L667" s="26"/>
+      <c r="M667" s="26">
+        <v>0</v>
+      </c>
+      <c r="N667" s="26">
+        <v>0</v>
+      </c>
+      <c r="O667" s="26"/>
+    </row>
+    <row r="668" spans="1:15">
+      <c r="A668" s="26">
+        <v>667</v>
+      </c>
+      <c r="B668" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C668" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D668" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E668" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F668" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G668" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="H668" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I668" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J668" s="27"/>
+      <c r="K668" s="26"/>
+      <c r="L668" s="26"/>
+      <c r="M668" s="26">
+        <v>0</v>
+      </c>
+      <c r="N668" s="26">
+        <v>0</v>
+      </c>
+      <c r="O668" s="26"/>
+    </row>
+    <row r="669" spans="1:15">
+      <c r="A669" s="26">
+        <v>668</v>
+      </c>
+      <c r="B669" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C669" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D669" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E669" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F669" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G669" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="H669" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I669" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J669" s="27"/>
+      <c r="K669" s="26"/>
+      <c r="L669" s="26"/>
+      <c r="M669" s="26">
+        <v>0</v>
+      </c>
+      <c r="N669" s="26">
+        <v>0</v>
+      </c>
+      <c r="O669" s="26"/>
+    </row>
+    <row r="670" spans="1:15">
+      <c r="A670" s="26">
+        <v>669</v>
+      </c>
+      <c r="B670" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C670" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D670" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E670" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F670" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G670" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H670" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="I670" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J670" s="27"/>
+      <c r="K670" s="26"/>
+      <c r="L670" s="26"/>
+      <c r="M670" s="26">
+        <v>0</v>
+      </c>
+      <c r="N670" s="26">
+        <v>0</v>
+      </c>
+      <c r="O670" s="26"/>
+    </row>
+    <row r="671" spans="1:15">
+      <c r="A671" s="26">
+        <v>670</v>
+      </c>
+      <c r="B671" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C671" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D671" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E671" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F671" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G671" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="H671" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I671" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J671" s="27"/>
+      <c r="K671" s="26"/>
+      <c r="L671" s="26"/>
+      <c r="M671" s="26">
+        <v>0</v>
+      </c>
+      <c r="N671" s="26">
+        <v>0</v>
+      </c>
+      <c r="O671" s="26"/>
+    </row>
+    <row r="672" spans="1:15">
+      <c r="A672" s="26">
+        <v>671</v>
+      </c>
+      <c r="B672" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C672" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D672" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E672" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F672" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G672" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="H672" s="26" t="s">
+        <v>763</v>
+      </c>
+      <c r="I672" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J672" s="27"/>
+      <c r="K672" s="26"/>
+      <c r="L672" s="26"/>
+      <c r="M672" s="26">
+        <v>0</v>
+      </c>
+      <c r="N672" s="26">
+        <v>0</v>
+      </c>
+      <c r="O672" s="26"/>
+    </row>
+    <row r="673" spans="1:15">
+      <c r="A673" s="26">
+        <v>672</v>
+      </c>
+      <c r="B673" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C673" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E673" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F673" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G673" s="26" t="s">
+        <v>754</v>
+      </c>
+      <c r="H673" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="I673" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J673" s="27"/>
+      <c r="K673" s="26"/>
+      <c r="L673" s="26"/>
+      <c r="M673" s="26">
+        <v>0</v>
+      </c>
+      <c r="N673" s="26">
+        <v>0</v>
+      </c>
+      <c r="O673" s="26"/>
+    </row>
+    <row r="674" spans="1:15">
+      <c r="A674" s="26">
         <v>673</v>
       </c>
-      <c r="K586" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L586" s="19"/>
-      <c r="M586" s="19">
-        <v>0</v>
-      </c>
-      <c r="N586" s="19">
-        <v>0</v>
-      </c>
-      <c r="O586" s="19"/>
-    </row>
-    <row r="587" spans="1:15">
-      <c r="A587" s="19">
-        <v>586</v>
-      </c>
-      <c r="B587" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C587" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D587" s="19" t="s">
+      <c r="B674" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C674" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D674" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E587" s="20">
-        <v>44107</v>
-      </c>
-      <c r="F587" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G587" s="19" t="s">
-        <v>657</v>
-      </c>
-      <c r="H587" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I587" s="19" t="s">
-        <v>658</v>
-      </c>
-      <c r="J587" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="K587" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L587" s="19"/>
-      <c r="M587" s="19">
-        <v>0</v>
-      </c>
-      <c r="N587" s="19">
-        <v>0</v>
-      </c>
-      <c r="O587" s="19"/>
-    </row>
-    <row r="588" spans="1:15">
-      <c r="A588" s="19">
-        <v>587</v>
-      </c>
-      <c r="B588" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C588" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D588" s="19" t="s">
+      <c r="E674" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F674" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G674" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="H674" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I674" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="J674" s="27"/>
+      <c r="K674" s="26"/>
+      <c r="L674" s="26"/>
+      <c r="M674" s="26">
+        <v>0</v>
+      </c>
+      <c r="N674" s="26">
+        <v>0</v>
+      </c>
+      <c r="O674" s="26"/>
+    </row>
+    <row r="675" spans="1:15">
+      <c r="A675" s="26">
+        <v>674</v>
+      </c>
+      <c r="B675" s="26">
+        <v>430005</v>
+      </c>
+      <c r="C675" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D675" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E588" s="20">
-        <v>44107</v>
-      </c>
-      <c r="F588" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G588" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="H588" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I588" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J588" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="K588" s="19"/>
-      <c r="L588" s="19"/>
-      <c r="M588" s="19">
-        <v>0</v>
-      </c>
-      <c r="N588" s="19">
-        <v>0</v>
-      </c>
-      <c r="O588" s="19"/>
-    </row>
-    <row r="589" spans="1:15">
-      <c r="A589" s="19">
-        <v>588</v>
-      </c>
-      <c r="B589" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C589" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D589" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E589" s="20">
-        <v>44107</v>
-      </c>
-      <c r="F589" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G589" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="H589" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I589" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J589" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="K589" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L589" s="19"/>
-      <c r="M589" s="19">
-        <v>0</v>
-      </c>
-      <c r="N589" s="19">
-        <v>0</v>
-      </c>
-      <c r="O589" s="19"/>
-    </row>
-    <row r="590" spans="1:15">
-      <c r="A590" s="19">
-        <v>589</v>
-      </c>
-      <c r="B590" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C590" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D590" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E590" s="20">
-        <v>44107</v>
-      </c>
-      <c r="F590" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G590" s="19" t="s">
-        <v>656</v>
-      </c>
-      <c r="H590" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I590" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J590" s="21" t="s">
-        <v>672</v>
-      </c>
-      <c r="K590" s="19"/>
-      <c r="L590" s="19"/>
-      <c r="M590" s="19">
-        <v>0</v>
-      </c>
-      <c r="N590" s="19">
-        <v>0</v>
-      </c>
-      <c r="O590" s="19"/>
-    </row>
-    <row r="591" spans="1:15">
-      <c r="A591" s="19">
-        <v>590</v>
-      </c>
-      <c r="B591" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C591" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D591" s="19"/>
-      <c r="E591" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F591" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G591" s="19" t="s">
-        <v>659</v>
-      </c>
-      <c r="H591" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I591" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J591" s="21" t="s">
-        <v>670</v>
-      </c>
-      <c r="K591" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L591" s="19"/>
-      <c r="M591" s="19">
-        <v>0</v>
-      </c>
-      <c r="N591" s="19">
-        <v>0</v>
-      </c>
-      <c r="O591" s="19"/>
-    </row>
-    <row r="592" spans="1:15">
-      <c r="A592" s="19">
-        <v>591</v>
-      </c>
-      <c r="B592" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C592" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D592" s="19"/>
-      <c r="E592" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F592" s="20">
-        <v>44107</v>
-      </c>
-      <c r="G592" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="H592" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I592" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J592" s="21" t="s">
-        <v>671</v>
-      </c>
-      <c r="K592" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L592" s="19"/>
-      <c r="M592" s="19">
-        <v>0</v>
-      </c>
-      <c r="N592" s="19">
-        <v>0</v>
-      </c>
-      <c r="O592" s="19"/>
-    </row>
-    <row r="593" spans="1:15">
-      <c r="A593" s="19">
-        <v>592</v>
-      </c>
-      <c r="B593" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C593" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D593" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E593" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F593" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G593" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H593" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I593" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J593" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K593" s="19"/>
-      <c r="L593" s="19"/>
-      <c r="M593" s="19">
-        <v>0</v>
-      </c>
-      <c r="N593" s="19">
-        <v>0</v>
-      </c>
-      <c r="O593" s="19"/>
-    </row>
-    <row r="594" spans="1:15">
-      <c r="A594" s="19">
-        <v>593</v>
-      </c>
-      <c r="B594" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C594" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D594" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E594" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F594" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G594" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H594" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I594" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J594" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="K594" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="L594" s="19"/>
-      <c r="M594" s="19">
-        <v>0</v>
-      </c>
-      <c r="N594" s="19">
-        <v>0</v>
-      </c>
-      <c r="O594" s="19"/>
-    </row>
-    <row r="595" spans="1:15">
-      <c r="A595" s="19">
-        <v>594</v>
-      </c>
-      <c r="B595" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C595" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D595" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E595" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F595" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G595" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H595" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I595" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J595" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K595" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="L595" s="19"/>
-      <c r="M595" s="19">
-        <v>0</v>
-      </c>
-      <c r="N595" s="19">
-        <v>0</v>
-      </c>
-      <c r="O595" s="19"/>
-    </row>
-    <row r="596" spans="1:15">
-      <c r="A596" s="19">
-        <v>595</v>
-      </c>
-      <c r="B596" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C596" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D596" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E596" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F596" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G596" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="H596" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I596" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J596" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K596" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="L596" s="19"/>
-      <c r="M596" s="19">
-        <v>0</v>
-      </c>
-      <c r="N596" s="19">
-        <v>0</v>
-      </c>
-      <c r="O596" s="19"/>
-    </row>
-    <row r="597" spans="1:15">
-      <c r="A597" s="19">
-        <v>596</v>
-      </c>
-      <c r="B597" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C597" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D597" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E597" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F597" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G597" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H597" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I597" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J597" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K597" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="L597" s="19"/>
-      <c r="M597" s="19">
-        <v>0</v>
-      </c>
-      <c r="N597" s="19">
-        <v>0</v>
-      </c>
-      <c r="O597" s="19"/>
-    </row>
-    <row r="598" spans="1:15">
-      <c r="A598" s="19">
-        <v>597</v>
-      </c>
-      <c r="B598" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C598" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D598" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E598" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F598" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G598" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="H598" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I598" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J598" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K598" s="19"/>
-      <c r="L598" s="19"/>
-      <c r="M598" s="19">
-        <v>0</v>
-      </c>
-      <c r="N598" s="19">
-        <v>0</v>
-      </c>
-      <c r="O598" s="19"/>
-    </row>
-    <row r="599" spans="1:15">
-      <c r="A599" s="19">
-        <v>598</v>
-      </c>
-      <c r="B599" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C599" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D599" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E599" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F599" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G599" s="19" t="s">
-        <v>664</v>
-      </c>
-      <c r="H599" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="I599" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J599" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K599" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L599" s="19"/>
-      <c r="M599" s="19">
-        <v>0</v>
-      </c>
-      <c r="N599" s="19">
-        <v>0</v>
-      </c>
-      <c r="O599" s="19"/>
-    </row>
-    <row r="600" spans="1:15">
-      <c r="A600" s="19">
-        <v>599</v>
-      </c>
-      <c r="B600" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C600" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D600" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E600" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F600" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G600" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H600" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="I600" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J600" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K600" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="L600" s="19"/>
-      <c r="M600" s="19">
-        <v>0</v>
-      </c>
-      <c r="N600" s="19">
-        <v>0</v>
-      </c>
-      <c r="O600" s="19"/>
-    </row>
-    <row r="601" spans="1:15">
-      <c r="A601" s="19">
-        <v>600</v>
-      </c>
-      <c r="B601" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C601" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D601" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E601" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F601" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G601" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H601" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I601" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J601" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K601" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L601" s="19"/>
-      <c r="M601" s="19">
-        <v>0</v>
-      </c>
-      <c r="N601" s="19">
-        <v>0</v>
-      </c>
-      <c r="O601" s="19"/>
-    </row>
-    <row r="602" spans="1:15">
-      <c r="A602" s="19">
-        <v>601</v>
-      </c>
-      <c r="B602" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C602" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D602" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E602" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F602" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G602" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H602" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="I602" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J602" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K602" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L602" s="19"/>
-      <c r="M602" s="19">
-        <v>0</v>
-      </c>
-      <c r="N602" s="19">
-        <v>0</v>
-      </c>
-      <c r="O602" s="19"/>
-    </row>
-    <row r="603" spans="1:15">
-      <c r="A603" s="19">
-        <v>602</v>
-      </c>
-      <c r="B603" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C603" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D603" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E603" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F603" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G603" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="H603" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="I603" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J603" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K603" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L603" s="19"/>
-      <c r="M603" s="19">
-        <v>0</v>
-      </c>
-      <c r="N603" s="19">
-        <v>0</v>
-      </c>
-      <c r="O603" s="19"/>
-    </row>
-    <row r="604" spans="1:15">
-      <c r="A604" s="19">
-        <v>603</v>
-      </c>
-      <c r="B604" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C604" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D604" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E604" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F604" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G604" s="19" t="s">
-        <v>665</v>
-      </c>
-      <c r="H604" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I604" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J604" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K604" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="L604" s="19"/>
-      <c r="M604" s="19">
-        <v>0</v>
-      </c>
-      <c r="N604" s="19">
-        <v>0</v>
-      </c>
-      <c r="O604" s="19"/>
-    </row>
-    <row r="605" spans="1:15">
-      <c r="A605" s="19">
-        <v>604</v>
-      </c>
-      <c r="B605" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C605" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D605" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E605" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F605" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G605" s="19" t="s">
-        <v>663</v>
-      </c>
-      <c r="H605" s="19" t="s">
-        <v>668</v>
-      </c>
-      <c r="I605" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J605" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K605" s="19"/>
-      <c r="L605" s="19"/>
-      <c r="M605" s="19">
-        <v>0</v>
-      </c>
-      <c r="N605" s="19">
-        <v>1</v>
-      </c>
-      <c r="O605" s="19"/>
-    </row>
-    <row r="606" spans="1:15">
-      <c r="A606" s="19">
-        <v>605</v>
-      </c>
-      <c r="B606" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C606" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D606" s="19" t="s">
-        <v>662</v>
-      </c>
-      <c r="E606" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F606" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G606" s="19" t="s">
-        <v>666</v>
-      </c>
-      <c r="H606" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I606" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J606" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K606" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L606" s="19"/>
-      <c r="M606" s="19">
-        <v>0</v>
-      </c>
-      <c r="N606" s="19">
-        <v>0</v>
-      </c>
-      <c r="O606" s="19"/>
-    </row>
-    <row r="607" spans="1:15">
-      <c r="A607" s="19">
-        <v>606</v>
-      </c>
-      <c r="B607" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C607" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D607" s="19"/>
-      <c r="E607" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F607" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G607" s="19" t="s">
-        <v>660</v>
-      </c>
-      <c r="H607" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="I607" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J607" s="21" t="s">
-        <v>674</v>
-      </c>
-      <c r="K607" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L607" s="19"/>
-      <c r="M607" s="19">
-        <v>0</v>
-      </c>
-      <c r="N607" s="19">
-        <v>0</v>
-      </c>
-      <c r="O607" s="19"/>
-    </row>
-    <row r="608" spans="1:15">
-      <c r="A608" s="19">
-        <v>607</v>
-      </c>
-      <c r="B608" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C608" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D608" s="19"/>
-      <c r="E608" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F608" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G608" s="19" t="s">
-        <v>661</v>
-      </c>
-      <c r="H608" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I608" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J608" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="K608" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L608" s="19"/>
-      <c r="M608" s="19">
-        <v>0</v>
-      </c>
-      <c r="N608" s="19">
-        <v>0</v>
-      </c>
-      <c r="O608" s="19"/>
-    </row>
-    <row r="609" spans="1:15">
-      <c r="A609" s="19">
-        <v>608</v>
-      </c>
-      <c r="B609" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C609" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D609" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E609" s="20">
-        <v>44108</v>
-      </c>
-      <c r="F609" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G609" s="19" t="s">
-        <v>667</v>
-      </c>
-      <c r="H609" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I609" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J609" s="21" t="s">
-        <v>677</v>
-      </c>
-      <c r="K609" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L609" s="19"/>
-      <c r="M609" s="19">
-        <v>0</v>
-      </c>
-      <c r="N609" s="19">
-        <v>0</v>
-      </c>
-      <c r="O609" s="19"/>
-    </row>
-    <row r="610" spans="1:15">
-      <c r="A610" s="19">
-        <v>609</v>
-      </c>
-      <c r="B610" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C610" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D610" s="19"/>
-      <c r="E610" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F610" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G610" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="H610" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="I610" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J610" s="21" t="s">
-        <v>680</v>
-      </c>
-      <c r="K610" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L610" s="19"/>
-      <c r="M610" s="19">
-        <v>0</v>
-      </c>
-      <c r="N610" s="19">
-        <v>0</v>
-      </c>
-      <c r="O610" s="19"/>
-    </row>
-    <row r="611" spans="1:15">
-      <c r="A611" s="19">
-        <v>610</v>
-      </c>
-      <c r="B611" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C611" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D611" s="19"/>
-      <c r="E611" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F611" s="20">
-        <v>44108</v>
-      </c>
-      <c r="G611" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="H611" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="I611" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J611" s="21" t="s">
-        <v>681</v>
-      </c>
-      <c r="K611" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="L611" s="19"/>
-      <c r="M611" s="19">
-        <v>0</v>
-      </c>
-      <c r="N611" s="19">
-        <v>0</v>
-      </c>
-      <c r="O611" s="19"/>
-    </row>
-    <row r="612" spans="1:15">
-      <c r="A612" s="19">
-        <v>611</v>
-      </c>
-      <c r="B612" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C612" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D612" s="19"/>
-      <c r="E612" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F612" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G612" s="19" t="s">
-        <v>682</v>
-      </c>
-      <c r="H612" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I612" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J612" s="21" t="s">
-        <v>678</v>
-      </c>
-      <c r="K612" s="19" t="s">
-        <v>605</v>
-      </c>
-      <c r="L612" s="19"/>
-      <c r="M612" s="19">
-        <v>0</v>
-      </c>
-      <c r="N612" s="19">
-        <v>0</v>
-      </c>
-      <c r="O612" s="19"/>
-    </row>
-    <row r="613" spans="1:15">
-      <c r="A613" s="19">
-        <v>612</v>
-      </c>
-      <c r="B613" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C613" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D613" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E613" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F613" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G613" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="H613" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I613" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="J613" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="K613" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L613" s="19"/>
-      <c r="M613" s="19">
-        <v>0</v>
-      </c>
-      <c r="N613" s="19">
-        <v>0</v>
-      </c>
-      <c r="O613" s="19"/>
-    </row>
-    <row r="614" spans="1:15">
-      <c r="A614" s="19">
-        <v>613</v>
-      </c>
-      <c r="B614" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C614" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D614" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E614" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F614" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G614" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="H614" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I614" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J614" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="K614" s="19"/>
-      <c r="L614" s="19"/>
-      <c r="M614" s="19">
-        <v>0</v>
-      </c>
-      <c r="N614" s="19">
-        <v>0</v>
-      </c>
-      <c r="O614" s="19"/>
-    </row>
-    <row r="615" spans="1:15">
-      <c r="A615" s="19">
-        <v>614</v>
-      </c>
-      <c r="B615" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C615" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D615" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E615" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F615" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G615" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="H615" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I615" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J615" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="K615" s="19"/>
-      <c r="L615" s="19"/>
-      <c r="M615" s="19">
-        <v>0</v>
-      </c>
-      <c r="N615" s="19">
-        <v>0</v>
-      </c>
-      <c r="O615" s="19"/>
-    </row>
-    <row r="616" spans="1:15">
-      <c r="A616" s="19">
-        <v>615</v>
-      </c>
-      <c r="B616" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C616" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D616" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E616" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F616" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G616" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H616" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I616" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="J616" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K616" s="19"/>
-      <c r="L616" s="19"/>
-      <c r="M616" s="19">
-        <v>0</v>
-      </c>
-      <c r="N616" s="19">
-        <v>0</v>
-      </c>
-      <c r="O616" s="19"/>
-    </row>
-    <row r="617" spans="1:15">
-      <c r="A617" s="19">
-        <v>616</v>
-      </c>
-      <c r="B617" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C617" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D617" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E617" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F617" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G617" s="19" t="s">
-        <v>685</v>
-      </c>
-      <c r="H617" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I617" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="J617" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K617" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L617" s="19"/>
-      <c r="M617" s="19">
-        <v>0</v>
-      </c>
-      <c r="N617" s="19">
-        <v>0</v>
-      </c>
-      <c r="O617" s="19"/>
-    </row>
-    <row r="618" spans="1:15">
-      <c r="A618" s="19">
-        <v>617</v>
-      </c>
-      <c r="B618" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C618" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D618" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E618" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F618" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G618" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H618" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I618" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J618" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="K618" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L618" s="19"/>
-      <c r="M618" s="19">
-        <v>0</v>
-      </c>
-      <c r="N618" s="19">
-        <v>0</v>
-      </c>
-      <c r="O618" s="19"/>
-    </row>
-    <row r="619" spans="1:15">
-      <c r="A619" s="19">
-        <v>618</v>
-      </c>
-      <c r="B619" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C619" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D619" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E619" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F619" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G619" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H619" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="I619" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="J619" s="21" t="s">
-        <v>712</v>
-      </c>
-      <c r="K619" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L619" s="19"/>
-      <c r="M619" s="19">
-        <v>0</v>
-      </c>
-      <c r="N619" s="19">
-        <v>0</v>
-      </c>
-      <c r="O619" s="19"/>
-    </row>
-    <row r="620" spans="1:15">
-      <c r="A620" s="19">
-        <v>619</v>
-      </c>
-      <c r="B620" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C620" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D620" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E620" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F620" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G620" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="H620" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="I620" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J620" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="K620" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="L620" s="19"/>
-      <c r="M620" s="19">
-        <v>0</v>
-      </c>
-      <c r="N620" s="19">
-        <v>0</v>
-      </c>
-      <c r="O620" s="19"/>
-    </row>
-    <row r="621" spans="1:15">
-      <c r="A621" s="19">
-        <v>620</v>
-      </c>
-      <c r="B621" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C621" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D621" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E621" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F621" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G621" s="19" t="s">
-        <v>684</v>
-      </c>
-      <c r="H621" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I621" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="J621" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="K621" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L621" s="19"/>
-      <c r="M621" s="19">
-        <v>0</v>
-      </c>
-      <c r="N621" s="19">
-        <v>0</v>
-      </c>
-      <c r="O621" s="19"/>
-    </row>
-    <row r="622" spans="1:15">
-      <c r="A622" s="19">
-        <v>621</v>
-      </c>
-      <c r="B622" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C622" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D622" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E622" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F622" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G622" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="H622" s="19" t="s">
-        <v>688</v>
-      </c>
-      <c r="I622" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J622" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="K622" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L622" s="19"/>
-      <c r="M622" s="19">
-        <v>0</v>
-      </c>
-      <c r="N622" s="19">
-        <v>0</v>
-      </c>
-      <c r="O622" s="19"/>
-    </row>
-    <row r="623" spans="1:15">
-      <c r="A623" s="19">
-        <v>622</v>
-      </c>
-      <c r="B623" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C623" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D623" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E623" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F623" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G623" s="19" t="s">
-        <v>683</v>
-      </c>
-      <c r="H623" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="I623" s="19" t="s">
-        <v>697</v>
-      </c>
-      <c r="J623" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="K623" s="19"/>
-      <c r="L623" s="19"/>
-      <c r="M623" s="19">
-        <v>0</v>
-      </c>
-      <c r="N623" s="19">
-        <v>0</v>
-      </c>
-      <c r="O623" s="19"/>
-    </row>
-    <row r="624" spans="1:15">
-      <c r="A624" s="19">
-        <v>623</v>
-      </c>
-      <c r="B624" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C624" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D624" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E624" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F624" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G624" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H624" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I624" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J624" s="21" t="s">
-        <v>710</v>
-      </c>
-      <c r="K624" s="19" t="s">
-        <v>715</v>
-      </c>
-      <c r="L624" s="19"/>
-      <c r="M624" s="19">
-        <v>0</v>
-      </c>
-      <c r="N624" s="19">
-        <v>0</v>
-      </c>
-      <c r="O624" s="19"/>
-    </row>
-    <row r="625" spans="1:15">
-      <c r="A625" s="19">
-        <v>624</v>
-      </c>
-      <c r="B625" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C625" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D625" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E625" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F625" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G625" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="H625" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I625" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="J625" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="K625" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L625" s="19"/>
-      <c r="M625" s="19">
-        <v>0</v>
-      </c>
-      <c r="N625" s="19">
-        <v>0</v>
-      </c>
-      <c r="O625" s="19"/>
-    </row>
-    <row r="626" spans="1:15">
-      <c r="A626" s="19">
-        <v>625</v>
-      </c>
-      <c r="B626" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C626" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D626" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E626" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F626" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G626" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H626" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="I626" s="19" t="s">
-        <v>699</v>
-      </c>
-      <c r="J626" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="K626" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="L626" s="19"/>
-      <c r="M626" s="19">
-        <v>0</v>
-      </c>
-      <c r="N626" s="19">
-        <v>0</v>
-      </c>
-      <c r="O626" s="19"/>
-    </row>
-    <row r="627" spans="1:15">
-      <c r="A627" s="19">
-        <v>626</v>
-      </c>
-      <c r="B627" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C627" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D627" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E627" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F627" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G627" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H627" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="I627" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J627" s="21" t="s">
-        <v>711</v>
-      </c>
-      <c r="K627" s="19"/>
-      <c r="L627" s="19"/>
-      <c r="M627" s="19">
-        <v>0</v>
-      </c>
-      <c r="N627" s="19">
-        <v>0</v>
-      </c>
-      <c r="O627" s="19"/>
-    </row>
-    <row r="628" spans="1:15">
-      <c r="A628" s="19">
-        <v>627</v>
-      </c>
-      <c r="B628" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C628" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D628" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E628" s="20">
-        <v>44109</v>
-      </c>
-      <c r="F628" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G628" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="H628" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I628" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J628" s="21" t="s">
-        <v>714</v>
-      </c>
-      <c r="K628" s="19"/>
-      <c r="L628" s="19"/>
-      <c r="M628" s="19">
-        <v>0</v>
-      </c>
-      <c r="N628" s="19">
-        <v>0</v>
-      </c>
-      <c r="O628" s="19"/>
-    </row>
-    <row r="629" spans="1:15">
-      <c r="A629" s="19">
-        <v>628</v>
-      </c>
-      <c r="B629" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C629" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D629" s="19"/>
-      <c r="E629" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F629" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G629" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="H629" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I629" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="J629" s="21" t="s">
-        <v>703</v>
-      </c>
-      <c r="K629" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="L629" s="19"/>
-      <c r="M629" s="19">
-        <v>0</v>
-      </c>
-      <c r="N629" s="19">
-        <v>0</v>
-      </c>
-      <c r="O629" s="19"/>
-    </row>
-    <row r="630" spans="1:15">
-      <c r="A630" s="19">
-        <v>629</v>
-      </c>
-      <c r="B630" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C630" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D630" s="19"/>
-      <c r="E630" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F630" s="20">
-        <v>44109</v>
-      </c>
-      <c r="G630" s="19" t="s">
-        <v>705</v>
-      </c>
-      <c r="H630" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="I630" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J630" s="21" t="s">
-        <v>704</v>
-      </c>
-      <c r="K630" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L630" s="19"/>
-      <c r="M630" s="19">
-        <v>0</v>
-      </c>
-      <c r="N630" s="19">
-        <v>0</v>
-      </c>
-      <c r="O630" s="19"/>
-    </row>
-    <row r="631" spans="1:15">
-      <c r="A631" s="19">
-        <v>630</v>
-      </c>
-      <c r="B631" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C631" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D631" s="19"/>
-      <c r="E631" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F631" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G631" s="19" t="s">
-        <v>706</v>
-      </c>
-      <c r="H631" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I631" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J631" s="21" t="s">
-        <v>707</v>
-      </c>
-      <c r="K631" s="19"/>
-      <c r="L631" s="19"/>
-      <c r="M631" s="19">
-        <v>0</v>
-      </c>
-      <c r="N631" s="19">
-        <v>0</v>
-      </c>
-      <c r="O631" s="19"/>
-    </row>
-    <row r="632" spans="1:15">
-      <c r="A632" s="19">
-        <v>631</v>
-      </c>
-      <c r="B632" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C632" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D632" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E632" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F632" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G632" s="19" t="s">
-        <v>708</v>
-      </c>
-      <c r="H632" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="I632" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J632" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="K632" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L632" s="19"/>
-      <c r="M632" s="19">
-        <v>0</v>
-      </c>
-      <c r="N632" s="19">
-        <v>0</v>
-      </c>
-      <c r="O632" s="19"/>
-    </row>
-    <row r="633" spans="1:15">
-      <c r="A633" s="19">
-        <v>632</v>
-      </c>
-      <c r="B633" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C633" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D633" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E633" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F633" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G633" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H633" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I633" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J633" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="K633" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L633" s="19"/>
-      <c r="M633" s="19">
-        <v>0</v>
-      </c>
-      <c r="N633" s="19">
-        <v>0</v>
-      </c>
-      <c r="O633" s="19"/>
-    </row>
-    <row r="634" spans="1:15">
-      <c r="A634" s="19">
-        <v>633</v>
-      </c>
-      <c r="B634" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C634" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D634" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E634" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F634" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G634" s="19" t="s">
-        <v>709</v>
-      </c>
-      <c r="H634" s="19" t="s">
-        <v>701</v>
-      </c>
-      <c r="I634" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J634" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="K634" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L634" s="19"/>
-      <c r="M634" s="19">
-        <v>0</v>
-      </c>
-      <c r="N634" s="19">
-        <v>0</v>
-      </c>
-      <c r="O634" s="19"/>
-    </row>
-    <row r="635" spans="1:15">
-      <c r="A635" s="19">
-        <v>634</v>
-      </c>
-      <c r="B635" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C635" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D635" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E635" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F635" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G635" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H635" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I635" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="J635" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="K635" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L635" s="19"/>
-      <c r="M635" s="19">
-        <v>0</v>
-      </c>
-      <c r="N635" s="19">
-        <v>0</v>
-      </c>
-      <c r="O635" s="19"/>
-    </row>
-    <row r="636" spans="1:15">
-      <c r="A636" s="19">
-        <v>635</v>
-      </c>
-      <c r="B636" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C636" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D636" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E636" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F636" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G636" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H636" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I636" s="19" t="s">
-        <v>698</v>
-      </c>
-      <c r="J636" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="K636" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L636" s="19"/>
-      <c r="M636" s="19">
-        <v>0</v>
-      </c>
-      <c r="N636" s="19">
-        <v>0</v>
-      </c>
-      <c r="O636" s="19"/>
-    </row>
-    <row r="637" spans="1:15">
-      <c r="A637" s="19">
-        <v>636</v>
-      </c>
-      <c r="B637" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C637" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D637" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E637" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F637" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G637" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="H637" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="I637" s="19" t="s">
-        <v>702</v>
-      </c>
-      <c r="J637" s="21" t="s">
-        <v>730</v>
-      </c>
-      <c r="K637" s="19" t="s">
-        <v>728</v>
-      </c>
-      <c r="L637" s="19"/>
-      <c r="M637" s="19">
-        <v>0</v>
-      </c>
-      <c r="N637" s="19">
-        <v>0</v>
-      </c>
-      <c r="O637" s="19"/>
-    </row>
-    <row r="638" spans="1:15">
-      <c r="A638" s="19">
-        <v>637</v>
-      </c>
-      <c r="B638" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C638" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D638" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E638" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F638" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G638" s="19" t="s">
-        <v>718</v>
-      </c>
-      <c r="H638" s="19" t="s">
-        <v>721</v>
-      </c>
-      <c r="I638" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="J638" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="K638" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="L638" s="19"/>
-      <c r="M638" s="19">
-        <v>0</v>
-      </c>
-      <c r="N638" s="19">
-        <v>0</v>
-      </c>
-      <c r="O638" s="19"/>
-    </row>
-    <row r="639" spans="1:15">
-      <c r="A639" s="19">
-        <v>638</v>
-      </c>
-      <c r="B639" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C639" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D639" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E639" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F639" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G639" s="19" t="s">
-        <v>719</v>
-      </c>
-      <c r="H639" s="19" t="s">
-        <v>722</v>
-      </c>
-      <c r="I639" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J639" s="21" t="s">
-        <v>729</v>
-      </c>
-      <c r="K639" s="22" t="s">
-        <v>728</v>
-      </c>
-      <c r="L639" s="19"/>
-      <c r="M639" s="19">
-        <v>0</v>
-      </c>
-      <c r="N639" s="19">
-        <v>0</v>
-      </c>
-      <c r="O639" s="19"/>
-    </row>
-    <row r="640" spans="1:15">
-      <c r="A640" s="19">
-        <v>639</v>
-      </c>
-      <c r="B640" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C640" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D640" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E640" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F640" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G640" s="19" t="s">
-        <v>720</v>
-      </c>
-      <c r="H640" s="19" t="s">
-        <v>723</v>
-      </c>
-      <c r="I640" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J640" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="K640" s="19" t="s">
-        <v>743</v>
-      </c>
-      <c r="L640" s="19"/>
-      <c r="M640" s="19">
-        <v>0</v>
-      </c>
-      <c r="N640" s="19">
-        <v>0</v>
-      </c>
-      <c r="O640" s="19"/>
-    </row>
-    <row r="641" spans="1:15">
-      <c r="A641" s="19">
-        <v>640</v>
-      </c>
-      <c r="B641" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C641" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D641" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E641" s="20">
-        <v>44110</v>
-      </c>
-      <c r="F641" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G641" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H641" s="19" t="s">
-        <v>716</v>
-      </c>
-      <c r="I641" s="19" t="s">
-        <v>717</v>
-      </c>
-      <c r="J641" s="21" t="s">
-        <v>731</v>
-      </c>
-      <c r="K641" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L641" s="19"/>
-      <c r="M641" s="19">
-        <v>0</v>
-      </c>
-      <c r="N641" s="19">
-        <v>0</v>
-      </c>
-      <c r="O641" s="19"/>
-    </row>
-    <row r="642" spans="1:15">
-      <c r="A642" s="19">
-        <v>641</v>
-      </c>
-      <c r="B642" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C642" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D642" s="19"/>
-      <c r="E642" s="20">
-        <v>44111</v>
-      </c>
-      <c r="F642" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G642" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="H642" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I642" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J642" s="21" t="s">
-        <v>726</v>
-      </c>
-      <c r="K642" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L642" s="19"/>
-      <c r="M642" s="19">
-        <v>0</v>
-      </c>
-      <c r="N642" s="19">
-        <v>0</v>
-      </c>
-      <c r="O642" s="19"/>
-    </row>
-    <row r="643" spans="1:15">
-      <c r="A643" s="19">
-        <v>642</v>
-      </c>
-      <c r="B643" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C643" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D643" s="19"/>
-      <c r="E643" s="20">
-        <v>44111</v>
-      </c>
-      <c r="F643" s="20">
-        <v>44110</v>
-      </c>
-      <c r="G643" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="H643" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I643" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J643" s="21" t="s">
-        <v>727</v>
-      </c>
-      <c r="K643" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L643" s="19"/>
-      <c r="M643" s="19">
-        <v>0</v>
-      </c>
-      <c r="N643" s="19">
-        <v>0</v>
-      </c>
-      <c r="O643" s="19"/>
-    </row>
-    <row r="644" spans="1:15">
-      <c r="A644" s="19">
-        <v>643</v>
-      </c>
-      <c r="B644" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C644" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D644" s="19"/>
-      <c r="E644" s="20">
-        <v>44111</v>
-      </c>
-      <c r="F644" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G644" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="H644" s="19" t="s">
-        <v>733</v>
-      </c>
-      <c r="I644" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="J644" s="21"/>
-      <c r="K644" s="19" t="s">
-        <v>641</v>
-      </c>
-      <c r="L644" s="19"/>
-      <c r="M644" s="19">
-        <v>0</v>
-      </c>
-      <c r="N644" s="19">
-        <v>0</v>
-      </c>
-      <c r="O644" s="19"/>
-    </row>
-    <row r="645" spans="1:15">
-      <c r="A645" s="19">
-        <v>644</v>
-      </c>
-      <c r="B645" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C645" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D645" s="19"/>
-      <c r="E645" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F645" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G645" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="H645" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I645" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J645" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K645" s="19"/>
-      <c r="L645" s="19"/>
-      <c r="M645" s="19">
-        <v>0</v>
-      </c>
-      <c r="N645" s="19">
-        <v>0</v>
-      </c>
-      <c r="O645" s="19"/>
-    </row>
-    <row r="646" spans="1:15">
-      <c r="A646" s="19">
-        <v>645</v>
-      </c>
-      <c r="B646" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C646" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D646" s="19"/>
-      <c r="E646" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F646" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G646" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="H646" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I646" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J646" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K646" s="19"/>
-      <c r="L646" s="19"/>
-      <c r="M646" s="19">
-        <v>0</v>
-      </c>
-      <c r="N646" s="19">
-        <v>0</v>
-      </c>
-      <c r="O646" s="19"/>
-    </row>
-    <row r="647" spans="1:15">
-      <c r="A647" s="19">
-        <v>646</v>
-      </c>
-      <c r="B647" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C647" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D647" s="19"/>
-      <c r="E647" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F647" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G647" s="19" t="s">
-        <v>700</v>
-      </c>
-      <c r="H647" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I647" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J647" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K647" s="19"/>
-      <c r="L647" s="19"/>
-      <c r="M647" s="19">
-        <v>0</v>
-      </c>
-      <c r="N647" s="19">
-        <v>0</v>
-      </c>
-      <c r="O647" s="19"/>
-    </row>
-    <row r="648" spans="1:15">
-      <c r="A648" s="19">
-        <v>647</v>
-      </c>
-      <c r="B648" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C648" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D648" s="19"/>
-      <c r="E648" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F648" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G648" s="19" t="s">
-        <v>642</v>
-      </c>
-      <c r="H648" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I648" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J648" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K648" s="19"/>
-      <c r="L648" s="19"/>
-      <c r="M648" s="19">
-        <v>0</v>
-      </c>
-      <c r="N648" s="19">
-        <v>0</v>
-      </c>
-      <c r="O648" s="19"/>
-    </row>
-    <row r="649" spans="1:15">
-      <c r="A649" s="19">
-        <v>648</v>
-      </c>
-      <c r="B649" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C649" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D649" s="19"/>
-      <c r="E649" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F649" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G649" s="19" t="s">
-        <v>725</v>
-      </c>
-      <c r="H649" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I649" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J649" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K649" s="19"/>
-      <c r="L649" s="19"/>
-      <c r="M649" s="19">
-        <v>0</v>
-      </c>
-      <c r="N649" s="19">
-        <v>0</v>
-      </c>
-      <c r="O649" s="19"/>
-    </row>
-    <row r="650" spans="1:15">
-      <c r="A650" s="19">
-        <v>649</v>
-      </c>
-      <c r="B650" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C650" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D650" s="19"/>
-      <c r="E650" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F650" s="20">
-        <v>44111</v>
-      </c>
-      <c r="G650" s="19" t="s">
-        <v>735</v>
-      </c>
-      <c r="H650" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="I650" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J650" s="21" t="s">
-        <v>734</v>
-      </c>
-      <c r="K650" s="19"/>
-      <c r="L650" s="19"/>
-      <c r="M650" s="19">
-        <v>0</v>
-      </c>
-      <c r="N650" s="19">
-        <v>0</v>
-      </c>
-      <c r="O650" s="19"/>
-    </row>
-    <row r="651" spans="1:15">
-      <c r="A651" s="19">
-        <v>650</v>
-      </c>
-      <c r="B651" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C651" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D651" s="19"/>
-      <c r="E651" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F651" s="20">
-        <v>44112</v>
-      </c>
-      <c r="G651" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="H651" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I651" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="J651" s="21" t="s">
-        <v>736</v>
-      </c>
-      <c r="K651" s="19"/>
-      <c r="L651" s="19"/>
-      <c r="M651" s="19">
-        <v>0</v>
-      </c>
-      <c r="N651" s="19">
-        <v>0</v>
-      </c>
-      <c r="O651" s="19"/>
-    </row>
-    <row r="652" spans="1:15">
-      <c r="A652" s="19">
-        <v>651</v>
-      </c>
-      <c r="B652" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C652" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D652" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E652" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F652" s="20">
-        <v>44112</v>
-      </c>
-      <c r="G652" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="H652" s="19" t="s">
-        <v>741</v>
-      </c>
-      <c r="I652" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J652" s="21"/>
-      <c r="K652" s="19"/>
-      <c r="L652" s="19"/>
-      <c r="M652" s="19">
-        <v>0</v>
-      </c>
-      <c r="N652" s="19">
-        <v>0</v>
-      </c>
-      <c r="O652" s="19"/>
-    </row>
-    <row r="653" spans="1:15">
-      <c r="A653" s="19">
-        <v>652</v>
-      </c>
-      <c r="B653" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C653" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D653" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E653" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F653" s="20">
-        <v>44112</v>
-      </c>
-      <c r="G653" s="19" t="s">
-        <v>740</v>
-      </c>
-      <c r="H653" s="19" t="s">
-        <v>742</v>
-      </c>
-      <c r="I653" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="J653" s="21"/>
-      <c r="K653" s="19"/>
-      <c r="L653" s="19"/>
-      <c r="M653" s="19">
-        <v>0</v>
-      </c>
-      <c r="N653" s="19">
-        <v>0</v>
-      </c>
-      <c r="O653" s="19"/>
-    </row>
-    <row r="654" spans="1:15">
-      <c r="A654" s="19">
-        <v>653</v>
-      </c>
-      <c r="B654" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C654" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D654" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="E654" s="20">
-        <v>44112</v>
-      </c>
-      <c r="F654" s="20">
-        <v>44112</v>
-      </c>
-      <c r="G654" s="19" t="s">
-        <v>739</v>
-      </c>
-      <c r="H654" s="19" t="s">
-        <v>737</v>
-      </c>
-      <c r="I654" s="19" t="s">
-        <v>738</v>
-      </c>
-      <c r="J654" s="21"/>
-      <c r="K654" s="19"/>
-      <c r="L654" s="19"/>
-      <c r="M654" s="19">
-        <v>0</v>
-      </c>
-      <c r="N654" s="19">
-        <v>0</v>
-      </c>
-      <c r="O654" s="19"/>
+      <c r="E675" s="6">
+        <v>44113</v>
+      </c>
+      <c r="F675" s="6">
+        <v>44113</v>
+      </c>
+      <c r="G675" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="H675" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="I675" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="J675" s="27"/>
+      <c r="K675" s="26"/>
+      <c r="L675" s="26"/>
+      <c r="M675" s="26">
+        <v>0</v>
+      </c>
+      <c r="N675" s="26">
+        <v>0</v>
+      </c>
+      <c r="O675" s="26"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O654"/>
+  <autoFilter ref="A1:O675"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="9150" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$675</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$684</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3749" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="800">
   <si>
     <t>No</t>
   </si>
@@ -5887,6 +5887,256 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女</t>
+    <rPh sb="0" eb="1">
+      <t>オンナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男</t>
+    <rPh sb="0" eb="1">
+      <t>オトコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>運送業</t>
+    <rPh sb="0" eb="3">
+      <t>ウンソウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5898,7 +6148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5961,6 +6211,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -6065,7 +6322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6120,8 +6377,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6412,13 +6668,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O675"/>
+  <dimension ref="A1:O684"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B655" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B670" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A675" sqref="A675"/>
+      <selection pane="bottomRight" activeCell="G680" sqref="G680"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -29440,15 +29696,13 @@
       <c r="J577" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="K577" s="19" t="s">
-        <v>641</v>
-      </c>
+      <c r="K577" s="19"/>
       <c r="L577" s="19"/>
       <c r="M577" s="19">
         <v>0</v>
       </c>
       <c r="N577" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O577" s="19"/>
     </row>
@@ -29484,7 +29738,7 @@
         <v>43</v>
       </c>
       <c r="K578" s="19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L578" s="19"/>
       <c r="M578" s="19">
@@ -29527,7 +29781,7 @@
         <v>43</v>
       </c>
       <c r="K579" s="19" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="L579" s="19"/>
       <c r="M579" s="19">
@@ -29709,3787 +29963,4200 @@
       <c r="O583" s="19"/>
     </row>
     <row r="584" spans="1:15">
-      <c r="A584" s="26">
+      <c r="A584" s="19">
         <v>583</v>
       </c>
-      <c r="B584" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C584" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" s="26"/>
-      <c r="E584" s="6">
+      <c r="B584" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C584" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" s="19"/>
+      <c r="E584" s="20">
         <v>44107</v>
       </c>
-      <c r="F584" s="6">
+      <c r="F584" s="20">
         <v>44107</v>
       </c>
-      <c r="G584" s="26" t="s">
+      <c r="G584" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H584" s="26" t="s">
+      <c r="H584" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="I584" s="26" t="s">
+      <c r="I584" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J584" s="27" t="s">
+      <c r="J584" s="21" t="s">
         <v>650</v>
       </c>
-      <c r="K584" s="26" t="s">
+      <c r="K584" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="L584" s="26"/>
-      <c r="M584" s="26">
-        <v>0</v>
-      </c>
-      <c r="N584" s="26">
-        <v>0</v>
-      </c>
-      <c r="O584" s="26"/>
+      <c r="L584" s="19"/>
+      <c r="M584" s="19">
+        <v>0</v>
+      </c>
+      <c r="N584" s="19">
+        <v>0</v>
+      </c>
+      <c r="O584" s="19"/>
     </row>
     <row r="585" spans="1:15">
-      <c r="A585" s="26">
+      <c r="A585" s="19">
         <v>584</v>
       </c>
-      <c r="B585" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C585" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D585" s="26"/>
-      <c r="E585" s="6">
+      <c r="B585" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C585" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D585" s="19"/>
+      <c r="E585" s="20">
         <v>44107</v>
       </c>
-      <c r="F585" s="6">
+      <c r="F585" s="20">
         <v>44107</v>
       </c>
-      <c r="G585" s="26" t="s">
+      <c r="G585" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="H585" s="26" t="s">
+      <c r="H585" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="I585" s="26" t="s">
+      <c r="I585" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J585" s="27" t="s">
+      <c r="J585" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="K585" s="26" t="s">
+      <c r="K585" s="19" t="s">
         <v>643</v>
       </c>
-      <c r="L585" s="26"/>
-      <c r="M585" s="26">
-        <v>0</v>
-      </c>
-      <c r="N585" s="26">
-        <v>0</v>
-      </c>
-      <c r="O585" s="26"/>
+      <c r="L585" s="19"/>
+      <c r="M585" s="19">
+        <v>0</v>
+      </c>
+      <c r="N585" s="19">
+        <v>0</v>
+      </c>
+      <c r="O585" s="19"/>
     </row>
     <row r="586" spans="1:15">
-      <c r="A586" s="26">
+      <c r="A586" s="19">
         <v>585</v>
       </c>
-      <c r="B586" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C586" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D586" s="26" t="s">
+      <c r="B586" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C586" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D586" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E586" s="6">
+      <c r="E586" s="20">
         <v>44107</v>
       </c>
-      <c r="F586" s="6">
+      <c r="F586" s="20">
         <v>44107</v>
       </c>
-      <c r="G586" s="26" t="s">
+      <c r="G586" s="19" t="s">
         <v>656</v>
       </c>
-      <c r="H586" s="26" t="s">
+      <c r="H586" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="I586" s="26" t="s">
+      <c r="I586" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J586" s="27" t="s">
+      <c r="J586" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="K586" s="26" t="s">
+      <c r="K586" s="19"/>
+      <c r="L586" s="19"/>
+      <c r="M586" s="19">
+        <v>0</v>
+      </c>
+      <c r="N586" s="19">
+        <v>1</v>
+      </c>
+      <c r="O586" s="19"/>
+    </row>
+    <row r="587" spans="1:15">
+      <c r="A587" s="19">
+        <v>586</v>
+      </c>
+      <c r="B587" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C587" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D587" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E587" s="20">
+        <v>44107</v>
+      </c>
+      <c r="F587" s="20">
+        <v>44107</v>
+      </c>
+      <c r="G587" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="H587" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I587" s="19" t="s">
+        <v>658</v>
+      </c>
+      <c r="J587" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="K587" s="19"/>
+      <c r="L587" s="19"/>
+      <c r="M587" s="19">
+        <v>0</v>
+      </c>
+      <c r="N587" s="19">
+        <v>1</v>
+      </c>
+      <c r="O587" s="19"/>
+    </row>
+    <row r="588" spans="1:15">
+      <c r="A588" s="19">
+        <v>587</v>
+      </c>
+      <c r="B588" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C588" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D588" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E588" s="20">
+        <v>44107</v>
+      </c>
+      <c r="F588" s="20">
+        <v>44107</v>
+      </c>
+      <c r="G588" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H588" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I588" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J588" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="K588" s="19"/>
+      <c r="L588" s="19"/>
+      <c r="M588" s="19">
+        <v>0</v>
+      </c>
+      <c r="N588" s="19">
+        <v>1</v>
+      </c>
+      <c r="O588" s="19"/>
+    </row>
+    <row r="589" spans="1:15">
+      <c r="A589" s="19">
+        <v>588</v>
+      </c>
+      <c r="B589" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C589" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D589" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E589" s="20">
+        <v>44107</v>
+      </c>
+      <c r="F589" s="20">
+        <v>44107</v>
+      </c>
+      <c r="G589" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H589" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I589" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J589" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="K589" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="L586" s="26"/>
-      <c r="M586" s="26">
-        <v>0</v>
-      </c>
-      <c r="N586" s="26">
-        <v>0</v>
-      </c>
-      <c r="O586" s="26"/>
-    </row>
-    <row r="587" spans="1:15">
-      <c r="A587" s="26">
-        <v>586</v>
-      </c>
-      <c r="B587" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C587" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D587" s="26" t="s">
+      <c r="L589" s="19"/>
+      <c r="M589" s="19">
+        <v>0</v>
+      </c>
+      <c r="N589" s="19">
+        <v>0</v>
+      </c>
+      <c r="O589" s="19"/>
+    </row>
+    <row r="590" spans="1:15">
+      <c r="A590" s="19">
+        <v>589</v>
+      </c>
+      <c r="B590" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C590" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D590" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E587" s="6">
+      <c r="E590" s="20">
         <v>44107</v>
       </c>
-      <c r="F587" s="6">
+      <c r="F590" s="20">
         <v>44107</v>
       </c>
-      <c r="G587" s="26" t="s">
+      <c r="G590" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="H590" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I590" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J590" s="21" t="s">
+        <v>672</v>
+      </c>
+      <c r="K590" s="19"/>
+      <c r="L590" s="19"/>
+      <c r="M590" s="19">
+        <v>0</v>
+      </c>
+      <c r="N590" s="19">
+        <v>0</v>
+      </c>
+      <c r="O590" s="19"/>
+    </row>
+    <row r="591" spans="1:15">
+      <c r="A591" s="19">
+        <v>590</v>
+      </c>
+      <c r="B591" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C591" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D591" s="19"/>
+      <c r="E591" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F591" s="20">
+        <v>44107</v>
+      </c>
+      <c r="G591" s="19" t="s">
+        <v>659</v>
+      </c>
+      <c r="H591" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I591" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J591" s="21" t="s">
+        <v>670</v>
+      </c>
+      <c r="K591" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L591" s="19"/>
+      <c r="M591" s="19">
+        <v>0</v>
+      </c>
+      <c r="N591" s="19">
+        <v>0</v>
+      </c>
+      <c r="O591" s="19"/>
+    </row>
+    <row r="592" spans="1:15">
+      <c r="A592" s="19">
+        <v>591</v>
+      </c>
+      <c r="B592" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C592" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D592" s="19"/>
+      <c r="E592" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F592" s="20">
+        <v>44107</v>
+      </c>
+      <c r="G592" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="H592" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I592" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J592" s="21" t="s">
+        <v>671</v>
+      </c>
+      <c r="K592" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L592" s="19"/>
+      <c r="M592" s="19">
+        <v>0</v>
+      </c>
+      <c r="N592" s="19">
+        <v>0</v>
+      </c>
+      <c r="O592" s="19"/>
+    </row>
+    <row r="593" spans="1:15">
+      <c r="A593" s="19">
+        <v>592</v>
+      </c>
+      <c r="B593" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C593" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D593" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E593" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F593" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G593" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H593" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I593" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J593" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K593" s="19"/>
+      <c r="L593" s="19"/>
+      <c r="M593" s="19">
+        <v>0</v>
+      </c>
+      <c r="N593" s="19">
+        <v>0</v>
+      </c>
+      <c r="O593" s="19"/>
+    </row>
+    <row r="594" spans="1:15">
+      <c r="A594" s="19">
+        <v>593</v>
+      </c>
+      <c r="B594" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C594" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D594" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E594" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F594" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G594" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H594" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I594" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J594" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="K594" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="L594" s="19"/>
+      <c r="M594" s="19">
+        <v>0</v>
+      </c>
+      <c r="N594" s="19">
+        <v>0</v>
+      </c>
+      <c r="O594" s="19"/>
+    </row>
+    <row r="595" spans="1:15">
+      <c r="A595" s="19">
+        <v>594</v>
+      </c>
+      <c r="B595" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C595" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D595" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E595" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F595" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G595" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H595" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I595" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J595" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K595" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="L595" s="19"/>
+      <c r="M595" s="19">
+        <v>0</v>
+      </c>
+      <c r="N595" s="19">
+        <v>0</v>
+      </c>
+      <c r="O595" s="19"/>
+    </row>
+    <row r="596" spans="1:15">
+      <c r="A596" s="19">
+        <v>595</v>
+      </c>
+      <c r="B596" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C596" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D596" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E596" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F596" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G596" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H596" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I596" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J596" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K596" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="L596" s="19"/>
+      <c r="M596" s="19">
+        <v>0</v>
+      </c>
+      <c r="N596" s="19">
+        <v>0</v>
+      </c>
+      <c r="O596" s="19"/>
+    </row>
+    <row r="597" spans="1:15">
+      <c r="A597" s="19">
+        <v>596</v>
+      </c>
+      <c r="B597" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C597" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D597" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E597" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F597" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G597" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H597" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I597" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J597" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K597" s="19"/>
+      <c r="L597" s="19"/>
+      <c r="M597" s="19">
+        <v>0</v>
+      </c>
+      <c r="N597" s="19">
+        <v>1</v>
+      </c>
+      <c r="O597" s="19"/>
+    </row>
+    <row r="598" spans="1:15">
+      <c r="A598" s="19">
+        <v>597</v>
+      </c>
+      <c r="B598" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C598" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D598" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E598" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F598" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G598" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H598" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I598" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J598" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K598" s="19"/>
+      <c r="L598" s="19"/>
+      <c r="M598" s="19">
+        <v>0</v>
+      </c>
+      <c r="N598" s="19">
+        <v>0</v>
+      </c>
+      <c r="O598" s="19"/>
+    </row>
+    <row r="599" spans="1:15">
+      <c r="A599" s="19">
+        <v>598</v>
+      </c>
+      <c r="B599" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C599" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D599" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E599" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F599" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G599" s="19" t="s">
+        <v>664</v>
+      </c>
+      <c r="H599" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I599" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J599" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K599" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L599" s="19"/>
+      <c r="M599" s="19">
+        <v>0</v>
+      </c>
+      <c r="N599" s="19">
+        <v>0</v>
+      </c>
+      <c r="O599" s="19"/>
+    </row>
+    <row r="600" spans="1:15">
+      <c r="A600" s="19">
+        <v>599</v>
+      </c>
+      <c r="B600" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C600" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D600" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E600" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F600" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G600" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H600" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I600" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J600" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K600" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L600" s="19"/>
+      <c r="M600" s="19">
+        <v>0</v>
+      </c>
+      <c r="N600" s="19">
+        <v>0</v>
+      </c>
+      <c r="O600" s="19"/>
+    </row>
+    <row r="601" spans="1:15">
+      <c r="A601" s="19">
+        <v>600</v>
+      </c>
+      <c r="B601" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C601" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E601" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F601" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G601" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H601" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I601" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J601" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K601" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L601" s="19"/>
+      <c r="M601" s="19">
+        <v>0</v>
+      </c>
+      <c r="N601" s="19">
+        <v>0</v>
+      </c>
+      <c r="O601" s="19"/>
+    </row>
+    <row r="602" spans="1:15">
+      <c r="A602" s="19">
+        <v>601</v>
+      </c>
+      <c r="B602" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C602" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D602" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E602" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F602" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G602" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H602" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I602" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J602" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K602" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L602" s="19"/>
+      <c r="M602" s="19">
+        <v>0</v>
+      </c>
+      <c r="N602" s="19">
+        <v>0</v>
+      </c>
+      <c r="O602" s="19"/>
+    </row>
+    <row r="603" spans="1:15">
+      <c r="A603" s="19">
+        <v>602</v>
+      </c>
+      <c r="B603" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C603" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D603" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E603" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F603" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G603" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H603" s="19" t="s">
+        <v>669</v>
+      </c>
+      <c r="I603" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J603" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K603" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L603" s="19"/>
+      <c r="M603" s="19">
+        <v>0</v>
+      </c>
+      <c r="N603" s="19">
+        <v>0</v>
+      </c>
+      <c r="O603" s="19"/>
+    </row>
+    <row r="604" spans="1:15">
+      <c r="A604" s="19">
+        <v>603</v>
+      </c>
+      <c r="B604" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C604" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D604" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E604" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F604" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G604" s="19" t="s">
+        <v>665</v>
+      </c>
+      <c r="H604" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I604" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J604" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K604" s="19"/>
+      <c r="L604" s="19"/>
+      <c r="M604" s="19">
+        <v>0</v>
+      </c>
+      <c r="N604" s="19">
+        <v>1</v>
+      </c>
+      <c r="O604" s="19"/>
+    </row>
+    <row r="605" spans="1:15">
+      <c r="A605" s="19">
+        <v>604</v>
+      </c>
+      <c r="B605" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C605" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D605" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E605" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F605" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G605" s="19" t="s">
+        <v>663</v>
+      </c>
+      <c r="H605" s="19" t="s">
+        <v>668</v>
+      </c>
+      <c r="I605" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J605" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K605" s="19"/>
+      <c r="L605" s="19"/>
+      <c r="M605" s="19">
+        <v>0</v>
+      </c>
+      <c r="N605" s="19">
+        <v>1</v>
+      </c>
+      <c r="O605" s="19"/>
+    </row>
+    <row r="606" spans="1:15">
+      <c r="A606" s="19">
+        <v>605</v>
+      </c>
+      <c r="B606" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C606" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D606" s="19" t="s">
+        <v>662</v>
+      </c>
+      <c r="E606" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F606" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G606" s="19" t="s">
+        <v>666</v>
+      </c>
+      <c r="H606" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I606" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J606" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K606" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L606" s="19"/>
+      <c r="M606" s="19">
+        <v>0</v>
+      </c>
+      <c r="N606" s="19">
+        <v>0</v>
+      </c>
+      <c r="O606" s="19"/>
+    </row>
+    <row r="607" spans="1:15">
+      <c r="A607" s="19">
+        <v>606</v>
+      </c>
+      <c r="B607" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C607" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="19"/>
+      <c r="E607" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F607" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G607" s="19" t="s">
+        <v>660</v>
+      </c>
+      <c r="H607" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="I607" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J607" s="21" t="s">
+        <v>674</v>
+      </c>
+      <c r="K607" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="L607" s="19"/>
+      <c r="M607" s="19">
+        <v>0</v>
+      </c>
+      <c r="N607" s="19">
+        <v>0</v>
+      </c>
+      <c r="O607" s="19"/>
+    </row>
+    <row r="608" spans="1:15">
+      <c r="A608" s="19">
+        <v>607</v>
+      </c>
+      <c r="B608" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C608" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D608" s="19"/>
+      <c r="E608" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F608" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G608" s="19" t="s">
+        <v>661</v>
+      </c>
+      <c r="H608" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I608" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J608" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K608" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="L608" s="19"/>
+      <c r="M608" s="19">
+        <v>0</v>
+      </c>
+      <c r="N608" s="19">
+        <v>0</v>
+      </c>
+      <c r="O608" s="19"/>
+    </row>
+    <row r="609" spans="1:15">
+      <c r="A609" s="19">
+        <v>608</v>
+      </c>
+      <c r="B609" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C609" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D609" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E609" s="20">
+        <v>44108</v>
+      </c>
+      <c r="F609" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G609" s="19" t="s">
+        <v>667</v>
+      </c>
+      <c r="H609" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I609" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J609" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="K609" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L609" s="19"/>
+      <c r="M609" s="19">
+        <v>0</v>
+      </c>
+      <c r="N609" s="19">
+        <v>0</v>
+      </c>
+      <c r="O609" s="19"/>
+    </row>
+    <row r="610" spans="1:15">
+      <c r="A610" s="19">
+        <v>609</v>
+      </c>
+      <c r="B610" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C610" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D610" s="19"/>
+      <c r="E610" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F610" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G610" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="H610" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I610" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J610" s="21" t="s">
+        <v>680</v>
+      </c>
+      <c r="K610" s="19"/>
+      <c r="L610" s="19"/>
+      <c r="M610" s="19">
+        <v>0</v>
+      </c>
+      <c r="N610" s="19">
+        <v>1</v>
+      </c>
+      <c r="O610" s="19"/>
+    </row>
+    <row r="611" spans="1:15">
+      <c r="A611" s="19">
+        <v>610</v>
+      </c>
+      <c r="B611" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C611" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D611" s="19"/>
+      <c r="E611" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F611" s="20">
+        <v>44108</v>
+      </c>
+      <c r="G611" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="H611" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I611" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J611" s="21" t="s">
+        <v>681</v>
+      </c>
+      <c r="K611" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L611" s="19"/>
+      <c r="M611" s="19">
+        <v>0</v>
+      </c>
+      <c r="N611" s="19">
+        <v>0</v>
+      </c>
+      <c r="O611" s="19"/>
+    </row>
+    <row r="612" spans="1:15">
+      <c r="A612" s="19">
+        <v>611</v>
+      </c>
+      <c r="B612" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C612" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D612" s="19"/>
+      <c r="E612" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F612" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G612" s="19" t="s">
+        <v>682</v>
+      </c>
+      <c r="H612" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I612" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J612" s="21" t="s">
+        <v>678</v>
+      </c>
+      <c r="K612" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="L612" s="19"/>
+      <c r="M612" s="19">
+        <v>0</v>
+      </c>
+      <c r="N612" s="19">
+        <v>0</v>
+      </c>
+      <c r="O612" s="19"/>
+    </row>
+    <row r="613" spans="1:15">
+      <c r="A613" s="19">
+        <v>612</v>
+      </c>
+      <c r="B613" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C613" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D613" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E613" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F613" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G613" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H613" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I613" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="J613" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="K613" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L613" s="19"/>
+      <c r="M613" s="19">
+        <v>0</v>
+      </c>
+      <c r="N613" s="19">
+        <v>0</v>
+      </c>
+      <c r="O613" s="19"/>
+    </row>
+    <row r="614" spans="1:15">
+      <c r="A614" s="19">
+        <v>613</v>
+      </c>
+      <c r="B614" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C614" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E614" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F614" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G614" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H614" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I614" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J614" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="K614" s="19"/>
+      <c r="L614" s="19"/>
+      <c r="M614" s="19">
+        <v>0</v>
+      </c>
+      <c r="N614" s="19">
+        <v>1</v>
+      </c>
+      <c r="O614" s="19"/>
+    </row>
+    <row r="615" spans="1:15">
+      <c r="A615" s="19">
+        <v>614</v>
+      </c>
+      <c r="B615" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C615" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D615" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E615" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F615" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G615" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H615" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I615" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J615" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="K615" s="19"/>
+      <c r="L615" s="19"/>
+      <c r="M615" s="19">
+        <v>0</v>
+      </c>
+      <c r="N615" s="19">
+        <v>1</v>
+      </c>
+      <c r="O615" s="19"/>
+    </row>
+    <row r="616" spans="1:15">
+      <c r="A616" s="19">
+        <v>615</v>
+      </c>
+      <c r="B616" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C616" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D616" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E616" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F616" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G616" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H616" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I616" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="J616" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K616" s="19"/>
+      <c r="L616" s="19"/>
+      <c r="M616" s="19">
+        <v>0</v>
+      </c>
+      <c r="N616" s="19">
+        <v>1</v>
+      </c>
+      <c r="O616" s="19"/>
+    </row>
+    <row r="617" spans="1:15">
+      <c r="A617" s="19">
+        <v>616</v>
+      </c>
+      <c r="B617" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C617" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E617" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F617" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G617" s="19" t="s">
+        <v>685</v>
+      </c>
+      <c r="H617" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I617" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="J617" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K617" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L617" s="19"/>
+      <c r="M617" s="19">
+        <v>0</v>
+      </c>
+      <c r="N617" s="19">
+        <v>0</v>
+      </c>
+      <c r="O617" s="19"/>
+    </row>
+    <row r="618" spans="1:15">
+      <c r="A618" s="19">
+        <v>617</v>
+      </c>
+      <c r="B618" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C618" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E618" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F618" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G618" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H618" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I618" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J618" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="K618" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L618" s="19"/>
+      <c r="M618" s="19">
+        <v>0</v>
+      </c>
+      <c r="N618" s="19">
+        <v>0</v>
+      </c>
+      <c r="O618" s="19"/>
+    </row>
+    <row r="619" spans="1:15">
+      <c r="A619" s="19">
+        <v>618</v>
+      </c>
+      <c r="B619" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C619" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D619" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E619" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F619" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G619" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H619" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="I619" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="J619" s="21" t="s">
+        <v>712</v>
+      </c>
+      <c r="K619" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L619" s="19"/>
+      <c r="M619" s="19">
+        <v>0</v>
+      </c>
+      <c r="N619" s="19">
+        <v>0</v>
+      </c>
+      <c r="O619" s="19"/>
+    </row>
+    <row r="620" spans="1:15">
+      <c r="A620" s="19">
+        <v>619</v>
+      </c>
+      <c r="B620" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C620" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D620" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E620" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F620" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G620" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="H620" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="I620" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J620" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="K620" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="L620" s="19"/>
+      <c r="M620" s="19">
+        <v>0</v>
+      </c>
+      <c r="N620" s="19">
+        <v>0</v>
+      </c>
+      <c r="O620" s="19"/>
+    </row>
+    <row r="621" spans="1:15">
+      <c r="A621" s="19">
+        <v>620</v>
+      </c>
+      <c r="B621" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C621" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D621" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E621" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F621" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G621" s="19" t="s">
+        <v>684</v>
+      </c>
+      <c r="H621" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I621" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="J621" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K621" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L621" s="19"/>
+      <c r="M621" s="19">
+        <v>0</v>
+      </c>
+      <c r="N621" s="19">
+        <v>0</v>
+      </c>
+      <c r="O621" s="19"/>
+    </row>
+    <row r="622" spans="1:15">
+      <c r="A622" s="19">
+        <v>621</v>
+      </c>
+      <c r="B622" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C622" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D622" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E622" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F622" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G622" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="H622" s="19" t="s">
+        <v>688</v>
+      </c>
+      <c r="I622" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J622" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="K622" s="19" t="s">
+        <v>715</v>
+      </c>
+      <c r="L622" s="19"/>
+      <c r="M622" s="19">
+        <v>0</v>
+      </c>
+      <c r="N622" s="19">
+        <v>0</v>
+      </c>
+      <c r="O622" s="19"/>
+    </row>
+    <row r="623" spans="1:15">
+      <c r="A623" s="19">
+        <v>622</v>
+      </c>
+      <c r="B623" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C623" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D623" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E623" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F623" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G623" s="19" t="s">
+        <v>683</v>
+      </c>
+      <c r="H623" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I623" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J623" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K623" s="19"/>
+      <c r="L623" s="19"/>
+      <c r="M623" s="19">
+        <v>0</v>
+      </c>
+      <c r="N623" s="19">
+        <v>0</v>
+      </c>
+      <c r="O623" s="19"/>
+    </row>
+    <row r="624" spans="1:15">
+      <c r="A624" s="19">
+        <v>623</v>
+      </c>
+      <c r="B624" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C624" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E624" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F624" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G624" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H624" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I624" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J624" s="21" t="s">
+        <v>710</v>
+      </c>
+      <c r="K624" s="19"/>
+      <c r="L624" s="19"/>
+      <c r="M624" s="19">
+        <v>0</v>
+      </c>
+      <c r="N624" s="19">
+        <v>0</v>
+      </c>
+      <c r="O624" s="19"/>
+    </row>
+    <row r="625" spans="1:15">
+      <c r="A625" s="19">
+        <v>624</v>
+      </c>
+      <c r="B625" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C625" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E625" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F625" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G625" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="H625" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I625" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J625" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="K625" s="19"/>
+      <c r="L625" s="19"/>
+      <c r="M625" s="19">
+        <v>0</v>
+      </c>
+      <c r="N625" s="19">
+        <v>0</v>
+      </c>
+      <c r="O625" s="19"/>
+    </row>
+    <row r="626" spans="1:15">
+      <c r="A626" s="19">
+        <v>625</v>
+      </c>
+      <c r="B626" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C626" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E626" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F626" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G626" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H626" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="I626" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="J626" s="21" t="s">
+        <v>713</v>
+      </c>
+      <c r="K626" s="19"/>
+      <c r="L626" s="19"/>
+      <c r="M626" s="19">
+        <v>0</v>
+      </c>
+      <c r="N626" s="19">
+        <v>0</v>
+      </c>
+      <c r="O626" s="19"/>
+    </row>
+    <row r="627" spans="1:15">
+      <c r="A627" s="19">
+        <v>626</v>
+      </c>
+      <c r="B627" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C627" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E627" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F627" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G627" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H627" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="I627" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J627" s="21" t="s">
+        <v>711</v>
+      </c>
+      <c r="K627" s="19"/>
+      <c r="L627" s="19"/>
+      <c r="M627" s="19">
+        <v>0</v>
+      </c>
+      <c r="N627" s="19">
+        <v>1</v>
+      </c>
+      <c r="O627" s="19"/>
+    </row>
+    <row r="628" spans="1:15">
+      <c r="A628" s="19">
+        <v>627</v>
+      </c>
+      <c r="B628" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C628" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D628" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E628" s="20">
+        <v>44109</v>
+      </c>
+      <c r="F628" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G628" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="H628" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I628" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J628" s="21" t="s">
+        <v>714</v>
+      </c>
+      <c r="K628" s="19"/>
+      <c r="L628" s="19"/>
+      <c r="M628" s="19">
+        <v>0</v>
+      </c>
+      <c r="N628" s="19">
+        <v>0</v>
+      </c>
+      <c r="O628" s="19"/>
+    </row>
+    <row r="629" spans="1:15">
+      <c r="A629" s="19">
+        <v>628</v>
+      </c>
+      <c r="B629" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C629" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D629" s="19"/>
+      <c r="E629" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F629" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G629" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="H629" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I629" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="J629" s="21" t="s">
+        <v>703</v>
+      </c>
+      <c r="K629" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L629" s="19"/>
+      <c r="M629" s="19">
+        <v>0</v>
+      </c>
+      <c r="N629" s="19">
+        <v>0</v>
+      </c>
+      <c r="O629" s="19"/>
+    </row>
+    <row r="630" spans="1:15">
+      <c r="A630" s="19">
+        <v>629</v>
+      </c>
+      <c r="B630" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C630" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="19"/>
+      <c r="E630" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F630" s="20">
+        <v>44109</v>
+      </c>
+      <c r="G630" s="19" t="s">
+        <v>705</v>
+      </c>
+      <c r="H630" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="I630" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J630" s="21" t="s">
+        <v>704</v>
+      </c>
+      <c r="K630" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L630" s="19"/>
+      <c r="M630" s="19">
+        <v>0</v>
+      </c>
+      <c r="N630" s="19">
+        <v>0</v>
+      </c>
+      <c r="O630" s="19"/>
+    </row>
+    <row r="631" spans="1:15">
+      <c r="A631" s="19">
+        <v>630</v>
+      </c>
+      <c r="B631" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C631" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D631" s="19"/>
+      <c r="E631" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F631" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G631" s="19" t="s">
+        <v>706</v>
+      </c>
+      <c r="H631" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I631" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J631" s="21" t="s">
+        <v>707</v>
+      </c>
+      <c r="K631" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="L631" s="19"/>
+      <c r="M631" s="19">
+        <v>0</v>
+      </c>
+      <c r="N631" s="19">
+        <v>0</v>
+      </c>
+      <c r="O631" s="19"/>
+    </row>
+    <row r="632" spans="1:15">
+      <c r="A632" s="19">
+        <v>631</v>
+      </c>
+      <c r="B632" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C632" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D632" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E632" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F632" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G632" s="19" t="s">
+        <v>708</v>
+      </c>
+      <c r="H632" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="I632" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J632" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K632" s="19" t="s">
+        <v>728</v>
+      </c>
+      <c r="L632" s="19"/>
+      <c r="M632" s="19">
+        <v>0</v>
+      </c>
+      <c r="N632" s="19">
+        <v>0</v>
+      </c>
+      <c r="O632" s="19"/>
+    </row>
+    <row r="633" spans="1:15">
+      <c r="A633" s="19">
+        <v>632</v>
+      </c>
+      <c r="B633" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C633" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D633" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E633" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F633" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G633" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H633" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I633" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J633" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="K633" s="19"/>
+      <c r="L633" s="19"/>
+      <c r="M633" s="19">
+        <v>0</v>
+      </c>
+      <c r="N633" s="19">
+        <v>1</v>
+      </c>
+      <c r="O633" s="19"/>
+    </row>
+    <row r="634" spans="1:15">
+      <c r="A634" s="19">
+        <v>633</v>
+      </c>
+      <c r="B634" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C634" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D634" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E634" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F634" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G634" s="19" t="s">
+        <v>709</v>
+      </c>
+      <c r="H634" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="I634" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J634" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K634" s="19" t="s">
+        <v>770</v>
+      </c>
+      <c r="L634" s="19"/>
+      <c r="M634" s="19">
+        <v>0</v>
+      </c>
+      <c r="N634" s="19">
+        <v>0</v>
+      </c>
+      <c r="O634" s="19"/>
+    </row>
+    <row r="635" spans="1:15">
+      <c r="A635" s="19">
+        <v>634</v>
+      </c>
+      <c r="B635" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C635" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D635" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E635" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F635" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G635" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H635" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I635" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="J635" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K635" s="19"/>
+      <c r="L635" s="19"/>
+      <c r="M635" s="19">
+        <v>0</v>
+      </c>
+      <c r="N635" s="19">
+        <v>1</v>
+      </c>
+      <c r="O635" s="19"/>
+    </row>
+    <row r="636" spans="1:15">
+      <c r="A636" s="19">
+        <v>635</v>
+      </c>
+      <c r="B636" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C636" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D636" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E636" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F636" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G636" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H636" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I636" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="J636" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K636" s="19"/>
+      <c r="L636" s="19"/>
+      <c r="M636" s="19">
+        <v>0</v>
+      </c>
+      <c r="N636" s="19">
+        <v>0</v>
+      </c>
+      <c r="O636" s="19"/>
+    </row>
+    <row r="637" spans="1:15">
+      <c r="A637" s="19">
+        <v>636</v>
+      </c>
+      <c r="B637" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C637" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D637" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E637" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F637" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G637" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="H637" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="I637" s="19" t="s">
+        <v>702</v>
+      </c>
+      <c r="J637" s="21" t="s">
+        <v>730</v>
+      </c>
+      <c r="K637" s="19"/>
+      <c r="L637" s="19"/>
+      <c r="M637" s="19">
+        <v>0</v>
+      </c>
+      <c r="N637" s="19">
+        <v>0</v>
+      </c>
+      <c r="O637" s="19"/>
+    </row>
+    <row r="638" spans="1:15">
+      <c r="A638" s="19">
+        <v>637</v>
+      </c>
+      <c r="B638" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C638" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D638" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E638" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F638" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G638" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="H638" s="19" t="s">
+        <v>721</v>
+      </c>
+      <c r="I638" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="J638" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="K638" s="19" t="s">
+        <v>743</v>
+      </c>
+      <c r="L638" s="19"/>
+      <c r="M638" s="19">
+        <v>0</v>
+      </c>
+      <c r="N638" s="19">
+        <v>0</v>
+      </c>
+      <c r="O638" s="19"/>
+    </row>
+    <row r="639" spans="1:15">
+      <c r="A639" s="19">
+        <v>638</v>
+      </c>
+      <c r="B639" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C639" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D639" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E639" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F639" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G639" s="19" t="s">
+        <v>719</v>
+      </c>
+      <c r="H639" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="I639" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J639" s="21" t="s">
+        <v>729</v>
+      </c>
+      <c r="K639" s="22"/>
+      <c r="L639" s="19"/>
+      <c r="M639" s="19">
+        <v>0</v>
+      </c>
+      <c r="N639" s="19">
+        <v>0</v>
+      </c>
+      <c r="O639" s="19"/>
+    </row>
+    <row r="640" spans="1:15">
+      <c r="A640" s="19">
+        <v>639</v>
+      </c>
+      <c r="B640" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C640" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D640" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E640" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F640" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G640" s="19" t="s">
+        <v>720</v>
+      </c>
+      <c r="H640" s="19" t="s">
+        <v>723</v>
+      </c>
+      <c r="I640" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J640" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="K640" s="19"/>
+      <c r="L640" s="19"/>
+      <c r="M640" s="19">
+        <v>0</v>
+      </c>
+      <c r="N640" s="19">
+        <v>0</v>
+      </c>
+      <c r="O640" s="19"/>
+    </row>
+    <row r="641" spans="1:15">
+      <c r="A641" s="19">
+        <v>640</v>
+      </c>
+      <c r="B641" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C641" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D641" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E641" s="20">
+        <v>44110</v>
+      </c>
+      <c r="F641" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G641" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H641" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="I641" s="19" t="s">
+        <v>717</v>
+      </c>
+      <c r="J641" s="21" t="s">
+        <v>731</v>
+      </c>
+      <c r="K641" s="19"/>
+      <c r="L641" s="19"/>
+      <c r="M641" s="19">
+        <v>0</v>
+      </c>
+      <c r="N641" s="19">
+        <v>1</v>
+      </c>
+      <c r="O641" s="19"/>
+    </row>
+    <row r="642" spans="1:15">
+      <c r="A642" s="19">
+        <v>641</v>
+      </c>
+      <c r="B642" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C642" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D642" s="19"/>
+      <c r="E642" s="20">
+        <v>44111</v>
+      </c>
+      <c r="F642" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G642" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="H642" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I642" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J642" s="21" t="s">
+        <v>726</v>
+      </c>
+      <c r="K642" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L642" s="19"/>
+      <c r="M642" s="19">
+        <v>0</v>
+      </c>
+      <c r="N642" s="19">
+        <v>0</v>
+      </c>
+      <c r="O642" s="19"/>
+    </row>
+    <row r="643" spans="1:15">
+      <c r="A643" s="19">
+        <v>642</v>
+      </c>
+      <c r="B643" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C643" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D643" s="19"/>
+      <c r="E643" s="20">
+        <v>44111</v>
+      </c>
+      <c r="F643" s="20">
+        <v>44110</v>
+      </c>
+      <c r="G643" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="H643" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I643" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J643" s="21" t="s">
+        <v>727</v>
+      </c>
+      <c r="K643" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L643" s="19"/>
+      <c r="M643" s="19">
+        <v>0</v>
+      </c>
+      <c r="N643" s="19">
+        <v>0</v>
+      </c>
+      <c r="O643" s="19"/>
+    </row>
+    <row r="644" spans="1:15">
+      <c r="A644" s="19">
+        <v>643</v>
+      </c>
+      <c r="B644" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C644" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D644" s="19"/>
+      <c r="E644" s="20">
+        <v>44111</v>
+      </c>
+      <c r="F644" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G644" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="H644" s="19" t="s">
+        <v>733</v>
+      </c>
+      <c r="I644" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="J644" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="K644" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L644" s="19"/>
+      <c r="M644" s="19">
+        <v>0</v>
+      </c>
+      <c r="N644" s="19">
+        <v>0</v>
+      </c>
+      <c r="O644" s="19"/>
+    </row>
+    <row r="645" spans="1:15">
+      <c r="A645" s="19">
+        <v>644</v>
+      </c>
+      <c r="B645" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C645" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="19"/>
+      <c r="E645" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F645" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G645" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H645" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I645" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J645" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K645" s="19"/>
+      <c r="L645" s="19"/>
+      <c r="M645" s="19">
+        <v>0</v>
+      </c>
+      <c r="N645" s="19">
+        <v>0</v>
+      </c>
+      <c r="O645" s="19"/>
+    </row>
+    <row r="646" spans="1:15">
+      <c r="A646" s="19">
+        <v>645</v>
+      </c>
+      <c r="B646" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C646" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D646" s="19"/>
+      <c r="E646" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F646" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G646" s="19" t="s">
+        <v>724</v>
+      </c>
+      <c r="H646" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I646" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J646" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K646" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L646" s="19"/>
+      <c r="M646" s="19">
+        <v>0</v>
+      </c>
+      <c r="N646" s="19">
+        <v>0</v>
+      </c>
+      <c r="O646" s="19"/>
+    </row>
+    <row r="647" spans="1:15">
+      <c r="A647" s="19">
+        <v>646</v>
+      </c>
+      <c r="B647" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C647" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D647" s="19"/>
+      <c r="E647" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F647" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G647" s="19" t="s">
+        <v>700</v>
+      </c>
+      <c r="H647" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I647" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J647" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K647" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L647" s="19"/>
+      <c r="M647" s="19">
+        <v>0</v>
+      </c>
+      <c r="N647" s="19">
+        <v>0</v>
+      </c>
+      <c r="O647" s="19"/>
+    </row>
+    <row r="648" spans="1:15">
+      <c r="A648" s="19">
+        <v>647</v>
+      </c>
+      <c r="B648" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C648" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D648" s="19"/>
+      <c r="E648" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F648" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G648" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="H648" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I648" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J648" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K648" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L648" s="19"/>
+      <c r="M648" s="19">
+        <v>0</v>
+      </c>
+      <c r="N648" s="19">
+        <v>0</v>
+      </c>
+      <c r="O648" s="19"/>
+    </row>
+    <row r="649" spans="1:15">
+      <c r="A649" s="19">
+        <v>648</v>
+      </c>
+      <c r="B649" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C649" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D649" s="19"/>
+      <c r="E649" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F649" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G649" s="19" t="s">
+        <v>725</v>
+      </c>
+      <c r="H649" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I649" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J649" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K649" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="L649" s="19"/>
+      <c r="M649" s="19">
+        <v>0</v>
+      </c>
+      <c r="N649" s="19">
+        <v>0</v>
+      </c>
+      <c r="O649" s="19"/>
+    </row>
+    <row r="650" spans="1:15">
+      <c r="A650" s="19">
+        <v>649</v>
+      </c>
+      <c r="B650" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C650" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D650" s="19"/>
+      <c r="E650" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F650" s="20">
+        <v>44111</v>
+      </c>
+      <c r="G650" s="19" t="s">
+        <v>735</v>
+      </c>
+      <c r="H650" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I650" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J650" s="21" t="s">
+        <v>734</v>
+      </c>
+      <c r="K650" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="L650" s="19"/>
+      <c r="M650" s="19">
+        <v>0</v>
+      </c>
+      <c r="N650" s="19">
+        <v>0</v>
+      </c>
+      <c r="O650" s="19"/>
+    </row>
+    <row r="651" spans="1:15">
+      <c r="A651" s="19">
+        <v>650</v>
+      </c>
+      <c r="B651" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C651" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D651" s="19"/>
+      <c r="E651" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F651" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G651" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="H651" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I651" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J651" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="K651" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L651" s="19"/>
+      <c r="M651" s="19">
+        <v>0</v>
+      </c>
+      <c r="N651" s="19">
+        <v>0</v>
+      </c>
+      <c r="O651" s="19"/>
+    </row>
+    <row r="652" spans="1:15">
+      <c r="A652" s="19">
+        <v>651</v>
+      </c>
+      <c r="B652" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C652" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D652" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E652" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F652" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G652" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="H652" s="19" t="s">
+        <v>741</v>
+      </c>
+      <c r="I652" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J652" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="K652" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="L652" s="19"/>
+      <c r="M652" s="19">
+        <v>0</v>
+      </c>
+      <c r="N652" s="19">
+        <v>0</v>
+      </c>
+      <c r="O652" s="19"/>
+    </row>
+    <row r="653" spans="1:15">
+      <c r="A653" s="19">
+        <v>652</v>
+      </c>
+      <c r="B653" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C653" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D653" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E653" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F653" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G653" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="H653" s="19" t="s">
+        <v>742</v>
+      </c>
+      <c r="I653" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J653" s="21" t="s">
+        <v>768</v>
+      </c>
+      <c r="K653" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L653" s="19"/>
+      <c r="M653" s="19">
+        <v>0</v>
+      </c>
+      <c r="N653" s="19">
+        <v>0</v>
+      </c>
+      <c r="O653" s="19"/>
+    </row>
+    <row r="654" spans="1:15">
+      <c r="A654" s="19">
+        <v>653</v>
+      </c>
+      <c r="B654" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C654" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D654" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E654" s="20">
+        <v>44112</v>
+      </c>
+      <c r="F654" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G654" s="19" t="s">
+        <v>739</v>
+      </c>
+      <c r="H654" s="19" t="s">
+        <v>737</v>
+      </c>
+      <c r="I654" s="19" t="s">
+        <v>738</v>
+      </c>
+      <c r="J654" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K654" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L654" s="19"/>
+      <c r="M654" s="19">
+        <v>0</v>
+      </c>
+      <c r="N654" s="19">
+        <v>0</v>
+      </c>
+      <c r="O654" s="19"/>
+    </row>
+    <row r="655" spans="1:15">
+      <c r="A655" s="19">
+        <v>654</v>
+      </c>
+      <c r="B655" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C655" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D655" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E655" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F655" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G655" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="H655" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="I655" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J655" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="K655" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L655" s="19"/>
+      <c r="M655" s="19">
+        <v>0</v>
+      </c>
+      <c r="N655" s="19">
+        <v>0</v>
+      </c>
+      <c r="O655" s="19"/>
+    </row>
+    <row r="656" spans="1:15">
+      <c r="A656" s="19">
+        <v>655</v>
+      </c>
+      <c r="B656" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C656" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D656" s="19"/>
+      <c r="E656" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F656" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G656" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="H656" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I656" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J656" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="K656" s="19" t="s">
+        <v>605</v>
+      </c>
+      <c r="L656" s="19"/>
+      <c r="M656" s="19">
+        <v>0</v>
+      </c>
+      <c r="N656" s="19">
+        <v>0</v>
+      </c>
+      <c r="O656" s="19"/>
+    </row>
+    <row r="657" spans="1:15">
+      <c r="A657" s="19">
+        <v>656</v>
+      </c>
+      <c r="B657" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C657" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D657" s="19"/>
+      <c r="E657" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F657" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G657" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="H657" s="19" t="s">
+        <v>759</v>
+      </c>
+      <c r="I657" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J657" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="K657" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L657" s="19"/>
+      <c r="M657" s="19">
+        <v>0</v>
+      </c>
+      <c r="N657" s="19">
+        <v>0</v>
+      </c>
+      <c r="O657" s="19"/>
+    </row>
+    <row r="658" spans="1:15">
+      <c r="A658" s="19">
         <v>657</v>
       </c>
-      <c r="H587" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I587" s="26" t="s">
+      <c r="B658" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C658" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D658" s="19"/>
+      <c r="E658" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F658" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G658" s="19" t="s">
+        <v>747</v>
+      </c>
+      <c r="H658" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="I658" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J658" s="21" t="s">
+        <v>765</v>
+      </c>
+      <c r="K658" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L658" s="19"/>
+      <c r="M658" s="19">
+        <v>0</v>
+      </c>
+      <c r="N658" s="19">
+        <v>0</v>
+      </c>
+      <c r="O658" s="19"/>
+    </row>
+    <row r="659" spans="1:15">
+      <c r="A659" s="19">
         <v>658</v>
       </c>
-      <c r="J587" s="27" t="s">
+      <c r="B659" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C659" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D659" s="19"/>
+      <c r="E659" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F659" s="20">
+        <v>44112</v>
+      </c>
+      <c r="G659" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="H659" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I659" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J659" s="21" t="s">
+        <v>766</v>
+      </c>
+      <c r="K659" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L659" s="19"/>
+      <c r="M659" s="19">
+        <v>0</v>
+      </c>
+      <c r="N659" s="19">
+        <v>0</v>
+      </c>
+      <c r="O659" s="19"/>
+    </row>
+    <row r="660" spans="1:15">
+      <c r="A660" s="19">
+        <v>659</v>
+      </c>
+      <c r="B660" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C660" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E660" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F660" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G660" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="H660" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="I660" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J660" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="K660" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L660" s="19"/>
+      <c r="M660" s="19">
+        <v>0</v>
+      </c>
+      <c r="N660" s="19">
+        <v>0</v>
+      </c>
+      <c r="O660" s="19"/>
+    </row>
+    <row r="661" spans="1:15">
+      <c r="A661" s="19">
+        <v>660</v>
+      </c>
+      <c r="B661" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C661" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D661" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E661" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F661" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G661" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H661" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="I661" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J661" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K661" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L661" s="19"/>
+      <c r="M661" s="19">
+        <v>0</v>
+      </c>
+      <c r="N661" s="19">
+        <v>0</v>
+      </c>
+      <c r="O661" s="19"/>
+    </row>
+    <row r="662" spans="1:15">
+      <c r="A662" s="19">
+        <v>661</v>
+      </c>
+      <c r="B662" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C662" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D662" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E662" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F662" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G662" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="H662" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="I662" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J662" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K662" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="L662" s="19"/>
+      <c r="M662" s="19">
+        <v>0</v>
+      </c>
+      <c r="N662" s="19">
+        <v>0</v>
+      </c>
+      <c r="O662" s="19"/>
+    </row>
+    <row r="663" spans="1:15">
+      <c r="A663" s="19">
+        <v>662</v>
+      </c>
+      <c r="B663" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C663" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D663" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E663" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F663" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G663" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="H663" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="I663" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J663" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K663" s="19"/>
+      <c r="L663" s="19"/>
+      <c r="M663" s="19">
+        <v>0</v>
+      </c>
+      <c r="N663" s="19">
+        <v>0</v>
+      </c>
+      <c r="O663" s="19"/>
+    </row>
+    <row r="664" spans="1:15">
+      <c r="A664" s="19">
+        <v>663</v>
+      </c>
+      <c r="B664" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C664" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D664" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E664" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F664" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G664" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="H664" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="I664" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J664" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="K664" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="L664" s="19"/>
+      <c r="M664" s="19">
+        <v>0</v>
+      </c>
+      <c r="N664" s="19">
+        <v>0</v>
+      </c>
+      <c r="O664" s="19"/>
+    </row>
+    <row r="665" spans="1:15">
+      <c r="A665" s="19">
+        <v>664</v>
+      </c>
+      <c r="B665" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C665" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E665" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F665" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G665" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H665" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="I665" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J665" s="21" t="s">
+        <v>796</v>
+      </c>
+      <c r="K665" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L665" s="19"/>
+      <c r="M665" s="19">
+        <v>0</v>
+      </c>
+      <c r="N665" s="19">
+        <v>0</v>
+      </c>
+      <c r="O665" s="19"/>
+    </row>
+    <row r="666" spans="1:15">
+      <c r="A666" s="19">
+        <v>665</v>
+      </c>
+      <c r="B666" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C666" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D666" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E666" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F666" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G666" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H666" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="I666" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J666" s="26" t="s">
+        <v>795</v>
+      </c>
+      <c r="K666" s="19"/>
+      <c r="L666" s="19"/>
+      <c r="M666" s="19">
+        <v>0</v>
+      </c>
+      <c r="N666" s="19">
+        <v>0</v>
+      </c>
+      <c r="O666" s="19"/>
+    </row>
+    <row r="667" spans="1:15">
+      <c r="A667" s="19">
+        <v>666</v>
+      </c>
+      <c r="B667" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C667" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D667" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E667" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F667" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G667" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H667" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="I667" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J667" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="K667" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L667" s="19"/>
+      <c r="M667" s="19">
+        <v>0</v>
+      </c>
+      <c r="N667" s="19">
+        <v>0</v>
+      </c>
+      <c r="O667" s="19"/>
+    </row>
+    <row r="668" spans="1:15">
+      <c r="A668" s="19">
+        <v>667</v>
+      </c>
+      <c r="B668" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C668" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D668" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E668" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F668" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G668" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="H668" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I668" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J668" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K668" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L668" s="19"/>
+      <c r="M668" s="19">
+        <v>0</v>
+      </c>
+      <c r="N668" s="19">
+        <v>0</v>
+      </c>
+      <c r="O668" s="19"/>
+    </row>
+    <row r="669" spans="1:15">
+      <c r="A669" s="19">
+        <v>668</v>
+      </c>
+      <c r="B669" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C669" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D669" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E669" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F669" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G669" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="H669" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="I669" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J669" s="21" t="s">
+        <v>793</v>
+      </c>
+      <c r="K669" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L669" s="19"/>
+      <c r="M669" s="19">
+        <v>0</v>
+      </c>
+      <c r="N669" s="19">
+        <v>0</v>
+      </c>
+      <c r="O669" s="19"/>
+    </row>
+    <row r="670" spans="1:15">
+      <c r="A670" s="19">
+        <v>669</v>
+      </c>
+      <c r="B670" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C670" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D670" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E670" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F670" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G670" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H670" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="I670" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J670" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="K670" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="L670" s="19"/>
+      <c r="M670" s="19">
+        <v>0</v>
+      </c>
+      <c r="N670" s="19">
+        <v>0</v>
+      </c>
+      <c r="O670" s="19"/>
+    </row>
+    <row r="671" spans="1:15">
+      <c r="A671" s="19">
+        <v>670</v>
+      </c>
+      <c r="B671" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C671" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D671" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E671" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F671" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G671" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="H671" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I671" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J671" s="21" t="s">
+        <v>797</v>
+      </c>
+      <c r="K671" s="19"/>
+      <c r="L671" s="19"/>
+      <c r="M671" s="19">
+        <v>0</v>
+      </c>
+      <c r="N671" s="19">
+        <v>0</v>
+      </c>
+      <c r="O671" s="19"/>
+    </row>
+    <row r="672" spans="1:15">
+      <c r="A672" s="19">
         <v>671</v>
       </c>
-      <c r="K587" s="26"/>
-      <c r="L587" s="26"/>
-      <c r="M587" s="26">
-        <v>0</v>
-      </c>
-      <c r="N587" s="26">
-        <v>1</v>
-      </c>
-      <c r="O587" s="26"/>
-    </row>
-    <row r="588" spans="1:15">
-      <c r="A588" s="26">
-        <v>587</v>
-      </c>
-      <c r="B588" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C588" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D588" s="26" t="s">
+      <c r="B672" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C672" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D672" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E588" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F588" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G588" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="H588" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I588" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J588" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="K588" s="26"/>
-      <c r="L588" s="26"/>
-      <c r="M588" s="26">
-        <v>0</v>
-      </c>
-      <c r="N588" s="26">
-        <v>0</v>
-      </c>
-      <c r="O588" s="26"/>
-    </row>
-    <row r="589" spans="1:15">
-      <c r="A589" s="26">
-        <v>588</v>
-      </c>
-      <c r="B589" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C589" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D589" s="26" t="s">
+      <c r="E672" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F672" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G672" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="H672" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="I672" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J672" s="21" t="s">
+        <v>798</v>
+      </c>
+      <c r="K672" s="19"/>
+      <c r="L672" s="19"/>
+      <c r="M672" s="19">
+        <v>0</v>
+      </c>
+      <c r="N672" s="19">
+        <v>0</v>
+      </c>
+      <c r="O672" s="19"/>
+    </row>
+    <row r="673" spans="1:15">
+      <c r="A673" s="19">
+        <v>672</v>
+      </c>
+      <c r="B673" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C673" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E589" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F589" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G589" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="H589" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I589" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J589" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="K589" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L589" s="26"/>
-      <c r="M589" s="26">
-        <v>0</v>
-      </c>
-      <c r="N589" s="26">
-        <v>0</v>
-      </c>
-      <c r="O589" s="26"/>
-    </row>
-    <row r="590" spans="1:15">
-      <c r="A590" s="26">
-        <v>589</v>
-      </c>
-      <c r="B590" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C590" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D590" s="26" t="s">
+      <c r="E673" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F673" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G673" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="H673" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="I673" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J673" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="K673" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L673" s="19"/>
+      <c r="M673" s="19">
+        <v>0</v>
+      </c>
+      <c r="N673" s="19">
+        <v>0</v>
+      </c>
+      <c r="O673" s="19"/>
+    </row>
+    <row r="674" spans="1:15">
+      <c r="A674" s="19">
+        <v>673</v>
+      </c>
+      <c r="B674" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C674" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D674" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E590" s="6">
-        <v>44107</v>
-      </c>
-      <c r="F590" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G590" s="26" t="s">
-        <v>656</v>
-      </c>
-      <c r="H590" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I590" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J590" s="27" t="s">
-        <v>672</v>
-      </c>
-      <c r="K590" s="26"/>
-      <c r="L590" s="26"/>
-      <c r="M590" s="26">
-        <v>0</v>
-      </c>
-      <c r="N590" s="26">
-        <v>0</v>
-      </c>
-      <c r="O590" s="26"/>
-    </row>
-    <row r="591" spans="1:15">
-      <c r="A591" s="26">
-        <v>590</v>
-      </c>
-      <c r="B591" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C591" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D591" s="26"/>
-      <c r="E591" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F591" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G591" s="26" t="s">
-        <v>659</v>
-      </c>
-      <c r="H591" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I591" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J591" s="27" t="s">
-        <v>670</v>
-      </c>
-      <c r="K591" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L591" s="26"/>
-      <c r="M591" s="26">
-        <v>0</v>
-      </c>
-      <c r="N591" s="26">
-        <v>0</v>
-      </c>
-      <c r="O591" s="26"/>
-    </row>
-    <row r="592" spans="1:15">
-      <c r="A592" s="26">
-        <v>591</v>
-      </c>
-      <c r="B592" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C592" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D592" s="26"/>
-      <c r="E592" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F592" s="6">
-        <v>44107</v>
-      </c>
-      <c r="G592" s="26" t="s">
-        <v>162</v>
-      </c>
-      <c r="H592" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I592" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J592" s="27" t="s">
-        <v>671</v>
-      </c>
-      <c r="K592" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L592" s="26"/>
-      <c r="M592" s="26">
-        <v>0</v>
-      </c>
-      <c r="N592" s="26">
-        <v>0</v>
-      </c>
-      <c r="O592" s="26"/>
-    </row>
-    <row r="593" spans="1:15">
-      <c r="A593" s="26">
-        <v>592</v>
-      </c>
-      <c r="B593" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C593" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D593" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E593" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F593" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G593" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H593" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I593" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J593" s="27" t="s">
+      <c r="E674" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F674" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G674" s="19" t="s">
+        <v>755</v>
+      </c>
+      <c r="H674" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I674" s="19" t="s">
+        <v>757</v>
+      </c>
+      <c r="J674" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K674" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="L674" s="19"/>
+      <c r="M674" s="19">
+        <v>0</v>
+      </c>
+      <c r="N674" s="19">
+        <v>0</v>
+      </c>
+      <c r="O674" s="19"/>
+    </row>
+    <row r="675" spans="1:15">
+      <c r="A675" s="19">
+        <v>674</v>
+      </c>
+      <c r="B675" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C675" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D675" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E675" s="20">
+        <v>44113</v>
+      </c>
+      <c r="F675" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G675" s="19" t="s">
+        <v>750</v>
+      </c>
+      <c r="H675" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="I675" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="J675" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="K675" s="19"/>
+      <c r="L675" s="19"/>
+      <c r="M675" s="19">
+        <v>0</v>
+      </c>
+      <c r="N675" s="19">
+        <v>0</v>
+      </c>
+      <c r="O675" s="19"/>
+    </row>
+    <row r="676" spans="1:15">
+      <c r="A676" s="19">
+        <v>675</v>
+      </c>
+      <c r="B676" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C676" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D676" s="19"/>
+      <c r="E676" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F676" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G676" s="19" t="s">
+        <v>774</v>
+      </c>
+      <c r="H676" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="I676" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="J676" s="21" t="s">
+        <v>792</v>
+      </c>
+      <c r="K676" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="L676" s="19"/>
+      <c r="M676" s="19">
+        <v>0</v>
+      </c>
+      <c r="N676" s="19">
+        <v>0</v>
+      </c>
+      <c r="O676" s="19"/>
+    </row>
+    <row r="677" spans="1:15">
+      <c r="A677" s="19">
+        <v>676</v>
+      </c>
+      <c r="B677" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C677" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D677" s="19"/>
+      <c r="E677" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F677" s="20">
+        <v>44113</v>
+      </c>
+      <c r="G677" s="19" t="s">
+        <v>745</v>
+      </c>
+      <c r="H677" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="I677" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="J677" s="21" t="s">
+        <v>795</v>
+      </c>
+      <c r="K677" s="19"/>
+      <c r="L677" s="19"/>
+      <c r="M677" s="19">
+        <v>0</v>
+      </c>
+      <c r="N677" s="19">
+        <v>0</v>
+      </c>
+      <c r="O677" s="19"/>
+    </row>
+    <row r="678" spans="1:15">
+      <c r="A678" s="19">
         <v>677</v>
       </c>
-      <c r="K593" s="26"/>
-      <c r="L593" s="26"/>
-      <c r="M593" s="26">
-        <v>0</v>
-      </c>
-      <c r="N593" s="26">
-        <v>0</v>
-      </c>
-      <c r="O593" s="26"/>
-    </row>
-    <row r="594" spans="1:15">
-      <c r="A594" s="26">
-        <v>593</v>
-      </c>
-      <c r="B594" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C594" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D594" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E594" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F594" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G594" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H594" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I594" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J594" s="27" t="s">
+      <c r="B678" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C678" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D678" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E678" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F678" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G678" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="H678" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="I678" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="J678" s="21"/>
+      <c r="K678" s="19"/>
+      <c r="L678" s="19"/>
+      <c r="M678" s="19">
+        <v>0</v>
+      </c>
+      <c r="N678" s="19">
+        <v>0</v>
+      </c>
+      <c r="O678" s="19"/>
+    </row>
+    <row r="679" spans="1:15">
+      <c r="A679" s="19">
         <v>678</v>
       </c>
-      <c r="K594" s="26" t="s">
+      <c r="B679" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C679" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D679" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E679" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F679" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G679" s="19" t="s">
+        <v>799</v>
+      </c>
+      <c r="H679" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="I679" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="J679" s="21"/>
+      <c r="K679" s="19"/>
+      <c r="L679" s="19"/>
+      <c r="M679" s="19">
+        <v>0</v>
+      </c>
+      <c r="N679" s="19">
+        <v>0</v>
+      </c>
+      <c r="O679" s="19"/>
+    </row>
+    <row r="680" spans="1:15">
+      <c r="A680" s="19">
         <v>679</v>
       </c>
-      <c r="L594" s="26"/>
-      <c r="M594" s="26">
-        <v>0</v>
-      </c>
-      <c r="N594" s="26">
-        <v>0</v>
-      </c>
-      <c r="O594" s="26"/>
-    </row>
-    <row r="595" spans="1:15">
-      <c r="A595" s="26">
-        <v>594</v>
-      </c>
-      <c r="B595" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C595" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D595" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E595" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F595" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G595" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H595" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I595" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J595" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K595" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="L595" s="26"/>
-      <c r="M595" s="26">
-        <v>0</v>
-      </c>
-      <c r="N595" s="26">
-        <v>0</v>
-      </c>
-      <c r="O595" s="26"/>
-    </row>
-    <row r="596" spans="1:15">
-      <c r="A596" s="26">
-        <v>595</v>
-      </c>
-      <c r="B596" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C596" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D596" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E596" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F596" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G596" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="H596" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I596" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J596" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K596" s="26" t="s">
-        <v>679</v>
-      </c>
-      <c r="L596" s="26"/>
-      <c r="M596" s="26">
-        <v>0</v>
-      </c>
-      <c r="N596" s="26">
-        <v>0</v>
-      </c>
-      <c r="O596" s="26"/>
-    </row>
-    <row r="597" spans="1:15">
-      <c r="A597" s="26">
-        <v>596</v>
-      </c>
-      <c r="B597" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C597" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D597" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E597" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F597" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G597" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H597" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I597" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J597" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K597" s="26"/>
-      <c r="L597" s="26"/>
-      <c r="M597" s="26">
-        <v>0</v>
-      </c>
-      <c r="N597" s="26">
-        <v>1</v>
-      </c>
-      <c r="O597" s="26"/>
-    </row>
-    <row r="598" spans="1:15">
-      <c r="A598" s="26">
-        <v>597</v>
-      </c>
-      <c r="B598" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C598" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D598" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E598" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F598" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G598" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="H598" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I598" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J598" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K598" s="26"/>
-      <c r="L598" s="26"/>
-      <c r="M598" s="26">
-        <v>0</v>
-      </c>
-      <c r="N598" s="26">
-        <v>0</v>
-      </c>
-      <c r="O598" s="26"/>
-    </row>
-    <row r="599" spans="1:15">
-      <c r="A599" s="26">
-        <v>598</v>
-      </c>
-      <c r="B599" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C599" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D599" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E599" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F599" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G599" s="26" t="s">
-        <v>664</v>
-      </c>
-      <c r="H599" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="I599" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J599" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K599" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L599" s="26"/>
-      <c r="M599" s="26">
-        <v>0</v>
-      </c>
-      <c r="N599" s="26">
-        <v>0</v>
-      </c>
-      <c r="O599" s="26"/>
-    </row>
-    <row r="600" spans="1:15">
-      <c r="A600" s="26">
-        <v>599</v>
-      </c>
-      <c r="B600" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C600" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D600" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E600" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F600" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G600" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H600" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="I600" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J600" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K600" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L600" s="26"/>
-      <c r="M600" s="26">
-        <v>0</v>
-      </c>
-      <c r="N600" s="26">
-        <v>0</v>
-      </c>
-      <c r="O600" s="26"/>
-    </row>
-    <row r="601" spans="1:15">
-      <c r="A601" s="26">
-        <v>600</v>
-      </c>
-      <c r="B601" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C601" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D601" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E601" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F601" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G601" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H601" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I601" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J601" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K601" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L601" s="26"/>
-      <c r="M601" s="26">
-        <v>0</v>
-      </c>
-      <c r="N601" s="26">
-        <v>0</v>
-      </c>
-      <c r="O601" s="26"/>
-    </row>
-    <row r="602" spans="1:15">
-      <c r="A602" s="26">
-        <v>601</v>
-      </c>
-      <c r="B602" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C602" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D602" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E602" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F602" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G602" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H602" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="I602" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J602" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K602" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L602" s="26"/>
-      <c r="M602" s="26">
-        <v>0</v>
-      </c>
-      <c r="N602" s="26">
-        <v>0</v>
-      </c>
-      <c r="O602" s="26"/>
-    </row>
-    <row r="603" spans="1:15">
-      <c r="A603" s="26">
-        <v>602</v>
-      </c>
-      <c r="B603" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C603" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D603" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E603" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F603" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G603" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="H603" s="26" t="s">
-        <v>669</v>
-      </c>
-      <c r="I603" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J603" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K603" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L603" s="26"/>
-      <c r="M603" s="26">
-        <v>0</v>
-      </c>
-      <c r="N603" s="26">
-        <v>0</v>
-      </c>
-      <c r="O603" s="26"/>
-    </row>
-    <row r="604" spans="1:15">
-      <c r="A604" s="26">
-        <v>603</v>
-      </c>
-      <c r="B604" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C604" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D604" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E604" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F604" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G604" s="26" t="s">
-        <v>665</v>
-      </c>
-      <c r="H604" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I604" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J604" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K604" s="26"/>
-      <c r="L604" s="26"/>
-      <c r="M604" s="26">
-        <v>0</v>
-      </c>
-      <c r="N604" s="26">
-        <v>1</v>
-      </c>
-      <c r="O604" s="26"/>
-    </row>
-    <row r="605" spans="1:15">
-      <c r="A605" s="26">
-        <v>604</v>
-      </c>
-      <c r="B605" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C605" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D605" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E605" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F605" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G605" s="26" t="s">
-        <v>663</v>
-      </c>
-      <c r="H605" s="26" t="s">
-        <v>668</v>
-      </c>
-      <c r="I605" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J605" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K605" s="26"/>
-      <c r="L605" s="26"/>
-      <c r="M605" s="26">
-        <v>0</v>
-      </c>
-      <c r="N605" s="26">
-        <v>1</v>
-      </c>
-      <c r="O605" s="26"/>
-    </row>
-    <row r="606" spans="1:15">
-      <c r="A606" s="26">
-        <v>605</v>
-      </c>
-      <c r="B606" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C606" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D606" s="26" t="s">
-        <v>662</v>
-      </c>
-      <c r="E606" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F606" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G606" s="26" t="s">
-        <v>666</v>
-      </c>
-      <c r="H606" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I606" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J606" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K606" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L606" s="26"/>
-      <c r="M606" s="26">
-        <v>0</v>
-      </c>
-      <c r="N606" s="26">
-        <v>0</v>
-      </c>
-      <c r="O606" s="26"/>
-    </row>
-    <row r="607" spans="1:15">
-      <c r="A607" s="26">
-        <v>606</v>
-      </c>
-      <c r="B607" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C607" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D607" s="26"/>
-      <c r="E607" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F607" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G607" s="26" t="s">
-        <v>660</v>
-      </c>
-      <c r="H607" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="I607" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J607" s="27" t="s">
-        <v>674</v>
-      </c>
-      <c r="K607" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L607" s="26"/>
-      <c r="M607" s="26">
-        <v>0</v>
-      </c>
-      <c r="N607" s="26">
-        <v>0</v>
-      </c>
-      <c r="O607" s="26"/>
-    </row>
-    <row r="608" spans="1:15">
-      <c r="A608" s="26">
-        <v>607</v>
-      </c>
-      <c r="B608" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C608" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D608" s="26"/>
-      <c r="E608" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F608" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G608" s="26" t="s">
-        <v>661</v>
-      </c>
-      <c r="H608" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I608" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J608" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K608" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L608" s="26"/>
-      <c r="M608" s="26">
-        <v>0</v>
-      </c>
-      <c r="N608" s="26">
-        <v>0</v>
-      </c>
-      <c r="O608" s="26"/>
-    </row>
-    <row r="609" spans="1:15">
-      <c r="A609" s="26">
-        <v>608</v>
-      </c>
-      <c r="B609" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C609" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D609" s="26" t="s">
+      <c r="B680" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C680" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D680" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E609" s="6">
-        <v>44108</v>
-      </c>
-      <c r="F609" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G609" s="26" t="s">
-        <v>667</v>
-      </c>
-      <c r="H609" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I609" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J609" s="27" t="s">
-        <v>677</v>
-      </c>
-      <c r="K609" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L609" s="26"/>
-      <c r="M609" s="26">
-        <v>0</v>
-      </c>
-      <c r="N609" s="26">
-        <v>0</v>
-      </c>
-      <c r="O609" s="26"/>
-    </row>
-    <row r="610" spans="1:15">
-      <c r="A610" s="26">
-        <v>609</v>
-      </c>
-      <c r="B610" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C610" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D610" s="26"/>
-      <c r="E610" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F610" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G610" s="26" t="s">
-        <v>675</v>
-      </c>
-      <c r="H610" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="I610" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J610" s="27" t="s">
+      <c r="E680" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F680" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G680" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="H680" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="I680" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="J680" s="21"/>
+      <c r="K680" s="19"/>
+      <c r="L680" s="19"/>
+      <c r="M680" s="19">
+        <v>0</v>
+      </c>
+      <c r="N680" s="19">
+        <v>0</v>
+      </c>
+      <c r="O680" s="19"/>
+    </row>
+    <row r="681" spans="1:15">
+      <c r="A681" s="19">
         <v>680</v>
       </c>
-      <c r="K610" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L610" s="26"/>
-      <c r="M610" s="26">
-        <v>0</v>
-      </c>
-      <c r="N610" s="26">
-        <v>0</v>
-      </c>
-      <c r="O610" s="26"/>
-    </row>
-    <row r="611" spans="1:15">
-      <c r="A611" s="26">
-        <v>610</v>
-      </c>
-      <c r="B611" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C611" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D611" s="26"/>
-      <c r="E611" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F611" s="6">
-        <v>44108</v>
-      </c>
-      <c r="G611" s="26" t="s">
-        <v>676</v>
-      </c>
-      <c r="H611" s="26" t="s">
-        <v>129</v>
-      </c>
-      <c r="I611" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J611" s="27" t="s">
+      <c r="B681" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C681" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D681" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E681" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F681" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G681" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="H681" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="I681" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="J681" s="21"/>
+      <c r="K681" s="19"/>
+      <c r="L681" s="19"/>
+      <c r="M681" s="19">
+        <v>0</v>
+      </c>
+      <c r="N681" s="19">
+        <v>0</v>
+      </c>
+      <c r="O681" s="19"/>
+    </row>
+    <row r="682" spans="1:15">
+      <c r="A682" s="19">
         <v>681</v>
       </c>
-      <c r="K611" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L611" s="26"/>
-      <c r="M611" s="26">
-        <v>0</v>
-      </c>
-      <c r="N611" s="26">
-        <v>0</v>
-      </c>
-      <c r="O611" s="26"/>
-    </row>
-    <row r="612" spans="1:15">
-      <c r="A612" s="26">
-        <v>611</v>
-      </c>
-      <c r="B612" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C612" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D612" s="26"/>
-      <c r="E612" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F612" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G612" s="26" t="s">
+      <c r="B682" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C682" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D682" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E682" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F682" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G682" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="H682" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="I682" s="19" t="s">
+        <v>790</v>
+      </c>
+      <c r="J682" s="21"/>
+      <c r="K682" s="19"/>
+      <c r="L682" s="19"/>
+      <c r="M682" s="19">
+        <v>0</v>
+      </c>
+      <c r="N682" s="19">
+        <v>0</v>
+      </c>
+      <c r="O682" s="19"/>
+    </row>
+    <row r="683" spans="1:15">
+      <c r="A683" s="19">
         <v>682</v>
       </c>
-      <c r="H612" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I612" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J612" s="27" t="s">
-        <v>678</v>
-      </c>
-      <c r="K612" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="L612" s="26"/>
-      <c r="M612" s="26">
-        <v>0</v>
-      </c>
-      <c r="N612" s="26">
-        <v>0</v>
-      </c>
-      <c r="O612" s="26"/>
-    </row>
-    <row r="613" spans="1:15">
-      <c r="A613" s="26">
-        <v>612</v>
-      </c>
-      <c r="B613" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C613" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D613" s="26" t="s">
+      <c r="B683" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C683" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D683" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E613" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F613" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G613" s="26" t="s">
+      <c r="E683" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F683" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G683" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="H683" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="I683" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="J683" s="21"/>
+      <c r="K683" s="19"/>
+      <c r="L683" s="19"/>
+      <c r="M683" s="19">
+        <v>0</v>
+      </c>
+      <c r="N683" s="19">
+        <v>0</v>
+      </c>
+      <c r="O683" s="19"/>
+    </row>
+    <row r="684" spans="1:15">
+      <c r="A684" s="19">
         <v>683</v>
       </c>
-      <c r="H613" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I613" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J613" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="K613" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L613" s="26"/>
-      <c r="M613" s="26">
-        <v>0</v>
-      </c>
-      <c r="N613" s="26">
-        <v>0</v>
-      </c>
-      <c r="O613" s="26"/>
-    </row>
-    <row r="614" spans="1:15">
-      <c r="A614" s="26">
-        <v>613</v>
-      </c>
-      <c r="B614" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C614" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D614" s="26" t="s">
+      <c r="B684" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C684" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D684" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="E614" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F614" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G614" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="H614" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I614" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J614" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="K614" s="26"/>
-      <c r="L614" s="26"/>
-      <c r="M614" s="26">
-        <v>0</v>
-      </c>
-      <c r="N614" s="26">
-        <v>0</v>
-      </c>
-      <c r="O614" s="26"/>
-    </row>
-    <row r="615" spans="1:15">
-      <c r="A615" s="26">
-        <v>614</v>
-      </c>
-      <c r="B615" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C615" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D615" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E615" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F615" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G615" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="H615" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I615" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J615" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="K615" s="26"/>
-      <c r="L615" s="26"/>
-      <c r="M615" s="26">
-        <v>0</v>
-      </c>
-      <c r="N615" s="26">
-        <v>0</v>
-      </c>
-      <c r="O615" s="26"/>
-    </row>
-    <row r="616" spans="1:15">
-      <c r="A616" s="26">
-        <v>615</v>
-      </c>
-      <c r="B616" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C616" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D616" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E616" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F616" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G616" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H616" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I616" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J616" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K616" s="26"/>
-      <c r="L616" s="26"/>
-      <c r="M616" s="26">
-        <v>0</v>
-      </c>
-      <c r="N616" s="26">
-        <v>0</v>
-      </c>
-      <c r="O616" s="26"/>
-    </row>
-    <row r="617" spans="1:15">
-      <c r="A617" s="26">
-        <v>616</v>
-      </c>
-      <c r="B617" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C617" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D617" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E617" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F617" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G617" s="26" t="s">
-        <v>685</v>
-      </c>
-      <c r="H617" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I617" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J617" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K617" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L617" s="26"/>
-      <c r="M617" s="26">
-        <v>0</v>
-      </c>
-      <c r="N617" s="26">
-        <v>0</v>
-      </c>
-      <c r="O617" s="26"/>
-    </row>
-    <row r="618" spans="1:15">
-      <c r="A618" s="26">
-        <v>617</v>
-      </c>
-      <c r="B618" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C618" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D618" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E618" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F618" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G618" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H618" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I618" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J618" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="K618" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L618" s="26"/>
-      <c r="M618" s="26">
-        <v>0</v>
-      </c>
-      <c r="N618" s="26">
-        <v>0</v>
-      </c>
-      <c r="O618" s="26"/>
-    </row>
-    <row r="619" spans="1:15">
-      <c r="A619" s="26">
-        <v>618</v>
-      </c>
-      <c r="B619" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C619" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D619" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E619" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F619" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G619" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H619" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="I619" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J619" s="27" t="s">
-        <v>712</v>
-      </c>
-      <c r="K619" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L619" s="26"/>
-      <c r="M619" s="26">
-        <v>0</v>
-      </c>
-      <c r="N619" s="26">
-        <v>0</v>
-      </c>
-      <c r="O619" s="26"/>
-    </row>
-    <row r="620" spans="1:15">
-      <c r="A620" s="26">
-        <v>619</v>
-      </c>
-      <c r="B620" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C620" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D620" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E620" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F620" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G620" s="26" t="s">
-        <v>686</v>
-      </c>
-      <c r="H620" s="26" t="s">
-        <v>689</v>
-      </c>
-      <c r="I620" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J620" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="K620" s="26" t="s">
-        <v>605</v>
-      </c>
-      <c r="L620" s="26"/>
-      <c r="M620" s="26">
-        <v>0</v>
-      </c>
-      <c r="N620" s="26">
-        <v>0</v>
-      </c>
-      <c r="O620" s="26"/>
-    </row>
-    <row r="621" spans="1:15">
-      <c r="A621" s="26">
-        <v>620</v>
-      </c>
-      <c r="B621" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C621" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D621" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E621" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F621" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G621" s="26" t="s">
-        <v>684</v>
-      </c>
-      <c r="H621" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I621" s="26" t="s">
-        <v>696</v>
-      </c>
-      <c r="J621" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K621" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L621" s="26"/>
-      <c r="M621" s="26">
-        <v>0</v>
-      </c>
-      <c r="N621" s="26">
-        <v>0</v>
-      </c>
-      <c r="O621" s="26"/>
-    </row>
-    <row r="622" spans="1:15">
-      <c r="A622" s="26">
-        <v>621</v>
-      </c>
-      <c r="B622" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C622" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D622" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E622" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F622" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G622" s="26" t="s">
-        <v>687</v>
-      </c>
-      <c r="H622" s="26" t="s">
-        <v>688</v>
-      </c>
-      <c r="I622" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J622" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="K622" s="26" t="s">
-        <v>715</v>
-      </c>
-      <c r="L622" s="26"/>
-      <c r="M622" s="26">
-        <v>0</v>
-      </c>
-      <c r="N622" s="26">
-        <v>0</v>
-      </c>
-      <c r="O622" s="26"/>
-    </row>
-    <row r="623" spans="1:15">
-      <c r="A623" s="26">
-        <v>622</v>
-      </c>
-      <c r="B623" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C623" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D623" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E623" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F623" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G623" s="26" t="s">
-        <v>683</v>
-      </c>
-      <c r="H623" s="26" t="s">
-        <v>690</v>
-      </c>
-      <c r="I623" s="26" t="s">
-        <v>697</v>
-      </c>
-      <c r="J623" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="K623" s="26"/>
-      <c r="L623" s="26"/>
-      <c r="M623" s="26">
-        <v>0</v>
-      </c>
-      <c r="N623" s="26">
-        <v>0</v>
-      </c>
-      <c r="O623" s="26"/>
-    </row>
-    <row r="624" spans="1:15">
-      <c r="A624" s="26">
-        <v>623</v>
-      </c>
-      <c r="B624" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C624" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D624" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E624" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F624" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G624" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H624" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I624" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J624" s="27" t="s">
-        <v>710</v>
-      </c>
-      <c r="K624" s="26"/>
-      <c r="L624" s="26"/>
-      <c r="M624" s="26">
-        <v>0</v>
-      </c>
-      <c r="N624" s="26">
-        <v>1</v>
-      </c>
-      <c r="O624" s="26"/>
-    </row>
-    <row r="625" spans="1:15">
-      <c r="A625" s="26">
-        <v>624</v>
-      </c>
-      <c r="B625" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C625" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D625" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E625" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F625" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G625" s="26" t="s">
-        <v>691</v>
-      </c>
-      <c r="H625" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I625" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="J625" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="K625" s="26"/>
-      <c r="L625" s="26"/>
-      <c r="M625" s="26">
-        <v>0</v>
-      </c>
-      <c r="N625" s="26">
-        <v>1</v>
-      </c>
-      <c r="O625" s="26"/>
-    </row>
-    <row r="626" spans="1:15">
-      <c r="A626" s="26">
-        <v>625</v>
-      </c>
-      <c r="B626" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C626" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D626" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E626" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F626" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G626" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H626" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="I626" s="26" t="s">
-        <v>699</v>
-      </c>
-      <c r="J626" s="27" t="s">
-        <v>713</v>
-      </c>
-      <c r="K626" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="L626" s="26"/>
-      <c r="M626" s="26">
-        <v>0</v>
-      </c>
-      <c r="N626" s="26">
-        <v>0</v>
-      </c>
-      <c r="O626" s="26"/>
-    </row>
-    <row r="627" spans="1:15">
-      <c r="A627" s="26">
-        <v>626</v>
-      </c>
-      <c r="B627" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C627" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D627" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E627" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F627" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G627" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H627" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="I627" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J627" s="27" t="s">
-        <v>711</v>
-      </c>
-      <c r="K627" s="26"/>
-      <c r="L627" s="26"/>
-      <c r="M627" s="26">
-        <v>0</v>
-      </c>
-      <c r="N627" s="26">
-        <v>0</v>
-      </c>
-      <c r="O627" s="26"/>
-    </row>
-    <row r="628" spans="1:15">
-      <c r="A628" s="26">
-        <v>627</v>
-      </c>
-      <c r="B628" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C628" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D628" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E628" s="6">
-        <v>44109</v>
-      </c>
-      <c r="F628" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G628" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="H628" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I628" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J628" s="27" t="s">
-        <v>714</v>
-      </c>
-      <c r="K628" s="26"/>
-      <c r="L628" s="26"/>
-      <c r="M628" s="26">
-        <v>0</v>
-      </c>
-      <c r="N628" s="26">
-        <v>0</v>
-      </c>
-      <c r="O628" s="26"/>
-    </row>
-    <row r="629" spans="1:15">
-      <c r="A629" s="26">
-        <v>628</v>
-      </c>
-      <c r="B629" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C629" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D629" s="26"/>
-      <c r="E629" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F629" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G629" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="H629" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I629" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="J629" s="27" t="s">
-        <v>703</v>
-      </c>
-      <c r="K629" s="26" t="s">
-        <v>643</v>
-      </c>
-      <c r="L629" s="26"/>
-      <c r="M629" s="26">
-        <v>0</v>
-      </c>
-      <c r="N629" s="26">
-        <v>0</v>
-      </c>
-      <c r="O629" s="26"/>
-    </row>
-    <row r="630" spans="1:15">
-      <c r="A630" s="26">
-        <v>629</v>
-      </c>
-      <c r="B630" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C630" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D630" s="26"/>
-      <c r="E630" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F630" s="6">
-        <v>44109</v>
-      </c>
-      <c r="G630" s="26" t="s">
-        <v>705</v>
-      </c>
-      <c r="H630" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="I630" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J630" s="27" t="s">
-        <v>704</v>
-      </c>
-      <c r="K630" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L630" s="26"/>
-      <c r="M630" s="26">
-        <v>0</v>
-      </c>
-      <c r="N630" s="26">
-        <v>0</v>
-      </c>
-      <c r="O630" s="26"/>
-    </row>
-    <row r="631" spans="1:15">
-      <c r="A631" s="26">
-        <v>630</v>
-      </c>
-      <c r="B631" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C631" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D631" s="26"/>
-      <c r="E631" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F631" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G631" s="26" t="s">
-        <v>706</v>
-      </c>
-      <c r="H631" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I631" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J631" s="27" t="s">
-        <v>707</v>
-      </c>
-      <c r="K631" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L631" s="26"/>
-      <c r="M631" s="26">
-        <v>0</v>
-      </c>
-      <c r="N631" s="26">
-        <v>0</v>
-      </c>
-      <c r="O631" s="26"/>
-    </row>
-    <row r="632" spans="1:15">
-      <c r="A632" s="26">
-        <v>631</v>
-      </c>
-      <c r="B632" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C632" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D632" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E632" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F632" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G632" s="26" t="s">
-        <v>708</v>
-      </c>
-      <c r="H632" s="26" t="s">
-        <v>695</v>
-      </c>
-      <c r="I632" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J632" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="K632" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="L632" s="26"/>
-      <c r="M632" s="26">
-        <v>0</v>
-      </c>
-      <c r="N632" s="26">
-        <v>0</v>
-      </c>
-      <c r="O632" s="26"/>
-    </row>
-    <row r="633" spans="1:15">
-      <c r="A633" s="26">
-        <v>632</v>
-      </c>
-      <c r="B633" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C633" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D633" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E633" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F633" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G633" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H633" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I633" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J633" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="K633" s="26"/>
-      <c r="L633" s="26"/>
-      <c r="M633" s="26">
-        <v>0</v>
-      </c>
-      <c r="N633" s="26">
-        <v>1</v>
-      </c>
-      <c r="O633" s="26"/>
-    </row>
-    <row r="634" spans="1:15">
-      <c r="A634" s="26">
-        <v>633</v>
-      </c>
-      <c r="B634" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C634" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D634" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E634" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F634" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G634" s="26" t="s">
-        <v>709</v>
-      </c>
-      <c r="H634" s="26" t="s">
-        <v>701</v>
-      </c>
-      <c r="I634" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J634" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="K634" s="26" t="s">
-        <v>770</v>
-      </c>
-      <c r="L634" s="26"/>
-      <c r="M634" s="26">
-        <v>0</v>
-      </c>
-      <c r="N634" s="26">
-        <v>0</v>
-      </c>
-      <c r="O634" s="26"/>
-    </row>
-    <row r="635" spans="1:15">
-      <c r="A635" s="26">
-        <v>634</v>
-      </c>
-      <c r="B635" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C635" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D635" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E635" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F635" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G635" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H635" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I635" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="J635" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="K635" s="26" t="s">
-        <v>728</v>
-      </c>
-      <c r="L635" s="26"/>
-      <c r="M635" s="26">
-        <v>0</v>
-      </c>
-      <c r="N635" s="26">
-        <v>0</v>
-      </c>
-      <c r="O635" s="26"/>
-    </row>
-    <row r="636" spans="1:15">
-      <c r="A636" s="26">
-        <v>635</v>
-      </c>
-      <c r="B636" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C636" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D636" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E636" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F636" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G636" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H636" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I636" s="26" t="s">
-        <v>698</v>
-      </c>
-      <c r="J636" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="K636" s="26"/>
-      <c r="L636" s="26"/>
-      <c r="M636" s="26">
-        <v>0</v>
-      </c>
-      <c r="N636" s="26">
-        <v>1</v>
-      </c>
-      <c r="O636" s="26"/>
-    </row>
-    <row r="637" spans="1:15">
-      <c r="A637" s="26">
-        <v>636</v>
-      </c>
-      <c r="B637" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C637" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D637" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E637" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F637" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G637" s="26" t="s">
-        <v>693</v>
-      </c>
-      <c r="H637" s="26" t="s">
-        <v>694</v>
-      </c>
-      <c r="I637" s="26" t="s">
-        <v>702</v>
-      </c>
-      <c r="J637" s="27" t="s">
-        <v>730</v>
-      </c>
-      <c r="K637" s="26"/>
-      <c r="L637" s="26"/>
-      <c r="M637" s="26">
-        <v>0</v>
-      </c>
-      <c r="N637" s="26">
-        <v>1</v>
-      </c>
-      <c r="O637" s="26"/>
-    </row>
-    <row r="638" spans="1:15">
-      <c r="A638" s="26">
-        <v>637</v>
-      </c>
-      <c r="B638" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C638" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D638" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E638" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F638" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G638" s="26" t="s">
-        <v>718</v>
-      </c>
-      <c r="H638" s="26" t="s">
-        <v>721</v>
-      </c>
-      <c r="I638" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="J638" s="27" t="s">
-        <v>252</v>
-      </c>
-      <c r="K638" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="L638" s="26"/>
-      <c r="M638" s="26">
-        <v>0</v>
-      </c>
-      <c r="N638" s="26">
-        <v>0</v>
-      </c>
-      <c r="O638" s="26"/>
-    </row>
-    <row r="639" spans="1:15">
-      <c r="A639" s="26">
-        <v>638</v>
-      </c>
-      <c r="B639" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C639" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D639" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E639" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F639" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G639" s="26" t="s">
-        <v>719</v>
-      </c>
-      <c r="H639" s="26" t="s">
-        <v>722</v>
-      </c>
-      <c r="I639" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J639" s="27" t="s">
-        <v>729</v>
-      </c>
-      <c r="K639" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="L639" s="26"/>
-      <c r="M639" s="26">
-        <v>0</v>
-      </c>
-      <c r="N639" s="26">
-        <v>0</v>
-      </c>
-      <c r="O639" s="26"/>
-    </row>
-    <row r="640" spans="1:15">
-      <c r="A640" s="26">
-        <v>639</v>
-      </c>
-      <c r="B640" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C640" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D640" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E640" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F640" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G640" s="26" t="s">
-        <v>720</v>
-      </c>
-      <c r="H640" s="26" t="s">
-        <v>723</v>
-      </c>
-      <c r="I640" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J640" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="K640" s="26" t="s">
-        <v>743</v>
-      </c>
-      <c r="L640" s="26"/>
-      <c r="M640" s="26">
-        <v>0</v>
-      </c>
-      <c r="N640" s="26">
-        <v>0</v>
-      </c>
-      <c r="O640" s="26"/>
-    </row>
-    <row r="641" spans="1:15">
-      <c r="A641" s="26">
-        <v>640</v>
-      </c>
-      <c r="B641" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C641" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D641" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E641" s="6">
-        <v>44110</v>
-      </c>
-      <c r="F641" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G641" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H641" s="26" t="s">
-        <v>716</v>
-      </c>
-      <c r="I641" s="26" t="s">
-        <v>717</v>
-      </c>
-      <c r="J641" s="27" t="s">
-        <v>731</v>
-      </c>
-      <c r="K641" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L641" s="26"/>
-      <c r="M641" s="26">
-        <v>0</v>
-      </c>
-      <c r="N641" s="26">
-        <v>0</v>
-      </c>
-      <c r="O641" s="26"/>
-    </row>
-    <row r="642" spans="1:15">
-      <c r="A642" s="26">
-        <v>641</v>
-      </c>
-      <c r="B642" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C642" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D642" s="26"/>
-      <c r="E642" s="6">
-        <v>44111</v>
-      </c>
-      <c r="F642" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G642" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="H642" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I642" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J642" s="27" t="s">
-        <v>726</v>
-      </c>
-      <c r="K642" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L642" s="26"/>
-      <c r="M642" s="26">
-        <v>0</v>
-      </c>
-      <c r="N642" s="26">
-        <v>0</v>
-      </c>
-      <c r="O642" s="26"/>
-    </row>
-    <row r="643" spans="1:15">
-      <c r="A643" s="26">
-        <v>642</v>
-      </c>
-      <c r="B643" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C643" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D643" s="26"/>
-      <c r="E643" s="6">
-        <v>44111</v>
-      </c>
-      <c r="F643" s="6">
-        <v>44110</v>
-      </c>
-      <c r="G643" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="H643" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I643" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J643" s="27" t="s">
-        <v>727</v>
-      </c>
-      <c r="K643" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L643" s="26"/>
-      <c r="M643" s="26">
-        <v>0</v>
-      </c>
-      <c r="N643" s="26">
-        <v>0</v>
-      </c>
-      <c r="O643" s="26"/>
-    </row>
-    <row r="644" spans="1:15">
-      <c r="A644" s="26">
-        <v>643</v>
-      </c>
-      <c r="B644" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C644" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D644" s="26"/>
-      <c r="E644" s="6">
-        <v>44111</v>
-      </c>
-      <c r="F644" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G644" s="26" t="s">
-        <v>692</v>
-      </c>
-      <c r="H644" s="26" t="s">
-        <v>733</v>
-      </c>
-      <c r="I644" s="26" t="s">
-        <v>732</v>
-      </c>
-      <c r="J644" s="27"/>
-      <c r="K644" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L644" s="26"/>
-      <c r="M644" s="26">
-        <v>0</v>
-      </c>
-      <c r="N644" s="26">
-        <v>0</v>
-      </c>
-      <c r="O644" s="26"/>
-    </row>
-    <row r="645" spans="1:15">
-      <c r="A645" s="26">
-        <v>644</v>
-      </c>
-      <c r="B645" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C645" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D645" s="26"/>
-      <c r="E645" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F645" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G645" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="H645" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I645" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J645" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K645" s="26"/>
-      <c r="L645" s="26"/>
-      <c r="M645" s="26">
-        <v>0</v>
-      </c>
-      <c r="N645" s="26">
-        <v>0</v>
-      </c>
-      <c r="O645" s="26"/>
-    </row>
-    <row r="646" spans="1:15">
-      <c r="A646" s="26">
-        <v>645</v>
-      </c>
-      <c r="B646" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C646" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D646" s="26"/>
-      <c r="E646" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F646" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G646" s="26" t="s">
-        <v>724</v>
-      </c>
-      <c r="H646" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I646" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J646" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K646" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L646" s="26"/>
-      <c r="M646" s="26">
-        <v>0</v>
-      </c>
-      <c r="N646" s="26">
-        <v>0</v>
-      </c>
-      <c r="O646" s="26"/>
-    </row>
-    <row r="647" spans="1:15">
-      <c r="A647" s="26">
-        <v>646</v>
-      </c>
-      <c r="B647" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C647" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D647" s="26"/>
-      <c r="E647" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F647" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G647" s="26" t="s">
-        <v>700</v>
-      </c>
-      <c r="H647" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I647" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J647" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K647" s="26"/>
-      <c r="L647" s="26"/>
-      <c r="M647" s="26">
-        <v>0</v>
-      </c>
-      <c r="N647" s="26">
-        <v>0</v>
-      </c>
-      <c r="O647" s="26"/>
-    </row>
-    <row r="648" spans="1:15">
-      <c r="A648" s="26">
-        <v>647</v>
-      </c>
-      <c r="B648" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C648" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D648" s="26"/>
-      <c r="E648" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F648" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G648" s="26" t="s">
-        <v>642</v>
-      </c>
-      <c r="H648" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I648" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J648" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K648" s="26"/>
-      <c r="L648" s="26"/>
-      <c r="M648" s="26">
-        <v>0</v>
-      </c>
-      <c r="N648" s="26">
-        <v>0</v>
-      </c>
-      <c r="O648" s="26"/>
-    </row>
-    <row r="649" spans="1:15">
-      <c r="A649" s="26">
-        <v>648</v>
-      </c>
-      <c r="B649" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C649" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D649" s="26"/>
-      <c r="E649" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F649" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G649" s="26" t="s">
-        <v>725</v>
-      </c>
-      <c r="H649" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I649" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J649" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K649" s="26"/>
-      <c r="L649" s="26"/>
-      <c r="M649" s="26">
-        <v>0</v>
-      </c>
-      <c r="N649" s="26">
-        <v>0</v>
-      </c>
-      <c r="O649" s="26"/>
-    </row>
-    <row r="650" spans="1:15">
-      <c r="A650" s="26">
-        <v>649</v>
-      </c>
-      <c r="B650" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C650" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D650" s="26"/>
-      <c r="E650" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F650" s="6">
-        <v>44111</v>
-      </c>
-      <c r="G650" s="26" t="s">
-        <v>735</v>
-      </c>
-      <c r="H650" s="26" t="s">
-        <v>123</v>
-      </c>
-      <c r="I650" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J650" s="27" t="s">
-        <v>734</v>
-      </c>
-      <c r="K650" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L650" s="26"/>
-      <c r="M650" s="26">
-        <v>0</v>
-      </c>
-      <c r="N650" s="26">
-        <v>0</v>
-      </c>
-      <c r="O650" s="26"/>
-    </row>
-    <row r="651" spans="1:15">
-      <c r="A651" s="26">
-        <v>650</v>
-      </c>
-      <c r="B651" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C651" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D651" s="26"/>
-      <c r="E651" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F651" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G651" s="26" t="s">
-        <v>365</v>
-      </c>
-      <c r="H651" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="I651" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="J651" s="27" t="s">
-        <v>736</v>
-      </c>
-      <c r="K651" s="26"/>
-      <c r="L651" s="26"/>
-      <c r="M651" s="26">
-        <v>0</v>
-      </c>
-      <c r="N651" s="26">
-        <v>0</v>
-      </c>
-      <c r="O651" s="26"/>
-    </row>
-    <row r="652" spans="1:15">
-      <c r="A652" s="26">
-        <v>651</v>
-      </c>
-      <c r="B652" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C652" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D652" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E652" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F652" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G652" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="H652" s="26" t="s">
-        <v>741</v>
-      </c>
-      <c r="I652" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J652" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="K652" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="L652" s="26"/>
-      <c r="M652" s="26">
-        <v>0</v>
-      </c>
-      <c r="N652" s="26">
-        <v>0</v>
-      </c>
-      <c r="O652" s="26"/>
-    </row>
-    <row r="653" spans="1:15">
-      <c r="A653" s="26">
-        <v>652</v>
-      </c>
-      <c r="B653" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C653" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D653" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E653" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F653" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G653" s="26" t="s">
-        <v>740</v>
-      </c>
-      <c r="H653" s="26" t="s">
-        <v>742</v>
-      </c>
-      <c r="I653" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="J653" s="27" t="s">
-        <v>768</v>
-      </c>
-      <c r="K653" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L653" s="26"/>
-      <c r="M653" s="26">
-        <v>0</v>
-      </c>
-      <c r="N653" s="26">
-        <v>0</v>
-      </c>
-      <c r="O653" s="26"/>
-    </row>
-    <row r="654" spans="1:15">
-      <c r="A654" s="26">
-        <v>653</v>
-      </c>
-      <c r="B654" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C654" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D654" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E654" s="6">
-        <v>44112</v>
-      </c>
-      <c r="F654" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G654" s="26" t="s">
-        <v>739</v>
-      </c>
-      <c r="H654" s="26" t="s">
-        <v>737</v>
-      </c>
-      <c r="I654" s="26" t="s">
-        <v>738</v>
-      </c>
-      <c r="J654" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="K654" s="26" t="s">
-        <v>641</v>
-      </c>
-      <c r="L654" s="26"/>
-      <c r="M654" s="26">
-        <v>0</v>
-      </c>
-      <c r="N654" s="26">
-        <v>0</v>
-      </c>
-      <c r="O654" s="26"/>
-    </row>
-    <row r="655" spans="1:15">
-      <c r="A655" s="26">
-        <v>654</v>
-      </c>
-      <c r="B655" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C655" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D655" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E655" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F655" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G655" s="26" t="s">
-        <v>744</v>
-      </c>
-      <c r="H655" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="I655" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J655" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="K655" s="26"/>
-      <c r="L655" s="26"/>
-      <c r="M655" s="26">
-        <v>0</v>
-      </c>
-      <c r="N655" s="26">
-        <v>0</v>
-      </c>
-      <c r="O655" s="26"/>
-    </row>
-    <row r="656" spans="1:15">
-      <c r="A656" s="26">
-        <v>655</v>
-      </c>
-      <c r="B656" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C656" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D656" s="26"/>
-      <c r="E656" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F656" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G656" s="26" t="s">
-        <v>745</v>
-      </c>
-      <c r="H656" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I656" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J656" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="K656" s="26"/>
-      <c r="L656" s="26"/>
-      <c r="M656" s="26">
-        <v>0</v>
-      </c>
-      <c r="N656" s="26">
-        <v>0</v>
-      </c>
-      <c r="O656" s="26"/>
-    </row>
-    <row r="657" spans="1:15">
-      <c r="A657" s="26">
-        <v>656</v>
-      </c>
-      <c r="B657" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C657" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D657" s="26"/>
-      <c r="E657" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F657" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G657" s="26" t="s">
-        <v>746</v>
-      </c>
-      <c r="H657" s="26" t="s">
-        <v>759</v>
-      </c>
-      <c r="I657" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J657" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="K657" s="26"/>
-      <c r="L657" s="26"/>
-      <c r="M657" s="26">
-        <v>0</v>
-      </c>
-      <c r="N657" s="26">
-        <v>0</v>
-      </c>
-      <c r="O657" s="26"/>
-    </row>
-    <row r="658" spans="1:15">
-      <c r="A658" s="26">
-        <v>657</v>
-      </c>
-      <c r="B658" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C658" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D658" s="26"/>
-      <c r="E658" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F658" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G658" s="26" t="s">
-        <v>747</v>
-      </c>
-      <c r="H658" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="I658" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J658" s="27" t="s">
-        <v>765</v>
-      </c>
-      <c r="K658" s="26"/>
-      <c r="L658" s="26"/>
-      <c r="M658" s="26">
-        <v>0</v>
-      </c>
-      <c r="N658" s="26">
-        <v>0</v>
-      </c>
-      <c r="O658" s="26"/>
-    </row>
-    <row r="659" spans="1:15">
-      <c r="A659" s="26">
-        <v>658</v>
-      </c>
-      <c r="B659" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C659" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D659" s="26"/>
-      <c r="E659" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F659" s="6">
-        <v>44112</v>
-      </c>
-      <c r="G659" s="26" t="s">
-        <v>748</v>
-      </c>
-      <c r="H659" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I659" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J659" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="K659" s="26"/>
-      <c r="L659" s="26"/>
-      <c r="M659" s="26">
-        <v>0</v>
-      </c>
-      <c r="N659" s="26">
-        <v>0</v>
-      </c>
-      <c r="O659" s="26"/>
-    </row>
-    <row r="660" spans="1:15">
-      <c r="A660" s="26">
-        <v>659</v>
-      </c>
-      <c r="B660" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C660" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D660" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E660" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F660" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G660" s="26" t="s">
-        <v>749</v>
-      </c>
-      <c r="H660" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="I660" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J660" s="27"/>
-      <c r="K660" s="26"/>
-      <c r="L660" s="26"/>
-      <c r="M660" s="26">
-        <v>0</v>
-      </c>
-      <c r="N660" s="26">
-        <v>0</v>
-      </c>
-      <c r="O660" s="26"/>
-    </row>
-    <row r="661" spans="1:15">
-      <c r="A661" s="26">
-        <v>660</v>
-      </c>
-      <c r="B661" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C661" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D661" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E661" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F661" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G661" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H661" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="I661" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J661" s="27"/>
-      <c r="K661" s="26"/>
-      <c r="L661" s="26"/>
-      <c r="M661" s="26">
-        <v>0</v>
-      </c>
-      <c r="N661" s="26">
-        <v>0</v>
-      </c>
-      <c r="O661" s="26"/>
-    </row>
-    <row r="662" spans="1:15">
-      <c r="A662" s="26">
-        <v>661</v>
-      </c>
-      <c r="B662" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C662" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D662" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E662" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F662" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G662" s="26" t="s">
-        <v>751</v>
-      </c>
-      <c r="H662" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="I662" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J662" s="27"/>
-      <c r="K662" s="26"/>
-      <c r="L662" s="26"/>
-      <c r="M662" s="26">
-        <v>0</v>
-      </c>
-      <c r="N662" s="26">
-        <v>0</v>
-      </c>
-      <c r="O662" s="26"/>
-    </row>
-    <row r="663" spans="1:15">
-      <c r="A663" s="26">
-        <v>662</v>
-      </c>
-      <c r="B663" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C663" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D663" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E663" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F663" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G663" s="26" t="s">
-        <v>752</v>
-      </c>
-      <c r="H663" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="I663" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J663" s="27"/>
-      <c r="K663" s="26"/>
-      <c r="L663" s="26"/>
-      <c r="M663" s="26">
-        <v>0</v>
-      </c>
-      <c r="N663" s="26">
-        <v>0</v>
-      </c>
-      <c r="O663" s="26"/>
-    </row>
-    <row r="664" spans="1:15">
-      <c r="A664" s="26">
-        <v>663</v>
-      </c>
-      <c r="B664" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C664" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D664" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E664" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F664" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G664" s="26" t="s">
-        <v>753</v>
-      </c>
-      <c r="H664" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="I664" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J664" s="27"/>
-      <c r="K664" s="26"/>
-      <c r="L664" s="26"/>
-      <c r="M664" s="26">
-        <v>0</v>
-      </c>
-      <c r="N664" s="26">
-        <v>0</v>
-      </c>
-      <c r="O664" s="26"/>
-    </row>
-    <row r="665" spans="1:15">
-      <c r="A665" s="26">
-        <v>664</v>
-      </c>
-      <c r="B665" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C665" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D665" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E665" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F665" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G665" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H665" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="I665" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J665" s="27"/>
-      <c r="K665" s="26"/>
-      <c r="L665" s="26"/>
-      <c r="M665" s="26">
-        <v>0</v>
-      </c>
-      <c r="N665" s="26">
-        <v>0</v>
-      </c>
-      <c r="O665" s="26"/>
-    </row>
-    <row r="666" spans="1:15">
-      <c r="A666" s="26">
-        <v>665</v>
-      </c>
-      <c r="B666" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C666" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D666" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E666" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F666" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G666" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H666" s="26" t="s">
-        <v>762</v>
-      </c>
-      <c r="I666" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J666" s="27"/>
-      <c r="K666" s="26"/>
-      <c r="L666" s="26"/>
-      <c r="M666" s="26">
-        <v>0</v>
-      </c>
-      <c r="N666" s="26">
-        <v>0</v>
-      </c>
-      <c r="O666" s="26"/>
-    </row>
-    <row r="667" spans="1:15">
-      <c r="A667" s="26">
-        <v>666</v>
-      </c>
-      <c r="B667" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C667" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D667" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E667" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F667" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G667" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H667" s="26" t="s">
-        <v>761</v>
-      </c>
-      <c r="I667" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J667" s="27"/>
-      <c r="K667" s="26"/>
-      <c r="L667" s="26"/>
-      <c r="M667" s="26">
-        <v>0</v>
-      </c>
-      <c r="N667" s="26">
-        <v>0</v>
-      </c>
-      <c r="O667" s="26"/>
-    </row>
-    <row r="668" spans="1:15">
-      <c r="A668" s="26">
-        <v>667</v>
-      </c>
-      <c r="B668" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C668" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D668" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E668" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F668" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G668" s="26" t="s">
-        <v>751</v>
-      </c>
-      <c r="H668" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I668" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J668" s="27"/>
-      <c r="K668" s="26"/>
-      <c r="L668" s="26"/>
-      <c r="M668" s="26">
-        <v>0</v>
-      </c>
-      <c r="N668" s="26">
-        <v>0</v>
-      </c>
-      <c r="O668" s="26"/>
-    </row>
-    <row r="669" spans="1:15">
-      <c r="A669" s="26">
-        <v>668</v>
-      </c>
-      <c r="B669" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C669" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D669" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E669" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F669" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G669" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="H669" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="I669" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J669" s="27"/>
-      <c r="K669" s="26"/>
-      <c r="L669" s="26"/>
-      <c r="M669" s="26">
-        <v>0</v>
-      </c>
-      <c r="N669" s="26">
-        <v>0</v>
-      </c>
-      <c r="O669" s="26"/>
-    </row>
-    <row r="670" spans="1:15">
-      <c r="A670" s="26">
-        <v>669</v>
-      </c>
-      <c r="B670" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C670" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D670" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E670" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F670" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G670" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H670" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="I670" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J670" s="27"/>
-      <c r="K670" s="26"/>
-      <c r="L670" s="26"/>
-      <c r="M670" s="26">
-        <v>0</v>
-      </c>
-      <c r="N670" s="26">
-        <v>0</v>
-      </c>
-      <c r="O670" s="26"/>
-    </row>
-    <row r="671" spans="1:15">
-      <c r="A671" s="26">
-        <v>670</v>
-      </c>
-      <c r="B671" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C671" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D671" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E671" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F671" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G671" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="H671" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I671" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J671" s="27"/>
-      <c r="K671" s="26"/>
-      <c r="L671" s="26"/>
-      <c r="M671" s="26">
-        <v>0</v>
-      </c>
-      <c r="N671" s="26">
-        <v>0</v>
-      </c>
-      <c r="O671" s="26"/>
-    </row>
-    <row r="672" spans="1:15">
-      <c r="A672" s="26">
-        <v>671</v>
-      </c>
-      <c r="B672" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C672" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D672" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E672" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F672" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G672" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="H672" s="26" t="s">
-        <v>763</v>
-      </c>
-      <c r="I672" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J672" s="27"/>
-      <c r="K672" s="26"/>
-      <c r="L672" s="26"/>
-      <c r="M672" s="26">
-        <v>0</v>
-      </c>
-      <c r="N672" s="26">
-        <v>0</v>
-      </c>
-      <c r="O672" s="26"/>
-    </row>
-    <row r="673" spans="1:15">
-      <c r="A673" s="26">
-        <v>672</v>
-      </c>
-      <c r="B673" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C673" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D673" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E673" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F673" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G673" s="26" t="s">
-        <v>754</v>
-      </c>
-      <c r="H673" s="26" t="s">
-        <v>764</v>
-      </c>
-      <c r="I673" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J673" s="27"/>
-      <c r="K673" s="26"/>
-      <c r="L673" s="26"/>
-      <c r="M673" s="26">
-        <v>0</v>
-      </c>
-      <c r="N673" s="26">
-        <v>0</v>
-      </c>
-      <c r="O673" s="26"/>
-    </row>
-    <row r="674" spans="1:15">
-      <c r="A674" s="26">
-        <v>673</v>
-      </c>
-      <c r="B674" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C674" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D674" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E674" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F674" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G674" s="26" t="s">
-        <v>755</v>
-      </c>
-      <c r="H674" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I674" s="26" t="s">
-        <v>757</v>
-      </c>
-      <c r="J674" s="27"/>
-      <c r="K674" s="26"/>
-      <c r="L674" s="26"/>
-      <c r="M674" s="26">
-        <v>0</v>
-      </c>
-      <c r="N674" s="26">
-        <v>0</v>
-      </c>
-      <c r="O674" s="26"/>
-    </row>
-    <row r="675" spans="1:15">
-      <c r="A675" s="26">
-        <v>674</v>
-      </c>
-      <c r="B675" s="26">
-        <v>430005</v>
-      </c>
-      <c r="C675" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D675" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E675" s="6">
-        <v>44113</v>
-      </c>
-      <c r="F675" s="6">
-        <v>44113</v>
-      </c>
-      <c r="G675" s="26" t="s">
-        <v>750</v>
-      </c>
-      <c r="H675" s="26" t="s">
-        <v>758</v>
-      </c>
-      <c r="I675" s="26" t="s">
-        <v>760</v>
-      </c>
-      <c r="J675" s="27"/>
-      <c r="K675" s="26"/>
-      <c r="L675" s="26"/>
-      <c r="M675" s="26">
-        <v>0</v>
-      </c>
-      <c r="N675" s="26">
-        <v>0</v>
-      </c>
-      <c r="O675" s="26"/>
+      <c r="E684" s="20">
+        <v>44114</v>
+      </c>
+      <c r="F684" s="20">
+        <v>44114</v>
+      </c>
+      <c r="G684" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="H684" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="I684" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="J684" s="21"/>
+      <c r="K684" s="19"/>
+      <c r="L684" s="19"/>
+      <c r="M684" s="19">
+        <v>0</v>
+      </c>
+      <c r="N684" s="19">
+        <v>0</v>
+      </c>
+      <c r="O684" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O675"/>
+  <autoFilter ref="A1:O684"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$716</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$722</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="835">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="850">
   <si>
     <t>No</t>
   </si>
@@ -5489,6 +5489,122 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>建築業</t>
+    <rPh sb="0" eb="3">
+      <t>ケンチクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -5496,11 +5612,179 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>建築業</t>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
     <rPh sb="0" eb="3">
-      <t>ケンチクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="3">
+      <t>ミフネマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>会社員</t>
@@ -5510,6 +5794,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>飲食店従業員</t>
     <rPh sb="0" eb="2">
       <t>インショク</t>
@@ -5523,6 +5818,607 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>運送業</t>
+    <rPh sb="0" eb="3">
+      <t>ウンソウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="2">
+      <t>ミナマタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="3">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>女性</t>
     <rPh sb="0" eb="2">
       <t>ジョセイ</t>
@@ -5530,13 +6426,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
@@ -5544,70 +6433,67 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>宇城市</t>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
     <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>会社員</t>
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
     <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5619,287 +6505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>益城町</t>
-    <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>御船町</t>
-    <rPh sb="0" eb="3">
-      <t>ミフネマチ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
-    <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市東区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
@@ -5907,487 +6512,8 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>運送業</t>
-    <rPh sb="0" eb="3">
-      <t>ウンソウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
     <rPh sb="3" eb="5">
       <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="2">
-      <t>ミナマタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="3">
-      <t>インショクテン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6399,7 +6525,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6488,14 +6614,8 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6511,12 +6631,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6613,7 +6727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6671,7 +6785,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6679,13 +6792,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -6976,13 +7089,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O716"/>
+  <dimension ref="A1:O722"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B706" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J717" sqref="J717"/>
+      <selection pane="bottomRight" activeCell="A723" sqref="A723"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -22801,27 +22914,27 @@
       <c r="F398" s="20">
         <v>44058</v>
       </c>
-      <c r="G398" s="28" t="s">
+      <c r="G398" s="27" t="s">
         <v>346</v>
       </c>
-      <c r="H398" s="28" t="s">
+      <c r="H398" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="I398" s="28" t="s">
+      <c r="I398" s="27" t="s">
         <v>339</v>
       </c>
       <c r="J398" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K398" s="28"/>
-      <c r="L398" s="28"/>
-      <c r="M398" s="28">
-        <v>0</v>
-      </c>
-      <c r="N398" s="28">
-        <v>1</v>
-      </c>
-      <c r="O398" s="28"/>
+      <c r="K398" s="27"/>
+      <c r="L398" s="27"/>
+      <c r="M398" s="27">
+        <v>0</v>
+      </c>
+      <c r="N398" s="27">
+        <v>1</v>
+      </c>
+      <c r="O398" s="27"/>
     </row>
     <row r="399" spans="1:15" ht="18.75" customHeight="1">
       <c r="A399" s="23">
@@ -22839,7 +22952,7 @@
       <c r="E399" s="20">
         <v>44058</v>
       </c>
-      <c r="F399" s="29">
+      <c r="F399" s="28">
         <v>44058</v>
       </c>
       <c r="G399" s="23" t="s">
@@ -22856,10 +22969,10 @@
       </c>
       <c r="K399" s="23"/>
       <c r="L399" s="23"/>
-      <c r="M399" s="28">
-        <v>0</v>
-      </c>
-      <c r="N399" s="28">
+      <c r="M399" s="27">
+        <v>0</v>
+      </c>
+      <c r="N399" s="27">
         <v>1</v>
       </c>
       <c r="O399" s="23"/>
@@ -22880,7 +22993,7 @@
       <c r="E400" s="20">
         <v>44058</v>
       </c>
-      <c r="F400" s="29">
+      <c r="F400" s="28">
         <v>44058</v>
       </c>
       <c r="G400" s="23" t="s">
@@ -22897,10 +23010,10 @@
       </c>
       <c r="K400" s="23"/>
       <c r="L400" s="23"/>
-      <c r="M400" s="28">
-        <v>0</v>
-      </c>
-      <c r="N400" s="28">
+      <c r="M400" s="27">
+        <v>0</v>
+      </c>
+      <c r="N400" s="27">
         <v>1</v>
       </c>
       <c r="O400" s="23"/>
@@ -22921,7 +23034,7 @@
       <c r="E401" s="20">
         <v>44058</v>
       </c>
-      <c r="F401" s="29">
+      <c r="F401" s="28">
         <v>44058</v>
       </c>
       <c r="G401" s="23" t="s">
@@ -22938,10 +23051,10 @@
       </c>
       <c r="K401" s="23"/>
       <c r="L401" s="23"/>
-      <c r="M401" s="28">
-        <v>0</v>
-      </c>
-      <c r="N401" s="28">
+      <c r="M401" s="27">
+        <v>0</v>
+      </c>
+      <c r="N401" s="27">
         <v>1</v>
       </c>
       <c r="O401" s="23"/>
@@ -22962,7 +23075,7 @@
       <c r="E402" s="20">
         <v>44058</v>
       </c>
-      <c r="F402" s="29">
+      <c r="F402" s="28">
         <v>44058</v>
       </c>
       <c r="G402" s="23" t="s">
@@ -22979,10 +23092,10 @@
       </c>
       <c r="K402" s="23"/>
       <c r="L402" s="23"/>
-      <c r="M402" s="28">
-        <v>0</v>
-      </c>
-      <c r="N402" s="28">
+      <c r="M402" s="27">
+        <v>0</v>
+      </c>
+      <c r="N402" s="27">
         <v>1</v>
       </c>
       <c r="O402" s="23"/>
@@ -23003,7 +23116,7 @@
       <c r="E403" s="20">
         <v>44058</v>
       </c>
-      <c r="F403" s="29">
+      <c r="F403" s="28">
         <v>44058</v>
       </c>
       <c r="G403" s="23" t="s">
@@ -23020,10 +23133,10 @@
       </c>
       <c r="K403" s="23"/>
       <c r="L403" s="23"/>
-      <c r="M403" s="28">
-        <v>0</v>
-      </c>
-      <c r="N403" s="28">
+      <c r="M403" s="27">
+        <v>0</v>
+      </c>
+      <c r="N403" s="27">
         <v>1</v>
       </c>
       <c r="O403" s="23"/>
@@ -23044,7 +23157,7 @@
       <c r="E404" s="20">
         <v>44058</v>
       </c>
-      <c r="F404" s="29">
+      <c r="F404" s="28">
         <v>44058</v>
       </c>
       <c r="G404" s="23" t="s">
@@ -23083,7 +23196,7 @@
       <c r="E405" s="20">
         <v>44059</v>
       </c>
-      <c r="F405" s="29">
+      <c r="F405" s="28">
         <v>44058</v>
       </c>
       <c r="G405" s="23" t="s">
@@ -23122,7 +23235,7 @@
       <c r="E406" s="20">
         <v>44059</v>
       </c>
-      <c r="F406" s="29">
+      <c r="F406" s="28">
         <v>44058</v>
       </c>
       <c r="G406" s="23" t="s">
@@ -23161,7 +23274,7 @@
       <c r="E407" s="20">
         <v>44059</v>
       </c>
-      <c r="F407" s="29">
+      <c r="F407" s="28">
         <v>44058</v>
       </c>
       <c r="G407" s="23" t="s">
@@ -30050,7 +30163,7 @@
       <c r="M578" s="19">
         <v>0</v>
       </c>
-      <c r="N578" s="27">
+      <c r="N578" s="19">
         <v>1</v>
       </c>
       <c r="O578" s="19"/>
@@ -30132,7 +30245,7 @@
       <c r="M580" s="19">
         <v>0</v>
       </c>
-      <c r="N580" s="27">
+      <c r="N580" s="19">
         <v>1</v>
       </c>
       <c r="O580" s="19"/>
@@ -30209,15 +30322,13 @@
       <c r="J582" s="21" t="s">
         <v>651</v>
       </c>
-      <c r="K582" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K582" s="19"/>
       <c r="L582" s="19"/>
       <c r="M582" s="19">
         <v>0</v>
       </c>
       <c r="N582" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O582" s="19"/>
     </row>
@@ -30255,7 +30366,7 @@
       <c r="M583" s="19">
         <v>0</v>
       </c>
-      <c r="N583" s="27">
+      <c r="N583" s="19">
         <v>1</v>
       </c>
       <c r="O583" s="19"/>
@@ -30294,7 +30405,7 @@
       <c r="M584" s="19">
         <v>0</v>
       </c>
-      <c r="N584" s="27">
+      <c r="N584" s="19">
         <v>1</v>
       </c>
       <c r="O584" s="19"/>
@@ -30333,7 +30444,7 @@
       <c r="M585" s="19">
         <v>0</v>
       </c>
-      <c r="N585" s="27">
+      <c r="N585" s="19">
         <v>1</v>
       </c>
       <c r="O585" s="19"/>
@@ -30492,15 +30603,13 @@
       <c r="J589" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="K589" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K589" s="19"/>
       <c r="L589" s="19"/>
       <c r="M589" s="19">
         <v>0</v>
       </c>
       <c r="N589" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O589" s="19"/>
     </row>
@@ -30541,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="N590" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O590" s="19"/>
     </row>
@@ -30615,15 +30724,13 @@
       <c r="J592" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="K592" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K592" s="19"/>
       <c r="L592" s="19"/>
       <c r="M592" s="19">
         <v>0</v>
       </c>
       <c r="N592" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O592" s="19"/>
     </row>
@@ -30663,7 +30770,7 @@
       <c r="M593" s="19">
         <v>0</v>
       </c>
-      <c r="N593" s="27">
+      <c r="N593" s="19">
         <v>1</v>
       </c>
       <c r="O593" s="19"/>
@@ -30745,7 +30852,7 @@
       <c r="M595" s="19">
         <v>0</v>
       </c>
-      <c r="N595" s="27">
+      <c r="N595" s="19">
         <v>1</v>
       </c>
       <c r="O595" s="19"/>
@@ -31198,7 +31305,7 @@
       <c r="M606" s="19">
         <v>0</v>
       </c>
-      <c r="N606" s="27">
+      <c r="N606" s="19">
         <v>1</v>
       </c>
       <c r="O606" s="19"/>
@@ -31317,7 +31424,7 @@
         <v>673</v>
       </c>
       <c r="K609" s="19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L609" s="19"/>
       <c r="M609" s="19">
@@ -31438,7 +31545,7 @@
         <v>674</v>
       </c>
       <c r="K612" s="19" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="L612" s="19"/>
       <c r="M612" s="19">
@@ -31694,7 +31801,7 @@
       <c r="M618" s="19">
         <v>0</v>
       </c>
-      <c r="N618" s="27">
+      <c r="N618" s="19">
         <v>1</v>
       </c>
       <c r="O618" s="19"/>
@@ -31735,7 +31842,7 @@
       <c r="M619" s="19">
         <v>0</v>
       </c>
-      <c r="N619" s="27">
+      <c r="N619" s="19">
         <v>1</v>
       </c>
       <c r="O619" s="19"/>
@@ -31855,7 +31962,7 @@
       <c r="J622" s="21" t="s">
         <v>706</v>
       </c>
-      <c r="K622" s="27" t="s">
+      <c r="K622" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L622" s="19"/>
@@ -31904,7 +32011,7 @@
         <v>0</v>
       </c>
       <c r="N623" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O623" s="19"/>
     </row>
@@ -32147,7 +32254,7 @@
       <c r="M629" s="19">
         <v>0</v>
       </c>
-      <c r="N629" s="27">
+      <c r="N629" s="19">
         <v>1</v>
       </c>
       <c r="O629" s="19"/>
@@ -32222,15 +32329,13 @@
       <c r="J631" s="21" t="s">
         <v>702</v>
       </c>
-      <c r="K631" s="19" t="s">
-        <v>762</v>
-      </c>
+      <c r="K631" s="19"/>
       <c r="L631" s="19"/>
       <c r="M631" s="19">
         <v>0</v>
       </c>
       <c r="N631" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O631" s="19"/>
     </row>
@@ -32263,17 +32368,15 @@
         <v>693</v>
       </c>
       <c r="J632" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="K632" s="19" t="s">
-        <v>723</v>
-      </c>
+        <v>724</v>
+      </c>
+      <c r="K632" s="19"/>
       <c r="L632" s="19"/>
       <c r="M632" s="19">
         <v>0</v>
       </c>
       <c r="N632" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O632" s="19"/>
     </row>
@@ -32306,7 +32409,7 @@
         <v>693</v>
       </c>
       <c r="J633" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K633" s="19"/>
       <c r="L633" s="19"/>
@@ -32347,9 +32450,9 @@
         <v>693</v>
       </c>
       <c r="J634" s="21" t="s">
-        <v>725</v>
-      </c>
-      <c r="K634" s="27" t="s">
+        <v>724</v>
+      </c>
+      <c r="K634" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L634" s="19"/>
@@ -32390,7 +32493,7 @@
         <v>697</v>
       </c>
       <c r="J635" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K635" s="19"/>
       <c r="L635" s="19"/>
@@ -32431,7 +32534,7 @@
         <v>693</v>
       </c>
       <c r="J636" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K636" s="19"/>
       <c r="L636" s="19"/>
@@ -32472,7 +32575,7 @@
         <v>697</v>
       </c>
       <c r="J637" s="21" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="K637" s="19"/>
       <c r="L637" s="19"/>
@@ -32516,7 +32619,7 @@
         <v>252</v>
       </c>
       <c r="K638" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L638" s="19"/>
       <c r="M638" s="19">
@@ -32556,14 +32659,14 @@
         <v>131</v>
       </c>
       <c r="J639" s="21" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K639" s="22"/>
       <c r="L639" s="19"/>
       <c r="M639" s="19">
         <v>0</v>
       </c>
-      <c r="N639" s="27">
+      <c r="N639" s="19">
         <v>1</v>
       </c>
       <c r="O639" s="19"/>
@@ -32597,7 +32700,7 @@
         <v>131</v>
       </c>
       <c r="J640" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K640" s="19"/>
       <c r="L640" s="19"/>
@@ -32638,7 +32741,7 @@
         <v>712</v>
       </c>
       <c r="J641" s="21" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K641" s="19"/>
       <c r="L641" s="19"/>
@@ -32753,13 +32856,13 @@
         <v>687</v>
       </c>
       <c r="H644" s="19" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I644" s="19" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J644" s="21" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K644" s="19"/>
       <c r="L644" s="19"/>
@@ -32798,7 +32901,7 @@
         <v>131</v>
       </c>
       <c r="J645" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K645" s="19"/>
       <c r="L645" s="19"/>
@@ -32806,7 +32909,7 @@
         <v>0</v>
       </c>
       <c r="N645" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O645" s="19"/>
     </row>
@@ -32837,7 +32940,7 @@
         <v>103</v>
       </c>
       <c r="J646" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K646" s="19"/>
       <c r="L646" s="19"/>
@@ -32876,7 +32979,7 @@
         <v>103</v>
       </c>
       <c r="J647" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K647" s="19"/>
       <c r="L647" s="19"/>
@@ -32915,7 +33018,7 @@
         <v>103</v>
       </c>
       <c r="J648" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K648" s="19"/>
       <c r="L648" s="19"/>
@@ -32954,7 +33057,7 @@
         <v>131</v>
       </c>
       <c r="J649" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K649" s="19" t="s">
         <v>642</v>
@@ -32986,7 +33089,7 @@
         <v>44111</v>
       </c>
       <c r="G650" s="19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H650" s="19" t="s">
         <v>123</v>
@@ -32995,10 +33098,10 @@
         <v>131</v>
       </c>
       <c r="J650" s="21" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K650" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="L650" s="19"/>
       <c r="M650" s="19">
@@ -33036,7 +33139,7 @@
         <v>131</v>
       </c>
       <c r="J651" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="K651" s="19"/>
       <c r="L651" s="19"/>
@@ -33068,26 +33171,24 @@
         <v>44112</v>
       </c>
       <c r="G652" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="H652" s="19" t="s">
         <v>735</v>
-      </c>
-      <c r="H652" s="19" t="s">
-        <v>736</v>
       </c>
       <c r="I652" s="19" t="s">
         <v>103</v>
       </c>
       <c r="J652" s="21" t="s">
-        <v>760</v>
-      </c>
-      <c r="K652" s="19" t="s">
-        <v>762</v>
-      </c>
+        <v>759</v>
+      </c>
+      <c r="K652" s="19"/>
       <c r="L652" s="19"/>
       <c r="M652" s="19">
         <v>0</v>
       </c>
       <c r="N652" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O652" s="19"/>
     </row>
@@ -33111,16 +33212,16 @@
         <v>44112</v>
       </c>
       <c r="G653" s="19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H653" s="19" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I653" s="19" t="s">
         <v>103</v>
       </c>
       <c r="J653" s="21" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="K653" s="19"/>
       <c r="L653" s="19"/>
@@ -33152,13 +33253,13 @@
         <v>44112</v>
       </c>
       <c r="G654" s="19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H654" s="19" t="s">
+        <v>731</v>
+      </c>
+      <c r="I654" s="19" t="s">
         <v>732</v>
-      </c>
-      <c r="I654" s="19" t="s">
-        <v>733</v>
       </c>
       <c r="J654" s="21" t="s">
         <v>47</v>
@@ -33193,16 +33294,16 @@
         <v>44112</v>
       </c>
       <c r="G655" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H655" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I655" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="J655" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K655" s="19"/>
       <c r="L655" s="19"/>
@@ -33232,19 +33333,19 @@
         <v>44112</v>
       </c>
       <c r="G656" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H656" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I656" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J656" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K656" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L656" s="19"/>
       <c r="M656" s="19">
@@ -33273,13 +33374,13 @@
         <v>44112</v>
       </c>
       <c r="G657" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H657" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I657" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J657" s="21" t="s">
         <v>634</v>
@@ -33314,16 +33415,16 @@
         <v>44112</v>
       </c>
       <c r="G658" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H658" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I658" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J658" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K658" s="19" t="s">
         <v>640</v>
@@ -33355,19 +33456,19 @@
         <v>44112</v>
       </c>
       <c r="G659" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H659" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I659" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J659" s="21" t="s">
-        <v>759</v>
-      </c>
-      <c r="K659" s="27" t="s">
-        <v>604</v>
+        <v>758</v>
+      </c>
+      <c r="K659" s="19" t="s">
+        <v>848</v>
       </c>
       <c r="L659" s="19"/>
       <c r="M659" s="19">
@@ -33398,16 +33499,16 @@
         <v>44113</v>
       </c>
       <c r="G660" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H660" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I660" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J660" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K660" s="19"/>
       <c r="L660" s="19"/>
@@ -33439,16 +33540,16 @@
         <v>44113</v>
       </c>
       <c r="G661" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H661" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I661" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J661" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K661" s="19"/>
       <c r="L661" s="19"/>
@@ -33480,16 +33581,16 @@
         <v>44113</v>
       </c>
       <c r="G662" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H662" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I662" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J662" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K662" s="19" t="s">
         <v>640</v>
@@ -33523,18 +33624,18 @@
         <v>44113</v>
       </c>
       <c r="G663" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H663" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I663" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J663" s="21" t="s">
-        <v>778</v>
-      </c>
-      <c r="K663" s="27" t="s">
+        <v>777</v>
+      </c>
+      <c r="K663" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L663" s="19"/>
@@ -33566,19 +33667,19 @@
         <v>44113</v>
       </c>
       <c r="G664" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H664" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I664" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J664" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K664" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L664" s="19"/>
       <c r="M664" s="19">
@@ -33609,19 +33710,19 @@
         <v>44113</v>
       </c>
       <c r="G665" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H665" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I665" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J665" s="21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="K665" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L665" s="19"/>
       <c r="M665" s="19">
@@ -33652,16 +33753,16 @@
         <v>44113</v>
       </c>
       <c r="G666" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H666" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I666" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J666" s="26" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K666" s="19"/>
       <c r="L666" s="19"/>
@@ -33693,18 +33794,18 @@
         <v>44113</v>
       </c>
       <c r="G667" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H667" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I667" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J667" s="21" t="s">
-        <v>777</v>
-      </c>
-      <c r="K667" s="27" t="s">
+        <v>776</v>
+      </c>
+      <c r="K667" s="19" t="s">
         <v>642</v>
       </c>
       <c r="L667" s="19"/>
@@ -33736,19 +33837,19 @@
         <v>44113</v>
       </c>
       <c r="G668" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H668" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I668" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J668" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K668" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L668" s="19"/>
       <c r="M668" s="19">
@@ -33779,16 +33880,16 @@
         <v>44113</v>
       </c>
       <c r="G669" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H669" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I669" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J669" s="21" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="K669" s="19"/>
       <c r="L669" s="19"/>
@@ -33820,19 +33921,19 @@
         <v>44113</v>
       </c>
       <c r="G670" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H670" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I670" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J670" s="21" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="K670" s="19" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="L670" s="19"/>
       <c r="M670" s="19">
@@ -33863,16 +33964,16 @@
         <v>44113</v>
       </c>
       <c r="G671" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H671" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I671" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J671" s="21" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="K671" s="19" t="s">
         <v>640</v>
@@ -33906,16 +34007,16 @@
         <v>44113</v>
       </c>
       <c r="G672" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H672" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I672" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J672" s="21" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="K672" s="19" t="s">
         <v>640</v>
@@ -33949,16 +34050,16 @@
         <v>44113</v>
       </c>
       <c r="G673" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H673" s="19" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I673" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J673" s="21" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="K673" s="19" t="s">
         <v>604</v>
@@ -33992,19 +34093,19 @@
         <v>44113</v>
       </c>
       <c r="G674" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H674" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I674" s="19" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J674" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K674" s="19" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="L674" s="19"/>
       <c r="M674" s="19">
@@ -34035,16 +34136,16 @@
         <v>44113</v>
       </c>
       <c r="G675" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H675" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I675" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J675" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K675" s="19" t="s">
         <v>642</v>
@@ -34076,19 +34177,19 @@
         <v>44113</v>
       </c>
       <c r="G676" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="H676" s="19" t="s">
         <v>765</v>
-      </c>
-      <c r="H676" s="19" t="s">
-        <v>766</v>
       </c>
       <c r="I676" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J676" s="21" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="K676" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L676" s="19"/>
       <c r="M676" s="19">
@@ -34117,19 +34218,19 @@
         <v>44113</v>
       </c>
       <c r="G677" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H677" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I677" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J677" s="21" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="K677" s="19" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L677" s="19"/>
       <c r="M677" s="19">
@@ -34163,13 +34264,13 @@
         <v>67</v>
       </c>
       <c r="H678" s="19" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I678" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J678" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K678" s="19" t="s">
         <v>640</v>
@@ -34203,16 +34304,16 @@
         <v>44114</v>
       </c>
       <c r="G679" s="19" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H679" s="19" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I679" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J679" s="21" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K679" s="19" t="s">
         <v>640</v>
@@ -34246,19 +34347,19 @@
         <v>44114</v>
       </c>
       <c r="G680" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="H680" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="H680" s="19" t="s">
-        <v>764</v>
-      </c>
       <c r="I680" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J680" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K680" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L680" s="19"/>
       <c r="M680" s="19">
@@ -34289,16 +34390,16 @@
         <v>44114</v>
       </c>
       <c r="G681" s="19" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H681" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I681" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J681" s="21" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="K681" s="19" t="s">
         <v>640</v>
@@ -34332,16 +34433,16 @@
         <v>44114</v>
       </c>
       <c r="G682" s="19" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H682" s="19" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="I682" s="19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J682" s="21" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K682" s="19" t="s">
         <v>642</v>
@@ -34378,17 +34479,15 @@
         <v>155</v>
       </c>
       <c r="H683" s="19" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I683" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J683" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="K683" s="27" t="s">
-        <v>640</v>
-      </c>
+        <v>793</v>
+      </c>
+      <c r="K683" s="19"/>
       <c r="L683" s="19"/>
       <c r="M683" s="19">
         <v>0</v>
@@ -34418,18 +34517,18 @@
         <v>44114</v>
       </c>
       <c r="G684" s="19" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H684" s="19" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="I684" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J684" s="21" t="s">
-        <v>796</v>
-      </c>
-      <c r="K684" s="27" t="s">
+        <v>795</v>
+      </c>
+      <c r="K684" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L684" s="19"/>
@@ -34461,19 +34560,19 @@
         <v>44115</v>
       </c>
       <c r="G685" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H685" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I685" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J685" s="21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K685" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L685" s="19"/>
       <c r="M685" s="19">
@@ -34504,19 +34603,19 @@
         <v>44115</v>
       </c>
       <c r="G686" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H686" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I686" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J686" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K686" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L686" s="19"/>
       <c r="M686" s="19">
@@ -34547,18 +34646,18 @@
         <v>44115</v>
       </c>
       <c r="G687" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H687" s="19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="I687" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J687" s="21" t="s">
-        <v>808</v>
-      </c>
-      <c r="K687" s="27" t="s">
+        <v>807</v>
+      </c>
+      <c r="K687" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L687" s="19"/>
@@ -34590,18 +34689,18 @@
         <v>44115</v>
       </c>
       <c r="G688" s="19" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H688" s="19" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I688" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J688" s="21" t="s">
-        <v>809</v>
-      </c>
-      <c r="K688" s="27" t="s">
+        <v>808</v>
+      </c>
+      <c r="K688" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L688" s="19"/>
@@ -34633,16 +34732,16 @@
         <v>44115</v>
       </c>
       <c r="G689" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H689" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I689" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J689" s="21" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K689" s="19" t="s">
         <v>640</v>
@@ -34676,16 +34775,16 @@
         <v>44115</v>
       </c>
       <c r="G690" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H690" s="19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I690" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J690" s="21" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="K690" s="19" t="s">
         <v>640</v>
@@ -34719,18 +34818,18 @@
         <v>44115</v>
       </c>
       <c r="G691" s="19" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H691" s="19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I691" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J691" s="21" t="s">
-        <v>811</v>
-      </c>
-      <c r="K691" s="27" t="s">
+        <v>810</v>
+      </c>
+      <c r="K691" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L691" s="19"/>
@@ -34762,18 +34861,18 @@
         <v>44115</v>
       </c>
       <c r="G692" s="19" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H692" s="19" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="I692" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J692" s="21" t="s">
-        <v>807</v>
-      </c>
-      <c r="K692" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="K692" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L692" s="19"/>
@@ -34805,20 +34904,18 @@
         <v>44115</v>
       </c>
       <c r="G693" s="19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H693" s="19" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I693" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J693" s="21" t="s">
-        <v>806</v>
-      </c>
-      <c r="K693" s="27" t="s">
-        <v>640</v>
-      </c>
+        <v>805</v>
+      </c>
+      <c r="K693" s="19"/>
       <c r="L693" s="19"/>
       <c r="M693" s="19">
         <v>0</v>
@@ -34848,18 +34945,18 @@
         <v>44116</v>
       </c>
       <c r="G694" s="19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H694" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I694" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J694" s="32" t="s">
+      <c r="J694" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K694" s="27" t="s">
+      <c r="K694" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L694" s="19"/>
@@ -34891,18 +34988,18 @@
         <v>44116</v>
       </c>
       <c r="G695" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H695" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I695" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J695" s="33" t="s">
+      <c r="J695" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="K695" s="27" t="s">
+      <c r="K695" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L695" s="19"/>
@@ -34934,18 +35031,18 @@
         <v>44116</v>
       </c>
       <c r="G696" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H696" s="19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I696" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J696" s="32" t="s">
+      <c r="J696" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K696" s="27" t="s">
+      <c r="K696" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L696" s="19"/>
@@ -34977,7 +35074,7 @@
         <v>44116</v>
       </c>
       <c r="G697" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H697" s="19" t="s">
         <v>122</v>
@@ -34985,11 +35082,11 @@
       <c r="I697" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="J697" s="32" t="s">
+      <c r="J697" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K697" s="27" t="s">
-        <v>604</v>
+      <c r="K697" s="19" t="s">
+        <v>640</v>
       </c>
       <c r="L697" s="19"/>
       <c r="M697" s="19">
@@ -35020,18 +35117,18 @@
         <v>44116</v>
       </c>
       <c r="G698" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H698" s="19" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I698" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J698" s="32" t="s">
+      <c r="J698" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K698" s="27" t="s">
+      <c r="K698" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L698" s="19"/>
@@ -35063,7 +35160,7 @@
         <v>44116</v>
       </c>
       <c r="G699" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H699" s="19" t="s">
         <v>122</v>
@@ -35071,10 +35168,12 @@
       <c r="I699" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J699" s="32" t="s">
+      <c r="J699" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K699" s="19"/>
+      <c r="K699" s="19" t="s">
+        <v>847</v>
+      </c>
       <c r="L699" s="19"/>
       <c r="M699" s="19">
         <v>0</v>
@@ -35104,18 +35203,20 @@
         <v>44116</v>
       </c>
       <c r="G700" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H700" s="19" t="s">
         <v>169</v>
       </c>
       <c r="I700" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="J700" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="J700" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K700" s="19"/>
+      <c r="K700" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L700" s="19"/>
       <c r="M700" s="19">
         <v>0</v>
@@ -35145,18 +35246,20 @@
         <v>44116</v>
       </c>
       <c r="G701" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H701" s="19" t="s">
         <v>169</v>
       </c>
       <c r="I701" s="19" t="s">
-        <v>832</v>
-      </c>
-      <c r="J701" s="32" t="s">
+        <v>831</v>
+      </c>
+      <c r="J701" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="K701" s="19"/>
+      <c r="K701" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L701" s="19"/>
       <c r="M701" s="19">
         <v>0</v>
@@ -35186,18 +35289,18 @@
         <v>44116</v>
       </c>
       <c r="G702" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H702" s="19" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I702" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J702" s="32" t="s">
+      <c r="J702" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="K702" s="27" t="s">
+      <c r="K702" s="19" t="s">
         <v>640</v>
       </c>
       <c r="L702" s="19"/>
@@ -35229,18 +35332,18 @@
         <v>44116</v>
       </c>
       <c r="G703" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="H703" s="19" t="s">
         <v>814</v>
-      </c>
-      <c r="H703" s="19" t="s">
-        <v>815</v>
       </c>
       <c r="I703" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="J703" s="32" t="s">
+      <c r="J703" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="K703" s="27" t="s">
+      <c r="K703" s="19" t="s">
         <v>604</v>
       </c>
       <c r="L703" s="19"/>
@@ -35272,18 +35375,20 @@
         <v>44116</v>
       </c>
       <c r="G704" s="19" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H704" s="19" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="I704" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="J704" s="33" t="s">
-        <v>834</v>
-      </c>
-      <c r="K704" s="19"/>
+      <c r="J704" s="32" t="s">
+        <v>833</v>
+      </c>
+      <c r="K704" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L704" s="19"/>
       <c r="M704" s="19">
         <v>0</v>
@@ -35310,19 +35415,21 @@
       <c r="F705" s="20">
         <v>44116</v>
       </c>
-      <c r="G705" s="30" t="s">
-        <v>816</v>
+      <c r="G705" s="29" t="s">
+        <v>815</v>
       </c>
       <c r="H705" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I705" s="31" t="s">
-        <v>830</v>
-      </c>
-      <c r="J705" s="32" t="s">
+        <v>819</v>
+      </c>
+      <c r="I705" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="J705" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="K705" s="19"/>
+      <c r="K705" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L705" s="19"/>
       <c r="M705" s="19">
         <v>0</v>
@@ -35351,17 +35458,21 @@
       <c r="F706" s="20">
         <v>44117</v>
       </c>
-      <c r="G706" s="30" t="s">
+      <c r="G706" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H706" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I706" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="J706" s="21"/>
-      <c r="K706" s="19"/>
+        <v>819</v>
+      </c>
+      <c r="I706" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="J706" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="K706" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L706" s="19"/>
       <c r="M706" s="19">
         <v>0</v>
@@ -35390,17 +35501,21 @@
       <c r="F707" s="20">
         <v>44117</v>
       </c>
-      <c r="G707" s="30" t="s">
+      <c r="G707" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H707" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="I707" s="31" t="s">
-        <v>824</v>
-      </c>
-      <c r="J707" s="21"/>
-      <c r="K707" s="19"/>
+        <v>820</v>
+      </c>
+      <c r="I707" s="30" t="s">
+        <v>823</v>
+      </c>
+      <c r="J707" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="K707" s="19" t="s">
+        <v>848</v>
+      </c>
       <c r="L707" s="19"/>
       <c r="M707" s="19">
         <v>0</v>
@@ -35429,16 +35544,18 @@
       <c r="F708" s="20">
         <v>44117</v>
       </c>
-      <c r="G708" s="30" t="s">
+      <c r="G708" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H708" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I708" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="J708" s="21"/>
+        <v>819</v>
+      </c>
+      <c r="I708" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="J708" s="21" t="s">
+        <v>843</v>
+      </c>
       <c r="K708" s="19"/>
       <c r="L708" s="19"/>
       <c r="M708" s="19">
@@ -35468,17 +35585,21 @@
       <c r="F709" s="20">
         <v>44117</v>
       </c>
-      <c r="G709" s="30" t="s">
+      <c r="G709" s="29" t="s">
         <v>119</v>
       </c>
       <c r="H709" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I709" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="J709" s="21"/>
-      <c r="K709" s="19"/>
+        <v>819</v>
+      </c>
+      <c r="I709" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="J709" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="K709" s="19" t="s">
+        <v>642</v>
+      </c>
       <c r="L709" s="19"/>
       <c r="M709" s="19">
         <v>0</v>
@@ -35507,17 +35628,21 @@
       <c r="F710" s="20">
         <v>44117</v>
       </c>
-      <c r="G710" s="30" t="s">
+      <c r="G710" s="29" t="s">
         <v>114</v>
       </c>
       <c r="H710" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I710" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="J710" s="21"/>
-      <c r="K710" s="19"/>
+        <v>819</v>
+      </c>
+      <c r="I710" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="J710" s="21" t="s">
+        <v>840</v>
+      </c>
+      <c r="K710" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L710" s="19"/>
       <c r="M710" s="19">
         <v>0</v>
@@ -35546,17 +35671,21 @@
       <c r="F711" s="20">
         <v>44117</v>
       </c>
-      <c r="G711" s="30" t="s">
+      <c r="G711" s="29" t="s">
         <v>101</v>
       </c>
       <c r="H711" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I711" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="I711" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J711" s="21"/>
-      <c r="K711" s="19"/>
+      <c r="J711" s="21" t="s">
+        <v>844</v>
+      </c>
+      <c r="K711" s="19" t="s">
+        <v>847</v>
+      </c>
       <c r="L711" s="19"/>
       <c r="M711" s="19">
         <v>0</v>
@@ -35585,16 +35714,18 @@
       <c r="F712" s="20">
         <v>44117</v>
       </c>
-      <c r="G712" s="30" t="s">
+      <c r="G712" s="29" t="s">
         <v>119</v>
       </c>
       <c r="H712" s="19" t="s">
-        <v>821</v>
-      </c>
-      <c r="I712" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="J712" s="21"/>
+        <v>820</v>
+      </c>
+      <c r="I712" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="J712" s="21" t="s">
+        <v>840</v>
+      </c>
       <c r="K712" s="19"/>
       <c r="L712" s="19"/>
       <c r="M712" s="19">
@@ -35624,17 +35755,21 @@
       <c r="F713" s="20">
         <v>44117</v>
       </c>
-      <c r="G713" s="30" t="s">
+      <c r="G713" s="29" t="s">
         <v>118</v>
       </c>
       <c r="H713" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="I713" s="31" t="s">
+        <v>819</v>
+      </c>
+      <c r="I713" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="J713" s="21"/>
-      <c r="K713" s="19"/>
+      <c r="J713" s="21" t="s">
+        <v>631</v>
+      </c>
+      <c r="K713" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L713" s="19"/>
       <c r="M713" s="19">
         <v>0</v>
@@ -35663,17 +35798,21 @@
       <c r="F714" s="20">
         <v>44117</v>
       </c>
-      <c r="G714" s="30" t="s">
-        <v>817</v>
+      <c r="G714" s="29" t="s">
+        <v>816</v>
       </c>
       <c r="H714" s="19" t="s">
-        <v>822</v>
-      </c>
-      <c r="I714" s="31" t="s">
-        <v>826</v>
-      </c>
-      <c r="J714" s="21"/>
-      <c r="K714" s="19"/>
+        <v>821</v>
+      </c>
+      <c r="I714" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="J714" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="K714" s="19" t="s">
+        <v>604</v>
+      </c>
       <c r="L714" s="19"/>
       <c r="M714" s="19">
         <v>0</v>
@@ -35702,16 +35841,18 @@
       <c r="F715" s="20">
         <v>44117</v>
       </c>
-      <c r="G715" s="30" t="s">
-        <v>818</v>
+      <c r="G715" s="29" t="s">
+        <v>817</v>
       </c>
       <c r="H715" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="I715" s="31" t="s">
-        <v>832</v>
-      </c>
-      <c r="J715" s="21"/>
+        <v>822</v>
+      </c>
+      <c r="I715" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="J715" s="21" t="s">
+        <v>840</v>
+      </c>
       <c r="K715" s="19"/>
       <c r="L715" s="19"/>
       <c r="M715" s="19">
@@ -35741,16 +35882,18 @@
       <c r="F716" s="20">
         <v>44117</v>
       </c>
-      <c r="G716" s="30" t="s">
-        <v>819</v>
+      <c r="G716" s="29" t="s">
+        <v>818</v>
       </c>
       <c r="H716" s="19" t="s">
-        <v>823</v>
-      </c>
-      <c r="I716" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="J716" s="21"/>
+        <v>822</v>
+      </c>
+      <c r="I716" s="30" t="s">
+        <v>832</v>
+      </c>
+      <c r="J716" s="21" t="s">
+        <v>840</v>
+      </c>
       <c r="K716" s="19"/>
       <c r="L716" s="19"/>
       <c r="M716" s="19">
@@ -35761,8 +35904,242 @@
       </c>
       <c r="O716" s="19"/>
     </row>
+    <row r="717" spans="1:15">
+      <c r="A717" s="19">
+        <v>716</v>
+      </c>
+      <c r="B717" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C717" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D717" s="19"/>
+      <c r="E717" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F717" s="20">
+        <v>44117</v>
+      </c>
+      <c r="G717" s="19" t="s">
+        <v>836</v>
+      </c>
+      <c r="H717" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="I717" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="J717" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="K717" s="19"/>
+      <c r="L717" s="19"/>
+      <c r="M717" s="19">
+        <v>0</v>
+      </c>
+      <c r="N717" s="19">
+        <v>0</v>
+      </c>
+      <c r="O717" s="19"/>
+    </row>
+    <row r="718" spans="1:15">
+      <c r="A718" s="19">
+        <v>717</v>
+      </c>
+      <c r="B718" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C718" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D718" s="19"/>
+      <c r="E718" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F718" s="20">
+        <v>44117</v>
+      </c>
+      <c r="G718" s="19" t="s">
+        <v>835</v>
+      </c>
+      <c r="H718" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I718" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J718" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="K718" s="19"/>
+      <c r="L718" s="19"/>
+      <c r="M718" s="19">
+        <v>0</v>
+      </c>
+      <c r="N718" s="19">
+        <v>0</v>
+      </c>
+      <c r="O718" s="19"/>
+    </row>
+    <row r="719" spans="1:15">
+      <c r="A719" s="19">
+        <v>718</v>
+      </c>
+      <c r="B719" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C719" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D719" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E719" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F719" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G719" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="H719" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I719" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J719" s="21"/>
+      <c r="K719" s="19"/>
+      <c r="L719" s="19"/>
+      <c r="M719" s="19">
+        <v>0</v>
+      </c>
+      <c r="N719" s="19">
+        <v>0</v>
+      </c>
+      <c r="O719" s="19"/>
+    </row>
+    <row r="720" spans="1:15">
+      <c r="A720" s="19">
+        <v>719</v>
+      </c>
+      <c r="B720" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C720" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D720" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E720" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F720" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G720" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="H720" s="19" t="s">
+        <v>837</v>
+      </c>
+      <c r="I720" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J720" s="21"/>
+      <c r="K720" s="19"/>
+      <c r="L720" s="19"/>
+      <c r="M720" s="19">
+        <v>0</v>
+      </c>
+      <c r="N720" s="19">
+        <v>0</v>
+      </c>
+      <c r="O720" s="19"/>
+    </row>
+    <row r="721" spans="1:15">
+      <c r="A721" s="19">
+        <v>720</v>
+      </c>
+      <c r="B721" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C721" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D721" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E721" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F721" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G721" s="19" t="s">
+        <v>834</v>
+      </c>
+      <c r="H721" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I721" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J721" s="21"/>
+      <c r="K721" s="19"/>
+      <c r="L721" s="19"/>
+      <c r="M721" s="19">
+        <v>0</v>
+      </c>
+      <c r="N721" s="19">
+        <v>0</v>
+      </c>
+      <c r="O721" s="19"/>
+    </row>
+    <row r="722" spans="1:15">
+      <c r="A722" s="19">
+        <v>721</v>
+      </c>
+      <c r="B722" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C722" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D722" s="19" t="s">
+        <v>846</v>
+      </c>
+      <c r="E722" s="20">
+        <v>44118</v>
+      </c>
+      <c r="F722" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G722" s="19" t="s">
+        <v>849</v>
+      </c>
+      <c r="H722" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="I722" s="19" t="s">
+        <v>838</v>
+      </c>
+      <c r="J722" s="21"/>
+      <c r="K722" s="19"/>
+      <c r="L722" s="19"/>
+      <c r="M722" s="19">
+        <v>0</v>
+      </c>
+      <c r="N722" s="19">
+        <v>0</v>
+      </c>
+      <c r="O722" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O716"/>
+  <autoFilter ref="A1:O722"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -10,7 +10,7 @@
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$722</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$728</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="855">
   <si>
     <t>No</t>
   </si>
@@ -5605,6 +5605,212 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>益城町</t>
+    <rPh sb="0" eb="3">
+      <t>マシキマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>御船町</t>
+    <rPh sb="0" eb="3">
+      <t>ミフネマチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>荒尾市</t>
+    <rPh sb="0" eb="3">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -5612,7 +5818,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市南区</t>
+    <t>熊本市北区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
     </rPh>
@@ -5620,47 +5826,441 @@
       <t>シ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>運送業</t>
+    <rPh sb="0" eb="3">
+      <t>ウンソウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
   </si>
   <si>
     <t>甲佐町</t>
     <rPh sb="0" eb="3">
       <t>コウサマチ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>益城町</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
     <rPh sb="0" eb="3">
-      <t>マシキマチ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>御船町</t>
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
     <rPh sb="0" eb="3">
-      <t>ミフネマチ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>荒尾市</t>
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
     <rPh sb="0" eb="3">
-      <t>アラオシ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
     <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="2">
+      <t>ミナマタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>熊本市中央区</t>
@@ -5670,121 +6270,146 @@
     <rPh sb="3" eb="6">
       <t>チュウオウク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>熊本市南区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>熊本市北区</t>
     <rPh sb="0" eb="3">
       <t>クマモトシ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
     <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="11"/>
   </si>
   <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>70代</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>60代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>20代</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>50代</t>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="3">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>会社員</t>
@@ -5794,6 +6419,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>自営業</t>
     <rPh sb="0" eb="3">
       <t>ジエイギョウ</t>
@@ -5801,19 +6460,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>無職</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
     <rPh sb="0" eb="2">
-      <t>インショク</t>
+      <t>クマモト</t>
     </rPh>
     <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5825,74 +6491,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇城市</t>
-    <rPh sb="0" eb="3">
-      <t>ウキシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>熊本市東区</t>
     <rPh sb="0" eb="2">
       <t>クマモト</t>
@@ -5900,621 +6498,58 @@
     <rPh sb="2" eb="3">
       <t>シ</t>
     </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南阿蘇村</t>
+    <rPh sb="0" eb="3">
+      <t>ミナミアソ</t>
+    </rPh>
     <rPh sb="3" eb="4">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南阿蘇村</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミアソムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
     <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チュウオウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
     </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>運送業</t>
-    <rPh sb="0" eb="3">
-      <t>ウンソウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="2">
-      <t>ミナマタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="3">
-      <t>インショクテン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="5">
-      <t>イリョウジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -6727,7 +6762,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6800,6 +6835,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7089,13 +7132,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O722"/>
+  <dimension ref="A1:O728"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B706" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B712" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A723" sqref="A723"/>
+      <selection pane="bottomRight" activeCell="A728" sqref="A728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -29956,7 +29999,7 @@
         <v>639</v>
       </c>
       <c r="K573" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L573" s="19"/>
       <c r="M573" s="22">
@@ -31175,15 +31218,13 @@
       <c r="J603" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="K603" s="19" t="s">
-        <v>710</v>
-      </c>
+      <c r="K603" s="19"/>
       <c r="L603" s="19"/>
       <c r="M603" s="19">
         <v>0</v>
       </c>
       <c r="N603" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O603" s="19"/>
     </row>
@@ -31340,7 +31381,7 @@
         <v>670</v>
       </c>
       <c r="K607" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L607" s="19"/>
       <c r="M607" s="19">
@@ -31423,15 +31464,13 @@
       <c r="J609" s="21" t="s">
         <v>673</v>
       </c>
-      <c r="K609" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K609" s="19"/>
       <c r="L609" s="19"/>
       <c r="M609" s="19">
         <v>0</v>
       </c>
       <c r="N609" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O609" s="19"/>
     </row>
@@ -31503,15 +31542,13 @@
       <c r="J611" s="21" t="s">
         <v>676</v>
       </c>
-      <c r="K611" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K611" s="19"/>
       <c r="L611" s="19"/>
       <c r="M611" s="19">
         <v>0</v>
       </c>
       <c r="N611" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O611" s="19"/>
     </row>
@@ -31545,7 +31582,7 @@
         <v>674</v>
       </c>
       <c r="K612" s="19" t="s">
-        <v>767</v>
+        <v>604</v>
       </c>
       <c r="L612" s="19"/>
       <c r="M612" s="19">
@@ -32052,7 +32089,7 @@
         <v>0</v>
       </c>
       <c r="N624" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O624" s="19"/>
     </row>
@@ -32583,7 +32620,7 @@
         <v>0</v>
       </c>
       <c r="N637" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O637" s="19"/>
     </row>
@@ -32618,15 +32655,13 @@
       <c r="J638" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="K638" s="19" t="s">
-        <v>737</v>
-      </c>
+      <c r="K638" s="19"/>
       <c r="L638" s="19"/>
       <c r="M638" s="19">
         <v>0</v>
       </c>
       <c r="N638" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O638" s="19"/>
     </row>
@@ -32783,7 +32818,7 @@
         <v>721</v>
       </c>
       <c r="K642" s="19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L642" s="19"/>
       <c r="M642" s="19">
@@ -32862,7 +32897,7 @@
         <v>726</v>
       </c>
       <c r="J644" s="21" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K644" s="19"/>
       <c r="L644" s="19"/>
@@ -32870,7 +32905,7 @@
         <v>0</v>
       </c>
       <c r="N644" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O644" s="19"/>
     </row>
@@ -33101,7 +33136,7 @@
         <v>728</v>
       </c>
       <c r="K650" s="19" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="L650" s="19"/>
       <c r="M650" s="19">
@@ -33180,7 +33215,7 @@
         <v>103</v>
       </c>
       <c r="J652" s="21" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="K652" s="19"/>
       <c r="L652" s="19"/>
@@ -33221,7 +33256,7 @@
         <v>103</v>
       </c>
       <c r="J653" s="21" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="K653" s="19"/>
       <c r="L653" s="19"/>
@@ -33229,7 +33264,7 @@
         <v>0</v>
       </c>
       <c r="N653" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O653" s="19"/>
     </row>
@@ -33294,16 +33329,16 @@
         <v>44112</v>
       </c>
       <c r="G655" s="19" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H655" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I655" s="19" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="J655" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K655" s="19"/>
       <c r="L655" s="19"/>
@@ -33333,16 +33368,16 @@
         <v>44112</v>
       </c>
       <c r="G656" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H656" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I656" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J656" s="21" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K656" s="19" t="s">
         <v>640</v>
@@ -33374,13 +33409,13 @@
         <v>44112</v>
       </c>
       <c r="G657" s="19" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H657" s="19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="I657" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J657" s="21" t="s">
         <v>634</v>
@@ -33415,26 +33450,24 @@
         <v>44112</v>
       </c>
       <c r="G658" s="19" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H658" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I658" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J658" s="21" t="s">
-        <v>757</v>
-      </c>
-      <c r="K658" s="19" t="s">
-        <v>640</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="K658" s="19"/>
       <c r="L658" s="19"/>
       <c r="M658" s="19">
         <v>0</v>
       </c>
       <c r="N658" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O658" s="19"/>
     </row>
@@ -33456,19 +33489,19 @@
         <v>44112</v>
       </c>
       <c r="G659" s="19" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H659" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I659" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J659" s="21" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K659" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L659" s="19"/>
       <c r="M659" s="19">
@@ -33499,16 +33532,16 @@
         <v>44113</v>
       </c>
       <c r="G660" s="19" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H660" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I660" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J660" s="21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K660" s="19"/>
       <c r="L660" s="19"/>
@@ -33540,16 +33573,16 @@
         <v>44113</v>
       </c>
       <c r="G661" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H661" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I661" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J661" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K661" s="19"/>
       <c r="L661" s="19"/>
@@ -33581,16 +33614,16 @@
         <v>44113</v>
       </c>
       <c r="G662" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H662" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I662" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J662" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K662" s="19" t="s">
         <v>640</v>
@@ -33624,16 +33657,16 @@
         <v>44113</v>
       </c>
       <c r="G663" s="19" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H663" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I663" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J663" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K663" s="19" t="s">
         <v>640</v>
@@ -33667,19 +33700,19 @@
         <v>44113</v>
       </c>
       <c r="G664" s="19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H664" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I664" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J664" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K664" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L664" s="19"/>
       <c r="M664" s="19">
@@ -33710,19 +33743,19 @@
         <v>44113</v>
       </c>
       <c r="G665" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H665" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I665" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J665" s="21" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="K665" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L665" s="19"/>
       <c r="M665" s="19">
@@ -33753,16 +33786,16 @@
         <v>44113</v>
       </c>
       <c r="G666" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H666" s="19" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I666" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J666" s="26" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K666" s="19"/>
       <c r="L666" s="19"/>
@@ -33794,16 +33827,16 @@
         <v>44113</v>
       </c>
       <c r="G667" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H667" s="19" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="I667" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J667" s="21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K667" s="19" t="s">
         <v>642</v>
@@ -33837,19 +33870,19 @@
         <v>44113</v>
       </c>
       <c r="G668" s="19" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H668" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I668" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J668" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K668" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L668" s="19"/>
       <c r="M668" s="19">
@@ -33880,16 +33913,16 @@
         <v>44113</v>
       </c>
       <c r="G669" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H669" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I669" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J669" s="21" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="K669" s="19"/>
       <c r="L669" s="19"/>
@@ -33921,19 +33954,19 @@
         <v>44113</v>
       </c>
       <c r="G670" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H670" s="19" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="I670" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J670" s="21" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="K670" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L670" s="19"/>
       <c r="M670" s="19">
@@ -33964,16 +33997,16 @@
         <v>44113</v>
       </c>
       <c r="G671" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H671" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I671" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J671" s="21" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="K671" s="19" t="s">
         <v>640</v>
@@ -34007,16 +34040,16 @@
         <v>44113</v>
       </c>
       <c r="G672" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H672" s="19" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I672" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J672" s="21" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="K672" s="19" t="s">
         <v>640</v>
@@ -34050,19 +34083,19 @@
         <v>44113</v>
       </c>
       <c r="G673" s="19" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H673" s="19" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I673" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J673" s="21" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="K673" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L673" s="19"/>
       <c r="M673" s="19">
@@ -34093,19 +34126,19 @@
         <v>44113</v>
       </c>
       <c r="G674" s="19" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H674" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I674" s="19" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="J674" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K674" s="19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="L674" s="19"/>
       <c r="M674" s="19">
@@ -34136,16 +34169,16 @@
         <v>44113</v>
       </c>
       <c r="G675" s="19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H675" s="19" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="I675" s="19" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="J675" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K675" s="19" t="s">
         <v>642</v>
@@ -34177,19 +34210,19 @@
         <v>44113</v>
       </c>
       <c r="G676" s="19" t="s">
+        <v>763</v>
+      </c>
+      <c r="H676" s="19" t="s">
         <v>764</v>
-      </c>
-      <c r="H676" s="19" t="s">
-        <v>765</v>
       </c>
       <c r="I676" s="19" t="s">
         <v>26</v>
       </c>
       <c r="J676" s="21" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="K676" s="19" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L676" s="19"/>
       <c r="M676" s="19">
@@ -34218,19 +34251,19 @@
         <v>44113</v>
       </c>
       <c r="G677" s="19" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H677" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I677" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J677" s="21" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="K677" s="19" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="L677" s="19"/>
       <c r="M677" s="19">
@@ -34264,13 +34297,13 @@
         <v>67</v>
       </c>
       <c r="H678" s="19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I678" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J678" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K678" s="19" t="s">
         <v>640</v>
@@ -34304,16 +34337,16 @@
         <v>44114</v>
       </c>
       <c r="G679" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="H679" s="19" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I679" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J679" s="21" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="K679" s="19" t="s">
         <v>640</v>
@@ -34347,16 +34380,16 @@
         <v>44114</v>
       </c>
       <c r="G680" s="19" t="s">
+        <v>761</v>
+      </c>
+      <c r="H680" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="H680" s="19" t="s">
-        <v>763</v>
-      </c>
       <c r="I680" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J680" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K680" s="19" t="s">
         <v>640</v>
@@ -34390,16 +34423,16 @@
         <v>44114</v>
       </c>
       <c r="G681" s="19" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H681" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I681" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J681" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K681" s="19" t="s">
         <v>640</v>
@@ -34433,16 +34466,16 @@
         <v>44114</v>
       </c>
       <c r="G682" s="19" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H682" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I682" s="19" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="J682" s="21" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="K682" s="19" t="s">
         <v>642</v>
@@ -34479,13 +34512,13 @@
         <v>155</v>
       </c>
       <c r="H683" s="19" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I683" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J683" s="21" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="K683" s="19"/>
       <c r="L683" s="19"/>
@@ -34517,16 +34550,16 @@
         <v>44114</v>
       </c>
       <c r="G684" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="H684" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I684" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J684" s="21" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="K684" s="19" t="s">
         <v>640</v>
@@ -34560,16 +34593,16 @@
         <v>44115</v>
       </c>
       <c r="G685" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H685" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I685" s="19" t="s">
         <v>82</v>
       </c>
       <c r="J685" s="21" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K685" s="19" t="s">
         <v>640</v>
@@ -34603,16 +34636,16 @@
         <v>44115</v>
       </c>
       <c r="G686" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H686" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I686" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J686" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K686" s="19" t="s">
         <v>640</v>
@@ -34646,16 +34679,16 @@
         <v>44115</v>
       </c>
       <c r="G687" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H687" s="19" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I687" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J687" s="21" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="K687" s="19" t="s">
         <v>640</v>
@@ -34689,16 +34722,16 @@
         <v>44115</v>
       </c>
       <c r="G688" s="19" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="H688" s="19" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I688" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J688" s="21" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="K688" s="19" t="s">
         <v>640</v>
@@ -34732,16 +34765,16 @@
         <v>44115</v>
       </c>
       <c r="G689" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H689" s="19" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I689" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J689" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K689" s="19" t="s">
         <v>640</v>
@@ -34775,16 +34808,16 @@
         <v>44115</v>
       </c>
       <c r="G690" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H690" s="19" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I690" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J690" s="21" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="K690" s="19" t="s">
         <v>640</v>
@@ -34818,16 +34851,16 @@
         <v>44115</v>
       </c>
       <c r="G691" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="H691" s="19" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I691" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J691" s="21" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="K691" s="19" t="s">
         <v>640</v>
@@ -34861,16 +34894,16 @@
         <v>44115</v>
       </c>
       <c r="G692" s="19" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H692" s="19" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I692" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J692" s="21" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="K692" s="19" t="s">
         <v>640</v>
@@ -34904,16 +34937,16 @@
         <v>44115</v>
       </c>
       <c r="G693" s="19" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="H693" s="19" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I693" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J693" s="21" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="K693" s="19"/>
       <c r="L693" s="19"/>
@@ -34945,10 +34978,10 @@
         <v>44116</v>
       </c>
       <c r="G694" s="19" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="H694" s="19" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="I694" s="19" t="s">
         <v>28</v>
@@ -34988,10 +35021,10 @@
         <v>44116</v>
       </c>
       <c r="G695" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H695" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I695" s="19" t="s">
         <v>64</v>
@@ -34999,15 +35032,13 @@
       <c r="J695" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="K695" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K695" s="19"/>
       <c r="L695" s="19"/>
       <c r="M695" s="19">
         <v>0</v>
       </c>
       <c r="N695" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O695" s="19"/>
     </row>
@@ -35031,10 +35062,10 @@
         <v>44116</v>
       </c>
       <c r="G696" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H696" s="19" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="I696" s="19" t="s">
         <v>28</v>
@@ -35074,7 +35105,7 @@
         <v>44116</v>
       </c>
       <c r="G697" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H697" s="19" t="s">
         <v>122</v>
@@ -35117,10 +35148,10 @@
         <v>44116</v>
       </c>
       <c r="G698" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H698" s="19" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="I698" s="19" t="s">
         <v>28</v>
@@ -35160,7 +35191,7 @@
         <v>44116</v>
       </c>
       <c r="G699" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H699" s="19" t="s">
         <v>122</v>
@@ -35172,7 +35203,7 @@
         <v>40</v>
       </c>
       <c r="K699" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L699" s="19"/>
       <c r="M699" s="19">
@@ -35203,19 +35234,17 @@
         <v>44116</v>
       </c>
       <c r="G700" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H700" s="19" t="s">
         <v>169</v>
       </c>
       <c r="I700" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="J700" s="31" t="s">
-        <v>68</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="J700" s="31"/>
       <c r="K700" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L700" s="19"/>
       <c r="M700" s="19">
@@ -35246,19 +35275,17 @@
         <v>44116</v>
       </c>
       <c r="G701" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H701" s="19" t="s">
         <v>169</v>
       </c>
       <c r="I701" s="19" t="s">
-        <v>831</v>
-      </c>
-      <c r="J701" s="31" t="s">
-        <v>68</v>
-      </c>
+        <v>829</v>
+      </c>
+      <c r="J701" s="31"/>
       <c r="K701" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L701" s="19"/>
       <c r="M701" s="19">
@@ -35289,10 +35316,10 @@
         <v>44116</v>
       </c>
       <c r="G702" s="19" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="H702" s="19" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I702" s="19" t="s">
         <v>28</v>
@@ -35332,10 +35359,10 @@
         <v>44116</v>
       </c>
       <c r="G703" s="19" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="H703" s="19" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="I703" s="19" t="s">
         <v>28</v>
@@ -35375,19 +35402,19 @@
         <v>44116</v>
       </c>
       <c r="G704" s="19" t="s">
+        <v>798</v>
+      </c>
+      <c r="H704" s="19" t="s">
         <v>800</v>
-      </c>
-      <c r="H704" s="19" t="s">
-        <v>802</v>
       </c>
       <c r="I704" s="19" t="s">
         <v>64</v>
       </c>
       <c r="J704" s="32" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="K704" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L704" s="19"/>
       <c r="M704" s="19">
@@ -35416,19 +35443,19 @@
         <v>44116</v>
       </c>
       <c r="G705" s="29" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="H705" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I705" s="30" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="J705" s="31" t="s">
         <v>38</v>
       </c>
       <c r="K705" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L705" s="19"/>
       <c r="M705" s="19">
@@ -35462,17 +35489,15 @@
         <v>118</v>
       </c>
       <c r="H706" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I706" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J706" s="21" t="s">
-        <v>845</v>
-      </c>
-      <c r="K706" s="19" t="s">
-        <v>848</v>
-      </c>
+        <v>843</v>
+      </c>
+      <c r="K706" s="19"/>
       <c r="L706" s="19"/>
       <c r="M706" s="19">
         <v>0</v>
@@ -35505,16 +35530,16 @@
         <v>118</v>
       </c>
       <c r="H707" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I707" s="30" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="J707" s="21" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="K707" s="19" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L707" s="19"/>
       <c r="M707" s="19">
@@ -35548,15 +35573,17 @@
         <v>118</v>
       </c>
       <c r="H708" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I708" s="30" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="J708" s="21" t="s">
-        <v>843</v>
-      </c>
-      <c r="K708" s="19"/>
+        <v>841</v>
+      </c>
+      <c r="K708" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L708" s="19"/>
       <c r="M708" s="19">
         <v>0</v>
@@ -35589,16 +35616,16 @@
         <v>119</v>
       </c>
       <c r="H709" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I709" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J709" s="21" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="K709" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L709" s="19"/>
       <c r="M709" s="19">
@@ -35632,13 +35659,13 @@
         <v>114</v>
       </c>
       <c r="H710" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I710" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J710" s="21" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="K710" s="19" t="s">
         <v>640</v>
@@ -35675,16 +35702,16 @@
         <v>101</v>
       </c>
       <c r="H711" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I711" s="30" t="s">
         <v>82</v>
       </c>
       <c r="J711" s="21" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="K711" s="19" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="L711" s="19"/>
       <c r="M711" s="19">
@@ -35718,15 +35745,17 @@
         <v>119</v>
       </c>
       <c r="H712" s="19" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="I712" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J712" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="K712" s="19"/>
+        <v>838</v>
+      </c>
+      <c r="K712" s="19" t="s">
+        <v>642</v>
+      </c>
       <c r="L712" s="19"/>
       <c r="M712" s="19">
         <v>0</v>
@@ -35759,7 +35788,7 @@
         <v>118</v>
       </c>
       <c r="H713" s="19" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="I713" s="30" t="s">
         <v>82</v>
@@ -35799,16 +35828,16 @@
         <v>44117</v>
       </c>
       <c r="G714" s="29" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="H714" s="19" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="I714" s="30" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="J714" s="21" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="K714" s="19" t="s">
         <v>604</v>
@@ -35842,18 +35871,20 @@
         <v>44117</v>
       </c>
       <c r="G715" s="29" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="H715" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I715" s="30" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="J715" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="K715" s="19"/>
+        <v>838</v>
+      </c>
+      <c r="K715" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L715" s="19"/>
       <c r="M715" s="19">
         <v>0</v>
@@ -35883,18 +35914,20 @@
         <v>44117</v>
       </c>
       <c r="G716" s="29" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="H716" s="19" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="I716" s="30" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="J716" s="21" t="s">
-        <v>840</v>
-      </c>
-      <c r="K716" s="19"/>
+        <v>838</v>
+      </c>
+      <c r="K716" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L716" s="19"/>
       <c r="M716" s="19">
         <v>0</v>
@@ -35922,18 +35955,20 @@
         <v>44117</v>
       </c>
       <c r="G717" s="19" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="H717" s="19" t="s">
         <v>690</v>
       </c>
       <c r="I717" s="19" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="J717" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="K717" s="19"/>
+        <v>837</v>
+      </c>
+      <c r="K717" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L717" s="19"/>
       <c r="M717" s="19">
         <v>0</v>
@@ -35961,7 +35996,7 @@
         <v>44117</v>
       </c>
       <c r="G718" s="19" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="H718" s="19" t="s">
         <v>696</v>
@@ -35970,9 +36005,11 @@
         <v>131</v>
       </c>
       <c r="J718" s="21" t="s">
-        <v>839</v>
-      </c>
-      <c r="K718" s="19"/>
+        <v>837</v>
+      </c>
+      <c r="K718" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L718" s="19"/>
       <c r="M718" s="19">
         <v>0</v>
@@ -35993,7 +36030,7 @@
         <v>14</v>
       </c>
       <c r="D719" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E719" s="20">
         <v>44118</v>
@@ -36002,7 +36039,7 @@
         <v>44118</v>
       </c>
       <c r="G719" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H719" s="19" t="s">
         <v>122</v>
@@ -36010,7 +36047,9 @@
       <c r="I719" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J719" s="21"/>
+      <c r="J719" s="21" t="s">
+        <v>853</v>
+      </c>
       <c r="K719" s="19"/>
       <c r="L719" s="19"/>
       <c r="M719" s="19">
@@ -36032,7 +36071,7 @@
         <v>14</v>
       </c>
       <c r="D720" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E720" s="20">
         <v>44118</v>
@@ -36041,16 +36080,20 @@
         <v>44118</v>
       </c>
       <c r="G720" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H720" s="19" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I720" s="19" t="s">
         <v>697</v>
       </c>
-      <c r="J720" s="21"/>
-      <c r="K720" s="19"/>
+      <c r="J720" s="21" t="s">
+        <v>854</v>
+      </c>
+      <c r="K720" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L720" s="19"/>
       <c r="M720" s="19">
         <v>0</v>
@@ -36071,7 +36114,7 @@
         <v>14</v>
       </c>
       <c r="D721" s="19" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E721" s="20">
         <v>44118</v>
@@ -36080,7 +36123,7 @@
         <v>44118</v>
       </c>
       <c r="G721" s="19" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="H721" s="19" t="s">
         <v>169</v>
@@ -36089,7 +36132,9 @@
         <v>131</v>
       </c>
       <c r="J721" s="21"/>
-      <c r="K721" s="19"/>
+      <c r="K721" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L721" s="19"/>
       <c r="M721" s="19">
         <v>0</v>
@@ -36103,43 +36148,285 @@
       <c r="A722" s="19">
         <v>721</v>
       </c>
-      <c r="B722" s="19">
-        <v>430005</v>
-      </c>
-      <c r="C722" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D722" s="19" t="s">
-        <v>846</v>
-      </c>
-      <c r="E722" s="20">
+      <c r="B722" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C722" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D722" s="34" t="s">
+        <v>844</v>
+      </c>
+      <c r="E722" s="35">
         <v>44118</v>
       </c>
-      <c r="F722" s="20">
+      <c r="F722" s="35">
         <v>44118</v>
       </c>
-      <c r="G722" s="19" t="s">
+      <c r="G722" s="34" t="s">
+        <v>847</v>
+      </c>
+      <c r="H722" s="34" t="s">
+        <v>696</v>
+      </c>
+      <c r="I722" s="34" t="s">
+        <v>836</v>
+      </c>
+      <c r="J722" s="36" t="s">
+        <v>853</v>
+      </c>
+      <c r="K722" s="34" t="s">
+        <v>640</v>
+      </c>
+      <c r="L722" s="34"/>
+      <c r="M722" s="34">
+        <v>0</v>
+      </c>
+      <c r="N722" s="34">
+        <v>0</v>
+      </c>
+      <c r="O722" s="34"/>
+    </row>
+    <row r="723" spans="1:15">
+      <c r="A723" s="33">
+        <v>722</v>
+      </c>
+      <c r="B723" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C723" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D723" s="19"/>
+      <c r="E723" s="35">
+        <v>44119</v>
+      </c>
+      <c r="F723" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G723" s="19" t="s">
+        <v>848</v>
+      </c>
+      <c r="H723" s="19" t="s">
+        <v>716</v>
+      </c>
+      <c r="I723" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J723" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="K723" s="19" t="s">
+        <v>642</v>
+      </c>
+      <c r="L723" s="19"/>
+      <c r="M723" s="19">
+        <v>0</v>
+      </c>
+      <c r="N723" s="19">
+        <v>0</v>
+      </c>
+      <c r="O723" s="19"/>
+    </row>
+    <row r="724" spans="1:15">
+      <c r="A724" s="33">
+        <v>723</v>
+      </c>
+      <c r="B724" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C724" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D724" s="19"/>
+      <c r="E724" s="35">
+        <v>44119</v>
+      </c>
+      <c r="F724" s="35">
+        <v>44118</v>
+      </c>
+      <c r="G724" s="19" t="s">
         <v>849</v>
       </c>
-      <c r="H722" s="19" t="s">
-        <v>696</v>
-      </c>
-      <c r="I722" s="19" t="s">
-        <v>838</v>
-      </c>
-      <c r="J722" s="21"/>
-      <c r="K722" s="19"/>
-      <c r="L722" s="19"/>
-      <c r="M722" s="19">
-        <v>0</v>
-      </c>
-      <c r="N722" s="19">
-        <v>0</v>
-      </c>
-      <c r="O722" s="19"/>
+      <c r="H724" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I724" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J724" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="K724" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="L724" s="19"/>
+      <c r="M724" s="34">
+        <v>0</v>
+      </c>
+      <c r="N724" s="34">
+        <v>0</v>
+      </c>
+      <c r="O724" s="19"/>
+    </row>
+    <row r="725" spans="1:15">
+      <c r="A725" s="33">
+        <v>724</v>
+      </c>
+      <c r="B725" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C725" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D725" s="19"/>
+      <c r="E725" s="35">
+        <v>44119</v>
+      </c>
+      <c r="F725" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G725" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H725" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I725" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J725" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="K725" s="19"/>
+      <c r="L725" s="19"/>
+      <c r="M725" s="34">
+        <v>0</v>
+      </c>
+      <c r="N725" s="34">
+        <v>0</v>
+      </c>
+      <c r="O725" s="19"/>
+    </row>
+    <row r="726" spans="1:15">
+      <c r="A726" s="33">
+        <v>725</v>
+      </c>
+      <c r="B726" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C726" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D726" s="19"/>
+      <c r="E726" s="35">
+        <v>44119</v>
+      </c>
+      <c r="F726" s="35">
+        <v>44118</v>
+      </c>
+      <c r="G726" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="H726" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="I726" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J726" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="K726" s="19"/>
+      <c r="L726" s="19"/>
+      <c r="M726" s="34">
+        <v>0</v>
+      </c>
+      <c r="N726" s="34">
+        <v>0</v>
+      </c>
+      <c r="O726" s="19"/>
+    </row>
+    <row r="727" spans="1:15">
+      <c r="A727" s="33">
+        <v>726</v>
+      </c>
+      <c r="B727" s="34">
+        <v>430005</v>
+      </c>
+      <c r="C727" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D727" s="19"/>
+      <c r="E727" s="35">
+        <v>44119</v>
+      </c>
+      <c r="F727" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G727" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H727" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="I727" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="J727" s="21" t="s">
+        <v>853</v>
+      </c>
+      <c r="K727" s="19"/>
+      <c r="L727" s="19"/>
+      <c r="M727" s="34">
+        <v>0</v>
+      </c>
+      <c r="N727" s="34">
+        <v>0</v>
+      </c>
+      <c r="O727" s="19"/>
+    </row>
+    <row r="728" spans="1:15">
+      <c r="A728" s="33">
+        <v>727</v>
+      </c>
+      <c r="B728" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C728" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D728" s="19"/>
+      <c r="E728" s="20">
+        <v>44119</v>
+      </c>
+      <c r="F728" s="20">
+        <v>44118</v>
+      </c>
+      <c r="G728" s="19" t="s">
+        <v>850</v>
+      </c>
+      <c r="H728" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="I728" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J728" s="21" t="s">
+        <v>852</v>
+      </c>
+      <c r="K728" s="19"/>
+      <c r="L728" s="19"/>
+      <c r="M728" s="19">
+        <v>0</v>
+      </c>
+      <c r="N728" s="19">
+        <v>0</v>
+      </c>
+      <c r="O728" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O722"/>
+  <autoFilter ref="A1:O728"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="9525" windowHeight="6735"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$748</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$752</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4183" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="896">
   <si>
     <t>No</t>
   </si>
@@ -5982,6 +5982,473 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>非公表</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中学生</t>
+    <rPh sb="0" eb="3">
+      <t>チュウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水俣市</t>
+    <rPh sb="0" eb="2">
+      <t>ミナマタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="3">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="5">
+      <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -5989,825 +6456,434 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甲佐町</t>
+    <rPh sb="0" eb="3">
+      <t>コウサマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南阿蘇村</t>
+    <rPh sb="0" eb="3">
+      <t>ミナミアソ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>南阿蘇村</t>
+    <rPh sb="0" eb="4">
+      <t>ミナミアソムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>農業</t>
+    <rPh sb="0" eb="2">
+      <t>ノウギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>菊陽町</t>
+    <rPh sb="0" eb="3">
+      <t>キクヨウマチ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
     <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>60代</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10歳未満</t>
+    <rPh sb="2" eb="3">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミマン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小学生</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <rPh sb="0" eb="2">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>医療従事者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>10代</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福岡県（荒尾市）</t>
+    <rPh sb="0" eb="3">
+      <t>フクオカケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="3">
+      <t>ナガスマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
     </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="10"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>非公表</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>コウヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中学生</t>
-    <rPh sb="0" eb="3">
-      <t>チュウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>水俣市</t>
-    <rPh sb="0" eb="2">
-      <t>ミナマタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="3">
-      <t>インショクテン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="6">
-      <t>インショクテンジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
-    <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>医療従事者</t>
     <rPh sb="0" eb="5">
       <t>イリョウジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>甲佐町</t>
-    <rPh sb="0" eb="3">
-      <t>コウサマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南阿蘇村</t>
-    <rPh sb="0" eb="3">
-      <t>ミナミアソ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>南阿蘇村</t>
-    <rPh sb="0" eb="4">
-      <t>ミナミアソムラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>農業</t>
-    <rPh sb="0" eb="2">
-      <t>ノウギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>合志市</t>
-    <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>菊陽町</t>
-    <rPh sb="0" eb="3">
-      <t>キクヨウマチ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10歳未満</t>
-    <rPh sb="2" eb="3">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミマン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>小学生</t>
-    <rPh sb="0" eb="3">
-      <t>ショウガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <rPh sb="0" eb="2">
-      <t>イリョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジュウジシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市西区</t>
-    <rPh sb="0" eb="2">
-      <t>クマモト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ニシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>医療従事者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6819,7 +6895,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6914,6 +6990,13 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -7022,7 +7105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7086,6 +7169,7 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -7374,13 +7458,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O748"/>
+  <dimension ref="A1:O752"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B745" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B413" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F754" sqref="F754"/>
+      <selection pane="bottomRight" activeCell="H423" sqref="H423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -30967,7 +31051,7 @@
         <v>666</v>
       </c>
       <c r="K591" s="5" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L591" s="5"/>
       <c r="M591" s="5">
@@ -31621,7 +31705,7 @@
         <v>670</v>
       </c>
       <c r="K607" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L607" s="5"/>
       <c r="M607" s="5">
@@ -32028,15 +32112,13 @@
       <c r="J617" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K617" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="K617" s="5"/>
       <c r="L617" s="5"/>
       <c r="M617" s="5">
         <v>0</v>
       </c>
       <c r="N617" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O617" s="5"/>
     </row>
@@ -33557,7 +33639,7 @@
         <v>748</v>
       </c>
       <c r="I655" s="5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J655" s="7" t="s">
         <v>755</v>
@@ -33596,7 +33678,7 @@
         <v>749</v>
       </c>
       <c r="I656" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J656" s="7" t="s">
         <v>755</v>
@@ -33637,7 +33719,7 @@
         <v>750</v>
       </c>
       <c r="I657" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J657" s="7" t="s">
         <v>634</v>
@@ -33676,7 +33758,7 @@
         <v>748</v>
       </c>
       <c r="I658" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J658" s="7" t="s">
         <v>755</v>
@@ -33715,13 +33797,13 @@
         <v>749</v>
       </c>
       <c r="I659" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J659" s="7" t="s">
         <v>756</v>
       </c>
       <c r="K659" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L659" s="5"/>
       <c r="M659" s="5">
@@ -33758,7 +33840,7 @@
         <v>751</v>
       </c>
       <c r="I660" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J660" s="7" t="s">
         <v>770</v>
@@ -33799,7 +33881,7 @@
         <v>751</v>
       </c>
       <c r="I661" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J661" s="7" t="s">
         <v>771</v>
@@ -33840,7 +33922,7 @@
         <v>752</v>
       </c>
       <c r="I662" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J662" s="7" t="s">
         <v>771</v>
@@ -33881,13 +33963,13 @@
         <v>752</v>
       </c>
       <c r="I663" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J663" s="7" t="s">
         <v>771</v>
       </c>
       <c r="K663" s="5" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L663" s="5"/>
       <c r="M663" s="5">
@@ -33924,7 +34006,7 @@
         <v>751</v>
       </c>
       <c r="I664" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J664" s="7" t="s">
         <v>775</v>
@@ -33965,20 +34047,18 @@
         <v>748</v>
       </c>
       <c r="I665" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J665" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="K665" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K665" s="5"/>
       <c r="L665" s="5"/>
       <c r="M665" s="5">
         <v>0</v>
       </c>
       <c r="N665" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O665" s="5"/>
     </row>
@@ -34008,7 +34088,7 @@
         <v>752</v>
       </c>
       <c r="I666" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J666" s="8" t="s">
         <v>774</v>
@@ -34049,7 +34129,7 @@
         <v>751</v>
       </c>
       <c r="I667" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J667" s="7" t="s">
         <v>770</v>
@@ -34090,7 +34170,7 @@
         <v>749</v>
       </c>
       <c r="I668" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J668" s="7" t="s">
         <v>771</v>
@@ -34131,7 +34211,7 @@
         <v>748</v>
       </c>
       <c r="I669" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J669" s="7" t="s">
         <v>772</v>
@@ -34172,7 +34252,7 @@
         <v>748</v>
       </c>
       <c r="I670" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J670" s="7" t="s">
         <v>770</v>
@@ -34215,7 +34295,7 @@
         <v>749</v>
       </c>
       <c r="I671" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J671" s="7" t="s">
         <v>776</v>
@@ -34256,20 +34336,18 @@
         <v>753</v>
       </c>
       <c r="I672" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J672" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="K672" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="K672" s="5"/>
       <c r="L672" s="5"/>
       <c r="M672" s="5">
         <v>0</v>
       </c>
       <c r="N672" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O672" s="5"/>
     </row>
@@ -34299,7 +34377,7 @@
         <v>754</v>
       </c>
       <c r="I673" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J673" s="7" t="s">
         <v>773</v>
@@ -34342,7 +34420,7 @@
         <v>749</v>
       </c>
       <c r="I674" s="5" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J674" s="7" t="s">
         <v>771</v>
@@ -34383,7 +34461,7 @@
         <v>749</v>
       </c>
       <c r="I675" s="5" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J675" s="7" t="s">
         <v>774</v>
@@ -34466,15 +34544,13 @@
       <c r="J677" s="7" t="s">
         <v>774</v>
       </c>
-      <c r="K677" s="5" t="s">
-        <v>779</v>
-      </c>
+      <c r="K677" s="5"/>
       <c r="L677" s="5"/>
       <c r="M677" s="5">
         <v>0</v>
       </c>
       <c r="N677" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O677" s="5"/>
     </row>
@@ -34504,10 +34580,10 @@
         <v>762</v>
       </c>
       <c r="I678" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J678" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K678" s="5"/>
       <c r="L678" s="5"/>
@@ -34545,10 +34621,10 @@
         <v>766</v>
       </c>
       <c r="I679" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J679" s="7" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="K679" s="5" t="s">
         <v>640</v>
@@ -34588,10 +34664,10 @@
         <v>760</v>
       </c>
       <c r="I680" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J680" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K680" s="5"/>
       <c r="L680" s="5"/>
@@ -34629,10 +34705,10 @@
         <v>767</v>
       </c>
       <c r="I681" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J681" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K681" s="5" t="s">
         <v>604</v>
@@ -34672,20 +34748,18 @@
         <v>768</v>
       </c>
       <c r="I682" s="5" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="J682" s="7" t="s">
-        <v>798</v>
-      </c>
-      <c r="K682" s="5" t="s">
-        <v>642</v>
-      </c>
+        <v>797</v>
+      </c>
+      <c r="K682" s="5"/>
       <c r="L682" s="5"/>
       <c r="M682" s="5">
         <v>0</v>
       </c>
       <c r="N682" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O682" s="5"/>
     </row>
@@ -34718,7 +34792,7 @@
         <v>64</v>
       </c>
       <c r="J683" s="7" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="K683" s="5"/>
       <c r="L683" s="5"/>
@@ -34759,7 +34833,7 @@
         <v>64</v>
       </c>
       <c r="J684" s="7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="K684" s="5" t="s">
         <v>604</v>
@@ -34793,16 +34867,16 @@
         <v>44115</v>
       </c>
       <c r="G685" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H685" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I685" s="5" t="s">
         <v>82</v>
       </c>
       <c r="J685" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K685" s="5"/>
       <c r="L685" s="5"/>
@@ -34834,16 +34908,16 @@
         <v>44115</v>
       </c>
       <c r="G686" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H686" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I686" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J686" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K686" s="5"/>
       <c r="L686" s="5"/>
@@ -34875,16 +34949,16 @@
         <v>44115</v>
       </c>
       <c r="G687" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H687" s="5" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="I687" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J687" s="7" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K687" s="5"/>
       <c r="L687" s="5"/>
@@ -34916,16 +34990,16 @@
         <v>44115</v>
       </c>
       <c r="G688" s="5" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H688" s="5" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I688" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J688" s="7" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K688" s="5"/>
       <c r="L688" s="5"/>
@@ -34957,16 +35031,16 @@
         <v>44115</v>
       </c>
       <c r="G689" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H689" s="5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="I689" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J689" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K689" s="5" t="s">
         <v>640</v>
@@ -35000,16 +35074,16 @@
         <v>44115</v>
       </c>
       <c r="G690" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H690" s="5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="I690" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J690" s="7" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K690" s="5" t="s">
         <v>642</v>
@@ -35043,16 +35117,16 @@
         <v>44115</v>
       </c>
       <c r="G691" s="5" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H691" s="5" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="I691" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J691" s="7" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K691" s="5" t="s">
         <v>640</v>
@@ -35086,16 +35160,16 @@
         <v>44115</v>
       </c>
       <c r="G692" s="5" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H692" s="5" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I692" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J692" s="7" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K692" s="5" t="s">
         <v>640</v>
@@ -35129,16 +35203,16 @@
         <v>44115</v>
       </c>
       <c r="G693" s="5" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H693" s="5" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I693" s="5" t="s">
         <v>28</v>
       </c>
       <c r="J693" s="7" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K693" s="5"/>
       <c r="L693" s="5"/>
@@ -35170,10 +35244,10 @@
         <v>44116</v>
       </c>
       <c r="G694" s="5" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H694" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I694" s="5" t="s">
         <v>28</v>
@@ -35213,10 +35287,10 @@
         <v>44116</v>
       </c>
       <c r="G695" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H695" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I695" s="5" t="s">
         <v>64</v>
@@ -35254,10 +35328,10 @@
         <v>44116</v>
       </c>
       <c r="G696" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H696" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I696" s="5" t="s">
         <v>28</v>
@@ -35295,7 +35369,7 @@
         <v>44116</v>
       </c>
       <c r="G697" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H697" s="5" t="s">
         <v>122</v>
@@ -35307,7 +35381,7 @@
         <v>38</v>
       </c>
       <c r="K697" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L697" s="5"/>
       <c r="M697" s="5">
@@ -35338,10 +35412,10 @@
         <v>44116</v>
       </c>
       <c r="G698" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H698" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I698" s="5" t="s">
         <v>28</v>
@@ -35381,7 +35455,7 @@
         <v>44116</v>
       </c>
       <c r="G699" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H699" s="5" t="s">
         <v>122</v>
@@ -35393,7 +35467,7 @@
         <v>40</v>
       </c>
       <c r="K699" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L699" s="5"/>
       <c r="M699" s="5">
@@ -35424,17 +35498,17 @@
         <v>44116</v>
       </c>
       <c r="G700" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H700" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I700" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J700" s="9"/>
       <c r="K700" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L700" s="5"/>
       <c r="M700" s="5">
@@ -35465,13 +35539,13 @@
         <v>44116</v>
       </c>
       <c r="G701" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H701" s="5" t="s">
         <v>169</v>
       </c>
       <c r="I701" s="5" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J701" s="9"/>
       <c r="K701" s="5" t="s">
@@ -35506,10 +35580,10 @@
         <v>44116</v>
       </c>
       <c r="G702" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H702" s="5" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I702" s="5" t="s">
         <v>28</v>
@@ -35549,10 +35623,10 @@
         <v>44116</v>
       </c>
       <c r="G703" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="H703" s="5" t="s">
         <v>807</v>
-      </c>
-      <c r="H703" s="5" t="s">
-        <v>808</v>
       </c>
       <c r="I703" s="5" t="s">
         <v>28</v>
@@ -35592,19 +35666,19 @@
         <v>44116</v>
       </c>
       <c r="G704" s="5" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H704" s="5" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I704" s="5" t="s">
         <v>64</v>
       </c>
       <c r="J704" s="10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K704" s="5" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="L704" s="5"/>
       <c r="M704" s="5">
@@ -35633,13 +35707,13 @@
         <v>44116</v>
       </c>
       <c r="G705" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H705" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I705" s="12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J705" s="9" t="s">
         <v>38</v>
@@ -35677,13 +35751,13 @@
         <v>118</v>
       </c>
       <c r="H706" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I706" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J706" s="7" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K706" s="5"/>
       <c r="L706" s="5"/>
@@ -35718,13 +35792,13 @@
         <v>118</v>
       </c>
       <c r="H707" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I707" s="12" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J707" s="7" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K707" s="5"/>
       <c r="L707" s="5"/>
@@ -35759,13 +35833,13 @@
         <v>118</v>
       </c>
       <c r="H708" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I708" s="12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J708" s="7" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K708" s="5" t="s">
         <v>640</v>
@@ -35802,13 +35876,13 @@
         <v>119</v>
       </c>
       <c r="H709" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I709" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J709" s="7" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K709" s="5"/>
       <c r="L709" s="5"/>
@@ -35843,13 +35917,13 @@
         <v>114</v>
       </c>
       <c r="H710" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I710" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J710" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K710" s="5" t="s">
         <v>640</v>
@@ -35886,16 +35960,16 @@
         <v>101</v>
       </c>
       <c r="H711" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I711" s="12" t="s">
         <v>82</v>
       </c>
       <c r="J711" s="7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="K711" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="L711" s="5"/>
       <c r="M711" s="5">
@@ -35929,13 +36003,13 @@
         <v>119</v>
       </c>
       <c r="H712" s="5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I712" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J712" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K712" s="5"/>
       <c r="L712" s="5"/>
@@ -35970,7 +36044,7 @@
         <v>118</v>
       </c>
       <c r="H713" s="5" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I713" s="12" t="s">
         <v>82</v>
@@ -36008,16 +36082,16 @@
         <v>44117</v>
       </c>
       <c r="G714" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H714" s="5" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="I714" s="12" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J714" s="7" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K714" s="5" t="s">
         <v>640</v>
@@ -36051,16 +36125,16 @@
         <v>44117</v>
       </c>
       <c r="G715" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H715" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I715" s="12" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J715" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K715" s="5"/>
       <c r="L715" s="5"/>
@@ -36092,16 +36166,16 @@
         <v>44117</v>
       </c>
       <c r="G716" s="11" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H716" s="5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="I716" s="12" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J716" s="7" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="K716" s="5"/>
       <c r="L716" s="5"/>
@@ -36131,26 +36205,24 @@
         <v>44117</v>
       </c>
       <c r="G717" s="5" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H717" s="5" t="s">
         <v>690</v>
       </c>
       <c r="I717" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="J717" s="7" t="s">
         <v>832</v>
       </c>
-      <c r="J717" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="K717" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K717" s="5"/>
       <c r="L717" s="5"/>
       <c r="M717" s="5">
         <v>0</v>
       </c>
       <c r="N717" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O717" s="5"/>
     </row>
@@ -36172,7 +36244,7 @@
         <v>44117</v>
       </c>
       <c r="G718" s="5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H718" s="5" t="s">
         <v>696</v>
@@ -36181,17 +36253,15 @@
         <v>131</v>
       </c>
       <c r="J718" s="7" t="s">
-        <v>833</v>
-      </c>
-      <c r="K718" s="5" t="s">
-        <v>642</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="K718" s="5"/>
       <c r="L718" s="5"/>
       <c r="M718" s="5">
         <v>0</v>
       </c>
       <c r="N718" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O718" s="5"/>
     </row>
@@ -36206,7 +36276,7 @@
         <v>14</v>
       </c>
       <c r="D719" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E719" s="6">
         <v>44118</v>
@@ -36215,7 +36285,7 @@
         <v>44118</v>
       </c>
       <c r="G719" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H719" s="5" t="s">
         <v>122</v>
@@ -36224,7 +36294,7 @@
         <v>131</v>
       </c>
       <c r="J719" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K719" s="5"/>
       <c r="L719" s="5"/>
@@ -36247,7 +36317,7 @@
         <v>14</v>
       </c>
       <c r="D720" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E720" s="6">
         <v>44118</v>
@@ -36256,26 +36326,24 @@
         <v>44118</v>
       </c>
       <c r="G720" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H720" s="5" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="I720" s="5" t="s">
         <v>697</v>
       </c>
       <c r="J720" s="7" t="s">
-        <v>850</v>
-      </c>
-      <c r="K720" s="5" t="s">
-        <v>640</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="K720" s="5"/>
       <c r="L720" s="5"/>
       <c r="M720" s="5">
         <v>0</v>
       </c>
       <c r="N720" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O720" s="5"/>
     </row>
@@ -36290,7 +36358,7 @@
         <v>14</v>
       </c>
       <c r="D721" s="5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E721" s="6">
         <v>44118</v>
@@ -36299,7 +36367,7 @@
         <v>44118</v>
       </c>
       <c r="G721" s="5" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H721" s="5" t="s">
         <v>169</v>
@@ -36331,7 +36399,7 @@
         <v>14</v>
       </c>
       <c r="D722" s="13" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E722" s="14">
         <v>44118</v>
@@ -36340,16 +36408,16 @@
         <v>44118</v>
       </c>
       <c r="G722" s="13" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H722" s="13" t="s">
         <v>696</v>
       </c>
       <c r="I722" s="13" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="J722" s="15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K722" s="13"/>
       <c r="L722" s="13"/>
@@ -36379,7 +36447,7 @@
         <v>44118</v>
       </c>
       <c r="G723" s="5" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H723" s="5" t="s">
         <v>715</v>
@@ -36388,7 +36456,7 @@
         <v>131</v>
       </c>
       <c r="J723" s="7" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K723" s="5" t="s">
         <v>642</v>
@@ -36420,7 +36488,7 @@
         <v>44118</v>
       </c>
       <c r="G724" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H724" s="5" t="s">
         <v>128</v>
@@ -36429,10 +36497,10 @@
         <v>131</v>
       </c>
       <c r="J724" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K724" s="5" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="L724" s="5"/>
       <c r="M724" s="13">
@@ -36461,7 +36529,7 @@
         <v>44118</v>
       </c>
       <c r="G725" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H725" s="5" t="s">
         <v>128</v>
@@ -36470,7 +36538,7 @@
         <v>697</v>
       </c>
       <c r="J725" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K725" s="5" t="s">
         <v>642</v>
@@ -36511,7 +36579,7 @@
         <v>697</v>
       </c>
       <c r="J726" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K726" s="5" t="s">
         <v>604</v>
@@ -36543,7 +36611,7 @@
         <v>44118</v>
       </c>
       <c r="G727" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H727" s="5" t="s">
         <v>752</v>
@@ -36552,10 +36620,10 @@
         <v>697</v>
       </c>
       <c r="J727" s="7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="K727" s="5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="L727" s="5"/>
       <c r="M727" s="13">
@@ -36584,7 +36652,7 @@
         <v>44118</v>
       </c>
       <c r="G728" s="5" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H728" s="5" t="s">
         <v>752</v>
@@ -36593,10 +36661,10 @@
         <v>131</v>
       </c>
       <c r="J728" s="7" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K728" s="5" t="s">
-        <v>860</v>
+        <v>642</v>
       </c>
       <c r="L728" s="5"/>
       <c r="M728" s="5">
@@ -36625,16 +36693,16 @@
         <v>44119</v>
       </c>
       <c r="G729" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H729" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I729" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J729" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K729" s="5" t="s">
         <v>642</v>
@@ -36666,19 +36734,19 @@
         <v>44119</v>
       </c>
       <c r="G730" s="5" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H730" s="5" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I730" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="J730" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K730" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L730" s="5"/>
       <c r="M730" s="5">
@@ -36707,16 +36775,16 @@
         <v>44119</v>
       </c>
       <c r="G731" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H731" s="5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I731" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J731" s="7" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="K731" s="5" t="s">
         <v>642</v>
@@ -36748,16 +36816,16 @@
         <v>44119</v>
       </c>
       <c r="G732" s="5" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H732" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I732" s="5" t="s">
         <v>62</v>
       </c>
       <c r="J732" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K732" s="5" t="s">
         <v>642</v>
@@ -36782,7 +36850,7 @@
         <v>14</v>
       </c>
       <c r="D733" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E733" s="6">
         <v>44120</v>
@@ -36791,16 +36859,16 @@
         <v>44120</v>
       </c>
       <c r="G733" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H733" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I733" s="5" t="s">
         <v>131</v>
       </c>
       <c r="J733" s="7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K733" s="5" t="s">
         <v>604</v>
@@ -36825,7 +36893,7 @@
         <v>14</v>
       </c>
       <c r="D734" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E734" s="6">
         <v>44120</v>
@@ -36834,16 +36902,16 @@
         <v>44120</v>
       </c>
       <c r="G734" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H734" s="5" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="I734" s="5" t="s">
         <v>697</v>
       </c>
       <c r="J734" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K734" s="5"/>
       <c r="L734" s="5"/>
@@ -36866,7 +36934,7 @@
         <v>14</v>
       </c>
       <c r="D735" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E735" s="6">
         <v>44120</v>
@@ -36875,26 +36943,24 @@
         <v>44120</v>
       </c>
       <c r="G735" s="5" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H735" s="5" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="I735" s="5" t="s">
         <v>697</v>
       </c>
       <c r="J735" s="7" t="s">
-        <v>869</v>
-      </c>
-      <c r="K735" s="5" t="s">
-        <v>640</v>
-      </c>
+        <v>868</v>
+      </c>
+      <c r="K735" s="5"/>
       <c r="L735" s="5"/>
       <c r="M735" s="5">
         <v>0</v>
       </c>
       <c r="N735" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O735" s="5"/>
     </row>
@@ -36909,7 +36975,7 @@
         <v>14</v>
       </c>
       <c r="D736" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E736" s="6">
         <v>44120</v>
@@ -36918,16 +36984,16 @@
         <v>44120</v>
       </c>
       <c r="G736" s="5" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H736" s="5" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I736" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J736" s="7" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="K736" s="5" t="s">
         <v>640</v>
@@ -36952,7 +37018,7 @@
         <v>14</v>
       </c>
       <c r="D737" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E737" s="6">
         <v>44120</v>
@@ -36961,10 +37027,10 @@
         <v>44120</v>
       </c>
       <c r="G737" s="5" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H737" s="5" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="I737" s="5" t="s">
         <v>62</v>
@@ -37009,7 +37075,7 @@
         <v>62</v>
       </c>
       <c r="J738" s="7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K738" s="5" t="s">
         <v>642</v>
@@ -37052,10 +37118,10 @@
         <v>103</v>
       </c>
       <c r="J739" s="7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="K739" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L739" s="5"/>
       <c r="M739" s="5">
@@ -37095,7 +37161,7 @@
         <v>62</v>
       </c>
       <c r="J740" s="7" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K740" s="5" t="s">
         <v>640</v>
@@ -37138,7 +37204,7 @@
         <v>62</v>
       </c>
       <c r="J741" s="7" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K741" s="5" t="s">
         <v>640</v>
@@ -37181,7 +37247,7 @@
         <v>103</v>
       </c>
       <c r="J742" s="15" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="K742" s="13" t="s">
         <v>640</v>
@@ -37213,7 +37279,7 @@
         <v>44121</v>
       </c>
       <c r="G743" s="5" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H743" s="5" t="s">
         <v>752</v>
@@ -37222,7 +37288,7 @@
         <v>103</v>
       </c>
       <c r="J743" s="7" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K743" s="5" t="s">
         <v>640</v>
@@ -37256,7 +37322,7 @@
         <v>44122</v>
       </c>
       <c r="G744" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H744" s="5" t="s">
         <v>120</v>
@@ -37295,7 +37361,7 @@
         <v>44122</v>
       </c>
       <c r="G745" s="5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H745" s="5" t="s">
         <v>752</v>
@@ -37305,7 +37371,7 @@
       </c>
       <c r="J745" s="7"/>
       <c r="K745" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L745" s="5"/>
       <c r="M745" s="5">
@@ -37336,7 +37402,7 @@
         <v>44122</v>
       </c>
       <c r="G746" s="5" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H746" s="5" t="s">
         <v>120</v>
@@ -37346,7 +37412,7 @@
       </c>
       <c r="J746" s="7"/>
       <c r="K746" s="5" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L746" s="5"/>
       <c r="M746" s="5">
@@ -37375,18 +37441,20 @@
         <v>44123</v>
       </c>
       <c r="G747" s="5" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H747" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="I747" s="5" t="s">
         <v>880</v>
       </c>
-      <c r="I747" s="5" t="s">
+      <c r="J747" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="J747" s="7" t="s">
-        <v>882</v>
-      </c>
-      <c r="K747" s="5"/>
+      <c r="K747" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L747" s="5"/>
       <c r="M747" s="5">
         <v>0</v>
@@ -37416,16 +37484,18 @@
         <v>44123</v>
       </c>
       <c r="G748" s="5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H748" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I748" s="5" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="J748" s="7"/>
-      <c r="K748" s="5"/>
+      <c r="K748" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L748" s="5"/>
       <c r="M748" s="5">
         <v>0</v>
@@ -37435,8 +37505,164 @@
       </c>
       <c r="O748" s="5"/>
     </row>
+    <row r="749" spans="1:15">
+      <c r="A749" s="16">
+        <v>748</v>
+      </c>
+      <c r="B749" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C749" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D749" s="5"/>
+      <c r="E749" s="6">
+        <v>44124</v>
+      </c>
+      <c r="F749" s="6">
+        <v>44123</v>
+      </c>
+      <c r="G749" s="29" t="s">
+        <v>888</v>
+      </c>
+      <c r="H749" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="I749" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J749" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="K749" s="5"/>
+      <c r="L749" s="5"/>
+      <c r="M749" s="5">
+        <v>0</v>
+      </c>
+      <c r="N749" s="5">
+        <v>0</v>
+      </c>
+      <c r="O749" s="5"/>
+    </row>
+    <row r="750" spans="1:15">
+      <c r="A750" s="16">
+        <v>749</v>
+      </c>
+      <c r="B750" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C750" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D750" s="5"/>
+      <c r="E750" s="6">
+        <v>44124</v>
+      </c>
+      <c r="F750" s="6">
+        <v>44123</v>
+      </c>
+      <c r="G750" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H750" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="I750" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="J750" s="7" t="s">
+        <v>894</v>
+      </c>
+      <c r="K750" s="5"/>
+      <c r="L750" s="5"/>
+      <c r="M750" s="5">
+        <v>0</v>
+      </c>
+      <c r="N750" s="5">
+        <v>0</v>
+      </c>
+      <c r="O750" s="5"/>
+    </row>
+    <row r="751" spans="1:15">
+      <c r="A751" s="16">
+        <v>750</v>
+      </c>
+      <c r="B751" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C751" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D751" s="5"/>
+      <c r="E751" s="6">
+        <v>44124</v>
+      </c>
+      <c r="F751" s="6">
+        <v>44123</v>
+      </c>
+      <c r="G751" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="H751" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="I751" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="J751" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="K751" s="5"/>
+      <c r="L751" s="5"/>
+      <c r="M751" s="5">
+        <v>0</v>
+      </c>
+      <c r="N751" s="5">
+        <v>0</v>
+      </c>
+      <c r="O751" s="5"/>
+    </row>
+    <row r="752" spans="1:15">
+      <c r="A752" s="16">
+        <v>751</v>
+      </c>
+      <c r="B752" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C752" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D752" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E752" s="6">
+        <v>44124</v>
+      </c>
+      <c r="F752" s="6">
+        <v>44124</v>
+      </c>
+      <c r="G752" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="H752" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="I752" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="J752" s="7"/>
+      <c r="K752" s="5"/>
+      <c r="L752" s="5"/>
+      <c r="M752" s="5">
+        <v>0</v>
+      </c>
+      <c r="N752" s="5">
+        <v>0</v>
+      </c>
+      <c r="O752" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O748"/>
+  <autoFilter ref="A1:O752"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="9525" windowHeight="6735"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4196" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4212" uniqueCount="903">
   <si>
     <t>No</t>
   </si>
@@ -6884,6 +6884,61 @@
     <t>医療従事者</t>
     <rPh sb="0" eb="5">
       <t>イリョウジュウジシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="6">
+      <t>クマモトシチュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市西区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7458,13 +7513,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O752"/>
+  <dimension ref="A1:O756"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B413" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B743" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H423" sqref="H423"/>
+      <selection pane="bottomRight" activeCell="C753" sqref="C753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -31705,7 +31760,7 @@
         <v>670</v>
       </c>
       <c r="K607" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L607" s="5"/>
       <c r="M607" s="5">
@@ -33683,15 +33738,13 @@
       <c r="J656" s="7" t="s">
         <v>755</v>
       </c>
-      <c r="K656" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K656" s="5"/>
       <c r="L656" s="5"/>
       <c r="M656" s="5">
         <v>0</v>
       </c>
       <c r="N656" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O656" s="5"/>
     </row>
@@ -33802,15 +33855,13 @@
       <c r="J659" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="K659" s="5" t="s">
-        <v>841</v>
-      </c>
+      <c r="K659" s="5"/>
       <c r="L659" s="5"/>
       <c r="M659" s="5">
         <v>0</v>
       </c>
       <c r="N659" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O659" s="5"/>
     </row>
@@ -33969,7 +34020,7 @@
         <v>771</v>
       </c>
       <c r="K663" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L663" s="5"/>
       <c r="M663" s="5">
@@ -34382,15 +34433,13 @@
       <c r="J673" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="K673" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K673" s="5"/>
       <c r="L673" s="5"/>
       <c r="M673" s="5">
         <v>0</v>
       </c>
       <c r="N673" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O673" s="5"/>
     </row>
@@ -35042,15 +35091,13 @@
       <c r="J689" s="7" t="s">
         <v>799</v>
       </c>
-      <c r="K689" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K689" s="5"/>
       <c r="L689" s="5"/>
       <c r="M689" s="5">
         <v>0</v>
       </c>
       <c r="N689" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O689" s="5"/>
     </row>
@@ -35085,15 +35132,13 @@
       <c r="J690" s="7" t="s">
         <v>802</v>
       </c>
-      <c r="K690" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="K690" s="5"/>
       <c r="L690" s="5"/>
       <c r="M690" s="5">
         <v>0</v>
       </c>
       <c r="N690" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O690" s="5"/>
     </row>
@@ -35128,15 +35173,13 @@
       <c r="J691" s="7" t="s">
         <v>803</v>
       </c>
-      <c r="K691" s="5" t="s">
-        <v>640</v>
-      </c>
+      <c r="K691" s="5"/>
       <c r="L691" s="5"/>
       <c r="M691" s="5">
         <v>0</v>
       </c>
       <c r="N691" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O691" s="5"/>
     </row>
@@ -35548,15 +35591,13 @@
         <v>824</v>
       </c>
       <c r="J701" s="9"/>
-      <c r="K701" s="5" t="s">
-        <v>642</v>
-      </c>
+      <c r="K701" s="5"/>
       <c r="L701" s="5"/>
       <c r="M701" s="5">
         <v>0</v>
       </c>
       <c r="N701" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O701" s="5"/>
     </row>
@@ -35765,7 +35806,7 @@
         <v>0</v>
       </c>
       <c r="N706" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O706" s="5"/>
     </row>
@@ -35969,7 +36010,7 @@
         <v>837</v>
       </c>
       <c r="K711" s="5" t="s">
-        <v>840</v>
+        <v>640</v>
       </c>
       <c r="L711" s="5"/>
       <c r="M711" s="5">
@@ -36705,7 +36746,7 @@
         <v>865</v>
       </c>
       <c r="K729" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L729" s="5"/>
       <c r="M729" s="5">
@@ -36787,7 +36828,7 @@
         <v>866</v>
       </c>
       <c r="K731" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L731" s="5"/>
       <c r="M731" s="5">
@@ -37249,9 +37290,7 @@
       <c r="J742" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="K742" s="13" t="s">
-        <v>640</v>
-      </c>
+      <c r="K742" s="13"/>
       <c r="L742" s="13"/>
       <c r="M742" s="13">
         <v>0</v>
@@ -37534,7 +37573,9 @@
       <c r="J749" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="K749" s="5"/>
+      <c r="K749" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L749" s="5"/>
       <c r="M749" s="5">
         <v>0</v>
@@ -37573,7 +37614,9 @@
       <c r="J750" s="7" t="s">
         <v>894</v>
       </c>
-      <c r="K750" s="5"/>
+      <c r="K750" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L750" s="5"/>
       <c r="M750" s="5">
         <v>0</v>
@@ -37612,7 +37655,9 @@
       <c r="J751" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="K751" s="5"/>
+      <c r="K751" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L751" s="5"/>
       <c r="M751" s="5">
         <v>0</v>
@@ -37651,7 +37696,9 @@
         <v>887</v>
       </c>
       <c r="J752" s="7"/>
-      <c r="K752" s="5"/>
+      <c r="K752" s="5" t="s">
+        <v>640</v>
+      </c>
       <c r="L752" s="5"/>
       <c r="M752" s="5">
         <v>0</v>
@@ -37660,6 +37707,162 @@
         <v>0</v>
       </c>
       <c r="O752" s="5"/>
+    </row>
+    <row r="753" spans="1:15">
+      <c r="A753" s="16">
+        <v>752</v>
+      </c>
+      <c r="B753" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C753" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D753" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E753" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F753" s="6">
+        <v>44125</v>
+      </c>
+      <c r="G753" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="H753" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="I753" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J753" s="7"/>
+      <c r="K753" s="5"/>
+      <c r="L753" s="5"/>
+      <c r="M753" s="5">
+        <v>0</v>
+      </c>
+      <c r="N753" s="5">
+        <v>0</v>
+      </c>
+      <c r="O753" s="5"/>
+    </row>
+    <row r="754" spans="1:15">
+      <c r="A754" s="16">
+        <v>753</v>
+      </c>
+      <c r="B754" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C754" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D754" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E754" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F754" s="6">
+        <v>44125</v>
+      </c>
+      <c r="G754" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H754" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="I754" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="J754" s="7"/>
+      <c r="K754" s="5"/>
+      <c r="L754" s="5"/>
+      <c r="M754" s="5">
+        <v>0</v>
+      </c>
+      <c r="N754" s="5">
+        <v>0</v>
+      </c>
+      <c r="O754" s="5"/>
+    </row>
+    <row r="755" spans="1:15">
+      <c r="A755" s="16">
+        <v>754</v>
+      </c>
+      <c r="B755" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C755" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D755" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E755" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F755" s="6">
+        <v>44125</v>
+      </c>
+      <c r="G755" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="H755" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="I755" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="J755" s="7"/>
+      <c r="K755" s="5"/>
+      <c r="L755" s="5"/>
+      <c r="M755" s="5">
+        <v>0</v>
+      </c>
+      <c r="N755" s="5">
+        <v>0</v>
+      </c>
+      <c r="O755" s="5"/>
+    </row>
+    <row r="756" spans="1:15">
+      <c r="A756" s="16">
+        <v>755</v>
+      </c>
+      <c r="B756" s="5">
+        <v>430005</v>
+      </c>
+      <c r="C756" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D756" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E756" s="6">
+        <v>44125</v>
+      </c>
+      <c r="F756" s="6">
+        <v>44125</v>
+      </c>
+      <c r="G756" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="H756" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="I756" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="J756" s="7"/>
+      <c r="K756" s="5"/>
+      <c r="L756" s="5"/>
+      <c r="M756" s="5">
+        <v>0</v>
+      </c>
+      <c r="N756" s="5">
+        <v>0</v>
+      </c>
+      <c r="O756" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O752"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7245"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$772</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$776</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4297" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4319" uniqueCount="933">
   <si>
     <t>No</t>
   </si>
@@ -7108,6 +7108,64 @@
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="2">
+      <t>クマモト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="3">
+      <t>インショクテン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7708,13 +7766,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O772"/>
+  <dimension ref="A1:O776"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B766" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A772" sqref="A313:O772"/>
+      <selection pane="bottomRight" activeCell="D767" sqref="D767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -31304,15 +31362,13 @@
       <c r="J591" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="K591" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K591" s="19"/>
       <c r="L591" s="19"/>
       <c r="M591" s="19">
         <v>0</v>
       </c>
       <c r="N591" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O591" s="19"/>
     </row>
@@ -36714,7 +36770,7 @@
         <v>845</v>
       </c>
       <c r="K724" s="19" t="s">
-        <v>868</v>
+        <v>640</v>
       </c>
       <c r="L724" s="19"/>
       <c r="M724" s="26">
@@ -36755,7 +36811,7 @@
         <v>845</v>
       </c>
       <c r="K725" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L725" s="19"/>
       <c r="M725" s="26">
@@ -37404,15 +37460,13 @@
       <c r="J741" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="K741" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K741" s="19"/>
       <c r="L741" s="19"/>
       <c r="M741" s="19">
         <v>0</v>
       </c>
       <c r="N741" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O741" s="19"/>
     </row>
@@ -37651,7 +37705,7 @@
         <v>879</v>
       </c>
       <c r="K747" s="19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L747" s="19"/>
       <c r="M747" s="19">
@@ -37857,15 +37911,13 @@
       <c r="J752" s="20" t="s">
         <v>902</v>
       </c>
-      <c r="K752" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K752" s="19"/>
       <c r="L752" s="19"/>
       <c r="M752" s="19">
         <v>0</v>
       </c>
       <c r="N752" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O752" s="19"/>
     </row>
@@ -38195,15 +38247,13 @@
       <c r="J760" s="20" t="s">
         <v>919</v>
       </c>
-      <c r="K760" s="19" t="s">
-        <v>912</v>
-      </c>
+      <c r="K760" s="19"/>
       <c r="L760" s="19"/>
       <c r="M760" s="19">
         <v>0</v>
       </c>
       <c r="N760" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O760" s="19"/>
     </row>
@@ -38401,7 +38451,7 @@
         <v>37</v>
       </c>
       <c r="K765" s="19" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="L765" s="19"/>
       <c r="M765" s="19">
@@ -38441,7 +38491,9 @@
       <c r="J766" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="K766" s="19"/>
+      <c r="K766" s="19" t="s">
+        <v>930</v>
+      </c>
       <c r="L766" s="19"/>
       <c r="M766" s="19">
         <v>0</v>
@@ -38481,7 +38533,7 @@
         <v>37</v>
       </c>
       <c r="K767" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L767" s="19"/>
       <c r="M767" s="19">
@@ -38522,7 +38574,7 @@
         <v>37</v>
       </c>
       <c r="K768" s="19" t="s">
-        <v>640</v>
+        <v>868</v>
       </c>
       <c r="L768" s="19"/>
       <c r="M768" s="19">
@@ -38600,7 +38652,9 @@
       <c r="I770" s="19" t="s">
         <v>924</v>
       </c>
-      <c r="J770" s="20"/>
+      <c r="J770" s="20" t="s">
+        <v>246</v>
+      </c>
       <c r="K770" s="19" t="s">
         <v>640</v>
       </c>
@@ -38641,7 +38695,9 @@
       <c r="I771" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J771" s="20"/>
+      <c r="J771" s="20" t="s">
+        <v>606</v>
+      </c>
       <c r="K771" s="19" t="s">
         <v>640</v>
       </c>
@@ -38678,12 +38734,14 @@
         <v>123</v>
       </c>
       <c r="I772" s="19" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="J772" s="20" t="s">
         <v>925</v>
       </c>
-      <c r="K772" s="19"/>
+      <c r="K772" s="19" t="s">
+        <v>930</v>
+      </c>
       <c r="L772" s="19"/>
       <c r="M772" s="31">
         <v>0</v>
@@ -38693,8 +38751,168 @@
       </c>
       <c r="O772" s="19"/>
     </row>
+    <row r="773" spans="1:15">
+      <c r="A773" s="30">
+        <v>772</v>
+      </c>
+      <c r="B773" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C773" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D773" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E773" s="5">
+        <v>44130</v>
+      </c>
+      <c r="F773" s="5">
+        <v>44130</v>
+      </c>
+      <c r="G773" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="H773" s="19" t="s">
+        <v>927</v>
+      </c>
+      <c r="I773" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="J773" s="20" t="s">
+        <v>931</v>
+      </c>
+      <c r="K773" s="19"/>
+      <c r="L773" s="19"/>
+      <c r="M773" s="31">
+        <v>0</v>
+      </c>
+      <c r="N773" s="31">
+        <v>0</v>
+      </c>
+      <c r="O773" s="19"/>
+    </row>
+    <row r="774" spans="1:15">
+      <c r="A774" s="30">
+        <v>773</v>
+      </c>
+      <c r="B774" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C774" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D774" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E774" s="5">
+        <v>44130</v>
+      </c>
+      <c r="F774" s="5">
+        <v>44130</v>
+      </c>
+      <c r="G774" s="19" t="s">
+        <v>926</v>
+      </c>
+      <c r="H774" s="19" t="s">
+        <v>928</v>
+      </c>
+      <c r="I774" s="19" t="s">
+        <v>929</v>
+      </c>
+      <c r="J774" s="20" t="s">
+        <v>932</v>
+      </c>
+      <c r="K774" s="19"/>
+      <c r="L774" s="19"/>
+      <c r="M774" s="31">
+        <v>0</v>
+      </c>
+      <c r="N774" s="31">
+        <v>0</v>
+      </c>
+      <c r="O774" s="19"/>
+    </row>
+    <row r="775" spans="1:15">
+      <c r="A775" s="30">
+        <v>774</v>
+      </c>
+      <c r="B775" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C775" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D775" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E775" s="5">
+        <v>44131</v>
+      </c>
+      <c r="F775" s="5">
+        <v>44131</v>
+      </c>
+      <c r="G775" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H775" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I775" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J775" s="20"/>
+      <c r="K775" s="19"/>
+      <c r="L775" s="19"/>
+      <c r="M775" s="31">
+        <v>0</v>
+      </c>
+      <c r="N775" s="31">
+        <v>0</v>
+      </c>
+      <c r="O775" s="19"/>
+    </row>
+    <row r="776" spans="1:15">
+      <c r="A776" s="19">
+        <v>775</v>
+      </c>
+      <c r="B776" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C776" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D776" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E776" s="5">
+        <v>44131</v>
+      </c>
+      <c r="F776" s="5">
+        <v>44131</v>
+      </c>
+      <c r="G776" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="H776" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I776" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J776" s="20"/>
+      <c r="K776" s="19"/>
+      <c r="L776" s="19"/>
+      <c r="M776" s="31">
+        <v>0</v>
+      </c>
+      <c r="N776" s="31">
+        <v>0</v>
+      </c>
+      <c r="O776" s="19"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O772"/>
+  <autoFilter ref="A1:O776"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7215"/>
+    <workbookView showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
   </bookViews>
   <sheets>
     <sheet name="陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$781</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">陽性患者属性!$A$1:$O$804</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">陽性患者属性!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4382" uniqueCount="960">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4476" uniqueCount="987">
   <si>
     <t>No</t>
   </si>
@@ -7177,6 +7177,272 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食業</t>
+    <rPh sb="0" eb="3">
+      <t>インショクギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="6">
+      <t>インショクテンジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嘉島町</t>
+    <rPh sb="0" eb="3">
+      <t>カシママチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="3">
+      <t>アソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中等症</t>
     <rPh sb="0" eb="2">
       <t>チュウトウ</t>
@@ -7187,24 +7453,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="3">
-      <t>チュウトウショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
     </rPh>
@@ -7218,6 +7474,40 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>30代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -7225,6 +7515,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>男性</t>
     <rPh sb="0" eb="2">
       <t>ダンセイ</t>
@@ -7232,39 +7529,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>飲食店従業員</t>
+    <t>宇城市</t>
+    <rPh sb="0" eb="3">
+      <t>ウキシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
     <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食業</t>
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高校生</t>
     <rPh sb="0" eb="3">
-      <t>インショクギョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>重症</t>
-    <rPh sb="0" eb="2">
-      <t>ジュウショウ</t>
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務員</t>
+    <rPh sb="0" eb="3">
+      <t>ジムイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7272,117 +7578,6 @@
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -7977,13 +8172,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O788"/>
+  <dimension ref="A1:O804"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B779" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B787" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M792" sqref="M792"/>
+      <selection pane="bottomRight" activeCell="J802" sqref="J802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -34766,15 +34961,13 @@
       <c r="J670" s="20" t="s">
         <v>770</v>
       </c>
-      <c r="K670" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K670" s="19"/>
       <c r="L670" s="19"/>
       <c r="M670" s="19">
         <v>0</v>
       </c>
       <c r="N670" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O670" s="19"/>
     </row>
@@ -35341,7 +35534,7 @@
         <v>788</v>
       </c>
       <c r="K684" s="19" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="L684" s="19"/>
       <c r="M684" s="19">
@@ -35753,7 +35946,7 @@
         <v>38</v>
       </c>
       <c r="K694" s="19" t="s">
-        <v>604</v>
+        <v>642</v>
       </c>
       <c r="L694" s="19"/>
       <c r="M694" s="19">
@@ -36120,7 +36313,7 @@
         <v>37</v>
       </c>
       <c r="K703" s="19" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="L703" s="19"/>
       <c r="M703" s="19">
@@ -36406,15 +36599,13 @@
       <c r="J710" s="20" t="s">
         <v>833</v>
       </c>
-      <c r="K710" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K710" s="19"/>
       <c r="L710" s="19"/>
       <c r="M710" s="19">
         <v>0</v>
       </c>
       <c r="N710" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O710" s="19"/>
     </row>
@@ -37210,15 +37401,13 @@
       <c r="J730" s="20" t="s">
         <v>863</v>
       </c>
-      <c r="K730" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K730" s="19"/>
       <c r="L730" s="19"/>
       <c r="M730" s="19">
         <v>0</v>
       </c>
       <c r="N730" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O730" s="19"/>
     </row>
@@ -37331,15 +37520,13 @@
       <c r="J733" s="20" t="s">
         <v>865</v>
       </c>
-      <c r="K733" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K733" s="19"/>
       <c r="L733" s="19"/>
       <c r="M733" s="19">
         <v>0</v>
       </c>
       <c r="N733" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O733" s="19"/>
     </row>
@@ -37737,15 +37924,13 @@
       <c r="J743" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="K743" s="19" t="s">
-        <v>640</v>
-      </c>
+      <c r="K743" s="19"/>
       <c r="L743" s="19"/>
       <c r="M743" s="19">
         <v>0</v>
       </c>
       <c r="N743" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O743" s="19"/>
     </row>
@@ -37981,15 +38166,13 @@
       <c r="J749" s="20" t="s">
         <v>891</v>
       </c>
-      <c r="K749" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K749" s="19"/>
       <c r="L749" s="19"/>
       <c r="M749" s="19">
         <v>0</v>
       </c>
       <c r="N749" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O749" s="19"/>
     </row>
@@ -38188,15 +38371,13 @@
       <c r="J754" s="20" t="s">
         <v>901</v>
       </c>
-      <c r="K754" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K754" s="19"/>
       <c r="L754" s="19"/>
       <c r="M754" s="19">
         <v>0</v>
       </c>
       <c r="N754" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O754" s="19"/>
     </row>
@@ -38519,7 +38700,7 @@
         <v>37</v>
       </c>
       <c r="K762" s="19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L762" s="19"/>
       <c r="M762" s="19">
@@ -38560,7 +38741,7 @@
         <v>37</v>
       </c>
       <c r="K763" s="19" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="L763" s="19"/>
       <c r="M763" s="19">
@@ -38681,7 +38862,7 @@
         <v>37</v>
       </c>
       <c r="K766" s="19" t="s">
-        <v>929</v>
+        <v>640</v>
       </c>
       <c r="L766" s="19"/>
       <c r="M766" s="19">
@@ -38885,15 +39066,13 @@
       <c r="J771" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="K771" s="19" t="s">
-        <v>642</v>
-      </c>
+      <c r="K771" s="19"/>
       <c r="L771" s="19"/>
       <c r="M771" s="31">
         <v>0</v>
       </c>
       <c r="N771" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O771" s="19"/>
     </row>
@@ -39013,7 +39192,7 @@
         <v>931</v>
       </c>
       <c r="K774" s="19" t="s">
-        <v>933</v>
+        <v>868</v>
       </c>
       <c r="L774" s="19"/>
       <c r="M774" s="31">
@@ -39053,10 +39232,10 @@
         <v>131</v>
       </c>
       <c r="J775" s="20" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="K775" s="19" t="s">
-        <v>934</v>
+        <v>640</v>
       </c>
       <c r="L775" s="19"/>
       <c r="M775" s="31">
@@ -39096,7 +39275,7 @@
         <v>131</v>
       </c>
       <c r="J776" s="20" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K776" s="19"/>
       <c r="L776" s="19"/>
@@ -39128,20 +39307,18 @@
         <v>44132</v>
       </c>
       <c r="G777" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="H777" s="19" t="s">
+        <v>934</v>
+      </c>
+      <c r="I777" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="H777" s="19" t="s">
-        <v>936</v>
-      </c>
-      <c r="I777" s="19" t="s">
-        <v>937</v>
-      </c>
       <c r="J777" s="20" t="s">
-        <v>940</v>
-      </c>
-      <c r="K777" s="19" t="s">
-        <v>944</v>
-      </c>
+        <v>938</v>
+      </c>
+      <c r="K777" s="19"/>
       <c r="L777" s="19"/>
       <c r="M777" s="31">
         <v>0</v>
@@ -39171,19 +39348,19 @@
         <v>44132</v>
       </c>
       <c r="G778" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H778" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I778" s="19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J778" s="20" t="s">
         <v>47</v>
       </c>
       <c r="K778" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L778" s="19"/>
       <c r="M778" s="31">
@@ -39214,20 +39391,18 @@
         <v>44132</v>
       </c>
       <c r="G779" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H779" s="19" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="I779" s="19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J779" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K779" s="19" t="s">
-        <v>944</v>
-      </c>
+      <c r="K779" s="19"/>
       <c r="L779" s="19"/>
       <c r="M779" s="31">
         <v>0</v>
@@ -39257,19 +39432,19 @@
         <v>44132</v>
       </c>
       <c r="G780" s="19" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="H780" s="19" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="I780" s="19" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J780" s="20" t="s">
         <v>47</v>
       </c>
       <c r="K780" s="19" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="L780" s="19"/>
       <c r="M780" s="31">
@@ -39300,19 +39475,19 @@
         <v>44132</v>
       </c>
       <c r="G781" s="19" t="s">
+        <v>933</v>
+      </c>
+      <c r="H781" s="19" t="s">
+        <v>936</v>
+      </c>
+      <c r="I781" s="19" t="s">
         <v>935</v>
       </c>
-      <c r="H781" s="19" t="s">
-        <v>938</v>
-      </c>
-      <c r="I781" s="19" t="s">
-        <v>937</v>
-      </c>
       <c r="J781" s="20" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="K781" s="19" t="s">
-        <v>945</v>
+        <v>640</v>
       </c>
       <c r="L781" s="19"/>
       <c r="M781" s="31">
@@ -39343,16 +39518,20 @@
         <v>44132</v>
       </c>
       <c r="G782" s="19" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="H782" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I782" s="19" t="s">
-        <v>947</v>
-      </c>
-      <c r="J782" s="19"/>
-      <c r="K782" s="19"/>
+        <v>944</v>
+      </c>
+      <c r="J782" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="K782" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L782" s="19"/>
       <c r="M782" s="31">
         <v>0</v>
@@ -39382,16 +39561,20 @@
         <v>44132</v>
       </c>
       <c r="G783" s="19" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="H783" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I783" s="19" t="s">
-        <v>947</v>
-      </c>
-      <c r="J783" s="19"/>
-      <c r="K783" s="19"/>
+        <v>944</v>
+      </c>
+      <c r="J783" s="19" t="s">
+        <v>959</v>
+      </c>
+      <c r="K783" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L783" s="19"/>
       <c r="M783" s="31">
         <v>0</v>
@@ -39421,15 +39604,17 @@
         <v>44132</v>
       </c>
       <c r="G784" s="19" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="H784" s="19" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="I784" s="19" t="s">
-        <v>947</v>
-      </c>
-      <c r="J784" s="19"/>
+        <v>944</v>
+      </c>
+      <c r="J784" s="19" t="s">
+        <v>959</v>
+      </c>
       <c r="K784" s="19"/>
       <c r="L784" s="19"/>
       <c r="M784" s="31">
@@ -39461,15 +39646,17 @@
         <v>899</v>
       </c>
       <c r="H785" s="19" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="I785" s="19" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="J785" s="19" t="s">
-        <v>948</v>
-      </c>
-      <c r="K785" s="19"/>
+        <v>945</v>
+      </c>
+      <c r="K785" s="19" t="s">
+        <v>968</v>
+      </c>
       <c r="L785" s="19"/>
       <c r="M785" s="31">
         <v>0</v>
@@ -39502,13 +39689,17 @@
         <v>53</v>
       </c>
       <c r="H786" s="19" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="I786" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="J786" s="19"/>
-      <c r="K786" s="19"/>
+      <c r="J786" s="20" t="s">
+        <v>960</v>
+      </c>
+      <c r="K786" s="19" t="s">
+        <v>640</v>
+      </c>
       <c r="L786" s="19"/>
       <c r="M786" s="31">
         <v>0</v>
@@ -39541,13 +39732,17 @@
         <v>53</v>
       </c>
       <c r="H787" s="26" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="I787" s="26" t="s">
-        <v>955</v>
-      </c>
-      <c r="J787" s="26"/>
-      <c r="K787" s="26"/>
+        <v>952</v>
+      </c>
+      <c r="J787" s="27" t="s">
+        <v>960</v>
+      </c>
+      <c r="K787" s="19" t="s">
+        <v>642</v>
+      </c>
       <c r="L787" s="26"/>
       <c r="M787" s="32">
         <v>0</v>
@@ -39577,27 +39772,679 @@
         <v>44133</v>
       </c>
       <c r="G788" s="19" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="H788" s="19" t="s">
+        <v>954</v>
+      </c>
+      <c r="I788" s="19" t="s">
+        <v>955</v>
+      </c>
+      <c r="J788" s="20" t="s">
+        <v>961</v>
+      </c>
+      <c r="K788" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L788" s="19"/>
+      <c r="M788" s="32">
+        <v>0</v>
+      </c>
+      <c r="N788" s="32">
+        <v>0</v>
+      </c>
+      <c r="O788" s="19"/>
+    </row>
+    <row r="789" spans="1:15">
+      <c r="A789" s="19">
+        <v>788</v>
+      </c>
+      <c r="B789" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C789" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D789" s="19"/>
+      <c r="E789" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F789" s="5">
+        <v>44134</v>
+      </c>
+      <c r="G789" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="H789" s="19" t="s">
         <v>957</v>
       </c>
-      <c r="I788" s="19" t="s">
+      <c r="I789" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J789" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K789" s="19"/>
+      <c r="L789" s="19"/>
+      <c r="M789" s="32">
+        <v>0</v>
+      </c>
+      <c r="N789" s="32">
+        <v>0</v>
+      </c>
+      <c r="O789" s="19"/>
+    </row>
+    <row r="790" spans="1:15">
+      <c r="A790" s="19">
+        <v>789</v>
+      </c>
+      <c r="B790" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C790" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D790" s="19"/>
+      <c r="E790" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F790" s="5">
+        <v>44134</v>
+      </c>
+      <c r="G790" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="H790" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="I790" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J790" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K790" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L790" s="19"/>
+      <c r="M790" s="32">
+        <v>0</v>
+      </c>
+      <c r="N790" s="32">
+        <v>0</v>
+      </c>
+      <c r="O790" s="19"/>
+    </row>
+    <row r="791" spans="1:15">
+      <c r="A791" s="19">
+        <v>790</v>
+      </c>
+      <c r="B791" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C791" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D791" s="19"/>
+      <c r="E791" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F791" s="5">
+        <v>44134</v>
+      </c>
+      <c r="G791" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="H791" s="19" t="s">
+        <v>957</v>
+      </c>
+      <c r="I791" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J791" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K791" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L791" s="19"/>
+      <c r="M791" s="32">
+        <v>0</v>
+      </c>
+      <c r="N791" s="32">
+        <v>0</v>
+      </c>
+      <c r="O791" s="19"/>
+    </row>
+    <row r="792" spans="1:15">
+      <c r="A792" s="19">
+        <v>791</v>
+      </c>
+      <c r="B792" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C792" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D792" s="19"/>
+      <c r="E792" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F792" s="5">
+        <v>44134</v>
+      </c>
+      <c r="G792" s="19" t="s">
+        <v>899</v>
+      </c>
+      <c r="H792" s="19" t="s">
         <v>958</v>
       </c>
-      <c r="J788" s="20"/>
-      <c r="K788" s="19"/>
-      <c r="L788" s="19"/>
-      <c r="M788" s="19">
-        <v>0</v>
-      </c>
-      <c r="N788" s="19">
-        <v>0</v>
-      </c>
-      <c r="O788" s="19"/>
+      <c r="I792" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="J792" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K792" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L792" s="19"/>
+      <c r="M792" s="32">
+        <v>0</v>
+      </c>
+      <c r="N792" s="32">
+        <v>0</v>
+      </c>
+      <c r="O792" s="19"/>
+    </row>
+    <row r="793" spans="1:15">
+      <c r="A793" s="19">
+        <v>792</v>
+      </c>
+      <c r="B793" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C793" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D793" s="19"/>
+      <c r="E793" s="5">
+        <v>44134</v>
+      </c>
+      <c r="F793" s="5">
+        <v>44134</v>
+      </c>
+      <c r="G793" s="26" t="s">
+        <v>899</v>
+      </c>
+      <c r="H793" s="19" t="s">
+        <v>958</v>
+      </c>
+      <c r="I793" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="J793" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="K793" s="19" t="s">
+        <v>604</v>
+      </c>
+      <c r="L793" s="19"/>
+      <c r="M793" s="31">
+        <v>0</v>
+      </c>
+      <c r="N793" s="31">
+        <v>0</v>
+      </c>
+      <c r="O793" s="19"/>
+    </row>
+    <row r="794" spans="1:15">
+      <c r="A794" s="19">
+        <v>793</v>
+      </c>
+      <c r="B794" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C794" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D794" s="19"/>
+      <c r="E794" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F794" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G794" s="19" t="s">
+        <v>962</v>
+      </c>
+      <c r="H794" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="I794" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="J794" s="20" t="s">
+        <v>972</v>
+      </c>
+      <c r="K794" s="19" t="s">
+        <v>965</v>
+      </c>
+      <c r="L794" s="19"/>
+      <c r="M794" s="31">
+        <v>0</v>
+      </c>
+      <c r="N794" s="31">
+        <v>0</v>
+      </c>
+      <c r="O794" s="19"/>
+    </row>
+    <row r="795" spans="1:15">
+      <c r="A795" s="19">
+        <v>794</v>
+      </c>
+      <c r="B795" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C795" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D795" s="19"/>
+      <c r="E795" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F795" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G795" s="19" t="s">
+        <v>963</v>
+      </c>
+      <c r="H795" s="19" t="s">
+        <v>969</v>
+      </c>
+      <c r="I795" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="J795" s="20" t="s">
+        <v>973</v>
+      </c>
+      <c r="K795" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="L795" s="19"/>
+      <c r="M795" s="31">
+        <v>0</v>
+      </c>
+      <c r="N795" s="31">
+        <v>0</v>
+      </c>
+      <c r="O795" s="19"/>
+    </row>
+    <row r="796" spans="1:15">
+      <c r="A796" s="19">
+        <v>795</v>
+      </c>
+      <c r="B796" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C796" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D796" s="19"/>
+      <c r="E796" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F796" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G796" s="19" t="s">
+        <v>964</v>
+      </c>
+      <c r="H796" s="19" t="s">
+        <v>970</v>
+      </c>
+      <c r="I796" s="19" t="s">
+        <v>971</v>
+      </c>
+      <c r="J796" s="20" t="s">
+        <v>974</v>
+      </c>
+      <c r="K796" s="19"/>
+      <c r="L796" s="19"/>
+      <c r="M796" s="31">
+        <v>0</v>
+      </c>
+      <c r="N796" s="31">
+        <v>0</v>
+      </c>
+      <c r="O796" s="19"/>
+    </row>
+    <row r="797" spans="1:15">
+      <c r="A797" s="19">
+        <v>796</v>
+      </c>
+      <c r="B797" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C797" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D797" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E797" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F797" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G797" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H797" s="19" t="s">
+        <v>975</v>
+      </c>
+      <c r="I797" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="J797" s="20" t="s">
+        <v>984</v>
+      </c>
+      <c r="K797" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="L797" s="19"/>
+      <c r="M797" s="31">
+        <v>0</v>
+      </c>
+      <c r="N797" s="31">
+        <v>0</v>
+      </c>
+      <c r="O797" s="19"/>
+    </row>
+    <row r="798" spans="1:15">
+      <c r="A798" s="19">
+        <v>797</v>
+      </c>
+      <c r="B798" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C798" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D798" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E798" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F798" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G798" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="H798" s="19" t="s">
+        <v>966</v>
+      </c>
+      <c r="I798" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="J798" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="K798" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="L798" s="19"/>
+      <c r="M798" s="31">
+        <v>0</v>
+      </c>
+      <c r="N798" s="31">
+        <v>0</v>
+      </c>
+      <c r="O798" s="19"/>
+    </row>
+    <row r="799" spans="1:15">
+      <c r="A799" s="19">
+        <v>798</v>
+      </c>
+      <c r="B799" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C799" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D799" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E799" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F799" s="5">
+        <v>44135</v>
+      </c>
+      <c r="G799" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="H799" s="19" t="s">
+        <v>976</v>
+      </c>
+      <c r="I799" s="19" t="s">
+        <v>967</v>
+      </c>
+      <c r="J799" s="20" t="s">
+        <v>985</v>
+      </c>
+      <c r="K799" s="19" t="s">
+        <v>986</v>
+      </c>
+      <c r="L799" s="19"/>
+      <c r="M799" s="31">
+        <v>0</v>
+      </c>
+      <c r="N799" s="31">
+        <v>0</v>
+      </c>
+      <c r="O799" s="19"/>
+    </row>
+    <row r="800" spans="1:15">
+      <c r="A800" s="19">
+        <v>799</v>
+      </c>
+      <c r="B800" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C800" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D800" s="19"/>
+      <c r="E800" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F800" s="5">
+        <v>44136</v>
+      </c>
+      <c r="G800" s="19" t="s">
+        <v>979</v>
+      </c>
+      <c r="H800" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="I800" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="J800" s="20" t="s">
+        <v>981</v>
+      </c>
+      <c r="K800" s="19"/>
+      <c r="L800" s="19"/>
+      <c r="M800" s="31">
+        <v>0</v>
+      </c>
+      <c r="N800" s="31">
+        <v>0</v>
+      </c>
+      <c r="O800" s="19"/>
+    </row>
+    <row r="801" spans="1:15">
+      <c r="A801" s="19">
+        <v>800</v>
+      </c>
+      <c r="B801" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C801" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D801" s="19"/>
+      <c r="E801" s="5">
+        <v>44135</v>
+      </c>
+      <c r="F801" s="5">
+        <v>44136</v>
+      </c>
+      <c r="G801" s="19" t="s">
+        <v>980</v>
+      </c>
+      <c r="H801" s="19" t="s">
+        <v>977</v>
+      </c>
+      <c r="I801" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="J801" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K801" s="19"/>
+      <c r="L801" s="19"/>
+      <c r="M801" s="31">
+        <v>0</v>
+      </c>
+      <c r="N801" s="31">
+        <v>0</v>
+      </c>
+      <c r="O801" s="19"/>
+    </row>
+    <row r="802" spans="1:15">
+      <c r="A802" s="19">
+        <v>801</v>
+      </c>
+      <c r="B802" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C802" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D802" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E802" s="5">
+        <v>44136</v>
+      </c>
+      <c r="F802" s="5">
+        <v>44136</v>
+      </c>
+      <c r="G802" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="H802" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="I802" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="J802" s="20"/>
+      <c r="K802" s="19"/>
+      <c r="L802" s="19"/>
+      <c r="M802" s="31">
+        <v>0</v>
+      </c>
+      <c r="N802" s="31">
+        <v>0</v>
+      </c>
+      <c r="O802" s="19"/>
+    </row>
+    <row r="803" spans="1:15">
+      <c r="A803" s="19">
+        <v>802</v>
+      </c>
+      <c r="B803" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C803" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D803" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E803" s="5">
+        <v>44136</v>
+      </c>
+      <c r="F803" s="5">
+        <v>44136</v>
+      </c>
+      <c r="G803" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="H803" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I803" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="J803" s="20"/>
+      <c r="K803" s="19"/>
+      <c r="L803" s="19"/>
+      <c r="M803" s="31">
+        <v>0</v>
+      </c>
+      <c r="N803" s="31">
+        <v>0</v>
+      </c>
+      <c r="O803" s="19"/>
+    </row>
+    <row r="804" spans="1:15">
+      <c r="A804" s="19">
+        <v>803</v>
+      </c>
+      <c r="B804" s="19">
+        <v>430005</v>
+      </c>
+      <c r="C804" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D804" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E804" s="5">
+        <v>44136</v>
+      </c>
+      <c r="F804" s="5">
+        <v>44136</v>
+      </c>
+      <c r="G804" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="H804" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I804" s="19" t="s">
+        <v>978</v>
+      </c>
+      <c r="J804" s="20"/>
+      <c r="K804" s="19"/>
+      <c r="L804" s="19"/>
+      <c r="M804" s="31">
+        <v>0</v>
+      </c>
+      <c r="N804" s="31">
+        <v>0</v>
+      </c>
+      <c r="O804" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O781"/>
+  <autoFilter ref="A1:O804"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="1117陽性患者属性" sheetId="1" r:id="rId1"/>
+    <sheet name="1118陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1117陽性患者属性'!$A$1:$O$932</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1117陽性患者属性'!$A$1:$O$555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1118陽性患者属性'!$A$1:$O$939</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1118陽性患者属性'!$A$1:$O$555</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5180" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="1164">
   <si>
     <t>No</t>
   </si>
@@ -8863,6 +8863,127 @@
       <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草市</t>
+    <rPh sb="0" eb="3">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="3">
+      <t>アソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="2">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山県（苓北町）</t>
+    <rPh sb="0" eb="4">
+      <t>ワカヤマケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レイホクマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -9105,7 +9226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9157,37 +9278,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9476,13 +9594,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O932"/>
+  <dimension ref="A1:O941"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B638" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B932" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D539" sqref="D539"/>
+      <selection pane="bottomRight" activeCell="A941" sqref="A941"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -31440,859 +31558,859 @@
       <c r="O550" s="23"/>
     </row>
     <row r="551" spans="1:15">
-      <c r="A551" s="23">
+      <c r="A551" s="11">
         <v>550</v>
       </c>
-      <c r="B551" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C551" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D551" s="23" t="s">
+      <c r="B551" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C551" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D551" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E551" s="19">
+      <c r="E551" s="6">
         <v>44082</v>
       </c>
-      <c r="F551" s="19">
+      <c r="F551" s="6">
         <v>44082</v>
       </c>
-      <c r="G551" s="23" t="s">
+      <c r="G551" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H551" s="23" t="s">
+      <c r="H551" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I551" s="23" t="s">
+      <c r="I551" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J551" s="24" t="s">
+      <c r="J551" s="17" t="s">
         <v>609</v>
       </c>
-      <c r="K551" s="23"/>
-      <c r="L551" s="23"/>
-      <c r="M551" s="23">
-        <v>0</v>
-      </c>
-      <c r="N551" s="23">
-        <v>1</v>
-      </c>
-      <c r="O551" s="23"/>
+      <c r="K551" s="11"/>
+      <c r="L551" s="11"/>
+      <c r="M551" s="11">
+        <v>0</v>
+      </c>
+      <c r="N551" s="11">
+        <v>1</v>
+      </c>
+      <c r="O551" s="11"/>
     </row>
     <row r="552" spans="1:15">
-      <c r="A552" s="23">
+      <c r="A552" s="11">
         <v>551</v>
       </c>
-      <c r="B552" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C552" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D552" s="23" t="s">
+      <c r="B552" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C552" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D552" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E552" s="19">
+      <c r="E552" s="6">
         <v>44082</v>
       </c>
-      <c r="F552" s="19">
+      <c r="F552" s="6">
         <v>44082</v>
       </c>
-      <c r="G552" s="23" t="s">
+      <c r="G552" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="H552" s="23" t="s">
+      <c r="H552" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I552" s="23" t="s">
+      <c r="I552" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J552" s="24" t="s">
+      <c r="J552" s="17" t="s">
         <v>611</v>
       </c>
-      <c r="K552" s="23"/>
-      <c r="L552" s="23"/>
-      <c r="M552" s="23">
-        <v>0</v>
-      </c>
-      <c r="N552" s="23">
-        <v>1</v>
-      </c>
-      <c r="O552" s="23"/>
+      <c r="K552" s="11"/>
+      <c r="L552" s="11"/>
+      <c r="M552" s="11">
+        <v>0</v>
+      </c>
+      <c r="N552" s="11">
+        <v>1</v>
+      </c>
+      <c r="O552" s="11"/>
     </row>
     <row r="553" spans="1:15">
-      <c r="A553" s="23">
+      <c r="A553" s="11">
         <v>552</v>
       </c>
-      <c r="B553" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C553" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D553" s="23" t="s">
+      <c r="B553" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C553" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D553" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E553" s="19">
+      <c r="E553" s="6">
         <v>44083</v>
       </c>
-      <c r="F553" s="19">
+      <c r="F553" s="6">
         <v>44083</v>
       </c>
-      <c r="G553" s="23" t="s">
+      <c r="G553" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="H553" s="23" t="s">
+      <c r="H553" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I553" s="23" t="s">
+      <c r="I553" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J553" s="21" t="s">
+      <c r="J553" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K553" s="23"/>
-      <c r="L553" s="23"/>
-      <c r="M553" s="23">
-        <v>0</v>
-      </c>
-      <c r="N553" s="23">
-        <v>1</v>
-      </c>
-      <c r="O553" s="23"/>
+      <c r="K553" s="11"/>
+      <c r="L553" s="11"/>
+      <c r="M553" s="11">
+        <v>0</v>
+      </c>
+      <c r="N553" s="11">
+        <v>1</v>
+      </c>
+      <c r="O553" s="11"/>
     </row>
     <row r="554" spans="1:15">
-      <c r="A554" s="23">
+      <c r="A554" s="11">
         <v>553</v>
       </c>
-      <c r="B554" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C554" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D554" s="23" t="s">
+      <c r="B554" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C554" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D554" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E554" s="19">
+      <c r="E554" s="6">
         <v>44083</v>
       </c>
-      <c r="F554" s="19">
+      <c r="F554" s="6">
         <v>44083</v>
       </c>
-      <c r="G554" s="23" t="s">
+      <c r="G554" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="H554" s="23" t="s">
+      <c r="H554" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I554" s="23" t="s">
+      <c r="I554" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J554" s="21" t="s">
+      <c r="J554" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="K554" s="23"/>
-      <c r="L554" s="23"/>
-      <c r="M554" s="23">
-        <v>0</v>
-      </c>
-      <c r="N554" s="23">
-        <v>1</v>
-      </c>
-      <c r="O554" s="23"/>
+      <c r="K554" s="11"/>
+      <c r="L554" s="11"/>
+      <c r="M554" s="11">
+        <v>0</v>
+      </c>
+      <c r="N554" s="11">
+        <v>1</v>
+      </c>
+      <c r="O554" s="11"/>
     </row>
     <row r="555" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A555" s="23">
+      <c r="A555" s="11">
         <v>554</v>
       </c>
-      <c r="B555" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C555" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D555" s="23" t="s">
+      <c r="B555" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C555" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D555" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E555" s="19">
+      <c r="E555" s="6">
         <v>44083</v>
       </c>
-      <c r="F555" s="19">
+      <c r="F555" s="6">
         <v>44083</v>
       </c>
-      <c r="G555" s="23" t="s">
+      <c r="G555" s="11" t="s">
         <v>608</v>
       </c>
-      <c r="H555" s="23" t="s">
+      <c r="H555" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I555" s="23" t="s">
+      <c r="I555" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J555" s="21" t="s">
+      <c r="J555" s="7" t="s">
         <v>618</v>
       </c>
-      <c r="K555" s="23"/>
-      <c r="L555" s="23"/>
-      <c r="M555" s="23">
-        <v>0</v>
-      </c>
-      <c r="N555" s="23">
-        <v>1</v>
-      </c>
-      <c r="O555" s="23"/>
+      <c r="K555" s="11"/>
+      <c r="L555" s="11"/>
+      <c r="M555" s="11">
+        <v>0</v>
+      </c>
+      <c r="N555" s="11">
+        <v>1</v>
+      </c>
+      <c r="O555" s="11"/>
     </row>
     <row r="556" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A556" s="23">
+      <c r="A556" s="11">
         <v>555</v>
       </c>
-      <c r="B556" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C556" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D556" s="23"/>
-      <c r="E556" s="19">
+      <c r="B556" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C556" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D556" s="11"/>
+      <c r="E556" s="6">
         <v>44084</v>
       </c>
-      <c r="F556" s="19">
+      <c r="F556" s="6">
         <v>44083</v>
       </c>
-      <c r="G556" s="23" t="s">
+      <c r="G556" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H556" s="23" t="s">
+      <c r="H556" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I556" s="23" t="s">
+      <c r="I556" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J556" s="21" t="s">
+      <c r="J556" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K556" s="23"/>
-      <c r="L556" s="23"/>
-      <c r="M556" s="23">
-        <v>0</v>
-      </c>
-      <c r="N556" s="23">
-        <v>1</v>
-      </c>
-      <c r="O556" s="23"/>
+      <c r="K556" s="11"/>
+      <c r="L556" s="11"/>
+      <c r="M556" s="11">
+        <v>0</v>
+      </c>
+      <c r="N556" s="11">
+        <v>1</v>
+      </c>
+      <c r="O556" s="11"/>
     </row>
     <row r="557" spans="1:15">
-      <c r="A557" s="23">
+      <c r="A557" s="11">
         <v>556</v>
       </c>
-      <c r="B557" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C557" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D557" s="23"/>
-      <c r="E557" s="19">
+      <c r="B557" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C557" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D557" s="11"/>
+      <c r="E557" s="6">
         <v>44084</v>
       </c>
-      <c r="F557" s="19">
+      <c r="F557" s="6">
         <v>44083</v>
       </c>
-      <c r="G557" s="23" t="s">
+      <c r="G557" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H557" s="23" t="s">
+      <c r="H557" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="I557" s="23" t="s">
+      <c r="I557" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J557" s="21" t="s">
+      <c r="J557" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="K557" s="23"/>
-      <c r="L557" s="23"/>
-      <c r="M557" s="23">
-        <v>0</v>
-      </c>
-      <c r="N557" s="23">
-        <v>1</v>
-      </c>
-      <c r="O557" s="23"/>
+      <c r="K557" s="11"/>
+      <c r="L557" s="11"/>
+      <c r="M557" s="11">
+        <v>0</v>
+      </c>
+      <c r="N557" s="11">
+        <v>1</v>
+      </c>
+      <c r="O557" s="11"/>
     </row>
     <row r="558" spans="1:15">
-      <c r="A558" s="23">
+      <c r="A558" s="11">
         <v>557</v>
       </c>
-      <c r="B558" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C558" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D558" s="23" t="s">
+      <c r="B558" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C558" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D558" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E558" s="19">
+      <c r="E558" s="6">
         <v>44084</v>
       </c>
-      <c r="F558" s="19">
+      <c r="F558" s="6">
         <v>44084</v>
       </c>
-      <c r="G558" s="23" t="s">
+      <c r="G558" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="H558" s="23" t="s">
+      <c r="H558" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I558" s="23" t="s">
+      <c r="I558" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J558" s="21" t="s">
+      <c r="J558" s="7" t="s">
         <v>909</v>
       </c>
-      <c r="K558" s="23"/>
-      <c r="L558" s="23"/>
-      <c r="M558" s="23">
-        <v>0</v>
-      </c>
-      <c r="N558" s="23">
-        <v>1</v>
-      </c>
-      <c r="O558" s="23"/>
+      <c r="K558" s="11"/>
+      <c r="L558" s="11"/>
+      <c r="M558" s="11">
+        <v>0</v>
+      </c>
+      <c r="N558" s="11">
+        <v>1</v>
+      </c>
+      <c r="O558" s="11"/>
     </row>
     <row r="559" spans="1:15">
-      <c r="A559" s="23">
+      <c r="A559" s="11">
         <v>558</v>
       </c>
-      <c r="B559" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C559" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D559" s="23" t="s">
+      <c r="B559" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C559" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D559" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E559" s="19">
+      <c r="E559" s="6">
         <v>44084</v>
       </c>
-      <c r="F559" s="19">
+      <c r="F559" s="6">
         <v>44084</v>
       </c>
-      <c r="G559" s="23" t="s">
+      <c r="G559" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="H559" s="23" t="s">
+      <c r="H559" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="I559" s="23" t="s">
+      <c r="I559" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J559" s="21" t="s">
+      <c r="J559" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="K559" s="23"/>
-      <c r="L559" s="23"/>
-      <c r="M559" s="23">
-        <v>0</v>
-      </c>
-      <c r="N559" s="23">
-        <v>1</v>
-      </c>
-      <c r="O559" s="23"/>
+      <c r="K559" s="11"/>
+      <c r="L559" s="11"/>
+      <c r="M559" s="11">
+        <v>0</v>
+      </c>
+      <c r="N559" s="11">
+        <v>1</v>
+      </c>
+      <c r="O559" s="11"/>
     </row>
     <row r="560" spans="1:15">
-      <c r="A560" s="23">
+      <c r="A560" s="11">
         <v>559</v>
       </c>
-      <c r="B560" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C560" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D560" s="23"/>
-      <c r="E560" s="19">
+      <c r="B560" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C560" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D560" s="11"/>
+      <c r="E560" s="6">
         <v>44085</v>
       </c>
-      <c r="F560" s="19">
+      <c r="F560" s="6">
         <v>44085</v>
       </c>
-      <c r="G560" s="23" t="s">
+      <c r="G560" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H560" s="23" t="s">
+      <c r="H560" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I560" s="23" t="s">
+      <c r="I560" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J560" s="21" t="s">
+      <c r="J560" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K560" s="23"/>
-      <c r="L560" s="23"/>
-      <c r="M560" s="23">
-        <v>0</v>
-      </c>
-      <c r="N560" s="23">
-        <v>1</v>
-      </c>
-      <c r="O560" s="23"/>
+      <c r="K560" s="11"/>
+      <c r="L560" s="11"/>
+      <c r="M560" s="11">
+        <v>0</v>
+      </c>
+      <c r="N560" s="11">
+        <v>1</v>
+      </c>
+      <c r="O560" s="11"/>
     </row>
     <row r="561" spans="1:15">
-      <c r="A561" s="23">
+      <c r="A561" s="11">
         <v>560</v>
       </c>
-      <c r="B561" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C561" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D561" s="23"/>
-      <c r="E561" s="19">
+      <c r="B561" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C561" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D561" s="11"/>
+      <c r="E561" s="6">
         <v>44085</v>
       </c>
-      <c r="F561" s="19">
+      <c r="F561" s="6">
         <v>44085</v>
       </c>
-      <c r="G561" s="23" t="s">
+      <c r="G561" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H561" s="23" t="s">
+      <c r="H561" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I561" s="23" t="s">
+      <c r="I561" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J561" s="21" t="s">
+      <c r="J561" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K561" s="23"/>
-      <c r="L561" s="23"/>
-      <c r="M561" s="23">
-        <v>0</v>
-      </c>
-      <c r="N561" s="23">
-        <v>1</v>
-      </c>
-      <c r="O561" s="23"/>
+      <c r="K561" s="11"/>
+      <c r="L561" s="11"/>
+      <c r="M561" s="11">
+        <v>0</v>
+      </c>
+      <c r="N561" s="11">
+        <v>1</v>
+      </c>
+      <c r="O561" s="11"/>
     </row>
     <row r="562" spans="1:15">
-      <c r="A562" s="23">
+      <c r="A562" s="11">
         <v>561</v>
       </c>
-      <c r="B562" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C562" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D562" s="23"/>
-      <c r="E562" s="19">
+      <c r="B562" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C562" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D562" s="11"/>
+      <c r="E562" s="6">
         <v>44085</v>
       </c>
-      <c r="F562" s="19">
+      <c r="F562" s="6">
         <v>44085</v>
       </c>
-      <c r="G562" s="23" t="s">
+      <c r="G562" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H562" s="23" t="s">
+      <c r="H562" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I562" s="23" t="s">
+      <c r="I562" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J562" s="21" t="s">
+      <c r="J562" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K562" s="18"/>
-      <c r="L562" s="23"/>
-      <c r="M562" s="23">
-        <v>0</v>
-      </c>
-      <c r="N562" s="23">
-        <v>1</v>
-      </c>
-      <c r="O562" s="23"/>
+      <c r="K562" s="5"/>
+      <c r="L562" s="11"/>
+      <c r="M562" s="11">
+        <v>0</v>
+      </c>
+      <c r="N562" s="11">
+        <v>1</v>
+      </c>
+      <c r="O562" s="11"/>
     </row>
     <row r="563" spans="1:15">
-      <c r="A563" s="23">
+      <c r="A563" s="11">
         <v>562</v>
       </c>
-      <c r="B563" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C563" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D563" s="23"/>
-      <c r="E563" s="19">
+      <c r="B563" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C563" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D563" s="11"/>
+      <c r="E563" s="6">
         <v>44085</v>
       </c>
-      <c r="F563" s="19">
+      <c r="F563" s="6">
         <v>44085</v>
       </c>
-      <c r="G563" s="23" t="s">
+      <c r="G563" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H563" s="23" t="s">
+      <c r="H563" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I563" s="23" t="s">
+      <c r="I563" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J563" s="21" t="s">
+      <c r="J563" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="K563" s="18"/>
-      <c r="L563" s="23"/>
-      <c r="M563" s="23">
-        <v>0</v>
-      </c>
-      <c r="N563" s="23">
-        <v>1</v>
-      </c>
-      <c r="O563" s="23"/>
+      <c r="K563" s="5"/>
+      <c r="L563" s="11"/>
+      <c r="M563" s="11">
+        <v>0</v>
+      </c>
+      <c r="N563" s="11">
+        <v>1</v>
+      </c>
+      <c r="O563" s="11"/>
     </row>
     <row r="564" spans="1:15">
-      <c r="A564" s="23">
+      <c r="A564" s="11">
         <v>563</v>
       </c>
-      <c r="B564" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C564" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D564" s="23"/>
-      <c r="E564" s="19">
+      <c r="B564" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C564" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D564" s="11"/>
+      <c r="E564" s="6">
         <v>44085</v>
       </c>
-      <c r="F564" s="19">
+      <c r="F564" s="6">
         <v>44085</v>
       </c>
-      <c r="G564" s="23" t="s">
+      <c r="G564" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="H564" s="23" t="s">
+      <c r="H564" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="I564" s="23" t="s">
+      <c r="I564" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J564" s="21" t="s">
+      <c r="J564" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="K564" s="23"/>
-      <c r="L564" s="23"/>
-      <c r="M564" s="23">
-        <v>0</v>
-      </c>
-      <c r="N564" s="23">
-        <v>1</v>
-      </c>
-      <c r="O564" s="23"/>
+      <c r="K564" s="11"/>
+      <c r="L564" s="11"/>
+      <c r="M564" s="11">
+        <v>0</v>
+      </c>
+      <c r="N564" s="11">
+        <v>1</v>
+      </c>
+      <c r="O564" s="11"/>
     </row>
     <row r="565" spans="1:15">
-      <c r="A565" s="23">
+      <c r="A565" s="11">
         <v>564</v>
       </c>
-      <c r="B565" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C565" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D565" s="23"/>
-      <c r="E565" s="19">
+      <c r="B565" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C565" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D565" s="11"/>
+      <c r="E565" s="6">
         <v>44085</v>
       </c>
-      <c r="F565" s="19">
+      <c r="F565" s="6">
         <v>44085</v>
       </c>
-      <c r="G565" s="23" t="s">
+      <c r="G565" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="H565" s="23" t="s">
+      <c r="H565" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="I565" s="23" t="s">
+      <c r="I565" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J565" s="21" t="s">
+      <c r="J565" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="K565" s="18"/>
-      <c r="L565" s="23"/>
-      <c r="M565" s="23">
-        <v>0</v>
-      </c>
-      <c r="N565" s="23">
-        <v>1</v>
-      </c>
-      <c r="O565" s="23"/>
+      <c r="K565" s="5"/>
+      <c r="L565" s="11"/>
+      <c r="M565" s="11">
+        <v>0</v>
+      </c>
+      <c r="N565" s="11">
+        <v>1</v>
+      </c>
+      <c r="O565" s="11"/>
     </row>
     <row r="566" spans="1:15">
-      <c r="A566" s="23">
+      <c r="A566" s="11">
         <v>565</v>
       </c>
-      <c r="B566" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C566" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D566" s="23"/>
-      <c r="E566" s="19">
+      <c r="B566" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C566" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D566" s="11"/>
+      <c r="E566" s="6">
         <v>44085</v>
       </c>
-      <c r="F566" s="19">
+      <c r="F566" s="6">
         <v>44085</v>
       </c>
-      <c r="G566" s="23" t="s">
+      <c r="G566" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="H566" s="23" t="s">
+      <c r="H566" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I566" s="23" t="s">
+      <c r="I566" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J566" s="21" t="s">
+      <c r="J566" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="K566" s="23"/>
-      <c r="L566" s="23"/>
-      <c r="M566" s="23">
-        <v>0</v>
-      </c>
-      <c r="N566" s="23">
-        <v>1</v>
-      </c>
-      <c r="O566" s="23"/>
+      <c r="K566" s="11"/>
+      <c r="L566" s="11"/>
+      <c r="M566" s="11">
+        <v>0</v>
+      </c>
+      <c r="N566" s="11">
+        <v>1</v>
+      </c>
+      <c r="O566" s="11"/>
     </row>
     <row r="567" spans="1:15">
-      <c r="A567" s="23">
+      <c r="A567" s="11">
         <v>566</v>
       </c>
-      <c r="B567" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C567" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D567" s="23"/>
-      <c r="E567" s="19">
+      <c r="B567" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C567" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D567" s="11"/>
+      <c r="E567" s="6">
         <v>44086</v>
       </c>
-      <c r="F567" s="19">
+      <c r="F567" s="6">
         <v>44085</v>
       </c>
-      <c r="G567" s="23" t="s">
+      <c r="G567" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="H567" s="23" t="s">
+      <c r="H567" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="I567" s="23" t="s">
+      <c r="I567" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="J567" s="21" t="s">
+      <c r="J567" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="K567" s="23"/>
-      <c r="L567" s="23"/>
-      <c r="M567" s="23">
-        <v>0</v>
-      </c>
-      <c r="N567" s="23">
-        <v>1</v>
-      </c>
-      <c r="O567" s="23"/>
+      <c r="K567" s="11"/>
+      <c r="L567" s="11"/>
+      <c r="M567" s="11">
+        <v>0</v>
+      </c>
+      <c r="N567" s="11">
+        <v>1</v>
+      </c>
+      <c r="O567" s="11"/>
     </row>
     <row r="568" spans="1:15">
-      <c r="A568" s="23">
+      <c r="A568" s="11">
         <v>567</v>
       </c>
-      <c r="B568" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C568" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D568" s="23"/>
-      <c r="E568" s="19">
+      <c r="B568" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C568" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D568" s="11"/>
+      <c r="E568" s="6">
         <v>44086</v>
       </c>
-      <c r="F568" s="19">
+      <c r="F568" s="6">
         <v>44085</v>
       </c>
-      <c r="G568" s="23" t="s">
+      <c r="G568" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="H568" s="23" t="s">
+      <c r="H568" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="I568" s="23" t="s">
+      <c r="I568" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J568" s="21" t="s">
+      <c r="J568" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="K568" s="18"/>
-      <c r="L568" s="23"/>
-      <c r="M568" s="23">
-        <v>0</v>
-      </c>
-      <c r="N568" s="23">
-        <v>1</v>
-      </c>
-      <c r="O568" s="23"/>
+      <c r="K568" s="5"/>
+      <c r="L568" s="11"/>
+      <c r="M568" s="11">
+        <v>0</v>
+      </c>
+      <c r="N568" s="11">
+        <v>1</v>
+      </c>
+      <c r="O568" s="11"/>
     </row>
     <row r="569" spans="1:15">
-      <c r="A569" s="23">
+      <c r="A569" s="11">
         <v>568</v>
       </c>
-      <c r="B569" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C569" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D569" s="23" t="s">
+      <c r="B569" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C569" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D569" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E569" s="19">
+      <c r="E569" s="6">
         <v>44086</v>
       </c>
-      <c r="F569" s="19">
+      <c r="F569" s="6">
         <v>44086</v>
       </c>
-      <c r="G569" s="23" t="s">
+      <c r="G569" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="H569" s="23" t="s">
+      <c r="H569" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="I569" s="23" t="s">
+      <c r="I569" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J569" s="21" t="s">
+      <c r="J569" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="K569" s="23"/>
-      <c r="L569" s="23"/>
-      <c r="M569" s="23">
-        <v>0</v>
-      </c>
-      <c r="N569" s="23">
-        <v>1</v>
-      </c>
-      <c r="O569" s="23"/>
+      <c r="K569" s="11"/>
+      <c r="L569" s="11"/>
+      <c r="M569" s="11">
+        <v>0</v>
+      </c>
+      <c r="N569" s="11">
+        <v>1</v>
+      </c>
+      <c r="O569" s="11"/>
     </row>
     <row r="570" spans="1:15">
-      <c r="A570" s="23">
+      <c r="A570" s="11">
         <v>569</v>
       </c>
-      <c r="B570" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C570" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D570" s="23" t="s">
+      <c r="B570" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C570" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D570" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E570" s="19">
+      <c r="E570" s="6">
         <v>44086</v>
       </c>
-      <c r="F570" s="19">
+      <c r="F570" s="6">
         <v>44086</v>
       </c>
-      <c r="G570" s="23" t="s">
+      <c r="G570" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="H570" s="23" t="s">
+      <c r="H570" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="I570" s="23" t="s">
+      <c r="I570" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J570" s="21" t="s">
+      <c r="J570" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="K570" s="23"/>
-      <c r="L570" s="23"/>
-      <c r="M570" s="23">
-        <v>0</v>
-      </c>
-      <c r="N570" s="23">
-        <v>1</v>
-      </c>
-      <c r="O570" s="23"/>
+      <c r="K570" s="11"/>
+      <c r="L570" s="11"/>
+      <c r="M570" s="11">
+        <v>0</v>
+      </c>
+      <c r="N570" s="11">
+        <v>1</v>
+      </c>
+      <c r="O570" s="11"/>
     </row>
     <row r="571" spans="1:15">
-      <c r="A571" s="23">
+      <c r="A571" s="11">
         <v>570</v>
       </c>
-      <c r="B571" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C571" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D571" s="23"/>
-      <c r="E571" s="19">
+      <c r="B571" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C571" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D571" s="11"/>
+      <c r="E571" s="6">
         <v>44087</v>
       </c>
-      <c r="F571" s="19">
+      <c r="F571" s="6">
         <v>44087</v>
       </c>
-      <c r="G571" s="23" t="s">
+      <c r="G571" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H571" s="23" t="s">
+      <c r="H571" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I571" s="23" t="s">
+      <c r="I571" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="J571" s="21" t="s">
+      <c r="J571" s="7" t="s">
         <v>626</v>
       </c>
-      <c r="K571" s="18"/>
-      <c r="L571" s="23"/>
-      <c r="M571" s="23">
-        <v>0</v>
-      </c>
-      <c r="N571" s="23">
-        <v>1</v>
-      </c>
-      <c r="O571" s="23"/>
+      <c r="K571" s="5"/>
+      <c r="L571" s="11"/>
+      <c r="M571" s="11">
+        <v>0</v>
+      </c>
+      <c r="N571" s="11">
+        <v>1</v>
+      </c>
+      <c r="O571" s="11"/>
     </row>
     <row r="572" spans="1:15">
       <c r="A572" s="25">
         <v>571</v>
       </c>
-      <c r="B572" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C572" s="23" t="s">
+      <c r="B572" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C572" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D572" s="25" t="s">
         <v>630</v>
       </c>
-      <c r="E572" s="19">
+      <c r="E572" s="6">
         <v>44089</v>
       </c>
-      <c r="F572" s="19">
+      <c r="F572" s="6">
         <v>44089</v>
       </c>
       <c r="G572" s="25" t="s">
@@ -32304,15 +32422,15 @@
       <c r="I572" s="25" t="s">
         <v>629</v>
       </c>
-      <c r="J572" s="21" t="s">
+      <c r="J572" s="7" t="s">
         <v>38</v>
       </c>
       <c r="K572" s="25"/>
       <c r="L572" s="25"/>
-      <c r="M572" s="23">
-        <v>0</v>
-      </c>
-      <c r="N572" s="23">
+      <c r="M572" s="11">
+        <v>0</v>
+      </c>
+      <c r="N572" s="11">
         <v>1</v>
       </c>
       <c r="O572" s="25"/>
@@ -32321,17 +32439,17 @@
       <c r="A573" s="25">
         <v>572</v>
       </c>
-      <c r="B573" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C573" s="23" t="s">
+      <c r="B573" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C573" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D573" s="25"/>
-      <c r="E573" s="19">
+      <c r="E573" s="6">
         <v>44092</v>
       </c>
-      <c r="F573" s="19">
+      <c r="F573" s="6">
         <v>44091</v>
       </c>
       <c r="G573" s="25" t="s">
@@ -32343,102 +32461,102 @@
       <c r="I573" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J573" s="21" t="s">
+      <c r="J573" s="7" t="s">
         <v>639</v>
       </c>
       <c r="K573" s="25"/>
       <c r="L573" s="25"/>
-      <c r="M573" s="23">
-        <v>0</v>
-      </c>
-      <c r="N573" s="23">
+      <c r="M573" s="11">
+        <v>0</v>
+      </c>
+      <c r="N573" s="11">
         <v>1</v>
       </c>
       <c r="O573" s="25"/>
     </row>
     <row r="574" spans="1:15">
-      <c r="A574" s="23">
+      <c r="A574" s="11">
         <v>573</v>
       </c>
-      <c r="B574" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C574" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D574" s="23"/>
-      <c r="E574" s="19">
+      <c r="B574" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C574" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D574" s="11"/>
+      <c r="E574" s="6">
         <v>44098</v>
       </c>
-      <c r="F574" s="19">
+      <c r="F574" s="6">
         <v>44097</v>
       </c>
-      <c r="G574" s="23" t="s">
+      <c r="G574" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H574" s="23" t="s">
+      <c r="H574" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I574" s="23" t="s">
+      <c r="I574" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J574" s="21" t="s">
+      <c r="J574" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K574" s="18"/>
-      <c r="L574" s="23"/>
-      <c r="M574" s="23">
-        <v>0</v>
-      </c>
-      <c r="N574" s="23">
-        <v>1</v>
-      </c>
-      <c r="O574" s="23"/>
+      <c r="K574" s="5"/>
+      <c r="L574" s="11"/>
+      <c r="M574" s="11">
+        <v>0</v>
+      </c>
+      <c r="N574" s="11">
+        <v>1</v>
+      </c>
+      <c r="O574" s="11"/>
     </row>
     <row r="575" spans="1:15">
-      <c r="A575" s="23">
+      <c r="A575" s="11">
         <v>574</v>
       </c>
-      <c r="B575" s="23">
-        <v>430005</v>
-      </c>
-      <c r="C575" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D575" s="23"/>
-      <c r="E575" s="19">
+      <c r="B575" s="11">
+        <v>430005</v>
+      </c>
+      <c r="C575" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D575" s="11"/>
+      <c r="E575" s="6">
         <v>44103</v>
       </c>
-      <c r="F575" s="19">
+      <c r="F575" s="6">
         <v>44102</v>
       </c>
-      <c r="G575" s="23" t="s">
+      <c r="G575" s="11" t="s">
         <v>641</v>
       </c>
-      <c r="H575" s="23" t="s">
+      <c r="H575" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I575" s="23" t="s">
+      <c r="I575" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J575" s="21" t="s">
+      <c r="J575" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K575" s="18"/>
-      <c r="L575" s="23"/>
-      <c r="M575" s="23">
-        <v>0</v>
-      </c>
-      <c r="N575" s="23">
-        <v>1</v>
-      </c>
-      <c r="O575" s="23"/>
+      <c r="K575" s="5"/>
+      <c r="L575" s="11"/>
+      <c r="M575" s="11">
+        <v>0</v>
+      </c>
+      <c r="N575" s="11">
+        <v>1</v>
+      </c>
+      <c r="O575" s="11"/>
     </row>
     <row r="576" spans="1:15">
       <c r="A576" s="25">
         <v>575</v>
       </c>
-      <c r="B576" s="23">
+      <c r="B576" s="11">
         <v>430005</v>
       </c>
       <c r="C576" s="25" t="s">
@@ -32447,22 +32565,22 @@
       <c r="D576" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E576" s="19">
+      <c r="E576" s="6">
         <v>44103</v>
       </c>
-      <c r="F576" s="19">
+      <c r="F576" s="6">
         <v>44103</v>
       </c>
       <c r="G576" s="25" t="s">
         <v>643</v>
       </c>
-      <c r="H576" s="23" t="s">
+      <c r="H576" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I576" s="23" t="s">
+      <c r="I576" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J576" s="21" t="s">
+      <c r="J576" s="7" t="s">
         <v>158</v>
       </c>
       <c r="K576" s="25"/>
@@ -32479,7 +32597,7 @@
       <c r="A577" s="25">
         <v>576</v>
       </c>
-      <c r="B577" s="23">
+      <c r="B577" s="11">
         <v>430005</v>
       </c>
       <c r="C577" s="25" t="s">
@@ -32488,22 +32606,22 @@
       <c r="D577" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E577" s="19">
+      <c r="E577" s="6">
         <v>44104</v>
       </c>
-      <c r="F577" s="19">
+      <c r="F577" s="6">
         <v>44104</v>
       </c>
       <c r="G577" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="H577" s="23" t="s">
+      <c r="H577" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="I577" s="23" t="s">
+      <c r="I577" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="J577" s="21" t="s">
+      <c r="J577" s="7" t="s">
         <v>158</v>
       </c>
       <c r="K577" s="25"/>
@@ -32520,7 +32638,7 @@
       <c r="A578" s="25">
         <v>577</v>
       </c>
-      <c r="B578" s="23">
+      <c r="B578" s="11">
         <v>430005</v>
       </c>
       <c r="C578" s="25" t="s">
@@ -32529,10 +32647,10 @@
       <c r="D578" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E578" s="19">
+      <c r="E578" s="6">
         <v>44105</v>
       </c>
-      <c r="F578" s="19">
+      <c r="F578" s="6">
         <v>44105</v>
       </c>
       <c r="G578" s="25" t="s">
@@ -32561,7 +32679,7 @@
       <c r="A579" s="25">
         <v>578</v>
       </c>
-      <c r="B579" s="23">
+      <c r="B579" s="11">
         <v>430005</v>
       </c>
       <c r="C579" s="25" t="s">
@@ -32570,10 +32688,10 @@
       <c r="D579" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E579" s="19">
+      <c r="E579" s="6">
         <v>44105</v>
       </c>
-      <c r="F579" s="19">
+      <c r="F579" s="6">
         <v>44105</v>
       </c>
       <c r="G579" s="25" t="s">
@@ -32602,7 +32720,7 @@
       <c r="A580" s="25">
         <v>579</v>
       </c>
-      <c r="B580" s="23">
+      <c r="B580" s="11">
         <v>430005</v>
       </c>
       <c r="C580" s="25" t="s">
@@ -32611,10 +32729,10 @@
       <c r="D580" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E580" s="19">
+      <c r="E580" s="6">
         <v>44105</v>
       </c>
-      <c r="F580" s="19">
+      <c r="F580" s="6">
         <v>44105</v>
       </c>
       <c r="G580" s="25" t="s">
@@ -32652,10 +32770,10 @@
       <c r="D581" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E581" s="19">
+      <c r="E581" s="6">
         <v>44106</v>
       </c>
-      <c r="F581" s="19">
+      <c r="F581" s="6">
         <v>44106</v>
       </c>
       <c r="G581" s="25" t="s">
@@ -32693,10 +32811,10 @@
       <c r="D582" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E582" s="19">
+      <c r="E582" s="6">
         <v>44106</v>
       </c>
-      <c r="F582" s="19">
+      <c r="F582" s="6">
         <v>44106</v>
       </c>
       <c r="G582" s="25" t="s">
@@ -32732,10 +32850,10 @@
         <v>14</v>
       </c>
       <c r="D583" s="25"/>
-      <c r="E583" s="19">
+      <c r="E583" s="6">
         <v>44107</v>
       </c>
-      <c r="F583" s="19">
+      <c r="F583" s="6">
         <v>44106</v>
       </c>
       <c r="G583" s="25" t="s">
@@ -32771,10 +32889,10 @@
         <v>14</v>
       </c>
       <c r="D584" s="25"/>
-      <c r="E584" s="19">
+      <c r="E584" s="6">
         <v>44107</v>
       </c>
-      <c r="F584" s="19">
+      <c r="F584" s="6">
         <v>44107</v>
       </c>
       <c r="G584" s="25" t="s">
@@ -32810,10 +32928,10 @@
         <v>14</v>
       </c>
       <c r="D585" s="25"/>
-      <c r="E585" s="19">
+      <c r="E585" s="6">
         <v>44107</v>
       </c>
-      <c r="F585" s="19">
+      <c r="F585" s="6">
         <v>44107</v>
       </c>
       <c r="G585" s="25" t="s">
@@ -32851,10 +32969,10 @@
       <c r="D586" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E586" s="19">
+      <c r="E586" s="6">
         <v>44107</v>
       </c>
-      <c r="F586" s="19">
+      <c r="F586" s="6">
         <v>44107</v>
       </c>
       <c r="G586" s="25" t="s">
@@ -32892,10 +33010,10 @@
       <c r="D587" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E587" s="19">
+      <c r="E587" s="6">
         <v>44107</v>
       </c>
-      <c r="F587" s="19">
+      <c r="F587" s="6">
         <v>44107</v>
       </c>
       <c r="G587" s="25" t="s">
@@ -32933,10 +33051,10 @@
       <c r="D588" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E588" s="19">
+      <c r="E588" s="6">
         <v>44107</v>
       </c>
-      <c r="F588" s="19">
+      <c r="F588" s="6">
         <v>44107</v>
       </c>
       <c r="G588" s="25" t="s">
@@ -32974,10 +33092,10 @@
       <c r="D589" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E589" s="19">
+      <c r="E589" s="6">
         <v>44107</v>
       </c>
-      <c r="F589" s="19">
+      <c r="F589" s="6">
         <v>44107</v>
       </c>
       <c r="G589" s="25" t="s">
@@ -33015,10 +33133,10 @@
       <c r="D590" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E590" s="19">
+      <c r="E590" s="6">
         <v>44107</v>
       </c>
-      <c r="F590" s="19">
+      <c r="F590" s="6">
         <v>44107</v>
       </c>
       <c r="G590" s="25" t="s">
@@ -33054,10 +33172,10 @@
         <v>14</v>
       </c>
       <c r="D591" s="25"/>
-      <c r="E591" s="19">
+      <c r="E591" s="6">
         <v>44108</v>
       </c>
-      <c r="F591" s="19">
+      <c r="F591" s="6">
         <v>44107</v>
       </c>
       <c r="G591" s="25" t="s">
@@ -33093,10 +33211,10 @@
         <v>14</v>
       </c>
       <c r="D592" s="25"/>
-      <c r="E592" s="19">
+      <c r="E592" s="6">
         <v>44108</v>
       </c>
-      <c r="F592" s="19">
+      <c r="F592" s="6">
         <v>44107</v>
       </c>
       <c r="G592" s="25" t="s">
@@ -33134,10 +33252,10 @@
       <c r="D593" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E593" s="19">
+      <c r="E593" s="6">
         <v>44108</v>
       </c>
-      <c r="F593" s="19">
+      <c r="F593" s="6">
         <v>44108</v>
       </c>
       <c r="G593" s="25" t="s">
@@ -33175,10 +33293,10 @@
       <c r="D594" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E594" s="19">
+      <c r="E594" s="6">
         <v>44108</v>
       </c>
-      <c r="F594" s="19">
+      <c r="F594" s="6">
         <v>44108</v>
       </c>
       <c r="G594" s="25" t="s">
@@ -33216,10 +33334,10 @@
       <c r="D595" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E595" s="19">
+      <c r="E595" s="6">
         <v>44108</v>
       </c>
-      <c r="F595" s="19">
+      <c r="F595" s="6">
         <v>44108</v>
       </c>
       <c r="G595" s="25" t="s">
@@ -33257,10 +33375,10 @@
       <c r="D596" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E596" s="19">
+      <c r="E596" s="6">
         <v>44108</v>
       </c>
-      <c r="F596" s="19">
+      <c r="F596" s="6">
         <v>44108</v>
       </c>
       <c r="G596" s="25" t="s">
@@ -33298,10 +33416,10 @@
       <c r="D597" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E597" s="19">
+      <c r="E597" s="6">
         <v>44108</v>
       </c>
-      <c r="F597" s="19">
+      <c r="F597" s="6">
         <v>44108</v>
       </c>
       <c r="G597" s="25" t="s">
@@ -33339,10 +33457,10 @@
       <c r="D598" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E598" s="19">
+      <c r="E598" s="6">
         <v>44108</v>
       </c>
-      <c r="F598" s="19">
+      <c r="F598" s="6">
         <v>44108</v>
       </c>
       <c r="G598" s="25" t="s">
@@ -33380,10 +33498,10 @@
       <c r="D599" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E599" s="19">
+      <c r="E599" s="6">
         <v>44108</v>
       </c>
-      <c r="F599" s="19">
+      <c r="F599" s="6">
         <v>44108</v>
       </c>
       <c r="G599" s="25" t="s">
@@ -33421,10 +33539,10 @@
       <c r="D600" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E600" s="19">
+      <c r="E600" s="6">
         <v>44108</v>
       </c>
-      <c r="F600" s="19">
+      <c r="F600" s="6">
         <v>44108</v>
       </c>
       <c r="G600" s="25" t="s">
@@ -33462,10 +33580,10 @@
       <c r="D601" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E601" s="19">
+      <c r="E601" s="6">
         <v>44108</v>
       </c>
-      <c r="F601" s="19">
+      <c r="F601" s="6">
         <v>44108</v>
       </c>
       <c r="G601" s="25" t="s">
@@ -33503,10 +33621,10 @@
       <c r="D602" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E602" s="19">
+      <c r="E602" s="6">
         <v>44108</v>
       </c>
-      <c r="F602" s="19">
+      <c r="F602" s="6">
         <v>44108</v>
       </c>
       <c r="G602" s="25" t="s">
@@ -33544,10 +33662,10 @@
       <c r="D603" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E603" s="19">
+      <c r="E603" s="6">
         <v>44108</v>
       </c>
-      <c r="F603" s="19">
+      <c r="F603" s="6">
         <v>44108</v>
       </c>
       <c r="G603" s="25" t="s">
@@ -33585,10 +33703,10 @@
       <c r="D604" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E604" s="19">
+      <c r="E604" s="6">
         <v>44108</v>
       </c>
-      <c r="F604" s="19">
+      <c r="F604" s="6">
         <v>44108</v>
       </c>
       <c r="G604" s="25" t="s">
@@ -33626,10 +33744,10 @@
       <c r="D605" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E605" s="19">
+      <c r="E605" s="6">
         <v>44108</v>
       </c>
-      <c r="F605" s="19">
+      <c r="F605" s="6">
         <v>44108</v>
       </c>
       <c r="G605" s="25" t="s">
@@ -33667,10 +33785,10 @@
       <c r="D606" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E606" s="19">
+      <c r="E606" s="6">
         <v>44108</v>
       </c>
-      <c r="F606" s="19">
+      <c r="F606" s="6">
         <v>44108</v>
       </c>
       <c r="G606" s="25" t="s">
@@ -33706,10 +33824,10 @@
         <v>14</v>
       </c>
       <c r="D607" s="25"/>
-      <c r="E607" s="19">
+      <c r="E607" s="6">
         <v>44108</v>
       </c>
-      <c r="F607" s="19">
+      <c r="F607" s="6">
         <v>44108</v>
       </c>
       <c r="G607" s="25" t="s">
@@ -33745,10 +33863,10 @@
         <v>14</v>
       </c>
       <c r="D608" s="25"/>
-      <c r="E608" s="19">
+      <c r="E608" s="6">
         <v>44108</v>
       </c>
-      <c r="F608" s="19">
+      <c r="F608" s="6">
         <v>44108</v>
       </c>
       <c r="G608" s="25" t="s">
@@ -33786,10 +33904,10 @@
       <c r="D609" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E609" s="19">
+      <c r="E609" s="6">
         <v>44108</v>
       </c>
-      <c r="F609" s="19">
+      <c r="F609" s="6">
         <v>44108</v>
       </c>
       <c r="G609" s="25" t="s">
@@ -33825,10 +33943,10 @@
         <v>14</v>
       </c>
       <c r="D610" s="25"/>
-      <c r="E610" s="19">
+      <c r="E610" s="6">
         <v>44109</v>
       </c>
-      <c r="F610" s="19">
+      <c r="F610" s="6">
         <v>44108</v>
       </c>
       <c r="G610" s="25" t="s">
@@ -33864,10 +33982,10 @@
         <v>14</v>
       </c>
       <c r="D611" s="25"/>
-      <c r="E611" s="19">
+      <c r="E611" s="6">
         <v>44109</v>
       </c>
-      <c r="F611" s="19">
+      <c r="F611" s="6">
         <v>44108</v>
       </c>
       <c r="G611" s="25" t="s">
@@ -33903,10 +34021,10 @@
         <v>14</v>
       </c>
       <c r="D612" s="25"/>
-      <c r="E612" s="19">
+      <c r="E612" s="6">
         <v>44109</v>
       </c>
-      <c r="F612" s="19">
+      <c r="F612" s="6">
         <v>44109</v>
       </c>
       <c r="G612" s="25" t="s">
@@ -33944,10 +34062,10 @@
       <c r="D613" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E613" s="19">
+      <c r="E613" s="6">
         <v>44109</v>
       </c>
-      <c r="F613" s="19">
+      <c r="F613" s="6">
         <v>44109</v>
       </c>
       <c r="G613" s="25" t="s">
@@ -33985,10 +34103,10 @@
       <c r="D614" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E614" s="19">
+      <c r="E614" s="6">
         <v>44109</v>
       </c>
-      <c r="F614" s="19">
+      <c r="F614" s="6">
         <v>44109</v>
       </c>
       <c r="G614" s="25" t="s">
@@ -34026,10 +34144,10 @@
       <c r="D615" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E615" s="19">
+      <c r="E615" s="6">
         <v>44109</v>
       </c>
-      <c r="F615" s="19">
+      <c r="F615" s="6">
         <v>44109</v>
       </c>
       <c r="G615" s="25" t="s">
@@ -34067,10 +34185,10 @@
       <c r="D616" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E616" s="19">
+      <c r="E616" s="6">
         <v>44109</v>
       </c>
-      <c r="F616" s="19">
+      <c r="F616" s="6">
         <v>44109</v>
       </c>
       <c r="G616" s="25" t="s">
@@ -34108,10 +34226,10 @@
       <c r="D617" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E617" s="19">
+      <c r="E617" s="6">
         <v>44109</v>
       </c>
-      <c r="F617" s="19">
+      <c r="F617" s="6">
         <v>44109</v>
       </c>
       <c r="G617" s="25" t="s">
@@ -34149,10 +34267,10 @@
       <c r="D618" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E618" s="19">
+      <c r="E618" s="6">
         <v>44109</v>
       </c>
-      <c r="F618" s="19">
+      <c r="F618" s="6">
         <v>44109</v>
       </c>
       <c r="G618" s="25" t="s">
@@ -34190,10 +34308,10 @@
       <c r="D619" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E619" s="19">
+      <c r="E619" s="6">
         <v>44109</v>
       </c>
-      <c r="F619" s="19">
+      <c r="F619" s="6">
         <v>44109</v>
       </c>
       <c r="G619" s="25" t="s">
@@ -34231,10 +34349,10 @@
       <c r="D620" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E620" s="19">
+      <c r="E620" s="6">
         <v>44109</v>
       </c>
-      <c r="F620" s="19">
+      <c r="F620" s="6">
         <v>44109</v>
       </c>
       <c r="G620" s="25" t="s">
@@ -34272,10 +34390,10 @@
       <c r="D621" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E621" s="19">
+      <c r="E621" s="6">
         <v>44109</v>
       </c>
-      <c r="F621" s="19">
+      <c r="F621" s="6">
         <v>44109</v>
       </c>
       <c r="G621" s="25" t="s">
@@ -34313,10 +34431,10 @@
       <c r="D622" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E622" s="19">
+      <c r="E622" s="6">
         <v>44109</v>
       </c>
-      <c r="F622" s="19">
+      <c r="F622" s="6">
         <v>44109</v>
       </c>
       <c r="G622" s="25" t="s">
@@ -34354,10 +34472,10 @@
       <c r="D623" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E623" s="19">
+      <c r="E623" s="6">
         <v>44109</v>
       </c>
-      <c r="F623" s="19">
+      <c r="F623" s="6">
         <v>44109</v>
       </c>
       <c r="G623" s="25" t="s">
@@ -34395,10 +34513,10 @@
       <c r="D624" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E624" s="19">
+      <c r="E624" s="6">
         <v>44109</v>
       </c>
-      <c r="F624" s="19">
+      <c r="F624" s="6">
         <v>44109</v>
       </c>
       <c r="G624" s="25" t="s">
@@ -34436,10 +34554,10 @@
       <c r="D625" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E625" s="19">
+      <c r="E625" s="6">
         <v>44109</v>
       </c>
-      <c r="F625" s="19">
+      <c r="F625" s="6">
         <v>44109</v>
       </c>
       <c r="G625" s="25" t="s">
@@ -34477,10 +34595,10 @@
       <c r="D626" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E626" s="19">
+      <c r="E626" s="6">
         <v>44109</v>
       </c>
-      <c r="F626" s="19">
+      <c r="F626" s="6">
         <v>44109</v>
       </c>
       <c r="G626" s="25" t="s">
@@ -34518,10 +34636,10 @@
       <c r="D627" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E627" s="19">
+      <c r="E627" s="6">
         <v>44109</v>
       </c>
-      <c r="F627" s="19">
+      <c r="F627" s="6">
         <v>44109</v>
       </c>
       <c r="G627" s="25" t="s">
@@ -34559,10 +34677,10 @@
       <c r="D628" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E628" s="19">
+      <c r="E628" s="6">
         <v>44109</v>
       </c>
-      <c r="F628" s="19">
+      <c r="F628" s="6">
         <v>44109</v>
       </c>
       <c r="G628" s="25" t="s">
@@ -34598,10 +34716,10 @@
         <v>14</v>
       </c>
       <c r="D629" s="25"/>
-      <c r="E629" s="19">
+      <c r="E629" s="6">
         <v>44110</v>
       </c>
-      <c r="F629" s="19">
+      <c r="F629" s="6">
         <v>44109</v>
       </c>
       <c r="G629" s="25" t="s">
@@ -34637,10 +34755,10 @@
         <v>14</v>
       </c>
       <c r="D630" s="25"/>
-      <c r="E630" s="19">
+      <c r="E630" s="6">
         <v>44110</v>
       </c>
-      <c r="F630" s="19">
+      <c r="F630" s="6">
         <v>44109</v>
       </c>
       <c r="G630" s="25" t="s">
@@ -34676,10 +34794,10 @@
         <v>14</v>
       </c>
       <c r="D631" s="25"/>
-      <c r="E631" s="19">
+      <c r="E631" s="6">
         <v>44110</v>
       </c>
-      <c r="F631" s="19">
+      <c r="F631" s="6">
         <v>44110</v>
       </c>
       <c r="G631" s="25" t="s">
@@ -34717,10 +34835,10 @@
       <c r="D632" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E632" s="19">
+      <c r="E632" s="6">
         <v>44110</v>
       </c>
-      <c r="F632" s="19">
+      <c r="F632" s="6">
         <v>44110</v>
       </c>
       <c r="G632" s="25" t="s">
@@ -34758,10 +34876,10 @@
       <c r="D633" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E633" s="19">
+      <c r="E633" s="6">
         <v>44110</v>
       </c>
-      <c r="F633" s="19">
+      <c r="F633" s="6">
         <v>44110</v>
       </c>
       <c r="G633" s="25" t="s">
@@ -34799,10 +34917,10 @@
       <c r="D634" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E634" s="19">
+      <c r="E634" s="6">
         <v>44110</v>
       </c>
-      <c r="F634" s="19">
+      <c r="F634" s="6">
         <v>44110</v>
       </c>
       <c r="G634" s="25" t="s">
@@ -34840,10 +34958,10 @@
       <c r="D635" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E635" s="19">
+      <c r="E635" s="6">
         <v>44110</v>
       </c>
-      <c r="F635" s="19">
+      <c r="F635" s="6">
         <v>44110</v>
       </c>
       <c r="G635" s="25" t="s">
@@ -34881,10 +34999,10 @@
       <c r="D636" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E636" s="19">
+      <c r="E636" s="6">
         <v>44110</v>
       </c>
-      <c r="F636" s="19">
+      <c r="F636" s="6">
         <v>44110</v>
       </c>
       <c r="G636" s="25" t="s">
@@ -34922,10 +35040,10 @@
       <c r="D637" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E637" s="19">
+      <c r="E637" s="6">
         <v>44110</v>
       </c>
-      <c r="F637" s="19">
+      <c r="F637" s="6">
         <v>44110</v>
       </c>
       <c r="G637" s="25" t="s">
@@ -34963,10 +35081,10 @@
       <c r="D638" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E638" s="19">
+      <c r="E638" s="6">
         <v>44110</v>
       </c>
-      <c r="F638" s="19">
+      <c r="F638" s="6">
         <v>44110</v>
       </c>
       <c r="G638" s="25" t="s">
@@ -35004,10 +35122,10 @@
       <c r="D639" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E639" s="19">
+      <c r="E639" s="6">
         <v>44110</v>
       </c>
-      <c r="F639" s="19">
+      <c r="F639" s="6">
         <v>44110</v>
       </c>
       <c r="G639" s="25" t="s">
@@ -35022,7 +35140,7 @@
       <c r="J639" s="26" t="s">
         <v>722</v>
       </c>
-      <c r="K639" s="23"/>
+      <c r="K639" s="11"/>
       <c r="L639" s="25"/>
       <c r="M639" s="25">
         <v>0</v>
@@ -35045,10 +35163,10 @@
       <c r="D640" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E640" s="19">
+      <c r="E640" s="6">
         <v>44110</v>
       </c>
-      <c r="F640" s="19">
+      <c r="F640" s="6">
         <v>44110</v>
       </c>
       <c r="G640" s="25" t="s">
@@ -35086,10 +35204,10 @@
       <c r="D641" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E641" s="19">
+      <c r="E641" s="6">
         <v>44110</v>
       </c>
-      <c r="F641" s="19">
+      <c r="F641" s="6">
         <v>44110</v>
       </c>
       <c r="G641" s="25" t="s">
@@ -35125,10 +35243,10 @@
         <v>14</v>
       </c>
       <c r="D642" s="25"/>
-      <c r="E642" s="19">
+      <c r="E642" s="6">
         <v>44111</v>
       </c>
-      <c r="F642" s="19">
+      <c r="F642" s="6">
         <v>44110</v>
       </c>
       <c r="G642" s="25" t="s">
@@ -35164,10 +35282,10 @@
         <v>14</v>
       </c>
       <c r="D643" s="25"/>
-      <c r="E643" s="19">
+      <c r="E643" s="6">
         <v>44111</v>
       </c>
-      <c r="F643" s="19">
+      <c r="F643" s="6">
         <v>44110</v>
       </c>
       <c r="G643" s="25" t="s">
@@ -35203,10 +35321,10 @@
         <v>14</v>
       </c>
       <c r="D644" s="25"/>
-      <c r="E644" s="19">
+      <c r="E644" s="6">
         <v>44111</v>
       </c>
-      <c r="F644" s="19">
+      <c r="F644" s="6">
         <v>44111</v>
       </c>
       <c r="G644" s="25" t="s">
@@ -35242,10 +35360,10 @@
         <v>14</v>
       </c>
       <c r="D645" s="25"/>
-      <c r="E645" s="19">
+      <c r="E645" s="6">
         <v>44112</v>
       </c>
-      <c r="F645" s="19">
+      <c r="F645" s="6">
         <v>44111</v>
       </c>
       <c r="G645" s="25" t="s">
@@ -35281,10 +35399,10 @@
         <v>14</v>
       </c>
       <c r="D646" s="25"/>
-      <c r="E646" s="19">
+      <c r="E646" s="6">
         <v>44112</v>
       </c>
-      <c r="F646" s="19">
+      <c r="F646" s="6">
         <v>44111</v>
       </c>
       <c r="G646" s="25" t="s">
@@ -35320,10 +35438,10 @@
         <v>14</v>
       </c>
       <c r="D647" s="25"/>
-      <c r="E647" s="19">
+      <c r="E647" s="6">
         <v>44112</v>
       </c>
-      <c r="F647" s="19">
+      <c r="F647" s="6">
         <v>44111</v>
       </c>
       <c r="G647" s="25" t="s">
@@ -35359,10 +35477,10 @@
         <v>14</v>
       </c>
       <c r="D648" s="25"/>
-      <c r="E648" s="19">
+      <c r="E648" s="6">
         <v>44112</v>
       </c>
-      <c r="F648" s="19">
+      <c r="F648" s="6">
         <v>44111</v>
       </c>
       <c r="G648" s="25" t="s">
@@ -35398,10 +35516,10 @@
         <v>14</v>
       </c>
       <c r="D649" s="25"/>
-      <c r="E649" s="19">
+      <c r="E649" s="6">
         <v>44112</v>
       </c>
-      <c r="F649" s="19">
+      <c r="F649" s="6">
         <v>44111</v>
       </c>
       <c r="G649" s="25" t="s">
@@ -35437,10 +35555,10 @@
         <v>14</v>
       </c>
       <c r="D650" s="25"/>
-      <c r="E650" s="19">
+      <c r="E650" s="6">
         <v>44112</v>
       </c>
-      <c r="F650" s="19">
+      <c r="F650" s="6">
         <v>44111</v>
       </c>
       <c r="G650" s="25" t="s">
@@ -35476,10 +35594,10 @@
         <v>14</v>
       </c>
       <c r="D651" s="25"/>
-      <c r="E651" s="19">
+      <c r="E651" s="6">
         <v>44112</v>
       </c>
-      <c r="F651" s="19">
+      <c r="F651" s="6">
         <v>44112</v>
       </c>
       <c r="G651" s="25" t="s">
@@ -35517,10 +35635,10 @@
       <c r="D652" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E652" s="19">
+      <c r="E652" s="6">
         <v>44112</v>
       </c>
-      <c r="F652" s="19">
+      <c r="F652" s="6">
         <v>44112</v>
       </c>
       <c r="G652" s="25" t="s">
@@ -35558,10 +35676,10 @@
       <c r="D653" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E653" s="19">
+      <c r="E653" s="6">
         <v>44112</v>
       </c>
-      <c r="F653" s="19">
+      <c r="F653" s="6">
         <v>44112</v>
       </c>
       <c r="G653" s="25" t="s">
@@ -35599,10 +35717,10 @@
       <c r="D654" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E654" s="19">
+      <c r="E654" s="6">
         <v>44112</v>
       </c>
-      <c r="F654" s="19">
+      <c r="F654" s="6">
         <v>44112</v>
       </c>
       <c r="G654" s="25" t="s">
@@ -35640,10 +35758,10 @@
       <c r="D655" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E655" s="19">
+      <c r="E655" s="6">
         <v>44113</v>
       </c>
-      <c r="F655" s="19">
+      <c r="F655" s="6">
         <v>44112</v>
       </c>
       <c r="G655" s="25" t="s">
@@ -35679,10 +35797,10 @@
         <v>14</v>
       </c>
       <c r="D656" s="25"/>
-      <c r="E656" s="19">
+      <c r="E656" s="6">
         <v>44113</v>
       </c>
-      <c r="F656" s="19">
+      <c r="F656" s="6">
         <v>44112</v>
       </c>
       <c r="G656" s="25" t="s">
@@ -35718,10 +35836,10 @@
         <v>14</v>
       </c>
       <c r="D657" s="25"/>
-      <c r="E657" s="19">
+      <c r="E657" s="6">
         <v>44113</v>
       </c>
-      <c r="F657" s="19">
+      <c r="F657" s="6">
         <v>44112</v>
       </c>
       <c r="G657" s="25" t="s">
@@ -35757,10 +35875,10 @@
         <v>14</v>
       </c>
       <c r="D658" s="25"/>
-      <c r="E658" s="19">
+      <c r="E658" s="6">
         <v>44113</v>
       </c>
-      <c r="F658" s="19">
+      <c r="F658" s="6">
         <v>44112</v>
       </c>
       <c r="G658" s="25" t="s">
@@ -35796,10 +35914,10 @@
         <v>14</v>
       </c>
       <c r="D659" s="25"/>
-      <c r="E659" s="19">
+      <c r="E659" s="6">
         <v>44113</v>
       </c>
-      <c r="F659" s="19">
+      <c r="F659" s="6">
         <v>44112</v>
       </c>
       <c r="G659" s="25" t="s">
@@ -35837,10 +35955,10 @@
       <c r="D660" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E660" s="19">
+      <c r="E660" s="6">
         <v>44113</v>
       </c>
-      <c r="F660" s="19">
+      <c r="F660" s="6">
         <v>44113</v>
       </c>
       <c r="G660" s="25" t="s">
@@ -35878,10 +35996,10 @@
       <c r="D661" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E661" s="19">
+      <c r="E661" s="6">
         <v>44113</v>
       </c>
-      <c r="F661" s="19">
+      <c r="F661" s="6">
         <v>44113</v>
       </c>
       <c r="G661" s="25" t="s">
@@ -35919,10 +36037,10 @@
       <c r="D662" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E662" s="19">
+      <c r="E662" s="6">
         <v>44113</v>
       </c>
-      <c r="F662" s="19">
+      <c r="F662" s="6">
         <v>44113</v>
       </c>
       <c r="G662" s="25" t="s">
@@ -35960,10 +36078,10 @@
       <c r="D663" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E663" s="19">
+      <c r="E663" s="6">
         <v>44113</v>
       </c>
-      <c r="F663" s="19">
+      <c r="F663" s="6">
         <v>44113</v>
       </c>
       <c r="G663" s="25" t="s">
@@ -36001,10 +36119,10 @@
       <c r="D664" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E664" s="19">
+      <c r="E664" s="6">
         <v>44113</v>
       </c>
-      <c r="F664" s="19">
+      <c r="F664" s="6">
         <v>44113</v>
       </c>
       <c r="G664" s="25" t="s">
@@ -36042,10 +36160,10 @@
       <c r="D665" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E665" s="19">
+      <c r="E665" s="6">
         <v>44113</v>
       </c>
-      <c r="F665" s="19">
+      <c r="F665" s="6">
         <v>44113</v>
       </c>
       <c r="G665" s="25" t="s">
@@ -36083,10 +36201,10 @@
       <c r="D666" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E666" s="19">
+      <c r="E666" s="6">
         <v>44113</v>
       </c>
-      <c r="F666" s="19">
+      <c r="F666" s="6">
         <v>44113</v>
       </c>
       <c r="G666" s="25" t="s">
@@ -36124,10 +36242,10 @@
       <c r="D667" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E667" s="19">
+      <c r="E667" s="6">
         <v>44113</v>
       </c>
-      <c r="F667" s="19">
+      <c r="F667" s="6">
         <v>44113</v>
       </c>
       <c r="G667" s="25" t="s">
@@ -36165,10 +36283,10 @@
       <c r="D668" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E668" s="19">
+      <c r="E668" s="6">
         <v>44113</v>
       </c>
-      <c r="F668" s="19">
+      <c r="F668" s="6">
         <v>44113</v>
       </c>
       <c r="G668" s="25" t="s">
@@ -36206,10 +36324,10 @@
       <c r="D669" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E669" s="19">
+      <c r="E669" s="6">
         <v>44113</v>
       </c>
-      <c r="F669" s="19">
+      <c r="F669" s="6">
         <v>44113</v>
       </c>
       <c r="G669" s="25" t="s">
@@ -36247,10 +36365,10 @@
       <c r="D670" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E670" s="19">
+      <c r="E670" s="6">
         <v>44113</v>
       </c>
-      <c r="F670" s="19">
+      <c r="F670" s="6">
         <v>44113</v>
       </c>
       <c r="G670" s="25" t="s">
@@ -36288,10 +36406,10 @@
       <c r="D671" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E671" s="19">
+      <c r="E671" s="6">
         <v>44113</v>
       </c>
-      <c r="F671" s="19">
+      <c r="F671" s="6">
         <v>44113</v>
       </c>
       <c r="G671" s="25" t="s">
@@ -36329,10 +36447,10 @@
       <c r="D672" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E672" s="19">
+      <c r="E672" s="6">
         <v>44113</v>
       </c>
-      <c r="F672" s="19">
+      <c r="F672" s="6">
         <v>44113</v>
       </c>
       <c r="G672" s="25" t="s">
@@ -36370,10 +36488,10 @@
       <c r="D673" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E673" s="19">
+      <c r="E673" s="6">
         <v>44113</v>
       </c>
-      <c r="F673" s="19">
+      <c r="F673" s="6">
         <v>44113</v>
       </c>
       <c r="G673" s="25" t="s">
@@ -36411,10 +36529,10 @@
       <c r="D674" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E674" s="19">
+      <c r="E674" s="6">
         <v>44113</v>
       </c>
-      <c r="F674" s="19">
+      <c r="F674" s="6">
         <v>44113</v>
       </c>
       <c r="G674" s="25" t="s">
@@ -36452,10 +36570,10 @@
       <c r="D675" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E675" s="19">
+      <c r="E675" s="6">
         <v>44113</v>
       </c>
-      <c r="F675" s="19">
+      <c r="F675" s="6">
         <v>44113</v>
       </c>
       <c r="G675" s="25" t="s">
@@ -36491,10 +36609,10 @@
         <v>14</v>
       </c>
       <c r="D676" s="25"/>
-      <c r="E676" s="19">
+      <c r="E676" s="6">
         <v>44114</v>
       </c>
-      <c r="F676" s="19">
+      <c r="F676" s="6">
         <v>44113</v>
       </c>
       <c r="G676" s="25" t="s">
@@ -36530,10 +36648,10 @@
         <v>14</v>
       </c>
       <c r="D677" s="25"/>
-      <c r="E677" s="19">
+      <c r="E677" s="6">
         <v>44114</v>
       </c>
-      <c r="F677" s="19">
+      <c r="F677" s="6">
         <v>44113</v>
       </c>
       <c r="G677" s="25" t="s">
@@ -36571,10 +36689,10 @@
       <c r="D678" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E678" s="19">
+      <c r="E678" s="6">
         <v>44114</v>
       </c>
-      <c r="F678" s="19">
+      <c r="F678" s="6">
         <v>44114</v>
       </c>
       <c r="G678" s="25" t="s">
@@ -36612,10 +36730,10 @@
       <c r="D679" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E679" s="19">
+      <c r="E679" s="6">
         <v>44114</v>
       </c>
-      <c r="F679" s="19">
+      <c r="F679" s="6">
         <v>44114</v>
       </c>
       <c r="G679" s="25" t="s">
@@ -36653,10 +36771,10 @@
       <c r="D680" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E680" s="19">
+      <c r="E680" s="6">
         <v>44114</v>
       </c>
-      <c r="F680" s="19">
+      <c r="F680" s="6">
         <v>44114</v>
       </c>
       <c r="G680" s="25" t="s">
@@ -36694,10 +36812,10 @@
       <c r="D681" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E681" s="19">
+      <c r="E681" s="6">
         <v>44114</v>
       </c>
-      <c r="F681" s="19">
+      <c r="F681" s="6">
         <v>44114</v>
       </c>
       <c r="G681" s="25" t="s">
@@ -36735,10 +36853,10 @@
       <c r="D682" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E682" s="19">
+      <c r="E682" s="6">
         <v>44114</v>
       </c>
-      <c r="F682" s="19">
+      <c r="F682" s="6">
         <v>44114</v>
       </c>
       <c r="G682" s="25" t="s">
@@ -36776,10 +36894,10 @@
       <c r="D683" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E683" s="19">
+      <c r="E683" s="6">
         <v>44114</v>
       </c>
-      <c r="F683" s="19">
+      <c r="F683" s="6">
         <v>44114</v>
       </c>
       <c r="G683" s="25" t="s">
@@ -36817,10 +36935,10 @@
       <c r="D684" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E684" s="19">
+      <c r="E684" s="6">
         <v>44114</v>
       </c>
-      <c r="F684" s="19">
+      <c r="F684" s="6">
         <v>44114</v>
       </c>
       <c r="G684" s="25" t="s">
@@ -36858,10 +36976,10 @@
       <c r="D685" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E685" s="19">
+      <c r="E685" s="6">
         <v>44115</v>
       </c>
-      <c r="F685" s="19">
+      <c r="F685" s="6">
         <v>44115</v>
       </c>
       <c r="G685" s="25" t="s">
@@ -36899,10 +37017,10 @@
       <c r="D686" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E686" s="19">
+      <c r="E686" s="6">
         <v>44115</v>
       </c>
-      <c r="F686" s="19">
+      <c r="F686" s="6">
         <v>44115</v>
       </c>
       <c r="G686" s="25" t="s">
@@ -36940,10 +37058,10 @@
       <c r="D687" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E687" s="19">
+      <c r="E687" s="6">
         <v>44115</v>
       </c>
-      <c r="F687" s="19">
+      <c r="F687" s="6">
         <v>44115</v>
       </c>
       <c r="G687" s="25" t="s">
@@ -36981,10 +37099,10 @@
       <c r="D688" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E688" s="19">
+      <c r="E688" s="6">
         <v>44115</v>
       </c>
-      <c r="F688" s="19">
+      <c r="F688" s="6">
         <v>44115</v>
       </c>
       <c r="G688" s="25" t="s">
@@ -37022,10 +37140,10 @@
       <c r="D689" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E689" s="19">
+      <c r="E689" s="6">
         <v>44115</v>
       </c>
-      <c r="F689" s="19">
+      <c r="F689" s="6">
         <v>44115</v>
       </c>
       <c r="G689" s="25" t="s">
@@ -37063,10 +37181,10 @@
       <c r="D690" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E690" s="19">
+      <c r="E690" s="6">
         <v>44115</v>
       </c>
-      <c r="F690" s="19">
+      <c r="F690" s="6">
         <v>44115</v>
       </c>
       <c r="G690" s="25" t="s">
@@ -37104,10 +37222,10 @@
       <c r="D691" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E691" s="19">
+      <c r="E691" s="6">
         <v>44115</v>
       </c>
-      <c r="F691" s="19">
+      <c r="F691" s="6">
         <v>44115</v>
       </c>
       <c r="G691" s="25" t="s">
@@ -37145,10 +37263,10 @@
       <c r="D692" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E692" s="19">
+      <c r="E692" s="6">
         <v>44115</v>
       </c>
-      <c r="F692" s="19">
+      <c r="F692" s="6">
         <v>44115</v>
       </c>
       <c r="G692" s="25" t="s">
@@ -37186,10 +37304,10 @@
       <c r="D693" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E693" s="19">
+      <c r="E693" s="6">
         <v>44116</v>
       </c>
-      <c r="F693" s="19">
+      <c r="F693" s="6">
         <v>44115</v>
       </c>
       <c r="G693" s="25" t="s">
@@ -37227,10 +37345,10 @@
       <c r="D694" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E694" s="19">
+      <c r="E694" s="6">
         <v>44116</v>
       </c>
-      <c r="F694" s="19">
+      <c r="F694" s="6">
         <v>44116</v>
       </c>
       <c r="G694" s="25" t="s">
@@ -37268,10 +37386,10 @@
       <c r="D695" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E695" s="19">
+      <c r="E695" s="6">
         <v>44116</v>
       </c>
-      <c r="F695" s="19">
+      <c r="F695" s="6">
         <v>44116</v>
       </c>
       <c r="G695" s="25" t="s">
@@ -37309,10 +37427,10 @@
       <c r="D696" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E696" s="19">
+      <c r="E696" s="6">
         <v>44116</v>
       </c>
-      <c r="F696" s="19">
+      <c r="F696" s="6">
         <v>44116</v>
       </c>
       <c r="G696" s="25" t="s">
@@ -37350,10 +37468,10 @@
       <c r="D697" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E697" s="19">
+      <c r="E697" s="6">
         <v>44116</v>
       </c>
-      <c r="F697" s="19">
+      <c r="F697" s="6">
         <v>44116</v>
       </c>
       <c r="G697" s="25" t="s">
@@ -37391,10 +37509,10 @@
       <c r="D698" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E698" s="19">
+      <c r="E698" s="6">
         <v>44116</v>
       </c>
-      <c r="F698" s="19">
+      <c r="F698" s="6">
         <v>44116</v>
       </c>
       <c r="G698" s="25" t="s">
@@ -37432,10 +37550,10 @@
       <c r="D699" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E699" s="19">
+      <c r="E699" s="6">
         <v>44116</v>
       </c>
-      <c r="F699" s="19">
+      <c r="F699" s="6">
         <v>44116</v>
       </c>
       <c r="G699" s="25" t="s">
@@ -37473,10 +37591,10 @@
       <c r="D700" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E700" s="19">
+      <c r="E700" s="6">
         <v>44116</v>
       </c>
-      <c r="F700" s="19">
+      <c r="F700" s="6">
         <v>44116</v>
       </c>
       <c r="G700" s="25" t="s">
@@ -37512,10 +37630,10 @@
       <c r="D701" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E701" s="19">
+      <c r="E701" s="6">
         <v>44116</v>
       </c>
-      <c r="F701" s="19">
+      <c r="F701" s="6">
         <v>44116</v>
       </c>
       <c r="G701" s="25" t="s">
@@ -37551,10 +37669,10 @@
       <c r="D702" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E702" s="19">
+      <c r="E702" s="6">
         <v>44116</v>
       </c>
-      <c r="F702" s="19">
+      <c r="F702" s="6">
         <v>44116</v>
       </c>
       <c r="G702" s="25" t="s">
@@ -37592,10 +37710,10 @@
       <c r="D703" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E703" s="19">
+      <c r="E703" s="6">
         <v>44116</v>
       </c>
-      <c r="F703" s="19">
+      <c r="F703" s="6">
         <v>44116</v>
       </c>
       <c r="G703" s="25" t="s">
@@ -37635,10 +37753,10 @@
       <c r="D704" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E704" s="19">
+      <c r="E704" s="6">
         <v>44116</v>
       </c>
-      <c r="F704" s="19">
+      <c r="F704" s="6">
         <v>44116</v>
       </c>
       <c r="G704" s="25" t="s">
@@ -37674,10 +37792,10 @@
         <v>14</v>
       </c>
       <c r="D705" s="25"/>
-      <c r="E705" s="19">
+      <c r="E705" s="6">
         <v>44117</v>
       </c>
-      <c r="F705" s="19">
+      <c r="F705" s="6">
         <v>44116</v>
       </c>
       <c r="G705" s="30" t="s">
@@ -37715,10 +37833,10 @@
       <c r="D706" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E706" s="19">
+      <c r="E706" s="6">
         <v>44117</v>
       </c>
-      <c r="F706" s="19">
+      <c r="F706" s="6">
         <v>44117</v>
       </c>
       <c r="G706" s="30" t="s">
@@ -37756,10 +37874,10 @@
       <c r="D707" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E707" s="19">
+      <c r="E707" s="6">
         <v>44117</v>
       </c>
-      <c r="F707" s="19">
+      <c r="F707" s="6">
         <v>44117</v>
       </c>
       <c r="G707" s="30" t="s">
@@ -37797,10 +37915,10 @@
       <c r="D708" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E708" s="19">
+      <c r="E708" s="6">
         <v>44117</v>
       </c>
-      <c r="F708" s="19">
+      <c r="F708" s="6">
         <v>44117</v>
       </c>
       <c r="G708" s="30" t="s">
@@ -37838,10 +37956,10 @@
       <c r="D709" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E709" s="19">
+      <c r="E709" s="6">
         <v>44117</v>
       </c>
-      <c r="F709" s="19">
+      <c r="F709" s="6">
         <v>44117</v>
       </c>
       <c r="G709" s="30" t="s">
@@ -37879,10 +37997,10 @@
       <c r="D710" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E710" s="19">
+      <c r="E710" s="6">
         <v>44117</v>
       </c>
-      <c r="F710" s="19">
+      <c r="F710" s="6">
         <v>44117</v>
       </c>
       <c r="G710" s="30" t="s">
@@ -37920,10 +38038,10 @@
       <c r="D711" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E711" s="19">
+      <c r="E711" s="6">
         <v>44117</v>
       </c>
-      <c r="F711" s="19">
+      <c r="F711" s="6">
         <v>44117</v>
       </c>
       <c r="G711" s="30" t="s">
@@ -37961,10 +38079,10 @@
       <c r="D712" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E712" s="19">
+      <c r="E712" s="6">
         <v>44117</v>
       </c>
-      <c r="F712" s="19">
+      <c r="F712" s="6">
         <v>44117</v>
       </c>
       <c r="G712" s="30" t="s">
@@ -38002,10 +38120,10 @@
       <c r="D713" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E713" s="19">
+      <c r="E713" s="6">
         <v>44117</v>
       </c>
-      <c r="F713" s="19">
+      <c r="F713" s="6">
         <v>44117</v>
       </c>
       <c r="G713" s="30" t="s">
@@ -38043,10 +38161,10 @@
       <c r="D714" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E714" s="19">
+      <c r="E714" s="6">
         <v>44117</v>
       </c>
-      <c r="F714" s="19">
+      <c r="F714" s="6">
         <v>44117</v>
       </c>
       <c r="G714" s="30" t="s">
@@ -38084,10 +38202,10 @@
       <c r="D715" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E715" s="19">
+      <c r="E715" s="6">
         <v>44117</v>
       </c>
-      <c r="F715" s="19">
+      <c r="F715" s="6">
         <v>44117</v>
       </c>
       <c r="G715" s="30" t="s">
@@ -38125,10 +38243,10 @@
       <c r="D716" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E716" s="19">
+      <c r="E716" s="6">
         <v>44117</v>
       </c>
-      <c r="F716" s="19">
+      <c r="F716" s="6">
         <v>44117</v>
       </c>
       <c r="G716" s="30" t="s">
@@ -38164,10 +38282,10 @@
         <v>14</v>
       </c>
       <c r="D717" s="25"/>
-      <c r="E717" s="19">
+      <c r="E717" s="6">
         <v>44118</v>
       </c>
-      <c r="F717" s="19">
+      <c r="F717" s="6">
         <v>44117</v>
       </c>
       <c r="G717" s="25" t="s">
@@ -38203,10 +38321,10 @@
         <v>14</v>
       </c>
       <c r="D718" s="25"/>
-      <c r="E718" s="19">
+      <c r="E718" s="6">
         <v>44118</v>
       </c>
-      <c r="F718" s="19">
+      <c r="F718" s="6">
         <v>44117</v>
       </c>
       <c r="G718" s="25" t="s">
@@ -38244,10 +38362,10 @@
       <c r="D719" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="E719" s="19">
+      <c r="E719" s="6">
         <v>44118</v>
       </c>
-      <c r="F719" s="19">
+      <c r="F719" s="6">
         <v>44118</v>
       </c>
       <c r="G719" s="25" t="s">
@@ -38285,10 +38403,10 @@
       <c r="D720" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="E720" s="19">
+      <c r="E720" s="6">
         <v>44118</v>
       </c>
-      <c r="F720" s="19">
+      <c r="F720" s="6">
         <v>44118</v>
       </c>
       <c r="G720" s="25" t="s">
@@ -38326,10 +38444,10 @@
       <c r="D721" s="25" t="s">
         <v>839</v>
       </c>
-      <c r="E721" s="19">
+      <c r="E721" s="6">
         <v>44118</v>
       </c>
-      <c r="F721" s="19">
+      <c r="F721" s="6">
         <v>44118</v>
       </c>
       <c r="G721" s="25" t="s">
@@ -38365,10 +38483,10 @@
       <c r="D722" s="32" t="s">
         <v>839</v>
       </c>
-      <c r="E722" s="33">
+      <c r="E722" s="9">
         <v>44118</v>
       </c>
-      <c r="F722" s="33">
+      <c r="F722" s="9">
         <v>44118</v>
       </c>
       <c r="G722" s="32" t="s">
@@ -38380,7 +38498,7 @@
       <c r="I722" s="32" t="s">
         <v>831</v>
       </c>
-      <c r="J722" s="34" t="s">
+      <c r="J722" s="33" t="s">
         <v>846</v>
       </c>
       <c r="K722" s="32"/>
@@ -38394,7 +38512,7 @@
       <c r="O722" s="32"/>
     </row>
     <row r="723" spans="1:15">
-      <c r="A723" s="35">
+      <c r="A723" s="34">
         <v>722</v>
       </c>
       <c r="B723" s="32">
@@ -38404,10 +38522,10 @@
         <v>14</v>
       </c>
       <c r="D723" s="25"/>
-      <c r="E723" s="33">
+      <c r="E723" s="9">
         <v>44119</v>
       </c>
-      <c r="F723" s="19">
+      <c r="F723" s="6">
         <v>44118</v>
       </c>
       <c r="G723" s="25" t="s">
@@ -38433,7 +38551,7 @@
       <c r="O723" s="25"/>
     </row>
     <row r="724" spans="1:15">
-      <c r="A724" s="35">
+      <c r="A724" s="34">
         <v>723</v>
       </c>
       <c r="B724" s="32">
@@ -38443,10 +38561,10 @@
         <v>14</v>
       </c>
       <c r="D724" s="25"/>
-      <c r="E724" s="33">
+      <c r="E724" s="9">
         <v>44119</v>
       </c>
-      <c r="F724" s="33">
+      <c r="F724" s="9">
         <v>44118</v>
       </c>
       <c r="G724" s="25" t="s">
@@ -38472,7 +38590,7 @@
       <c r="O724" s="25"/>
     </row>
     <row r="725" spans="1:15">
-      <c r="A725" s="35">
+      <c r="A725" s="34">
         <v>724</v>
       </c>
       <c r="B725" s="32">
@@ -38482,10 +38600,10 @@
         <v>14</v>
       </c>
       <c r="D725" s="25"/>
-      <c r="E725" s="33">
+      <c r="E725" s="9">
         <v>44119</v>
       </c>
-      <c r="F725" s="19">
+      <c r="F725" s="6">
         <v>44118</v>
       </c>
       <c r="G725" s="25" t="s">
@@ -38511,7 +38629,7 @@
       <c r="O725" s="25"/>
     </row>
     <row r="726" spans="1:15">
-      <c r="A726" s="35">
+      <c r="A726" s="34">
         <v>725</v>
       </c>
       <c r="B726" s="32">
@@ -38521,10 +38639,10 @@
         <v>14</v>
       </c>
       <c r="D726" s="25"/>
-      <c r="E726" s="33">
+      <c r="E726" s="9">
         <v>44119</v>
       </c>
-      <c r="F726" s="33">
+      <c r="F726" s="9">
         <v>44118</v>
       </c>
       <c r="G726" s="25" t="s">
@@ -38550,7 +38668,7 @@
       <c r="O726" s="25"/>
     </row>
     <row r="727" spans="1:15">
-      <c r="A727" s="35">
+      <c r="A727" s="34">
         <v>726</v>
       </c>
       <c r="B727" s="32">
@@ -38560,10 +38678,10 @@
         <v>14</v>
       </c>
       <c r="D727" s="25"/>
-      <c r="E727" s="33">
+      <c r="E727" s="9">
         <v>44119</v>
       </c>
-      <c r="F727" s="19">
+      <c r="F727" s="6">
         <v>44118</v>
       </c>
       <c r="G727" s="25" t="s">
@@ -38589,7 +38707,7 @@
       <c r="O727" s="25"/>
     </row>
     <row r="728" spans="1:15">
-      <c r="A728" s="35">
+      <c r="A728" s="34">
         <v>727</v>
       </c>
       <c r="B728" s="25">
@@ -38599,10 +38717,10 @@
         <v>14</v>
       </c>
       <c r="D728" s="25"/>
-      <c r="E728" s="19">
+      <c r="E728" s="6">
         <v>44119</v>
       </c>
-      <c r="F728" s="19">
+      <c r="F728" s="6">
         <v>44118</v>
       </c>
       <c r="G728" s="25" t="s">
@@ -38628,7 +38746,7 @@
       <c r="O728" s="25"/>
     </row>
     <row r="729" spans="1:15">
-      <c r="A729" s="35">
+      <c r="A729" s="34">
         <v>728</v>
       </c>
       <c r="B729" s="25">
@@ -38638,10 +38756,10 @@
         <v>14</v>
       </c>
       <c r="D729" s="25"/>
-      <c r="E729" s="19">
+      <c r="E729" s="6">
         <v>44120</v>
       </c>
-      <c r="F729" s="19">
+      <c r="F729" s="6">
         <v>44119</v>
       </c>
       <c r="G729" s="25" t="s">
@@ -38667,7 +38785,7 @@
       <c r="O729" s="25"/>
     </row>
     <row r="730" spans="1:15">
-      <c r="A730" s="35">
+      <c r="A730" s="34">
         <v>729</v>
       </c>
       <c r="B730" s="25">
@@ -38677,10 +38795,10 @@
         <v>14</v>
       </c>
       <c r="D730" s="25"/>
-      <c r="E730" s="19">
+      <c r="E730" s="6">
         <v>44120</v>
       </c>
-      <c r="F730" s="19">
+      <c r="F730" s="6">
         <v>44119</v>
       </c>
       <c r="G730" s="25" t="s">
@@ -38706,7 +38824,7 @@
       <c r="O730" s="25"/>
     </row>
     <row r="731" spans="1:15">
-      <c r="A731" s="35">
+      <c r="A731" s="34">
         <v>730</v>
       </c>
       <c r="B731" s="25">
@@ -38716,10 +38834,10 @@
         <v>14</v>
       </c>
       <c r="D731" s="25"/>
-      <c r="E731" s="19">
+      <c r="E731" s="6">
         <v>44120</v>
       </c>
-      <c r="F731" s="19">
+      <c r="F731" s="6">
         <v>44119</v>
       </c>
       <c r="G731" s="25" t="s">
@@ -38745,7 +38863,7 @@
       <c r="O731" s="25"/>
     </row>
     <row r="732" spans="1:15">
-      <c r="A732" s="35">
+      <c r="A732" s="34">
         <v>731</v>
       </c>
       <c r="B732" s="25">
@@ -38755,10 +38873,10 @@
         <v>14</v>
       </c>
       <c r="D732" s="25"/>
-      <c r="E732" s="19">
+      <c r="E732" s="6">
         <v>44120</v>
       </c>
-      <c r="F732" s="19">
+      <c r="F732" s="6">
         <v>44119</v>
       </c>
       <c r="G732" s="25" t="s">
@@ -38784,7 +38902,7 @@
       <c r="O732" s="25"/>
     </row>
     <row r="733" spans="1:15">
-      <c r="A733" s="35">
+      <c r="A733" s="34">
         <v>732</v>
       </c>
       <c r="B733" s="25">
@@ -38796,10 +38914,10 @@
       <c r="D733" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E733" s="19">
+      <c r="E733" s="6">
         <v>44120</v>
       </c>
-      <c r="F733" s="19">
+      <c r="F733" s="6">
         <v>44120</v>
       </c>
       <c r="G733" s="25" t="s">
@@ -38825,7 +38943,7 @@
       <c r="O733" s="25"/>
     </row>
     <row r="734" spans="1:15">
-      <c r="A734" s="35">
+      <c r="A734" s="34">
         <v>733</v>
       </c>
       <c r="B734" s="25">
@@ -38837,10 +38955,10 @@
       <c r="D734" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E734" s="19">
+      <c r="E734" s="6">
         <v>44120</v>
       </c>
-      <c r="F734" s="19">
+      <c r="F734" s="6">
         <v>44120</v>
       </c>
       <c r="G734" s="25" t="s">
@@ -38866,7 +38984,7 @@
       <c r="O734" s="25"/>
     </row>
     <row r="735" spans="1:15">
-      <c r="A735" s="35">
+      <c r="A735" s="34">
         <v>734</v>
       </c>
       <c r="B735" s="25">
@@ -38878,10 +38996,10 @@
       <c r="D735" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E735" s="19">
+      <c r="E735" s="6">
         <v>44120</v>
       </c>
-      <c r="F735" s="19">
+      <c r="F735" s="6">
         <v>44120</v>
       </c>
       <c r="G735" s="25" t="s">
@@ -38907,7 +39025,7 @@
       <c r="O735" s="25"/>
     </row>
     <row r="736" spans="1:15">
-      <c r="A736" s="35">
+      <c r="A736" s="34">
         <v>735</v>
       </c>
       <c r="B736" s="25">
@@ -38919,10 +39037,10 @@
       <c r="D736" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E736" s="19">
+      <c r="E736" s="6">
         <v>44120</v>
       </c>
-      <c r="F736" s="19">
+      <c r="F736" s="6">
         <v>44120</v>
       </c>
       <c r="G736" s="25" t="s">
@@ -38960,10 +39078,10 @@
       <c r="D737" s="25" t="s">
         <v>861</v>
       </c>
-      <c r="E737" s="19">
+      <c r="E737" s="6">
         <v>44120</v>
       </c>
-      <c r="F737" s="19">
+      <c r="F737" s="6">
         <v>44120</v>
       </c>
       <c r="G737" s="25" t="s">
@@ -38997,10 +39115,10 @@
         <v>14</v>
       </c>
       <c r="D738" s="25"/>
-      <c r="E738" s="19">
+      <c r="E738" s="6">
         <v>44121</v>
       </c>
-      <c r="F738" s="19">
+      <c r="F738" s="6">
         <v>44120</v>
       </c>
       <c r="G738" s="25" t="s">
@@ -39038,10 +39156,10 @@
       <c r="D739" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E739" s="19">
+      <c r="E739" s="6">
         <v>44121</v>
       </c>
-      <c r="F739" s="19">
+      <c r="F739" s="6">
         <v>44121</v>
       </c>
       <c r="G739" s="25" t="s">
@@ -39079,10 +39197,10 @@
       <c r="D740" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E740" s="19">
+      <c r="E740" s="6">
         <v>44121</v>
       </c>
-      <c r="F740" s="19">
+      <c r="F740" s="6">
         <v>44121</v>
       </c>
       <c r="G740" s="25" t="s">
@@ -39120,10 +39238,10 @@
       <c r="D741" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E741" s="19">
+      <c r="E741" s="6">
         <v>44121</v>
       </c>
-      <c r="F741" s="19">
+      <c r="F741" s="6">
         <v>44121</v>
       </c>
       <c r="G741" s="25" t="s">
@@ -39161,10 +39279,10 @@
       <c r="D742" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E742" s="33">
+      <c r="E742" s="9">
         <v>44121</v>
       </c>
-      <c r="F742" s="33">
+      <c r="F742" s="9">
         <v>44121</v>
       </c>
       <c r="G742" s="32" t="s">
@@ -39176,7 +39294,7 @@
       <c r="I742" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J742" s="34" t="s">
+      <c r="J742" s="33" t="s">
         <v>874</v>
       </c>
       <c r="K742" s="32"/>
@@ -39190,7 +39308,7 @@
       <c r="O742" s="32"/>
     </row>
     <row r="743" spans="1:15">
-      <c r="A743" s="35">
+      <c r="A743" s="34">
         <v>742</v>
       </c>
       <c r="B743" s="32">
@@ -39200,10 +39318,10 @@
         <v>14</v>
       </c>
       <c r="D743" s="25"/>
-      <c r="E743" s="33">
+      <c r="E743" s="9">
         <v>44122</v>
       </c>
-      <c r="F743" s="33">
+      <c r="F743" s="9">
         <v>44121</v>
       </c>
       <c r="G743" s="25" t="s">
@@ -39229,7 +39347,7 @@
       <c r="O743" s="25"/>
     </row>
     <row r="744" spans="1:15">
-      <c r="A744" s="35">
+      <c r="A744" s="34">
         <v>743</v>
       </c>
       <c r="B744" s="32">
@@ -39241,10 +39359,10 @@
       <c r="D744" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E744" s="33">
+      <c r="E744" s="9">
         <v>44122</v>
       </c>
-      <c r="F744" s="33">
+      <c r="F744" s="9">
         <v>44122</v>
       </c>
       <c r="G744" s="25" t="s">
@@ -39270,7 +39388,7 @@
       <c r="O744" s="25"/>
     </row>
     <row r="745" spans="1:15">
-      <c r="A745" s="35">
+      <c r="A745" s="34">
         <v>744</v>
       </c>
       <c r="B745" s="32">
@@ -39282,10 +39400,10 @@
       <c r="D745" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E745" s="33">
+      <c r="E745" s="9">
         <v>44122</v>
       </c>
-      <c r="F745" s="33">
+      <c r="F745" s="9">
         <v>44122</v>
       </c>
       <c r="G745" s="25" t="s">
@@ -39311,7 +39429,7 @@
       <c r="O745" s="25"/>
     </row>
     <row r="746" spans="1:15">
-      <c r="A746" s="35">
+      <c r="A746" s="34">
         <v>745</v>
       </c>
       <c r="B746" s="25">
@@ -39323,10 +39441,10 @@
       <c r="D746" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E746" s="19">
+      <c r="E746" s="6">
         <v>44122</v>
       </c>
-      <c r="F746" s="19">
+      <c r="F746" s="6">
         <v>44122</v>
       </c>
       <c r="G746" s="25" t="s">
@@ -39352,7 +39470,7 @@
       <c r="O746" s="25"/>
     </row>
     <row r="747" spans="1:15">
-      <c r="A747" s="35">
+      <c r="A747" s="34">
         <v>746</v>
       </c>
       <c r="B747" s="25">
@@ -39362,10 +39480,10 @@
         <v>14</v>
       </c>
       <c r="D747" s="25"/>
-      <c r="E747" s="19">
+      <c r="E747" s="6">
         <v>44123</v>
       </c>
-      <c r="F747" s="19">
+      <c r="F747" s="6">
         <v>44123</v>
       </c>
       <c r="G747" s="25" t="s">
@@ -39391,7 +39509,7 @@
       <c r="O747" s="25"/>
     </row>
     <row r="748" spans="1:15">
-      <c r="A748" s="35">
+      <c r="A748" s="34">
         <v>747</v>
       </c>
       <c r="B748" s="25">
@@ -39403,10 +39521,10 @@
       <c r="D748" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E748" s="19">
+      <c r="E748" s="6">
         <v>44123</v>
       </c>
-      <c r="F748" s="19">
+      <c r="F748" s="6">
         <v>44123</v>
       </c>
       <c r="G748" s="25" t="s">
@@ -39432,7 +39550,7 @@
       <c r="O748" s="25"/>
     </row>
     <row r="749" spans="1:15">
-      <c r="A749" s="35">
+      <c r="A749" s="34">
         <v>748</v>
       </c>
       <c r="B749" s="25">
@@ -39442,13 +39560,13 @@
         <v>14</v>
       </c>
       <c r="D749" s="25"/>
-      <c r="E749" s="19">
+      <c r="E749" s="6">
         <v>44124</v>
       </c>
-      <c r="F749" s="19">
+      <c r="F749" s="6">
         <v>44123</v>
       </c>
-      <c r="G749" s="36" t="s">
+      <c r="G749" s="35" t="s">
         <v>883</v>
       </c>
       <c r="H749" s="25" t="s">
@@ -39471,7 +39589,7 @@
       <c r="O749" s="25"/>
     </row>
     <row r="750" spans="1:15">
-      <c r="A750" s="35">
+      <c r="A750" s="34">
         <v>749</v>
       </c>
       <c r="B750" s="25">
@@ -39481,10 +39599,10 @@
         <v>14</v>
       </c>
       <c r="D750" s="25"/>
-      <c r="E750" s="19">
+      <c r="E750" s="6">
         <v>44124</v>
       </c>
-      <c r="F750" s="19">
+      <c r="F750" s="6">
         <v>44123</v>
       </c>
       <c r="G750" s="25" t="s">
@@ -39510,7 +39628,7 @@
       <c r="O750" s="25"/>
     </row>
     <row r="751" spans="1:15">
-      <c r="A751" s="35">
+      <c r="A751" s="34">
         <v>750</v>
       </c>
       <c r="B751" s="25">
@@ -39520,10 +39638,10 @@
         <v>14</v>
       </c>
       <c r="D751" s="25"/>
-      <c r="E751" s="19">
+      <c r="E751" s="6">
         <v>44124</v>
       </c>
-      <c r="F751" s="19">
+      <c r="F751" s="6">
         <v>44123</v>
       </c>
       <c r="G751" s="25" t="s">
@@ -39549,7 +39667,7 @@
       <c r="O751" s="25"/>
     </row>
     <row r="752" spans="1:15">
-      <c r="A752" s="35">
+      <c r="A752" s="34">
         <v>751</v>
       </c>
       <c r="B752" s="25">
@@ -39561,10 +39679,10 @@
       <c r="D752" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E752" s="19">
+      <c r="E752" s="6">
         <v>44124</v>
       </c>
-      <c r="F752" s="19">
+      <c r="F752" s="6">
         <v>44124</v>
       </c>
       <c r="G752" s="25" t="s">
@@ -39590,7 +39708,7 @@
       <c r="O752" s="25"/>
     </row>
     <row r="753" spans="1:15">
-      <c r="A753" s="35">
+      <c r="A753" s="34">
         <v>752</v>
       </c>
       <c r="B753" s="25">
@@ -39602,10 +39720,10 @@
       <c r="D753" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E753" s="19">
+      <c r="E753" s="6">
         <v>44125</v>
       </c>
-      <c r="F753" s="19">
+      <c r="F753" s="6">
         <v>44125</v>
       </c>
       <c r="G753" s="25" t="s">
@@ -39631,7 +39749,7 @@
       <c r="O753" s="25"/>
     </row>
     <row r="754" spans="1:15">
-      <c r="A754" s="35">
+      <c r="A754" s="34">
         <v>753</v>
       </c>
       <c r="B754" s="25">
@@ -39643,10 +39761,10 @@
       <c r="D754" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E754" s="19">
+      <c r="E754" s="6">
         <v>44125</v>
       </c>
-      <c r="F754" s="19">
+      <c r="F754" s="6">
         <v>44125</v>
       </c>
       <c r="G754" s="25" t="s">
@@ -39672,7 +39790,7 @@
       <c r="O754" s="25"/>
     </row>
     <row r="755" spans="1:15">
-      <c r="A755" s="35">
+      <c r="A755" s="34">
         <v>754</v>
       </c>
       <c r="B755" s="25">
@@ -39684,10 +39802,10 @@
       <c r="D755" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E755" s="19">
+      <c r="E755" s="6">
         <v>44125</v>
       </c>
-      <c r="F755" s="19">
+      <c r="F755" s="6">
         <v>44125</v>
       </c>
       <c r="G755" s="25" t="s">
@@ -39713,7 +39831,7 @@
       <c r="O755" s="25"/>
     </row>
     <row r="756" spans="1:15">
-      <c r="A756" s="35">
+      <c r="A756" s="34">
         <v>755</v>
       </c>
       <c r="B756" s="25">
@@ -39725,10 +39843,10 @@
       <c r="D756" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E756" s="19">
+      <c r="E756" s="6">
         <v>44125</v>
       </c>
-      <c r="F756" s="19">
+      <c r="F756" s="6">
         <v>44125</v>
       </c>
       <c r="G756" s="25" t="s">
@@ -39756,7 +39874,7 @@
       <c r="O756" s="25"/>
     </row>
     <row r="757" spans="1:15">
-      <c r="A757" s="35">
+      <c r="A757" s="34">
         <v>756</v>
       </c>
       <c r="B757" s="25">
@@ -39766,10 +39884,10 @@
         <v>14</v>
       </c>
       <c r="D757" s="25"/>
-      <c r="E757" s="19">
+      <c r="E757" s="6">
         <v>44126</v>
       </c>
-      <c r="F757" s="19">
+      <c r="F757" s="6">
         <v>44125</v>
       </c>
       <c r="G757" s="25" t="s">
@@ -39795,7 +39913,7 @@
       <c r="O757" s="25"/>
     </row>
     <row r="758" spans="1:15">
-      <c r="A758" s="35">
+      <c r="A758" s="34">
         <v>757</v>
       </c>
       <c r="B758" s="25">
@@ -39807,10 +39925,10 @@
       <c r="D758" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E758" s="19">
+      <c r="E758" s="6">
         <v>44126</v>
       </c>
-      <c r="F758" s="19">
+      <c r="F758" s="6">
         <v>44126</v>
       </c>
       <c r="G758" s="25" t="s">
@@ -39836,7 +39954,7 @@
       <c r="O758" s="25"/>
     </row>
     <row r="759" spans="1:15">
-      <c r="A759" s="35">
+      <c r="A759" s="34">
         <v>758</v>
       </c>
       <c r="B759" s="25">
@@ -39848,10 +39966,10 @@
       <c r="D759" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E759" s="19">
+      <c r="E759" s="6">
         <v>44126</v>
       </c>
-      <c r="F759" s="19">
+      <c r="F759" s="6">
         <v>44126</v>
       </c>
       <c r="G759" s="25" t="s">
@@ -39877,7 +39995,7 @@
       <c r="O759" s="25"/>
     </row>
     <row r="760" spans="1:15">
-      <c r="A760" s="35">
+      <c r="A760" s="34">
         <v>759</v>
       </c>
       <c r="B760" s="25">
@@ -39889,10 +40007,10 @@
       <c r="D760" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E760" s="19">
+      <c r="E760" s="6">
         <v>44126</v>
       </c>
-      <c r="F760" s="19">
+      <c r="F760" s="6">
         <v>44126</v>
       </c>
       <c r="G760" s="25" t="s">
@@ -39918,7 +40036,7 @@
       <c r="O760" s="25"/>
     </row>
     <row r="761" spans="1:15">
-      <c r="A761" s="35">
+      <c r="A761" s="34">
         <v>760</v>
       </c>
       <c r="B761" s="25">
@@ -39930,10 +40048,10 @@
       <c r="D761" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E761" s="19">
+      <c r="E761" s="6">
         <v>44126</v>
       </c>
-      <c r="F761" s="19">
+      <c r="F761" s="6">
         <v>44126</v>
       </c>
       <c r="G761" s="25" t="s">
@@ -39969,10 +40087,10 @@
         <v>14</v>
       </c>
       <c r="D762" s="25"/>
-      <c r="E762" s="19">
+      <c r="E762" s="6">
         <v>44127</v>
       </c>
-      <c r="F762" s="19">
+      <c r="F762" s="6">
         <v>44126</v>
       </c>
       <c r="G762" s="25" t="s">
@@ -40008,10 +40126,10 @@
         <v>14</v>
       </c>
       <c r="D763" s="25"/>
-      <c r="E763" s="19">
+      <c r="E763" s="6">
         <v>44127</v>
       </c>
-      <c r="F763" s="19">
+      <c r="F763" s="6">
         <v>44126</v>
       </c>
       <c r="G763" s="25" t="s">
@@ -40047,10 +40165,10 @@
         <v>14</v>
       </c>
       <c r="D764" s="25"/>
-      <c r="E764" s="19">
+      <c r="E764" s="6">
         <v>44127</v>
       </c>
-      <c r="F764" s="19">
+      <c r="F764" s="6">
         <v>44126</v>
       </c>
       <c r="G764" s="25" t="s">
@@ -40086,10 +40204,10 @@
         <v>14</v>
       </c>
       <c r="D765" s="25"/>
-      <c r="E765" s="19">
+      <c r="E765" s="6">
         <v>44127</v>
       </c>
-      <c r="F765" s="19">
+      <c r="F765" s="6">
         <v>44126</v>
       </c>
       <c r="G765" s="25" t="s">
@@ -40125,10 +40243,10 @@
         <v>14</v>
       </c>
       <c r="D766" s="25"/>
-      <c r="E766" s="19">
+      <c r="E766" s="6">
         <v>44127</v>
       </c>
-      <c r="F766" s="19">
+      <c r="F766" s="6">
         <v>44126</v>
       </c>
       <c r="G766" s="25" t="s">
@@ -40164,10 +40282,10 @@
         <v>14</v>
       </c>
       <c r="D767" s="25"/>
-      <c r="E767" s="19">
+      <c r="E767" s="6">
         <v>44127</v>
       </c>
-      <c r="F767" s="19">
+      <c r="F767" s="6">
         <v>44126</v>
       </c>
       <c r="G767" s="25" t="s">
@@ -40203,10 +40321,10 @@
         <v>14</v>
       </c>
       <c r="D768" s="25"/>
-      <c r="E768" s="19">
+      <c r="E768" s="6">
         <v>44127</v>
       </c>
-      <c r="F768" s="19">
+      <c r="F768" s="6">
         <v>44126</v>
       </c>
       <c r="G768" s="25" t="s">
@@ -40234,7 +40352,7 @@
       <c r="O768" s="25"/>
     </row>
     <row r="769" spans="1:15">
-      <c r="A769" s="37">
+      <c r="A769" s="36">
         <v>768</v>
       </c>
       <c r="B769" s="25">
@@ -40244,10 +40362,10 @@
         <v>14</v>
       </c>
       <c r="D769" s="25"/>
-      <c r="E769" s="19">
+      <c r="E769" s="6">
         <v>44127</v>
       </c>
-      <c r="F769" s="19">
+      <c r="F769" s="6">
         <v>44126</v>
       </c>
       <c r="G769" s="25" t="s">
@@ -40273,7 +40391,7 @@
       <c r="O769" s="25"/>
     </row>
     <row r="770" spans="1:15">
-      <c r="A770" s="37">
+      <c r="A770" s="36">
         <v>769</v>
       </c>
       <c r="B770" s="25">
@@ -40285,10 +40403,10 @@
       <c r="D770" s="25" t="s">
         <v>911</v>
       </c>
-      <c r="E770" s="19">
+      <c r="E770" s="6">
         <v>44128</v>
       </c>
-      <c r="F770" s="19">
+      <c r="F770" s="6">
         <v>44128</v>
       </c>
       <c r="G770" s="25" t="s">
@@ -40305,16 +40423,16 @@
       </c>
       <c r="K770" s="25"/>
       <c r="L770" s="25"/>
-      <c r="M770" s="38">
-        <v>0</v>
-      </c>
-      <c r="N770" s="38">
+      <c r="M770" s="37">
+        <v>0</v>
+      </c>
+      <c r="N770" s="37">
         <v>1</v>
       </c>
       <c r="O770" s="25"/>
     </row>
     <row r="771" spans="1:15">
-      <c r="A771" s="37">
+      <c r="A771" s="36">
         <v>770</v>
       </c>
       <c r="B771" s="25">
@@ -40326,10 +40444,10 @@
       <c r="D771" s="25" t="s">
         <v>658</v>
       </c>
-      <c r="E771" s="19">
+      <c r="E771" s="6">
         <v>44129</v>
       </c>
-      <c r="F771" s="19">
+      <c r="F771" s="6">
         <v>44129</v>
       </c>
       <c r="G771" s="25" t="s">
@@ -40346,16 +40464,16 @@
       </c>
       <c r="K771" s="25"/>
       <c r="L771" s="25"/>
-      <c r="M771" s="38">
-        <v>0</v>
-      </c>
-      <c r="N771" s="38">
+      <c r="M771" s="37">
+        <v>0</v>
+      </c>
+      <c r="N771" s="37">
         <v>1</v>
       </c>
       <c r="O771" s="25"/>
     </row>
     <row r="772" spans="1:15">
-      <c r="A772" s="37">
+      <c r="A772" s="36">
         <v>771</v>
       </c>
       <c r="B772" s="25">
@@ -40365,10 +40483,10 @@
         <v>14</v>
       </c>
       <c r="D772" s="25"/>
-      <c r="E772" s="19">
+      <c r="E772" s="6">
         <v>44130</v>
       </c>
-      <c r="F772" s="19">
+      <c r="F772" s="6">
         <v>44129</v>
       </c>
       <c r="G772" s="25" t="s">
@@ -40385,16 +40503,16 @@
       </c>
       <c r="K772" s="25"/>
       <c r="L772" s="25"/>
-      <c r="M772" s="38">
-        <v>0</v>
-      </c>
-      <c r="N772" s="38">
+      <c r="M772" s="37">
+        <v>0</v>
+      </c>
+      <c r="N772" s="37">
         <v>1</v>
       </c>
       <c r="O772" s="25"/>
     </row>
     <row r="773" spans="1:15">
-      <c r="A773" s="37">
+      <c r="A773" s="36">
         <v>772</v>
       </c>
       <c r="B773" s="25">
@@ -40406,10 +40524,10 @@
       <c r="D773" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E773" s="19">
+      <c r="E773" s="6">
         <v>44130</v>
       </c>
-      <c r="F773" s="19">
+      <c r="F773" s="6">
         <v>44130</v>
       </c>
       <c r="G773" s="25" t="s">
@@ -40426,16 +40544,16 @@
       </c>
       <c r="K773" s="25"/>
       <c r="L773" s="25"/>
-      <c r="M773" s="38">
-        <v>0</v>
-      </c>
-      <c r="N773" s="38">
+      <c r="M773" s="37">
+        <v>0</v>
+      </c>
+      <c r="N773" s="37">
         <v>1</v>
       </c>
       <c r="O773" s="25"/>
     </row>
     <row r="774" spans="1:15">
-      <c r="A774" s="37">
+      <c r="A774" s="36">
         <v>773</v>
       </c>
       <c r="B774" s="25">
@@ -40447,10 +40565,10 @@
       <c r="D774" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E774" s="19">
+      <c r="E774" s="6">
         <v>44130</v>
       </c>
-      <c r="F774" s="19">
+      <c r="F774" s="6">
         <v>44130</v>
       </c>
       <c r="G774" s="25" t="s">
@@ -40467,16 +40585,16 @@
       </c>
       <c r="K774" s="25"/>
       <c r="L774" s="25"/>
-      <c r="M774" s="38">
-        <v>0</v>
-      </c>
-      <c r="N774" s="38">
+      <c r="M774" s="37">
+        <v>0</v>
+      </c>
+      <c r="N774" s="37">
         <v>1</v>
       </c>
       <c r="O774" s="25"/>
     </row>
     <row r="775" spans="1:15">
-      <c r="A775" s="37">
+      <c r="A775" s="36">
         <v>774</v>
       </c>
       <c r="B775" s="25">
@@ -40488,10 +40606,10 @@
       <c r="D775" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E775" s="19">
+      <c r="E775" s="6">
         <v>44131</v>
       </c>
-      <c r="F775" s="19">
+      <c r="F775" s="6">
         <v>44131</v>
       </c>
       <c r="G775" s="25" t="s">
@@ -40508,10 +40626,10 @@
       </c>
       <c r="K775" s="25"/>
       <c r="L775" s="25"/>
-      <c r="M775" s="38">
-        <v>0</v>
-      </c>
-      <c r="N775" s="38">
+      <c r="M775" s="37">
+        <v>0</v>
+      </c>
+      <c r="N775" s="37">
         <v>1</v>
       </c>
       <c r="O775" s="25"/>
@@ -40529,10 +40647,10 @@
       <c r="D776" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E776" s="19">
+      <c r="E776" s="6">
         <v>44131</v>
       </c>
-      <c r="F776" s="19">
+      <c r="F776" s="6">
         <v>44131</v>
       </c>
       <c r="G776" s="25" t="s">
@@ -40549,10 +40667,10 @@
       </c>
       <c r="K776" s="25"/>
       <c r="L776" s="25"/>
-      <c r="M776" s="38">
-        <v>0</v>
-      </c>
-      <c r="N776" s="38">
+      <c r="M776" s="37">
+        <v>0</v>
+      </c>
+      <c r="N776" s="37">
         <v>1</v>
       </c>
       <c r="O776" s="25"/>
@@ -40570,10 +40688,10 @@
       <c r="D777" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E777" s="19">
+      <c r="E777" s="6">
         <v>44132</v>
       </c>
-      <c r="F777" s="19">
+      <c r="F777" s="6">
         <v>44132</v>
       </c>
       <c r="G777" s="25" t="s">
@@ -40590,10 +40708,10 @@
       </c>
       <c r="K777" s="25"/>
       <c r="L777" s="25"/>
-      <c r="M777" s="38">
-        <v>0</v>
-      </c>
-      <c r="N777" s="38">
+      <c r="M777" s="37">
+        <v>0</v>
+      </c>
+      <c r="N777" s="37">
         <v>1</v>
       </c>
       <c r="O777" s="25"/>
@@ -40611,10 +40729,10 @@
       <c r="D778" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E778" s="19">
+      <c r="E778" s="6">
         <v>44132</v>
       </c>
-      <c r="F778" s="19">
+      <c r="F778" s="6">
         <v>44132</v>
       </c>
       <c r="G778" s="25" t="s">
@@ -40631,10 +40749,10 @@
       </c>
       <c r="K778" s="25"/>
       <c r="L778" s="25"/>
-      <c r="M778" s="38">
-        <v>0</v>
-      </c>
-      <c r="N778" s="38">
+      <c r="M778" s="37">
+        <v>0</v>
+      </c>
+      <c r="N778" s="37">
         <v>1</v>
       </c>
       <c r="O778" s="25"/>
@@ -40652,10 +40770,10 @@
       <c r="D779" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E779" s="19">
+      <c r="E779" s="6">
         <v>44132</v>
       </c>
-      <c r="F779" s="19">
+      <c r="F779" s="6">
         <v>44132</v>
       </c>
       <c r="G779" s="25" t="s">
@@ -40672,10 +40790,10 @@
       </c>
       <c r="K779" s="25"/>
       <c r="L779" s="25"/>
-      <c r="M779" s="38">
-        <v>0</v>
-      </c>
-      <c r="N779" s="38">
+      <c r="M779" s="37">
+        <v>0</v>
+      </c>
+      <c r="N779" s="37">
         <v>1</v>
       </c>
       <c r="O779" s="25"/>
@@ -40693,10 +40811,10 @@
       <c r="D780" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E780" s="19">
+      <c r="E780" s="6">
         <v>44132</v>
       </c>
-      <c r="F780" s="19">
+      <c r="F780" s="6">
         <v>44132</v>
       </c>
       <c r="G780" s="25" t="s">
@@ -40713,10 +40831,10 @@
       </c>
       <c r="K780" s="25"/>
       <c r="L780" s="25"/>
-      <c r="M780" s="38">
-        <v>0</v>
-      </c>
-      <c r="N780" s="38">
+      <c r="M780" s="37">
+        <v>0</v>
+      </c>
+      <c r="N780" s="37">
         <v>1</v>
       </c>
       <c r="O780" s="25"/>
@@ -40734,10 +40852,10 @@
       <c r="D781" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E781" s="19">
+      <c r="E781" s="6">
         <v>44132</v>
       </c>
-      <c r="F781" s="19">
+      <c r="F781" s="6">
         <v>44132</v>
       </c>
       <c r="G781" s="25" t="s">
@@ -40754,10 +40872,10 @@
       </c>
       <c r="K781" s="25"/>
       <c r="L781" s="25"/>
-      <c r="M781" s="38">
-        <v>0</v>
-      </c>
-      <c r="N781" s="38">
+      <c r="M781" s="37">
+        <v>0</v>
+      </c>
+      <c r="N781" s="37">
         <v>1</v>
       </c>
       <c r="O781" s="25"/>
@@ -40775,10 +40893,10 @@
       <c r="D782" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E782" s="19">
+      <c r="E782" s="6">
         <v>44132</v>
       </c>
-      <c r="F782" s="19">
+      <c r="F782" s="6">
         <v>44132</v>
       </c>
       <c r="G782" s="25" t="s">
@@ -40795,10 +40913,10 @@
       </c>
       <c r="K782" s="25"/>
       <c r="L782" s="25"/>
-      <c r="M782" s="38">
-        <v>0</v>
-      </c>
-      <c r="N782" s="38">
+      <c r="M782" s="37">
+        <v>0</v>
+      </c>
+      <c r="N782" s="37">
         <v>1</v>
       </c>
       <c r="O782" s="25"/>
@@ -40816,10 +40934,10 @@
       <c r="D783" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E783" s="19">
+      <c r="E783" s="6">
         <v>44132</v>
       </c>
-      <c r="F783" s="19">
+      <c r="F783" s="6">
         <v>44132</v>
       </c>
       <c r="G783" s="25" t="s">
@@ -40836,10 +40954,10 @@
       </c>
       <c r="K783" s="25"/>
       <c r="L783" s="25"/>
-      <c r="M783" s="38">
-        <v>0</v>
-      </c>
-      <c r="N783" s="38">
+      <c r="M783" s="37">
+        <v>0</v>
+      </c>
+      <c r="N783" s="37">
         <v>1</v>
       </c>
       <c r="O783" s="25"/>
@@ -40857,10 +40975,10 @@
       <c r="D784" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E784" s="19">
+      <c r="E784" s="6">
         <v>44132</v>
       </c>
-      <c r="F784" s="19">
+      <c r="F784" s="6">
         <v>44132</v>
       </c>
       <c r="G784" s="25" t="s">
@@ -40877,10 +40995,10 @@
       </c>
       <c r="K784" s="25"/>
       <c r="L784" s="25"/>
-      <c r="M784" s="38">
-        <v>0</v>
-      </c>
-      <c r="N784" s="38">
+      <c r="M784" s="37">
+        <v>0</v>
+      </c>
+      <c r="N784" s="37">
         <v>1</v>
       </c>
       <c r="O784" s="25"/>
@@ -40896,10 +41014,10 @@
         <v>14</v>
       </c>
       <c r="D785" s="25"/>
-      <c r="E785" s="19">
+      <c r="E785" s="6">
         <v>44133</v>
       </c>
-      <c r="F785" s="19">
+      <c r="F785" s="6">
         <v>44133</v>
       </c>
       <c r="G785" s="25" t="s">
@@ -40916,10 +41034,10 @@
       </c>
       <c r="K785" s="25"/>
       <c r="L785" s="25"/>
-      <c r="M785" s="38">
-        <v>0</v>
-      </c>
-      <c r="N785" s="38">
+      <c r="M785" s="37">
+        <v>0</v>
+      </c>
+      <c r="N785" s="37">
         <v>1</v>
       </c>
       <c r="O785" s="25"/>
@@ -40937,10 +41055,10 @@
       <c r="D786" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E786" s="19">
+      <c r="E786" s="6">
         <v>44133</v>
       </c>
-      <c r="F786" s="19">
+      <c r="F786" s="6">
         <v>44133</v>
       </c>
       <c r="G786" s="25" t="s">
@@ -40957,10 +41075,10 @@
       </c>
       <c r="K786" s="25"/>
       <c r="L786" s="25"/>
-      <c r="M786" s="38">
-        <v>0</v>
-      </c>
-      <c r="N786" s="38">
+      <c r="M786" s="37">
+        <v>0</v>
+      </c>
+      <c r="N786" s="37">
         <v>1</v>
       </c>
       <c r="O786" s="25"/>
@@ -40978,10 +41096,10 @@
       <c r="D787" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E787" s="33">
+      <c r="E787" s="9">
         <v>44133</v>
       </c>
-      <c r="F787" s="33">
+      <c r="F787" s="9">
         <v>44133</v>
       </c>
       <c r="G787" s="25" t="s">
@@ -40993,15 +41111,15 @@
       <c r="I787" s="32" t="s">
         <v>945</v>
       </c>
-      <c r="J787" s="34" t="s">
+      <c r="J787" s="33" t="s">
         <v>953</v>
       </c>
       <c r="K787" s="25"/>
       <c r="L787" s="32"/>
-      <c r="M787" s="39">
-        <v>0</v>
-      </c>
-      <c r="N787" s="39">
+      <c r="M787" s="38">
+        <v>0</v>
+      </c>
+      <c r="N787" s="38">
         <v>1</v>
       </c>
       <c r="O787" s="32"/>
@@ -41019,10 +41137,10 @@
       <c r="D788" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E788" s="19">
+      <c r="E788" s="6">
         <v>44133</v>
       </c>
-      <c r="F788" s="19">
+      <c r="F788" s="6">
         <v>44133</v>
       </c>
       <c r="G788" s="25" t="s">
@@ -41039,10 +41157,10 @@
       </c>
       <c r="K788" s="25"/>
       <c r="L788" s="25"/>
-      <c r="M788" s="39">
-        <v>0</v>
-      </c>
-      <c r="N788" s="39">
+      <c r="M788" s="38">
+        <v>0</v>
+      </c>
+      <c r="N788" s="38">
         <v>1</v>
       </c>
       <c r="O788" s="25"/>
@@ -41058,10 +41176,10 @@
         <v>14</v>
       </c>
       <c r="D789" s="25"/>
-      <c r="E789" s="19">
+      <c r="E789" s="6">
         <v>44134</v>
       </c>
-      <c r="F789" s="19">
+      <c r="F789" s="6">
         <v>44134</v>
       </c>
       <c r="G789" s="25" t="s">
@@ -41078,10 +41196,10 @@
       </c>
       <c r="K789" s="25"/>
       <c r="L789" s="25"/>
-      <c r="M789" s="39">
-        <v>0</v>
-      </c>
-      <c r="N789" s="39">
+      <c r="M789" s="38">
+        <v>0</v>
+      </c>
+      <c r="N789" s="38">
         <v>1</v>
       </c>
       <c r="O789" s="25"/>
@@ -41097,10 +41215,10 @@
         <v>14</v>
       </c>
       <c r="D790" s="25"/>
-      <c r="E790" s="19">
+      <c r="E790" s="6">
         <v>44134</v>
       </c>
-      <c r="F790" s="19">
+      <c r="F790" s="6">
         <v>44134</v>
       </c>
       <c r="G790" s="25" t="s">
@@ -41119,10 +41237,10 @@
         <v>36</v>
       </c>
       <c r="L790" s="25"/>
-      <c r="M790" s="39">
-        <v>0</v>
-      </c>
-      <c r="N790" s="39">
+      <c r="M790" s="38">
+        <v>0</v>
+      </c>
+      <c r="N790" s="38">
         <v>1</v>
       </c>
       <c r="O790" s="25"/>
@@ -41138,10 +41256,10 @@
         <v>14</v>
       </c>
       <c r="D791" s="25"/>
-      <c r="E791" s="19">
+      <c r="E791" s="6">
         <v>44134</v>
       </c>
-      <c r="F791" s="19">
+      <c r="F791" s="6">
         <v>44134</v>
       </c>
       <c r="G791" s="25" t="s">
@@ -41160,10 +41278,10 @@
         <v>604</v>
       </c>
       <c r="L791" s="25"/>
-      <c r="M791" s="39">
-        <v>0</v>
-      </c>
-      <c r="N791" s="39">
+      <c r="M791" s="38">
+        <v>0</v>
+      </c>
+      <c r="N791" s="38">
         <v>0</v>
       </c>
       <c r="O791" s="25"/>
@@ -41179,10 +41297,10 @@
         <v>14</v>
       </c>
       <c r="D792" s="25"/>
-      <c r="E792" s="19">
+      <c r="E792" s="6">
         <v>44134</v>
       </c>
-      <c r="F792" s="19">
+      <c r="F792" s="6">
         <v>44134</v>
       </c>
       <c r="G792" s="25" t="s">
@@ -41201,10 +41319,10 @@
         <v>604</v>
       </c>
       <c r="L792" s="25"/>
-      <c r="M792" s="39">
-        <v>0</v>
-      </c>
-      <c r="N792" s="39">
+      <c r="M792" s="38">
+        <v>0</v>
+      </c>
+      <c r="N792" s="38">
         <v>0</v>
       </c>
       <c r="O792" s="25"/>
@@ -41220,10 +41338,10 @@
         <v>14</v>
       </c>
       <c r="D793" s="25"/>
-      <c r="E793" s="19">
+      <c r="E793" s="6">
         <v>44134</v>
       </c>
-      <c r="F793" s="19">
+      <c r="F793" s="6">
         <v>44134</v>
       </c>
       <c r="G793" s="32" t="s">
@@ -41242,10 +41360,10 @@
         <v>640</v>
       </c>
       <c r="L793" s="25"/>
-      <c r="M793" s="38">
-        <v>0</v>
-      </c>
-      <c r="N793" s="38">
+      <c r="M793" s="37">
+        <v>0</v>
+      </c>
+      <c r="N793" s="37">
         <v>0</v>
       </c>
       <c r="O793" s="25"/>
@@ -41261,10 +41379,10 @@
         <v>14</v>
       </c>
       <c r="D794" s="25"/>
-      <c r="E794" s="19">
+      <c r="E794" s="6">
         <v>44135</v>
       </c>
-      <c r="F794" s="19">
+      <c r="F794" s="6">
         <v>44135</v>
       </c>
       <c r="G794" s="25" t="s">
@@ -41281,10 +41399,10 @@
       </c>
       <c r="K794" s="25"/>
       <c r="L794" s="25"/>
-      <c r="M794" s="38">
-        <v>0</v>
-      </c>
-      <c r="N794" s="38">
+      <c r="M794" s="37">
+        <v>0</v>
+      </c>
+      <c r="N794" s="37">
         <v>1</v>
       </c>
       <c r="O794" s="25"/>
@@ -41300,10 +41418,10 @@
         <v>14</v>
       </c>
       <c r="D795" s="25"/>
-      <c r="E795" s="19">
+      <c r="E795" s="6">
         <v>44135</v>
       </c>
-      <c r="F795" s="19">
+      <c r="F795" s="6">
         <v>44135</v>
       </c>
       <c r="G795" s="25" t="s">
@@ -41322,10 +41440,10 @@
         <v>1059</v>
       </c>
       <c r="L795" s="25"/>
-      <c r="M795" s="38">
-        <v>0</v>
-      </c>
-      <c r="N795" s="38">
+      <c r="M795" s="37">
+        <v>0</v>
+      </c>
+      <c r="N795" s="37">
         <v>0</v>
       </c>
       <c r="O795" s="25"/>
@@ -41341,10 +41459,10 @@
         <v>14</v>
       </c>
       <c r="D796" s="25"/>
-      <c r="E796" s="19">
+      <c r="E796" s="6">
         <v>44135</v>
       </c>
-      <c r="F796" s="19">
+      <c r="F796" s="6">
         <v>44135</v>
       </c>
       <c r="G796" s="25" t="s">
@@ -41361,10 +41479,10 @@
       </c>
       <c r="K796" s="25"/>
       <c r="L796" s="25"/>
-      <c r="M796" s="38">
-        <v>0</v>
-      </c>
-      <c r="N796" s="38">
+      <c r="M796" s="37">
+        <v>0</v>
+      </c>
+      <c r="N796" s="37">
         <v>1</v>
       </c>
       <c r="O796" s="25"/>
@@ -41382,10 +41500,10 @@
       <c r="D797" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E797" s="19">
+      <c r="E797" s="6">
         <v>44135</v>
       </c>
-      <c r="F797" s="19">
+      <c r="F797" s="6">
         <v>44135</v>
       </c>
       <c r="G797" s="25" t="s">
@@ -41402,10 +41520,10 @@
       </c>
       <c r="K797" s="25"/>
       <c r="L797" s="25"/>
-      <c r="M797" s="38">
-        <v>0</v>
-      </c>
-      <c r="N797" s="38">
+      <c r="M797" s="37">
+        <v>0</v>
+      </c>
+      <c r="N797" s="37">
         <v>1</v>
       </c>
       <c r="O797" s="25"/>
@@ -41423,10 +41541,10 @@
       <c r="D798" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E798" s="19">
+      <c r="E798" s="6">
         <v>44135</v>
       </c>
-      <c r="F798" s="19">
+      <c r="F798" s="6">
         <v>44135</v>
       </c>
       <c r="G798" s="25" t="s">
@@ -41443,10 +41561,10 @@
       </c>
       <c r="K798" s="25"/>
       <c r="L798" s="25"/>
-      <c r="M798" s="38">
-        <v>0</v>
-      </c>
-      <c r="N798" s="38">
+      <c r="M798" s="37">
+        <v>0</v>
+      </c>
+      <c r="N798" s="37">
         <v>1</v>
       </c>
       <c r="O798" s="25"/>
@@ -41464,10 +41582,10 @@
       <c r="D799" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E799" s="19">
+      <c r="E799" s="6">
         <v>44135</v>
       </c>
-      <c r="F799" s="19">
+      <c r="F799" s="6">
         <v>44135</v>
       </c>
       <c r="G799" s="25" t="s">
@@ -41484,10 +41602,10 @@
       </c>
       <c r="K799" s="25"/>
       <c r="L799" s="25"/>
-      <c r="M799" s="38">
-        <v>0</v>
-      </c>
-      <c r="N799" s="38">
+      <c r="M799" s="37">
+        <v>0</v>
+      </c>
+      <c r="N799" s="37">
         <v>1</v>
       </c>
       <c r="O799" s="25"/>
@@ -41503,10 +41621,10 @@
         <v>14</v>
       </c>
       <c r="D800" s="25"/>
-      <c r="E800" s="19">
+      <c r="E800" s="6">
         <v>44135</v>
       </c>
-      <c r="F800" s="19">
+      <c r="F800" s="6">
         <v>44136</v>
       </c>
       <c r="G800" s="25" t="s">
@@ -41523,10 +41641,10 @@
       </c>
       <c r="K800" s="25"/>
       <c r="L800" s="25"/>
-      <c r="M800" s="38">
-        <v>0</v>
-      </c>
-      <c r="N800" s="38">
+      <c r="M800" s="37">
+        <v>0</v>
+      </c>
+      <c r="N800" s="37">
         <v>1</v>
       </c>
       <c r="O800" s="25"/>
@@ -41542,10 +41660,10 @@
         <v>14</v>
       </c>
       <c r="D801" s="25"/>
-      <c r="E801" s="19">
+      <c r="E801" s="6">
         <v>44135</v>
       </c>
-      <c r="F801" s="19">
+      <c r="F801" s="6">
         <v>44136</v>
       </c>
       <c r="G801" s="25" t="s">
@@ -41562,10 +41680,10 @@
       </c>
       <c r="K801" s="25"/>
       <c r="L801" s="25"/>
-      <c r="M801" s="38">
-        <v>0</v>
-      </c>
-      <c r="N801" s="38">
+      <c r="M801" s="37">
+        <v>0</v>
+      </c>
+      <c r="N801" s="37">
         <v>1</v>
       </c>
       <c r="O801" s="25"/>
@@ -41583,10 +41701,10 @@
       <c r="D802" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E802" s="19">
+      <c r="E802" s="6">
         <v>44136</v>
       </c>
-      <c r="F802" s="19">
+      <c r="F802" s="6">
         <v>44136</v>
       </c>
       <c r="G802" s="25" t="s">
@@ -41603,10 +41721,10 @@
       </c>
       <c r="K802" s="25"/>
       <c r="L802" s="25"/>
-      <c r="M802" s="38">
-        <v>0</v>
-      </c>
-      <c r="N802" s="38">
+      <c r="M802" s="37">
+        <v>0</v>
+      </c>
+      <c r="N802" s="37">
         <v>1</v>
       </c>
       <c r="O802" s="25"/>
@@ -41624,10 +41742,10 @@
       <c r="D803" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E803" s="19">
+      <c r="E803" s="6">
         <v>44136</v>
       </c>
-      <c r="F803" s="19">
+      <c r="F803" s="6">
         <v>44136</v>
       </c>
       <c r="G803" s="25" t="s">
@@ -41646,10 +41764,10 @@
         <v>640</v>
       </c>
       <c r="L803" s="25"/>
-      <c r="M803" s="38">
-        <v>0</v>
-      </c>
-      <c r="N803" s="38">
+      <c r="M803" s="37">
+        <v>0</v>
+      </c>
+      <c r="N803" s="37">
         <v>0</v>
       </c>
       <c r="O803" s="25"/>
@@ -41667,10 +41785,10 @@
       <c r="D804" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E804" s="19">
+      <c r="E804" s="6">
         <v>44136</v>
       </c>
-      <c r="F804" s="19">
+      <c r="F804" s="6">
         <v>44136</v>
       </c>
       <c r="G804" s="25" t="s">
@@ -41689,10 +41807,10 @@
         <v>640</v>
       </c>
       <c r="L804" s="25"/>
-      <c r="M804" s="38">
-        <v>0</v>
-      </c>
-      <c r="N804" s="38">
+      <c r="M804" s="37">
+        <v>0</v>
+      </c>
+      <c r="N804" s="37">
         <v>0</v>
       </c>
       <c r="O804" s="25"/>
@@ -41708,10 +41826,10 @@
         <v>14</v>
       </c>
       <c r="D805" s="25"/>
-      <c r="E805" s="19">
+      <c r="E805" s="6">
         <v>44137</v>
       </c>
-      <c r="F805" s="19">
+      <c r="F805" s="6">
         <v>44136</v>
       </c>
       <c r="G805" s="25" t="s">
@@ -41730,10 +41848,10 @@
         <v>1070</v>
       </c>
       <c r="L805" s="25"/>
-      <c r="M805" s="38">
-        <v>0</v>
-      </c>
-      <c r="N805" s="38">
+      <c r="M805" s="37">
+        <v>0</v>
+      </c>
+      <c r="N805" s="37">
         <v>0</v>
       </c>
       <c r="O805" s="25"/>
@@ -41749,10 +41867,10 @@
         <v>14</v>
       </c>
       <c r="D806" s="25"/>
-      <c r="E806" s="19">
+      <c r="E806" s="6">
         <v>44137</v>
       </c>
-      <c r="F806" s="19">
+      <c r="F806" s="6">
         <v>44137</v>
       </c>
       <c r="G806" s="25" t="s">
@@ -41771,10 +41889,10 @@
         <v>1070</v>
       </c>
       <c r="L806" s="25"/>
-      <c r="M806" s="38">
-        <v>0</v>
-      </c>
-      <c r="N806" s="38">
+      <c r="M806" s="37">
+        <v>0</v>
+      </c>
+      <c r="N806" s="37">
         <v>0</v>
       </c>
       <c r="O806" s="25"/>
@@ -41790,10 +41908,10 @@
         <v>14</v>
       </c>
       <c r="D807" s="25"/>
-      <c r="E807" s="19">
+      <c r="E807" s="6">
         <v>44137</v>
       </c>
-      <c r="F807" s="19">
+      <c r="F807" s="6">
         <v>44137</v>
       </c>
       <c r="G807" s="25" t="s">
@@ -41810,10 +41928,10 @@
       </c>
       <c r="K807" s="25"/>
       <c r="L807" s="25"/>
-      <c r="M807" s="38">
-        <v>0</v>
-      </c>
-      <c r="N807" s="38">
+      <c r="M807" s="37">
+        <v>0</v>
+      </c>
+      <c r="N807" s="37">
         <v>1</v>
       </c>
       <c r="O807" s="25"/>
@@ -41831,10 +41949,10 @@
       <c r="D808" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E808" s="19">
+      <c r="E808" s="6">
         <v>44137</v>
       </c>
-      <c r="F808" s="19">
+      <c r="F808" s="6">
         <v>44137</v>
       </c>
       <c r="G808" s="25" t="s">
@@ -41851,10 +41969,10 @@
       </c>
       <c r="K808" s="25"/>
       <c r="L808" s="25"/>
-      <c r="M808" s="38">
-        <v>0</v>
-      </c>
-      <c r="N808" s="38">
+      <c r="M808" s="37">
+        <v>0</v>
+      </c>
+      <c r="N808" s="37">
         <v>1</v>
       </c>
       <c r="O808" s="25"/>
@@ -41872,10 +41990,10 @@
       <c r="D809" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E809" s="19">
+      <c r="E809" s="6">
         <v>44137</v>
       </c>
-      <c r="F809" s="19">
+      <c r="F809" s="6">
         <v>44137</v>
       </c>
       <c r="G809" s="25" t="s">
@@ -41892,10 +42010,10 @@
       </c>
       <c r="K809" s="25"/>
       <c r="L809" s="25"/>
-      <c r="M809" s="38">
-        <v>0</v>
-      </c>
-      <c r="N809" s="38">
+      <c r="M809" s="37">
+        <v>0</v>
+      </c>
+      <c r="N809" s="37">
         <v>1</v>
       </c>
       <c r="O809" s="25"/>
@@ -41913,10 +42031,10 @@
       <c r="D810" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E810" s="19">
+      <c r="E810" s="6">
         <v>44137</v>
       </c>
-      <c r="F810" s="19">
+      <c r="F810" s="6">
         <v>44137</v>
       </c>
       <c r="G810" s="25" t="s">
@@ -41933,10 +42051,10 @@
       </c>
       <c r="K810" s="25"/>
       <c r="L810" s="25"/>
-      <c r="M810" s="38">
-        <v>0</v>
-      </c>
-      <c r="N810" s="38">
+      <c r="M810" s="37">
+        <v>0</v>
+      </c>
+      <c r="N810" s="37">
         <v>1</v>
       </c>
       <c r="O810" s="25"/>
@@ -41952,10 +42070,10 @@
         <v>14</v>
       </c>
       <c r="D811" s="25"/>
-      <c r="E811" s="19">
+      <c r="E811" s="6">
         <v>44138</v>
       </c>
-      <c r="F811" s="19">
+      <c r="F811" s="6">
         <v>44137</v>
       </c>
       <c r="G811" s="25" t="s">
@@ -41972,10 +42090,10 @@
       </c>
       <c r="K811" s="25"/>
       <c r="L811" s="25"/>
-      <c r="M811" s="38">
-        <v>0</v>
-      </c>
-      <c r="N811" s="38">
+      <c r="M811" s="37">
+        <v>0</v>
+      </c>
+      <c r="N811" s="37">
         <v>1</v>
       </c>
       <c r="O811" s="25"/>
@@ -41991,10 +42109,10 @@
         <v>14</v>
       </c>
       <c r="D812" s="25"/>
-      <c r="E812" s="19">
+      <c r="E812" s="6">
         <v>44138</v>
       </c>
-      <c r="F812" s="19">
+      <c r="F812" s="6">
         <v>44137</v>
       </c>
       <c r="G812" s="25" t="s">
@@ -42011,10 +42129,10 @@
       </c>
       <c r="K812" s="25"/>
       <c r="L812" s="25"/>
-      <c r="M812" s="38">
-        <v>0</v>
-      </c>
-      <c r="N812" s="38">
+      <c r="M812" s="37">
+        <v>0</v>
+      </c>
+      <c r="N812" s="37">
         <v>1</v>
       </c>
       <c r="O812" s="25"/>
@@ -42032,10 +42150,10 @@
       <c r="D813" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E813" s="19">
+      <c r="E813" s="6">
         <v>44138</v>
       </c>
-      <c r="F813" s="19">
+      <c r="F813" s="6">
         <v>44138</v>
       </c>
       <c r="G813" s="25" t="s">
@@ -42052,10 +42170,10 @@
       </c>
       <c r="K813" s="25"/>
       <c r="L813" s="25"/>
-      <c r="M813" s="38">
-        <v>0</v>
-      </c>
-      <c r="N813" s="38">
+      <c r="M813" s="37">
+        <v>0</v>
+      </c>
+      <c r="N813" s="37">
         <v>1</v>
       </c>
       <c r="O813" s="25"/>
@@ -42073,10 +42191,10 @@
       <c r="D814" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E814" s="19">
+      <c r="E814" s="6">
         <v>44138</v>
       </c>
-      <c r="F814" s="19">
+      <c r="F814" s="6">
         <v>44138</v>
       </c>
       <c r="G814" s="25" t="s">
@@ -42093,10 +42211,10 @@
       </c>
       <c r="K814" s="25"/>
       <c r="L814" s="25"/>
-      <c r="M814" s="38">
-        <v>0</v>
-      </c>
-      <c r="N814" s="38">
+      <c r="M814" s="37">
+        <v>0</v>
+      </c>
+      <c r="N814" s="37">
         <v>1</v>
       </c>
       <c r="O814" s="25"/>
@@ -42114,10 +42232,10 @@
       <c r="D815" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E815" s="19">
+      <c r="E815" s="6">
         <v>44138</v>
       </c>
-      <c r="F815" s="19">
+      <c r="F815" s="6">
         <v>44138</v>
       </c>
       <c r="G815" s="25" t="s">
@@ -42134,10 +42252,10 @@
       </c>
       <c r="K815" s="25"/>
       <c r="L815" s="25"/>
-      <c r="M815" s="38">
-        <v>0</v>
-      </c>
-      <c r="N815" s="38">
+      <c r="M815" s="37">
+        <v>0</v>
+      </c>
+      <c r="N815" s="37">
         <v>1</v>
       </c>
       <c r="O815" s="25"/>
@@ -42155,10 +42273,10 @@
       <c r="D816" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E816" s="19">
+      <c r="E816" s="6">
         <v>44138</v>
       </c>
-      <c r="F816" s="19">
+      <c r="F816" s="6">
         <v>44138</v>
       </c>
       <c r="G816" s="25" t="s">
@@ -42175,10 +42293,10 @@
       </c>
       <c r="K816" s="25"/>
       <c r="L816" s="25"/>
-      <c r="M816" s="38">
-        <v>0</v>
-      </c>
-      <c r="N816" s="38">
+      <c r="M816" s="37">
+        <v>0</v>
+      </c>
+      <c r="N816" s="37">
         <v>1</v>
       </c>
       <c r="O816" s="25"/>
@@ -42194,10 +42312,10 @@
         <v>14</v>
       </c>
       <c r="D817" s="25"/>
-      <c r="E817" s="19">
+      <c r="E817" s="6">
         <v>44139</v>
       </c>
-      <c r="F817" s="19">
+      <c r="F817" s="6">
         <v>44138</v>
       </c>
       <c r="G817" s="25" t="s">
@@ -42214,10 +42332,10 @@
       </c>
       <c r="K817" s="25"/>
       <c r="L817" s="25"/>
-      <c r="M817" s="38">
-        <v>0</v>
-      </c>
-      <c r="N817" s="38">
+      <c r="M817" s="37">
+        <v>0</v>
+      </c>
+      <c r="N817" s="37">
         <v>1</v>
       </c>
       <c r="O817" s="25"/>
@@ -42233,10 +42351,10 @@
         <v>14</v>
       </c>
       <c r="D818" s="25"/>
-      <c r="E818" s="19">
+      <c r="E818" s="6">
         <v>44139</v>
       </c>
-      <c r="F818" s="19">
+      <c r="F818" s="6">
         <v>44138</v>
       </c>
       <c r="G818" s="25" t="s">
@@ -42255,10 +42373,10 @@
         <v>640</v>
       </c>
       <c r="L818" s="25"/>
-      <c r="M818" s="38">
-        <v>0</v>
-      </c>
-      <c r="N818" s="38">
+      <c r="M818" s="37">
+        <v>0</v>
+      </c>
+      <c r="N818" s="37">
         <v>0</v>
       </c>
       <c r="O818" s="25"/>
@@ -42274,10 +42392,10 @@
         <v>14</v>
       </c>
       <c r="D819" s="25"/>
-      <c r="E819" s="19">
+      <c r="E819" s="6">
         <v>44139</v>
       </c>
-      <c r="F819" s="19">
+      <c r="F819" s="6">
         <v>44138</v>
       </c>
       <c r="G819" s="25" t="s">
@@ -42294,10 +42412,10 @@
       </c>
       <c r="K819" s="25"/>
       <c r="L819" s="25"/>
-      <c r="M819" s="38">
-        <v>0</v>
-      </c>
-      <c r="N819" s="38">
+      <c r="M819" s="37">
+        <v>0</v>
+      </c>
+      <c r="N819" s="37">
         <v>1</v>
       </c>
       <c r="O819" s="25"/>
@@ -42315,10 +42433,10 @@
       <c r="D820" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E820" s="19">
+      <c r="E820" s="6">
         <v>44139</v>
       </c>
-      <c r="F820" s="19">
+      <c r="F820" s="6">
         <v>44139</v>
       </c>
       <c r="G820" s="25" t="s">
@@ -42335,10 +42453,10 @@
       </c>
       <c r="K820" s="25"/>
       <c r="L820" s="25"/>
-      <c r="M820" s="38">
-        <v>0</v>
-      </c>
-      <c r="N820" s="38">
+      <c r="M820" s="37">
+        <v>0</v>
+      </c>
+      <c r="N820" s="37">
         <v>1</v>
       </c>
       <c r="O820" s="25"/>
@@ -42356,10 +42474,10 @@
       <c r="D821" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E821" s="19">
+      <c r="E821" s="6">
         <v>44139</v>
       </c>
-      <c r="F821" s="19">
+      <c r="F821" s="6">
         <v>44139</v>
       </c>
       <c r="G821" s="25" t="s">
@@ -42376,10 +42494,10 @@
       </c>
       <c r="K821" s="25"/>
       <c r="L821" s="25"/>
-      <c r="M821" s="38">
-        <v>0</v>
-      </c>
-      <c r="N821" s="38">
+      <c r="M821" s="37">
+        <v>0</v>
+      </c>
+      <c r="N821" s="37">
         <v>1</v>
       </c>
       <c r="O821" s="25"/>
@@ -42397,10 +42515,10 @@
       <c r="D822" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E822" s="19">
+      <c r="E822" s="6">
         <v>44139</v>
       </c>
-      <c r="F822" s="19">
+      <c r="F822" s="6">
         <v>44139</v>
       </c>
       <c r="G822" s="25" t="s">
@@ -42417,10 +42535,10 @@
       </c>
       <c r="K822" s="25"/>
       <c r="L822" s="25"/>
-      <c r="M822" s="38">
-        <v>0</v>
-      </c>
-      <c r="N822" s="38">
+      <c r="M822" s="37">
+        <v>0</v>
+      </c>
+      <c r="N822" s="37">
         <v>1</v>
       </c>
       <c r="O822" s="25"/>
@@ -42438,10 +42556,10 @@
       <c r="D823" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E823" s="19">
+      <c r="E823" s="6">
         <v>44139</v>
       </c>
-      <c r="F823" s="19">
+      <c r="F823" s="6">
         <v>44139</v>
       </c>
       <c r="G823" s="25" t="s">
@@ -42458,10 +42576,10 @@
       </c>
       <c r="K823" s="25"/>
       <c r="L823" s="25"/>
-      <c r="M823" s="38">
-        <v>0</v>
-      </c>
-      <c r="N823" s="38">
+      <c r="M823" s="37">
+        <v>0</v>
+      </c>
+      <c r="N823" s="37">
         <v>1</v>
       </c>
       <c r="O823" s="25"/>
@@ -42479,10 +42597,10 @@
       <c r="D824" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E824" s="19">
+      <c r="E824" s="6">
         <v>44139</v>
       </c>
-      <c r="F824" s="19">
+      <c r="F824" s="6">
         <v>44139</v>
       </c>
       <c r="G824" s="25" t="s">
@@ -42501,10 +42619,10 @@
         <v>1070</v>
       </c>
       <c r="L824" s="25"/>
-      <c r="M824" s="38">
-        <v>0</v>
-      </c>
-      <c r="N824" s="38">
+      <c r="M824" s="37">
+        <v>0</v>
+      </c>
+      <c r="N824" s="37">
         <v>0</v>
       </c>
       <c r="O824" s="25"/>
@@ -42522,10 +42640,10 @@
       <c r="D825" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E825" s="19">
+      <c r="E825" s="6">
         <v>44139</v>
       </c>
-      <c r="F825" s="19">
+      <c r="F825" s="6">
         <v>44139</v>
       </c>
       <c r="G825" s="25" t="s">
@@ -42542,10 +42660,10 @@
       </c>
       <c r="K825" s="25"/>
       <c r="L825" s="25"/>
-      <c r="M825" s="38">
-        <v>0</v>
-      </c>
-      <c r="N825" s="38">
+      <c r="M825" s="37">
+        <v>0</v>
+      </c>
+      <c r="N825" s="37">
         <v>1</v>
       </c>
       <c r="O825" s="25"/>
@@ -42563,10 +42681,10 @@
       <c r="D826" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E826" s="19">
+      <c r="E826" s="6">
         <v>44139</v>
       </c>
-      <c r="F826" s="19">
+      <c r="F826" s="6">
         <v>44139</v>
       </c>
       <c r="G826" s="25" t="s">
@@ -42583,10 +42701,10 @@
       </c>
       <c r="K826" s="25"/>
       <c r="L826" s="25"/>
-      <c r="M826" s="38">
-        <v>0</v>
-      </c>
-      <c r="N826" s="38">
+      <c r="M826" s="37">
+        <v>0</v>
+      </c>
+      <c r="N826" s="37">
         <v>1</v>
       </c>
       <c r="O826" s="25"/>
@@ -42604,10 +42722,10 @@
       <c r="D827" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E827" s="19">
+      <c r="E827" s="6">
         <v>44140</v>
       </c>
-      <c r="F827" s="19">
+      <c r="F827" s="6">
         <v>44140</v>
       </c>
       <c r="G827" s="25" t="s">
@@ -42624,10 +42742,10 @@
       </c>
       <c r="K827" s="25"/>
       <c r="L827" s="25"/>
-      <c r="M827" s="38">
-        <v>0</v>
-      </c>
-      <c r="N827" s="38">
+      <c r="M827" s="37">
+        <v>0</v>
+      </c>
+      <c r="N827" s="37">
         <v>1</v>
       </c>
       <c r="O827" s="25"/>
@@ -42645,10 +42763,10 @@
       <c r="D828" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E828" s="19">
+      <c r="E828" s="6">
         <v>44140</v>
       </c>
-      <c r="F828" s="19">
+      <c r="F828" s="6">
         <v>44140</v>
       </c>
       <c r="G828" s="25" t="s">
@@ -42665,10 +42783,10 @@
       </c>
       <c r="K828" s="25"/>
       <c r="L828" s="25"/>
-      <c r="M828" s="38">
-        <v>0</v>
-      </c>
-      <c r="N828" s="38">
+      <c r="M828" s="37">
+        <v>0</v>
+      </c>
+      <c r="N828" s="37">
         <v>1</v>
       </c>
       <c r="O828" s="25"/>
@@ -42684,10 +42802,10 @@
         <v>14</v>
       </c>
       <c r="D829" s="25"/>
-      <c r="E829" s="19">
+      <c r="E829" s="6">
         <v>44140</v>
       </c>
-      <c r="F829" s="19">
+      <c r="F829" s="6">
         <v>44140</v>
       </c>
       <c r="G829" s="25" t="s">
@@ -42704,10 +42822,10 @@
       </c>
       <c r="K829" s="25"/>
       <c r="L829" s="25"/>
-      <c r="M829" s="38">
-        <v>0</v>
-      </c>
-      <c r="N829" s="38">
+      <c r="M829" s="37">
+        <v>0</v>
+      </c>
+      <c r="N829" s="37">
         <v>1</v>
       </c>
       <c r="O829" s="25"/>
@@ -42723,10 +42841,10 @@
         <v>14</v>
       </c>
       <c r="D830" s="25"/>
-      <c r="E830" s="19">
+      <c r="E830" s="6">
         <v>44140</v>
       </c>
-      <c r="F830" s="19">
+      <c r="F830" s="6">
         <v>44140</v>
       </c>
       <c r="G830" s="25" t="s">
@@ -42743,10 +42861,10 @@
       </c>
       <c r="K830" s="25"/>
       <c r="L830" s="25"/>
-      <c r="M830" s="38">
-        <v>0</v>
-      </c>
-      <c r="N830" s="38">
+      <c r="M830" s="37">
+        <v>0</v>
+      </c>
+      <c r="N830" s="37">
         <v>1</v>
       </c>
       <c r="O830" s="25"/>
@@ -42762,10 +42880,10 @@
         <v>14</v>
       </c>
       <c r="D831" s="25"/>
-      <c r="E831" s="19">
+      <c r="E831" s="6">
         <v>44140</v>
       </c>
-      <c r="F831" s="19">
+      <c r="F831" s="6">
         <v>44140</v>
       </c>
       <c r="G831" s="25" t="s">
@@ -42784,10 +42902,10 @@
         <v>604</v>
       </c>
       <c r="L831" s="25"/>
-      <c r="M831" s="38">
-        <v>0</v>
-      </c>
-      <c r="N831" s="38">
+      <c r="M831" s="37">
+        <v>0</v>
+      </c>
+      <c r="N831" s="37">
         <v>0</v>
       </c>
       <c r="O831" s="25"/>
@@ -42805,10 +42923,10 @@
       <c r="D832" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E832" s="19">
+      <c r="E832" s="6">
         <v>44140</v>
       </c>
-      <c r="F832" s="19">
+      <c r="F832" s="6">
         <v>44140</v>
       </c>
       <c r="G832" s="25" t="s">
@@ -42825,10 +42943,10 @@
       </c>
       <c r="K832" s="25"/>
       <c r="L832" s="25"/>
-      <c r="M832" s="38">
-        <v>0</v>
-      </c>
-      <c r="N832" s="38">
+      <c r="M832" s="37">
+        <v>0</v>
+      </c>
+      <c r="N832" s="37">
         <v>1</v>
       </c>
       <c r="O832" s="25"/>
@@ -42846,10 +42964,10 @@
       <c r="D833" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E833" s="19">
+      <c r="E833" s="6">
         <v>44140</v>
       </c>
-      <c r="F833" s="19">
+      <c r="F833" s="6">
         <v>44140</v>
       </c>
       <c r="G833" s="25" t="s">
@@ -42864,15 +42982,13 @@
       <c r="J833" s="26" t="s">
         <v>246</v>
       </c>
-      <c r="K833" s="25" t="s">
-        <v>642</v>
-      </c>
+      <c r="K833" s="25"/>
       <c r="L833" s="25"/>
-      <c r="M833" s="38">
-        <v>0</v>
-      </c>
-      <c r="N833" s="38">
-        <v>0</v>
+      <c r="M833" s="37">
+        <v>0</v>
+      </c>
+      <c r="N833" s="37">
+        <v>1</v>
       </c>
       <c r="O833" s="25"/>
     </row>
@@ -42889,10 +43005,10 @@
       <c r="D834" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E834" s="19">
+      <c r="E834" s="6">
         <v>44140</v>
       </c>
-      <c r="F834" s="19">
+      <c r="F834" s="6">
         <v>44140</v>
       </c>
       <c r="G834" s="25" t="s">
@@ -42909,10 +43025,10 @@
       </c>
       <c r="K834" s="25"/>
       <c r="L834" s="25"/>
-      <c r="M834" s="38">
-        <v>0</v>
-      </c>
-      <c r="N834" s="38">
+      <c r="M834" s="37">
+        <v>0</v>
+      </c>
+      <c r="N834" s="37">
         <v>1</v>
       </c>
       <c r="O834" s="25"/>
@@ -42930,10 +43046,10 @@
       <c r="D835" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E835" s="19">
+      <c r="E835" s="6">
         <v>44140</v>
       </c>
-      <c r="F835" s="19">
+      <c r="F835" s="6">
         <v>44140</v>
       </c>
       <c r="G835" s="25" t="s">
@@ -42950,10 +43066,10 @@
       </c>
       <c r="K835" s="25"/>
       <c r="L835" s="25"/>
-      <c r="M835" s="38">
-        <v>0</v>
-      </c>
-      <c r="N835" s="38">
+      <c r="M835" s="37">
+        <v>0</v>
+      </c>
+      <c r="N835" s="37">
         <v>1</v>
       </c>
       <c r="O835" s="25"/>
@@ -42971,10 +43087,10 @@
       <c r="D836" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E836" s="19">
+      <c r="E836" s="6">
         <v>44140</v>
       </c>
-      <c r="F836" s="19">
+      <c r="F836" s="6">
         <v>44140</v>
       </c>
       <c r="G836" s="25" t="s">
@@ -42991,10 +43107,10 @@
       </c>
       <c r="K836" s="25"/>
       <c r="L836" s="25"/>
-      <c r="M836" s="38">
-        <v>0</v>
-      </c>
-      <c r="N836" s="38">
+      <c r="M836" s="37">
+        <v>0</v>
+      </c>
+      <c r="N836" s="37">
         <v>1</v>
       </c>
       <c r="O836" s="25"/>
@@ -43012,10 +43128,10 @@
       <c r="D837" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E837" s="19">
+      <c r="E837" s="6">
         <v>44140</v>
       </c>
-      <c r="F837" s="19">
+      <c r="F837" s="6">
         <v>44140</v>
       </c>
       <c r="G837" s="25" t="s">
@@ -43032,10 +43148,10 @@
       </c>
       <c r="K837" s="25"/>
       <c r="L837" s="25"/>
-      <c r="M837" s="38">
-        <v>0</v>
-      </c>
-      <c r="N837" s="38">
+      <c r="M837" s="37">
+        <v>0</v>
+      </c>
+      <c r="N837" s="37">
         <v>1</v>
       </c>
       <c r="O837" s="25"/>
@@ -43053,10 +43169,10 @@
       <c r="D838" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E838" s="19">
+      <c r="E838" s="6">
         <v>44140</v>
       </c>
-      <c r="F838" s="19">
+      <c r="F838" s="6">
         <v>44140</v>
       </c>
       <c r="G838" s="25" t="s">
@@ -43073,10 +43189,10 @@
       </c>
       <c r="K838" s="25"/>
       <c r="L838" s="25"/>
-      <c r="M838" s="38">
-        <v>0</v>
-      </c>
-      <c r="N838" s="38">
+      <c r="M838" s="37">
+        <v>0</v>
+      </c>
+      <c r="N838" s="37">
         <v>1</v>
       </c>
       <c r="O838" s="25"/>
@@ -43092,10 +43208,10 @@
         <v>14</v>
       </c>
       <c r="D839" s="25"/>
-      <c r="E839" s="19">
+      <c r="E839" s="6">
         <v>44141</v>
       </c>
-      <c r="F839" s="19">
+      <c r="F839" s="6">
         <v>44141</v>
       </c>
       <c r="G839" s="25" t="s">
@@ -43112,10 +43228,10 @@
       </c>
       <c r="K839" s="25"/>
       <c r="L839" s="25"/>
-      <c r="M839" s="38">
-        <v>0</v>
-      </c>
-      <c r="N839" s="38">
+      <c r="M839" s="37">
+        <v>0</v>
+      </c>
+      <c r="N839" s="37">
         <v>1</v>
       </c>
       <c r="O839" s="25"/>
@@ -43131,10 +43247,10 @@
         <v>14</v>
       </c>
       <c r="D840" s="25"/>
-      <c r="E840" s="19">
+      <c r="E840" s="6">
         <v>44141</v>
       </c>
-      <c r="F840" s="19">
+      <c r="F840" s="6">
         <v>44141</v>
       </c>
       <c r="G840" s="25" t="s">
@@ -43153,10 +43269,10 @@
         <v>604</v>
       </c>
       <c r="L840" s="25"/>
-      <c r="M840" s="38">
-        <v>0</v>
-      </c>
-      <c r="N840" s="38">
+      <c r="M840" s="37">
+        <v>0</v>
+      </c>
+      <c r="N840" s="37">
         <v>0</v>
       </c>
       <c r="O840" s="25"/>
@@ -43174,10 +43290,10 @@
       <c r="D841" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E841" s="19">
+      <c r="E841" s="6">
         <v>44141</v>
       </c>
-      <c r="F841" s="19">
+      <c r="F841" s="6">
         <v>44141</v>
       </c>
       <c r="G841" s="25" t="s">
@@ -43194,10 +43310,10 @@
       </c>
       <c r="K841" s="25"/>
       <c r="L841" s="25"/>
-      <c r="M841" s="38">
-        <v>0</v>
-      </c>
-      <c r="N841" s="38">
+      <c r="M841" s="37">
+        <v>0</v>
+      </c>
+      <c r="N841" s="37">
         <v>1</v>
       </c>
       <c r="O841" s="25"/>
@@ -43215,10 +43331,10 @@
       <c r="D842" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E842" s="19">
+      <c r="E842" s="6">
         <v>44141</v>
       </c>
-      <c r="F842" s="19">
+      <c r="F842" s="6">
         <v>44141</v>
       </c>
       <c r="G842" s="25" t="s">
@@ -43237,10 +43353,10 @@
         <v>640</v>
       </c>
       <c r="L842" s="25"/>
-      <c r="M842" s="38">
-        <v>0</v>
-      </c>
-      <c r="N842" s="38">
+      <c r="M842" s="37">
+        <v>0</v>
+      </c>
+      <c r="N842" s="37">
         <v>0</v>
       </c>
       <c r="O842" s="25"/>
@@ -43258,10 +43374,10 @@
       <c r="D843" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E843" s="19">
+      <c r="E843" s="6">
         <v>44141</v>
       </c>
-      <c r="F843" s="19">
+      <c r="F843" s="6">
         <v>44141</v>
       </c>
       <c r="G843" s="25" t="s">
@@ -43278,10 +43394,10 @@
       </c>
       <c r="K843" s="25"/>
       <c r="L843" s="25"/>
-      <c r="M843" s="38">
-        <v>0</v>
-      </c>
-      <c r="N843" s="38">
+      <c r="M843" s="37">
+        <v>0</v>
+      </c>
+      <c r="N843" s="37">
         <v>1</v>
       </c>
       <c r="O843" s="25"/>
@@ -43299,10 +43415,10 @@
       <c r="D844" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E844" s="19">
+      <c r="E844" s="6">
         <v>44141</v>
       </c>
-      <c r="F844" s="19">
+      <c r="F844" s="6">
         <v>44141</v>
       </c>
       <c r="G844" s="25" t="s">
@@ -43319,10 +43435,10 @@
       </c>
       <c r="K844" s="25"/>
       <c r="L844" s="25"/>
-      <c r="M844" s="38">
-        <v>0</v>
-      </c>
-      <c r="N844" s="38">
+      <c r="M844" s="37">
+        <v>0</v>
+      </c>
+      <c r="N844" s="37">
         <v>1</v>
       </c>
       <c r="O844" s="25"/>
@@ -43340,10 +43456,10 @@
       <c r="D845" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E845" s="19">
+      <c r="E845" s="6">
         <v>44141</v>
       </c>
-      <c r="F845" s="19">
+      <c r="F845" s="6">
         <v>44141</v>
       </c>
       <c r="G845" s="25" t="s">
@@ -43360,10 +43476,10 @@
       </c>
       <c r="K845" s="25"/>
       <c r="L845" s="25"/>
-      <c r="M845" s="38">
-        <v>0</v>
-      </c>
-      <c r="N845" s="38">
+      <c r="M845" s="37">
+        <v>0</v>
+      </c>
+      <c r="N845" s="37">
         <v>1</v>
       </c>
       <c r="O845" s="25"/>
@@ -43379,10 +43495,10 @@
         <v>14</v>
       </c>
       <c r="D846" s="25"/>
-      <c r="E846" s="19">
+      <c r="E846" s="6">
         <v>44142</v>
       </c>
-      <c r="F846" s="19">
+      <c r="F846" s="6">
         <v>44142</v>
       </c>
       <c r="G846" s="25" t="s">
@@ -43399,11 +43515,11 @@
       </c>
       <c r="K846" s="25"/>
       <c r="L846" s="25"/>
-      <c r="M846" s="38">
-        <v>0</v>
-      </c>
-      <c r="N846" s="38">
-        <v>0</v>
+      <c r="M846" s="37">
+        <v>0</v>
+      </c>
+      <c r="N846" s="37">
+        <v>1</v>
       </c>
       <c r="O846" s="25"/>
     </row>
@@ -43418,10 +43534,10 @@
         <v>14</v>
       </c>
       <c r="D847" s="25"/>
-      <c r="E847" s="19">
+      <c r="E847" s="6">
         <v>44142</v>
       </c>
-      <c r="F847" s="19">
+      <c r="F847" s="6">
         <v>44142</v>
       </c>
       <c r="G847" s="25" t="s">
@@ -43438,10 +43554,10 @@
       </c>
       <c r="K847" s="25"/>
       <c r="L847" s="25"/>
-      <c r="M847" s="38">
-        <v>0</v>
-      </c>
-      <c r="N847" s="38">
+      <c r="M847" s="37">
+        <v>0</v>
+      </c>
+      <c r="N847" s="37">
         <v>1</v>
       </c>
       <c r="O847" s="25"/>
@@ -43459,10 +43575,10 @@
       <c r="D848" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E848" s="19">
+      <c r="E848" s="6">
         <v>44142</v>
       </c>
-      <c r="F848" s="19">
+      <c r="F848" s="6">
         <v>44142</v>
       </c>
       <c r="G848" s="25" t="s">
@@ -43479,10 +43595,10 @@
       </c>
       <c r="K848" s="25"/>
       <c r="L848" s="25"/>
-      <c r="M848" s="38">
-        <v>0</v>
-      </c>
-      <c r="N848" s="38">
+      <c r="M848" s="37">
+        <v>0</v>
+      </c>
+      <c r="N848" s="37">
         <v>1</v>
       </c>
       <c r="O848" s="25"/>
@@ -43500,10 +43616,10 @@
       <c r="D849" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E849" s="19">
+      <c r="E849" s="6">
         <v>44142</v>
       </c>
-      <c r="F849" s="19">
+      <c r="F849" s="6">
         <v>44142</v>
       </c>
       <c r="G849" s="25" t="s">
@@ -43520,10 +43636,10 @@
       </c>
       <c r="K849" s="25"/>
       <c r="L849" s="25"/>
-      <c r="M849" s="38">
-        <v>0</v>
-      </c>
-      <c r="N849" s="38">
+      <c r="M849" s="37">
+        <v>0</v>
+      </c>
+      <c r="N849" s="37">
         <v>1</v>
       </c>
       <c r="O849" s="25"/>
@@ -43539,10 +43655,10 @@
         <v>14</v>
       </c>
       <c r="D850" s="25"/>
-      <c r="E850" s="19">
+      <c r="E850" s="6">
         <v>44143</v>
       </c>
-      <c r="F850" s="19">
+      <c r="F850" s="6">
         <v>44142</v>
       </c>
       <c r="G850" s="25" t="s">
@@ -43578,10 +43694,10 @@
         <v>14</v>
       </c>
       <c r="D851" s="25"/>
-      <c r="E851" s="19">
+      <c r="E851" s="6">
         <v>44143</v>
       </c>
-      <c r="F851" s="19">
+      <c r="F851" s="6">
         <v>44142</v>
       </c>
       <c r="G851" s="25" t="s">
@@ -43619,10 +43735,10 @@
         <v>14</v>
       </c>
       <c r="D852" s="25"/>
-      <c r="E852" s="19">
+      <c r="E852" s="6">
         <v>44143</v>
       </c>
-      <c r="F852" s="19">
+      <c r="F852" s="6">
         <v>44143</v>
       </c>
       <c r="G852" s="25" t="s">
@@ -43658,10 +43774,10 @@
         <v>14</v>
       </c>
       <c r="D853" s="25"/>
-      <c r="E853" s="19">
+      <c r="E853" s="6">
         <v>44143</v>
       </c>
-      <c r="F853" s="19">
+      <c r="F853" s="6">
         <v>44143</v>
       </c>
       <c r="G853" s="25" t="s">
@@ -43699,10 +43815,10 @@
       <c r="D854" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E854" s="19">
+      <c r="E854" s="6">
         <v>44143</v>
       </c>
-      <c r="F854" s="19">
+      <c r="F854" s="6">
         <v>44143</v>
       </c>
       <c r="G854" s="25" t="s">
@@ -43717,15 +43833,13 @@
       <c r="J854" s="26" t="s">
         <v>1055</v>
       </c>
-      <c r="K854" s="25" t="s">
-        <v>642</v>
-      </c>
+      <c r="K854" s="25"/>
       <c r="L854" s="25"/>
       <c r="M854" s="25">
         <v>0</v>
       </c>
       <c r="N854" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O854" s="25"/>
     </row>
@@ -43742,10 +43856,10 @@
       <c r="D855" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E855" s="19">
+      <c r="E855" s="6">
         <v>44143</v>
       </c>
-      <c r="F855" s="19">
+      <c r="F855" s="6">
         <v>44143</v>
       </c>
       <c r="G855" s="25" t="s">
@@ -43783,10 +43897,10 @@
       <c r="D856" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E856" s="19">
+      <c r="E856" s="6">
         <v>44143</v>
       </c>
-      <c r="F856" s="19">
+      <c r="F856" s="6">
         <v>44143</v>
       </c>
       <c r="G856" s="25" t="s">
@@ -43822,10 +43936,10 @@
         <v>14</v>
       </c>
       <c r="D857" s="25"/>
-      <c r="E857" s="19">
+      <c r="E857" s="6">
         <v>44144</v>
       </c>
-      <c r="F857" s="19">
+      <c r="F857" s="6">
         <v>44143</v>
       </c>
       <c r="G857" s="25" t="s">
@@ -43865,10 +43979,10 @@
       <c r="D858" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E858" s="19">
+      <c r="E858" s="6">
         <v>44144</v>
       </c>
-      <c r="F858" s="19">
+      <c r="F858" s="6">
         <v>44144</v>
       </c>
       <c r="G858" s="25" t="s">
@@ -43908,10 +44022,10 @@
       <c r="D859" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E859" s="19">
+      <c r="E859" s="6">
         <v>44144</v>
       </c>
-      <c r="F859" s="19">
+      <c r="F859" s="6">
         <v>44144</v>
       </c>
       <c r="G859" s="25" t="s">
@@ -43932,7 +44046,7 @@
         <v>0</v>
       </c>
       <c r="N859" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O859" s="25"/>
     </row>
@@ -43947,10 +44061,10 @@
         <v>14</v>
       </c>
       <c r="D860" s="25"/>
-      <c r="E860" s="19">
+      <c r="E860" s="6">
         <v>44145</v>
       </c>
-      <c r="F860" s="19">
+      <c r="F860" s="6">
         <v>44144</v>
       </c>
       <c r="G860" s="25" t="s">
@@ -43990,10 +44104,10 @@
       <c r="D861" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E861" s="19">
+      <c r="E861" s="6">
         <v>44145</v>
       </c>
-      <c r="F861" s="19">
+      <c r="F861" s="6">
         <v>44145</v>
       </c>
       <c r="G861" s="25" t="s">
@@ -44033,10 +44147,10 @@
       <c r="D862" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E862" s="19">
+      <c r="E862" s="6">
         <v>44145</v>
       </c>
-      <c r="F862" s="19">
+      <c r="F862" s="6">
         <v>44145</v>
       </c>
       <c r="G862" s="25" t="s">
@@ -44072,10 +44186,10 @@
         <v>14</v>
       </c>
       <c r="D863" s="25"/>
-      <c r="E863" s="19">
+      <c r="E863" s="6">
         <v>44145</v>
       </c>
-      <c r="F863" s="19">
+      <c r="F863" s="6">
         <v>44146</v>
       </c>
       <c r="G863" s="25" t="s">
@@ -44113,10 +44227,10 @@
         <v>14</v>
       </c>
       <c r="D864" s="25"/>
-      <c r="E864" s="19">
+      <c r="E864" s="6">
         <v>44145</v>
       </c>
-      <c r="F864" s="19">
+      <c r="F864" s="6">
         <v>44146</v>
       </c>
       <c r="G864" s="25" t="s">
@@ -44132,7 +44246,7 @@
         <v>1076</v>
       </c>
       <c r="K864" s="25" t="s">
-        <v>1071</v>
+        <v>640</v>
       </c>
       <c r="L864" s="25"/>
       <c r="M864" s="25">
@@ -44154,10 +44268,10 @@
         <v>14</v>
       </c>
       <c r="D865" s="25"/>
-      <c r="E865" s="19">
+      <c r="E865" s="6">
         <v>44145</v>
       </c>
-      <c r="F865" s="19">
+      <c r="F865" s="6">
         <v>44146</v>
       </c>
       <c r="G865" s="25" t="s">
@@ -44197,10 +44311,10 @@
       <c r="D866" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="E866" s="19">
+      <c r="E866" s="6">
         <v>44146</v>
       </c>
-      <c r="F866" s="19">
+      <c r="F866" s="6">
         <v>44146</v>
       </c>
       <c r="G866" s="25" t="s">
@@ -44238,10 +44352,10 @@
       <c r="D867" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="E867" s="19">
+      <c r="E867" s="6">
         <v>44146</v>
       </c>
-      <c r="F867" s="19">
+      <c r="F867" s="6">
         <v>44146</v>
       </c>
       <c r="G867" s="25" t="s">
@@ -44279,10 +44393,10 @@
       <c r="D868" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="E868" s="19">
+      <c r="E868" s="6">
         <v>44146</v>
       </c>
-      <c r="F868" s="19">
+      <c r="F868" s="6">
         <v>44146</v>
       </c>
       <c r="G868" s="25" t="s">
@@ -44322,10 +44436,10 @@
       <c r="D869" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="E869" s="19">
+      <c r="E869" s="6">
         <v>44147</v>
       </c>
-      <c r="F869" s="19">
+      <c r="F869" s="6">
         <v>44146</v>
       </c>
       <c r="G869" s="25" t="s">
@@ -44361,10 +44475,10 @@
         <v>14</v>
       </c>
       <c r="D870" s="25"/>
-      <c r="E870" s="19">
+      <c r="E870" s="6">
         <v>44147</v>
       </c>
-      <c r="F870" s="19">
+      <c r="F870" s="6">
         <v>44147</v>
       </c>
       <c r="G870" s="25" t="s">
@@ -44402,10 +44516,10 @@
         <v>14</v>
       </c>
       <c r="D871" s="25"/>
-      <c r="E871" s="19">
+      <c r="E871" s="6">
         <v>44147</v>
       </c>
-      <c r="F871" s="19">
+      <c r="F871" s="6">
         <v>44147</v>
       </c>
       <c r="G871" s="25" t="s">
@@ -44443,10 +44557,10 @@
         <v>14</v>
       </c>
       <c r="D872" s="25"/>
-      <c r="E872" s="19">
+      <c r="E872" s="6">
         <v>44147</v>
       </c>
-      <c r="F872" s="19">
+      <c r="F872" s="6">
         <v>44147</v>
       </c>
       <c r="G872" s="25" t="s">
@@ -44484,10 +44598,10 @@
         <v>14</v>
       </c>
       <c r="D873" s="25"/>
-      <c r="E873" s="19">
+      <c r="E873" s="6">
         <v>44147</v>
       </c>
-      <c r="F873" s="19">
+      <c r="F873" s="6">
         <v>44147</v>
       </c>
       <c r="G873" s="25" t="s">
@@ -44525,10 +44639,10 @@
         <v>14</v>
       </c>
       <c r="D874" s="25"/>
-      <c r="E874" s="19">
+      <c r="E874" s="6">
         <v>44147</v>
       </c>
-      <c r="F874" s="19">
+      <c r="F874" s="6">
         <v>44147</v>
       </c>
       <c r="G874" s="25" t="s">
@@ -44566,10 +44680,10 @@
         <v>14</v>
       </c>
       <c r="D875" s="25"/>
-      <c r="E875" s="19">
+      <c r="E875" s="6">
         <v>44147</v>
       </c>
-      <c r="F875" s="19">
+      <c r="F875" s="6">
         <v>44147</v>
       </c>
       <c r="G875" s="25" t="s">
@@ -44607,10 +44721,10 @@
         <v>14</v>
       </c>
       <c r="D876" s="25"/>
-      <c r="E876" s="19">
+      <c r="E876" s="6">
         <v>44147</v>
       </c>
-      <c r="F876" s="19">
+      <c r="F876" s="6">
         <v>44147</v>
       </c>
       <c r="G876" s="25" t="s">
@@ -44625,7 +44739,7 @@
       <c r="J876" s="26" t="s">
         <v>1090</v>
       </c>
-      <c r="K876" s="38" t="s">
+      <c r="K876" s="37" t="s">
         <v>604</v>
       </c>
       <c r="L876" s="25"/>
@@ -44650,10 +44764,10 @@
       <c r="D877" s="25" t="s">
         <v>1081</v>
       </c>
-      <c r="E877" s="19">
+      <c r="E877" s="6">
         <v>44147</v>
       </c>
-      <c r="F877" s="19">
+      <c r="F877" s="6">
         <v>44147</v>
       </c>
       <c r="G877" s="25" t="s">
@@ -44693,10 +44807,10 @@
       <c r="D878" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E878" s="19">
+      <c r="E878" s="6">
         <v>44147</v>
       </c>
-      <c r="F878" s="19">
+      <c r="F878" s="6">
         <v>44147</v>
       </c>
       <c r="G878" s="25" t="s">
@@ -44734,10 +44848,10 @@
       <c r="D879" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E879" s="19">
+      <c r="E879" s="6">
         <v>44147</v>
       </c>
-      <c r="F879" s="19">
+      <c r="F879" s="6">
         <v>44147</v>
       </c>
       <c r="G879" s="25" t="s">
@@ -44775,10 +44889,10 @@
         <v>14</v>
       </c>
       <c r="D880" s="25"/>
-      <c r="E880" s="19">
+      <c r="E880" s="6">
         <v>44148</v>
       </c>
-      <c r="F880" s="19">
+      <c r="F880" s="6">
         <v>44147</v>
       </c>
       <c r="G880" s="25" t="s">
@@ -44816,10 +44930,10 @@
         <v>14</v>
       </c>
       <c r="D881" s="25"/>
-      <c r="E881" s="19">
+      <c r="E881" s="6">
         <v>44148</v>
       </c>
-      <c r="F881" s="19">
+      <c r="F881" s="6">
         <v>44147</v>
       </c>
       <c r="G881" s="25" t="s">
@@ -44857,10 +44971,10 @@
         <v>14</v>
       </c>
       <c r="D882" s="25"/>
-      <c r="E882" s="19">
+      <c r="E882" s="6">
         <v>44148</v>
       </c>
-      <c r="F882" s="19">
+      <c r="F882" s="6">
         <v>44147</v>
       </c>
       <c r="G882" s="25" t="s">
@@ -44898,10 +45012,10 @@
         <v>14</v>
       </c>
       <c r="D883" s="25"/>
-      <c r="E883" s="19">
+      <c r="E883" s="6">
         <v>44148</v>
       </c>
-      <c r="F883" s="19">
+      <c r="F883" s="6">
         <v>44147</v>
       </c>
       <c r="G883" s="25" t="s">
@@ -44939,10 +45053,10 @@
         <v>14</v>
       </c>
       <c r="D884" s="25"/>
-      <c r="E884" s="19">
+      <c r="E884" s="6">
         <v>44148</v>
       </c>
-      <c r="F884" s="19">
+      <c r="F884" s="6">
         <v>44147</v>
       </c>
       <c r="G884" s="25" t="s">
@@ -44980,10 +45094,10 @@
         <v>14</v>
       </c>
       <c r="D885" s="25"/>
-      <c r="E885" s="19">
+      <c r="E885" s="6">
         <v>44148</v>
       </c>
-      <c r="F885" s="19">
+      <c r="F885" s="6">
         <v>44148</v>
       </c>
       <c r="G885" s="25" t="s">
@@ -45021,10 +45135,10 @@
         <v>14</v>
       </c>
       <c r="D886" s="25"/>
-      <c r="E886" s="19">
+      <c r="E886" s="6">
         <v>44148</v>
       </c>
-      <c r="F886" s="19">
+      <c r="F886" s="6">
         <v>44148</v>
       </c>
       <c r="G886" s="25" t="s">
@@ -45062,10 +45176,10 @@
         <v>14</v>
       </c>
       <c r="D887" s="25"/>
-      <c r="E887" s="19">
+      <c r="E887" s="6">
         <v>44148</v>
       </c>
-      <c r="F887" s="19">
+      <c r="F887" s="6">
         <v>44148</v>
       </c>
       <c r="G887" s="25" t="s">
@@ -45105,10 +45219,10 @@
       <c r="D888" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E888" s="19">
+      <c r="E888" s="6">
         <v>44148</v>
       </c>
-      <c r="F888" s="19">
+      <c r="F888" s="6">
         <v>44148</v>
       </c>
       <c r="G888" s="25" t="s">
@@ -45123,9 +45237,7 @@
       <c r="J888" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="K888" s="25" t="s">
-        <v>1122</v>
-      </c>
+      <c r="K888" s="25"/>
       <c r="L888" s="25"/>
       <c r="M888" s="25">
         <v>0</v>
@@ -45148,10 +45260,10 @@
       <c r="D889" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E889" s="19">
+      <c r="E889" s="6">
         <v>44148</v>
       </c>
-      <c r="F889" s="19">
+      <c r="F889" s="6">
         <v>44148</v>
       </c>
       <c r="G889" s="25" t="s">
@@ -45189,10 +45301,10 @@
         <v>14</v>
       </c>
       <c r="D890" s="25"/>
-      <c r="E890" s="19">
+      <c r="E890" s="6">
         <v>44149</v>
       </c>
-      <c r="F890" s="19">
+      <c r="F890" s="6">
         <v>44148</v>
       </c>
       <c r="G890" s="25" t="s">
@@ -45228,10 +45340,10 @@
         <v>14</v>
       </c>
       <c r="D891" s="25"/>
-      <c r="E891" s="19">
+      <c r="E891" s="6">
         <v>44149</v>
       </c>
-      <c r="F891" s="19">
+      <c r="F891" s="6">
         <v>44148</v>
       </c>
       <c r="G891" s="25" t="s">
@@ -45247,7 +45359,7 @@
         <v>1117</v>
       </c>
       <c r="K891" s="25" t="s">
-        <v>1070</v>
+        <v>640</v>
       </c>
       <c r="L891" s="25"/>
       <c r="M891" s="25">
@@ -45269,10 +45381,10 @@
         <v>14</v>
       </c>
       <c r="D892" s="25"/>
-      <c r="E892" s="19">
+      <c r="E892" s="6">
         <v>44149</v>
       </c>
-      <c r="F892" s="19">
+      <c r="F892" s="6">
         <v>44148</v>
       </c>
       <c r="G892" s="25" t="s">
@@ -45310,10 +45422,10 @@
         <v>14</v>
       </c>
       <c r="D893" s="25"/>
-      <c r="E893" s="19">
+      <c r="E893" s="6">
         <v>44149</v>
       </c>
-      <c r="F893" s="19">
+      <c r="F893" s="6">
         <v>44148</v>
       </c>
       <c r="G893" s="25" t="s">
@@ -45349,10 +45461,10 @@
         <v>14</v>
       </c>
       <c r="D894" s="25"/>
-      <c r="E894" s="19">
+      <c r="E894" s="6">
         <v>44149</v>
       </c>
-      <c r="F894" s="19">
+      <c r="F894" s="6">
         <v>44148</v>
       </c>
       <c r="G894" s="25" t="s">
@@ -45388,10 +45500,10 @@
         <v>14</v>
       </c>
       <c r="D895" s="25"/>
-      <c r="E895" s="19">
+      <c r="E895" s="6">
         <v>44149</v>
       </c>
-      <c r="F895" s="19">
+      <c r="F895" s="6">
         <v>44148</v>
       </c>
       <c r="G895" s="25" t="s">
@@ -45429,10 +45541,10 @@
         <v>14</v>
       </c>
       <c r="D896" s="25"/>
-      <c r="E896" s="19">
+      <c r="E896" s="6">
         <v>44149</v>
       </c>
-      <c r="F896" s="19">
+      <c r="F896" s="6">
         <v>44148</v>
       </c>
       <c r="G896" s="25" t="s">
@@ -45470,10 +45582,10 @@
         <v>14</v>
       </c>
       <c r="D897" s="25"/>
-      <c r="E897" s="19">
+      <c r="E897" s="6">
         <v>44149</v>
       </c>
-      <c r="F897" s="19">
+      <c r="F897" s="6">
         <v>44148</v>
       </c>
       <c r="G897" s="25" t="s">
@@ -45511,10 +45623,10 @@
         <v>14</v>
       </c>
       <c r="D898" s="25"/>
-      <c r="E898" s="19">
+      <c r="E898" s="6">
         <v>44149</v>
       </c>
-      <c r="F898" s="19">
+      <c r="F898" s="6">
         <v>44148</v>
       </c>
       <c r="G898" s="25" t="s">
@@ -45550,10 +45662,10 @@
         <v>14</v>
       </c>
       <c r="D899" s="25"/>
-      <c r="E899" s="19">
+      <c r="E899" s="6">
         <v>44149</v>
       </c>
-      <c r="F899" s="19">
+      <c r="F899" s="6">
         <v>44148</v>
       </c>
       <c r="G899" s="25" t="s">
@@ -45591,10 +45703,10 @@
         <v>14</v>
       </c>
       <c r="D900" s="25"/>
-      <c r="E900" s="19">
+      <c r="E900" s="6">
         <v>44149</v>
       </c>
-      <c r="F900" s="19">
+      <c r="F900" s="6">
         <v>44148</v>
       </c>
       <c r="G900" s="25" t="s">
@@ -45609,7 +45721,9 @@
       <c r="J900" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K900" s="25"/>
+      <c r="K900" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="L900" s="25"/>
       <c r="M900" s="25">
         <v>0</v>
@@ -45630,10 +45744,10 @@
         <v>14</v>
       </c>
       <c r="D901" s="25"/>
-      <c r="E901" s="19">
+      <c r="E901" s="6">
         <v>44149</v>
       </c>
-      <c r="F901" s="19">
+      <c r="F901" s="6">
         <v>44148</v>
       </c>
       <c r="G901" s="25" t="s">
@@ -45669,10 +45783,10 @@
         <v>14</v>
       </c>
       <c r="D902" s="25"/>
-      <c r="E902" s="19">
+      <c r="E902" s="6">
         <v>44149</v>
       </c>
-      <c r="F902" s="19">
+      <c r="F902" s="6">
         <v>44149</v>
       </c>
       <c r="G902" s="25" t="s">
@@ -45688,7 +45802,7 @@
         <v>1117</v>
       </c>
       <c r="K902" s="25" t="s">
-        <v>1070</v>
+        <v>640</v>
       </c>
       <c r="L902" s="25"/>
       <c r="M902" s="25">
@@ -45712,10 +45826,10 @@
       <c r="D903" s="25" t="s">
         <v>1124</v>
       </c>
-      <c r="E903" s="19">
+      <c r="E903" s="6">
         <v>44149</v>
       </c>
-      <c r="F903" s="19">
+      <c r="F903" s="6">
         <v>44149</v>
       </c>
       <c r="G903" s="25" t="s">
@@ -45753,10 +45867,10 @@
       <c r="D904" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E904" s="19">
+      <c r="E904" s="6">
         <v>44149</v>
       </c>
-      <c r="F904" s="19">
+      <c r="F904" s="6">
         <v>44149</v>
       </c>
       <c r="G904" s="25" t="s">
@@ -45771,9 +45885,7 @@
       <c r="J904" s="26" t="s">
         <v>1131</v>
       </c>
-      <c r="K904" s="25" t="s">
-        <v>642</v>
-      </c>
+      <c r="K904" s="25"/>
       <c r="L904" s="25"/>
       <c r="M904" s="25">
         <v>0</v>
@@ -45794,10 +45906,10 @@
         <v>14</v>
       </c>
       <c r="D905" s="25"/>
-      <c r="E905" s="19">
+      <c r="E905" s="6">
         <v>44149</v>
       </c>
-      <c r="F905" s="19">
+      <c r="F905" s="6">
         <v>44149</v>
       </c>
       <c r="G905" s="25" t="s">
@@ -45835,10 +45947,10 @@
         <v>14</v>
       </c>
       <c r="D906" s="25"/>
-      <c r="E906" s="19">
+      <c r="E906" s="6">
         <v>44150</v>
       </c>
-      <c r="F906" s="19">
+      <c r="F906" s="6">
         <v>44149</v>
       </c>
       <c r="G906" s="25" t="s">
@@ -45853,7 +45965,9 @@
       <c r="J906" s="26" t="s">
         <v>1126</v>
       </c>
-      <c r="K906" s="25"/>
+      <c r="K906" s="25" t="s">
+        <v>1159</v>
+      </c>
       <c r="L906" s="25"/>
       <c r="M906" s="25">
         <v>0</v>
@@ -45874,10 +45988,10 @@
         <v>14</v>
       </c>
       <c r="D907" s="25"/>
-      <c r="E907" s="19">
+      <c r="E907" s="6">
         <v>44150</v>
       </c>
-      <c r="F907" s="19">
+      <c r="F907" s="6">
         <v>44149</v>
       </c>
       <c r="G907" s="25" t="s">
@@ -45892,7 +46006,9 @@
       <c r="J907" s="26" t="s">
         <v>1127</v>
       </c>
-      <c r="K907" s="25"/>
+      <c r="K907" s="25" t="s">
+        <v>640</v>
+      </c>
       <c r="L907" s="25"/>
       <c r="M907" s="25">
         <v>0</v>
@@ -45913,10 +46029,10 @@
         <v>14</v>
       </c>
       <c r="D908" s="25"/>
-      <c r="E908" s="19">
+      <c r="E908" s="6">
         <v>44150</v>
       </c>
-      <c r="F908" s="19">
+      <c r="F908" s="6">
         <v>44149</v>
       </c>
       <c r="G908" s="25" t="s">
@@ -45954,10 +46070,10 @@
         <v>14</v>
       </c>
       <c r="D909" s="25"/>
-      <c r="E909" s="19">
+      <c r="E909" s="6">
         <v>44150</v>
       </c>
-      <c r="F909" s="19">
+      <c r="F909" s="6">
         <v>44149</v>
       </c>
       <c r="G909" s="25" t="s">
@@ -45993,10 +46109,10 @@
         <v>14</v>
       </c>
       <c r="D910" s="25"/>
-      <c r="E910" s="19">
+      <c r="E910" s="6">
         <v>44150</v>
       </c>
-      <c r="F910" s="19">
+      <c r="F910" s="6">
         <v>44149</v>
       </c>
       <c r="G910" s="25" t="s">
@@ -46034,10 +46150,10 @@
         <v>14</v>
       </c>
       <c r="D911" s="25"/>
-      <c r="E911" s="19">
+      <c r="E911" s="6">
         <v>44150</v>
       </c>
-      <c r="F911" s="19">
+      <c r="F911" s="6">
         <v>44149</v>
       </c>
       <c r="G911" s="25" t="s">
@@ -46075,10 +46191,10 @@
         <v>14</v>
       </c>
       <c r="D912" s="25"/>
-      <c r="E912" s="19">
+      <c r="E912" s="6">
         <v>44150</v>
       </c>
-      <c r="F912" s="19">
+      <c r="F912" s="6">
         <v>44149</v>
       </c>
       <c r="G912" s="25" t="s">
@@ -46114,10 +46230,10 @@
         <v>14</v>
       </c>
       <c r="D913" s="25"/>
-      <c r="E913" s="19">
+      <c r="E913" s="6">
         <v>44150</v>
       </c>
-      <c r="F913" s="19">
+      <c r="F913" s="6">
         <v>44149</v>
       </c>
       <c r="G913" s="25" t="s">
@@ -46157,10 +46273,10 @@
       <c r="D914" s="25" t="s">
         <v>1125</v>
       </c>
-      <c r="E914" s="19">
+      <c r="E914" s="6">
         <v>44150</v>
       </c>
-      <c r="F914" s="19">
+      <c r="F914" s="6">
         <v>44150</v>
       </c>
       <c r="G914" s="25" t="s">
@@ -46200,10 +46316,10 @@
       <c r="D915" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E915" s="19">
+      <c r="E915" s="6">
         <v>44150</v>
       </c>
-      <c r="F915" s="19">
+      <c r="F915" s="6">
         <v>44150</v>
       </c>
       <c r="G915" s="25" t="s">
@@ -46243,10 +46359,10 @@
       <c r="D916" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E916" s="19">
+      <c r="E916" s="6">
         <v>44150</v>
       </c>
-      <c r="F916" s="19">
+      <c r="F916" s="6">
         <v>44150</v>
       </c>
       <c r="G916" s="25" t="s">
@@ -46267,7 +46383,7 @@
         <v>0</v>
       </c>
       <c r="N916" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O916" s="25"/>
     </row>
@@ -46284,10 +46400,10 @@
       <c r="D917" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E917" s="19">
+      <c r="E917" s="6">
         <v>44150</v>
       </c>
-      <c r="F917" s="19">
+      <c r="F917" s="6">
         <v>44150</v>
       </c>
       <c r="G917" s="25" t="s">
@@ -46325,10 +46441,10 @@
         <v>14</v>
       </c>
       <c r="D918" s="25"/>
-      <c r="E918" s="19">
+      <c r="E918" s="6">
         <v>44151</v>
       </c>
-      <c r="F918" s="19">
+      <c r="F918" s="6">
         <v>44150</v>
       </c>
       <c r="G918" s="25" t="s">
@@ -46347,8 +46463,12 @@
         <v>604</v>
       </c>
       <c r="L918" s="25"/>
-      <c r="M918" s="25"/>
-      <c r="N918" s="25"/>
+      <c r="M918" s="25">
+        <v>0</v>
+      </c>
+      <c r="N918" s="25">
+        <v>0</v>
+      </c>
       <c r="O918" s="25"/>
     </row>
     <row r="919" spans="1:15">
@@ -46362,10 +46482,10 @@
         <v>14</v>
       </c>
       <c r="D919" s="25"/>
-      <c r="E919" s="19">
+      <c r="E919" s="6">
         <v>44151</v>
       </c>
-      <c r="F919" s="19">
+      <c r="F919" s="6">
         <v>44150</v>
       </c>
       <c r="G919" s="25" t="s">
@@ -46382,8 +46502,12 @@
       </c>
       <c r="K919" s="25"/>
       <c r="L919" s="25"/>
-      <c r="M919" s="25"/>
-      <c r="N919" s="25"/>
+      <c r="M919" s="25">
+        <v>0</v>
+      </c>
+      <c r="N919" s="25">
+        <v>0</v>
+      </c>
       <c r="O919" s="25"/>
     </row>
     <row r="920" spans="1:15">
@@ -46399,10 +46523,10 @@
       <c r="D920" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E920" s="19">
+      <c r="E920" s="6">
         <v>44151</v>
       </c>
-      <c r="F920" s="19">
+      <c r="F920" s="6">
         <v>44151</v>
       </c>
       <c r="G920" s="25" t="s">
@@ -46414,13 +46538,19 @@
       <c r="I920" s="25" t="s">
         <v>1138</v>
       </c>
-      <c r="J920" s="26"/>
+      <c r="J920" s="26" t="s">
+        <v>1155</v>
+      </c>
       <c r="K920" s="25" t="s">
         <v>640</v>
       </c>
       <c r="L920" s="25"/>
-      <c r="M920" s="25"/>
-      <c r="N920" s="25"/>
+      <c r="M920" s="25">
+        <v>0</v>
+      </c>
+      <c r="N920" s="25">
+        <v>0</v>
+      </c>
       <c r="O920" s="25"/>
     </row>
     <row r="921" spans="1:15">
@@ -46434,24 +46564,32 @@
         <v>14</v>
       </c>
       <c r="D921" s="25"/>
-      <c r="E921" s="19">
+      <c r="E921" s="6">
         <v>44152</v>
       </c>
-      <c r="F921" s="19">
+      <c r="F921" s="6">
         <v>44152</v>
       </c>
-      <c r="G921" s="25"/>
+      <c r="G921" s="25" t="s">
+        <v>1150</v>
+      </c>
       <c r="H921" s="25" t="s">
         <v>1112</v>
       </c>
       <c r="I921" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J921" s="26"/>
+      <c r="J921" s="26" t="s">
+        <v>1156</v>
+      </c>
       <c r="K921" s="25"/>
       <c r="L921" s="25"/>
-      <c r="M921" s="25"/>
-      <c r="N921" s="25"/>
+      <c r="M921" s="25">
+        <v>0</v>
+      </c>
+      <c r="N921" s="25">
+        <v>0</v>
+      </c>
       <c r="O921" s="25"/>
     </row>
     <row r="922" spans="1:15">
@@ -46465,24 +46603,34 @@
         <v>14</v>
       </c>
       <c r="D922" s="25"/>
-      <c r="E922" s="19">
+      <c r="E922" s="6">
         <v>44152</v>
       </c>
-      <c r="F922" s="19">
+      <c r="F922" s="6">
         <v>44152</v>
       </c>
-      <c r="G922" s="25"/>
+      <c r="G922" s="25" t="s">
+        <v>164</v>
+      </c>
       <c r="H922" s="25" t="s">
         <v>1146</v>
       </c>
       <c r="I922" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J922" s="26"/>
-      <c r="K922" s="25"/>
+      <c r="J922" s="26" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K922" s="25" t="s">
+        <v>604</v>
+      </c>
       <c r="L922" s="25"/>
-      <c r="M922" s="25"/>
-      <c r="N922" s="25"/>
+      <c r="M922" s="25">
+        <v>0</v>
+      </c>
+      <c r="N922" s="25">
+        <v>0</v>
+      </c>
       <c r="O922" s="25"/>
     </row>
     <row r="923" spans="1:15">
@@ -46496,26 +46644,34 @@
         <v>14</v>
       </c>
       <c r="D923" s="25"/>
-      <c r="E923" s="19">
+      <c r="E923" s="6">
         <v>44152</v>
       </c>
-      <c r="F923" s="19">
+      <c r="F923" s="6">
         <v>44152</v>
       </c>
-      <c r="G923" s="25"/>
+      <c r="G923" s="25" t="s">
+        <v>1151</v>
+      </c>
       <c r="H923" s="25" t="s">
         <v>580</v>
       </c>
       <c r="I923" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J923" s="26"/>
+      <c r="J923" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="K923" s="25" t="s">
         <v>640</v>
       </c>
       <c r="L923" s="25"/>
-      <c r="M923" s="25"/>
-      <c r="N923" s="25"/>
+      <c r="M923" s="25">
+        <v>0</v>
+      </c>
+      <c r="N923" s="25">
+        <v>0</v>
+      </c>
       <c r="O923" s="25"/>
     </row>
     <row r="924" spans="1:15">
@@ -46529,24 +46685,32 @@
         <v>14</v>
       </c>
       <c r="D924" s="25"/>
-      <c r="E924" s="19">
+      <c r="E924" s="6">
         <v>44152</v>
       </c>
-      <c r="F924" s="19">
+      <c r="F924" s="6">
         <v>44152</v>
       </c>
-      <c r="G924" s="25"/>
+      <c r="G924" s="25" t="s">
+        <v>1152</v>
+      </c>
       <c r="H924" s="25" t="s">
         <v>1147</v>
       </c>
       <c r="I924" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J924" s="26"/>
+      <c r="J924" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K924" s="25"/>
       <c r="L924" s="25"/>
-      <c r="M924" s="25"/>
-      <c r="N924" s="25"/>
+      <c r="M924" s="25">
+        <v>0</v>
+      </c>
+      <c r="N924" s="25">
+        <v>0</v>
+      </c>
       <c r="O924" s="25"/>
     </row>
     <row r="925" spans="1:15">
@@ -46560,24 +46724,32 @@
         <v>14</v>
       </c>
       <c r="D925" s="25"/>
-      <c r="E925" s="19">
+      <c r="E925" s="6">
         <v>44152</v>
       </c>
-      <c r="F925" s="19">
+      <c r="F925" s="6">
         <v>44152</v>
       </c>
-      <c r="G925" s="25"/>
+      <c r="G925" s="25" t="s">
+        <v>1153</v>
+      </c>
       <c r="H925" s="25" t="s">
         <v>1147</v>
       </c>
       <c r="I925" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J925" s="26"/>
+      <c r="J925" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K925" s="25"/>
       <c r="L925" s="25"/>
-      <c r="M925" s="25"/>
-      <c r="N925" s="25"/>
+      <c r="M925" s="25">
+        <v>0</v>
+      </c>
+      <c r="N925" s="25">
+        <v>0</v>
+      </c>
       <c r="O925" s="25"/>
     </row>
     <row r="926" spans="1:15">
@@ -46591,24 +46763,32 @@
         <v>14</v>
       </c>
       <c r="D926" s="25"/>
-      <c r="E926" s="19">
+      <c r="E926" s="6">
         <v>44152</v>
       </c>
-      <c r="F926" s="19">
+      <c r="F926" s="6">
         <v>44152</v>
       </c>
-      <c r="G926" s="25"/>
+      <c r="G926" s="25" t="s">
+        <v>1152</v>
+      </c>
       <c r="H926" s="25" t="s">
         <v>1112</v>
       </c>
       <c r="I926" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J926" s="26"/>
+      <c r="J926" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K926" s="25"/>
       <c r="L926" s="25"/>
-      <c r="M926" s="25"/>
-      <c r="N926" s="25"/>
+      <c r="M926" s="25">
+        <v>0</v>
+      </c>
+      <c r="N926" s="25">
+        <v>0</v>
+      </c>
       <c r="O926" s="25"/>
     </row>
     <row r="927" spans="1:15">
@@ -46622,24 +46802,32 @@
         <v>14</v>
       </c>
       <c r="D927" s="25"/>
-      <c r="E927" s="19">
+      <c r="E927" s="6">
         <v>44152</v>
       </c>
-      <c r="F927" s="19">
+      <c r="F927" s="6">
         <v>44152</v>
       </c>
-      <c r="G927" s="25"/>
+      <c r="G927" s="25" t="s">
+        <v>1152</v>
+      </c>
       <c r="H927" s="25" t="s">
         <v>1112</v>
       </c>
       <c r="I927" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J927" s="26"/>
+      <c r="J927" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K927" s="25"/>
       <c r="L927" s="25"/>
-      <c r="M927" s="25"/>
-      <c r="N927" s="25"/>
+      <c r="M927" s="25">
+        <v>0</v>
+      </c>
+      <c r="N927" s="25">
+        <v>0</v>
+      </c>
       <c r="O927" s="25"/>
     </row>
     <row r="928" spans="1:15">
@@ -46653,24 +46841,32 @@
         <v>14</v>
       </c>
       <c r="D928" s="25"/>
-      <c r="E928" s="19">
+      <c r="E928" s="6">
         <v>44152</v>
       </c>
-      <c r="F928" s="19">
+      <c r="F928" s="6">
         <v>44152</v>
       </c>
-      <c r="G928" s="25"/>
+      <c r="G928" s="25" t="s">
+        <v>1152</v>
+      </c>
       <c r="H928" s="25" t="s">
         <v>1108</v>
       </c>
       <c r="I928" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J928" s="26"/>
+      <c r="J928" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K928" s="25"/>
       <c r="L928" s="25"/>
-      <c r="M928" s="25"/>
-      <c r="N928" s="25"/>
+      <c r="M928" s="25">
+        <v>0</v>
+      </c>
+      <c r="N928" s="25">
+        <v>0</v>
+      </c>
       <c r="O928" s="25"/>
     </row>
     <row r="929" spans="1:15">
@@ -46684,24 +46880,32 @@
         <v>14</v>
       </c>
       <c r="D929" s="25"/>
-      <c r="E929" s="19">
+      <c r="E929" s="6">
         <v>44152</v>
       </c>
-      <c r="F929" s="19">
+      <c r="F929" s="6">
         <v>44152</v>
       </c>
-      <c r="G929" s="25"/>
+      <c r="G929" s="25" t="s">
+        <v>1150</v>
+      </c>
       <c r="H929" s="25" t="s">
         <v>1109</v>
       </c>
       <c r="I929" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J929" s="26"/>
+      <c r="J929" s="26" t="s">
+        <v>135</v>
+      </c>
       <c r="K929" s="25"/>
       <c r="L929" s="25"/>
-      <c r="M929" s="25"/>
-      <c r="N929" s="25"/>
+      <c r="M929" s="25">
+        <v>0</v>
+      </c>
+      <c r="N929" s="25">
+        <v>0</v>
+      </c>
       <c r="O929" s="25"/>
     </row>
     <row r="930" spans="1:15">
@@ -46715,26 +46919,34 @@
         <v>14</v>
       </c>
       <c r="D930" s="25"/>
-      <c r="E930" s="19">
+      <c r="E930" s="6">
         <v>44152</v>
       </c>
-      <c r="F930" s="19">
+      <c r="F930" s="6">
         <v>44152</v>
       </c>
-      <c r="G930" s="25"/>
+      <c r="G930" s="25" t="s">
+        <v>1154</v>
+      </c>
       <c r="H930" s="25" t="s">
         <v>1147</v>
       </c>
       <c r="I930" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J930" s="26"/>
+      <c r="J930" s="26" t="s">
+        <v>37</v>
+      </c>
       <c r="K930" s="25" t="s">
         <v>604</v>
       </c>
       <c r="L930" s="25"/>
-      <c r="M930" s="25"/>
-      <c r="N930" s="25"/>
+      <c r="M930" s="25">
+        <v>0</v>
+      </c>
+      <c r="N930" s="25">
+        <v>0</v>
+      </c>
       <c r="O930" s="25"/>
     </row>
     <row r="931" spans="1:15">
@@ -46750,10 +46962,10 @@
       <c r="D931" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E931" s="19">
+      <c r="E931" s="6">
         <v>44152</v>
       </c>
-      <c r="F931" s="19">
+      <c r="F931" s="6">
         <v>44152</v>
       </c>
       <c r="G931" s="25" t="s">
@@ -46765,11 +46977,19 @@
       <c r="I931" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="J931" s="26"/>
-      <c r="K931" s="25"/>
+      <c r="J931" s="26" t="s">
+        <v>1158</v>
+      </c>
+      <c r="K931" s="25" t="s">
+        <v>604</v>
+      </c>
       <c r="L931" s="25"/>
-      <c r="M931" s="25"/>
-      <c r="N931" s="25"/>
+      <c r="M931" s="25">
+        <v>0</v>
+      </c>
+      <c r="N931" s="25">
+        <v>0</v>
+      </c>
       <c r="O931" s="25"/>
     </row>
     <row r="932" spans="1:15">
@@ -46785,10 +47005,10 @@
       <c r="D932" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="E932" s="19">
+      <c r="E932" s="6">
         <v>44152</v>
       </c>
-      <c r="F932" s="19">
+      <c r="F932" s="6">
         <v>44152</v>
       </c>
       <c r="G932" s="25" t="s">
@@ -46800,15 +47020,378 @@
       <c r="I932" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J932" s="26"/>
+      <c r="J932" s="26" t="s">
+        <v>1157</v>
+      </c>
       <c r="K932" s="25"/>
       <c r="L932" s="25"/>
-      <c r="M932" s="25"/>
-      <c r="N932" s="25"/>
+      <c r="M932" s="25">
+        <v>0</v>
+      </c>
+      <c r="N932" s="25">
+        <v>0</v>
+      </c>
       <c r="O932" s="25"/>
     </row>
+    <row r="933" spans="1:15">
+      <c r="A933" s="25">
+        <v>932</v>
+      </c>
+      <c r="B933" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C933" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D933" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E933" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F933" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G933" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H933" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="I933" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J933" s="26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K933" s="25"/>
+      <c r="L933" s="25"/>
+      <c r="M933" s="25">
+        <v>0</v>
+      </c>
+      <c r="N933" s="25">
+        <v>0</v>
+      </c>
+      <c r="O933" s="25"/>
+    </row>
+    <row r="934" spans="1:15">
+      <c r="A934" s="25">
+        <v>933</v>
+      </c>
+      <c r="B934" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C934" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D934" s="25" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E934" s="6">
+        <v>44152</v>
+      </c>
+      <c r="F934" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G934" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H934" s="25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I934" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J934" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K934" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="L934" s="25"/>
+      <c r="M934" s="25">
+        <v>0</v>
+      </c>
+      <c r="N934" s="25">
+        <v>0</v>
+      </c>
+      <c r="O934" s="25"/>
+    </row>
+    <row r="935" spans="1:15">
+      <c r="A935" s="25">
+        <v>934</v>
+      </c>
+      <c r="B935" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C935" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D935" s="25"/>
+      <c r="E935" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F935" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G935" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H935" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I935" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J935" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="K935" s="25"/>
+      <c r="L935" s="25"/>
+      <c r="M935" s="25">
+        <v>0</v>
+      </c>
+      <c r="N935" s="25">
+        <v>0</v>
+      </c>
+      <c r="O935" s="25"/>
+    </row>
+    <row r="936" spans="1:15">
+      <c r="A936" s="25">
+        <v>935</v>
+      </c>
+      <c r="B936" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C936" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D936" s="25"/>
+      <c r="E936" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F936" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G936" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H936" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I936" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J936" s="26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K936" s="25"/>
+      <c r="L936" s="25"/>
+      <c r="M936" s="25">
+        <v>0</v>
+      </c>
+      <c r="N936" s="25">
+        <v>0</v>
+      </c>
+      <c r="O936" s="25"/>
+    </row>
+    <row r="937" spans="1:15">
+      <c r="A937" s="25">
+        <v>936</v>
+      </c>
+      <c r="B937" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C937" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D937" s="25"/>
+      <c r="E937" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F937" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G937" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H937" s="25" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I937" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J937" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K937" s="25"/>
+      <c r="L937" s="25"/>
+      <c r="M937" s="25">
+        <v>0</v>
+      </c>
+      <c r="N937" s="25">
+        <v>0</v>
+      </c>
+      <c r="O937" s="25"/>
+    </row>
+    <row r="938" spans="1:15">
+      <c r="A938" s="25">
+        <v>937</v>
+      </c>
+      <c r="B938" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C938" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D938" s="25"/>
+      <c r="E938" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F938" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G938" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H938" s="25" t="s">
+        <v>1147</v>
+      </c>
+      <c r="I938" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J938" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K938" s="25"/>
+      <c r="L938" s="25"/>
+      <c r="M938" s="25">
+        <v>0</v>
+      </c>
+      <c r="N938" s="25">
+        <v>0</v>
+      </c>
+      <c r="O938" s="25"/>
+    </row>
+    <row r="939" spans="1:15">
+      <c r="A939" s="25">
+        <v>938</v>
+      </c>
+      <c r="B939" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C939" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D939" s="25"/>
+      <c r="E939" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F939" s="6">
+        <v>44152</v>
+      </c>
+      <c r="G939" s="25" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H939" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="I939" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J939" s="26" t="s">
+        <v>1157</v>
+      </c>
+      <c r="K939" s="25"/>
+      <c r="L939" s="25"/>
+      <c r="M939" s="25">
+        <v>0</v>
+      </c>
+      <c r="N939" s="25">
+        <v>0</v>
+      </c>
+      <c r="O939" s="25"/>
+    </row>
+    <row r="940" spans="1:15">
+      <c r="A940" s="25">
+        <v>939</v>
+      </c>
+      <c r="B940" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C940" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D940" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E940" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F940" s="6">
+        <v>44153</v>
+      </c>
+      <c r="G940" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="H940" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="I940" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J940" s="26"/>
+      <c r="K940" s="25"/>
+      <c r="L940" s="25"/>
+      <c r="M940" s="25">
+        <v>0</v>
+      </c>
+      <c r="N940" s="25">
+        <v>0</v>
+      </c>
+      <c r="O940" s="25"/>
+    </row>
+    <row r="941" spans="1:15">
+      <c r="A941" s="25">
+        <v>940</v>
+      </c>
+      <c r="B941" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C941" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D941" s="25" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E941" s="6">
+        <v>44153</v>
+      </c>
+      <c r="F941" s="6">
+        <v>44153</v>
+      </c>
+      <c r="G941" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H941" s="25" t="s">
+        <v>1162</v>
+      </c>
+      <c r="I941" s="25" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J941" s="26"/>
+      <c r="K941" s="25"/>
+      <c r="L941" s="25"/>
+      <c r="M941" s="25">
+        <v>0</v>
+      </c>
+      <c r="N941" s="25">
+        <v>0</v>
+      </c>
+      <c r="O941" s="25"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O932"/>
+  <autoFilter ref="A1:O939"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
-    <sheet name="1120陽性患者属性" sheetId="1" r:id="rId1"/>
+    <sheet name="1122陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1120陽性患者属性'!$A$1:$O$953</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1120陽性患者属性'!$A$1:$O$555</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1122陽性患者属性'!$A$1:$O$966</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'1122陽性患者属性'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5329" uniqueCount="1185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5419" uniqueCount="1201">
   <si>
     <t>No</t>
   </si>
@@ -8237,6 +8237,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="2">
+      <t>チュウトウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中等症</t>
+    <rPh sb="0" eb="3">
+      <t>チュウトウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>軽症</t>
     <rPh sb="0" eb="2">
       <t>ケイショウ</t>
@@ -8244,6 +8261,382 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合志市</t>
+    <rPh sb="0" eb="3">
+      <t>コウシシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>園児</t>
+    <rPh sb="0" eb="2">
+      <t>エンジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>団体職員</t>
+    <rPh sb="0" eb="2">
+      <t>ダンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉東町</t>
+    <rPh sb="0" eb="3">
+      <t>ギョクトウマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事務員</t>
+    <rPh sb="0" eb="3">
+      <t>ジムイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="3">
+      <t>アソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店経営</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市中央区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>チュウオウク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市長</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>アマクサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>10代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>調査中</t>
+    <rPh sb="0" eb="3">
+      <t>チョウサチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <rPh sb="0" eb="3">
+      <t>ジエイギョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>高校生</t>
+    <rPh sb="0" eb="3">
+      <t>コウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>中等症</t>
     <rPh sb="0" eb="2">
       <t>チュウトウ</t>
@@ -8254,9 +8647,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>中等症</t>
+    <t>熊本市</t>
     <rPh sb="0" eb="3">
-      <t>チュウトウショウ</t>
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>施設職員</t>
+    <rPh sb="0" eb="2">
+      <t>シセツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上天草市職員</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="1" eb="4">
+      <t>アマクサシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷川町</t>
+    <rPh sb="0" eb="3">
+      <t>ヒカワチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8268,6 +8728,267 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和水町</t>
+    <rPh sb="0" eb="3">
+      <t>ナゴミマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲食店従業員</t>
+    <rPh sb="0" eb="2">
+      <t>インショク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュウギョウイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長洲町</t>
+    <rPh sb="0" eb="2">
+      <t>ナガス</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="2">
+      <t>ヤツシロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="3">
+      <t>アソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>90代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>玉名市</t>
+    <rPh sb="0" eb="3">
+      <t>タマナシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天草市</t>
+    <rPh sb="0" eb="3">
+      <t>アマクサシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="3">
+      <t>アソシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>阿蘇市</t>
+    <rPh sb="0" eb="2">
+      <t>アソ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>和歌山県（苓北町）</t>
+    <rPh sb="0" eb="4">
+      <t>ワカヤマケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>レイホクマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>菊池市</t>
+    <rPh sb="0" eb="2">
+      <t>キクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>無症状</t>
     <rPh sb="0" eb="3">
       <t>ムショウジョウ</t>
@@ -8275,6 +8996,161 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>八代市</t>
+    <rPh sb="0" eb="3">
+      <t>ヤツシロシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男性</t>
+    <rPh sb="0" eb="2">
+      <t>ダンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>八代市職員</t>
+    <rPh sb="0" eb="2">
+      <t>ヤツシロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社役員</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学生</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市南区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミナミク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒガシク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女性</t>
+    <rPh sb="0" eb="2">
+      <t>ジョセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市北区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>玉名市</t>
     <rPh sb="0" eb="3">
       <t>タマナシ</t>
@@ -8282,26 +9158,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>合志市</t>
+    <t>荒尾市</t>
     <rPh sb="0" eb="3">
-      <t>コウシシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
+      <t>アラオシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>70代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8313,51 +9183,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>園児</t>
-    <rPh sb="0" eb="2">
-      <t>エンジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>20代</t>
     <rPh sb="2" eb="3">
       <t>ダイ</t>
@@ -8365,9 +9190,48 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
+    <t>会社役員</t>
+    <rPh sb="0" eb="4">
+      <t>カイシャヤクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自営業</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽症</t>
+    <rPh sb="0" eb="2">
+      <t>ケイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀県（大津町）</t>
+    <rPh sb="0" eb="3">
+      <t>サガケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>オオヅマチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8379,12 +9243,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>団体職員</t>
-    <rPh sb="0" eb="2">
-      <t>ダンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8392,764 +9253,6 @@
     <t>会社員</t>
     <rPh sb="0" eb="3">
       <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉東町</t>
-    <rPh sb="0" eb="3">
-      <t>ギョクトウマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事務員</t>
-    <rPh sb="0" eb="3">
-      <t>ジムイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阿蘇市</t>
-    <rPh sb="0" eb="3">
-      <t>アソシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店経営</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケイエイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市中央区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>チュウオウク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>アマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市長</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>アマクサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>10代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>調査中</t>
-    <rPh sb="0" eb="3">
-      <t>チョウサチュウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>自営業</t>
-    <rPh sb="0" eb="3">
-      <t>ジエイギョウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>高校生</t>
-    <rPh sb="0" eb="3">
-      <t>コウコウセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>アルバイト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>中等症</t>
-    <rPh sb="0" eb="2">
-      <t>チュウトウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>施設職員</t>
-    <rPh sb="0" eb="2">
-      <t>シセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上天草市職員</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="1" eb="4">
-      <t>アマクサシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>氷川町</t>
-    <rPh sb="0" eb="3">
-      <t>ヒカワチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和水町</t>
-    <rPh sb="0" eb="3">
-      <t>ナゴミマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>飲食店従業員</t>
-    <rPh sb="0" eb="2">
-      <t>インショク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ジュウギョウイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>長洲町</t>
-    <rPh sb="0" eb="2">
-      <t>ナガス</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="2">
-      <t>ヤツシロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阿蘇市</t>
-    <rPh sb="0" eb="3">
-      <t>アソシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>90代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>70代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>玉名市</t>
-    <rPh sb="0" eb="3">
-      <t>タマナシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>天草市</t>
-    <rPh sb="0" eb="3">
-      <t>アマクサシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阿蘇市</t>
-    <rPh sb="0" eb="3">
-      <t>アソシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>阿蘇市</t>
-    <rPh sb="0" eb="2">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>和歌山県（苓北町）</t>
-    <rPh sb="0" eb="4">
-      <t>ワカヤマケン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>レイホクマチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>菊池市</t>
-    <rPh sb="0" eb="2">
-      <t>キクチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>無症状</t>
-    <rPh sb="0" eb="3">
-      <t>ムショウジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市</t>
-    <rPh sb="0" eb="3">
-      <t>ヤツシロシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>80代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>50代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>男性</t>
-    <rPh sb="0" eb="2">
-      <t>ダンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>無職</t>
-    <rPh sb="0" eb="2">
-      <t>ムショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>八代市職員</t>
-    <rPh sb="0" eb="2">
-      <t>ヤツシロ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社役員</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヤクイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>大学生</t>
-    <rPh sb="0" eb="3">
-      <t>ダイガクセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>会社員</t>
-    <rPh sb="0" eb="3">
-      <t>カイシャイン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市南区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナミク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市東区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒガシク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>熊本市北区</t>
-    <rPh sb="0" eb="3">
-      <t>クマモトシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30代</t>
-    <rPh sb="2" eb="3">
-      <t>ダイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>女性</t>
-    <rPh sb="0" eb="2">
-      <t>ジョセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>軽症</t>
-    <rPh sb="0" eb="2">
-      <t>ケイショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9391,8 +9494,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -9478,8 +9582,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9765,13 +9870,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:O953"/>
+  <dimension ref="A1:O969"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B957" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J565" sqref="J565"/>
+      <selection pane="bottomRight" activeCell="E966" sqref="E966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
@@ -42053,7 +42158,7 @@
         <v>985</v>
       </c>
       <c r="K806" s="25" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="L806" s="25"/>
       <c r="M806" s="38">
@@ -42536,15 +42641,13 @@
       <c r="J818" s="26" t="s">
         <v>1010</v>
       </c>
-      <c r="K818" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="K818" s="25"/>
       <c r="L818" s="25"/>
       <c r="M818" s="38">
         <v>0</v>
       </c>
       <c r="N818" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O818" s="25"/>
     </row>
@@ -42783,7 +42886,7 @@
         <v>1047</v>
       </c>
       <c r="K824" s="25" t="s">
-        <v>1070</v>
+        <v>640</v>
       </c>
       <c r="L824" s="25"/>
       <c r="M824" s="38">
@@ -43432,15 +43535,13 @@
       <c r="J840" s="26" t="s">
         <v>1032</v>
       </c>
-      <c r="K840" s="25" t="s">
-        <v>604</v>
-      </c>
+      <c r="K840" s="25"/>
       <c r="L840" s="25"/>
       <c r="M840" s="38">
         <v>0</v>
       </c>
       <c r="N840" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O840" s="25"/>
     </row>
@@ -44121,15 +44222,13 @@
       <c r="J857" s="26" t="s">
         <v>1058</v>
       </c>
-      <c r="K857" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="K857" s="25"/>
       <c r="L857" s="25"/>
       <c r="M857" s="25">
         <v>0</v>
       </c>
       <c r="N857" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O857" s="25"/>
     </row>
@@ -44244,15 +44343,13 @@
       <c r="J860" s="26" t="s">
         <v>1065</v>
       </c>
-      <c r="K860" s="25" t="s">
-        <v>1069</v>
-      </c>
+      <c r="K860" s="25"/>
       <c r="L860" s="25"/>
       <c r="M860" s="25">
         <v>0</v>
       </c>
       <c r="N860" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O860" s="25"/>
     </row>
@@ -44288,7 +44385,7 @@
         <v>606</v>
       </c>
       <c r="K861" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L861" s="25"/>
       <c r="M861" s="25">
@@ -44358,7 +44455,7 @@
         <v>44146</v>
       </c>
       <c r="G863" s="25" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H863" s="25" t="s">
         <v>454</v>
@@ -44367,17 +44464,15 @@
         <v>131</v>
       </c>
       <c r="J863" s="26" t="s">
-        <v>1080</v>
-      </c>
-      <c r="K863" s="25" t="s">
-        <v>1073</v>
-      </c>
+        <v>1078</v>
+      </c>
+      <c r="K863" s="25"/>
       <c r="L863" s="25"/>
       <c r="M863" s="25">
         <v>0</v>
       </c>
       <c r="N863" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O863" s="25"/>
     </row>
@@ -44399,26 +44494,24 @@
         <v>44146</v>
       </c>
       <c r="G864" s="25" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="H864" s="25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I864" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J864" s="26" t="s">
-        <v>1076</v>
-      </c>
-      <c r="K864" s="25" t="s">
-        <v>642</v>
-      </c>
+        <v>1074</v>
+      </c>
+      <c r="K864" s="25"/>
       <c r="L864" s="25"/>
       <c r="M864" s="25">
         <v>0</v>
       </c>
       <c r="N864" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O864" s="25"/>
     </row>
@@ -44440,26 +44533,24 @@
         <v>44146</v>
       </c>
       <c r="G865" s="25" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H865" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I865" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J865" s="26" t="s">
-        <v>1077</v>
-      </c>
-      <c r="K865" s="25" t="s">
-        <v>1072</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="K865" s="25"/>
       <c r="L865" s="25"/>
       <c r="M865" s="25">
         <v>0</v>
       </c>
       <c r="N865" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O865" s="25"/>
     </row>
@@ -44474,7 +44565,7 @@
         <v>14</v>
       </c>
       <c r="D866" s="25" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E866" s="19">
         <v>44146</v>
@@ -44483,16 +44574,16 @@
         <v>44146</v>
       </c>
       <c r="G866" s="25" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H866" s="25" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I866" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J866" s="26" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K866" s="25"/>
       <c r="L866" s="25"/>
@@ -44500,7 +44591,7 @@
         <v>0</v>
       </c>
       <c r="N866" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O866" s="25"/>
     </row>
@@ -44515,7 +44606,7 @@
         <v>14</v>
       </c>
       <c r="D867" s="25" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E867" s="19">
         <v>44146</v>
@@ -44524,16 +44615,16 @@
         <v>44146</v>
       </c>
       <c r="G867" s="25" t="s">
+        <v>1081</v>
+      </c>
+      <c r="H867" s="25" t="s">
         <v>1083</v>
-      </c>
-      <c r="H867" s="25" t="s">
-        <v>1085</v>
       </c>
       <c r="I867" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J867" s="26" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K867" s="25"/>
       <c r="L867" s="25"/>
@@ -44556,7 +44647,7 @@
         <v>14</v>
       </c>
       <c r="D868" s="25" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E868" s="19">
         <v>44146</v>
@@ -44565,10 +44656,10 @@
         <v>44146</v>
       </c>
       <c r="G868" s="25" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="H868" s="25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I868" s="25" t="s">
         <v>131</v>
@@ -44599,7 +44690,7 @@
         <v>14</v>
       </c>
       <c r="D869" s="25" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E869" s="19">
         <v>44147</v>
@@ -44608,16 +44699,16 @@
         <v>44146</v>
       </c>
       <c r="G869" s="25" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="H869" s="25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I869" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J869" s="26" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K869" s="25"/>
       <c r="L869" s="25"/>
@@ -44650,23 +44741,21 @@
         <v>164</v>
       </c>
       <c r="H870" s="25" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="I870" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J870" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K870" s="25" t="s">
-        <v>1072</v>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="K870" s="25"/>
       <c r="L870" s="25"/>
       <c r="M870" s="25">
         <v>0</v>
       </c>
       <c r="N870" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O870" s="25"/>
     </row>
@@ -44691,7 +44780,7 @@
         <v>164</v>
       </c>
       <c r="H871" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I871" s="25" t="s">
         <v>103</v>
@@ -44700,7 +44789,7 @@
         <v>37</v>
       </c>
       <c r="K871" s="25" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L871" s="25"/>
       <c r="M871" s="25">
@@ -44732,7 +44821,7 @@
         <v>164</v>
       </c>
       <c r="H872" s="25" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I872" s="25" t="s">
         <v>131</v>
@@ -44741,7 +44830,7 @@
         <v>37</v>
       </c>
       <c r="K872" s="25" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="L872" s="25"/>
       <c r="M872" s="25">
@@ -44773,23 +44862,21 @@
         <v>164</v>
       </c>
       <c r="H873" s="25" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="I873" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J873" s="26" t="s">
-        <v>1088</v>
-      </c>
-      <c r="K873" s="25" t="s">
-        <v>1072</v>
-      </c>
+        <v>1086</v>
+      </c>
+      <c r="K873" s="25"/>
       <c r="L873" s="25"/>
       <c r="M873" s="25">
         <v>0</v>
       </c>
       <c r="N873" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O873" s="25"/>
     </row>
@@ -44814,23 +44901,21 @@
         <v>164</v>
       </c>
       <c r="H874" s="25" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="I874" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J874" s="26" t="s">
-        <v>1089</v>
-      </c>
-      <c r="K874" s="25" t="s">
-        <v>640</v>
-      </c>
+        <v>1087</v>
+      </c>
+      <c r="K874" s="25"/>
       <c r="L874" s="25"/>
       <c r="M874" s="25">
         <v>0</v>
       </c>
       <c r="N874" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O874" s="25"/>
     </row>
@@ -44855,7 +44940,7 @@
         <v>164</v>
       </c>
       <c r="H875" s="25" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I875" s="25" t="s">
         <v>131</v>
@@ -44863,15 +44948,13 @@
       <c r="J875" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K875" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="K875" s="25"/>
       <c r="L875" s="25"/>
       <c r="M875" s="25">
         <v>0</v>
       </c>
       <c r="N875" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O875" s="25"/>
     </row>
@@ -44893,16 +44976,16 @@
         <v>44147</v>
       </c>
       <c r="G876" s="25" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="H876" s="25" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="I876" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J876" s="26" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="K876" s="38" t="s">
         <v>604</v>
@@ -44927,7 +45010,7 @@
         <v>14</v>
       </c>
       <c r="D877" s="25" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="E877" s="19">
         <v>44147</v>
@@ -44939,23 +45022,21 @@
         <v>114</v>
       </c>
       <c r="H877" s="25" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="I877" s="25" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J877" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="K877" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="K877" s="25"/>
       <c r="L877" s="25"/>
       <c r="M877" s="25">
         <v>0</v>
       </c>
       <c r="N877" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O877" s="25"/>
     </row>
@@ -44982,10 +45063,10 @@
         <v>119</v>
       </c>
       <c r="H878" s="25" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="I878" s="25" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="J878" s="26" t="s">
         <v>40</v>
@@ -45023,23 +45104,21 @@
         <v>101</v>
       </c>
       <c r="H879" s="25" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I879" s="25" t="s">
         <v>1093</v>
-      </c>
-      <c r="I879" s="25" t="s">
-        <v>1095</v>
       </c>
       <c r="J879" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K879" s="25" t="s">
-        <v>640</v>
-      </c>
+      <c r="K879" s="25"/>
       <c r="L879" s="25"/>
       <c r="M879" s="25">
         <v>0</v>
       </c>
       <c r="N879" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O879" s="25"/>
     </row>
@@ -45070,10 +45149,10 @@
         <v>131</v>
       </c>
       <c r="J880" s="26" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="K880" s="25" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="L880" s="25"/>
       <c r="M880" s="25">
@@ -45111,17 +45190,15 @@
         <v>131</v>
       </c>
       <c r="J881" s="26" t="s">
-        <v>1102</v>
-      </c>
-      <c r="K881" s="25" t="s">
-        <v>1122</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="K881" s="25"/>
       <c r="L881" s="25"/>
       <c r="M881" s="25">
         <v>0</v>
       </c>
       <c r="N881" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O881" s="25"/>
     </row>
@@ -45152,7 +45229,7 @@
         <v>103</v>
       </c>
       <c r="J882" s="26" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="K882" s="25" t="s">
         <v>640</v>
@@ -45195,15 +45272,13 @@
       <c r="J883" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K883" s="25" t="s">
-        <v>1122</v>
-      </c>
+      <c r="K883" s="25"/>
       <c r="L883" s="25"/>
       <c r="M883" s="25">
         <v>0</v>
       </c>
       <c r="N883" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O883" s="25"/>
     </row>
@@ -45225,7 +45300,7 @@
         <v>44147</v>
       </c>
       <c r="G884" s="25" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="H884" s="25" t="s">
         <v>122</v>
@@ -45278,7 +45353,7 @@
         <v>132</v>
       </c>
       <c r="K885" s="25" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="L885" s="25"/>
       <c r="M885" s="25">
@@ -45360,7 +45435,7 @@
         <v>159</v>
       </c>
       <c r="K887" s="25" t="s">
-        <v>1132</v>
+        <v>604</v>
       </c>
       <c r="L887" s="25"/>
       <c r="M887" s="25">
@@ -45391,13 +45466,13 @@
         <v>44148</v>
       </c>
       <c r="G888" s="25" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H888" s="25" t="s">
         <v>852</v>
       </c>
       <c r="I888" s="25" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="J888" s="26" t="s">
         <v>47</v>
@@ -45432,7 +45507,7 @@
         <v>44148</v>
       </c>
       <c r="G889" s="25" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="H889" s="25" t="s">
         <v>752</v>
@@ -45444,7 +45519,7 @@
         <v>606</v>
       </c>
       <c r="K889" s="25" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="L889" s="25"/>
       <c r="M889" s="25">
@@ -45482,7 +45557,7 @@
         <v>103</v>
       </c>
       <c r="J890" s="26" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="K890" s="25"/>
       <c r="L890" s="25"/>
@@ -45515,23 +45590,21 @@
         <v>197</v>
       </c>
       <c r="H891" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I891" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J891" s="26" t="s">
-        <v>1117</v>
-      </c>
-      <c r="K891" s="25" t="s">
-        <v>642</v>
-      </c>
+        <v>1115</v>
+      </c>
+      <c r="K891" s="25"/>
       <c r="L891" s="25"/>
       <c r="M891" s="25">
         <v>0</v>
       </c>
       <c r="N891" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O891" s="25"/>
     </row>
@@ -45556,13 +45629,13 @@
         <v>162</v>
       </c>
       <c r="H892" s="25" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I892" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J892" s="26" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="K892" s="25" t="s">
         <v>640</v>
@@ -45594,16 +45667,16 @@
         <v>44148</v>
       </c>
       <c r="G893" s="25" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="H893" s="25" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="I893" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J893" s="26" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="K893" s="25"/>
       <c r="L893" s="25"/>
@@ -45633,7 +45706,7 @@
         <v>44148</v>
       </c>
       <c r="G894" s="25" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="H894" s="25" t="s">
         <v>752</v>
@@ -45675,16 +45748,16 @@
         <v>164</v>
       </c>
       <c r="H895" s="25" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="I895" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J895" s="26" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K895" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L895" s="25"/>
       <c r="M895" s="25">
@@ -45716,16 +45789,16 @@
         <v>164</v>
       </c>
       <c r="H896" s="25" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I896" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J896" s="26" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="K896" s="25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L896" s="25"/>
       <c r="M896" s="25">
@@ -45757,16 +45830,16 @@
         <v>164</v>
       </c>
       <c r="H897" s="25" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="I897" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J897" s="26" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="K897" s="25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L897" s="25"/>
       <c r="M897" s="25">
@@ -45795,16 +45868,16 @@
         <v>44148</v>
       </c>
       <c r="G898" s="25" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H898" s="25" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I898" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J898" s="26" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K898" s="25"/>
       <c r="L898" s="25"/>
@@ -45846,7 +45919,7 @@
         <v>264</v>
       </c>
       <c r="K899" s="25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L899" s="25"/>
       <c r="M899" s="25">
@@ -45919,7 +45992,7 @@
         <v>314</v>
       </c>
       <c r="H901" s="25" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="I901" s="25" t="s">
         <v>131</v>
@@ -45958,16 +46031,16 @@
         <v>197</v>
       </c>
       <c r="H902" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I902" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J902" s="26" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="K902" s="25" t="s">
-        <v>640</v>
+        <v>1069</v>
       </c>
       <c r="L902" s="25"/>
       <c r="M902" s="25">
@@ -45989,7 +46062,7 @@
         <v>14</v>
       </c>
       <c r="D903" s="25" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="E903" s="19">
         <v>44149</v>
@@ -46007,7 +46080,7 @@
         <v>131</v>
       </c>
       <c r="J903" s="26" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="K903" s="25"/>
       <c r="L903" s="25"/>
@@ -46015,7 +46088,7 @@
         <v>0</v>
       </c>
       <c r="N903" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O903" s="25"/>
     </row>
@@ -46048,7 +46121,7 @@
         <v>131</v>
       </c>
       <c r="J904" s="26" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="K904" s="25"/>
       <c r="L904" s="25"/>
@@ -46078,7 +46151,7 @@
         <v>44149</v>
       </c>
       <c r="G905" s="25" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H905" s="25" t="s">
         <v>121</v>
@@ -46087,10 +46160,10 @@
         <v>131</v>
       </c>
       <c r="J905" s="26" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="K905" s="25" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="L905" s="25"/>
       <c r="M905" s="25">
@@ -46128,10 +46201,10 @@
         <v>131</v>
       </c>
       <c r="J906" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K906" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L906" s="25"/>
       <c r="M906" s="25">
@@ -46169,7 +46242,7 @@
         <v>131</v>
       </c>
       <c r="J907" s="26" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="K907" s="25" t="s">
         <v>640</v>
@@ -46254,7 +46327,7 @@
         <v>37</v>
       </c>
       <c r="K909" s="25" t="s">
-        <v>1184</v>
+        <v>1069</v>
       </c>
       <c r="L909" s="25"/>
       <c r="M909" s="25">
@@ -46283,7 +46356,7 @@
         <v>44149</v>
       </c>
       <c r="G910" s="25" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H910" s="25" t="s">
         <v>122</v>
@@ -46292,10 +46365,10 @@
         <v>131</v>
       </c>
       <c r="J910" s="26" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="K910" s="25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L910" s="25"/>
       <c r="M910" s="25">
@@ -46324,7 +46397,7 @@
         <v>44149</v>
       </c>
       <c r="G911" s="25" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H911" s="25" t="s">
         <v>127</v>
@@ -46374,7 +46447,7 @@
         <v>131</v>
       </c>
       <c r="J912" s="26" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="K912" s="25"/>
       <c r="L912" s="25"/>
@@ -46413,7 +46486,7 @@
         <v>131</v>
       </c>
       <c r="J913" s="26" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="K913" s="25" t="s">
         <v>640</v>
@@ -46438,7 +46511,7 @@
         <v>14</v>
       </c>
       <c r="D914" s="25" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="E914" s="19">
         <v>44150</v>
@@ -46456,7 +46529,7 @@
         <v>103</v>
       </c>
       <c r="J914" s="26" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="K914" s="25"/>
       <c r="L914" s="25"/>
@@ -46581,10 +46654,10 @@
         <v>131</v>
       </c>
       <c r="J917" s="26" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="K917" s="25" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="L917" s="25"/>
       <c r="M917" s="25">
@@ -46613,16 +46686,16 @@
         <v>44150</v>
       </c>
       <c r="G918" s="25" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H918" s="25" t="s">
         <v>128</v>
       </c>
       <c r="I918" s="25" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J918" s="26" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K918" s="25" t="s">
         <v>604</v>
@@ -46654,18 +46727,20 @@
         <v>44150</v>
       </c>
       <c r="G919" s="25" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="H919" s="25" t="s">
         <v>752</v>
       </c>
       <c r="I919" s="25" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="J919" s="26" t="s">
-        <v>1136</v>
-      </c>
-      <c r="K919" s="25"/>
+        <v>1134</v>
+      </c>
+      <c r="K919" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="L919" s="25"/>
       <c r="M919" s="25">
         <v>0</v>
@@ -46695,16 +46770,16 @@
         <v>44151</v>
       </c>
       <c r="G920" s="25" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H920" s="25" t="s">
         <v>123</v>
       </c>
       <c r="I920" s="25" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="J920" s="26" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="K920" s="25" t="s">
         <v>640</v>
@@ -46736,16 +46811,16 @@
         <v>44152</v>
       </c>
       <c r="G921" s="25" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H921" s="25" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I921" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J921" s="26" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="K921" s="25" t="s">
         <v>640</v>
@@ -46780,13 +46855,13 @@
         <v>164</v>
       </c>
       <c r="H922" s="25" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="I922" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J922" s="26" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="K922" s="25" t="s">
         <v>604</v>
@@ -46818,7 +46893,7 @@
         <v>44152</v>
       </c>
       <c r="G923" s="25" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H923" s="25" t="s">
         <v>580</v>
@@ -46859,10 +46934,10 @@
         <v>44152</v>
       </c>
       <c r="G924" s="25" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H924" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I924" s="25" t="s">
         <v>131</v>
@@ -46871,14 +46946,14 @@
         <v>37</v>
       </c>
       <c r="K924" s="25" t="s">
-        <v>640</v>
+        <v>36</v>
       </c>
       <c r="L924" s="25"/>
       <c r="M924" s="25">
         <v>0</v>
       </c>
       <c r="N924" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O924" s="25"/>
     </row>
@@ -46900,10 +46975,10 @@
         <v>44152</v>
       </c>
       <c r="G925" s="25" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="H925" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I925" s="25" t="s">
         <v>103</v>
@@ -46911,7 +46986,9 @@
       <c r="J925" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K925" s="25"/>
+      <c r="K925" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="L925" s="25"/>
       <c r="M925" s="25">
         <v>0</v>
@@ -46939,10 +47016,10 @@
         <v>44152</v>
       </c>
       <c r="G926" s="25" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H926" s="25" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I926" s="25" t="s">
         <v>103</v>
@@ -46980,10 +47057,10 @@
         <v>44152</v>
       </c>
       <c r="G927" s="25" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H927" s="25" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="I927" s="25" t="s">
         <v>131</v>
@@ -47021,10 +47098,10 @@
         <v>44152</v>
       </c>
       <c r="G928" s="25" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="H928" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I928" s="25" t="s">
         <v>103</v>
@@ -47033,7 +47110,7 @@
         <v>37</v>
       </c>
       <c r="K928" s="25" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="L928" s="25"/>
       <c r="M928" s="25">
@@ -47062,10 +47139,10 @@
         <v>44152</v>
       </c>
       <c r="G929" s="25" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="H929" s="25" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I929" s="25" t="s">
         <v>103</v>
@@ -47101,10 +47178,10 @@
         <v>44152</v>
       </c>
       <c r="G930" s="25" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H930" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I930" s="25" t="s">
         <v>131</v>
@@ -47145,13 +47222,13 @@
         <v>111</v>
       </c>
       <c r="H931" s="25" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I931" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J931" s="26" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="K931" s="25" t="s">
         <v>604</v>
@@ -47194,7 +47271,7 @@
         <v>131</v>
       </c>
       <c r="J932" s="26" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K932" s="25"/>
       <c r="L932" s="25"/>
@@ -47202,7 +47279,7 @@
         <v>0</v>
       </c>
       <c r="N932" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O932" s="25"/>
     </row>
@@ -47235,11 +47312,9 @@
         <v>131</v>
       </c>
       <c r="J933" s="26" t="s">
-        <v>1156</v>
-      </c>
-      <c r="K933" s="25" t="s">
-        <v>640</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="K933" s="25"/>
       <c r="L933" s="25"/>
       <c r="M933" s="25">
         <v>0</v>
@@ -47251,7 +47326,7 @@
     </row>
     <row r="934" spans="1:15">
       <c r="A934" s="25">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B934" s="25">
         <v>430005</v>
@@ -47260,7 +47335,7 @@
         <v>14</v>
       </c>
       <c r="D934" s="25" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="E934" s="19">
         <v>44152</v>
@@ -47272,7 +47347,7 @@
         <v>80</v>
       </c>
       <c r="H934" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I934" s="25" t="s">
         <v>131</v>
@@ -47313,7 +47388,7 @@
         <v>164</v>
       </c>
       <c r="H935" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I935" s="25" t="s">
         <v>103</v>
@@ -47352,13 +47427,13 @@
         <v>164</v>
       </c>
       <c r="H936" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I936" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J936" s="26" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K936" s="25" t="s">
         <v>640</v>
@@ -47393,7 +47468,7 @@
         <v>164</v>
       </c>
       <c r="H937" s="25" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I937" s="25" t="s">
         <v>103</v>
@@ -47432,7 +47507,7 @@
         <v>186</v>
       </c>
       <c r="H938" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I938" s="25" t="s">
         <v>131</v>
@@ -47470,7 +47545,7 @@
         <v>44152</v>
       </c>
       <c r="G939" s="25" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="H939" s="25" t="s">
         <v>580</v>
@@ -47479,7 +47554,7 @@
         <v>103</v>
       </c>
       <c r="J939" s="26" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K939" s="25"/>
       <c r="L939" s="25"/>
@@ -47502,7 +47577,7 @@
         <v>14</v>
       </c>
       <c r="D940" s="25" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E940" s="19">
         <v>44153</v>
@@ -47514,16 +47589,16 @@
         <v>114</v>
       </c>
       <c r="H940" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I940" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J940" s="26" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="K940" s="25" t="s">
-        <v>1162</v>
+        <v>604</v>
       </c>
       <c r="L940" s="25"/>
       <c r="M940" s="25">
@@ -47536,7 +47611,7 @@
     </row>
     <row r="941" spans="1:15">
       <c r="A941" s="25">
-        <v>930</v>
+        <v>940</v>
       </c>
       <c r="B941" s="25">
         <v>430005</v>
@@ -47545,7 +47620,7 @@
         <v>14</v>
       </c>
       <c r="D941" s="25" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="E941" s="19">
         <v>44153</v>
@@ -47557,16 +47632,16 @@
         <v>111</v>
       </c>
       <c r="H941" s="25" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I941" s="25" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J941" s="26" t="s">
         <v>37</v>
       </c>
       <c r="K941" s="25" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="L941" s="25"/>
       <c r="M941" s="25">
@@ -47600,16 +47675,16 @@
         <v>114</v>
       </c>
       <c r="H942" s="25" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="I942" s="25" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="J942" s="26" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="K942" s="25" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="L942" s="25"/>
       <c r="M942" s="25">
@@ -47640,7 +47715,7 @@
         <v>44154</v>
       </c>
       <c r="G943" s="25" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="H943" s="25" t="s">
         <v>580</v>
@@ -47649,7 +47724,7 @@
         <v>131</v>
       </c>
       <c r="J943" s="26" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="K943" s="25" t="s">
         <v>640</v>
@@ -47686,15 +47761,17 @@
         <v>576</v>
       </c>
       <c r="H944" s="25" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="I944" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J944" s="26" t="s">
-        <v>1176</v>
-      </c>
-      <c r="K944" s="25"/>
+        <v>1173</v>
+      </c>
+      <c r="K944" s="25" t="s">
+        <v>604</v>
+      </c>
       <c r="L944" s="25"/>
       <c r="M944" s="25">
         <v>0</v>
@@ -47727,15 +47804,17 @@
         <v>576</v>
       </c>
       <c r="H945" s="25" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="I945" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J945" s="26" t="s">
-        <v>1172</v>
-      </c>
-      <c r="K945" s="25"/>
+        <v>1169</v>
+      </c>
+      <c r="K945" s="25" t="s">
+        <v>1194</v>
+      </c>
       <c r="L945" s="25"/>
       <c r="M945" s="25">
         <v>0</v>
@@ -47768,7 +47847,7 @@
         <v>584</v>
       </c>
       <c r="H946" s="25" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I946" s="25" t="s">
         <v>103</v>
@@ -47776,7 +47855,9 @@
       <c r="J946" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K946" s="25"/>
+      <c r="K946" s="25" t="s">
+        <v>640</v>
+      </c>
       <c r="L946" s="25"/>
       <c r="M946" s="25">
         <v>0</v>
@@ -47798,22 +47879,22 @@
       </c>
       <c r="D947" s="25"/>
       <c r="E947" s="19">
+        <v>44155</v>
+      </c>
+      <c r="F947" s="19">
         <v>44154</v>
-      </c>
-      <c r="F947" s="19">
-        <v>44155</v>
       </c>
       <c r="G947" s="25" t="s">
         <v>164</v>
       </c>
       <c r="H947" s="25" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="I947" s="25" t="s">
         <v>103</v>
       </c>
       <c r="J947" s="26" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="K947" s="25"/>
       <c r="L947" s="25"/>
@@ -47837,25 +47918,25 @@
       </c>
       <c r="D948" s="25"/>
       <c r="E948" s="19">
+        <v>44155</v>
+      </c>
+      <c r="F948" s="19">
         <v>44154</v>
       </c>
-      <c r="F948" s="19">
-        <v>44155</v>
-      </c>
       <c r="G948" s="25" t="s">
+        <v>1165</v>
+      </c>
+      <c r="H948" s="25" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I948" s="25" t="s">
         <v>1168</v>
       </c>
-      <c r="H948" s="25" t="s">
+      <c r="J948" s="26" t="s">
         <v>1170</v>
       </c>
-      <c r="I948" s="25" t="s">
-        <v>1171</v>
-      </c>
-      <c r="J948" s="26" t="s">
-        <v>1173</v>
-      </c>
       <c r="K948" s="25" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="L948" s="25"/>
       <c r="M948" s="25">
@@ -47878,22 +47959,22 @@
       </c>
       <c r="D949" s="25"/>
       <c r="E949" s="19">
+        <v>44155</v>
+      </c>
+      <c r="F949" s="19">
         <v>44154</v>
-      </c>
-      <c r="F949" s="19">
-        <v>44155</v>
       </c>
       <c r="G949" s="25" t="s">
         <v>162</v>
       </c>
       <c r="H949" s="25" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="I949" s="25" t="s">
         <v>131</v>
       </c>
       <c r="J949" s="26" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="K949" s="25" t="s">
         <v>640</v>
@@ -47927,16 +48008,20 @@
         <v>44155</v>
       </c>
       <c r="G950" s="25" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H950" s="25" t="s">
         <v>1177</v>
       </c>
-      <c r="H950" s="25" t="s">
+      <c r="I950" s="25" t="s">
         <v>1180</v>
       </c>
-      <c r="I950" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J950" s="26"/>
-      <c r="K950" s="25"/>
+      <c r="J950" s="26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K950" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="L950" s="25"/>
       <c r="M950" s="25">
         <v>0</v>
@@ -47966,15 +48051,17 @@
         <v>44155</v>
       </c>
       <c r="G951" s="25" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="H951" s="25" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I951" s="25" t="s">
         <v>1180</v>
       </c>
-      <c r="I951" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J951" s="26"/>
+      <c r="J951" s="26" t="s">
+        <v>1196</v>
+      </c>
       <c r="K951" s="25"/>
       <c r="L951" s="25"/>
       <c r="M951" s="25">
@@ -48008,13 +48095,17 @@
         <v>196</v>
       </c>
       <c r="H952" s="25" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I952" s="25" t="s">
-        <v>1183</v>
-      </c>
-      <c r="J952" s="26"/>
-      <c r="K952" s="25"/>
+        <v>1180</v>
+      </c>
+      <c r="J952" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K952" s="25" t="s">
+        <v>640</v>
+      </c>
       <c r="L952" s="25"/>
       <c r="M952" s="25">
         <v>0</v>
@@ -48044,16 +48135,20 @@
         <v>44155</v>
       </c>
       <c r="G953" s="25" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H953" s="25" t="s">
         <v>1179</v>
-      </c>
-      <c r="H953" s="25" t="s">
-        <v>1182</v>
       </c>
       <c r="I953" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="J953" s="26"/>
-      <c r="K953" s="25"/>
+      <c r="J953" s="26" t="s">
+        <v>1195</v>
+      </c>
+      <c r="K953" s="25" t="s">
+        <v>642</v>
+      </c>
       <c r="L953" s="25"/>
       <c r="M953" s="25">
         <v>0</v>
@@ -48063,8 +48158,662 @@
       </c>
       <c r="O953" s="25"/>
     </row>
+    <row r="954" spans="1:15">
+      <c r="A954" s="25">
+        <v>953</v>
+      </c>
+      <c r="B954" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C954" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D954" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E954" s="19">
+        <v>44155</v>
+      </c>
+      <c r="F954" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G954" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H954" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I954" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J954" s="26" t="s">
+        <v>1191</v>
+      </c>
+      <c r="K954" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L954" s="25"/>
+      <c r="M954" s="25">
+        <v>0</v>
+      </c>
+      <c r="N954" s="25">
+        <v>0</v>
+      </c>
+      <c r="O954" s="25"/>
+    </row>
+    <row r="955" spans="1:15">
+      <c r="A955" s="25">
+        <v>954</v>
+      </c>
+      <c r="B955" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C955" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D955" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E955" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F955" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G955" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H955" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I955" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J955" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K955" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="L955" s="25"/>
+      <c r="M955" s="25">
+        <v>0</v>
+      </c>
+      <c r="N955" s="25">
+        <v>0</v>
+      </c>
+      <c r="O955" s="25"/>
+    </row>
+    <row r="956" spans="1:15">
+      <c r="A956" s="25">
+        <v>955</v>
+      </c>
+      <c r="B956" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C956" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D956" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E956" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F956" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G956" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H956" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I956" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J956" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="K956" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L956" s="25"/>
+      <c r="M956" s="25">
+        <v>0</v>
+      </c>
+      <c r="N956" s="25">
+        <v>0</v>
+      </c>
+      <c r="O956" s="25"/>
+    </row>
+    <row r="957" spans="1:15">
+      <c r="A957" s="25">
+        <v>956</v>
+      </c>
+      <c r="B957" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C957" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D957" s="25"/>
+      <c r="E957" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F957" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G957" s="25" t="s">
+        <v>1185</v>
+      </c>
+      <c r="H957" s="25" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I957" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J957" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K957" s="25"/>
+      <c r="L957" s="25"/>
+      <c r="M957" s="25">
+        <v>0</v>
+      </c>
+      <c r="N957" s="25">
+        <v>0</v>
+      </c>
+      <c r="O957" s="25"/>
+    </row>
+    <row r="958" spans="1:15">
+      <c r="A958" s="25">
+        <v>957</v>
+      </c>
+      <c r="B958" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C958" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D958" s="25"/>
+      <c r="E958" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F958" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G958" s="25" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H958" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I958" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J958" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K958" s="25"/>
+      <c r="L958" s="25"/>
+      <c r="M958" s="25">
+        <v>0</v>
+      </c>
+      <c r="N958" s="25">
+        <v>0</v>
+      </c>
+      <c r="O958" s="25"/>
+    </row>
+    <row r="959" spans="1:15">
+      <c r="A959" s="25">
+        <v>958</v>
+      </c>
+      <c r="B959" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C959" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D959" s="25"/>
+      <c r="E959" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F959" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G959" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H959" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I959" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J959" s="26" t="s">
+        <v>1170</v>
+      </c>
+      <c r="K959" s="25"/>
+      <c r="L959" s="25"/>
+      <c r="M959" s="25">
+        <v>0</v>
+      </c>
+      <c r="N959" s="25">
+        <v>0</v>
+      </c>
+      <c r="O959" s="25"/>
+    </row>
+    <row r="960" spans="1:15">
+      <c r="A960" s="25">
+        <v>959</v>
+      </c>
+      <c r="B960" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C960" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D960" s="25"/>
+      <c r="E960" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F960" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G960" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H960" s="25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I960" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J960" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K960" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L960" s="25"/>
+      <c r="M960" s="25">
+        <v>0</v>
+      </c>
+      <c r="N960" s="25">
+        <v>0</v>
+      </c>
+      <c r="O960" s="25"/>
+    </row>
+    <row r="961" spans="1:15">
+      <c r="A961" s="25">
+        <v>960</v>
+      </c>
+      <c r="B961" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C961" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D961" s="25"/>
+      <c r="E961" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F961" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G961" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H961" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I961" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J961" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K961" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L961" s="25"/>
+      <c r="M961" s="25">
+        <v>0</v>
+      </c>
+      <c r="N961" s="25">
+        <v>0</v>
+      </c>
+      <c r="O961" s="25"/>
+    </row>
+    <row r="962" spans="1:15">
+      <c r="A962" s="25">
+        <v>961</v>
+      </c>
+      <c r="B962" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C962" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D962" s="25"/>
+      <c r="E962" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F962" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G962" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H962" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I962" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J962" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K962" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L962" s="25"/>
+      <c r="M962" s="25">
+        <v>0</v>
+      </c>
+      <c r="N962" s="25">
+        <v>0</v>
+      </c>
+      <c r="O962" s="25"/>
+    </row>
+    <row r="963" spans="1:15">
+      <c r="A963" s="25">
+        <v>962</v>
+      </c>
+      <c r="B963" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C963" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D963" s="25"/>
+      <c r="E963" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F963" s="19">
+        <v>44155</v>
+      </c>
+      <c r="G963" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H963" s="25" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I963" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J963" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K963" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="L963" s="25"/>
+      <c r="M963" s="25">
+        <v>0</v>
+      </c>
+      <c r="N963" s="25">
+        <v>0</v>
+      </c>
+      <c r="O963" s="25"/>
+    </row>
+    <row r="964" spans="1:15">
+      <c r="A964" s="25">
+        <v>963</v>
+      </c>
+      <c r="B964" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C964" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D964" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E964" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F964" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G964" s="25" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H964" s="25" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I964" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J964" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="K964" s="25" t="s">
+        <v>640</v>
+      </c>
+      <c r="L964" s="25"/>
+      <c r="M964" s="25">
+        <v>0</v>
+      </c>
+      <c r="N964" s="25">
+        <v>0</v>
+      </c>
+      <c r="O964" s="25"/>
+    </row>
+    <row r="965" spans="1:15">
+      <c r="A965" s="25">
+        <v>964</v>
+      </c>
+      <c r="B965" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C965" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D965" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E965" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F965" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G965" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="H965" s="25" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I965" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J965" s="26" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K965" s="25" t="s">
+        <v>604</v>
+      </c>
+      <c r="L965" s="25"/>
+      <c r="M965" s="25">
+        <v>0</v>
+      </c>
+      <c r="N965" s="25">
+        <v>0</v>
+      </c>
+      <c r="O965" s="25"/>
+    </row>
+    <row r="966" spans="1:15">
+      <c r="A966" s="25">
+        <v>965</v>
+      </c>
+      <c r="B966" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C966" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D966" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E966" s="19">
+        <v>44156</v>
+      </c>
+      <c r="F966" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G966" s="25" t="s">
+        <v>1182</v>
+      </c>
+      <c r="H966" s="25" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I966" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J966" s="26" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K966" s="25"/>
+      <c r="L966" s="25"/>
+      <c r="M966" s="25">
+        <v>0</v>
+      </c>
+      <c r="N966" s="25">
+        <v>1</v>
+      </c>
+      <c r="O966" s="25"/>
+    </row>
+    <row r="967" spans="1:15">
+      <c r="A967" s="25">
+        <v>966</v>
+      </c>
+      <c r="B967" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C967" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D967" s="25"/>
+      <c r="E967" s="19">
+        <v>44157</v>
+      </c>
+      <c r="F967" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G967" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H967" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I967" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J967" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K967" s="25"/>
+      <c r="L967" s="25"/>
+      <c r="M967" s="25">
+        <v>0</v>
+      </c>
+      <c r="N967" s="25">
+        <v>0</v>
+      </c>
+      <c r="O967" s="25"/>
+    </row>
+    <row r="968" spans="1:15">
+      <c r="A968" s="25">
+        <v>967</v>
+      </c>
+      <c r="B968" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C968" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D968" s="25"/>
+      <c r="E968" s="19">
+        <v>44157</v>
+      </c>
+      <c r="F968" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G968" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="H968" s="25" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I968" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="J968" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K968" s="25"/>
+      <c r="L968" s="25"/>
+      <c r="M968" s="25">
+        <v>0</v>
+      </c>
+      <c r="N968" s="25">
+        <v>0</v>
+      </c>
+      <c r="O968" s="25"/>
+    </row>
+    <row r="969" spans="1:15">
+      <c r="A969" s="25">
+        <v>968</v>
+      </c>
+      <c r="B969" s="25">
+        <v>430005</v>
+      </c>
+      <c r="C969" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D969" s="25"/>
+      <c r="E969" s="19">
+        <v>44157</v>
+      </c>
+      <c r="F969" s="19">
+        <v>44156</v>
+      </c>
+      <c r="G969" s="25" t="s">
+        <v>1197</v>
+      </c>
+      <c r="H969" s="25" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I969" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J969" s="26" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K969" s="25"/>
+      <c r="L969" s="25"/>
+      <c r="M969" s="25">
+        <v>0</v>
+      </c>
+      <c r="N969" s="25">
+        <v>0</v>
+      </c>
+      <c r="O969" s="25"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:O953"/>
+  <autoFilter ref="A1:O966"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/kanja.xlsx
+++ b/kanja.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="1123陽性患者属性" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1123陽性患者属性'!$A$1:$O$976</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'1123陽性患者属性'!$A$831:$O$976</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'1123陽性患者属性'!$A$1:$O$979</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'1123陽性患者属性'!$A$895:$O$979</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'1123陽性患者属性'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="1209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5470" uniqueCount="1215">
   <si>
     <t>No</t>
   </si>
@@ -9178,6 +9178,107 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルバイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐賀県（大津町）</t>
+    <rPh sb="0" eb="3">
+      <t>サガケン</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>オオヅマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60代</t>
+    <rPh sb="2" eb="3">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社員</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市</t>
+    <rPh sb="0" eb="3">
+      <t>クマモトシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無症状</t>
+    <rPh sb="0" eb="3">
+      <t>ムショウジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熊本市東区</t>
+    <rPh sb="0"